--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_v2_template.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_v2_template.xlsx
@@ -129,7 +129,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -148,12 +148,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ ゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
@@ -166,7 +160,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,6 +191,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="75">
     <border>
@@ -1147,10 +1147,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1265,15 +1265,6 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1367,15 +1358,6 @@
     <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1391,15 +1373,6 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1439,9 +1412,6 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1454,40 +1424,13 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1496,9 +1439,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1556,11 +1496,50 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1568,9 +1547,6 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="68" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1580,110 +1556,149 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2201,10 +2216,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:W97"/>
+  <dimension ref="A1:X97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleSheetLayoutView="175" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="175" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5" defaultRowHeight="9" customHeight="1"/>
@@ -2213,36 +2228,42 @@
     <col min="3" max="4" width="9.1640625" style="1" customWidth="1"/>
     <col min="5" max="9" width="6.5" style="1"/>
     <col min="10" max="10" width="7.1640625" style="1" customWidth="1"/>
-    <col min="11" max="24" width="7.1640625" style="2" customWidth="1"/>
+    <col min="11" max="22" width="7.1640625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="7.1640625" style="32" customWidth="1"/>
+    <col min="24" max="24" width="6.5" style="32"/>
     <col min="25" max="16384" width="6.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" ht="12" customHeight="1">
-      <c r="A2" s="170"/>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170"/>
-      <c r="K2" s="170"/>
-      <c r="L2" s="170"/>
-      <c r="M2" s="170"/>
-      <c r="N2" s="170"/>
-      <c r="O2" s="170"/>
-      <c r="P2" s="170"/>
-      <c r="Q2" s="170"/>
-      <c r="R2" s="170"/>
-      <c r="S2" s="170"/>
-      <c r="T2" s="170"/>
-      <c r="U2" s="170"/>
-      <c r="V2" s="170"/>
-      <c r="W2" s="170"/>
-    </row>
-    <row r="3" spans="1:23" ht="9" customHeight="1">
+    <row r="1" spans="1:24" ht="9" customHeight="1">
+      <c r="X1" s="140"/>
+    </row>
+    <row r="2" spans="1:24" ht="12" customHeight="1">
+      <c r="A2" s="143"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="143"/>
+      <c r="N2" s="143"/>
+      <c r="O2" s="143"/>
+      <c r="P2" s="143"/>
+      <c r="Q2" s="143"/>
+      <c r="R2" s="143"/>
+      <c r="S2" s="143"/>
+      <c r="T2" s="143"/>
+      <c r="U2" s="143"/>
+      <c r="V2" s="143"/>
+      <c r="W2" s="143"/>
+      <c r="X2" s="140"/>
+    </row>
+    <row r="3" spans="1:24" ht="9" customHeight="1" thickBot="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2266,19 +2287,20 @@
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
-    </row>
-    <row r="4" spans="1:23" ht="12" customHeight="1">
+      <c r="X3" s="140"/>
+    </row>
+    <row r="4" spans="1:24" ht="12" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="171"/>
-      <c r="F4" s="172"/>
-      <c r="G4" s="172"/>
-      <c r="H4" s="172"/>
-      <c r="I4" s="173"/>
-      <c r="J4" s="174"/>
-      <c r="K4" s="175"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="148"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -2290,9 +2312,9 @@
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
-      <c r="W4" s="137"/>
-    </row>
-    <row r="5" spans="1:23" ht="12" customHeight="1">
+      <c r="W4" s="130"/>
+    </row>
+    <row r="5" spans="1:24" ht="12" customHeight="1" thickBot="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
@@ -2301,173 +2323,173 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="70"/>
-      <c r="T5" s="70"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
-      <c r="W5" s="138"/>
-    </row>
-    <row r="6" spans="1:23" ht="12" customHeight="1">
-      <c r="A6" s="176"/>
-      <c r="B6" s="176"/>
-      <c r="C6" s="176"/>
-      <c r="D6" s="176"/>
-      <c r="E6" s="176"/>
-      <c r="F6" s="176"/>
-      <c r="G6" s="176"/>
-      <c r="H6" s="176"/>
-      <c r="I6" s="176"/>
-      <c r="J6" s="176"/>
-      <c r="K6" s="176"/>
-      <c r="L6" s="176"/>
-      <c r="M6" s="176"/>
-      <c r="N6" s="176"/>
-      <c r="O6" s="176"/>
-      <c r="P6" s="176"/>
-      <c r="Q6" s="176"/>
-      <c r="R6" s="176"/>
-      <c r="S6" s="176"/>
-      <c r="T6" s="176"/>
-      <c r="U6" s="176"/>
-      <c r="V6" s="176"/>
-      <c r="W6" s="176"/>
-    </row>
-    <row r="7" spans="1:23" ht="9" customHeight="1">
-      <c r="A7" s="177"/>
-      <c r="B7" s="177"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="67"/>
+      <c r="T5" s="67"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
+      <c r="W5" s="131"/>
+    </row>
+    <row r="6" spans="1:24" ht="12" customHeight="1" thickBot="1">
+      <c r="A6" s="149"/>
+      <c r="B6" s="149"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="149"/>
+      <c r="E6" s="149"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
+      <c r="H6" s="149"/>
+      <c r="I6" s="149"/>
+      <c r="J6" s="149"/>
+      <c r="K6" s="149"/>
+      <c r="L6" s="149"/>
+      <c r="M6" s="149"/>
+      <c r="N6" s="149"/>
+      <c r="O6" s="149"/>
+      <c r="P6" s="149"/>
+      <c r="Q6" s="149"/>
+      <c r="R6" s="149"/>
+      <c r="S6" s="149"/>
+      <c r="T6" s="149"/>
+      <c r="U6" s="149"/>
+      <c r="V6" s="149"/>
+      <c r="W6" s="149"/>
+    </row>
+    <row r="7" spans="1:24" ht="9" customHeight="1">
+      <c r="A7" s="150"/>
+      <c r="B7" s="150"/>
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
       <c r="E7" s="12"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="74"/>
-      <c r="S7" s="74"/>
-      <c r="T7" s="74"/>
-      <c r="U7" s="74"/>
-      <c r="V7" s="74"/>
-      <c r="W7" s="139"/>
-    </row>
-    <row r="8" spans="1:23" ht="9" customHeight="1">
-      <c r="A8" s="168"/>
-      <c r="B8" s="168"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="155"/>
+      <c r="K7" s="156"/>
+      <c r="L7" s="157"/>
+      <c r="M7" s="157"/>
+      <c r="N7" s="157"/>
+      <c r="O7" s="157"/>
+      <c r="P7" s="157"/>
+      <c r="Q7" s="157"/>
+      <c r="R7" s="157"/>
+      <c r="S7" s="157"/>
+      <c r="T7" s="157"/>
+      <c r="U7" s="157"/>
+      <c r="V7" s="157"/>
+      <c r="W7" s="158"/>
+    </row>
+    <row r="8" spans="1:24" ht="9" customHeight="1">
+      <c r="A8" s="151"/>
+      <c r="B8" s="151"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
       <c r="E8" s="16"/>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="79"/>
-      <c r="N8" s="78"/>
-      <c r="O8" s="78"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="78"/>
-      <c r="R8" s="78"/>
-      <c r="S8" s="78"/>
-      <c r="T8" s="78"/>
-      <c r="U8" s="78"/>
-      <c r="V8" s="78"/>
-      <c r="W8" s="140"/>
-    </row>
-    <row r="9" spans="1:23" ht="9" customHeight="1">
-      <c r="A9" s="169"/>
-      <c r="B9" s="169"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="72"/>
+      <c r="U8" s="72"/>
+      <c r="V8" s="72"/>
+      <c r="W8" s="132"/>
+    </row>
+    <row r="9" spans="1:24" ht="9" customHeight="1">
+      <c r="A9" s="152"/>
+      <c r="B9" s="152"/>
       <c r="C9" s="14"/>
       <c r="D9" s="19"/>
       <c r="E9" s="20"/>
       <c r="F9" s="21"/>
       <c r="G9" s="22"/>
       <c r="H9" s="23"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="82"/>
-      <c r="O9" s="82"/>
-      <c r="P9" s="82"/>
-      <c r="Q9" s="82"/>
-      <c r="R9" s="82"/>
-      <c r="S9" s="82"/>
-      <c r="T9" s="82"/>
-      <c r="U9" s="82"/>
-      <c r="V9" s="82"/>
-      <c r="W9" s="141"/>
-    </row>
-    <row r="10" spans="1:23" ht="9" customHeight="1">
-      <c r="A10" s="168"/>
-      <c r="B10" s="168"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="159"/>
+      <c r="K9" s="160"/>
+      <c r="L9" s="161"/>
+      <c r="M9" s="161"/>
+      <c r="N9" s="161"/>
+      <c r="O9" s="161"/>
+      <c r="P9" s="161"/>
+      <c r="Q9" s="161"/>
+      <c r="R9" s="161"/>
+      <c r="S9" s="161"/>
+      <c r="T9" s="161"/>
+      <c r="U9" s="161"/>
+      <c r="V9" s="153"/>
+      <c r="W9" s="133"/>
+    </row>
+    <row r="10" spans="1:24" ht="9" customHeight="1">
+      <c r="A10" s="151"/>
+      <c r="B10" s="151"/>
       <c r="C10" s="14"/>
       <c r="D10" s="24"/>
       <c r="E10" s="16"/>
       <c r="F10" s="21"/>
       <c r="G10" s="22"/>
       <c r="H10" s="23"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="79"/>
-      <c r="P10" s="79"/>
-      <c r="Q10" s="79"/>
-      <c r="R10" s="79"/>
-      <c r="S10" s="79"/>
-      <c r="T10" s="79"/>
-      <c r="U10" s="79"/>
-      <c r="V10" s="79"/>
-      <c r="W10" s="142"/>
-    </row>
-    <row r="11" spans="1:23" ht="9" customHeight="1">
-      <c r="A11" s="168"/>
-      <c r="B11" s="168"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="73"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="73"/>
+      <c r="T10" s="73"/>
+      <c r="U10" s="73"/>
+      <c r="V10" s="73"/>
+      <c r="W10" s="134"/>
+    </row>
+    <row r="11" spans="1:24" ht="9" customHeight="1">
+      <c r="A11" s="151"/>
+      <c r="B11" s="151"/>
       <c r="C11" s="14"/>
       <c r="D11" s="15"/>
       <c r="E11" s="25"/>
       <c r="F11" s="26"/>
       <c r="G11" s="27"/>
       <c r="H11" s="28"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="86"/>
-      <c r="N11" s="86"/>
-      <c r="O11" s="86"/>
-      <c r="P11" s="86"/>
-      <c r="Q11" s="86"/>
-      <c r="R11" s="86"/>
-      <c r="S11" s="86"/>
-      <c r="T11" s="86"/>
-      <c r="U11" s="86"/>
-      <c r="V11" s="86"/>
-      <c r="W11" s="141"/>
-    </row>
-    <row r="12" spans="1:23" ht="9" customHeight="1">
+      <c r="I11" s="69"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="77"/>
+      <c r="P11" s="77"/>
+      <c r="Q11" s="77"/>
+      <c r="R11" s="77"/>
+      <c r="S11" s="77"/>
+      <c r="T11" s="77"/>
+      <c r="U11" s="77"/>
+      <c r="V11" s="77"/>
+      <c r="W11" s="133"/>
+    </row>
+    <row r="12" spans="1:24" ht="9" customHeight="1">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
       <c r="C12" s="29"/>
@@ -2476,48 +2498,48 @@
       <c r="F12" s="26"/>
       <c r="G12" s="27"/>
       <c r="H12" s="28"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="88"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="63"/>
-      <c r="R12" s="63"/>
-      <c r="S12" s="63"/>
-      <c r="T12" s="63"/>
-      <c r="U12" s="63"/>
-      <c r="V12" s="63"/>
-      <c r="W12" s="143"/>
-    </row>
-    <row r="13" spans="1:23" ht="9" customHeight="1">
+      <c r="I12" s="69"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="60"/>
+      <c r="T12" s="60"/>
+      <c r="U12" s="60"/>
+      <c r="V12" s="60"/>
+      <c r="W12" s="128"/>
+    </row>
+    <row r="13" spans="1:24" ht="9" customHeight="1">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
-      <c r="C13" s="164"/>
-      <c r="D13" s="165"/>
+      <c r="C13" s="141"/>
+      <c r="D13" s="142"/>
       <c r="E13" s="30"/>
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
       <c r="H13" s="31"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="144"/>
-    </row>
-    <row r="14" spans="1:23" ht="9" customHeight="1">
+      <c r="I13" s="80"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="55"/>
+      <c r="T13" s="55"/>
+      <c r="U13" s="154"/>
+      <c r="V13" s="55"/>
+      <c r="W13" s="135"/>
+    </row>
+    <row r="14" spans="1:24" ht="9" customHeight="1">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="33"/>
@@ -2526,71 +2548,71 @@
       <c r="F14" s="36"/>
       <c r="G14" s="36"/>
       <c r="H14" s="36"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="95"/>
-      <c r="N14" s="95"/>
-      <c r="O14" s="95"/>
-      <c r="P14" s="95"/>
-      <c r="Q14" s="95"/>
-      <c r="R14" s="95"/>
-      <c r="S14" s="95"/>
-      <c r="T14" s="95"/>
-      <c r="U14" s="95"/>
-      <c r="V14" s="95"/>
-      <c r="W14" s="145"/>
-    </row>
-    <row r="15" spans="1:23" ht="9" customHeight="1">
+      <c r="I14" s="83"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="86"/>
+      <c r="Q14" s="86"/>
+      <c r="R14" s="86"/>
+      <c r="S14" s="86"/>
+      <c r="T14" s="86"/>
+      <c r="U14" s="86"/>
+      <c r="V14" s="86"/>
+      <c r="W14" s="136"/>
+    </row>
+    <row r="15" spans="1:24" ht="9" customHeight="1">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
-      <c r="C15" s="164"/>
-      <c r="D15" s="165"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="142"/>
       <c r="E15" s="35"/>
       <c r="F15" s="36"/>
       <c r="G15" s="36"/>
       <c r="H15" s="36"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="96"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="46"/>
-      <c r="W15" s="145"/>
-    </row>
-    <row r="16" spans="1:23" ht="9" customHeight="1">
+      <c r="I15" s="83"/>
+      <c r="J15" s="162"/>
+      <c r="K15" s="163"/>
+      <c r="L15" s="164"/>
+      <c r="M15" s="164"/>
+      <c r="N15" s="164"/>
+      <c r="O15" s="164"/>
+      <c r="P15" s="164"/>
+      <c r="Q15" s="164"/>
+      <c r="R15" s="164"/>
+      <c r="S15" s="164"/>
+      <c r="T15" s="164"/>
+      <c r="U15" s="164"/>
+      <c r="V15" s="165"/>
+      <c r="W15" s="136"/>
+    </row>
+    <row r="16" spans="1:24" ht="9" customHeight="1">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
-      <c r="C16" s="164"/>
-      <c r="D16" s="165"/>
+      <c r="C16" s="141"/>
+      <c r="D16" s="142"/>
       <c r="E16" s="30"/>
       <c r="F16" s="31"/>
       <c r="G16" s="31"/>
       <c r="H16" s="31"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="58"/>
-      <c r="Q16" s="58"/>
-      <c r="R16" s="58"/>
-      <c r="S16" s="58"/>
-      <c r="T16" s="58"/>
-      <c r="U16" s="58"/>
-      <c r="V16" s="58"/>
-      <c r="W16" s="144"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="119"/>
+      <c r="L16" s="120"/>
+      <c r="M16" s="120"/>
+      <c r="N16" s="120"/>
+      <c r="O16" s="120"/>
+      <c r="P16" s="120"/>
+      <c r="Q16" s="120"/>
+      <c r="R16" s="120"/>
+      <c r="S16" s="120"/>
+      <c r="T16" s="120"/>
+      <c r="U16" s="120"/>
+      <c r="V16" s="120"/>
+      <c r="W16" s="137"/>
     </row>
     <row r="17" spans="1:23" ht="9" customHeight="1">
       <c r="A17" s="32"/>
@@ -2601,1739 +2623,1923 @@
       <c r="F17" s="36"/>
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="100"/>
-      <c r="N17" s="100"/>
-      <c r="O17" s="100"/>
-      <c r="P17" s="100"/>
-      <c r="Q17" s="100"/>
-      <c r="R17" s="100"/>
-      <c r="S17" s="100"/>
-      <c r="T17" s="100"/>
-      <c r="U17" s="100"/>
-      <c r="V17" s="100"/>
-      <c r="W17" s="145"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="166"/>
+      <c r="K17" s="153"/>
+      <c r="L17" s="161"/>
+      <c r="M17" s="161"/>
+      <c r="N17" s="161"/>
+      <c r="O17" s="161"/>
+      <c r="P17" s="161"/>
+      <c r="Q17" s="161"/>
+      <c r="R17" s="161"/>
+      <c r="S17" s="161"/>
+      <c r="T17" s="161"/>
+      <c r="U17" s="161"/>
+      <c r="V17" s="161"/>
+      <c r="W17" s="167"/>
     </row>
     <row r="18" spans="1:23" ht="9" customHeight="1">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
-      <c r="C18" s="166"/>
-      <c r="D18" s="167"/>
+      <c r="C18" s="141"/>
+      <c r="D18" s="142"/>
       <c r="E18" s="37"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="101"/>
-      <c r="K18" s="102"/>
-      <c r="L18" s="103"/>
-      <c r="M18" s="103"/>
-      <c r="N18" s="103"/>
-      <c r="O18" s="103"/>
-      <c r="P18" s="103"/>
-      <c r="Q18" s="103"/>
-      <c r="R18" s="103"/>
-      <c r="S18" s="103"/>
-      <c r="T18" s="103"/>
-      <c r="U18" s="103"/>
-      <c r="V18" s="103"/>
-      <c r="W18" s="146"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="119"/>
+      <c r="L18" s="120"/>
+      <c r="M18" s="120"/>
+      <c r="N18" s="120"/>
+      <c r="O18" s="120"/>
+      <c r="P18" s="120"/>
+      <c r="Q18" s="120"/>
+      <c r="R18" s="120"/>
+      <c r="S18" s="120"/>
+      <c r="T18" s="120"/>
+      <c r="U18" s="120"/>
+      <c r="V18" s="120"/>
+      <c r="W18" s="137"/>
     </row>
     <row r="19" spans="1:23" ht="9" customHeight="1">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="104"/>
-      <c r="J19" s="105"/>
-      <c r="K19" s="106"/>
-      <c r="L19" s="107"/>
-      <c r="M19" s="107"/>
-      <c r="N19" s="107"/>
-      <c r="O19" s="107"/>
-      <c r="P19" s="107"/>
-      <c r="Q19" s="107"/>
-      <c r="R19" s="107"/>
-      <c r="S19" s="107"/>
-      <c r="T19" s="107"/>
-      <c r="U19" s="107"/>
-      <c r="V19" s="107"/>
-      <c r="W19" s="147"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="168"/>
+      <c r="K19" s="169"/>
+      <c r="L19" s="170"/>
+      <c r="M19" s="170"/>
+      <c r="N19" s="170"/>
+      <c r="O19" s="170"/>
+      <c r="P19" s="170"/>
+      <c r="Q19" s="170"/>
+      <c r="R19" s="170"/>
+      <c r="S19" s="170"/>
+      <c r="T19" s="170"/>
+      <c r="U19" s="170"/>
+      <c r="V19" s="170"/>
+      <c r="W19" s="171"/>
     </row>
     <row r="20" spans="1:23" ht="9" customHeight="1">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="104"/>
-      <c r="J20" s="108"/>
-      <c r="K20" s="109"/>
-      <c r="L20" s="110"/>
-      <c r="M20" s="110"/>
-      <c r="N20" s="110"/>
-      <c r="O20" s="110"/>
-      <c r="P20" s="110"/>
-      <c r="Q20" s="110"/>
-      <c r="R20" s="110"/>
-      <c r="S20" s="110"/>
-      <c r="T20" s="110"/>
-      <c r="U20" s="110"/>
-      <c r="V20" s="110"/>
-      <c r="W20" s="143"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="113"/>
+      <c r="L20" s="114"/>
+      <c r="M20" s="114"/>
+      <c r="N20" s="114"/>
+      <c r="O20" s="114"/>
+      <c r="P20" s="114"/>
+      <c r="Q20" s="114"/>
+      <c r="R20" s="114"/>
+      <c r="S20" s="114"/>
+      <c r="T20" s="114"/>
+      <c r="U20" s="114"/>
+      <c r="V20" s="114"/>
+      <c r="W20" s="132"/>
     </row>
     <row r="21" spans="1:23" ht="9" customHeight="1">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="111"/>
-      <c r="J21" s="105"/>
-      <c r="K21" s="106"/>
-      <c r="L21" s="107"/>
-      <c r="M21" s="107"/>
-      <c r="N21" s="107"/>
-      <c r="O21" s="107"/>
-      <c r="P21" s="107"/>
-      <c r="Q21" s="107"/>
-      <c r="R21" s="107"/>
-      <c r="S21" s="107"/>
-      <c r="T21" s="107"/>
-      <c r="U21" s="107"/>
-      <c r="V21" s="107"/>
-      <c r="W21" s="143"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="166"/>
+      <c r="K21" s="153"/>
+      <c r="L21" s="161"/>
+      <c r="M21" s="161"/>
+      <c r="N21" s="161"/>
+      <c r="O21" s="161"/>
+      <c r="P21" s="161"/>
+      <c r="Q21" s="161"/>
+      <c r="R21" s="161"/>
+      <c r="S21" s="161"/>
+      <c r="T21" s="161"/>
+      <c r="U21" s="161"/>
+      <c r="V21" s="161"/>
+      <c r="W21" s="167"/>
     </row>
     <row r="22" spans="1:23" ht="9" customHeight="1">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
-      <c r="C22" s="164"/>
-      <c r="D22" s="165"/>
+      <c r="C22" s="141"/>
+      <c r="D22" s="142"/>
       <c r="E22" s="37"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="91"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="58"/>
-      <c r="Q22" s="58"/>
-      <c r="R22" s="58"/>
-      <c r="S22" s="58"/>
-      <c r="T22" s="58"/>
-      <c r="U22" s="58"/>
-      <c r="V22" s="58"/>
-      <c r="W22" s="144"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="119"/>
+      <c r="L22" s="120"/>
+      <c r="M22" s="120"/>
+      <c r="N22" s="120"/>
+      <c r="O22" s="120"/>
+      <c r="P22" s="120"/>
+      <c r="Q22" s="120"/>
+      <c r="R22" s="120"/>
+      <c r="S22" s="120"/>
+      <c r="T22" s="120"/>
+      <c r="U22" s="120"/>
+      <c r="V22" s="120"/>
+      <c r="W22" s="137"/>
     </row>
     <row r="23" spans="1:23" ht="9" customHeight="1">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="113"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="78"/>
-      <c r="M23" s="78"/>
-      <c r="N23" s="78"/>
-      <c r="O23" s="78"/>
-      <c r="P23" s="78"/>
-      <c r="Q23" s="78"/>
-      <c r="R23" s="78"/>
-      <c r="S23" s="78"/>
-      <c r="T23" s="78"/>
-      <c r="U23" s="78"/>
-      <c r="V23" s="78"/>
-      <c r="W23" s="140"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="91"/>
+      <c r="J23" s="168"/>
+      <c r="K23" s="169"/>
+      <c r="L23" s="170"/>
+      <c r="M23" s="170"/>
+      <c r="N23" s="170"/>
+      <c r="O23" s="170"/>
+      <c r="P23" s="170"/>
+      <c r="Q23" s="170"/>
+      <c r="R23" s="170"/>
+      <c r="S23" s="170"/>
+      <c r="T23" s="170"/>
+      <c r="U23" s="170"/>
+      <c r="V23" s="170"/>
+      <c r="W23" s="171"/>
     </row>
     <row r="24" spans="1:23" ht="9" customHeight="1">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="111"/>
-      <c r="J24" s="114"/>
-      <c r="K24" s="115"/>
-      <c r="L24" s="116"/>
-      <c r="M24" s="116"/>
-      <c r="N24" s="116"/>
-      <c r="O24" s="116"/>
-      <c r="P24" s="116"/>
-      <c r="Q24" s="116"/>
-      <c r="R24" s="116"/>
-      <c r="S24" s="116"/>
-      <c r="T24" s="116"/>
-      <c r="U24" s="116"/>
-      <c r="V24" s="148"/>
-      <c r="W24" s="141"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="113"/>
+      <c r="L24" s="114"/>
+      <c r="M24" s="114"/>
+      <c r="N24" s="114"/>
+      <c r="O24" s="114"/>
+      <c r="P24" s="114"/>
+      <c r="Q24" s="114"/>
+      <c r="R24" s="114"/>
+      <c r="S24" s="114"/>
+      <c r="T24" s="114"/>
+      <c r="U24" s="114"/>
+      <c r="V24" s="114"/>
+      <c r="W24" s="132"/>
     </row>
     <row r="25" spans="1:23" ht="9" customHeight="1">
       <c r="A25" s="18"/>
       <c r="B25" s="18"/>
       <c r="C25" s="33"/>
       <c r="D25" s="34"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="117"/>
-      <c r="J25" s="93"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="100"/>
-      <c r="M25" s="100"/>
-      <c r="N25" s="100"/>
-      <c r="O25" s="100"/>
-      <c r="P25" s="100"/>
-      <c r="Q25" s="100"/>
-      <c r="R25" s="100"/>
-      <c r="S25" s="100"/>
-      <c r="T25" s="100"/>
-      <c r="U25" s="100"/>
-      <c r="V25" s="100"/>
-      <c r="W25" s="149"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="97"/>
+      <c r="J25" s="166"/>
+      <c r="K25" s="153"/>
+      <c r="L25" s="161"/>
+      <c r="M25" s="161"/>
+      <c r="N25" s="161"/>
+      <c r="O25" s="161"/>
+      <c r="P25" s="161"/>
+      <c r="Q25" s="161"/>
+      <c r="R25" s="161"/>
+      <c r="S25" s="161"/>
+      <c r="T25" s="161"/>
+      <c r="U25" s="161"/>
+      <c r="V25" s="161"/>
+      <c r="W25" s="167"/>
     </row>
     <row r="26" spans="1:23" ht="9" customHeight="1">
       <c r="A26" s="18"/>
       <c r="B26" s="18"/>
-      <c r="C26" s="164"/>
-      <c r="D26" s="165"/>
+      <c r="C26" s="141"/>
+      <c r="D26" s="142"/>
       <c r="E26" s="37"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="118"/>
-      <c r="J26" s="90"/>
-      <c r="K26" s="91"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="58"/>
-      <c r="P26" s="58"/>
-      <c r="Q26" s="58"/>
-      <c r="R26" s="58"/>
-      <c r="S26" s="58"/>
-      <c r="T26" s="58"/>
-      <c r="U26" s="58"/>
-      <c r="V26" s="150"/>
-      <c r="W26" s="151"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="98"/>
+      <c r="J26" s="118"/>
+      <c r="K26" s="119"/>
+      <c r="L26" s="120"/>
+      <c r="M26" s="120"/>
+      <c r="N26" s="120"/>
+      <c r="O26" s="120"/>
+      <c r="P26" s="120"/>
+      <c r="Q26" s="120"/>
+      <c r="R26" s="120"/>
+      <c r="S26" s="120"/>
+      <c r="T26" s="120"/>
+      <c r="U26" s="120"/>
+      <c r="V26" s="120"/>
+      <c r="W26" s="137"/>
     </row>
     <row r="27" spans="1:23" ht="9" customHeight="1">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="111"/>
-      <c r="J27" s="113"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="78"/>
-      <c r="M27" s="78"/>
-      <c r="N27" s="78"/>
-      <c r="O27" s="78"/>
-      <c r="P27" s="78"/>
-      <c r="Q27" s="78"/>
-      <c r="R27" s="78"/>
-      <c r="S27" s="78"/>
-      <c r="T27" s="78"/>
-      <c r="U27" s="78"/>
-      <c r="V27" s="78"/>
-      <c r="W27" s="152"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="168"/>
+      <c r="K27" s="169"/>
+      <c r="L27" s="170"/>
+      <c r="M27" s="170"/>
+      <c r="N27" s="170"/>
+      <c r="O27" s="170"/>
+      <c r="P27" s="170"/>
+      <c r="Q27" s="170"/>
+      <c r="R27" s="170"/>
+      <c r="S27" s="170"/>
+      <c r="T27" s="170"/>
+      <c r="U27" s="170"/>
+      <c r="V27" s="170"/>
+      <c r="W27" s="171"/>
     </row>
     <row r="28" spans="1:23" ht="9" customHeight="1">
       <c r="A28" s="18"/>
       <c r="B28" s="18"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="111"/>
-      <c r="J28" s="114"/>
-      <c r="K28" s="115"/>
-      <c r="L28" s="116"/>
-      <c r="M28" s="116"/>
-      <c r="N28" s="116"/>
-      <c r="O28" s="116"/>
-      <c r="P28" s="116"/>
-      <c r="Q28" s="116"/>
-      <c r="R28" s="116"/>
-      <c r="S28" s="116"/>
-      <c r="T28" s="116"/>
-      <c r="U28" s="116"/>
-      <c r="V28" s="116"/>
-      <c r="W28" s="143"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="108"/>
+      <c r="K28" s="113"/>
+      <c r="L28" s="114"/>
+      <c r="M28" s="114"/>
+      <c r="N28" s="114"/>
+      <c r="O28" s="114"/>
+      <c r="P28" s="114"/>
+      <c r="Q28" s="114"/>
+      <c r="R28" s="114"/>
+      <c r="S28" s="114"/>
+      <c r="T28" s="114"/>
+      <c r="U28" s="114"/>
+      <c r="V28" s="114"/>
+      <c r="W28" s="132"/>
     </row>
     <row r="29" spans="1:23" ht="9" customHeight="1">
       <c r="A29" s="18"/>
       <c r="B29" s="18"/>
       <c r="C29" s="33"/>
       <c r="D29" s="34"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="117"/>
-      <c r="J29" s="93"/>
-      <c r="K29" s="99"/>
-      <c r="L29" s="100"/>
-      <c r="M29" s="100"/>
-      <c r="N29" s="100"/>
-      <c r="O29" s="100"/>
-      <c r="P29" s="100"/>
-      <c r="Q29" s="100"/>
-      <c r="R29" s="100"/>
-      <c r="S29" s="100"/>
-      <c r="T29" s="100"/>
-      <c r="U29" s="100"/>
-      <c r="V29" s="100"/>
-      <c r="W29" s="149"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="97"/>
+      <c r="J29" s="166"/>
+      <c r="K29" s="153"/>
+      <c r="L29" s="161"/>
+      <c r="M29" s="161"/>
+      <c r="N29" s="161"/>
+      <c r="O29" s="161"/>
+      <c r="P29" s="161"/>
+      <c r="Q29" s="161"/>
+      <c r="R29" s="161"/>
+      <c r="S29" s="161"/>
+      <c r="T29" s="161"/>
+      <c r="U29" s="161"/>
+      <c r="V29" s="161"/>
+      <c r="W29" s="167"/>
     </row>
     <row r="30" spans="1:23" ht="9" customHeight="1">
       <c r="A30" s="18"/>
       <c r="B30" s="18"/>
-      <c r="C30" s="164"/>
-      <c r="D30" s="165"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="119"/>
-      <c r="J30" s="90"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="58"/>
-      <c r="O30" s="58"/>
-      <c r="P30" s="58"/>
-      <c r="Q30" s="58"/>
-      <c r="R30" s="58"/>
-      <c r="S30" s="58"/>
-      <c r="T30" s="58"/>
-      <c r="U30" s="58"/>
-      <c r="V30" s="58"/>
-      <c r="W30" s="151"/>
+      <c r="C30" s="141"/>
+      <c r="D30" s="142"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="99"/>
+      <c r="J30" s="118"/>
+      <c r="K30" s="119"/>
+      <c r="L30" s="120"/>
+      <c r="M30" s="120"/>
+      <c r="N30" s="120"/>
+      <c r="O30" s="120"/>
+      <c r="P30" s="120"/>
+      <c r="Q30" s="120"/>
+      <c r="R30" s="120"/>
+      <c r="S30" s="120"/>
+      <c r="T30" s="120"/>
+      <c r="U30" s="120"/>
+      <c r="V30" s="120"/>
+      <c r="W30" s="137"/>
     </row>
     <row r="31" spans="1:23" ht="9" customHeight="1">
       <c r="A31" s="18"/>
       <c r="B31" s="18"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="120"/>
-      <c r="J31" s="113"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="78"/>
-      <c r="M31" s="78"/>
-      <c r="N31" s="78"/>
-      <c r="O31" s="78"/>
-      <c r="P31" s="78"/>
-      <c r="Q31" s="78"/>
-      <c r="R31" s="78"/>
-      <c r="S31" s="78"/>
-      <c r="T31" s="78"/>
-      <c r="U31" s="78"/>
-      <c r="V31" s="78"/>
-      <c r="W31" s="142"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="100"/>
+      <c r="J31" s="168"/>
+      <c r="K31" s="169"/>
+      <c r="L31" s="170"/>
+      <c r="M31" s="170"/>
+      <c r="N31" s="170"/>
+      <c r="O31" s="170"/>
+      <c r="P31" s="170"/>
+      <c r="Q31" s="170"/>
+      <c r="R31" s="170"/>
+      <c r="S31" s="170"/>
+      <c r="T31" s="170"/>
+      <c r="U31" s="170"/>
+      <c r="V31" s="170"/>
+      <c r="W31" s="171"/>
     </row>
     <row r="32" spans="1:23" ht="9" customHeight="1">
       <c r="A32" s="18"/>
       <c r="B32" s="18"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="120"/>
-      <c r="J32" s="114"/>
-      <c r="K32" s="115"/>
-      <c r="L32" s="116"/>
-      <c r="M32" s="116"/>
-      <c r="N32" s="116"/>
-      <c r="O32" s="116"/>
-      <c r="P32" s="116"/>
-      <c r="Q32" s="116"/>
-      <c r="R32" s="116"/>
-      <c r="S32" s="116"/>
-      <c r="T32" s="116"/>
-      <c r="U32" s="116"/>
-      <c r="V32" s="116"/>
-      <c r="W32" s="153"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="100"/>
+      <c r="J32" s="94"/>
+      <c r="K32" s="113"/>
+      <c r="L32" s="114"/>
+      <c r="M32" s="114"/>
+      <c r="N32" s="114"/>
+      <c r="O32" s="114"/>
+      <c r="P32" s="114"/>
+      <c r="Q32" s="114"/>
+      <c r="R32" s="114"/>
+      <c r="S32" s="114"/>
+      <c r="T32" s="114"/>
+      <c r="U32" s="114"/>
+      <c r="V32" s="114"/>
+      <c r="W32" s="132"/>
     </row>
     <row r="33" spans="1:23" ht="9" customHeight="1">
       <c r="A33" s="18"/>
       <c r="B33" s="18"/>
       <c r="C33" s="33"/>
       <c r="D33" s="34"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="121"/>
-      <c r="J33" s="93"/>
-      <c r="K33" s="99"/>
-      <c r="L33" s="100"/>
-      <c r="M33" s="100"/>
-      <c r="N33" s="100"/>
-      <c r="O33" s="100"/>
-      <c r="P33" s="100"/>
-      <c r="Q33" s="100"/>
-      <c r="R33" s="100"/>
-      <c r="S33" s="100"/>
-      <c r="T33" s="100"/>
-      <c r="U33" s="100"/>
-      <c r="V33" s="100"/>
-      <c r="W33" s="149"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="101"/>
+      <c r="J33" s="162"/>
+      <c r="K33" s="153"/>
+      <c r="L33" s="161"/>
+      <c r="M33" s="161"/>
+      <c r="N33" s="161"/>
+      <c r="O33" s="161"/>
+      <c r="P33" s="161"/>
+      <c r="Q33" s="161"/>
+      <c r="R33" s="161"/>
+      <c r="S33" s="161"/>
+      <c r="T33" s="161"/>
+      <c r="U33" s="161"/>
+      <c r="V33" s="161"/>
+      <c r="W33" s="167"/>
     </row>
     <row r="34" spans="1:23" ht="9" customHeight="1">
       <c r="A34" s="18"/>
       <c r="B34" s="18"/>
-      <c r="C34" s="164"/>
-      <c r="D34" s="165"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="119"/>
-      <c r="J34" s="90"/>
-      <c r="K34" s="122"/>
-      <c r="L34" s="123"/>
-      <c r="M34" s="123"/>
-      <c r="N34" s="123"/>
-      <c r="O34" s="123"/>
-      <c r="P34" s="123"/>
-      <c r="Q34" s="123"/>
-      <c r="R34" s="123"/>
-      <c r="S34" s="123"/>
-      <c r="T34" s="123"/>
-      <c r="U34" s="123"/>
-      <c r="V34" s="58"/>
-      <c r="W34" s="151"/>
+      <c r="C34" s="141"/>
+      <c r="D34" s="142"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="99"/>
+      <c r="J34" s="108"/>
+      <c r="K34" s="102"/>
+      <c r="L34" s="103"/>
+      <c r="M34" s="103"/>
+      <c r="N34" s="103"/>
+      <c r="O34" s="103"/>
+      <c r="P34" s="103"/>
+      <c r="Q34" s="103"/>
+      <c r="R34" s="103"/>
+      <c r="S34" s="103"/>
+      <c r="T34" s="103"/>
+      <c r="U34" s="103"/>
+      <c r="V34" s="117"/>
+      <c r="W34" s="138"/>
     </row>
     <row r="35" spans="1:23" ht="9" customHeight="1">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="120"/>
-      <c r="J35" s="113"/>
-      <c r="K35" s="124"/>
-      <c r="L35" s="125"/>
-      <c r="M35" s="125"/>
-      <c r="N35" s="125"/>
-      <c r="O35" s="125"/>
-      <c r="P35" s="125"/>
-      <c r="Q35" s="125"/>
-      <c r="R35" s="125"/>
-      <c r="S35" s="125"/>
-      <c r="T35" s="125"/>
-      <c r="U35" s="125"/>
-      <c r="V35" s="78"/>
-      <c r="W35" s="142"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="100"/>
+      <c r="J35" s="95"/>
+      <c r="K35" s="104"/>
+      <c r="L35" s="105"/>
+      <c r="M35" s="105"/>
+      <c r="N35" s="105"/>
+      <c r="O35" s="105"/>
+      <c r="P35" s="105"/>
+      <c r="Q35" s="105"/>
+      <c r="R35" s="105"/>
+      <c r="S35" s="105"/>
+      <c r="T35" s="105"/>
+      <c r="U35" s="105"/>
+      <c r="V35" s="96"/>
+      <c r="W35" s="134"/>
     </row>
     <row r="36" spans="1:23" ht="9" customHeight="1">
       <c r="A36" s="18"/>
       <c r="B36" s="18"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="120"/>
-      <c r="J36" s="114"/>
-      <c r="K36" s="115"/>
-      <c r="L36" s="116"/>
-      <c r="M36" s="116"/>
-      <c r="N36" s="116"/>
-      <c r="O36" s="116"/>
-      <c r="P36" s="116"/>
-      <c r="Q36" s="116"/>
-      <c r="R36" s="116"/>
-      <c r="S36" s="116"/>
-      <c r="T36" s="116"/>
-      <c r="U36" s="116"/>
-      <c r="V36" s="116"/>
-      <c r="W36" s="153"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="100"/>
+      <c r="J36" s="108"/>
+      <c r="K36" s="113"/>
+      <c r="L36" s="114"/>
+      <c r="M36" s="114"/>
+      <c r="N36" s="114"/>
+      <c r="O36" s="114"/>
+      <c r="P36" s="114"/>
+      <c r="Q36" s="114"/>
+      <c r="R36" s="114"/>
+      <c r="S36" s="114"/>
+      <c r="T36" s="114"/>
+      <c r="U36" s="114"/>
+      <c r="V36" s="114"/>
+      <c r="W36" s="132"/>
     </row>
     <row r="37" spans="1:23" ht="9" customHeight="1">
       <c r="A37" s="18"/>
       <c r="B37" s="18"/>
       <c r="C37" s="33"/>
       <c r="D37" s="34"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="121"/>
-      <c r="J37" s="93"/>
-      <c r="K37" s="126"/>
-      <c r="L37" s="127"/>
-      <c r="M37" s="127"/>
-      <c r="N37" s="127"/>
-      <c r="O37" s="127"/>
-      <c r="P37" s="127"/>
-      <c r="Q37" s="127"/>
-      <c r="R37" s="127"/>
-      <c r="S37" s="127"/>
-      <c r="T37" s="127"/>
-      <c r="U37" s="127"/>
-      <c r="V37" s="100"/>
-      <c r="W37" s="149"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="101"/>
+      <c r="J37" s="95"/>
+      <c r="K37" s="106"/>
+      <c r="L37" s="107"/>
+      <c r="M37" s="107"/>
+      <c r="N37" s="107"/>
+      <c r="O37" s="107"/>
+      <c r="P37" s="107"/>
+      <c r="Q37" s="107"/>
+      <c r="R37" s="107"/>
+      <c r="S37" s="107"/>
+      <c r="T37" s="107"/>
+      <c r="U37" s="107"/>
+      <c r="V37" s="96"/>
+      <c r="W37" s="139"/>
     </row>
     <row r="38" spans="1:23" ht="9" customHeight="1">
       <c r="A38" s="18"/>
       <c r="B38" s="18"/>
-      <c r="C38" s="164"/>
-      <c r="D38" s="165"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="119"/>
-      <c r="J38" s="101"/>
-      <c r="K38" s="91"/>
-      <c r="L38" s="58"/>
-      <c r="M38" s="58"/>
-      <c r="N38" s="58"/>
-      <c r="O38" s="58"/>
-      <c r="P38" s="58"/>
-      <c r="Q38" s="58"/>
-      <c r="R38" s="58"/>
-      <c r="S38" s="58"/>
-      <c r="T38" s="58"/>
-      <c r="U38" s="58"/>
-      <c r="V38" s="58"/>
-      <c r="W38" s="144"/>
+      <c r="C38" s="141"/>
+      <c r="D38" s="142"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="99"/>
+      <c r="J38" s="118"/>
+      <c r="K38" s="119"/>
+      <c r="L38" s="120"/>
+      <c r="M38" s="120"/>
+      <c r="N38" s="120"/>
+      <c r="O38" s="120"/>
+      <c r="P38" s="120"/>
+      <c r="Q38" s="120"/>
+      <c r="R38" s="120"/>
+      <c r="S38" s="120"/>
+      <c r="T38" s="120"/>
+      <c r="U38" s="120"/>
+      <c r="V38" s="120"/>
+      <c r="W38" s="137"/>
     </row>
     <row r="39" spans="1:23" ht="9" customHeight="1">
       <c r="A39" s="18"/>
       <c r="B39" s="18"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="59"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="56"/>
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
-      <c r="I39" s="120"/>
-      <c r="J39" s="128"/>
-      <c r="K39" s="77"/>
-      <c r="L39" s="78"/>
-      <c r="M39" s="78"/>
-      <c r="N39" s="78"/>
-      <c r="O39" s="78"/>
-      <c r="P39" s="78"/>
-      <c r="Q39" s="78"/>
-      <c r="R39" s="78"/>
-      <c r="S39" s="78"/>
-      <c r="T39" s="78"/>
-      <c r="U39" s="78"/>
-      <c r="V39" s="78"/>
-      <c r="W39" s="140"/>
+      <c r="I39" s="100"/>
+      <c r="J39" s="168"/>
+      <c r="K39" s="169"/>
+      <c r="L39" s="170"/>
+      <c r="M39" s="170"/>
+      <c r="N39" s="170"/>
+      <c r="O39" s="170"/>
+      <c r="P39" s="170"/>
+      <c r="Q39" s="170"/>
+      <c r="R39" s="170"/>
+      <c r="S39" s="170"/>
+      <c r="T39" s="170"/>
+      <c r="U39" s="170"/>
+      <c r="V39" s="170"/>
+      <c r="W39" s="171"/>
     </row>
     <row r="40" spans="1:23" ht="9" customHeight="1">
       <c r="A40" s="18"/>
       <c r="B40" s="18"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="120"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="100"/>
       <c r="J40" s="108"/>
-      <c r="K40" s="115"/>
-      <c r="L40" s="116"/>
-      <c r="M40" s="116"/>
-      <c r="N40" s="116"/>
-      <c r="O40" s="116"/>
-      <c r="P40" s="116"/>
-      <c r="Q40" s="116"/>
-      <c r="R40" s="116"/>
-      <c r="S40" s="116"/>
-      <c r="T40" s="116"/>
-      <c r="U40" s="116"/>
-      <c r="V40" s="116"/>
-      <c r="W40" s="143"/>
+      <c r="K40" s="113"/>
+      <c r="L40" s="114"/>
+      <c r="M40" s="114"/>
+      <c r="N40" s="114"/>
+      <c r="O40" s="114"/>
+      <c r="P40" s="114"/>
+      <c r="Q40" s="114"/>
+      <c r="R40" s="114"/>
+      <c r="S40" s="114"/>
+      <c r="T40" s="114"/>
+      <c r="U40" s="114"/>
+      <c r="V40" s="114"/>
+      <c r="W40" s="132"/>
     </row>
     <row r="41" spans="1:23" ht="9" customHeight="1">
       <c r="A41" s="18"/>
       <c r="B41" s="18"/>
       <c r="C41" s="33"/>
       <c r="D41" s="34"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="121"/>
-      <c r="J41" s="129"/>
-      <c r="K41" s="99"/>
-      <c r="L41" s="100"/>
-      <c r="M41" s="100"/>
-      <c r="N41" s="100"/>
-      <c r="O41" s="100"/>
-      <c r="P41" s="100"/>
-      <c r="Q41" s="100"/>
-      <c r="R41" s="100"/>
-      <c r="S41" s="100"/>
-      <c r="T41" s="100"/>
-      <c r="U41" s="100"/>
-      <c r="V41" s="100"/>
-      <c r="W41" s="149"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="101"/>
+      <c r="J41" s="166"/>
+      <c r="K41" s="153"/>
+      <c r="L41" s="161"/>
+      <c r="M41" s="161"/>
+      <c r="N41" s="161"/>
+      <c r="O41" s="161"/>
+      <c r="P41" s="161"/>
+      <c r="Q41" s="161"/>
+      <c r="R41" s="161"/>
+      <c r="S41" s="161"/>
+      <c r="T41" s="161"/>
+      <c r="U41" s="161"/>
+      <c r="V41" s="161"/>
+      <c r="W41" s="167"/>
     </row>
     <row r="42" spans="1:23" ht="9" customHeight="1">
       <c r="A42" s="18"/>
       <c r="B42" s="18"/>
-      <c r="C42" s="164"/>
-      <c r="D42" s="165"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="119"/>
-      <c r="J42" s="101"/>
-      <c r="K42" s="91"/>
-      <c r="L42" s="58"/>
-      <c r="M42" s="58"/>
-      <c r="N42" s="58"/>
-      <c r="O42" s="58"/>
-      <c r="P42" s="58"/>
-      <c r="Q42" s="58"/>
-      <c r="R42" s="58"/>
-      <c r="S42" s="58"/>
-      <c r="T42" s="58"/>
-      <c r="U42" s="58"/>
-      <c r="V42" s="58"/>
-      <c r="W42" s="144"/>
+      <c r="C42" s="141"/>
+      <c r="D42" s="142"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="99"/>
+      <c r="J42" s="118"/>
+      <c r="K42" s="119"/>
+      <c r="L42" s="120"/>
+      <c r="M42" s="120"/>
+      <c r="N42" s="120"/>
+      <c r="O42" s="120"/>
+      <c r="P42" s="120"/>
+      <c r="Q42" s="120"/>
+      <c r="R42" s="120"/>
+      <c r="S42" s="120"/>
+      <c r="T42" s="120"/>
+      <c r="U42" s="120"/>
+      <c r="V42" s="120"/>
+      <c r="W42" s="137"/>
     </row>
     <row r="43" spans="1:23" ht="9" customHeight="1">
       <c r="A43" s="18"/>
       <c r="B43" s="18"/>
-      <c r="C43" s="47"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="59"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="56"/>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
       <c r="H43" s="17"/>
-      <c r="I43" s="120"/>
-      <c r="J43" s="130"/>
-      <c r="K43" s="77"/>
-      <c r="L43" s="78"/>
-      <c r="M43" s="78"/>
-      <c r="N43" s="78"/>
-      <c r="O43" s="78"/>
-      <c r="P43" s="78"/>
-      <c r="Q43" s="78"/>
-      <c r="R43" s="78"/>
-      <c r="S43" s="78"/>
-      <c r="T43" s="78"/>
-      <c r="U43" s="78"/>
-      <c r="V43" s="78"/>
-      <c r="W43" s="140"/>
+      <c r="I43" s="100"/>
+      <c r="J43" s="168"/>
+      <c r="K43" s="169"/>
+      <c r="L43" s="170"/>
+      <c r="M43" s="170"/>
+      <c r="N43" s="170"/>
+      <c r="O43" s="170"/>
+      <c r="P43" s="170"/>
+      <c r="Q43" s="170"/>
+      <c r="R43" s="170"/>
+      <c r="S43" s="170"/>
+      <c r="T43" s="170"/>
+      <c r="U43" s="170"/>
+      <c r="V43" s="170"/>
+      <c r="W43" s="171"/>
     </row>
     <row r="44" spans="1:23" ht="9" customHeight="1">
       <c r="A44" s="18"/>
       <c r="B44" s="18"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="120"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="100"/>
       <c r="J44" s="108"/>
-      <c r="K44" s="115"/>
-      <c r="L44" s="116"/>
-      <c r="M44" s="116"/>
-      <c r="N44" s="116"/>
-      <c r="O44" s="116"/>
-      <c r="P44" s="116"/>
-      <c r="Q44" s="116"/>
-      <c r="R44" s="116"/>
-      <c r="S44" s="116"/>
-      <c r="T44" s="116"/>
-      <c r="U44" s="116"/>
-      <c r="V44" s="116"/>
-      <c r="W44" s="143"/>
+      <c r="K44" s="113"/>
+      <c r="L44" s="114"/>
+      <c r="M44" s="114"/>
+      <c r="N44" s="114"/>
+      <c r="O44" s="114"/>
+      <c r="P44" s="114"/>
+      <c r="Q44" s="114"/>
+      <c r="R44" s="114"/>
+      <c r="S44" s="114"/>
+      <c r="T44" s="114"/>
+      <c r="U44" s="114"/>
+      <c r="V44" s="114"/>
+      <c r="W44" s="132"/>
     </row>
     <row r="45" spans="1:23" ht="9" customHeight="1">
       <c r="A45" s="18"/>
       <c r="B45" s="18"/>
       <c r="C45" s="33"/>
       <c r="D45" s="34"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
-      <c r="I45" s="121"/>
-      <c r="J45" s="130"/>
-      <c r="K45" s="99"/>
-      <c r="L45" s="100"/>
-      <c r="M45" s="100"/>
-      <c r="N45" s="100"/>
-      <c r="O45" s="100"/>
-      <c r="P45" s="100"/>
-      <c r="Q45" s="100"/>
-      <c r="R45" s="100"/>
-      <c r="S45" s="100"/>
-      <c r="T45" s="100"/>
-      <c r="U45" s="100"/>
-      <c r="V45" s="100"/>
-      <c r="W45" s="149"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="101"/>
+      <c r="J45" s="166"/>
+      <c r="K45" s="153"/>
+      <c r="L45" s="161"/>
+      <c r="M45" s="161"/>
+      <c r="N45" s="161"/>
+      <c r="O45" s="161"/>
+      <c r="P45" s="161"/>
+      <c r="Q45" s="161"/>
+      <c r="R45" s="161"/>
+      <c r="S45" s="161"/>
+      <c r="T45" s="161"/>
+      <c r="U45" s="161"/>
+      <c r="V45" s="161"/>
+      <c r="W45" s="167"/>
     </row>
     <row r="46" spans="1:23" ht="9" customHeight="1">
       <c r="A46" s="18"/>
       <c r="B46" s="18"/>
-      <c r="C46" s="164"/>
-      <c r="D46" s="165"/>
+      <c r="C46" s="141"/>
+      <c r="D46" s="142"/>
       <c r="E46" s="37"/>
-      <c r="F46" s="62"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="58"/>
-      <c r="I46" s="131"/>
-      <c r="J46" s="101"/>
-      <c r="K46" s="91"/>
-      <c r="L46" s="58"/>
-      <c r="M46" s="58"/>
-      <c r="N46" s="58"/>
-      <c r="O46" s="58"/>
-      <c r="P46" s="58"/>
-      <c r="Q46" s="58"/>
-      <c r="R46" s="58"/>
-      <c r="S46" s="58"/>
-      <c r="T46" s="58"/>
-      <c r="U46" s="58"/>
-      <c r="V46" s="58"/>
-      <c r="W46" s="144"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="111"/>
+      <c r="J46" s="118"/>
+      <c r="K46" s="119"/>
+      <c r="L46" s="120"/>
+      <c r="M46" s="120"/>
+      <c r="N46" s="120"/>
+      <c r="O46" s="120"/>
+      <c r="P46" s="120"/>
+      <c r="Q46" s="120"/>
+      <c r="R46" s="120"/>
+      <c r="S46" s="120"/>
+      <c r="T46" s="120"/>
+      <c r="U46" s="120"/>
+      <c r="V46" s="120"/>
+      <c r="W46" s="137"/>
     </row>
     <row r="47" spans="1:23" ht="9" customHeight="1">
       <c r="A47" s="18"/>
       <c r="B47" s="18"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="63"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="60"/>
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
-      <c r="I47" s="132"/>
-      <c r="J47" s="128"/>
-      <c r="K47" s="133"/>
-      <c r="L47" s="134"/>
-      <c r="M47" s="134"/>
-      <c r="N47" s="134"/>
-      <c r="O47" s="134"/>
-      <c r="P47" s="134"/>
-      <c r="Q47" s="134"/>
-      <c r="R47" s="134"/>
-      <c r="S47" s="134"/>
-      <c r="T47" s="134"/>
-      <c r="U47" s="134"/>
-      <c r="V47" s="134"/>
-      <c r="W47" s="140"/>
+      <c r="I47" s="112"/>
+      <c r="J47" s="168"/>
+      <c r="K47" s="169"/>
+      <c r="L47" s="170"/>
+      <c r="M47" s="170"/>
+      <c r="N47" s="170"/>
+      <c r="O47" s="170"/>
+      <c r="P47" s="170"/>
+      <c r="Q47" s="170"/>
+      <c r="R47" s="170"/>
+      <c r="S47" s="170"/>
+      <c r="T47" s="170"/>
+      <c r="U47" s="170"/>
+      <c r="V47" s="170"/>
+      <c r="W47" s="171"/>
     </row>
     <row r="48" spans="1:23" ht="9" customHeight="1">
       <c r="A48" s="18"/>
       <c r="B48" s="18"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="63"/>
-      <c r="G48" s="64"/>
-      <c r="H48" s="65"/>
-      <c r="I48" s="120"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="61"/>
+      <c r="H48" s="62"/>
+      <c r="I48" s="100"/>
       <c r="J48" s="108"/>
-      <c r="K48" s="135"/>
-      <c r="L48" s="116"/>
-      <c r="M48" s="116"/>
-      <c r="N48" s="116"/>
-      <c r="O48" s="116"/>
-      <c r="P48" s="116"/>
-      <c r="Q48" s="116"/>
-      <c r="R48" s="116"/>
-      <c r="S48" s="116"/>
-      <c r="T48" s="116"/>
-      <c r="U48" s="116"/>
-      <c r="V48" s="116"/>
-      <c r="W48" s="141"/>
+      <c r="K48" s="113"/>
+      <c r="L48" s="114"/>
+      <c r="M48" s="114"/>
+      <c r="N48" s="114"/>
+      <c r="O48" s="114"/>
+      <c r="P48" s="114"/>
+      <c r="Q48" s="114"/>
+      <c r="R48" s="114"/>
+      <c r="S48" s="114"/>
+      <c r="T48" s="114"/>
+      <c r="U48" s="114"/>
+      <c r="V48" s="114"/>
+      <c r="W48" s="132"/>
     </row>
     <row r="49" spans="1:23" ht="9" customHeight="1">
       <c r="A49" s="18"/>
       <c r="B49" s="18"/>
       <c r="C49" s="33"/>
       <c r="D49" s="34"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="121"/>
-      <c r="J49" s="129"/>
-      <c r="K49" s="136"/>
-      <c r="L49" s="100"/>
-      <c r="M49" s="100"/>
-      <c r="N49" s="100"/>
-      <c r="O49" s="100"/>
-      <c r="P49" s="100"/>
-      <c r="Q49" s="100"/>
-      <c r="R49" s="100"/>
-      <c r="S49" s="100"/>
-      <c r="T49" s="100"/>
-      <c r="U49" s="100"/>
-      <c r="V49" s="100"/>
-      <c r="W49" s="149"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="58"/>
+      <c r="I49" s="101"/>
+      <c r="J49" s="166"/>
+      <c r="K49" s="153"/>
+      <c r="L49" s="161"/>
+      <c r="M49" s="161"/>
+      <c r="N49" s="161"/>
+      <c r="O49" s="161"/>
+      <c r="P49" s="161"/>
+      <c r="Q49" s="161"/>
+      <c r="R49" s="161"/>
+      <c r="S49" s="161"/>
+      <c r="T49" s="161"/>
+      <c r="U49" s="161"/>
+      <c r="V49" s="161"/>
+      <c r="W49" s="167"/>
     </row>
     <row r="50" spans="1:23" ht="9" customHeight="1">
       <c r="A50" s="18"/>
       <c r="B50" s="18"/>
-      <c r="C50" s="164"/>
-      <c r="D50" s="165"/>
+      <c r="C50" s="141"/>
+      <c r="D50" s="142"/>
       <c r="E50" s="37"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="58"/>
-      <c r="H50" s="58"/>
-      <c r="I50" s="131"/>
-      <c r="J50" s="101"/>
-      <c r="K50" s="91"/>
-      <c r="L50" s="58"/>
-      <c r="M50" s="58"/>
-      <c r="N50" s="58"/>
-      <c r="O50" s="58"/>
-      <c r="P50" s="58"/>
-      <c r="Q50" s="58"/>
-      <c r="R50" s="58"/>
-      <c r="S50" s="58"/>
-      <c r="T50" s="58"/>
-      <c r="U50" s="58"/>
-      <c r="V50" s="58"/>
-      <c r="W50" s="144"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="111"/>
+      <c r="J50" s="118"/>
+      <c r="K50" s="119"/>
+      <c r="L50" s="120"/>
+      <c r="M50" s="120"/>
+      <c r="N50" s="120"/>
+      <c r="O50" s="120"/>
+      <c r="P50" s="120"/>
+      <c r="Q50" s="120"/>
+      <c r="R50" s="120"/>
+      <c r="S50" s="120"/>
+      <c r="T50" s="120"/>
+      <c r="U50" s="120"/>
+      <c r="V50" s="120"/>
+      <c r="W50" s="137"/>
     </row>
     <row r="51" spans="1:23" ht="9" customHeight="1">
       <c r="A51" s="18"/>
       <c r="B51" s="18"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="63"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="60"/>
       <c r="G51" s="17"/>
       <c r="H51" s="17"/>
-      <c r="I51" s="132"/>
-      <c r="J51" s="128"/>
-      <c r="K51" s="133"/>
-      <c r="L51" s="134"/>
-      <c r="M51" s="134"/>
-      <c r="N51" s="134"/>
-      <c r="O51" s="134"/>
-      <c r="P51" s="134"/>
-      <c r="Q51" s="134"/>
-      <c r="R51" s="134"/>
-      <c r="S51" s="134"/>
-      <c r="T51" s="134"/>
-      <c r="U51" s="134"/>
-      <c r="V51" s="134"/>
-      <c r="W51" s="140"/>
+      <c r="I51" s="112"/>
+      <c r="J51" s="168"/>
+      <c r="K51" s="169"/>
+      <c r="L51" s="170"/>
+      <c r="M51" s="170"/>
+      <c r="N51" s="170"/>
+      <c r="O51" s="170"/>
+      <c r="P51" s="170"/>
+      <c r="Q51" s="170"/>
+      <c r="R51" s="170"/>
+      <c r="S51" s="170"/>
+      <c r="T51" s="170"/>
+      <c r="U51" s="170"/>
+      <c r="V51" s="170"/>
+      <c r="W51" s="171"/>
     </row>
     <row r="52" spans="1:23" ht="9" customHeight="1">
       <c r="A52" s="18"/>
       <c r="B52" s="18"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="63"/>
-      <c r="G52" s="64"/>
-      <c r="H52" s="65"/>
-      <c r="I52" s="120"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="61"/>
+      <c r="H52" s="62"/>
+      <c r="I52" s="100"/>
       <c r="J52" s="108"/>
-      <c r="K52" s="135"/>
-      <c r="L52" s="116"/>
-      <c r="M52" s="116"/>
-      <c r="N52" s="116"/>
-      <c r="O52" s="116"/>
-      <c r="P52" s="116"/>
-      <c r="Q52" s="116"/>
-      <c r="R52" s="116"/>
-      <c r="S52" s="116"/>
-      <c r="T52" s="116"/>
-      <c r="U52" s="116"/>
-      <c r="V52" s="116"/>
-      <c r="W52" s="141"/>
+      <c r="K52" s="113"/>
+      <c r="L52" s="114"/>
+      <c r="M52" s="114"/>
+      <c r="N52" s="114"/>
+      <c r="O52" s="114"/>
+      <c r="P52" s="114"/>
+      <c r="Q52" s="114"/>
+      <c r="R52" s="114"/>
+      <c r="S52" s="114"/>
+      <c r="T52" s="114"/>
+      <c r="U52" s="114"/>
+      <c r="V52" s="114"/>
+      <c r="W52" s="132"/>
     </row>
     <row r="53" spans="1:23" ht="9" customHeight="1">
-      <c r="A53" s="154"/>
-      <c r="B53" s="154"/>
-      <c r="C53" s="47"/>
-      <c r="D53" s="48"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="66"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="61"/>
-      <c r="I53" s="121"/>
-      <c r="J53" s="129"/>
-      <c r="K53" s="136"/>
-      <c r="L53" s="100"/>
-      <c r="M53" s="100"/>
-      <c r="N53" s="100"/>
-      <c r="O53" s="100"/>
-      <c r="P53" s="100"/>
-      <c r="Q53" s="100"/>
-      <c r="R53" s="100"/>
-      <c r="S53" s="100"/>
-      <c r="T53" s="100"/>
-      <c r="U53" s="100"/>
-      <c r="V53" s="100"/>
-      <c r="W53" s="149"/>
+      <c r="A53" s="116"/>
+      <c r="B53" s="116"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="58"/>
+      <c r="I53" s="101"/>
+      <c r="J53" s="162"/>
+      <c r="K53" s="172"/>
+      <c r="L53" s="173"/>
+      <c r="M53" s="173"/>
+      <c r="N53" s="173"/>
+      <c r="O53" s="173"/>
+      <c r="P53" s="173"/>
+      <c r="Q53" s="173"/>
+      <c r="R53" s="173"/>
+      <c r="S53" s="173"/>
+      <c r="T53" s="173"/>
+      <c r="U53" s="173"/>
+      <c r="V53" s="173"/>
+      <c r="W53" s="174"/>
+    </row>
+    <row r="54" spans="1:23" ht="9" customHeight="1">
+      <c r="C54" s="125"/>
+      <c r="D54" s="123"/>
+      <c r="E54" s="123"/>
+      <c r="F54" s="123"/>
+      <c r="G54" s="123"/>
+      <c r="H54" s="123"/>
+      <c r="I54" s="123"/>
+      <c r="J54" s="123"/>
+      <c r="K54" s="124"/>
+      <c r="L54" s="124"/>
+      <c r="M54" s="124"/>
+      <c r="N54" s="124"/>
+      <c r="O54" s="124"/>
+      <c r="P54" s="124"/>
+      <c r="Q54" s="124"/>
+      <c r="R54" s="124"/>
+      <c r="S54" s="124"/>
+      <c r="T54" s="124"/>
+      <c r="U54" s="124"/>
+      <c r="V54" s="124"/>
+      <c r="W54" s="129"/>
+    </row>
+    <row r="55" spans="1:23" ht="9" customHeight="1">
+      <c r="C55" s="126"/>
+      <c r="D55" s="123"/>
+      <c r="E55" s="123"/>
+      <c r="F55" s="123"/>
+      <c r="G55" s="123"/>
+      <c r="H55" s="123"/>
+      <c r="I55" s="123"/>
+      <c r="J55" s="123"/>
+      <c r="K55" s="124"/>
+      <c r="L55" s="124"/>
+      <c r="M55" s="124"/>
+      <c r="N55" s="124"/>
+      <c r="O55" s="124"/>
+      <c r="P55" s="124"/>
+      <c r="Q55" s="124"/>
+      <c r="R55" s="124"/>
+      <c r="S55" s="124"/>
+      <c r="T55" s="124"/>
+      <c r="U55" s="124"/>
+      <c r="V55" s="124"/>
+      <c r="W55" s="129"/>
+    </row>
+    <row r="56" spans="1:23" ht="9" customHeight="1">
+      <c r="C56" s="126"/>
+      <c r="D56" s="123"/>
+      <c r="E56" s="123"/>
+      <c r="F56" s="123"/>
+      <c r="G56" s="123"/>
+      <c r="H56" s="123"/>
+      <c r="I56" s="123"/>
+      <c r="J56" s="123"/>
+      <c r="K56" s="124"/>
+      <c r="L56" s="124"/>
+      <c r="M56" s="124"/>
+      <c r="N56" s="124"/>
+      <c r="O56" s="124"/>
+      <c r="P56" s="124"/>
+      <c r="Q56" s="124"/>
+      <c r="R56" s="124"/>
+      <c r="S56" s="124"/>
+      <c r="T56" s="124"/>
+      <c r="U56" s="124"/>
+      <c r="V56" s="124"/>
+      <c r="W56" s="129"/>
+    </row>
+    <row r="57" spans="1:23" ht="9" customHeight="1">
+      <c r="C57" s="126"/>
+      <c r="D57" s="123"/>
+      <c r="E57" s="123"/>
+      <c r="F57" s="123"/>
+      <c r="G57" s="123"/>
+      <c r="H57" s="123"/>
+      <c r="I57" s="123"/>
+      <c r="J57" s="123"/>
+      <c r="K57" s="124"/>
+      <c r="L57" s="124"/>
+      <c r="M57" s="124"/>
+      <c r="N57" s="124"/>
+      <c r="O57" s="124"/>
+      <c r="P57" s="124"/>
+      <c r="Q57" s="124"/>
+      <c r="R57" s="124"/>
+      <c r="S57" s="124"/>
+      <c r="T57" s="124"/>
+      <c r="U57" s="124"/>
+      <c r="V57" s="124"/>
+      <c r="W57" s="129"/>
+    </row>
+    <row r="58" spans="1:23" ht="9" customHeight="1">
+      <c r="C58" s="126"/>
+      <c r="D58" s="123"/>
+      <c r="E58" s="123"/>
+      <c r="F58" s="123"/>
+      <c r="G58" s="123"/>
+      <c r="H58" s="123"/>
+      <c r="I58" s="123"/>
+      <c r="J58" s="123"/>
+      <c r="K58" s="124"/>
+      <c r="L58" s="124"/>
+      <c r="M58" s="124"/>
+      <c r="N58" s="124"/>
+      <c r="O58" s="124"/>
+      <c r="P58" s="124"/>
+      <c r="Q58" s="124"/>
+      <c r="R58" s="124"/>
+      <c r="S58" s="124"/>
+      <c r="T58" s="124"/>
+      <c r="U58" s="124"/>
+      <c r="V58" s="124"/>
+      <c r="W58" s="129"/>
+    </row>
+    <row r="59" spans="1:23" ht="9" customHeight="1">
+      <c r="C59" s="126"/>
+      <c r="D59" s="123"/>
+      <c r="E59" s="123"/>
+      <c r="F59" s="123"/>
+      <c r="G59" s="123"/>
+      <c r="H59" s="123"/>
+      <c r="I59" s="123"/>
+      <c r="J59" s="123"/>
+      <c r="K59" s="124"/>
+      <c r="L59" s="124"/>
+      <c r="M59" s="124"/>
+      <c r="N59" s="124"/>
+      <c r="O59" s="124"/>
+      <c r="P59" s="124"/>
+      <c r="Q59" s="124"/>
+      <c r="R59" s="124"/>
+      <c r="S59" s="124"/>
+      <c r="T59" s="124"/>
+      <c r="U59" s="124"/>
+      <c r="V59" s="124"/>
+      <c r="W59" s="129"/>
+    </row>
+    <row r="64" spans="1:23" ht="9" customHeight="1">
+      <c r="C64" s="141"/>
+      <c r="D64" s="142"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="87"/>
+      <c r="J64" s="180"/>
+      <c r="K64" s="178"/>
+      <c r="L64" s="154"/>
+      <c r="M64" s="154"/>
+      <c r="N64" s="154"/>
+      <c r="O64" s="154"/>
+      <c r="P64" s="154"/>
+      <c r="Q64" s="154"/>
+      <c r="R64" s="154"/>
+      <c r="S64" s="154"/>
+      <c r="T64" s="154"/>
+      <c r="U64" s="154"/>
+      <c r="V64" s="154"/>
+      <c r="W64" s="179"/>
+    </row>
+    <row r="65" spans="1:23" ht="9" customHeight="1">
+      <c r="C65" s="33"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="36"/>
+      <c r="I65" s="88"/>
+      <c r="J65" s="84"/>
+      <c r="K65" s="89"/>
+      <c r="L65" s="90"/>
+      <c r="M65" s="90"/>
+      <c r="N65" s="90"/>
+      <c r="O65" s="90"/>
+      <c r="P65" s="90"/>
+      <c r="Q65" s="90"/>
+      <c r="R65" s="90"/>
+      <c r="S65" s="90"/>
+      <c r="T65" s="90"/>
+      <c r="U65" s="90"/>
+      <c r="V65" s="90"/>
+      <c r="W65" s="139"/>
     </row>
     <row r="66" spans="1:23" ht="9" customHeight="1">
-      <c r="A66" s="154"/>
-      <c r="B66" s="154"/>
-      <c r="C66" s="164"/>
-      <c r="D66" s="165"/>
+      <c r="A66" s="122"/>
+      <c r="B66" s="122"/>
+      <c r="C66" s="141"/>
+      <c r="D66" s="142"/>
       <c r="E66" s="37"/>
-      <c r="F66" s="46"/>
-      <c r="G66" s="46"/>
-      <c r="H66" s="46"/>
-      <c r="I66" s="112"/>
-      <c r="J66" s="158"/>
-      <c r="K66" s="159"/>
-      <c r="L66" s="160"/>
-      <c r="M66" s="160"/>
-      <c r="N66" s="160"/>
-      <c r="O66" s="160"/>
-      <c r="P66" s="160"/>
-      <c r="Q66" s="160"/>
-      <c r="R66" s="160"/>
-      <c r="S66" s="160"/>
-      <c r="T66" s="160"/>
-      <c r="U66" s="160"/>
-      <c r="V66" s="160"/>
-      <c r="W66" s="161"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="93"/>
+      <c r="J66" s="180"/>
+      <c r="K66" s="178"/>
+      <c r="L66" s="154"/>
+      <c r="M66" s="154"/>
+      <c r="N66" s="154"/>
+      <c r="O66" s="154"/>
+      <c r="P66" s="154"/>
+      <c r="Q66" s="154"/>
+      <c r="R66" s="154"/>
+      <c r="S66" s="154"/>
+      <c r="T66" s="154"/>
+      <c r="U66" s="154"/>
+      <c r="V66" s="154"/>
+      <c r="W66" s="179"/>
     </row>
     <row r="67" spans="1:23" ht="9" customHeight="1">
-      <c r="A67" s="154"/>
-      <c r="B67" s="154"/>
-      <c r="C67" s="47"/>
-      <c r="D67" s="48"/>
-      <c r="E67" s="41"/>
-      <c r="F67" s="42"/>
-      <c r="G67" s="43"/>
-      <c r="H67" s="43"/>
-      <c r="I67" s="104"/>
-      <c r="J67" s="155"/>
-      <c r="K67" s="156"/>
-      <c r="L67" s="157"/>
-      <c r="M67" s="157"/>
-      <c r="N67" s="157"/>
-      <c r="O67" s="157"/>
-      <c r="P67" s="157"/>
-      <c r="Q67" s="157"/>
-      <c r="R67" s="157"/>
-      <c r="S67" s="157"/>
-      <c r="T67" s="157"/>
-      <c r="U67" s="157"/>
-      <c r="V67" s="157"/>
-      <c r="W67" s="157"/>
+      <c r="A67" s="122"/>
+      <c r="B67" s="122"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="38"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="40"/>
+      <c r="H67" s="40"/>
+      <c r="I67" s="91"/>
+      <c r="J67" s="94"/>
+      <c r="K67" s="71"/>
+      <c r="L67" s="72"/>
+      <c r="M67" s="72"/>
+      <c r="N67" s="72"/>
+      <c r="O67" s="72"/>
+      <c r="P67" s="72"/>
+      <c r="Q67" s="72"/>
+      <c r="R67" s="72"/>
+      <c r="S67" s="72"/>
+      <c r="T67" s="72"/>
+      <c r="U67" s="72"/>
+      <c r="V67" s="72"/>
+      <c r="W67" s="132"/>
     </row>
     <row r="68" spans="1:23" ht="9" customHeight="1">
-      <c r="A68" s="154"/>
-      <c r="B68" s="154"/>
-      <c r="C68" s="47"/>
-      <c r="D68" s="48"/>
-      <c r="E68" s="41"/>
-      <c r="F68" s="44"/>
-      <c r="G68" s="45"/>
-      <c r="H68" s="45"/>
-      <c r="I68" s="111"/>
-      <c r="J68" s="128"/>
-      <c r="K68" s="133"/>
-      <c r="L68" s="134"/>
-      <c r="M68" s="134"/>
-      <c r="N68" s="134"/>
-      <c r="O68" s="134"/>
-      <c r="P68" s="134"/>
-      <c r="Q68" s="134"/>
-      <c r="R68" s="134"/>
-      <c r="S68" s="134"/>
-      <c r="T68" s="134"/>
-      <c r="U68" s="134"/>
-      <c r="V68" s="134"/>
-      <c r="W68" s="78"/>
+      <c r="A68" s="122"/>
+      <c r="B68" s="122"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="38"/>
+      <c r="F68" s="41"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="42"/>
+      <c r="I68" s="92"/>
+      <c r="J68" s="166"/>
+      <c r="K68" s="153"/>
+      <c r="L68" s="161"/>
+      <c r="M68" s="161"/>
+      <c r="N68" s="161"/>
+      <c r="O68" s="161"/>
+      <c r="P68" s="161"/>
+      <c r="Q68" s="161"/>
+      <c r="R68" s="161"/>
+      <c r="S68" s="161"/>
+      <c r="T68" s="161"/>
+      <c r="U68" s="161"/>
+      <c r="V68" s="182"/>
+      <c r="W68" s="133"/>
     </row>
     <row r="69" spans="1:23" ht="9" customHeight="1">
-      <c r="A69" s="154"/>
-      <c r="B69" s="154"/>
+      <c r="A69" s="122"/>
+      <c r="B69" s="122"/>
       <c r="C69" s="33"/>
       <c r="D69" s="34"/>
-      <c r="E69" s="49"/>
-      <c r="F69" s="50"/>
-      <c r="G69" s="51"/>
-      <c r="H69" s="51"/>
-      <c r="I69" s="117"/>
-      <c r="J69" s="114"/>
-      <c r="K69" s="115"/>
-      <c r="L69" s="116"/>
-      <c r="M69" s="116"/>
-      <c r="N69" s="116"/>
-      <c r="O69" s="116"/>
-      <c r="P69" s="116"/>
-      <c r="Q69" s="116"/>
-      <c r="R69" s="116"/>
-      <c r="S69" s="116"/>
-      <c r="T69" s="116"/>
-      <c r="U69" s="116"/>
-      <c r="V69" s="116"/>
-      <c r="W69" s="116"/>
+      <c r="E69" s="46"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="48"/>
+      <c r="H69" s="48"/>
+      <c r="I69" s="97"/>
+      <c r="J69" s="84"/>
+      <c r="K69" s="89"/>
+      <c r="L69" s="90"/>
+      <c r="M69" s="90"/>
+      <c r="N69" s="90"/>
+      <c r="O69" s="90"/>
+      <c r="P69" s="90"/>
+      <c r="Q69" s="90"/>
+      <c r="R69" s="90"/>
+      <c r="S69" s="90"/>
+      <c r="T69" s="90"/>
+      <c r="U69" s="90"/>
+      <c r="V69" s="90"/>
+      <c r="W69" s="139"/>
     </row>
     <row r="70" spans="1:23" ht="9" customHeight="1">
-      <c r="A70" s="154"/>
-      <c r="B70" s="154"/>
-      <c r="C70" s="164"/>
-      <c r="D70" s="165"/>
+      <c r="A70" s="122"/>
+      <c r="B70" s="122"/>
+      <c r="C70" s="141"/>
+      <c r="D70" s="142"/>
       <c r="E70" s="37"/>
-      <c r="F70" s="46"/>
-      <c r="G70" s="46"/>
-      <c r="H70" s="46"/>
-      <c r="I70" s="118"/>
-      <c r="J70" s="158"/>
-      <c r="K70" s="159"/>
-      <c r="L70" s="160"/>
-      <c r="M70" s="160"/>
-      <c r="N70" s="160"/>
-      <c r="O70" s="160"/>
-      <c r="P70" s="160"/>
-      <c r="Q70" s="160"/>
-      <c r="R70" s="160"/>
-      <c r="S70" s="160"/>
-      <c r="T70" s="160"/>
-      <c r="U70" s="160"/>
-      <c r="V70" s="160"/>
-      <c r="W70" s="161"/>
+      <c r="F70" s="43"/>
+      <c r="G70" s="43"/>
+      <c r="H70" s="43"/>
+      <c r="I70" s="98"/>
+      <c r="J70" s="180"/>
+      <c r="K70" s="178"/>
+      <c r="L70" s="154"/>
+      <c r="M70" s="154"/>
+      <c r="N70" s="154"/>
+      <c r="O70" s="154"/>
+      <c r="P70" s="154"/>
+      <c r="Q70" s="154"/>
+      <c r="R70" s="154"/>
+      <c r="S70" s="154"/>
+      <c r="T70" s="154"/>
+      <c r="U70" s="154"/>
+      <c r="V70" s="181"/>
+      <c r="W70" s="138"/>
     </row>
     <row r="71" spans="1:23" ht="9" customHeight="1">
-      <c r="A71" s="154"/>
-      <c r="B71" s="154"/>
-      <c r="C71" s="47"/>
-      <c r="D71" s="48"/>
-      <c r="E71" s="41"/>
-      <c r="F71" s="44"/>
-      <c r="G71" s="45"/>
-      <c r="H71" s="45"/>
-      <c r="I71" s="111"/>
-      <c r="J71" s="155"/>
-      <c r="K71" s="156"/>
-      <c r="L71" s="157"/>
-      <c r="M71" s="157"/>
-      <c r="N71" s="157"/>
-      <c r="O71" s="157"/>
-      <c r="P71" s="157"/>
-      <c r="Q71" s="157"/>
-      <c r="R71" s="157"/>
-      <c r="S71" s="157"/>
-      <c r="T71" s="157"/>
-      <c r="U71" s="157"/>
-      <c r="V71" s="157"/>
-      <c r="W71" s="157"/>
+      <c r="A71" s="122"/>
+      <c r="B71" s="122"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="45"/>
+      <c r="E71" s="38"/>
+      <c r="F71" s="41"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="42"/>
+      <c r="I71" s="92"/>
+      <c r="J71" s="94"/>
+      <c r="K71" s="71"/>
+      <c r="L71" s="72"/>
+      <c r="M71" s="72"/>
+      <c r="N71" s="72"/>
+      <c r="O71" s="72"/>
+      <c r="P71" s="72"/>
+      <c r="Q71" s="72"/>
+      <c r="R71" s="72"/>
+      <c r="S71" s="72"/>
+      <c r="T71" s="72"/>
+      <c r="U71" s="72"/>
+      <c r="V71" s="72"/>
+      <c r="W71" s="127"/>
     </row>
     <row r="72" spans="1:23" ht="9" customHeight="1">
-      <c r="A72" s="154"/>
-      <c r="B72" s="154"/>
-      <c r="C72" s="47"/>
-      <c r="D72" s="48"/>
-      <c r="E72" s="41"/>
-      <c r="F72" s="44"/>
-      <c r="G72" s="45"/>
-      <c r="H72" s="45"/>
-      <c r="I72" s="111"/>
-      <c r="J72" s="128"/>
-      <c r="K72" s="133"/>
-      <c r="L72" s="134"/>
-      <c r="M72" s="134"/>
-      <c r="N72" s="134"/>
-      <c r="O72" s="134"/>
-      <c r="P72" s="134"/>
-      <c r="Q72" s="134"/>
-      <c r="R72" s="134"/>
-      <c r="S72" s="134"/>
-      <c r="T72" s="134"/>
-      <c r="U72" s="134"/>
-      <c r="V72" s="134"/>
-      <c r="W72" s="78"/>
+      <c r="A72" s="122"/>
+      <c r="B72" s="122"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="45"/>
+      <c r="E72" s="38"/>
+      <c r="F72" s="41"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="92"/>
+      <c r="J72" s="166"/>
+      <c r="K72" s="153"/>
+      <c r="L72" s="161"/>
+      <c r="M72" s="161"/>
+      <c r="N72" s="161"/>
+      <c r="O72" s="161"/>
+      <c r="P72" s="161"/>
+      <c r="Q72" s="161"/>
+      <c r="R72" s="161"/>
+      <c r="S72" s="161"/>
+      <c r="T72" s="161"/>
+      <c r="U72" s="161"/>
+      <c r="V72" s="161"/>
+      <c r="W72" s="128"/>
     </row>
     <row r="73" spans="1:23" ht="9" customHeight="1">
-      <c r="A73" s="154"/>
-      <c r="B73" s="154"/>
+      <c r="A73" s="122"/>
+      <c r="B73" s="122"/>
       <c r="C73" s="33"/>
       <c r="D73" s="34"/>
-      <c r="E73" s="49"/>
-      <c r="F73" s="50"/>
-      <c r="G73" s="51"/>
-      <c r="H73" s="51"/>
-      <c r="I73" s="117"/>
-      <c r="J73" s="114"/>
-      <c r="K73" s="115"/>
-      <c r="L73" s="116"/>
-      <c r="M73" s="116"/>
-      <c r="N73" s="116"/>
-      <c r="O73" s="116"/>
-      <c r="P73" s="116"/>
-      <c r="Q73" s="116"/>
-      <c r="R73" s="116"/>
-      <c r="S73" s="116"/>
-      <c r="T73" s="116"/>
-      <c r="U73" s="116"/>
-      <c r="V73" s="116"/>
-      <c r="W73" s="116"/>
+      <c r="E73" s="46"/>
+      <c r="F73" s="47"/>
+      <c r="G73" s="48"/>
+      <c r="H73" s="48"/>
+      <c r="I73" s="97"/>
+      <c r="J73" s="84"/>
+      <c r="K73" s="89"/>
+      <c r="L73" s="90"/>
+      <c r="M73" s="90"/>
+      <c r="N73" s="90"/>
+      <c r="O73" s="90"/>
+      <c r="P73" s="90"/>
+      <c r="Q73" s="90"/>
+      <c r="R73" s="90"/>
+      <c r="S73" s="90"/>
+      <c r="T73" s="90"/>
+      <c r="U73" s="90"/>
+      <c r="V73" s="90"/>
+      <c r="W73" s="139"/>
     </row>
     <row r="74" spans="1:23" ht="9" customHeight="1">
-      <c r="A74" s="154"/>
-      <c r="B74" s="154"/>
-      <c r="C74" s="164"/>
-      <c r="D74" s="165"/>
-      <c r="E74" s="52"/>
-      <c r="F74" s="46"/>
-      <c r="G74" s="46"/>
-      <c r="H74" s="46"/>
-      <c r="I74" s="119"/>
-      <c r="J74" s="158"/>
-      <c r="K74" s="159"/>
-      <c r="L74" s="160"/>
-      <c r="M74" s="160"/>
-      <c r="N74" s="160"/>
-      <c r="O74" s="160"/>
-      <c r="P74" s="160"/>
-      <c r="Q74" s="160"/>
-      <c r="R74" s="160"/>
-      <c r="S74" s="160"/>
-      <c r="T74" s="160"/>
-      <c r="U74" s="160"/>
-      <c r="V74" s="160"/>
-      <c r="W74" s="161"/>
+      <c r="A74" s="122"/>
+      <c r="B74" s="122"/>
+      <c r="C74" s="141"/>
+      <c r="D74" s="142"/>
+      <c r="E74" s="49"/>
+      <c r="F74" s="43"/>
+      <c r="G74" s="43"/>
+      <c r="H74" s="43"/>
+      <c r="I74" s="99"/>
+      <c r="J74" s="180"/>
+      <c r="K74" s="178"/>
+      <c r="L74" s="154"/>
+      <c r="M74" s="154"/>
+      <c r="N74" s="154"/>
+      <c r="O74" s="154"/>
+      <c r="P74" s="154"/>
+      <c r="Q74" s="154"/>
+      <c r="R74" s="154"/>
+      <c r="S74" s="154"/>
+      <c r="T74" s="154"/>
+      <c r="U74" s="154"/>
+      <c r="V74" s="154"/>
+      <c r="W74" s="138"/>
     </row>
     <row r="75" spans="1:23" ht="9" customHeight="1">
-      <c r="A75" s="154"/>
-      <c r="B75" s="154"/>
-      <c r="C75" s="47"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="53"/>
-      <c r="F75" s="45"/>
-      <c r="G75" s="45"/>
-      <c r="H75" s="45"/>
-      <c r="I75" s="120"/>
-      <c r="J75" s="155"/>
-      <c r="K75" s="156"/>
-      <c r="L75" s="157"/>
-      <c r="M75" s="157"/>
-      <c r="N75" s="157"/>
-      <c r="O75" s="157"/>
-      <c r="P75" s="157"/>
-      <c r="Q75" s="157"/>
-      <c r="R75" s="157"/>
-      <c r="S75" s="157"/>
-      <c r="T75" s="157"/>
-      <c r="U75" s="157"/>
-      <c r="V75" s="157"/>
-      <c r="W75" s="157"/>
+      <c r="A75" s="122"/>
+      <c r="B75" s="122"/>
+      <c r="C75" s="44"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="50"/>
+      <c r="F75" s="42"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="42"/>
+      <c r="I75" s="100"/>
+      <c r="J75" s="94"/>
+      <c r="K75" s="71"/>
+      <c r="L75" s="72"/>
+      <c r="M75" s="72"/>
+      <c r="N75" s="72"/>
+      <c r="O75" s="72"/>
+      <c r="P75" s="72"/>
+      <c r="Q75" s="72"/>
+      <c r="R75" s="72"/>
+      <c r="S75" s="72"/>
+      <c r="T75" s="72"/>
+      <c r="U75" s="72"/>
+      <c r="V75" s="72"/>
+      <c r="W75" s="134"/>
     </row>
     <row r="76" spans="1:23" ht="9" customHeight="1">
-      <c r="A76" s="154"/>
-      <c r="B76" s="154"/>
-      <c r="C76" s="47"/>
-      <c r="D76" s="48"/>
-      <c r="E76" s="53"/>
-      <c r="F76" s="45"/>
-      <c r="G76" s="45"/>
-      <c r="H76" s="45"/>
-      <c r="I76" s="120"/>
-      <c r="J76" s="128"/>
-      <c r="K76" s="133"/>
-      <c r="L76" s="134"/>
-      <c r="M76" s="134"/>
-      <c r="N76" s="134"/>
-      <c r="O76" s="134"/>
-      <c r="P76" s="134"/>
-      <c r="Q76" s="134"/>
-      <c r="R76" s="134"/>
-      <c r="S76" s="134"/>
-      <c r="T76" s="134"/>
-      <c r="U76" s="134"/>
-      <c r="V76" s="134"/>
-      <c r="W76" s="78"/>
+      <c r="A76" s="122"/>
+      <c r="B76" s="122"/>
+      <c r="C76" s="44"/>
+      <c r="D76" s="45"/>
+      <c r="E76" s="50"/>
+      <c r="F76" s="42"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="42"/>
+      <c r="I76" s="100"/>
+      <c r="J76" s="166"/>
+      <c r="K76" s="153"/>
+      <c r="L76" s="161"/>
+      <c r="M76" s="161"/>
+      <c r="N76" s="161"/>
+      <c r="O76" s="161"/>
+      <c r="P76" s="161"/>
+      <c r="Q76" s="161"/>
+      <c r="R76" s="161"/>
+      <c r="S76" s="161"/>
+      <c r="T76" s="161"/>
+      <c r="U76" s="161"/>
+      <c r="V76" s="161"/>
+      <c r="W76" s="167"/>
     </row>
     <row r="77" spans="1:23" ht="9" customHeight="1">
-      <c r="A77" s="154"/>
-      <c r="B77" s="154"/>
+      <c r="A77" s="122"/>
+      <c r="B77" s="122"/>
       <c r="C77" s="33"/>
       <c r="D77" s="34"/>
-      <c r="E77" s="54"/>
-      <c r="F77" s="51"/>
-      <c r="G77" s="51"/>
-      <c r="H77" s="51"/>
-      <c r="I77" s="121"/>
-      <c r="J77" s="114"/>
-      <c r="K77" s="115"/>
-      <c r="L77" s="116"/>
-      <c r="M77" s="116"/>
-      <c r="N77" s="116"/>
-      <c r="O77" s="116"/>
-      <c r="P77" s="116"/>
-      <c r="Q77" s="116"/>
-      <c r="R77" s="116"/>
-      <c r="S77" s="116"/>
-      <c r="T77" s="116"/>
-      <c r="U77" s="116"/>
-      <c r="V77" s="116"/>
-      <c r="W77" s="116"/>
+      <c r="E77" s="51"/>
+      <c r="F77" s="48"/>
+      <c r="G77" s="48"/>
+      <c r="H77" s="48"/>
+      <c r="I77" s="101"/>
+      <c r="J77" s="84"/>
+      <c r="K77" s="89"/>
+      <c r="L77" s="90"/>
+      <c r="M77" s="90"/>
+      <c r="N77" s="90"/>
+      <c r="O77" s="90"/>
+      <c r="P77" s="90"/>
+      <c r="Q77" s="90"/>
+      <c r="R77" s="90"/>
+      <c r="S77" s="90"/>
+      <c r="T77" s="90"/>
+      <c r="U77" s="90"/>
+      <c r="V77" s="90"/>
+      <c r="W77" s="139"/>
     </row>
     <row r="78" spans="1:23" ht="9" customHeight="1">
-      <c r="A78" s="154"/>
-      <c r="B78" s="154"/>
-      <c r="C78" s="164"/>
-      <c r="D78" s="165"/>
-      <c r="E78" s="55"/>
-      <c r="F78" s="56"/>
-      <c r="G78" s="46"/>
-      <c r="H78" s="56"/>
-      <c r="I78" s="119"/>
-      <c r="J78" s="113"/>
-      <c r="K78" s="122"/>
-      <c r="L78" s="123"/>
-      <c r="M78" s="123"/>
-      <c r="N78" s="123"/>
-      <c r="O78" s="123"/>
-      <c r="P78" s="123"/>
-      <c r="Q78" s="123"/>
-      <c r="R78" s="123"/>
-      <c r="S78" s="123"/>
-      <c r="T78" s="123"/>
-      <c r="U78" s="123"/>
-      <c r="V78" s="157"/>
-      <c r="W78" s="151"/>
+      <c r="A78" s="122"/>
+      <c r="B78" s="122"/>
+      <c r="C78" s="141"/>
+      <c r="D78" s="142"/>
+      <c r="E78" s="52"/>
+      <c r="F78" s="53"/>
+      <c r="G78" s="43"/>
+      <c r="H78" s="53"/>
+      <c r="I78" s="99"/>
+      <c r="J78" s="180"/>
+      <c r="K78" s="102"/>
+      <c r="L78" s="103"/>
+      <c r="M78" s="103"/>
+      <c r="N78" s="103"/>
+      <c r="O78" s="103"/>
+      <c r="P78" s="103"/>
+      <c r="Q78" s="103"/>
+      <c r="R78" s="103"/>
+      <c r="S78" s="103"/>
+      <c r="T78" s="103"/>
+      <c r="U78" s="103"/>
+      <c r="V78" s="154"/>
+      <c r="W78" s="138"/>
     </row>
     <row r="79" spans="1:23" ht="9" customHeight="1">
-      <c r="A79" s="154"/>
-      <c r="B79" s="154"/>
-      <c r="C79" s="47"/>
-      <c r="D79" s="48"/>
-      <c r="E79" s="53"/>
-      <c r="F79" s="45"/>
-      <c r="G79" s="45"/>
-      <c r="H79" s="45"/>
-      <c r="I79" s="120"/>
-      <c r="J79" s="114"/>
-      <c r="K79" s="124"/>
-      <c r="L79" s="125"/>
-      <c r="M79" s="125"/>
-      <c r="N79" s="125"/>
-      <c r="O79" s="125"/>
-      <c r="P79" s="125"/>
-      <c r="Q79" s="125"/>
-      <c r="R79" s="125"/>
-      <c r="S79" s="125"/>
-      <c r="T79" s="125"/>
-      <c r="U79" s="125"/>
-      <c r="V79" s="58"/>
-      <c r="W79" s="142"/>
+      <c r="A79" s="122"/>
+      <c r="B79" s="122"/>
+      <c r="C79" s="44"/>
+      <c r="D79" s="45"/>
+      <c r="E79" s="50"/>
+      <c r="F79" s="42"/>
+      <c r="G79" s="42"/>
+      <c r="H79" s="42"/>
+      <c r="I79" s="100"/>
+      <c r="J79" s="94"/>
+      <c r="K79" s="104"/>
+      <c r="L79" s="105"/>
+      <c r="M79" s="105"/>
+      <c r="N79" s="105"/>
+      <c r="O79" s="105"/>
+      <c r="P79" s="105"/>
+      <c r="Q79" s="105"/>
+      <c r="R79" s="105"/>
+      <c r="S79" s="105"/>
+      <c r="T79" s="105"/>
+      <c r="U79" s="105"/>
+      <c r="V79" s="72"/>
+      <c r="W79" s="134"/>
     </row>
     <row r="80" spans="1:23" ht="9" customHeight="1">
-      <c r="A80" s="154"/>
-      <c r="B80" s="154"/>
-      <c r="C80" s="47"/>
-      <c r="D80" s="48"/>
-      <c r="E80" s="53"/>
-      <c r="F80" s="45"/>
-      <c r="G80" s="45"/>
-      <c r="H80" s="45"/>
-      <c r="I80" s="120"/>
-      <c r="J80" s="128"/>
-      <c r="K80" s="133"/>
-      <c r="L80" s="134"/>
-      <c r="M80" s="134"/>
-      <c r="N80" s="134"/>
-      <c r="O80" s="134"/>
-      <c r="P80" s="134"/>
-      <c r="Q80" s="134"/>
-      <c r="R80" s="134"/>
-      <c r="S80" s="134"/>
-      <c r="T80" s="134"/>
-      <c r="U80" s="134"/>
-      <c r="V80" s="134"/>
-      <c r="W80" s="78"/>
+      <c r="A80" s="122"/>
+      <c r="B80" s="122"/>
+      <c r="C80" s="44"/>
+      <c r="D80" s="45"/>
+      <c r="E80" s="50"/>
+      <c r="F80" s="42"/>
+      <c r="G80" s="42"/>
+      <c r="H80" s="42"/>
+      <c r="I80" s="100"/>
+      <c r="J80" s="166"/>
+      <c r="K80" s="153"/>
+      <c r="L80" s="161"/>
+      <c r="M80" s="161"/>
+      <c r="N80" s="161"/>
+      <c r="O80" s="161"/>
+      <c r="P80" s="161"/>
+      <c r="Q80" s="161"/>
+      <c r="R80" s="161"/>
+      <c r="S80" s="161"/>
+      <c r="T80" s="161"/>
+      <c r="U80" s="161"/>
+      <c r="V80" s="161"/>
+      <c r="W80" s="167"/>
     </row>
     <row r="81" spans="1:23" ht="9" customHeight="1">
-      <c r="A81" s="154"/>
-      <c r="B81" s="154"/>
+      <c r="A81" s="122"/>
+      <c r="B81" s="122"/>
       <c r="C81" s="33"/>
       <c r="D81" s="34"/>
-      <c r="E81" s="54"/>
-      <c r="F81" s="51"/>
-      <c r="G81" s="51"/>
-      <c r="H81" s="51"/>
-      <c r="I81" s="121"/>
-      <c r="J81" s="114"/>
-      <c r="K81" s="126"/>
-      <c r="L81" s="127"/>
-      <c r="M81" s="127"/>
-      <c r="N81" s="127"/>
-      <c r="O81" s="127"/>
-      <c r="P81" s="127"/>
-      <c r="Q81" s="127"/>
-      <c r="R81" s="127"/>
-      <c r="S81" s="127"/>
-      <c r="T81" s="127"/>
-      <c r="U81" s="127"/>
-      <c r="V81" s="157"/>
-      <c r="W81" s="149"/>
+      <c r="E81" s="51"/>
+      <c r="F81" s="48"/>
+      <c r="G81" s="48"/>
+      <c r="H81" s="48"/>
+      <c r="I81" s="101"/>
+      <c r="J81" s="84"/>
+      <c r="K81" s="106"/>
+      <c r="L81" s="107"/>
+      <c r="M81" s="107"/>
+      <c r="N81" s="107"/>
+      <c r="O81" s="107"/>
+      <c r="P81" s="107"/>
+      <c r="Q81" s="107"/>
+      <c r="R81" s="107"/>
+      <c r="S81" s="107"/>
+      <c r="T81" s="107"/>
+      <c r="U81" s="107"/>
+      <c r="V81" s="90"/>
+      <c r="W81" s="139"/>
     </row>
     <row r="82" spans="1:23" ht="9" customHeight="1">
-      <c r="A82" s="154"/>
-      <c r="B82" s="154"/>
-      <c r="C82" s="164"/>
-      <c r="D82" s="165"/>
-      <c r="E82" s="57"/>
-      <c r="F82" s="58"/>
-      <c r="G82" s="58"/>
-      <c r="H82" s="58"/>
-      <c r="I82" s="119"/>
-      <c r="J82" s="158"/>
-      <c r="K82" s="159"/>
-      <c r="L82" s="160"/>
-      <c r="M82" s="160"/>
-      <c r="N82" s="160"/>
-      <c r="O82" s="160"/>
-      <c r="P82" s="160"/>
-      <c r="Q82" s="160"/>
-      <c r="R82" s="160"/>
-      <c r="S82" s="160"/>
-      <c r="T82" s="160"/>
-      <c r="U82" s="160"/>
-      <c r="V82" s="160"/>
-      <c r="W82" s="161"/>
+      <c r="A82" s="122"/>
+      <c r="B82" s="122"/>
+      <c r="C82" s="141"/>
+      <c r="D82" s="142"/>
+      <c r="E82" s="54"/>
+      <c r="F82" s="55"/>
+      <c r="G82" s="55"/>
+      <c r="H82" s="55"/>
+      <c r="I82" s="99"/>
+      <c r="J82" s="177"/>
+      <c r="K82" s="178"/>
+      <c r="L82" s="154"/>
+      <c r="M82" s="154"/>
+      <c r="N82" s="154"/>
+      <c r="O82" s="154"/>
+      <c r="P82" s="154"/>
+      <c r="Q82" s="154"/>
+      <c r="R82" s="154"/>
+      <c r="S82" s="154"/>
+      <c r="T82" s="154"/>
+      <c r="U82" s="154"/>
+      <c r="V82" s="154"/>
+      <c r="W82" s="179"/>
     </row>
     <row r="83" spans="1:23" ht="9" customHeight="1">
-      <c r="A83" s="154"/>
-      <c r="B83" s="154"/>
-      <c r="C83" s="47"/>
-      <c r="D83" s="48"/>
-      <c r="E83" s="59"/>
+      <c r="A83" s="122"/>
+      <c r="B83" s="122"/>
+      <c r="C83" s="44"/>
+      <c r="D83" s="45"/>
+      <c r="E83" s="56"/>
       <c r="F83" s="17"/>
       <c r="G83" s="17"/>
       <c r="H83" s="17"/>
-      <c r="I83" s="120"/>
-      <c r="J83" s="155"/>
-      <c r="K83" s="156"/>
-      <c r="L83" s="157"/>
-      <c r="M83" s="157"/>
-      <c r="N83" s="157"/>
-      <c r="O83" s="157"/>
-      <c r="P83" s="157"/>
-      <c r="Q83" s="157"/>
-      <c r="R83" s="157"/>
-      <c r="S83" s="157"/>
-      <c r="T83" s="157"/>
-      <c r="U83" s="157"/>
-      <c r="V83" s="157"/>
-      <c r="W83" s="157"/>
+      <c r="I83" s="100"/>
+      <c r="J83" s="108"/>
+      <c r="K83" s="71"/>
+      <c r="L83" s="72"/>
+      <c r="M83" s="72"/>
+      <c r="N83" s="72"/>
+      <c r="O83" s="72"/>
+      <c r="P83" s="72"/>
+      <c r="Q83" s="72"/>
+      <c r="R83" s="72"/>
+      <c r="S83" s="72"/>
+      <c r="T83" s="72"/>
+      <c r="U83" s="72"/>
+      <c r="V83" s="72"/>
+      <c r="W83" s="132"/>
     </row>
     <row r="84" spans="1:23" ht="9" customHeight="1">
-      <c r="A84" s="154"/>
-      <c r="B84" s="154"/>
-      <c r="C84" s="47"/>
-      <c r="D84" s="48"/>
-      <c r="E84" s="53"/>
-      <c r="F84" s="45"/>
-      <c r="G84" s="45"/>
-      <c r="H84" s="60"/>
-      <c r="I84" s="120"/>
-      <c r="J84" s="128"/>
-      <c r="K84" s="133"/>
-      <c r="L84" s="134"/>
-      <c r="M84" s="134"/>
-      <c r="N84" s="134"/>
-      <c r="O84" s="134"/>
-      <c r="P84" s="134"/>
-      <c r="Q84" s="134"/>
-      <c r="R84" s="134"/>
-      <c r="S84" s="134"/>
-      <c r="T84" s="134"/>
-      <c r="U84" s="134"/>
-      <c r="V84" s="134"/>
-      <c r="W84" s="78"/>
+      <c r="A84" s="122"/>
+      <c r="B84" s="122"/>
+      <c r="C84" s="44"/>
+      <c r="D84" s="45"/>
+      <c r="E84" s="50"/>
+      <c r="F84" s="42"/>
+      <c r="G84" s="42"/>
+      <c r="H84" s="57"/>
+      <c r="I84" s="100"/>
+      <c r="J84" s="175"/>
+      <c r="K84" s="153"/>
+      <c r="L84" s="161"/>
+      <c r="M84" s="161"/>
+      <c r="N84" s="161"/>
+      <c r="O84" s="161"/>
+      <c r="P84" s="161"/>
+      <c r="Q84" s="161"/>
+      <c r="R84" s="161"/>
+      <c r="S84" s="161"/>
+      <c r="T84" s="161"/>
+      <c r="U84" s="161"/>
+      <c r="V84" s="161"/>
+      <c r="W84" s="128"/>
     </row>
     <row r="85" spans="1:23" ht="9" customHeight="1">
-      <c r="A85" s="154"/>
-      <c r="B85" s="154"/>
+      <c r="A85" s="122"/>
+      <c r="B85" s="122"/>
       <c r="C85" s="33"/>
       <c r="D85" s="34"/>
-      <c r="E85" s="54"/>
-      <c r="F85" s="51"/>
-      <c r="G85" s="51"/>
-      <c r="H85" s="61"/>
-      <c r="I85" s="121"/>
-      <c r="J85" s="114"/>
-      <c r="K85" s="115"/>
-      <c r="L85" s="116"/>
-      <c r="M85" s="116"/>
-      <c r="N85" s="116"/>
-      <c r="O85" s="116"/>
-      <c r="P85" s="116"/>
-      <c r="Q85" s="116"/>
-      <c r="R85" s="116"/>
-      <c r="S85" s="116"/>
-      <c r="T85" s="116"/>
-      <c r="U85" s="116"/>
-      <c r="V85" s="116"/>
-      <c r="W85" s="116"/>
+      <c r="E85" s="51"/>
+      <c r="F85" s="48"/>
+      <c r="G85" s="48"/>
+      <c r="H85" s="58"/>
+      <c r="I85" s="101"/>
+      <c r="J85" s="109"/>
+      <c r="K85" s="89"/>
+      <c r="L85" s="90"/>
+      <c r="M85" s="90"/>
+      <c r="N85" s="90"/>
+      <c r="O85" s="90"/>
+      <c r="P85" s="90"/>
+      <c r="Q85" s="90"/>
+      <c r="R85" s="90"/>
+      <c r="S85" s="90"/>
+      <c r="T85" s="90"/>
+      <c r="U85" s="90"/>
+      <c r="V85" s="90"/>
+      <c r="W85" s="139"/>
     </row>
     <row r="86" spans="1:23" ht="9" customHeight="1">
-      <c r="A86" s="154"/>
-      <c r="B86" s="154"/>
-      <c r="C86" s="164"/>
-      <c r="D86" s="165"/>
-      <c r="E86" s="57"/>
-      <c r="F86" s="58"/>
-      <c r="G86" s="58"/>
-      <c r="H86" s="58"/>
-      <c r="I86" s="119"/>
-      <c r="J86" s="158"/>
-      <c r="K86" s="159"/>
-      <c r="L86" s="160"/>
-      <c r="M86" s="160"/>
-      <c r="N86" s="160"/>
-      <c r="O86" s="160"/>
-      <c r="P86" s="160"/>
-      <c r="Q86" s="160"/>
-      <c r="R86" s="160"/>
-      <c r="S86" s="160"/>
-      <c r="T86" s="160"/>
-      <c r="U86" s="160"/>
-      <c r="V86" s="160"/>
-      <c r="W86" s="161"/>
+      <c r="A86" s="122"/>
+      <c r="B86" s="122"/>
+      <c r="C86" s="141"/>
+      <c r="D86" s="142"/>
+      <c r="E86" s="54"/>
+      <c r="F86" s="55"/>
+      <c r="G86" s="55"/>
+      <c r="H86" s="55"/>
+      <c r="I86" s="99"/>
+      <c r="J86" s="177"/>
+      <c r="K86" s="178"/>
+      <c r="L86" s="154"/>
+      <c r="M86" s="154"/>
+      <c r="N86" s="154"/>
+      <c r="O86" s="154"/>
+      <c r="P86" s="154"/>
+      <c r="Q86" s="154"/>
+      <c r="R86" s="154"/>
+      <c r="S86" s="154"/>
+      <c r="T86" s="154"/>
+      <c r="U86" s="154"/>
+      <c r="V86" s="154"/>
+      <c r="W86" s="179"/>
     </row>
     <row r="87" spans="1:23" ht="9" customHeight="1">
-      <c r="A87" s="154"/>
-      <c r="B87" s="154"/>
-      <c r="C87" s="47"/>
-      <c r="D87" s="48"/>
-      <c r="E87" s="59"/>
+      <c r="A87" s="122"/>
+      <c r="B87" s="122"/>
+      <c r="C87" s="44"/>
+      <c r="D87" s="45"/>
+      <c r="E87" s="56"/>
       <c r="F87" s="17"/>
       <c r="G87" s="17"/>
       <c r="H87" s="17"/>
-      <c r="I87" s="120"/>
-      <c r="J87" s="155"/>
-      <c r="K87" s="156"/>
-      <c r="L87" s="157"/>
-      <c r="M87" s="157"/>
-      <c r="N87" s="157"/>
-      <c r="O87" s="157"/>
-      <c r="P87" s="157"/>
-      <c r="Q87" s="157"/>
-      <c r="R87" s="157"/>
-      <c r="S87" s="157"/>
-      <c r="T87" s="157"/>
-      <c r="U87" s="157"/>
-      <c r="V87" s="157"/>
-      <c r="W87" s="157"/>
+      <c r="I87" s="100"/>
+      <c r="J87" s="110"/>
+      <c r="K87" s="71"/>
+      <c r="L87" s="72"/>
+      <c r="M87" s="72"/>
+      <c r="N87" s="72"/>
+      <c r="O87" s="72"/>
+      <c r="P87" s="72"/>
+      <c r="Q87" s="72"/>
+      <c r="R87" s="72"/>
+      <c r="S87" s="72"/>
+      <c r="T87" s="72"/>
+      <c r="U87" s="72"/>
+      <c r="V87" s="72"/>
+      <c r="W87" s="132"/>
     </row>
     <row r="88" spans="1:23" ht="9" customHeight="1">
-      <c r="A88" s="154"/>
-      <c r="B88" s="154"/>
-      <c r="C88" s="47"/>
-      <c r="D88" s="48"/>
-      <c r="E88" s="53"/>
-      <c r="F88" s="45"/>
-      <c r="G88" s="45"/>
-      <c r="H88" s="60"/>
-      <c r="I88" s="120"/>
-      <c r="J88" s="128"/>
-      <c r="K88" s="133"/>
-      <c r="L88" s="134"/>
-      <c r="M88" s="134"/>
-      <c r="N88" s="134"/>
-      <c r="O88" s="134"/>
-      <c r="P88" s="134"/>
-      <c r="Q88" s="134"/>
-      <c r="R88" s="134"/>
-      <c r="S88" s="134"/>
-      <c r="T88" s="134"/>
-      <c r="U88" s="134"/>
-      <c r="V88" s="134"/>
-      <c r="W88" s="78"/>
+      <c r="A88" s="122"/>
+      <c r="B88" s="122"/>
+      <c r="C88" s="44"/>
+      <c r="D88" s="45"/>
+      <c r="E88" s="50"/>
+      <c r="F88" s="42"/>
+      <c r="G88" s="42"/>
+      <c r="H88" s="57"/>
+      <c r="I88" s="100"/>
+      <c r="J88" s="175"/>
+      <c r="K88" s="153"/>
+      <c r="L88" s="161"/>
+      <c r="M88" s="161"/>
+      <c r="N88" s="161"/>
+      <c r="O88" s="161"/>
+      <c r="P88" s="161"/>
+      <c r="Q88" s="161"/>
+      <c r="R88" s="161"/>
+      <c r="S88" s="161"/>
+      <c r="T88" s="161"/>
+      <c r="U88" s="161"/>
+      <c r="V88" s="161"/>
+      <c r="W88" s="128"/>
     </row>
     <row r="89" spans="1:23" ht="9" customHeight="1">
-      <c r="A89" s="154"/>
-      <c r="B89" s="154"/>
+      <c r="A89" s="122"/>
+      <c r="B89" s="122"/>
       <c r="C89" s="33"/>
       <c r="D89" s="34"/>
-      <c r="E89" s="54"/>
-      <c r="F89" s="51"/>
-      <c r="G89" s="51"/>
-      <c r="H89" s="51"/>
-      <c r="I89" s="121"/>
-      <c r="J89" s="114"/>
-      <c r="K89" s="115"/>
-      <c r="L89" s="116"/>
-      <c r="M89" s="116"/>
-      <c r="N89" s="116"/>
-      <c r="O89" s="116"/>
-      <c r="P89" s="116"/>
-      <c r="Q89" s="116"/>
-      <c r="R89" s="116"/>
-      <c r="S89" s="116"/>
-      <c r="T89" s="116"/>
-      <c r="U89" s="116"/>
-      <c r="V89" s="116"/>
-      <c r="W89" s="116"/>
+      <c r="E89" s="51"/>
+      <c r="F89" s="48"/>
+      <c r="G89" s="48"/>
+      <c r="H89" s="48"/>
+      <c r="I89" s="101"/>
+      <c r="J89" s="110"/>
+      <c r="K89" s="89"/>
+      <c r="L89" s="90"/>
+      <c r="M89" s="90"/>
+      <c r="N89" s="90"/>
+      <c r="O89" s="90"/>
+      <c r="P89" s="90"/>
+      <c r="Q89" s="90"/>
+      <c r="R89" s="90"/>
+      <c r="S89" s="90"/>
+      <c r="T89" s="90"/>
+      <c r="U89" s="90"/>
+      <c r="V89" s="90"/>
+      <c r="W89" s="139"/>
     </row>
     <row r="90" spans="1:23" ht="9" customHeight="1">
-      <c r="A90" s="154"/>
-      <c r="B90" s="154"/>
-      <c r="C90" s="164"/>
-      <c r="D90" s="165"/>
+      <c r="A90" s="122"/>
+      <c r="B90" s="122"/>
+      <c r="C90" s="141"/>
+      <c r="D90" s="142"/>
       <c r="E90" s="37"/>
-      <c r="F90" s="62"/>
-      <c r="G90" s="58"/>
-      <c r="H90" s="58"/>
-      <c r="I90" s="131"/>
-      <c r="J90" s="158"/>
-      <c r="K90" s="159"/>
-      <c r="L90" s="160"/>
-      <c r="M90" s="160"/>
-      <c r="N90" s="160"/>
-      <c r="O90" s="160"/>
-      <c r="P90" s="160"/>
-      <c r="Q90" s="160"/>
-      <c r="R90" s="160"/>
-      <c r="S90" s="160"/>
-      <c r="T90" s="160"/>
-      <c r="U90" s="160"/>
-      <c r="V90" s="160"/>
-      <c r="W90" s="161"/>
+      <c r="F90" s="59"/>
+      <c r="G90" s="55"/>
+      <c r="H90" s="55"/>
+      <c r="I90" s="111"/>
+      <c r="J90" s="177"/>
+      <c r="K90" s="178"/>
+      <c r="L90" s="154"/>
+      <c r="M90" s="154"/>
+      <c r="N90" s="154"/>
+      <c r="O90" s="154"/>
+      <c r="P90" s="154"/>
+      <c r="Q90" s="154"/>
+      <c r="R90" s="154"/>
+      <c r="S90" s="154"/>
+      <c r="T90" s="154"/>
+      <c r="U90" s="154"/>
+      <c r="V90" s="154"/>
+      <c r="W90" s="179"/>
     </row>
     <row r="91" spans="1:23" ht="9" customHeight="1">
-      <c r="A91" s="154"/>
-      <c r="B91" s="154"/>
-      <c r="C91" s="47"/>
-      <c r="D91" s="48"/>
-      <c r="E91" s="41"/>
-      <c r="F91" s="63"/>
+      <c r="A91" s="122"/>
+      <c r="B91" s="122"/>
+      <c r="C91" s="44"/>
+      <c r="D91" s="45"/>
+      <c r="E91" s="38"/>
+      <c r="F91" s="60"/>
       <c r="G91" s="17"/>
       <c r="H91" s="17"/>
-      <c r="I91" s="132"/>
-      <c r="J91" s="155"/>
-      <c r="K91" s="156"/>
-      <c r="L91" s="157"/>
-      <c r="M91" s="157"/>
-      <c r="N91" s="157"/>
-      <c r="O91" s="157"/>
-      <c r="P91" s="157"/>
-      <c r="Q91" s="157"/>
-      <c r="R91" s="157"/>
-      <c r="S91" s="157"/>
-      <c r="T91" s="157"/>
-      <c r="U91" s="157"/>
-      <c r="V91" s="157"/>
-      <c r="W91" s="157"/>
+      <c r="I91" s="112"/>
+      <c r="J91" s="108"/>
+      <c r="K91" s="113"/>
+      <c r="L91" s="114"/>
+      <c r="M91" s="114"/>
+      <c r="N91" s="114"/>
+      <c r="O91" s="114"/>
+      <c r="P91" s="114"/>
+      <c r="Q91" s="114"/>
+      <c r="R91" s="114"/>
+      <c r="S91" s="114"/>
+      <c r="T91" s="114"/>
+      <c r="U91" s="114"/>
+      <c r="V91" s="114"/>
+      <c r="W91" s="132"/>
     </row>
     <row r="92" spans="1:23" ht="9" customHeight="1">
-      <c r="A92" s="154"/>
-      <c r="B92" s="154"/>
-      <c r="C92" s="47"/>
-      <c r="D92" s="48"/>
-      <c r="E92" s="41"/>
-      <c r="F92" s="63"/>
-      <c r="G92" s="64"/>
-      <c r="H92" s="65"/>
-      <c r="I92" s="120"/>
-      <c r="J92" s="128"/>
-      <c r="K92" s="133"/>
-      <c r="L92" s="134"/>
-      <c r="M92" s="134"/>
-      <c r="N92" s="134"/>
-      <c r="O92" s="134"/>
-      <c r="P92" s="134"/>
-      <c r="Q92" s="134"/>
-      <c r="R92" s="134"/>
-      <c r="S92" s="134"/>
-      <c r="T92" s="134"/>
-      <c r="U92" s="134"/>
-      <c r="V92" s="134"/>
-      <c r="W92" s="78"/>
+      <c r="A92" s="122"/>
+      <c r="B92" s="122"/>
+      <c r="C92" s="44"/>
+      <c r="D92" s="45"/>
+      <c r="E92" s="38"/>
+      <c r="F92" s="60"/>
+      <c r="G92" s="61"/>
+      <c r="H92" s="62"/>
+      <c r="I92" s="100"/>
+      <c r="J92" s="175"/>
+      <c r="K92" s="176"/>
+      <c r="L92" s="161"/>
+      <c r="M92" s="161"/>
+      <c r="N92" s="161"/>
+      <c r="O92" s="161"/>
+      <c r="P92" s="161"/>
+      <c r="Q92" s="161"/>
+      <c r="R92" s="161"/>
+      <c r="S92" s="161"/>
+      <c r="T92" s="161"/>
+      <c r="U92" s="161"/>
+      <c r="V92" s="161"/>
+      <c r="W92" s="133"/>
     </row>
     <row r="93" spans="1:23" ht="9" customHeight="1">
-      <c r="A93" s="154"/>
-      <c r="B93" s="154"/>
+      <c r="A93" s="122"/>
+      <c r="B93" s="122"/>
       <c r="C93" s="33"/>
       <c r="D93" s="34"/>
-      <c r="E93" s="49"/>
-      <c r="F93" s="66"/>
-      <c r="G93" s="50"/>
-      <c r="H93" s="61"/>
-      <c r="I93" s="121"/>
-      <c r="J93" s="114"/>
+      <c r="E93" s="46"/>
+      <c r="F93" s="63"/>
+      <c r="G93" s="47"/>
+      <c r="H93" s="58"/>
+      <c r="I93" s="101"/>
+      <c r="J93" s="109"/>
       <c r="K93" s="115"/>
-      <c r="L93" s="116"/>
-      <c r="M93" s="116"/>
-      <c r="N93" s="116"/>
-      <c r="O93" s="116"/>
-      <c r="P93" s="116"/>
-      <c r="Q93" s="116"/>
-      <c r="R93" s="116"/>
-      <c r="S93" s="116"/>
-      <c r="T93" s="116"/>
-      <c r="U93" s="116"/>
-      <c r="V93" s="116"/>
-      <c r="W93" s="116"/>
+      <c r="L93" s="90"/>
+      <c r="M93" s="90"/>
+      <c r="N93" s="90"/>
+      <c r="O93" s="90"/>
+      <c r="P93" s="90"/>
+      <c r="Q93" s="90"/>
+      <c r="R93" s="90"/>
+      <c r="S93" s="90"/>
+      <c r="T93" s="90"/>
+      <c r="U93" s="90"/>
+      <c r="V93" s="90"/>
+      <c r="W93" s="139"/>
     </row>
     <row r="94" spans="1:23" ht="9" customHeight="1">
-      <c r="A94" s="154"/>
-      <c r="B94" s="154"/>
-      <c r="C94" s="164"/>
-      <c r="D94" s="165"/>
+      <c r="A94" s="122"/>
+      <c r="B94" s="122"/>
+      <c r="C94" s="141"/>
+      <c r="D94" s="142"/>
       <c r="E94" s="37"/>
-      <c r="F94" s="62"/>
-      <c r="G94" s="58"/>
-      <c r="H94" s="58"/>
-      <c r="I94" s="131"/>
-      <c r="J94" s="158"/>
-      <c r="K94" s="159"/>
-      <c r="L94" s="160"/>
-      <c r="M94" s="160"/>
-      <c r="N94" s="160"/>
-      <c r="O94" s="160"/>
-      <c r="P94" s="160"/>
-      <c r="Q94" s="160"/>
-      <c r="R94" s="160"/>
-      <c r="S94" s="160"/>
-      <c r="T94" s="160"/>
-      <c r="U94" s="160"/>
-      <c r="V94" s="160"/>
-      <c r="W94" s="161"/>
+      <c r="F94" s="59"/>
+      <c r="G94" s="55"/>
+      <c r="H94" s="55"/>
+      <c r="I94" s="111"/>
+      <c r="J94" s="177"/>
+      <c r="K94" s="178"/>
+      <c r="L94" s="154"/>
+      <c r="M94" s="154"/>
+      <c r="N94" s="154"/>
+      <c r="O94" s="154"/>
+      <c r="P94" s="154"/>
+      <c r="Q94" s="154"/>
+      <c r="R94" s="154"/>
+      <c r="S94" s="154"/>
+      <c r="T94" s="154"/>
+      <c r="U94" s="154"/>
+      <c r="V94" s="154"/>
+      <c r="W94" s="135"/>
     </row>
     <row r="95" spans="1:23" ht="9" customHeight="1">
-      <c r="A95" s="154"/>
-      <c r="B95" s="154"/>
-      <c r="C95" s="47"/>
-      <c r="D95" s="48"/>
-      <c r="E95" s="41"/>
-      <c r="F95" s="63"/>
+      <c r="A95" s="122"/>
+      <c r="B95" s="122"/>
+      <c r="C95" s="44"/>
+      <c r="D95" s="45"/>
+      <c r="E95" s="38"/>
+      <c r="F95" s="60"/>
       <c r="G95" s="17"/>
       <c r="H95" s="17"/>
-      <c r="I95" s="132"/>
-      <c r="J95" s="155"/>
-      <c r="K95" s="156"/>
-      <c r="L95" s="157"/>
-      <c r="M95" s="157"/>
-      <c r="N95" s="157"/>
-      <c r="O95" s="157"/>
-      <c r="P95" s="157"/>
-      <c r="Q95" s="157"/>
-      <c r="R95" s="157"/>
-      <c r="S95" s="157"/>
-      <c r="T95" s="157"/>
-      <c r="U95" s="157"/>
-      <c r="V95" s="157"/>
-      <c r="W95" s="157"/>
+      <c r="I95" s="112"/>
+      <c r="J95" s="108"/>
+      <c r="K95" s="113"/>
+      <c r="L95" s="114"/>
+      <c r="M95" s="114"/>
+      <c r="N95" s="114"/>
+      <c r="O95" s="114"/>
+      <c r="P95" s="114"/>
+      <c r="Q95" s="114"/>
+      <c r="R95" s="114"/>
+      <c r="S95" s="114"/>
+      <c r="T95" s="114"/>
+      <c r="U95" s="114"/>
+      <c r="V95" s="114"/>
+      <c r="W95" s="132"/>
     </row>
     <row r="96" spans="1:23" ht="9" customHeight="1">
-      <c r="A96" s="154"/>
-      <c r="B96" s="154"/>
-      <c r="C96" s="47"/>
-      <c r="D96" s="48"/>
-      <c r="E96" s="41"/>
-      <c r="F96" s="63"/>
-      <c r="G96" s="64"/>
-      <c r="H96" s="65"/>
-      <c r="I96" s="120"/>
-      <c r="J96" s="128"/>
-      <c r="K96" s="133"/>
-      <c r="L96" s="134"/>
-      <c r="M96" s="134"/>
-      <c r="N96" s="134"/>
-      <c r="O96" s="134"/>
-      <c r="P96" s="134"/>
-      <c r="Q96" s="134"/>
-      <c r="R96" s="134"/>
-      <c r="S96" s="134"/>
-      <c r="T96" s="134"/>
-      <c r="U96" s="134"/>
-      <c r="V96" s="134"/>
-      <c r="W96" s="78"/>
+      <c r="A96" s="122"/>
+      <c r="B96" s="122"/>
+      <c r="C96" s="44"/>
+      <c r="D96" s="45"/>
+      <c r="E96" s="38"/>
+      <c r="F96" s="60"/>
+      <c r="G96" s="61"/>
+      <c r="H96" s="62"/>
+      <c r="I96" s="100"/>
+      <c r="J96" s="175"/>
+      <c r="K96" s="176"/>
+      <c r="L96" s="161"/>
+      <c r="M96" s="161"/>
+      <c r="N96" s="161"/>
+      <c r="O96" s="161"/>
+      <c r="P96" s="161"/>
+      <c r="Q96" s="161"/>
+      <c r="R96" s="161"/>
+      <c r="S96" s="161"/>
+      <c r="T96" s="161"/>
+      <c r="U96" s="161"/>
+      <c r="V96" s="161"/>
+      <c r="W96" s="133"/>
     </row>
     <row r="97" spans="1:23" ht="9" customHeight="1">
-      <c r="A97" s="163"/>
-      <c r="B97" s="163"/>
+      <c r="A97" s="121"/>
+      <c r="B97" s="121"/>
       <c r="C97" s="33"/>
       <c r="D97" s="34"/>
-      <c r="E97" s="49"/>
-      <c r="F97" s="66"/>
-      <c r="G97" s="50"/>
-      <c r="H97" s="61"/>
-      <c r="I97" s="121"/>
-      <c r="J97" s="96"/>
-      <c r="K97" s="162"/>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
-      <c r="R97" s="17"/>
-      <c r="S97" s="17"/>
-      <c r="T97" s="17"/>
-      <c r="U97" s="17"/>
-      <c r="V97" s="17"/>
-      <c r="W97" s="17"/>
+      <c r="E97" s="46"/>
+      <c r="F97" s="63"/>
+      <c r="G97" s="47"/>
+      <c r="H97" s="58"/>
+      <c r="I97" s="101"/>
+      <c r="J97" s="109"/>
+      <c r="K97" s="115"/>
+      <c r="L97" s="90"/>
+      <c r="M97" s="90"/>
+      <c r="N97" s="90"/>
+      <c r="O97" s="90"/>
+      <c r="P97" s="90"/>
+      <c r="Q97" s="90"/>
+      <c r="R97" s="90"/>
+      <c r="S97" s="90"/>
+      <c r="T97" s="90"/>
+      <c r="U97" s="90"/>
+      <c r="V97" s="90"/>
+      <c r="W97" s="139"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="30">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="A2:W2"/>
     <mergeCell ref="E4:I4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="A6:W6"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C26:D26"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C34:D34"/>
@@ -4343,11 +4549,12 @@
     <mergeCell ref="C86:D86"/>
     <mergeCell ref="C90:D90"/>
     <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C64:D64"/>
     <mergeCell ref="C66:D66"/>
     <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C74:D74"/>
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C74:D74"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.31496062992125984"/>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_v2_template.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_v2_template.xlsx
@@ -1150,7 +1150,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1571,8 +1571,95 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -1580,6 +1667,12 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1603,102 +1696,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1745,7 +1742,7 @@
         <xdr:cNvPr id="2" name="楕円 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2216,13 +2213,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X97"/>
+  <dimension ref="A2:X97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="175" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleSheetLayoutView="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.5" defaultRowHeight="9" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="6.5" defaultRowHeight="12" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="9.83203125" style="1" customWidth="1"/>
     <col min="3" max="4" width="9.1640625" style="1" customWidth="1"/>
@@ -2234,36 +2229,32 @@
     <col min="25" max="16384" width="6.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="9" customHeight="1">
-      <c r="X1" s="140"/>
-    </row>
-    <row r="2" spans="1:24" ht="12" customHeight="1">
-      <c r="A2" s="143"/>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143"/>
-      <c r="M2" s="143"/>
-      <c r="N2" s="143"/>
-      <c r="O2" s="143"/>
-      <c r="P2" s="143"/>
-      <c r="Q2" s="143"/>
-      <c r="R2" s="143"/>
-      <c r="S2" s="143"/>
-      <c r="T2" s="143"/>
-      <c r="U2" s="143"/>
-      <c r="V2" s="143"/>
-      <c r="W2" s="143"/>
-      <c r="X2" s="140"/>
-    </row>
-    <row r="3" spans="1:24" ht="9" customHeight="1" thickBot="1">
+    <row r="2" spans="1:23" ht="12" customHeight="1">
+      <c r="A2" s="174"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="174"/>
+      <c r="J2" s="174"/>
+      <c r="K2" s="174"/>
+      <c r="L2" s="174"/>
+      <c r="M2" s="174"/>
+      <c r="N2" s="174"/>
+      <c r="O2" s="174"/>
+      <c r="P2" s="174"/>
+      <c r="Q2" s="174"/>
+      <c r="R2" s="174"/>
+      <c r="S2" s="174"/>
+      <c r="T2" s="174"/>
+      <c r="U2" s="174"/>
+      <c r="V2" s="174"/>
+      <c r="W2" s="174"/>
+    </row>
+    <row r="3" spans="1:23" ht="12" customHeight="1" thickBot="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2287,20 +2278,19 @@
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
-      <c r="X3" s="140"/>
-    </row>
-    <row r="4" spans="1:24" ht="12" customHeight="1">
+    </row>
+    <row r="4" spans="1:23" ht="12" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="145"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="147"/>
-      <c r="K4" s="148"/>
+      <c r="E4" s="175"/>
+      <c r="F4" s="176"/>
+      <c r="G4" s="176"/>
+      <c r="H4" s="176"/>
+      <c r="I4" s="177"/>
+      <c r="J4" s="178"/>
+      <c r="K4" s="179"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -2314,7 +2304,7 @@
       <c r="V4" s="4"/>
       <c r="W4" s="130"/>
     </row>
-    <row r="5" spans="1:24" ht="12" customHeight="1" thickBot="1">
+    <row r="5" spans="1:23" ht="12" customHeight="1" thickBot="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
@@ -2339,34 +2329,34 @@
       <c r="V5" s="67"/>
       <c r="W5" s="131"/>
     </row>
-    <row r="6" spans="1:24" ht="12" customHeight="1" thickBot="1">
-      <c r="A6" s="149"/>
-      <c r="B6" s="149"/>
-      <c r="C6" s="149"/>
-      <c r="D6" s="149"/>
-      <c r="E6" s="149"/>
-      <c r="F6" s="149"/>
-      <c r="G6" s="149"/>
-      <c r="H6" s="149"/>
-      <c r="I6" s="149"/>
-      <c r="J6" s="149"/>
-      <c r="K6" s="149"/>
-      <c r="L6" s="149"/>
-      <c r="M6" s="149"/>
-      <c r="N6" s="149"/>
-      <c r="O6" s="149"/>
-      <c r="P6" s="149"/>
-      <c r="Q6" s="149"/>
-      <c r="R6" s="149"/>
-      <c r="S6" s="149"/>
-      <c r="T6" s="149"/>
-      <c r="U6" s="149"/>
-      <c r="V6" s="149"/>
-      <c r="W6" s="149"/>
-    </row>
-    <row r="7" spans="1:24" ht="9" customHeight="1">
-      <c r="A7" s="150"/>
-      <c r="B7" s="150"/>
+    <row r="6" spans="1:23" ht="12" customHeight="1" thickBot="1">
+      <c r="A6" s="180"/>
+      <c r="B6" s="180"/>
+      <c r="C6" s="180"/>
+      <c r="D6" s="180"/>
+      <c r="E6" s="180"/>
+      <c r="F6" s="180"/>
+      <c r="G6" s="180"/>
+      <c r="H6" s="180"/>
+      <c r="I6" s="180"/>
+      <c r="J6" s="180"/>
+      <c r="K6" s="180"/>
+      <c r="L6" s="180"/>
+      <c r="M6" s="180"/>
+      <c r="N6" s="180"/>
+      <c r="O6" s="180"/>
+      <c r="P6" s="180"/>
+      <c r="Q6" s="180"/>
+      <c r="R6" s="180"/>
+      <c r="S6" s="180"/>
+      <c r="T6" s="180"/>
+      <c r="U6" s="180"/>
+      <c r="V6" s="180"/>
+      <c r="W6" s="180"/>
+    </row>
+    <row r="7" spans="1:23" ht="12" customHeight="1">
+      <c r="A7" s="181"/>
+      <c r="B7" s="181"/>
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
       <c r="E7" s="12"/>
@@ -2374,24 +2364,24 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="68"/>
-      <c r="J7" s="155"/>
-      <c r="K7" s="156"/>
-      <c r="L7" s="157"/>
-      <c r="M7" s="157"/>
-      <c r="N7" s="157"/>
-      <c r="O7" s="157"/>
-      <c r="P7" s="157"/>
-      <c r="Q7" s="157"/>
-      <c r="R7" s="157"/>
-      <c r="S7" s="157"/>
-      <c r="T7" s="157"/>
-      <c r="U7" s="157"/>
-      <c r="V7" s="157"/>
-      <c r="W7" s="158"/>
-    </row>
-    <row r="8" spans="1:24" ht="9" customHeight="1">
-      <c r="A8" s="151"/>
-      <c r="B8" s="151"/>
+      <c r="J7" s="142"/>
+      <c r="K7" s="143"/>
+      <c r="L7" s="144"/>
+      <c r="M7" s="144"/>
+      <c r="N7" s="144"/>
+      <c r="O7" s="144"/>
+      <c r="P7" s="144"/>
+      <c r="Q7" s="144"/>
+      <c r="R7" s="144"/>
+      <c r="S7" s="144"/>
+      <c r="T7" s="144"/>
+      <c r="U7" s="144"/>
+      <c r="V7" s="144"/>
+      <c r="W7" s="145"/>
+    </row>
+    <row r="8" spans="1:23" ht="12" customHeight="1">
+      <c r="A8" s="172"/>
+      <c r="B8" s="172"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
       <c r="E8" s="16"/>
@@ -2414,9 +2404,9 @@
       <c r="V8" s="72"/>
       <c r="W8" s="132"/>
     </row>
-    <row r="9" spans="1:24" ht="9" customHeight="1">
-      <c r="A9" s="152"/>
-      <c r="B9" s="152"/>
+    <row r="9" spans="1:23" ht="12" customHeight="1">
+      <c r="A9" s="173"/>
+      <c r="B9" s="173"/>
       <c r="C9" s="14"/>
       <c r="D9" s="19"/>
       <c r="E9" s="20"/>
@@ -2424,24 +2414,24 @@
       <c r="G9" s="22"/>
       <c r="H9" s="23"/>
       <c r="I9" s="69"/>
-      <c r="J9" s="159"/>
-      <c r="K9" s="160"/>
-      <c r="L9" s="161"/>
-      <c r="M9" s="161"/>
-      <c r="N9" s="161"/>
-      <c r="O9" s="161"/>
-      <c r="P9" s="161"/>
-      <c r="Q9" s="161"/>
-      <c r="R9" s="161"/>
-      <c r="S9" s="161"/>
-      <c r="T9" s="161"/>
-      <c r="U9" s="161"/>
-      <c r="V9" s="153"/>
+      <c r="J9" s="146"/>
+      <c r="K9" s="147"/>
+      <c r="L9" s="148"/>
+      <c r="M9" s="148"/>
+      <c r="N9" s="148"/>
+      <c r="O9" s="148"/>
+      <c r="P9" s="148"/>
+      <c r="Q9" s="148"/>
+      <c r="R9" s="148"/>
+      <c r="S9" s="148"/>
+      <c r="T9" s="148"/>
+      <c r="U9" s="148"/>
+      <c r="V9" s="140"/>
       <c r="W9" s="133"/>
     </row>
-    <row r="10" spans="1:24" ht="9" customHeight="1">
-      <c r="A10" s="151"/>
-      <c r="B10" s="151"/>
+    <row r="10" spans="1:23" ht="12" customHeight="1">
+      <c r="A10" s="172"/>
+      <c r="B10" s="172"/>
       <c r="C10" s="14"/>
       <c r="D10" s="24"/>
       <c r="E10" s="16"/>
@@ -2464,9 +2454,9 @@
       <c r="V10" s="73"/>
       <c r="W10" s="134"/>
     </row>
-    <row r="11" spans="1:24" ht="9" customHeight="1">
-      <c r="A11" s="151"/>
-      <c r="B11" s="151"/>
+    <row r="11" spans="1:23" ht="12" customHeight="1">
+      <c r="A11" s="172"/>
+      <c r="B11" s="172"/>
       <c r="C11" s="14"/>
       <c r="D11" s="15"/>
       <c r="E11" s="25"/>
@@ -2489,7 +2479,7 @@
       <c r="V11" s="77"/>
       <c r="W11" s="133"/>
     </row>
-    <row r="12" spans="1:24" ht="9" customHeight="1">
+    <row r="12" spans="1:23" ht="12" customHeight="1">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
       <c r="C12" s="29"/>
@@ -2514,11 +2504,11 @@
       <c r="V12" s="60"/>
       <c r="W12" s="128"/>
     </row>
-    <row r="13" spans="1:24" ht="9" customHeight="1">
+    <row r="13" spans="1:23" ht="12" customHeight="1">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
-      <c r="C13" s="141"/>
-      <c r="D13" s="142"/>
+      <c r="C13" s="170"/>
+      <c r="D13" s="171"/>
       <c r="E13" s="30"/>
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
@@ -2535,11 +2525,11 @@
       <c r="R13" s="55"/>
       <c r="S13" s="55"/>
       <c r="T13" s="55"/>
-      <c r="U13" s="154"/>
+      <c r="U13" s="141"/>
       <c r="V13" s="55"/>
       <c r="W13" s="135"/>
     </row>
-    <row r="14" spans="1:24" ht="9" customHeight="1">
+    <row r="14" spans="1:23" ht="12" customHeight="1">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="33"/>
@@ -2564,36 +2554,36 @@
       <c r="V14" s="86"/>
       <c r="W14" s="136"/>
     </row>
-    <row r="15" spans="1:24" ht="9" customHeight="1">
+    <row r="15" spans="1:23" ht="12" customHeight="1">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
-      <c r="C15" s="141"/>
-      <c r="D15" s="142"/>
+      <c r="C15" s="170"/>
+      <c r="D15" s="171"/>
       <c r="E15" s="35"/>
       <c r="F15" s="36"/>
       <c r="G15" s="36"/>
       <c r="H15" s="36"/>
       <c r="I15" s="83"/>
-      <c r="J15" s="162"/>
-      <c r="K15" s="163"/>
-      <c r="L15" s="164"/>
-      <c r="M15" s="164"/>
-      <c r="N15" s="164"/>
-      <c r="O15" s="164"/>
-      <c r="P15" s="164"/>
-      <c r="Q15" s="164"/>
-      <c r="R15" s="164"/>
-      <c r="S15" s="164"/>
-      <c r="T15" s="164"/>
-      <c r="U15" s="164"/>
-      <c r="V15" s="165"/>
+      <c r="J15" s="149"/>
+      <c r="K15" s="150"/>
+      <c r="L15" s="151"/>
+      <c r="M15" s="151"/>
+      <c r="N15" s="151"/>
+      <c r="O15" s="151"/>
+      <c r="P15" s="151"/>
+      <c r="Q15" s="151"/>
+      <c r="R15" s="151"/>
+      <c r="S15" s="151"/>
+      <c r="T15" s="151"/>
+      <c r="U15" s="151"/>
+      <c r="V15" s="152"/>
       <c r="W15" s="136"/>
     </row>
-    <row r="16" spans="1:24" ht="9" customHeight="1">
+    <row r="16" spans="1:23" ht="12" customHeight="1">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
-      <c r="C16" s="141"/>
-      <c r="D16" s="142"/>
+      <c r="C16" s="170"/>
+      <c r="D16" s="171"/>
       <c r="E16" s="30"/>
       <c r="F16" s="31"/>
       <c r="G16" s="31"/>
@@ -2614,7 +2604,7 @@
       <c r="V16" s="120"/>
       <c r="W16" s="137"/>
     </row>
-    <row r="17" spans="1:23" ht="9" customHeight="1">
+    <row r="17" spans="1:23" ht="12" customHeight="1">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="33"/>
@@ -2624,26 +2614,26 @@
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
       <c r="I17" s="88"/>
-      <c r="J17" s="166"/>
-      <c r="K17" s="153"/>
-      <c r="L17" s="161"/>
-      <c r="M17" s="161"/>
-      <c r="N17" s="161"/>
-      <c r="O17" s="161"/>
-      <c r="P17" s="161"/>
-      <c r="Q17" s="161"/>
-      <c r="R17" s="161"/>
-      <c r="S17" s="161"/>
-      <c r="T17" s="161"/>
-      <c r="U17" s="161"/>
-      <c r="V17" s="161"/>
-      <c r="W17" s="167"/>
-    </row>
-    <row r="18" spans="1:23" ht="9" customHeight="1">
+      <c r="J17" s="153"/>
+      <c r="K17" s="140"/>
+      <c r="L17" s="148"/>
+      <c r="M17" s="148"/>
+      <c r="N17" s="148"/>
+      <c r="O17" s="148"/>
+      <c r="P17" s="148"/>
+      <c r="Q17" s="148"/>
+      <c r="R17" s="148"/>
+      <c r="S17" s="148"/>
+      <c r="T17" s="148"/>
+      <c r="U17" s="148"/>
+      <c r="V17" s="148"/>
+      <c r="W17" s="154"/>
+    </row>
+    <row r="18" spans="1:23" ht="12" customHeight="1">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
-      <c r="C18" s="141"/>
-      <c r="D18" s="142"/>
+      <c r="C18" s="170"/>
+      <c r="D18" s="171"/>
       <c r="E18" s="37"/>
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
@@ -2664,7 +2654,7 @@
       <c r="V18" s="120"/>
       <c r="W18" s="137"/>
     </row>
-    <row r="19" spans="1:23" ht="9" customHeight="1">
+    <row r="19" spans="1:23" ht="12" customHeight="1">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="44"/>
@@ -2674,22 +2664,22 @@
       <c r="G19" s="40"/>
       <c r="H19" s="40"/>
       <c r="I19" s="91"/>
-      <c r="J19" s="168"/>
-      <c r="K19" s="169"/>
-      <c r="L19" s="170"/>
-      <c r="M19" s="170"/>
-      <c r="N19" s="170"/>
-      <c r="O19" s="170"/>
-      <c r="P19" s="170"/>
-      <c r="Q19" s="170"/>
-      <c r="R19" s="170"/>
-      <c r="S19" s="170"/>
-      <c r="T19" s="170"/>
-      <c r="U19" s="170"/>
-      <c r="V19" s="170"/>
-      <c r="W19" s="171"/>
-    </row>
-    <row r="20" spans="1:23" ht="9" customHeight="1">
+      <c r="J19" s="155"/>
+      <c r="K19" s="156"/>
+      <c r="L19" s="157"/>
+      <c r="M19" s="157"/>
+      <c r="N19" s="157"/>
+      <c r="O19" s="157"/>
+      <c r="P19" s="157"/>
+      <c r="Q19" s="157"/>
+      <c r="R19" s="157"/>
+      <c r="S19" s="157"/>
+      <c r="T19" s="157"/>
+      <c r="U19" s="157"/>
+      <c r="V19" s="157"/>
+      <c r="W19" s="158"/>
+    </row>
+    <row r="20" spans="1:23" ht="12" customHeight="1">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="44"/>
@@ -2714,7 +2704,7 @@
       <c r="V20" s="114"/>
       <c r="W20" s="132"/>
     </row>
-    <row r="21" spans="1:23" ht="9" customHeight="1">
+    <row r="21" spans="1:23" ht="12" customHeight="1">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="C21" s="33"/>
@@ -2724,26 +2714,26 @@
       <c r="G21" s="48"/>
       <c r="H21" s="48"/>
       <c r="I21" s="97"/>
-      <c r="J21" s="166"/>
-      <c r="K21" s="153"/>
-      <c r="L21" s="161"/>
-      <c r="M21" s="161"/>
-      <c r="N21" s="161"/>
-      <c r="O21" s="161"/>
-      <c r="P21" s="161"/>
-      <c r="Q21" s="161"/>
-      <c r="R21" s="161"/>
-      <c r="S21" s="161"/>
-      <c r="T21" s="161"/>
-      <c r="U21" s="161"/>
-      <c r="V21" s="161"/>
-      <c r="W21" s="167"/>
-    </row>
-    <row r="22" spans="1:23" ht="9" customHeight="1">
+      <c r="J21" s="153"/>
+      <c r="K21" s="140"/>
+      <c r="L21" s="148"/>
+      <c r="M21" s="148"/>
+      <c r="N21" s="148"/>
+      <c r="O21" s="148"/>
+      <c r="P21" s="148"/>
+      <c r="Q21" s="148"/>
+      <c r="R21" s="148"/>
+      <c r="S21" s="148"/>
+      <c r="T21" s="148"/>
+      <c r="U21" s="148"/>
+      <c r="V21" s="148"/>
+      <c r="W21" s="154"/>
+    </row>
+    <row r="22" spans="1:23" ht="12" customHeight="1">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
-      <c r="C22" s="141"/>
-      <c r="D22" s="142"/>
+      <c r="C22" s="170"/>
+      <c r="D22" s="171"/>
       <c r="E22" s="37"/>
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
@@ -2764,7 +2754,7 @@
       <c r="V22" s="120"/>
       <c r="W22" s="137"/>
     </row>
-    <row r="23" spans="1:23" ht="9" customHeight="1">
+    <row r="23" spans="1:23" ht="12" customHeight="1">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="44"/>
@@ -2774,22 +2764,22 @@
       <c r="G23" s="40"/>
       <c r="H23" s="40"/>
       <c r="I23" s="91"/>
-      <c r="J23" s="168"/>
-      <c r="K23" s="169"/>
-      <c r="L23" s="170"/>
-      <c r="M23" s="170"/>
-      <c r="N23" s="170"/>
-      <c r="O23" s="170"/>
-      <c r="P23" s="170"/>
-      <c r="Q23" s="170"/>
-      <c r="R23" s="170"/>
-      <c r="S23" s="170"/>
-      <c r="T23" s="170"/>
-      <c r="U23" s="170"/>
-      <c r="V23" s="170"/>
-      <c r="W23" s="171"/>
-    </row>
-    <row r="24" spans="1:23" ht="9" customHeight="1">
+      <c r="J23" s="155"/>
+      <c r="K23" s="156"/>
+      <c r="L23" s="157"/>
+      <c r="M23" s="157"/>
+      <c r="N23" s="157"/>
+      <c r="O23" s="157"/>
+      <c r="P23" s="157"/>
+      <c r="Q23" s="157"/>
+      <c r="R23" s="157"/>
+      <c r="S23" s="157"/>
+      <c r="T23" s="157"/>
+      <c r="U23" s="157"/>
+      <c r="V23" s="157"/>
+      <c r="W23" s="158"/>
+    </row>
+    <row r="24" spans="1:23" ht="12" customHeight="1">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
       <c r="C24" s="44"/>
@@ -2814,7 +2804,7 @@
       <c r="V24" s="114"/>
       <c r="W24" s="132"/>
     </row>
-    <row r="25" spans="1:23" ht="9" customHeight="1">
+    <row r="25" spans="1:23" ht="12" customHeight="1">
       <c r="A25" s="18"/>
       <c r="B25" s="18"/>
       <c r="C25" s="33"/>
@@ -2824,26 +2814,26 @@
       <c r="G25" s="48"/>
       <c r="H25" s="48"/>
       <c r="I25" s="97"/>
-      <c r="J25" s="166"/>
-      <c r="K25" s="153"/>
-      <c r="L25" s="161"/>
-      <c r="M25" s="161"/>
-      <c r="N25" s="161"/>
-      <c r="O25" s="161"/>
-      <c r="P25" s="161"/>
-      <c r="Q25" s="161"/>
-      <c r="R25" s="161"/>
-      <c r="S25" s="161"/>
-      <c r="T25" s="161"/>
-      <c r="U25" s="161"/>
-      <c r="V25" s="161"/>
-      <c r="W25" s="167"/>
-    </row>
-    <row r="26" spans="1:23" ht="9" customHeight="1">
+      <c r="J25" s="153"/>
+      <c r="K25" s="140"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
+      <c r="N25" s="148"/>
+      <c r="O25" s="148"/>
+      <c r="P25" s="148"/>
+      <c r="Q25" s="148"/>
+      <c r="R25" s="148"/>
+      <c r="S25" s="148"/>
+      <c r="T25" s="148"/>
+      <c r="U25" s="148"/>
+      <c r="V25" s="148"/>
+      <c r="W25" s="154"/>
+    </row>
+    <row r="26" spans="1:23" ht="12" customHeight="1">
       <c r="A26" s="18"/>
       <c r="B26" s="18"/>
-      <c r="C26" s="141"/>
-      <c r="D26" s="142"/>
+      <c r="C26" s="170"/>
+      <c r="D26" s="171"/>
       <c r="E26" s="37"/>
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
@@ -2864,7 +2854,7 @@
       <c r="V26" s="120"/>
       <c r="W26" s="137"/>
     </row>
-    <row r="27" spans="1:23" ht="9" customHeight="1">
+    <row r="27" spans="1:23" ht="12" customHeight="1">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="44"/>
@@ -2874,22 +2864,22 @@
       <c r="G27" s="42"/>
       <c r="H27" s="42"/>
       <c r="I27" s="92"/>
-      <c r="J27" s="168"/>
-      <c r="K27" s="169"/>
-      <c r="L27" s="170"/>
-      <c r="M27" s="170"/>
-      <c r="N27" s="170"/>
-      <c r="O27" s="170"/>
-      <c r="P27" s="170"/>
-      <c r="Q27" s="170"/>
-      <c r="R27" s="170"/>
-      <c r="S27" s="170"/>
-      <c r="T27" s="170"/>
-      <c r="U27" s="170"/>
-      <c r="V27" s="170"/>
-      <c r="W27" s="171"/>
-    </row>
-    <row r="28" spans="1:23" ht="9" customHeight="1">
+      <c r="J27" s="155"/>
+      <c r="K27" s="156"/>
+      <c r="L27" s="157"/>
+      <c r="M27" s="157"/>
+      <c r="N27" s="157"/>
+      <c r="O27" s="157"/>
+      <c r="P27" s="157"/>
+      <c r="Q27" s="157"/>
+      <c r="R27" s="157"/>
+      <c r="S27" s="157"/>
+      <c r="T27" s="157"/>
+      <c r="U27" s="157"/>
+      <c r="V27" s="157"/>
+      <c r="W27" s="158"/>
+    </row>
+    <row r="28" spans="1:23" ht="12" customHeight="1">
       <c r="A28" s="18"/>
       <c r="B28" s="18"/>
       <c r="C28" s="44"/>
@@ -2914,7 +2904,7 @@
       <c r="V28" s="114"/>
       <c r="W28" s="132"/>
     </row>
-    <row r="29" spans="1:23" ht="9" customHeight="1">
+    <row r="29" spans="1:23" ht="12" customHeight="1">
       <c r="A29" s="18"/>
       <c r="B29" s="18"/>
       <c r="C29" s="33"/>
@@ -2924,26 +2914,26 @@
       <c r="G29" s="48"/>
       <c r="H29" s="48"/>
       <c r="I29" s="97"/>
-      <c r="J29" s="166"/>
-      <c r="K29" s="153"/>
-      <c r="L29" s="161"/>
-      <c r="M29" s="161"/>
-      <c r="N29" s="161"/>
-      <c r="O29" s="161"/>
-      <c r="P29" s="161"/>
-      <c r="Q29" s="161"/>
-      <c r="R29" s="161"/>
-      <c r="S29" s="161"/>
-      <c r="T29" s="161"/>
-      <c r="U29" s="161"/>
-      <c r="V29" s="161"/>
-      <c r="W29" s="167"/>
-    </row>
-    <row r="30" spans="1:23" ht="9" customHeight="1">
+      <c r="J29" s="153"/>
+      <c r="K29" s="140"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="148"/>
+      <c r="N29" s="148"/>
+      <c r="O29" s="148"/>
+      <c r="P29" s="148"/>
+      <c r="Q29" s="148"/>
+      <c r="R29" s="148"/>
+      <c r="S29" s="148"/>
+      <c r="T29" s="148"/>
+      <c r="U29" s="148"/>
+      <c r="V29" s="148"/>
+      <c r="W29" s="154"/>
+    </row>
+    <row r="30" spans="1:23" ht="12" customHeight="1">
       <c r="A30" s="18"/>
       <c r="B30" s="18"/>
-      <c r="C30" s="141"/>
-      <c r="D30" s="142"/>
+      <c r="C30" s="170"/>
+      <c r="D30" s="171"/>
       <c r="E30" s="49"/>
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
@@ -2964,7 +2954,7 @@
       <c r="V30" s="120"/>
       <c r="W30" s="137"/>
     </row>
-    <row r="31" spans="1:23" ht="9" customHeight="1">
+    <row r="31" spans="1:23" ht="12" customHeight="1">
       <c r="A31" s="18"/>
       <c r="B31" s="18"/>
       <c r="C31" s="44"/>
@@ -2974,22 +2964,22 @@
       <c r="G31" s="42"/>
       <c r="H31" s="42"/>
       <c r="I31" s="100"/>
-      <c r="J31" s="168"/>
-      <c r="K31" s="169"/>
-      <c r="L31" s="170"/>
-      <c r="M31" s="170"/>
-      <c r="N31" s="170"/>
-      <c r="O31" s="170"/>
-      <c r="P31" s="170"/>
-      <c r="Q31" s="170"/>
-      <c r="R31" s="170"/>
-      <c r="S31" s="170"/>
-      <c r="T31" s="170"/>
-      <c r="U31" s="170"/>
-      <c r="V31" s="170"/>
-      <c r="W31" s="171"/>
-    </row>
-    <row r="32" spans="1:23" ht="9" customHeight="1">
+      <c r="J31" s="155"/>
+      <c r="K31" s="156"/>
+      <c r="L31" s="157"/>
+      <c r="M31" s="157"/>
+      <c r="N31" s="157"/>
+      <c r="O31" s="157"/>
+      <c r="P31" s="157"/>
+      <c r="Q31" s="157"/>
+      <c r="R31" s="157"/>
+      <c r="S31" s="157"/>
+      <c r="T31" s="157"/>
+      <c r="U31" s="157"/>
+      <c r="V31" s="157"/>
+      <c r="W31" s="158"/>
+    </row>
+    <row r="32" spans="1:23" ht="12" customHeight="1">
       <c r="A32" s="18"/>
       <c r="B32" s="18"/>
       <c r="C32" s="44"/>
@@ -3014,7 +3004,7 @@
       <c r="V32" s="114"/>
       <c r="W32" s="132"/>
     </row>
-    <row r="33" spans="1:23" ht="9" customHeight="1">
+    <row r="33" spans="1:23" ht="12" customHeight="1">
       <c r="A33" s="18"/>
       <c r="B33" s="18"/>
       <c r="C33" s="33"/>
@@ -3024,26 +3014,26 @@
       <c r="G33" s="48"/>
       <c r="H33" s="48"/>
       <c r="I33" s="101"/>
-      <c r="J33" s="162"/>
-      <c r="K33" s="153"/>
-      <c r="L33" s="161"/>
-      <c r="M33" s="161"/>
-      <c r="N33" s="161"/>
-      <c r="O33" s="161"/>
-      <c r="P33" s="161"/>
-      <c r="Q33" s="161"/>
-      <c r="R33" s="161"/>
-      <c r="S33" s="161"/>
-      <c r="T33" s="161"/>
-      <c r="U33" s="161"/>
-      <c r="V33" s="161"/>
-      <c r="W33" s="167"/>
-    </row>
-    <row r="34" spans="1:23" ht="9" customHeight="1">
+      <c r="J33" s="149"/>
+      <c r="K33" s="140"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
+      <c r="N33" s="148"/>
+      <c r="O33" s="148"/>
+      <c r="P33" s="148"/>
+      <c r="Q33" s="148"/>
+      <c r="R33" s="148"/>
+      <c r="S33" s="148"/>
+      <c r="T33" s="148"/>
+      <c r="U33" s="148"/>
+      <c r="V33" s="148"/>
+      <c r="W33" s="154"/>
+    </row>
+    <row r="34" spans="1:23" ht="12" customHeight="1">
       <c r="A34" s="18"/>
       <c r="B34" s="18"/>
-      <c r="C34" s="141"/>
-      <c r="D34" s="142"/>
+      <c r="C34" s="170"/>
+      <c r="D34" s="171"/>
       <c r="E34" s="52"/>
       <c r="F34" s="53"/>
       <c r="G34" s="43"/>
@@ -3064,7 +3054,7 @@
       <c r="V34" s="117"/>
       <c r="W34" s="138"/>
     </row>
-    <row r="35" spans="1:23" ht="9" customHeight="1">
+    <row r="35" spans="1:23" ht="12" customHeight="1">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="44"/>
@@ -3089,7 +3079,7 @@
       <c r="V35" s="96"/>
       <c r="W35" s="134"/>
     </row>
-    <row r="36" spans="1:23" ht="9" customHeight="1">
+    <row r="36" spans="1:23" ht="12" customHeight="1">
       <c r="A36" s="18"/>
       <c r="B36" s="18"/>
       <c r="C36" s="44"/>
@@ -3114,7 +3104,7 @@
       <c r="V36" s="114"/>
       <c r="W36" s="132"/>
     </row>
-    <row r="37" spans="1:23" ht="9" customHeight="1">
+    <row r="37" spans="1:23" ht="12" customHeight="1">
       <c r="A37" s="18"/>
       <c r="B37" s="18"/>
       <c r="C37" s="33"/>
@@ -3139,11 +3129,11 @@
       <c r="V37" s="96"/>
       <c r="W37" s="139"/>
     </row>
-    <row r="38" spans="1:23" ht="9" customHeight="1">
+    <row r="38" spans="1:23" ht="12" customHeight="1">
       <c r="A38" s="18"/>
       <c r="B38" s="18"/>
-      <c r="C38" s="141"/>
-      <c r="D38" s="142"/>
+      <c r="C38" s="170"/>
+      <c r="D38" s="171"/>
       <c r="E38" s="54"/>
       <c r="F38" s="55"/>
       <c r="G38" s="55"/>
@@ -3164,7 +3154,7 @@
       <c r="V38" s="120"/>
       <c r="W38" s="137"/>
     </row>
-    <row r="39" spans="1:23" ht="9" customHeight="1">
+    <row r="39" spans="1:23" ht="12" customHeight="1">
       <c r="A39" s="18"/>
       <c r="B39" s="18"/>
       <c r="C39" s="44"/>
@@ -3174,22 +3164,22 @@
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
       <c r="I39" s="100"/>
-      <c r="J39" s="168"/>
-      <c r="K39" s="169"/>
-      <c r="L39" s="170"/>
-      <c r="M39" s="170"/>
-      <c r="N39" s="170"/>
-      <c r="O39" s="170"/>
-      <c r="P39" s="170"/>
-      <c r="Q39" s="170"/>
-      <c r="R39" s="170"/>
-      <c r="S39" s="170"/>
-      <c r="T39" s="170"/>
-      <c r="U39" s="170"/>
-      <c r="V39" s="170"/>
-      <c r="W39" s="171"/>
-    </row>
-    <row r="40" spans="1:23" ht="9" customHeight="1">
+      <c r="J39" s="155"/>
+      <c r="K39" s="156"/>
+      <c r="L39" s="157"/>
+      <c r="M39" s="157"/>
+      <c r="N39" s="157"/>
+      <c r="O39" s="157"/>
+      <c r="P39" s="157"/>
+      <c r="Q39" s="157"/>
+      <c r="R39" s="157"/>
+      <c r="S39" s="157"/>
+      <c r="T39" s="157"/>
+      <c r="U39" s="157"/>
+      <c r="V39" s="157"/>
+      <c r="W39" s="158"/>
+    </row>
+    <row r="40" spans="1:23" ht="12" customHeight="1">
       <c r="A40" s="18"/>
       <c r="B40" s="18"/>
       <c r="C40" s="44"/>
@@ -3214,7 +3204,7 @@
       <c r="V40" s="114"/>
       <c r="W40" s="132"/>
     </row>
-    <row r="41" spans="1:23" ht="9" customHeight="1">
+    <row r="41" spans="1:23" ht="12" customHeight="1">
       <c r="A41" s="18"/>
       <c r="B41" s="18"/>
       <c r="C41" s="33"/>
@@ -3224,26 +3214,26 @@
       <c r="G41" s="48"/>
       <c r="H41" s="58"/>
       <c r="I41" s="101"/>
-      <c r="J41" s="166"/>
-      <c r="K41" s="153"/>
-      <c r="L41" s="161"/>
-      <c r="M41" s="161"/>
-      <c r="N41" s="161"/>
-      <c r="O41" s="161"/>
-      <c r="P41" s="161"/>
-      <c r="Q41" s="161"/>
-      <c r="R41" s="161"/>
-      <c r="S41" s="161"/>
-      <c r="T41" s="161"/>
-      <c r="U41" s="161"/>
-      <c r="V41" s="161"/>
-      <c r="W41" s="167"/>
-    </row>
-    <row r="42" spans="1:23" ht="9" customHeight="1">
+      <c r="J41" s="153"/>
+      <c r="K41" s="140"/>
+      <c r="L41" s="148"/>
+      <c r="M41" s="148"/>
+      <c r="N41" s="148"/>
+      <c r="O41" s="148"/>
+      <c r="P41" s="148"/>
+      <c r="Q41" s="148"/>
+      <c r="R41" s="148"/>
+      <c r="S41" s="148"/>
+      <c r="T41" s="148"/>
+      <c r="U41" s="148"/>
+      <c r="V41" s="148"/>
+      <c r="W41" s="154"/>
+    </row>
+    <row r="42" spans="1:23" ht="12" customHeight="1">
       <c r="A42" s="18"/>
       <c r="B42" s="18"/>
-      <c r="C42" s="141"/>
-      <c r="D42" s="142"/>
+      <c r="C42" s="170"/>
+      <c r="D42" s="171"/>
       <c r="E42" s="54"/>
       <c r="F42" s="55"/>
       <c r="G42" s="55"/>
@@ -3264,7 +3254,7 @@
       <c r="V42" s="120"/>
       <c r="W42" s="137"/>
     </row>
-    <row r="43" spans="1:23" ht="9" customHeight="1">
+    <row r="43" spans="1:23" ht="12" customHeight="1">
       <c r="A43" s="18"/>
       <c r="B43" s="18"/>
       <c r="C43" s="44"/>
@@ -3274,22 +3264,22 @@
       <c r="G43" s="17"/>
       <c r="H43" s="17"/>
       <c r="I43" s="100"/>
-      <c r="J43" s="168"/>
-      <c r="K43" s="169"/>
-      <c r="L43" s="170"/>
-      <c r="M43" s="170"/>
-      <c r="N43" s="170"/>
-      <c r="O43" s="170"/>
-      <c r="P43" s="170"/>
-      <c r="Q43" s="170"/>
-      <c r="R43" s="170"/>
-      <c r="S43" s="170"/>
-      <c r="T43" s="170"/>
-      <c r="U43" s="170"/>
-      <c r="V43" s="170"/>
-      <c r="W43" s="171"/>
-    </row>
-    <row r="44" spans="1:23" ht="9" customHeight="1">
+      <c r="J43" s="155"/>
+      <c r="K43" s="156"/>
+      <c r="L43" s="157"/>
+      <c r="M43" s="157"/>
+      <c r="N43" s="157"/>
+      <c r="O43" s="157"/>
+      <c r="P43" s="157"/>
+      <c r="Q43" s="157"/>
+      <c r="R43" s="157"/>
+      <c r="S43" s="157"/>
+      <c r="T43" s="157"/>
+      <c r="U43" s="157"/>
+      <c r="V43" s="157"/>
+      <c r="W43" s="158"/>
+    </row>
+    <row r="44" spans="1:23" ht="12" customHeight="1">
       <c r="A44" s="18"/>
       <c r="B44" s="18"/>
       <c r="C44" s="44"/>
@@ -3314,7 +3304,7 @@
       <c r="V44" s="114"/>
       <c r="W44" s="132"/>
     </row>
-    <row r="45" spans="1:23" ht="9" customHeight="1">
+    <row r="45" spans="1:23" ht="12" customHeight="1">
       <c r="A45" s="18"/>
       <c r="B45" s="18"/>
       <c r="C45" s="33"/>
@@ -3324,26 +3314,26 @@
       <c r="G45" s="48"/>
       <c r="H45" s="48"/>
       <c r="I45" s="101"/>
-      <c r="J45" s="166"/>
-      <c r="K45" s="153"/>
-      <c r="L45" s="161"/>
-      <c r="M45" s="161"/>
-      <c r="N45" s="161"/>
-      <c r="O45" s="161"/>
-      <c r="P45" s="161"/>
-      <c r="Q45" s="161"/>
-      <c r="R45" s="161"/>
-      <c r="S45" s="161"/>
-      <c r="T45" s="161"/>
-      <c r="U45" s="161"/>
-      <c r="V45" s="161"/>
-      <c r="W45" s="167"/>
-    </row>
-    <row r="46" spans="1:23" ht="9" customHeight="1">
+      <c r="J45" s="153"/>
+      <c r="K45" s="140"/>
+      <c r="L45" s="148"/>
+      <c r="M45" s="148"/>
+      <c r="N45" s="148"/>
+      <c r="O45" s="148"/>
+      <c r="P45" s="148"/>
+      <c r="Q45" s="148"/>
+      <c r="R45" s="148"/>
+      <c r="S45" s="148"/>
+      <c r="T45" s="148"/>
+      <c r="U45" s="148"/>
+      <c r="V45" s="148"/>
+      <c r="W45" s="154"/>
+    </row>
+    <row r="46" spans="1:23" ht="12" customHeight="1">
       <c r="A46" s="18"/>
       <c r="B46" s="18"/>
-      <c r="C46" s="141"/>
-      <c r="D46" s="142"/>
+      <c r="C46" s="170"/>
+      <c r="D46" s="171"/>
       <c r="E46" s="37"/>
       <c r="F46" s="59"/>
       <c r="G46" s="55"/>
@@ -3364,7 +3354,7 @@
       <c r="V46" s="120"/>
       <c r="W46" s="137"/>
     </row>
-    <row r="47" spans="1:23" ht="9" customHeight="1">
+    <row r="47" spans="1:23" ht="12" customHeight="1">
       <c r="A47" s="18"/>
       <c r="B47" s="18"/>
       <c r="C47" s="44"/>
@@ -3374,22 +3364,22 @@
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
       <c r="I47" s="112"/>
-      <c r="J47" s="168"/>
-      <c r="K47" s="169"/>
-      <c r="L47" s="170"/>
-      <c r="M47" s="170"/>
-      <c r="N47" s="170"/>
-      <c r="O47" s="170"/>
-      <c r="P47" s="170"/>
-      <c r="Q47" s="170"/>
-      <c r="R47" s="170"/>
-      <c r="S47" s="170"/>
-      <c r="T47" s="170"/>
-      <c r="U47" s="170"/>
-      <c r="V47" s="170"/>
-      <c r="W47" s="171"/>
-    </row>
-    <row r="48" spans="1:23" ht="9" customHeight="1">
+      <c r="J47" s="155"/>
+      <c r="K47" s="156"/>
+      <c r="L47" s="157"/>
+      <c r="M47" s="157"/>
+      <c r="N47" s="157"/>
+      <c r="O47" s="157"/>
+      <c r="P47" s="157"/>
+      <c r="Q47" s="157"/>
+      <c r="R47" s="157"/>
+      <c r="S47" s="157"/>
+      <c r="T47" s="157"/>
+      <c r="U47" s="157"/>
+      <c r="V47" s="157"/>
+      <c r="W47" s="158"/>
+    </row>
+    <row r="48" spans="1:23" ht="12" customHeight="1">
       <c r="A48" s="18"/>
       <c r="B48" s="18"/>
       <c r="C48" s="44"/>
@@ -3414,7 +3404,7 @@
       <c r="V48" s="114"/>
       <c r="W48" s="132"/>
     </row>
-    <row r="49" spans="1:23" ht="9" customHeight="1">
+    <row r="49" spans="1:23" ht="12" customHeight="1">
       <c r="A49" s="18"/>
       <c r="B49" s="18"/>
       <c r="C49" s="33"/>
@@ -3424,26 +3414,26 @@
       <c r="G49" s="47"/>
       <c r="H49" s="58"/>
       <c r="I49" s="101"/>
-      <c r="J49" s="166"/>
-      <c r="K49" s="153"/>
-      <c r="L49" s="161"/>
-      <c r="M49" s="161"/>
-      <c r="N49" s="161"/>
-      <c r="O49" s="161"/>
-      <c r="P49" s="161"/>
-      <c r="Q49" s="161"/>
-      <c r="R49" s="161"/>
-      <c r="S49" s="161"/>
-      <c r="T49" s="161"/>
-      <c r="U49" s="161"/>
-      <c r="V49" s="161"/>
-      <c r="W49" s="167"/>
-    </row>
-    <row r="50" spans="1:23" ht="9" customHeight="1">
+      <c r="J49" s="153"/>
+      <c r="K49" s="140"/>
+      <c r="L49" s="148"/>
+      <c r="M49" s="148"/>
+      <c r="N49" s="148"/>
+      <c r="O49" s="148"/>
+      <c r="P49" s="148"/>
+      <c r="Q49" s="148"/>
+      <c r="R49" s="148"/>
+      <c r="S49" s="148"/>
+      <c r="T49" s="148"/>
+      <c r="U49" s="148"/>
+      <c r="V49" s="148"/>
+      <c r="W49" s="154"/>
+    </row>
+    <row r="50" spans="1:23" ht="12" customHeight="1">
       <c r="A50" s="18"/>
       <c r="B50" s="18"/>
-      <c r="C50" s="141"/>
-      <c r="D50" s="142"/>
+      <c r="C50" s="170"/>
+      <c r="D50" s="171"/>
       <c r="E50" s="37"/>
       <c r="F50" s="59"/>
       <c r="G50" s="55"/>
@@ -3464,7 +3454,7 @@
       <c r="V50" s="120"/>
       <c r="W50" s="137"/>
     </row>
-    <row r="51" spans="1:23" ht="9" customHeight="1">
+    <row r="51" spans="1:23" ht="12" customHeight="1">
       <c r="A51" s="18"/>
       <c r="B51" s="18"/>
       <c r="C51" s="44"/>
@@ -3474,22 +3464,22 @@
       <c r="G51" s="17"/>
       <c r="H51" s="17"/>
       <c r="I51" s="112"/>
-      <c r="J51" s="168"/>
-      <c r="K51" s="169"/>
-      <c r="L51" s="170"/>
-      <c r="M51" s="170"/>
-      <c r="N51" s="170"/>
-      <c r="O51" s="170"/>
-      <c r="P51" s="170"/>
-      <c r="Q51" s="170"/>
-      <c r="R51" s="170"/>
-      <c r="S51" s="170"/>
-      <c r="T51" s="170"/>
-      <c r="U51" s="170"/>
-      <c r="V51" s="170"/>
-      <c r="W51" s="171"/>
-    </row>
-    <row r="52" spans="1:23" ht="9" customHeight="1">
+      <c r="J51" s="155"/>
+      <c r="K51" s="156"/>
+      <c r="L51" s="157"/>
+      <c r="M51" s="157"/>
+      <c r="N51" s="157"/>
+      <c r="O51" s="157"/>
+      <c r="P51" s="157"/>
+      <c r="Q51" s="157"/>
+      <c r="R51" s="157"/>
+      <c r="S51" s="157"/>
+      <c r="T51" s="157"/>
+      <c r="U51" s="157"/>
+      <c r="V51" s="157"/>
+      <c r="W51" s="158"/>
+    </row>
+    <row r="52" spans="1:23" ht="12" customHeight="1">
       <c r="A52" s="18"/>
       <c r="B52" s="18"/>
       <c r="C52" s="44"/>
@@ -3514,7 +3504,7 @@
       <c r="V52" s="114"/>
       <c r="W52" s="132"/>
     </row>
-    <row r="53" spans="1:23" ht="9" customHeight="1">
+    <row r="53" spans="1:23" ht="12" customHeight="1">
       <c r="A53" s="116"/>
       <c r="B53" s="116"/>
       <c r="C53" s="33"/>
@@ -3524,22 +3514,22 @@
       <c r="G53" s="47"/>
       <c r="H53" s="58"/>
       <c r="I53" s="101"/>
-      <c r="J53" s="162"/>
-      <c r="K53" s="172"/>
-      <c r="L53" s="173"/>
-      <c r="M53" s="173"/>
-      <c r="N53" s="173"/>
-      <c r="O53" s="173"/>
-      <c r="P53" s="173"/>
-      <c r="Q53" s="173"/>
-      <c r="R53" s="173"/>
-      <c r="S53" s="173"/>
-      <c r="T53" s="173"/>
-      <c r="U53" s="173"/>
-      <c r="V53" s="173"/>
-      <c r="W53" s="174"/>
-    </row>
-    <row r="54" spans="1:23" ht="9" customHeight="1">
+      <c r="J53" s="149"/>
+      <c r="K53" s="159"/>
+      <c r="L53" s="160"/>
+      <c r="M53" s="160"/>
+      <c r="N53" s="160"/>
+      <c r="O53" s="160"/>
+      <c r="P53" s="160"/>
+      <c r="Q53" s="160"/>
+      <c r="R53" s="160"/>
+      <c r="S53" s="160"/>
+      <c r="T53" s="160"/>
+      <c r="U53" s="160"/>
+      <c r="V53" s="160"/>
+      <c r="W53" s="161"/>
+    </row>
+    <row r="54" spans="1:23" ht="12" customHeight="1">
       <c r="C54" s="125"/>
       <c r="D54" s="123"/>
       <c r="E54" s="123"/>
@@ -3562,7 +3552,7 @@
       <c r="V54" s="124"/>
       <c r="W54" s="129"/>
     </row>
-    <row r="55" spans="1:23" ht="9" customHeight="1">
+    <row r="55" spans="1:23" ht="12" customHeight="1">
       <c r="C55" s="126"/>
       <c r="D55" s="123"/>
       <c r="E55" s="123"/>
@@ -3585,7 +3575,7 @@
       <c r="V55" s="124"/>
       <c r="W55" s="129"/>
     </row>
-    <row r="56" spans="1:23" ht="9" customHeight="1">
+    <row r="56" spans="1:23" ht="12" customHeight="1">
       <c r="C56" s="126"/>
       <c r="D56" s="123"/>
       <c r="E56" s="123"/>
@@ -3608,7 +3598,7 @@
       <c r="V56" s="124"/>
       <c r="W56" s="129"/>
     </row>
-    <row r="57" spans="1:23" ht="9" customHeight="1">
+    <row r="57" spans="1:23" ht="12" customHeight="1">
       <c r="C57" s="126"/>
       <c r="D57" s="123"/>
       <c r="E57" s="123"/>
@@ -3631,7 +3621,7 @@
       <c r="V57" s="124"/>
       <c r="W57" s="129"/>
     </row>
-    <row r="58" spans="1:23" ht="9" customHeight="1">
+    <row r="58" spans="1:23" ht="12" customHeight="1">
       <c r="C58" s="126"/>
       <c r="D58" s="123"/>
       <c r="E58" s="123"/>
@@ -3654,7 +3644,7 @@
       <c r="V58" s="124"/>
       <c r="W58" s="129"/>
     </row>
-    <row r="59" spans="1:23" ht="9" customHeight="1">
+    <row r="59" spans="1:23" ht="12" customHeight="1">
       <c r="C59" s="126"/>
       <c r="D59" s="123"/>
       <c r="E59" s="123"/>
@@ -3677,30 +3667,30 @@
       <c r="V59" s="124"/>
       <c r="W59" s="129"/>
     </row>
-    <row r="64" spans="1:23" ht="9" customHeight="1">
-      <c r="C64" s="141"/>
-      <c r="D64" s="142"/>
+    <row r="64" spans="1:23" ht="12" customHeight="1">
+      <c r="C64" s="170"/>
+      <c r="D64" s="171"/>
       <c r="E64" s="30"/>
       <c r="F64" s="31"/>
       <c r="G64" s="31"/>
       <c r="H64" s="31"/>
       <c r="I64" s="87"/>
-      <c r="J64" s="180"/>
-      <c r="K64" s="178"/>
-      <c r="L64" s="154"/>
-      <c r="M64" s="154"/>
-      <c r="N64" s="154"/>
-      <c r="O64" s="154"/>
-      <c r="P64" s="154"/>
-      <c r="Q64" s="154"/>
-      <c r="R64" s="154"/>
-      <c r="S64" s="154"/>
-      <c r="T64" s="154"/>
-      <c r="U64" s="154"/>
-      <c r="V64" s="154"/>
-      <c r="W64" s="179"/>
-    </row>
-    <row r="65" spans="1:23" ht="9" customHeight="1">
+      <c r="J64" s="167"/>
+      <c r="K64" s="165"/>
+      <c r="L64" s="141"/>
+      <c r="M64" s="141"/>
+      <c r="N64" s="141"/>
+      <c r="O64" s="141"/>
+      <c r="P64" s="141"/>
+      <c r="Q64" s="141"/>
+      <c r="R64" s="141"/>
+      <c r="S64" s="141"/>
+      <c r="T64" s="141"/>
+      <c r="U64" s="141"/>
+      <c r="V64" s="141"/>
+      <c r="W64" s="166"/>
+    </row>
+    <row r="65" spans="1:23" ht="12" customHeight="1">
       <c r="C65" s="33"/>
       <c r="D65" s="34"/>
       <c r="E65" s="35"/>
@@ -3723,32 +3713,32 @@
       <c r="V65" s="90"/>
       <c r="W65" s="139"/>
     </row>
-    <row r="66" spans="1:23" ht="9" customHeight="1">
+    <row r="66" spans="1:23" ht="12" customHeight="1">
       <c r="A66" s="122"/>
       <c r="B66" s="122"/>
-      <c r="C66" s="141"/>
-      <c r="D66" s="142"/>
+      <c r="C66" s="170"/>
+      <c r="D66" s="171"/>
       <c r="E66" s="37"/>
       <c r="F66" s="43"/>
       <c r="G66" s="43"/>
       <c r="H66" s="43"/>
       <c r="I66" s="93"/>
-      <c r="J66" s="180"/>
-      <c r="K66" s="178"/>
-      <c r="L66" s="154"/>
-      <c r="M66" s="154"/>
-      <c r="N66" s="154"/>
-      <c r="O66" s="154"/>
-      <c r="P66" s="154"/>
-      <c r="Q66" s="154"/>
-      <c r="R66" s="154"/>
-      <c r="S66" s="154"/>
-      <c r="T66" s="154"/>
-      <c r="U66" s="154"/>
-      <c r="V66" s="154"/>
-      <c r="W66" s="179"/>
-    </row>
-    <row r="67" spans="1:23" ht="9" customHeight="1">
+      <c r="J66" s="167"/>
+      <c r="K66" s="165"/>
+      <c r="L66" s="141"/>
+      <c r="M66" s="141"/>
+      <c r="N66" s="141"/>
+      <c r="O66" s="141"/>
+      <c r="P66" s="141"/>
+      <c r="Q66" s="141"/>
+      <c r="R66" s="141"/>
+      <c r="S66" s="141"/>
+      <c r="T66" s="141"/>
+      <c r="U66" s="141"/>
+      <c r="V66" s="141"/>
+      <c r="W66" s="166"/>
+    </row>
+    <row r="67" spans="1:23" ht="12" customHeight="1">
       <c r="A67" s="122"/>
       <c r="B67" s="122"/>
       <c r="C67" s="44"/>
@@ -3773,7 +3763,7 @@
       <c r="V67" s="72"/>
       <c r="W67" s="132"/>
     </row>
-    <row r="68" spans="1:23" ht="9" customHeight="1">
+    <row r="68" spans="1:23" ht="12" customHeight="1">
       <c r="A68" s="122"/>
       <c r="B68" s="122"/>
       <c r="C68" s="44"/>
@@ -3783,22 +3773,22 @@
       <c r="G68" s="42"/>
       <c r="H68" s="42"/>
       <c r="I68" s="92"/>
-      <c r="J68" s="166"/>
-      <c r="K68" s="153"/>
-      <c r="L68" s="161"/>
-      <c r="M68" s="161"/>
-      <c r="N68" s="161"/>
-      <c r="O68" s="161"/>
-      <c r="P68" s="161"/>
-      <c r="Q68" s="161"/>
-      <c r="R68" s="161"/>
-      <c r="S68" s="161"/>
-      <c r="T68" s="161"/>
-      <c r="U68" s="161"/>
-      <c r="V68" s="182"/>
+      <c r="J68" s="153"/>
+      <c r="K68" s="140"/>
+      <c r="L68" s="148"/>
+      <c r="M68" s="148"/>
+      <c r="N68" s="148"/>
+      <c r="O68" s="148"/>
+      <c r="P68" s="148"/>
+      <c r="Q68" s="148"/>
+      <c r="R68" s="148"/>
+      <c r="S68" s="148"/>
+      <c r="T68" s="148"/>
+      <c r="U68" s="148"/>
+      <c r="V68" s="169"/>
       <c r="W68" s="133"/>
     </row>
-    <row r="69" spans="1:23" ht="9" customHeight="1">
+    <row r="69" spans="1:23" ht="12" customHeight="1">
       <c r="A69" s="122"/>
       <c r="B69" s="122"/>
       <c r="C69" s="33"/>
@@ -3823,32 +3813,32 @@
       <c r="V69" s="90"/>
       <c r="W69" s="139"/>
     </row>
-    <row r="70" spans="1:23" ht="9" customHeight="1">
+    <row r="70" spans="1:23" ht="12" customHeight="1">
       <c r="A70" s="122"/>
       <c r="B70" s="122"/>
-      <c r="C70" s="141"/>
-      <c r="D70" s="142"/>
+      <c r="C70" s="170"/>
+      <c r="D70" s="171"/>
       <c r="E70" s="37"/>
       <c r="F70" s="43"/>
       <c r="G70" s="43"/>
       <c r="H70" s="43"/>
       <c r="I70" s="98"/>
-      <c r="J70" s="180"/>
-      <c r="K70" s="178"/>
-      <c r="L70" s="154"/>
-      <c r="M70" s="154"/>
-      <c r="N70" s="154"/>
-      <c r="O70" s="154"/>
-      <c r="P70" s="154"/>
-      <c r="Q70" s="154"/>
-      <c r="R70" s="154"/>
-      <c r="S70" s="154"/>
-      <c r="T70" s="154"/>
-      <c r="U70" s="154"/>
-      <c r="V70" s="181"/>
+      <c r="J70" s="167"/>
+      <c r="K70" s="165"/>
+      <c r="L70" s="141"/>
+      <c r="M70" s="141"/>
+      <c r="N70" s="141"/>
+      <c r="O70" s="141"/>
+      <c r="P70" s="141"/>
+      <c r="Q70" s="141"/>
+      <c r="R70" s="141"/>
+      <c r="S70" s="141"/>
+      <c r="T70" s="141"/>
+      <c r="U70" s="141"/>
+      <c r="V70" s="168"/>
       <c r="W70" s="138"/>
     </row>
-    <row r="71" spans="1:23" ht="9" customHeight="1">
+    <row r="71" spans="1:23" ht="12" customHeight="1">
       <c r="A71" s="122"/>
       <c r="B71" s="122"/>
       <c r="C71" s="44"/>
@@ -3873,7 +3863,7 @@
       <c r="V71" s="72"/>
       <c r="W71" s="127"/>
     </row>
-    <row r="72" spans="1:23" ht="9" customHeight="1">
+    <row r="72" spans="1:23" ht="12" customHeight="1">
       <c r="A72" s="122"/>
       <c r="B72" s="122"/>
       <c r="C72" s="44"/>
@@ -3883,22 +3873,22 @@
       <c r="G72" s="42"/>
       <c r="H72" s="42"/>
       <c r="I72" s="92"/>
-      <c r="J72" s="166"/>
-      <c r="K72" s="153"/>
-      <c r="L72" s="161"/>
-      <c r="M72" s="161"/>
-      <c r="N72" s="161"/>
-      <c r="O72" s="161"/>
-      <c r="P72" s="161"/>
-      <c r="Q72" s="161"/>
-      <c r="R72" s="161"/>
-      <c r="S72" s="161"/>
-      <c r="T72" s="161"/>
-      <c r="U72" s="161"/>
-      <c r="V72" s="161"/>
+      <c r="J72" s="153"/>
+      <c r="K72" s="140"/>
+      <c r="L72" s="148"/>
+      <c r="M72" s="148"/>
+      <c r="N72" s="148"/>
+      <c r="O72" s="148"/>
+      <c r="P72" s="148"/>
+      <c r="Q72" s="148"/>
+      <c r="R72" s="148"/>
+      <c r="S72" s="148"/>
+      <c r="T72" s="148"/>
+      <c r="U72" s="148"/>
+      <c r="V72" s="148"/>
       <c r="W72" s="128"/>
     </row>
-    <row r="73" spans="1:23" ht="9" customHeight="1">
+    <row r="73" spans="1:23" ht="12" customHeight="1">
       <c r="A73" s="122"/>
       <c r="B73" s="122"/>
       <c r="C73" s="33"/>
@@ -3923,32 +3913,32 @@
       <c r="V73" s="90"/>
       <c r="W73" s="139"/>
     </row>
-    <row r="74" spans="1:23" ht="9" customHeight="1">
+    <row r="74" spans="1:23" ht="12" customHeight="1">
       <c r="A74" s="122"/>
       <c r="B74" s="122"/>
-      <c r="C74" s="141"/>
-      <c r="D74" s="142"/>
+      <c r="C74" s="170"/>
+      <c r="D74" s="171"/>
       <c r="E74" s="49"/>
       <c r="F74" s="43"/>
       <c r="G74" s="43"/>
       <c r="H74" s="43"/>
       <c r="I74" s="99"/>
-      <c r="J74" s="180"/>
-      <c r="K74" s="178"/>
-      <c r="L74" s="154"/>
-      <c r="M74" s="154"/>
-      <c r="N74" s="154"/>
-      <c r="O74" s="154"/>
-      <c r="P74" s="154"/>
-      <c r="Q74" s="154"/>
-      <c r="R74" s="154"/>
-      <c r="S74" s="154"/>
-      <c r="T74" s="154"/>
-      <c r="U74" s="154"/>
-      <c r="V74" s="154"/>
+      <c r="J74" s="167"/>
+      <c r="K74" s="165"/>
+      <c r="L74" s="141"/>
+      <c r="M74" s="141"/>
+      <c r="N74" s="141"/>
+      <c r="O74" s="141"/>
+      <c r="P74" s="141"/>
+      <c r="Q74" s="141"/>
+      <c r="R74" s="141"/>
+      <c r="S74" s="141"/>
+      <c r="T74" s="141"/>
+      <c r="U74" s="141"/>
+      <c r="V74" s="141"/>
       <c r="W74" s="138"/>
     </row>
-    <row r="75" spans="1:23" ht="9" customHeight="1">
+    <row r="75" spans="1:23" ht="12" customHeight="1">
       <c r="A75" s="122"/>
       <c r="B75" s="122"/>
       <c r="C75" s="44"/>
@@ -3973,7 +3963,7 @@
       <c r="V75" s="72"/>
       <c r="W75" s="134"/>
     </row>
-    <row r="76" spans="1:23" ht="9" customHeight="1">
+    <row r="76" spans="1:23" ht="12" customHeight="1">
       <c r="A76" s="122"/>
       <c r="B76" s="122"/>
       <c r="C76" s="44"/>
@@ -3983,22 +3973,22 @@
       <c r="G76" s="42"/>
       <c r="H76" s="42"/>
       <c r="I76" s="100"/>
-      <c r="J76" s="166"/>
-      <c r="K76" s="153"/>
-      <c r="L76" s="161"/>
-      <c r="M76" s="161"/>
-      <c r="N76" s="161"/>
-      <c r="O76" s="161"/>
-      <c r="P76" s="161"/>
-      <c r="Q76" s="161"/>
-      <c r="R76" s="161"/>
-      <c r="S76" s="161"/>
-      <c r="T76" s="161"/>
-      <c r="U76" s="161"/>
-      <c r="V76" s="161"/>
-      <c r="W76" s="167"/>
-    </row>
-    <row r="77" spans="1:23" ht="9" customHeight="1">
+      <c r="J76" s="153"/>
+      <c r="K76" s="140"/>
+      <c r="L76" s="148"/>
+      <c r="M76" s="148"/>
+      <c r="N76" s="148"/>
+      <c r="O76" s="148"/>
+      <c r="P76" s="148"/>
+      <c r="Q76" s="148"/>
+      <c r="R76" s="148"/>
+      <c r="S76" s="148"/>
+      <c r="T76" s="148"/>
+      <c r="U76" s="148"/>
+      <c r="V76" s="148"/>
+      <c r="W76" s="154"/>
+    </row>
+    <row r="77" spans="1:23" ht="12" customHeight="1">
       <c r="A77" s="122"/>
       <c r="B77" s="122"/>
       <c r="C77" s="33"/>
@@ -4023,17 +4013,17 @@
       <c r="V77" s="90"/>
       <c r="W77" s="139"/>
     </row>
-    <row r="78" spans="1:23" ht="9" customHeight="1">
+    <row r="78" spans="1:23" ht="12" customHeight="1">
       <c r="A78" s="122"/>
       <c r="B78" s="122"/>
-      <c r="C78" s="141"/>
-      <c r="D78" s="142"/>
+      <c r="C78" s="170"/>
+      <c r="D78" s="171"/>
       <c r="E78" s="52"/>
       <c r="F78" s="53"/>
       <c r="G78" s="43"/>
       <c r="H78" s="53"/>
       <c r="I78" s="99"/>
-      <c r="J78" s="180"/>
+      <c r="J78" s="167"/>
       <c r="K78" s="102"/>
       <c r="L78" s="103"/>
       <c r="M78" s="103"/>
@@ -4045,10 +4035,10 @@
       <c r="S78" s="103"/>
       <c r="T78" s="103"/>
       <c r="U78" s="103"/>
-      <c r="V78" s="154"/>
+      <c r="V78" s="141"/>
       <c r="W78" s="138"/>
     </row>
-    <row r="79" spans="1:23" ht="9" customHeight="1">
+    <row r="79" spans="1:23" ht="12" customHeight="1">
       <c r="A79" s="122"/>
       <c r="B79" s="122"/>
       <c r="C79" s="44"/>
@@ -4073,7 +4063,7 @@
       <c r="V79" s="72"/>
       <c r="W79" s="134"/>
     </row>
-    <row r="80" spans="1:23" ht="9" customHeight="1">
+    <row r="80" spans="1:23" ht="12" customHeight="1">
       <c r="A80" s="122"/>
       <c r="B80" s="122"/>
       <c r="C80" s="44"/>
@@ -4083,22 +4073,22 @@
       <c r="G80" s="42"/>
       <c r="H80" s="42"/>
       <c r="I80" s="100"/>
-      <c r="J80" s="166"/>
-      <c r="K80" s="153"/>
-      <c r="L80" s="161"/>
-      <c r="M80" s="161"/>
-      <c r="N80" s="161"/>
-      <c r="O80" s="161"/>
-      <c r="P80" s="161"/>
-      <c r="Q80" s="161"/>
-      <c r="R80" s="161"/>
-      <c r="S80" s="161"/>
-      <c r="T80" s="161"/>
-      <c r="U80" s="161"/>
-      <c r="V80" s="161"/>
-      <c r="W80" s="167"/>
-    </row>
-    <row r="81" spans="1:23" ht="9" customHeight="1">
+      <c r="J80" s="153"/>
+      <c r="K80" s="140"/>
+      <c r="L80" s="148"/>
+      <c r="M80" s="148"/>
+      <c r="N80" s="148"/>
+      <c r="O80" s="148"/>
+      <c r="P80" s="148"/>
+      <c r="Q80" s="148"/>
+      <c r="R80" s="148"/>
+      <c r="S80" s="148"/>
+      <c r="T80" s="148"/>
+      <c r="U80" s="148"/>
+      <c r="V80" s="148"/>
+      <c r="W80" s="154"/>
+    </row>
+    <row r="81" spans="1:23" ht="12" customHeight="1">
       <c r="A81" s="122"/>
       <c r="B81" s="122"/>
       <c r="C81" s="33"/>
@@ -4123,32 +4113,32 @@
       <c r="V81" s="90"/>
       <c r="W81" s="139"/>
     </row>
-    <row r="82" spans="1:23" ht="9" customHeight="1">
+    <row r="82" spans="1:23" ht="12" customHeight="1">
       <c r="A82" s="122"/>
       <c r="B82" s="122"/>
-      <c r="C82" s="141"/>
-      <c r="D82" s="142"/>
+      <c r="C82" s="170"/>
+      <c r="D82" s="171"/>
       <c r="E82" s="54"/>
       <c r="F82" s="55"/>
       <c r="G82" s="55"/>
       <c r="H82" s="55"/>
       <c r="I82" s="99"/>
-      <c r="J82" s="177"/>
-      <c r="K82" s="178"/>
-      <c r="L82" s="154"/>
-      <c r="M82" s="154"/>
-      <c r="N82" s="154"/>
-      <c r="O82" s="154"/>
-      <c r="P82" s="154"/>
-      <c r="Q82" s="154"/>
-      <c r="R82" s="154"/>
-      <c r="S82" s="154"/>
-      <c r="T82" s="154"/>
-      <c r="U82" s="154"/>
-      <c r="V82" s="154"/>
-      <c r="W82" s="179"/>
-    </row>
-    <row r="83" spans="1:23" ht="9" customHeight="1">
+      <c r="J82" s="164"/>
+      <c r="K82" s="165"/>
+      <c r="L82" s="141"/>
+      <c r="M82" s="141"/>
+      <c r="N82" s="141"/>
+      <c r="O82" s="141"/>
+      <c r="P82" s="141"/>
+      <c r="Q82" s="141"/>
+      <c r="R82" s="141"/>
+      <c r="S82" s="141"/>
+      <c r="T82" s="141"/>
+      <c r="U82" s="141"/>
+      <c r="V82" s="141"/>
+      <c r="W82" s="166"/>
+    </row>
+    <row r="83" spans="1:23" ht="12" customHeight="1">
       <c r="A83" s="122"/>
       <c r="B83" s="122"/>
       <c r="C83" s="44"/>
@@ -4173,7 +4163,7 @@
       <c r="V83" s="72"/>
       <c r="W83" s="132"/>
     </row>
-    <row r="84" spans="1:23" ht="9" customHeight="1">
+    <row r="84" spans="1:23" ht="12" customHeight="1">
       <c r="A84" s="122"/>
       <c r="B84" s="122"/>
       <c r="C84" s="44"/>
@@ -4183,22 +4173,22 @@
       <c r="G84" s="42"/>
       <c r="H84" s="57"/>
       <c r="I84" s="100"/>
-      <c r="J84" s="175"/>
-      <c r="K84" s="153"/>
-      <c r="L84" s="161"/>
-      <c r="M84" s="161"/>
-      <c r="N84" s="161"/>
-      <c r="O84" s="161"/>
-      <c r="P84" s="161"/>
-      <c r="Q84" s="161"/>
-      <c r="R84" s="161"/>
-      <c r="S84" s="161"/>
-      <c r="T84" s="161"/>
-      <c r="U84" s="161"/>
-      <c r="V84" s="161"/>
+      <c r="J84" s="162"/>
+      <c r="K84" s="140"/>
+      <c r="L84" s="148"/>
+      <c r="M84" s="148"/>
+      <c r="N84" s="148"/>
+      <c r="O84" s="148"/>
+      <c r="P84" s="148"/>
+      <c r="Q84" s="148"/>
+      <c r="R84" s="148"/>
+      <c r="S84" s="148"/>
+      <c r="T84" s="148"/>
+      <c r="U84" s="148"/>
+      <c r="V84" s="148"/>
       <c r="W84" s="128"/>
     </row>
-    <row r="85" spans="1:23" ht="9" customHeight="1">
+    <row r="85" spans="1:23" ht="12" customHeight="1">
       <c r="A85" s="122"/>
       <c r="B85" s="122"/>
       <c r="C85" s="33"/>
@@ -4223,32 +4213,32 @@
       <c r="V85" s="90"/>
       <c r="W85" s="139"/>
     </row>
-    <row r="86" spans="1:23" ht="9" customHeight="1">
+    <row r="86" spans="1:23" ht="12" customHeight="1">
       <c r="A86" s="122"/>
       <c r="B86" s="122"/>
-      <c r="C86" s="141"/>
-      <c r="D86" s="142"/>
+      <c r="C86" s="170"/>
+      <c r="D86" s="171"/>
       <c r="E86" s="54"/>
       <c r="F86" s="55"/>
       <c r="G86" s="55"/>
       <c r="H86" s="55"/>
       <c r="I86" s="99"/>
-      <c r="J86" s="177"/>
-      <c r="K86" s="178"/>
-      <c r="L86" s="154"/>
-      <c r="M86" s="154"/>
-      <c r="N86" s="154"/>
-      <c r="O86" s="154"/>
-      <c r="P86" s="154"/>
-      <c r="Q86" s="154"/>
-      <c r="R86" s="154"/>
-      <c r="S86" s="154"/>
-      <c r="T86" s="154"/>
-      <c r="U86" s="154"/>
-      <c r="V86" s="154"/>
-      <c r="W86" s="179"/>
-    </row>
-    <row r="87" spans="1:23" ht="9" customHeight="1">
+      <c r="J86" s="164"/>
+      <c r="K86" s="165"/>
+      <c r="L86" s="141"/>
+      <c r="M86" s="141"/>
+      <c r="N86" s="141"/>
+      <c r="O86" s="141"/>
+      <c r="P86" s="141"/>
+      <c r="Q86" s="141"/>
+      <c r="R86" s="141"/>
+      <c r="S86" s="141"/>
+      <c r="T86" s="141"/>
+      <c r="U86" s="141"/>
+      <c r="V86" s="141"/>
+      <c r="W86" s="166"/>
+    </row>
+    <row r="87" spans="1:23" ht="12" customHeight="1">
       <c r="A87" s="122"/>
       <c r="B87" s="122"/>
       <c r="C87" s="44"/>
@@ -4273,7 +4263,7 @@
       <c r="V87" s="72"/>
       <c r="W87" s="132"/>
     </row>
-    <row r="88" spans="1:23" ht="9" customHeight="1">
+    <row r="88" spans="1:23" ht="12" customHeight="1">
       <c r="A88" s="122"/>
       <c r="B88" s="122"/>
       <c r="C88" s="44"/>
@@ -4283,22 +4273,22 @@
       <c r="G88" s="42"/>
       <c r="H88" s="57"/>
       <c r="I88" s="100"/>
-      <c r="J88" s="175"/>
-      <c r="K88" s="153"/>
-      <c r="L88" s="161"/>
-      <c r="M88" s="161"/>
-      <c r="N88" s="161"/>
-      <c r="O88" s="161"/>
-      <c r="P88" s="161"/>
-      <c r="Q88" s="161"/>
-      <c r="R88" s="161"/>
-      <c r="S88" s="161"/>
-      <c r="T88" s="161"/>
-      <c r="U88" s="161"/>
-      <c r="V88" s="161"/>
+      <c r="J88" s="162"/>
+      <c r="K88" s="140"/>
+      <c r="L88" s="148"/>
+      <c r="M88" s="148"/>
+      <c r="N88" s="148"/>
+      <c r="O88" s="148"/>
+      <c r="P88" s="148"/>
+      <c r="Q88" s="148"/>
+      <c r="R88" s="148"/>
+      <c r="S88" s="148"/>
+      <c r="T88" s="148"/>
+      <c r="U88" s="148"/>
+      <c r="V88" s="148"/>
       <c r="W88" s="128"/>
     </row>
-    <row r="89" spans="1:23" ht="9" customHeight="1">
+    <row r="89" spans="1:23" ht="12" customHeight="1">
       <c r="A89" s="122"/>
       <c r="B89" s="122"/>
       <c r="C89" s="33"/>
@@ -4323,32 +4313,32 @@
       <c r="V89" s="90"/>
       <c r="W89" s="139"/>
     </row>
-    <row r="90" spans="1:23" ht="9" customHeight="1">
+    <row r="90" spans="1:23" ht="12" customHeight="1">
       <c r="A90" s="122"/>
       <c r="B90" s="122"/>
-      <c r="C90" s="141"/>
-      <c r="D90" s="142"/>
+      <c r="C90" s="170"/>
+      <c r="D90" s="171"/>
       <c r="E90" s="37"/>
       <c r="F90" s="59"/>
       <c r="G90" s="55"/>
       <c r="H90" s="55"/>
       <c r="I90" s="111"/>
-      <c r="J90" s="177"/>
-      <c r="K90" s="178"/>
-      <c r="L90" s="154"/>
-      <c r="M90" s="154"/>
-      <c r="N90" s="154"/>
-      <c r="O90" s="154"/>
-      <c r="P90" s="154"/>
-      <c r="Q90" s="154"/>
-      <c r="R90" s="154"/>
-      <c r="S90" s="154"/>
-      <c r="T90" s="154"/>
-      <c r="U90" s="154"/>
-      <c r="V90" s="154"/>
-      <c r="W90" s="179"/>
-    </row>
-    <row r="91" spans="1:23" ht="9" customHeight="1">
+      <c r="J90" s="164"/>
+      <c r="K90" s="165"/>
+      <c r="L90" s="141"/>
+      <c r="M90" s="141"/>
+      <c r="N90" s="141"/>
+      <c r="O90" s="141"/>
+      <c r="P90" s="141"/>
+      <c r="Q90" s="141"/>
+      <c r="R90" s="141"/>
+      <c r="S90" s="141"/>
+      <c r="T90" s="141"/>
+      <c r="U90" s="141"/>
+      <c r="V90" s="141"/>
+      <c r="W90" s="166"/>
+    </row>
+    <row r="91" spans="1:23" ht="12" customHeight="1">
       <c r="A91" s="122"/>
       <c r="B91" s="122"/>
       <c r="C91" s="44"/>
@@ -4373,7 +4363,7 @@
       <c r="V91" s="114"/>
       <c r="W91" s="132"/>
     </row>
-    <row r="92" spans="1:23" ht="9" customHeight="1">
+    <row r="92" spans="1:23" ht="12" customHeight="1">
       <c r="A92" s="122"/>
       <c r="B92" s="122"/>
       <c r="C92" s="44"/>
@@ -4383,22 +4373,22 @@
       <c r="G92" s="61"/>
       <c r="H92" s="62"/>
       <c r="I92" s="100"/>
-      <c r="J92" s="175"/>
-      <c r="K92" s="176"/>
-      <c r="L92" s="161"/>
-      <c r="M92" s="161"/>
-      <c r="N92" s="161"/>
-      <c r="O92" s="161"/>
-      <c r="P92" s="161"/>
-      <c r="Q92" s="161"/>
-      <c r="R92" s="161"/>
-      <c r="S92" s="161"/>
-      <c r="T92" s="161"/>
-      <c r="U92" s="161"/>
-      <c r="V92" s="161"/>
+      <c r="J92" s="162"/>
+      <c r="K92" s="163"/>
+      <c r="L92" s="148"/>
+      <c r="M92" s="148"/>
+      <c r="N92" s="148"/>
+      <c r="O92" s="148"/>
+      <c r="P92" s="148"/>
+      <c r="Q92" s="148"/>
+      <c r="R92" s="148"/>
+      <c r="S92" s="148"/>
+      <c r="T92" s="148"/>
+      <c r="U92" s="148"/>
+      <c r="V92" s="148"/>
       <c r="W92" s="133"/>
     </row>
-    <row r="93" spans="1:23" ht="9" customHeight="1">
+    <row r="93" spans="1:23" ht="12" customHeight="1">
       <c r="A93" s="122"/>
       <c r="B93" s="122"/>
       <c r="C93" s="33"/>
@@ -4423,32 +4413,32 @@
       <c r="V93" s="90"/>
       <c r="W93" s="139"/>
     </row>
-    <row r="94" spans="1:23" ht="9" customHeight="1">
+    <row r="94" spans="1:23" ht="12" customHeight="1">
       <c r="A94" s="122"/>
       <c r="B94" s="122"/>
-      <c r="C94" s="141"/>
-      <c r="D94" s="142"/>
+      <c r="C94" s="170"/>
+      <c r="D94" s="171"/>
       <c r="E94" s="37"/>
       <c r="F94" s="59"/>
       <c r="G94" s="55"/>
       <c r="H94" s="55"/>
       <c r="I94" s="111"/>
-      <c r="J94" s="177"/>
-      <c r="K94" s="178"/>
-      <c r="L94" s="154"/>
-      <c r="M94" s="154"/>
-      <c r="N94" s="154"/>
-      <c r="O94" s="154"/>
-      <c r="P94" s="154"/>
-      <c r="Q94" s="154"/>
-      <c r="R94" s="154"/>
-      <c r="S94" s="154"/>
-      <c r="T94" s="154"/>
-      <c r="U94" s="154"/>
-      <c r="V94" s="154"/>
+      <c r="J94" s="164"/>
+      <c r="K94" s="165"/>
+      <c r="L94" s="141"/>
+      <c r="M94" s="141"/>
+      <c r="N94" s="141"/>
+      <c r="O94" s="141"/>
+      <c r="P94" s="141"/>
+      <c r="Q94" s="141"/>
+      <c r="R94" s="141"/>
+      <c r="S94" s="141"/>
+      <c r="T94" s="141"/>
+      <c r="U94" s="141"/>
+      <c r="V94" s="141"/>
       <c r="W94" s="135"/>
     </row>
-    <row r="95" spans="1:23" ht="9" customHeight="1">
+    <row r="95" spans="1:23" ht="12" customHeight="1">
       <c r="A95" s="122"/>
       <c r="B95" s="122"/>
       <c r="C95" s="44"/>
@@ -4473,7 +4463,7 @@
       <c r="V95" s="114"/>
       <c r="W95" s="132"/>
     </row>
-    <row r="96" spans="1:23" ht="9" customHeight="1">
+    <row r="96" spans="1:23" ht="12" customHeight="1">
       <c r="A96" s="122"/>
       <c r="B96" s="122"/>
       <c r="C96" s="44"/>
@@ -4483,22 +4473,22 @@
       <c r="G96" s="61"/>
       <c r="H96" s="62"/>
       <c r="I96" s="100"/>
-      <c r="J96" s="175"/>
-      <c r="K96" s="176"/>
-      <c r="L96" s="161"/>
-      <c r="M96" s="161"/>
-      <c r="N96" s="161"/>
-      <c r="O96" s="161"/>
-      <c r="P96" s="161"/>
-      <c r="Q96" s="161"/>
-      <c r="R96" s="161"/>
-      <c r="S96" s="161"/>
-      <c r="T96" s="161"/>
-      <c r="U96" s="161"/>
-      <c r="V96" s="161"/>
+      <c r="J96" s="162"/>
+      <c r="K96" s="163"/>
+      <c r="L96" s="148"/>
+      <c r="M96" s="148"/>
+      <c r="N96" s="148"/>
+      <c r="O96" s="148"/>
+      <c r="P96" s="148"/>
+      <c r="Q96" s="148"/>
+      <c r="R96" s="148"/>
+      <c r="S96" s="148"/>
+      <c r="T96" s="148"/>
+      <c r="U96" s="148"/>
+      <c r="V96" s="148"/>
       <c r="W96" s="133"/>
     </row>
-    <row r="97" spans="1:23" ht="9" customHeight="1">
+    <row r="97" spans="1:23" ht="12" customHeight="1">
       <c r="A97" s="121"/>
       <c r="B97" s="121"/>
       <c r="C97" s="33"/>
@@ -4525,27 +4515,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A2:W2"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A6:W6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C46:D46"/>
     <mergeCell ref="C86:D86"/>
     <mergeCell ref="C90:D90"/>
     <mergeCell ref="C94:D94"/>
@@ -4555,6 +4524,27 @@
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="C82:D82"/>
     <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="A2:W2"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A6:W6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C26:D26"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.31496062992125984"/>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_v2_template.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_v2_template.xlsx
@@ -1667,34 +1667,34 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1732,17 +1732,17 @@
       <xdr:rowOff>149225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>16510</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="楕円 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1750,8 +1750,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4670425" y="330200"/>
-          <a:ext cx="365760" cy="200025"/>
+          <a:off x="4537075" y="606425"/>
+          <a:ext cx="396875" cy="155575"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2230,29 +2230,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:23" ht="12" customHeight="1">
-      <c r="A2" s="174"/>
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="174"/>
-      <c r="J2" s="174"/>
-      <c r="K2" s="174"/>
-      <c r="L2" s="174"/>
-      <c r="M2" s="174"/>
-      <c r="N2" s="174"/>
-      <c r="O2" s="174"/>
-      <c r="P2" s="174"/>
-      <c r="Q2" s="174"/>
-      <c r="R2" s="174"/>
-      <c r="S2" s="174"/>
-      <c r="T2" s="174"/>
-      <c r="U2" s="174"/>
-      <c r="V2" s="174"/>
-      <c r="W2" s="174"/>
+      <c r="A2" s="172"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="172"/>
+      <c r="J2" s="172"/>
+      <c r="K2" s="172"/>
+      <c r="L2" s="172"/>
+      <c r="M2" s="172"/>
+      <c r="N2" s="172"/>
+      <c r="O2" s="172"/>
+      <c r="P2" s="172"/>
+      <c r="Q2" s="172"/>
+      <c r="R2" s="172"/>
+      <c r="S2" s="172"/>
+      <c r="T2" s="172"/>
+      <c r="U2" s="172"/>
+      <c r="V2" s="172"/>
+      <c r="W2" s="172"/>
     </row>
     <row r="3" spans="1:23" ht="12" customHeight="1" thickBot="1">
       <c r="A3" s="3"/>
@@ -2284,13 +2284,13 @@
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="175"/>
-      <c r="F4" s="176"/>
-      <c r="G4" s="176"/>
-      <c r="H4" s="176"/>
-      <c r="I4" s="177"/>
-      <c r="J4" s="178"/>
-      <c r="K4" s="179"/>
+      <c r="E4" s="173"/>
+      <c r="F4" s="174"/>
+      <c r="G4" s="174"/>
+      <c r="H4" s="174"/>
+      <c r="I4" s="175"/>
+      <c r="J4" s="176"/>
+      <c r="K4" s="177"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -2330,33 +2330,33 @@
       <c r="W5" s="131"/>
     </row>
     <row r="6" spans="1:23" ht="12" customHeight="1" thickBot="1">
-      <c r="A6" s="180"/>
-      <c r="B6" s="180"/>
-      <c r="C6" s="180"/>
-      <c r="D6" s="180"/>
-      <c r="E6" s="180"/>
-      <c r="F6" s="180"/>
-      <c r="G6" s="180"/>
-      <c r="H6" s="180"/>
-      <c r="I6" s="180"/>
-      <c r="J6" s="180"/>
-      <c r="K6" s="180"/>
-      <c r="L6" s="180"/>
-      <c r="M6" s="180"/>
-      <c r="N6" s="180"/>
-      <c r="O6" s="180"/>
-      <c r="P6" s="180"/>
-      <c r="Q6" s="180"/>
-      <c r="R6" s="180"/>
-      <c r="S6" s="180"/>
-      <c r="T6" s="180"/>
-      <c r="U6" s="180"/>
-      <c r="V6" s="180"/>
-      <c r="W6" s="180"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
+      <c r="J6" s="178"/>
+      <c r="K6" s="178"/>
+      <c r="L6" s="178"/>
+      <c r="M6" s="178"/>
+      <c r="N6" s="178"/>
+      <c r="O6" s="178"/>
+      <c r="P6" s="178"/>
+      <c r="Q6" s="178"/>
+      <c r="R6" s="178"/>
+      <c r="S6" s="178"/>
+      <c r="T6" s="178"/>
+      <c r="U6" s="178"/>
+      <c r="V6" s="178"/>
+      <c r="W6" s="178"/>
     </row>
     <row r="7" spans="1:23" ht="12" customHeight="1">
-      <c r="A7" s="181"/>
-      <c r="B7" s="181"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
       <c r="E7" s="12"/>
@@ -2380,8 +2380,8 @@
       <c r="W7" s="145"/>
     </row>
     <row r="8" spans="1:23" ht="12" customHeight="1">
-      <c r="A8" s="172"/>
-      <c r="B8" s="172"/>
+      <c r="A8" s="180"/>
+      <c r="B8" s="180"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
       <c r="E8" s="16"/>
@@ -2405,8 +2405,8 @@
       <c r="W8" s="132"/>
     </row>
     <row r="9" spans="1:23" ht="12" customHeight="1">
-      <c r="A9" s="173"/>
-      <c r="B9" s="173"/>
+      <c r="A9" s="181"/>
+      <c r="B9" s="181"/>
       <c r="C9" s="14"/>
       <c r="D9" s="19"/>
       <c r="E9" s="20"/>
@@ -2430,8 +2430,8 @@
       <c r="W9" s="133"/>
     </row>
     <row r="10" spans="1:23" ht="12" customHeight="1">
-      <c r="A10" s="172"/>
-      <c r="B10" s="172"/>
+      <c r="A10" s="180"/>
+      <c r="B10" s="180"/>
       <c r="C10" s="14"/>
       <c r="D10" s="24"/>
       <c r="E10" s="16"/>
@@ -2455,8 +2455,8 @@
       <c r="W10" s="134"/>
     </row>
     <row r="11" spans="1:23" ht="12" customHeight="1">
-      <c r="A11" s="172"/>
-      <c r="B11" s="172"/>
+      <c r="A11" s="180"/>
+      <c r="B11" s="180"/>
       <c r="C11" s="14"/>
       <c r="D11" s="15"/>
       <c r="E11" s="25"/>
@@ -4515,6 +4515,27 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A2:W2"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A6:W6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C46:D46"/>
     <mergeCell ref="C86:D86"/>
     <mergeCell ref="C90:D90"/>
     <mergeCell ref="C94:D94"/>
@@ -4524,27 +4545,6 @@
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="C82:D82"/>
     <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="A2:W2"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A6:W6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C26:D26"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.31496062992125984"/>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_v2_template.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_v2_template.xlsx
@@ -1559,9 +1559,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1667,6 +1664,12 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1691,11 +1694,8 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1742,7 +1742,7 @@
         <xdr:cNvPr id="2" name="楕円 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2230,29 +2230,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:23" ht="12" customHeight="1">
-      <c r="A2" s="172"/>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
-      <c r="J2" s="172"/>
-      <c r="K2" s="172"/>
-      <c r="L2" s="172"/>
-      <c r="M2" s="172"/>
-      <c r="N2" s="172"/>
-      <c r="O2" s="172"/>
-      <c r="P2" s="172"/>
-      <c r="Q2" s="172"/>
-      <c r="R2" s="172"/>
-      <c r="S2" s="172"/>
-      <c r="T2" s="172"/>
-      <c r="U2" s="172"/>
-      <c r="V2" s="172"/>
-      <c r="W2" s="172"/>
+      <c r="A2" s="173"/>
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="173"/>
+      <c r="K2" s="173"/>
+      <c r="L2" s="173"/>
+      <c r="M2" s="173"/>
+      <c r="N2" s="173"/>
+      <c r="O2" s="173"/>
+      <c r="P2" s="173"/>
+      <c r="Q2" s="173"/>
+      <c r="R2" s="173"/>
+      <c r="S2" s="173"/>
+      <c r="T2" s="173"/>
+      <c r="U2" s="173"/>
+      <c r="V2" s="173"/>
+      <c r="W2" s="173"/>
     </row>
     <row r="3" spans="1:23" ht="12" customHeight="1" thickBot="1">
       <c r="A3" s="3"/>
@@ -2284,13 +2284,13 @@
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="173"/>
-      <c r="F4" s="174"/>
-      <c r="G4" s="174"/>
-      <c r="H4" s="174"/>
-      <c r="I4" s="175"/>
-      <c r="J4" s="176"/>
-      <c r="K4" s="177"/>
+      <c r="E4" s="174"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="175"/>
+      <c r="H4" s="175"/>
+      <c r="I4" s="176"/>
+      <c r="J4" s="177"/>
+      <c r="K4" s="178"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -2330,33 +2330,33 @@
       <c r="W5" s="131"/>
     </row>
     <row r="6" spans="1:23" ht="12" customHeight="1" thickBot="1">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
-      <c r="J6" s="178"/>
-      <c r="K6" s="178"/>
-      <c r="L6" s="178"/>
-      <c r="M6" s="178"/>
-      <c r="N6" s="178"/>
-      <c r="O6" s="178"/>
-      <c r="P6" s="178"/>
-      <c r="Q6" s="178"/>
-      <c r="R6" s="178"/>
-      <c r="S6" s="178"/>
-      <c r="T6" s="178"/>
-      <c r="U6" s="178"/>
-      <c r="V6" s="178"/>
-      <c r="W6" s="178"/>
+      <c r="A6" s="179"/>
+      <c r="B6" s="179"/>
+      <c r="C6" s="179"/>
+      <c r="D6" s="179"/>
+      <c r="E6" s="179"/>
+      <c r="F6" s="179"/>
+      <c r="G6" s="179"/>
+      <c r="H6" s="179"/>
+      <c r="I6" s="179"/>
+      <c r="J6" s="179"/>
+      <c r="K6" s="179"/>
+      <c r="L6" s="179"/>
+      <c r="M6" s="179"/>
+      <c r="N6" s="179"/>
+      <c r="O6" s="179"/>
+      <c r="P6" s="179"/>
+      <c r="Q6" s="179"/>
+      <c r="R6" s="179"/>
+      <c r="S6" s="179"/>
+      <c r="T6" s="179"/>
+      <c r="U6" s="179"/>
+      <c r="V6" s="179"/>
+      <c r="W6" s="179"/>
     </row>
     <row r="7" spans="1:23" ht="12" customHeight="1">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
+      <c r="A7" s="180"/>
+      <c r="B7" s="180"/>
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
       <c r="E7" s="12"/>
@@ -2364,24 +2364,24 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="68"/>
-      <c r="J7" s="142"/>
-      <c r="K7" s="143"/>
-      <c r="L7" s="144"/>
-      <c r="M7" s="144"/>
-      <c r="N7" s="144"/>
-      <c r="O7" s="144"/>
-      <c r="P7" s="144"/>
-      <c r="Q7" s="144"/>
-      <c r="R7" s="144"/>
-      <c r="S7" s="144"/>
-      <c r="T7" s="144"/>
-      <c r="U7" s="144"/>
-      <c r="V7" s="144"/>
-      <c r="W7" s="145"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="142"/>
+      <c r="L7" s="143"/>
+      <c r="M7" s="143"/>
+      <c r="N7" s="143"/>
+      <c r="O7" s="143"/>
+      <c r="P7" s="143"/>
+      <c r="Q7" s="143"/>
+      <c r="R7" s="143"/>
+      <c r="S7" s="143"/>
+      <c r="T7" s="143"/>
+      <c r="U7" s="143"/>
+      <c r="V7" s="143"/>
+      <c r="W7" s="144"/>
     </row>
     <row r="8" spans="1:23" ht="12" customHeight="1">
-      <c r="A8" s="180"/>
-      <c r="B8" s="180"/>
+      <c r="A8" s="171"/>
+      <c r="B8" s="171"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
       <c r="E8" s="16"/>
@@ -2405,8 +2405,8 @@
       <c r="W8" s="132"/>
     </row>
     <row r="9" spans="1:23" ht="12" customHeight="1">
-      <c r="A9" s="181"/>
-      <c r="B9" s="181"/>
+      <c r="A9" s="172"/>
+      <c r="B9" s="172"/>
       <c r="C9" s="14"/>
       <c r="D9" s="19"/>
       <c r="E9" s="20"/>
@@ -2414,24 +2414,24 @@
       <c r="G9" s="22"/>
       <c r="H9" s="23"/>
       <c r="I9" s="69"/>
-      <c r="J9" s="146"/>
-      <c r="K9" s="147"/>
-      <c r="L9" s="148"/>
-      <c r="M9" s="148"/>
-      <c r="N9" s="148"/>
-      <c r="O9" s="148"/>
-      <c r="P9" s="148"/>
-      <c r="Q9" s="148"/>
-      <c r="R9" s="148"/>
-      <c r="S9" s="148"/>
-      <c r="T9" s="148"/>
-      <c r="U9" s="148"/>
-      <c r="V9" s="140"/>
-      <c r="W9" s="133"/>
+      <c r="J9" s="145"/>
+      <c r="K9" s="146"/>
+      <c r="L9" s="147"/>
+      <c r="M9" s="147"/>
+      <c r="N9" s="147"/>
+      <c r="O9" s="147"/>
+      <c r="P9" s="147"/>
+      <c r="Q9" s="147"/>
+      <c r="R9" s="147"/>
+      <c r="S9" s="147"/>
+      <c r="T9" s="147"/>
+      <c r="U9" s="147"/>
+      <c r="V9" s="139"/>
+      <c r="W9" s="157"/>
     </row>
     <row r="10" spans="1:23" ht="12" customHeight="1">
-      <c r="A10" s="180"/>
-      <c r="B10" s="180"/>
+      <c r="A10" s="171"/>
+      <c r="B10" s="171"/>
       <c r="C10" s="14"/>
       <c r="D10" s="24"/>
       <c r="E10" s="16"/>
@@ -2452,11 +2452,11 @@
       <c r="T10" s="73"/>
       <c r="U10" s="73"/>
       <c r="V10" s="73"/>
-      <c r="W10" s="134"/>
+      <c r="W10" s="132"/>
     </row>
     <row r="11" spans="1:23" ht="12" customHeight="1">
-      <c r="A11" s="180"/>
-      <c r="B11" s="180"/>
+      <c r="A11" s="171"/>
+      <c r="B11" s="171"/>
       <c r="C11" s="14"/>
       <c r="D11" s="15"/>
       <c r="E11" s="25"/>
@@ -2507,8 +2507,8 @@
     <row r="13" spans="1:23" ht="12" customHeight="1">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
-      <c r="C13" s="170"/>
-      <c r="D13" s="171"/>
+      <c r="C13" s="169"/>
+      <c r="D13" s="170"/>
       <c r="E13" s="30"/>
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
@@ -2525,7 +2525,7 @@
       <c r="R13" s="55"/>
       <c r="S13" s="55"/>
       <c r="T13" s="55"/>
-      <c r="U13" s="141"/>
+      <c r="U13" s="140"/>
       <c r="V13" s="55"/>
       <c r="W13" s="135"/>
     </row>
@@ -2552,38 +2552,38 @@
       <c r="T14" s="86"/>
       <c r="U14" s="86"/>
       <c r="V14" s="86"/>
-      <c r="W14" s="136"/>
+      <c r="W14" s="132"/>
     </row>
     <row r="15" spans="1:23" ht="12" customHeight="1">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
-      <c r="C15" s="170"/>
-      <c r="D15" s="171"/>
+      <c r="C15" s="169"/>
+      <c r="D15" s="170"/>
       <c r="E15" s="35"/>
       <c r="F15" s="36"/>
       <c r="G15" s="36"/>
       <c r="H15" s="36"/>
       <c r="I15" s="83"/>
-      <c r="J15" s="149"/>
-      <c r="K15" s="150"/>
-      <c r="L15" s="151"/>
-      <c r="M15" s="151"/>
-      <c r="N15" s="151"/>
-      <c r="O15" s="151"/>
-      <c r="P15" s="151"/>
-      <c r="Q15" s="151"/>
-      <c r="R15" s="151"/>
-      <c r="S15" s="151"/>
-      <c r="T15" s="151"/>
-      <c r="U15" s="151"/>
-      <c r="V15" s="152"/>
-      <c r="W15" s="136"/>
+      <c r="J15" s="148"/>
+      <c r="K15" s="149"/>
+      <c r="L15" s="150"/>
+      <c r="M15" s="150"/>
+      <c r="N15" s="150"/>
+      <c r="O15" s="150"/>
+      <c r="P15" s="150"/>
+      <c r="Q15" s="150"/>
+      <c r="R15" s="150"/>
+      <c r="S15" s="150"/>
+      <c r="T15" s="150"/>
+      <c r="U15" s="150"/>
+      <c r="V15" s="151"/>
+      <c r="W15" s="153"/>
     </row>
     <row r="16" spans="1:23" ht="12" customHeight="1">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
-      <c r="C16" s="170"/>
-      <c r="D16" s="171"/>
+      <c r="C16" s="169"/>
+      <c r="D16" s="170"/>
       <c r="E16" s="30"/>
       <c r="F16" s="31"/>
       <c r="G16" s="31"/>
@@ -2602,7 +2602,7 @@
       <c r="T16" s="120"/>
       <c r="U16" s="120"/>
       <c r="V16" s="120"/>
-      <c r="W16" s="137"/>
+      <c r="W16" s="136"/>
     </row>
     <row r="17" spans="1:23" ht="12" customHeight="1">
       <c r="A17" s="32"/>
@@ -2614,26 +2614,26 @@
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
       <c r="I17" s="88"/>
-      <c r="J17" s="153"/>
-      <c r="K17" s="140"/>
-      <c r="L17" s="148"/>
-      <c r="M17" s="148"/>
-      <c r="N17" s="148"/>
-      <c r="O17" s="148"/>
-      <c r="P17" s="148"/>
-      <c r="Q17" s="148"/>
-      <c r="R17" s="148"/>
-      <c r="S17" s="148"/>
-      <c r="T17" s="148"/>
-      <c r="U17" s="148"/>
-      <c r="V17" s="148"/>
-      <c r="W17" s="154"/>
+      <c r="J17" s="152"/>
+      <c r="K17" s="139"/>
+      <c r="L17" s="147"/>
+      <c r="M17" s="147"/>
+      <c r="N17" s="147"/>
+      <c r="O17" s="147"/>
+      <c r="P17" s="147"/>
+      <c r="Q17" s="147"/>
+      <c r="R17" s="147"/>
+      <c r="S17" s="147"/>
+      <c r="T17" s="147"/>
+      <c r="U17" s="147"/>
+      <c r="V17" s="147"/>
+      <c r="W17" s="153"/>
     </row>
     <row r="18" spans="1:23" ht="12" customHeight="1">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
-      <c r="C18" s="170"/>
-      <c r="D18" s="171"/>
+      <c r="C18" s="169"/>
+      <c r="D18" s="170"/>
       <c r="E18" s="37"/>
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
@@ -2652,7 +2652,7 @@
       <c r="T18" s="120"/>
       <c r="U18" s="120"/>
       <c r="V18" s="120"/>
-      <c r="W18" s="137"/>
+      <c r="W18" s="136"/>
     </row>
     <row r="19" spans="1:23" ht="12" customHeight="1">
       <c r="A19" s="18"/>
@@ -2664,20 +2664,20 @@
       <c r="G19" s="40"/>
       <c r="H19" s="40"/>
       <c r="I19" s="91"/>
-      <c r="J19" s="155"/>
-      <c r="K19" s="156"/>
-      <c r="L19" s="157"/>
-      <c r="M19" s="157"/>
-      <c r="N19" s="157"/>
-      <c r="O19" s="157"/>
-      <c r="P19" s="157"/>
-      <c r="Q19" s="157"/>
-      <c r="R19" s="157"/>
-      <c r="S19" s="157"/>
-      <c r="T19" s="157"/>
-      <c r="U19" s="157"/>
-      <c r="V19" s="157"/>
-      <c r="W19" s="158"/>
+      <c r="J19" s="154"/>
+      <c r="K19" s="155"/>
+      <c r="L19" s="156"/>
+      <c r="M19" s="156"/>
+      <c r="N19" s="156"/>
+      <c r="O19" s="156"/>
+      <c r="P19" s="156"/>
+      <c r="Q19" s="156"/>
+      <c r="R19" s="156"/>
+      <c r="S19" s="156"/>
+      <c r="T19" s="156"/>
+      <c r="U19" s="156"/>
+      <c r="V19" s="156"/>
+      <c r="W19" s="157"/>
     </row>
     <row r="20" spans="1:23" ht="12" customHeight="1">
       <c r="A20" s="18"/>
@@ -2714,26 +2714,26 @@
       <c r="G21" s="48"/>
       <c r="H21" s="48"/>
       <c r="I21" s="97"/>
-      <c r="J21" s="153"/>
-      <c r="K21" s="140"/>
-      <c r="L21" s="148"/>
-      <c r="M21" s="148"/>
-      <c r="N21" s="148"/>
-      <c r="O21" s="148"/>
-      <c r="P21" s="148"/>
-      <c r="Q21" s="148"/>
-      <c r="R21" s="148"/>
-      <c r="S21" s="148"/>
-      <c r="T21" s="148"/>
-      <c r="U21" s="148"/>
-      <c r="V21" s="148"/>
-      <c r="W21" s="154"/>
+      <c r="J21" s="152"/>
+      <c r="K21" s="139"/>
+      <c r="L21" s="147"/>
+      <c r="M21" s="147"/>
+      <c r="N21" s="147"/>
+      <c r="O21" s="147"/>
+      <c r="P21" s="147"/>
+      <c r="Q21" s="147"/>
+      <c r="R21" s="147"/>
+      <c r="S21" s="147"/>
+      <c r="T21" s="147"/>
+      <c r="U21" s="147"/>
+      <c r="V21" s="147"/>
+      <c r="W21" s="153"/>
     </row>
     <row r="22" spans="1:23" ht="12" customHeight="1">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
-      <c r="C22" s="170"/>
-      <c r="D22" s="171"/>
+      <c r="C22" s="169"/>
+      <c r="D22" s="170"/>
       <c r="E22" s="37"/>
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
@@ -2752,7 +2752,7 @@
       <c r="T22" s="120"/>
       <c r="U22" s="120"/>
       <c r="V22" s="120"/>
-      <c r="W22" s="137"/>
+      <c r="W22" s="136"/>
     </row>
     <row r="23" spans="1:23" ht="12" customHeight="1">
       <c r="A23" s="18"/>
@@ -2764,20 +2764,20 @@
       <c r="G23" s="40"/>
       <c r="H23" s="40"/>
       <c r="I23" s="91"/>
-      <c r="J23" s="155"/>
-      <c r="K23" s="156"/>
-      <c r="L23" s="157"/>
-      <c r="M23" s="157"/>
-      <c r="N23" s="157"/>
-      <c r="O23" s="157"/>
-      <c r="P23" s="157"/>
-      <c r="Q23" s="157"/>
-      <c r="R23" s="157"/>
-      <c r="S23" s="157"/>
-      <c r="T23" s="157"/>
-      <c r="U23" s="157"/>
-      <c r="V23" s="157"/>
-      <c r="W23" s="158"/>
+      <c r="J23" s="154"/>
+      <c r="K23" s="155"/>
+      <c r="L23" s="156"/>
+      <c r="M23" s="156"/>
+      <c r="N23" s="156"/>
+      <c r="O23" s="156"/>
+      <c r="P23" s="156"/>
+      <c r="Q23" s="156"/>
+      <c r="R23" s="156"/>
+      <c r="S23" s="156"/>
+      <c r="T23" s="156"/>
+      <c r="U23" s="156"/>
+      <c r="V23" s="156"/>
+      <c r="W23" s="157"/>
     </row>
     <row r="24" spans="1:23" ht="12" customHeight="1">
       <c r="A24" s="18"/>
@@ -2814,26 +2814,26 @@
       <c r="G25" s="48"/>
       <c r="H25" s="48"/>
       <c r="I25" s="97"/>
-      <c r="J25" s="153"/>
-      <c r="K25" s="140"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
-      <c r="N25" s="148"/>
-      <c r="O25" s="148"/>
-      <c r="P25" s="148"/>
-      <c r="Q25" s="148"/>
-      <c r="R25" s="148"/>
-      <c r="S25" s="148"/>
-      <c r="T25" s="148"/>
-      <c r="U25" s="148"/>
-      <c r="V25" s="148"/>
-      <c r="W25" s="154"/>
+      <c r="J25" s="152"/>
+      <c r="K25" s="139"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
+      <c r="N25" s="147"/>
+      <c r="O25" s="147"/>
+      <c r="P25" s="147"/>
+      <c r="Q25" s="147"/>
+      <c r="R25" s="147"/>
+      <c r="S25" s="147"/>
+      <c r="T25" s="147"/>
+      <c r="U25" s="147"/>
+      <c r="V25" s="147"/>
+      <c r="W25" s="153"/>
     </row>
     <row r="26" spans="1:23" ht="12" customHeight="1">
       <c r="A26" s="18"/>
       <c r="B26" s="18"/>
-      <c r="C26" s="170"/>
-      <c r="D26" s="171"/>
+      <c r="C26" s="169"/>
+      <c r="D26" s="170"/>
       <c r="E26" s="37"/>
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
@@ -2852,7 +2852,7 @@
       <c r="T26" s="120"/>
       <c r="U26" s="120"/>
       <c r="V26" s="120"/>
-      <c r="W26" s="137"/>
+      <c r="W26" s="136"/>
     </row>
     <row r="27" spans="1:23" ht="12" customHeight="1">
       <c r="A27" s="18"/>
@@ -2864,20 +2864,20 @@
       <c r="G27" s="42"/>
       <c r="H27" s="42"/>
       <c r="I27" s="92"/>
-      <c r="J27" s="155"/>
-      <c r="K27" s="156"/>
-      <c r="L27" s="157"/>
-      <c r="M27" s="157"/>
-      <c r="N27" s="157"/>
-      <c r="O27" s="157"/>
-      <c r="P27" s="157"/>
-      <c r="Q27" s="157"/>
-      <c r="R27" s="157"/>
-      <c r="S27" s="157"/>
-      <c r="T27" s="157"/>
-      <c r="U27" s="157"/>
-      <c r="V27" s="157"/>
-      <c r="W27" s="158"/>
+      <c r="J27" s="154"/>
+      <c r="K27" s="155"/>
+      <c r="L27" s="156"/>
+      <c r="M27" s="156"/>
+      <c r="N27" s="156"/>
+      <c r="O27" s="156"/>
+      <c r="P27" s="156"/>
+      <c r="Q27" s="156"/>
+      <c r="R27" s="156"/>
+      <c r="S27" s="156"/>
+      <c r="T27" s="156"/>
+      <c r="U27" s="156"/>
+      <c r="V27" s="156"/>
+      <c r="W27" s="157"/>
     </row>
     <row r="28" spans="1:23" ht="12" customHeight="1">
       <c r="A28" s="18"/>
@@ -2914,26 +2914,26 @@
       <c r="G29" s="48"/>
       <c r="H29" s="48"/>
       <c r="I29" s="97"/>
-      <c r="J29" s="153"/>
-      <c r="K29" s="140"/>
-      <c r="L29" s="148"/>
-      <c r="M29" s="148"/>
-      <c r="N29" s="148"/>
-      <c r="O29" s="148"/>
-      <c r="P29" s="148"/>
-      <c r="Q29" s="148"/>
-      <c r="R29" s="148"/>
-      <c r="S29" s="148"/>
-      <c r="T29" s="148"/>
-      <c r="U29" s="148"/>
-      <c r="V29" s="148"/>
-      <c r="W29" s="154"/>
+      <c r="J29" s="152"/>
+      <c r="K29" s="139"/>
+      <c r="L29" s="147"/>
+      <c r="M29" s="147"/>
+      <c r="N29" s="147"/>
+      <c r="O29" s="147"/>
+      <c r="P29" s="147"/>
+      <c r="Q29" s="147"/>
+      <c r="R29" s="147"/>
+      <c r="S29" s="147"/>
+      <c r="T29" s="147"/>
+      <c r="U29" s="147"/>
+      <c r="V29" s="147"/>
+      <c r="W29" s="153"/>
     </row>
     <row r="30" spans="1:23" ht="12" customHeight="1">
       <c r="A30" s="18"/>
       <c r="B30" s="18"/>
-      <c r="C30" s="170"/>
-      <c r="D30" s="171"/>
+      <c r="C30" s="169"/>
+      <c r="D30" s="170"/>
       <c r="E30" s="49"/>
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
@@ -2952,7 +2952,7 @@
       <c r="T30" s="120"/>
       <c r="U30" s="120"/>
       <c r="V30" s="120"/>
-      <c r="W30" s="137"/>
+      <c r="W30" s="136"/>
     </row>
     <row r="31" spans="1:23" ht="12" customHeight="1">
       <c r="A31" s="18"/>
@@ -2964,20 +2964,20 @@
       <c r="G31" s="42"/>
       <c r="H31" s="42"/>
       <c r="I31" s="100"/>
-      <c r="J31" s="155"/>
-      <c r="K31" s="156"/>
-      <c r="L31" s="157"/>
-      <c r="M31" s="157"/>
-      <c r="N31" s="157"/>
-      <c r="O31" s="157"/>
-      <c r="P31" s="157"/>
-      <c r="Q31" s="157"/>
-      <c r="R31" s="157"/>
-      <c r="S31" s="157"/>
-      <c r="T31" s="157"/>
-      <c r="U31" s="157"/>
-      <c r="V31" s="157"/>
-      <c r="W31" s="158"/>
+      <c r="J31" s="154"/>
+      <c r="K31" s="155"/>
+      <c r="L31" s="156"/>
+      <c r="M31" s="156"/>
+      <c r="N31" s="156"/>
+      <c r="O31" s="156"/>
+      <c r="P31" s="156"/>
+      <c r="Q31" s="156"/>
+      <c r="R31" s="156"/>
+      <c r="S31" s="156"/>
+      <c r="T31" s="156"/>
+      <c r="U31" s="156"/>
+      <c r="V31" s="156"/>
+      <c r="W31" s="157"/>
     </row>
     <row r="32" spans="1:23" ht="12" customHeight="1">
       <c r="A32" s="18"/>
@@ -3014,26 +3014,26 @@
       <c r="G33" s="48"/>
       <c r="H33" s="48"/>
       <c r="I33" s="101"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="140"/>
-      <c r="L33" s="148"/>
-      <c r="M33" s="148"/>
-      <c r="N33" s="148"/>
-      <c r="O33" s="148"/>
-      <c r="P33" s="148"/>
-      <c r="Q33" s="148"/>
-      <c r="R33" s="148"/>
-      <c r="S33" s="148"/>
-      <c r="T33" s="148"/>
-      <c r="U33" s="148"/>
-      <c r="V33" s="148"/>
-      <c r="W33" s="154"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="139"/>
+      <c r="L33" s="147"/>
+      <c r="M33" s="147"/>
+      <c r="N33" s="147"/>
+      <c r="O33" s="147"/>
+      <c r="P33" s="147"/>
+      <c r="Q33" s="147"/>
+      <c r="R33" s="147"/>
+      <c r="S33" s="147"/>
+      <c r="T33" s="147"/>
+      <c r="U33" s="147"/>
+      <c r="V33" s="147"/>
+      <c r="W33" s="153"/>
     </row>
     <row r="34" spans="1:23" ht="12" customHeight="1">
       <c r="A34" s="18"/>
       <c r="B34" s="18"/>
-      <c r="C34" s="170"/>
-      <c r="D34" s="171"/>
+      <c r="C34" s="169"/>
+      <c r="D34" s="170"/>
       <c r="E34" s="52"/>
       <c r="F34" s="53"/>
       <c r="G34" s="43"/>
@@ -3052,7 +3052,7 @@
       <c r="T34" s="103"/>
       <c r="U34" s="103"/>
       <c r="V34" s="117"/>
-      <c r="W34" s="138"/>
+      <c r="W34" s="137"/>
     </row>
     <row r="35" spans="1:23" ht="12" customHeight="1">
       <c r="A35" s="18"/>
@@ -3127,13 +3127,13 @@
       <c r="T37" s="107"/>
       <c r="U37" s="107"/>
       <c r="V37" s="96"/>
-      <c r="W37" s="139"/>
+      <c r="W37" s="138"/>
     </row>
     <row r="38" spans="1:23" ht="12" customHeight="1">
       <c r="A38" s="18"/>
       <c r="B38" s="18"/>
-      <c r="C38" s="170"/>
-      <c r="D38" s="171"/>
+      <c r="C38" s="169"/>
+      <c r="D38" s="170"/>
       <c r="E38" s="54"/>
       <c r="F38" s="55"/>
       <c r="G38" s="55"/>
@@ -3152,7 +3152,7 @@
       <c r="T38" s="120"/>
       <c r="U38" s="120"/>
       <c r="V38" s="120"/>
-      <c r="W38" s="137"/>
+      <c r="W38" s="136"/>
     </row>
     <row r="39" spans="1:23" ht="12" customHeight="1">
       <c r="A39" s="18"/>
@@ -3164,20 +3164,20 @@
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
       <c r="I39" s="100"/>
-      <c r="J39" s="155"/>
-      <c r="K39" s="156"/>
-      <c r="L39" s="157"/>
-      <c r="M39" s="157"/>
-      <c r="N39" s="157"/>
-      <c r="O39" s="157"/>
-      <c r="P39" s="157"/>
-      <c r="Q39" s="157"/>
-      <c r="R39" s="157"/>
-      <c r="S39" s="157"/>
-      <c r="T39" s="157"/>
-      <c r="U39" s="157"/>
-      <c r="V39" s="157"/>
-      <c r="W39" s="158"/>
+      <c r="J39" s="154"/>
+      <c r="K39" s="155"/>
+      <c r="L39" s="156"/>
+      <c r="M39" s="156"/>
+      <c r="N39" s="156"/>
+      <c r="O39" s="156"/>
+      <c r="P39" s="156"/>
+      <c r="Q39" s="156"/>
+      <c r="R39" s="156"/>
+      <c r="S39" s="156"/>
+      <c r="T39" s="156"/>
+      <c r="U39" s="156"/>
+      <c r="V39" s="156"/>
+      <c r="W39" s="157"/>
     </row>
     <row r="40" spans="1:23" ht="12" customHeight="1">
       <c r="A40" s="18"/>
@@ -3214,26 +3214,26 @@
       <c r="G41" s="48"/>
       <c r="H41" s="58"/>
       <c r="I41" s="101"/>
-      <c r="J41" s="153"/>
-      <c r="K41" s="140"/>
-      <c r="L41" s="148"/>
-      <c r="M41" s="148"/>
-      <c r="N41" s="148"/>
-      <c r="O41" s="148"/>
-      <c r="P41" s="148"/>
-      <c r="Q41" s="148"/>
-      <c r="R41" s="148"/>
-      <c r="S41" s="148"/>
-      <c r="T41" s="148"/>
-      <c r="U41" s="148"/>
-      <c r="V41" s="148"/>
-      <c r="W41" s="154"/>
+      <c r="J41" s="152"/>
+      <c r="K41" s="139"/>
+      <c r="L41" s="147"/>
+      <c r="M41" s="147"/>
+      <c r="N41" s="147"/>
+      <c r="O41" s="147"/>
+      <c r="P41" s="147"/>
+      <c r="Q41" s="147"/>
+      <c r="R41" s="147"/>
+      <c r="S41" s="147"/>
+      <c r="T41" s="147"/>
+      <c r="U41" s="147"/>
+      <c r="V41" s="147"/>
+      <c r="W41" s="153"/>
     </row>
     <row r="42" spans="1:23" ht="12" customHeight="1">
       <c r="A42" s="18"/>
       <c r="B42" s="18"/>
-      <c r="C42" s="170"/>
-      <c r="D42" s="171"/>
+      <c r="C42" s="169"/>
+      <c r="D42" s="170"/>
       <c r="E42" s="54"/>
       <c r="F42" s="55"/>
       <c r="G42" s="55"/>
@@ -3252,7 +3252,7 @@
       <c r="T42" s="120"/>
       <c r="U42" s="120"/>
       <c r="V42" s="120"/>
-      <c r="W42" s="137"/>
+      <c r="W42" s="136"/>
     </row>
     <row r="43" spans="1:23" ht="12" customHeight="1">
       <c r="A43" s="18"/>
@@ -3264,20 +3264,20 @@
       <c r="G43" s="17"/>
       <c r="H43" s="17"/>
       <c r="I43" s="100"/>
-      <c r="J43" s="155"/>
-      <c r="K43" s="156"/>
-      <c r="L43" s="157"/>
-      <c r="M43" s="157"/>
-      <c r="N43" s="157"/>
-      <c r="O43" s="157"/>
-      <c r="P43" s="157"/>
-      <c r="Q43" s="157"/>
-      <c r="R43" s="157"/>
-      <c r="S43" s="157"/>
-      <c r="T43" s="157"/>
-      <c r="U43" s="157"/>
-      <c r="V43" s="157"/>
-      <c r="W43" s="158"/>
+      <c r="J43" s="154"/>
+      <c r="K43" s="155"/>
+      <c r="L43" s="156"/>
+      <c r="M43" s="156"/>
+      <c r="N43" s="156"/>
+      <c r="O43" s="156"/>
+      <c r="P43" s="156"/>
+      <c r="Q43" s="156"/>
+      <c r="R43" s="156"/>
+      <c r="S43" s="156"/>
+      <c r="T43" s="156"/>
+      <c r="U43" s="156"/>
+      <c r="V43" s="156"/>
+      <c r="W43" s="157"/>
     </row>
     <row r="44" spans="1:23" ht="12" customHeight="1">
       <c r="A44" s="18"/>
@@ -3314,26 +3314,26 @@
       <c r="G45" s="48"/>
       <c r="H45" s="48"/>
       <c r="I45" s="101"/>
-      <c r="J45" s="153"/>
-      <c r="K45" s="140"/>
-      <c r="L45" s="148"/>
-      <c r="M45" s="148"/>
-      <c r="N45" s="148"/>
-      <c r="O45" s="148"/>
-      <c r="P45" s="148"/>
-      <c r="Q45" s="148"/>
-      <c r="R45" s="148"/>
-      <c r="S45" s="148"/>
-      <c r="T45" s="148"/>
-      <c r="U45" s="148"/>
-      <c r="V45" s="148"/>
-      <c r="W45" s="154"/>
+      <c r="J45" s="152"/>
+      <c r="K45" s="139"/>
+      <c r="L45" s="147"/>
+      <c r="M45" s="147"/>
+      <c r="N45" s="147"/>
+      <c r="O45" s="147"/>
+      <c r="P45" s="147"/>
+      <c r="Q45" s="147"/>
+      <c r="R45" s="147"/>
+      <c r="S45" s="147"/>
+      <c r="T45" s="147"/>
+      <c r="U45" s="147"/>
+      <c r="V45" s="147"/>
+      <c r="W45" s="153"/>
     </row>
     <row r="46" spans="1:23" ht="12" customHeight="1">
       <c r="A46" s="18"/>
       <c r="B46" s="18"/>
-      <c r="C46" s="170"/>
-      <c r="D46" s="171"/>
+      <c r="C46" s="169"/>
+      <c r="D46" s="170"/>
       <c r="E46" s="37"/>
       <c r="F46" s="59"/>
       <c r="G46" s="55"/>
@@ -3352,7 +3352,7 @@
       <c r="T46" s="120"/>
       <c r="U46" s="120"/>
       <c r="V46" s="120"/>
-      <c r="W46" s="137"/>
+      <c r="W46" s="136"/>
     </row>
     <row r="47" spans="1:23" ht="12" customHeight="1">
       <c r="A47" s="18"/>
@@ -3364,20 +3364,20 @@
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
       <c r="I47" s="112"/>
-      <c r="J47" s="155"/>
-      <c r="K47" s="156"/>
-      <c r="L47" s="157"/>
-      <c r="M47" s="157"/>
-      <c r="N47" s="157"/>
-      <c r="O47" s="157"/>
-      <c r="P47" s="157"/>
-      <c r="Q47" s="157"/>
-      <c r="R47" s="157"/>
-      <c r="S47" s="157"/>
-      <c r="T47" s="157"/>
-      <c r="U47" s="157"/>
-      <c r="V47" s="157"/>
-      <c r="W47" s="158"/>
+      <c r="J47" s="154"/>
+      <c r="K47" s="155"/>
+      <c r="L47" s="156"/>
+      <c r="M47" s="156"/>
+      <c r="N47" s="156"/>
+      <c r="O47" s="156"/>
+      <c r="P47" s="156"/>
+      <c r="Q47" s="156"/>
+      <c r="R47" s="156"/>
+      <c r="S47" s="156"/>
+      <c r="T47" s="156"/>
+      <c r="U47" s="156"/>
+      <c r="V47" s="156"/>
+      <c r="W47" s="157"/>
     </row>
     <row r="48" spans="1:23" ht="12" customHeight="1">
       <c r="A48" s="18"/>
@@ -3414,26 +3414,26 @@
       <c r="G49" s="47"/>
       <c r="H49" s="58"/>
       <c r="I49" s="101"/>
-      <c r="J49" s="153"/>
-      <c r="K49" s="140"/>
-      <c r="L49" s="148"/>
-      <c r="M49" s="148"/>
-      <c r="N49" s="148"/>
-      <c r="O49" s="148"/>
-      <c r="P49" s="148"/>
-      <c r="Q49" s="148"/>
-      <c r="R49" s="148"/>
-      <c r="S49" s="148"/>
-      <c r="T49" s="148"/>
-      <c r="U49" s="148"/>
-      <c r="V49" s="148"/>
-      <c r="W49" s="154"/>
+      <c r="J49" s="152"/>
+      <c r="K49" s="139"/>
+      <c r="L49" s="147"/>
+      <c r="M49" s="147"/>
+      <c r="N49" s="147"/>
+      <c r="O49" s="147"/>
+      <c r="P49" s="147"/>
+      <c r="Q49" s="147"/>
+      <c r="R49" s="147"/>
+      <c r="S49" s="147"/>
+      <c r="T49" s="147"/>
+      <c r="U49" s="147"/>
+      <c r="V49" s="147"/>
+      <c r="W49" s="153"/>
     </row>
     <row r="50" spans="1:23" ht="12" customHeight="1">
       <c r="A50" s="18"/>
       <c r="B50" s="18"/>
-      <c r="C50" s="170"/>
-      <c r="D50" s="171"/>
+      <c r="C50" s="169"/>
+      <c r="D50" s="170"/>
       <c r="E50" s="37"/>
       <c r="F50" s="59"/>
       <c r="G50" s="55"/>
@@ -3452,7 +3452,7 @@
       <c r="T50" s="120"/>
       <c r="U50" s="120"/>
       <c r="V50" s="120"/>
-      <c r="W50" s="137"/>
+      <c r="W50" s="136"/>
     </row>
     <row r="51" spans="1:23" ht="12" customHeight="1">
       <c r="A51" s="18"/>
@@ -3464,20 +3464,20 @@
       <c r="G51" s="17"/>
       <c r="H51" s="17"/>
       <c r="I51" s="112"/>
-      <c r="J51" s="155"/>
-      <c r="K51" s="156"/>
-      <c r="L51" s="157"/>
-      <c r="M51" s="157"/>
-      <c r="N51" s="157"/>
-      <c r="O51" s="157"/>
-      <c r="P51" s="157"/>
-      <c r="Q51" s="157"/>
-      <c r="R51" s="157"/>
-      <c r="S51" s="157"/>
-      <c r="T51" s="157"/>
-      <c r="U51" s="157"/>
-      <c r="V51" s="157"/>
-      <c r="W51" s="158"/>
+      <c r="J51" s="154"/>
+      <c r="K51" s="155"/>
+      <c r="L51" s="156"/>
+      <c r="M51" s="156"/>
+      <c r="N51" s="156"/>
+      <c r="O51" s="156"/>
+      <c r="P51" s="156"/>
+      <c r="Q51" s="156"/>
+      <c r="R51" s="156"/>
+      <c r="S51" s="156"/>
+      <c r="T51" s="156"/>
+      <c r="U51" s="156"/>
+      <c r="V51" s="156"/>
+      <c r="W51" s="157"/>
     </row>
     <row r="52" spans="1:23" ht="12" customHeight="1">
       <c r="A52" s="18"/>
@@ -3514,20 +3514,20 @@
       <c r="G53" s="47"/>
       <c r="H53" s="58"/>
       <c r="I53" s="101"/>
-      <c r="J53" s="149"/>
-      <c r="K53" s="159"/>
-      <c r="L53" s="160"/>
-      <c r="M53" s="160"/>
-      <c r="N53" s="160"/>
-      <c r="O53" s="160"/>
-      <c r="P53" s="160"/>
-      <c r="Q53" s="160"/>
-      <c r="R53" s="160"/>
-      <c r="S53" s="160"/>
-      <c r="T53" s="160"/>
-      <c r="U53" s="160"/>
-      <c r="V53" s="160"/>
-      <c r="W53" s="161"/>
+      <c r="J53" s="148"/>
+      <c r="K53" s="158"/>
+      <c r="L53" s="159"/>
+      <c r="M53" s="159"/>
+      <c r="N53" s="159"/>
+      <c r="O53" s="159"/>
+      <c r="P53" s="159"/>
+      <c r="Q53" s="159"/>
+      <c r="R53" s="159"/>
+      <c r="S53" s="159"/>
+      <c r="T53" s="159"/>
+      <c r="U53" s="159"/>
+      <c r="V53" s="159"/>
+      <c r="W53" s="160"/>
     </row>
     <row r="54" spans="1:23" ht="12" customHeight="1">
       <c r="C54" s="125"/>
@@ -3668,27 +3668,27 @@
       <c r="W59" s="129"/>
     </row>
     <row r="64" spans="1:23" ht="12" customHeight="1">
-      <c r="C64" s="170"/>
-      <c r="D64" s="171"/>
+      <c r="C64" s="169"/>
+      <c r="D64" s="170"/>
       <c r="E64" s="30"/>
       <c r="F64" s="31"/>
       <c r="G64" s="31"/>
       <c r="H64" s="31"/>
       <c r="I64" s="87"/>
-      <c r="J64" s="167"/>
-      <c r="K64" s="165"/>
-      <c r="L64" s="141"/>
-      <c r="M64" s="141"/>
-      <c r="N64" s="141"/>
-      <c r="O64" s="141"/>
-      <c r="P64" s="141"/>
-      <c r="Q64" s="141"/>
-      <c r="R64" s="141"/>
-      <c r="S64" s="141"/>
-      <c r="T64" s="141"/>
-      <c r="U64" s="141"/>
-      <c r="V64" s="141"/>
-      <c r="W64" s="166"/>
+      <c r="J64" s="166"/>
+      <c r="K64" s="164"/>
+      <c r="L64" s="140"/>
+      <c r="M64" s="140"/>
+      <c r="N64" s="140"/>
+      <c r="O64" s="140"/>
+      <c r="P64" s="140"/>
+      <c r="Q64" s="140"/>
+      <c r="R64" s="140"/>
+      <c r="S64" s="140"/>
+      <c r="T64" s="140"/>
+      <c r="U64" s="140"/>
+      <c r="V64" s="140"/>
+      <c r="W64" s="165"/>
     </row>
     <row r="65" spans="1:23" ht="12" customHeight="1">
       <c r="C65" s="33"/>
@@ -3711,32 +3711,32 @@
       <c r="T65" s="90"/>
       <c r="U65" s="90"/>
       <c r="V65" s="90"/>
-      <c r="W65" s="139"/>
+      <c r="W65" s="132"/>
     </row>
     <row r="66" spans="1:23" ht="12" customHeight="1">
       <c r="A66" s="122"/>
       <c r="B66" s="122"/>
-      <c r="C66" s="170"/>
-      <c r="D66" s="171"/>
+      <c r="C66" s="169"/>
+      <c r="D66" s="170"/>
       <c r="E66" s="37"/>
       <c r="F66" s="43"/>
       <c r="G66" s="43"/>
       <c r="H66" s="43"/>
       <c r="I66" s="93"/>
-      <c r="J66" s="167"/>
-      <c r="K66" s="165"/>
-      <c r="L66" s="141"/>
-      <c r="M66" s="141"/>
-      <c r="N66" s="141"/>
-      <c r="O66" s="141"/>
-      <c r="P66" s="141"/>
-      <c r="Q66" s="141"/>
-      <c r="R66" s="141"/>
-      <c r="S66" s="141"/>
-      <c r="T66" s="141"/>
-      <c r="U66" s="141"/>
-      <c r="V66" s="141"/>
-      <c r="W66" s="166"/>
+      <c r="J66" s="166"/>
+      <c r="K66" s="164"/>
+      <c r="L66" s="140"/>
+      <c r="M66" s="140"/>
+      <c r="N66" s="140"/>
+      <c r="O66" s="140"/>
+      <c r="P66" s="140"/>
+      <c r="Q66" s="140"/>
+      <c r="R66" s="140"/>
+      <c r="S66" s="140"/>
+      <c r="T66" s="140"/>
+      <c r="U66" s="140"/>
+      <c r="V66" s="140"/>
+      <c r="W66" s="165"/>
     </row>
     <row r="67" spans="1:23" ht="12" customHeight="1">
       <c r="A67" s="122"/>
@@ -3773,20 +3773,20 @@
       <c r="G68" s="42"/>
       <c r="H68" s="42"/>
       <c r="I68" s="92"/>
-      <c r="J68" s="153"/>
-      <c r="K68" s="140"/>
-      <c r="L68" s="148"/>
-      <c r="M68" s="148"/>
-      <c r="N68" s="148"/>
-      <c r="O68" s="148"/>
-      <c r="P68" s="148"/>
-      <c r="Q68" s="148"/>
-      <c r="R68" s="148"/>
-      <c r="S68" s="148"/>
-      <c r="T68" s="148"/>
-      <c r="U68" s="148"/>
-      <c r="V68" s="169"/>
-      <c r="W68" s="133"/>
+      <c r="J68" s="152"/>
+      <c r="K68" s="139"/>
+      <c r="L68" s="147"/>
+      <c r="M68" s="147"/>
+      <c r="N68" s="147"/>
+      <c r="O68" s="147"/>
+      <c r="P68" s="147"/>
+      <c r="Q68" s="147"/>
+      <c r="R68" s="147"/>
+      <c r="S68" s="147"/>
+      <c r="T68" s="147"/>
+      <c r="U68" s="147"/>
+      <c r="V68" s="168"/>
+      <c r="W68" s="153"/>
     </row>
     <row r="69" spans="1:23" ht="12" customHeight="1">
       <c r="A69" s="122"/>
@@ -3811,32 +3811,32 @@
       <c r="T69" s="90"/>
       <c r="U69" s="90"/>
       <c r="V69" s="90"/>
-      <c r="W69" s="139"/>
+      <c r="W69" s="132"/>
     </row>
     <row r="70" spans="1:23" ht="12" customHeight="1">
       <c r="A70" s="122"/>
       <c r="B70" s="122"/>
-      <c r="C70" s="170"/>
-      <c r="D70" s="171"/>
+      <c r="C70" s="169"/>
+      <c r="D70" s="170"/>
       <c r="E70" s="37"/>
       <c r="F70" s="43"/>
       <c r="G70" s="43"/>
       <c r="H70" s="43"/>
       <c r="I70" s="98"/>
-      <c r="J70" s="167"/>
-      <c r="K70" s="165"/>
-      <c r="L70" s="141"/>
-      <c r="M70" s="141"/>
-      <c r="N70" s="141"/>
-      <c r="O70" s="141"/>
-      <c r="P70" s="141"/>
-      <c r="Q70" s="141"/>
-      <c r="R70" s="141"/>
-      <c r="S70" s="141"/>
-      <c r="T70" s="141"/>
-      <c r="U70" s="141"/>
-      <c r="V70" s="168"/>
-      <c r="W70" s="138"/>
+      <c r="J70" s="166"/>
+      <c r="K70" s="164"/>
+      <c r="L70" s="140"/>
+      <c r="M70" s="140"/>
+      <c r="N70" s="140"/>
+      <c r="O70" s="140"/>
+      <c r="P70" s="140"/>
+      <c r="Q70" s="140"/>
+      <c r="R70" s="140"/>
+      <c r="S70" s="140"/>
+      <c r="T70" s="140"/>
+      <c r="U70" s="140"/>
+      <c r="V70" s="167"/>
+      <c r="W70" s="165"/>
     </row>
     <row r="71" spans="1:23" ht="12" customHeight="1">
       <c r="A71" s="122"/>
@@ -3873,20 +3873,20 @@
       <c r="G72" s="42"/>
       <c r="H72" s="42"/>
       <c r="I72" s="92"/>
-      <c r="J72" s="153"/>
-      <c r="K72" s="140"/>
-      <c r="L72" s="148"/>
-      <c r="M72" s="148"/>
-      <c r="N72" s="148"/>
-      <c r="O72" s="148"/>
-      <c r="P72" s="148"/>
-      <c r="Q72" s="148"/>
-      <c r="R72" s="148"/>
-      <c r="S72" s="148"/>
-      <c r="T72" s="148"/>
-      <c r="U72" s="148"/>
-      <c r="V72" s="148"/>
-      <c r="W72" s="128"/>
+      <c r="J72" s="152"/>
+      <c r="K72" s="139"/>
+      <c r="L72" s="147"/>
+      <c r="M72" s="147"/>
+      <c r="N72" s="147"/>
+      <c r="O72" s="147"/>
+      <c r="P72" s="147"/>
+      <c r="Q72" s="147"/>
+      <c r="R72" s="147"/>
+      <c r="S72" s="147"/>
+      <c r="T72" s="147"/>
+      <c r="U72" s="147"/>
+      <c r="V72" s="147"/>
+      <c r="W72" s="153"/>
     </row>
     <row r="73" spans="1:23" ht="12" customHeight="1">
       <c r="A73" s="122"/>
@@ -3911,32 +3911,32 @@
       <c r="T73" s="90"/>
       <c r="U73" s="90"/>
       <c r="V73" s="90"/>
-      <c r="W73" s="139"/>
+      <c r="W73" s="132"/>
     </row>
     <row r="74" spans="1:23" ht="12" customHeight="1">
       <c r="A74" s="122"/>
       <c r="B74" s="122"/>
-      <c r="C74" s="170"/>
-      <c r="D74" s="171"/>
+      <c r="C74" s="169"/>
+      <c r="D74" s="170"/>
       <c r="E74" s="49"/>
       <c r="F74" s="43"/>
       <c r="G74" s="43"/>
       <c r="H74" s="43"/>
       <c r="I74" s="99"/>
-      <c r="J74" s="167"/>
-      <c r="K74" s="165"/>
-      <c r="L74" s="141"/>
-      <c r="M74" s="141"/>
-      <c r="N74" s="141"/>
-      <c r="O74" s="141"/>
-      <c r="P74" s="141"/>
-      <c r="Q74" s="141"/>
-      <c r="R74" s="141"/>
-      <c r="S74" s="141"/>
-      <c r="T74" s="141"/>
-      <c r="U74" s="141"/>
-      <c r="V74" s="141"/>
-      <c r="W74" s="138"/>
+      <c r="J74" s="166"/>
+      <c r="K74" s="164"/>
+      <c r="L74" s="140"/>
+      <c r="M74" s="140"/>
+      <c r="N74" s="140"/>
+      <c r="O74" s="140"/>
+      <c r="P74" s="140"/>
+      <c r="Q74" s="140"/>
+      <c r="R74" s="140"/>
+      <c r="S74" s="140"/>
+      <c r="T74" s="140"/>
+      <c r="U74" s="140"/>
+      <c r="V74" s="140"/>
+      <c r="W74" s="165"/>
     </row>
     <row r="75" spans="1:23" ht="12" customHeight="1">
       <c r="A75" s="122"/>
@@ -3961,7 +3961,7 @@
       <c r="T75" s="72"/>
       <c r="U75" s="72"/>
       <c r="V75" s="72"/>
-      <c r="W75" s="134"/>
+      <c r="W75" s="132"/>
     </row>
     <row r="76" spans="1:23" ht="12" customHeight="1">
       <c r="A76" s="122"/>
@@ -3973,20 +3973,20 @@
       <c r="G76" s="42"/>
       <c r="H76" s="42"/>
       <c r="I76" s="100"/>
-      <c r="J76" s="153"/>
-      <c r="K76" s="140"/>
-      <c r="L76" s="148"/>
-      <c r="M76" s="148"/>
-      <c r="N76" s="148"/>
-      <c r="O76" s="148"/>
-      <c r="P76" s="148"/>
-      <c r="Q76" s="148"/>
-      <c r="R76" s="148"/>
-      <c r="S76" s="148"/>
-      <c r="T76" s="148"/>
-      <c r="U76" s="148"/>
-      <c r="V76" s="148"/>
-      <c r="W76" s="154"/>
+      <c r="J76" s="152"/>
+      <c r="K76" s="139"/>
+      <c r="L76" s="147"/>
+      <c r="M76" s="147"/>
+      <c r="N76" s="147"/>
+      <c r="O76" s="147"/>
+      <c r="P76" s="147"/>
+      <c r="Q76" s="147"/>
+      <c r="R76" s="147"/>
+      <c r="S76" s="147"/>
+      <c r="T76" s="147"/>
+      <c r="U76" s="147"/>
+      <c r="V76" s="147"/>
+      <c r="W76" s="153"/>
     </row>
     <row r="77" spans="1:23" ht="12" customHeight="1">
       <c r="A77" s="122"/>
@@ -4011,19 +4011,19 @@
       <c r="T77" s="90"/>
       <c r="U77" s="90"/>
       <c r="V77" s="90"/>
-      <c r="W77" s="139"/>
+      <c r="W77" s="132"/>
     </row>
     <row r="78" spans="1:23" ht="12" customHeight="1">
       <c r="A78" s="122"/>
       <c r="B78" s="122"/>
-      <c r="C78" s="170"/>
-      <c r="D78" s="171"/>
+      <c r="C78" s="169"/>
+      <c r="D78" s="170"/>
       <c r="E78" s="52"/>
       <c r="F78" s="53"/>
       <c r="G78" s="43"/>
       <c r="H78" s="53"/>
       <c r="I78" s="99"/>
-      <c r="J78" s="167"/>
+      <c r="J78" s="166"/>
       <c r="K78" s="102"/>
       <c r="L78" s="103"/>
       <c r="M78" s="103"/>
@@ -4035,8 +4035,8 @@
       <c r="S78" s="103"/>
       <c r="T78" s="103"/>
       <c r="U78" s="103"/>
-      <c r="V78" s="141"/>
-      <c r="W78" s="138"/>
+      <c r="V78" s="140"/>
+      <c r="W78" s="137"/>
     </row>
     <row r="79" spans="1:23" ht="12" customHeight="1">
       <c r="A79" s="122"/>
@@ -4073,20 +4073,20 @@
       <c r="G80" s="42"/>
       <c r="H80" s="42"/>
       <c r="I80" s="100"/>
-      <c r="J80" s="153"/>
-      <c r="K80" s="140"/>
-      <c r="L80" s="148"/>
-      <c r="M80" s="148"/>
-      <c r="N80" s="148"/>
-      <c r="O80" s="148"/>
-      <c r="P80" s="148"/>
-      <c r="Q80" s="148"/>
-      <c r="R80" s="148"/>
-      <c r="S80" s="148"/>
-      <c r="T80" s="148"/>
-      <c r="U80" s="148"/>
-      <c r="V80" s="148"/>
-      <c r="W80" s="154"/>
+      <c r="J80" s="152"/>
+      <c r="K80" s="139"/>
+      <c r="L80" s="147"/>
+      <c r="M80" s="147"/>
+      <c r="N80" s="147"/>
+      <c r="O80" s="147"/>
+      <c r="P80" s="147"/>
+      <c r="Q80" s="147"/>
+      <c r="R80" s="147"/>
+      <c r="S80" s="147"/>
+      <c r="T80" s="147"/>
+      <c r="U80" s="147"/>
+      <c r="V80" s="147"/>
+      <c r="W80" s="153"/>
     </row>
     <row r="81" spans="1:23" ht="12" customHeight="1">
       <c r="A81" s="122"/>
@@ -4111,32 +4111,32 @@
       <c r="T81" s="107"/>
       <c r="U81" s="107"/>
       <c r="V81" s="90"/>
-      <c r="W81" s="139"/>
+      <c r="W81" s="138"/>
     </row>
     <row r="82" spans="1:23" ht="12" customHeight="1">
       <c r="A82" s="122"/>
       <c r="B82" s="122"/>
-      <c r="C82" s="170"/>
-      <c r="D82" s="171"/>
+      <c r="C82" s="169"/>
+      <c r="D82" s="170"/>
       <c r="E82" s="54"/>
       <c r="F82" s="55"/>
       <c r="G82" s="55"/>
       <c r="H82" s="55"/>
       <c r="I82" s="99"/>
-      <c r="J82" s="164"/>
-      <c r="K82" s="165"/>
-      <c r="L82" s="141"/>
-      <c r="M82" s="141"/>
-      <c r="N82" s="141"/>
-      <c r="O82" s="141"/>
-      <c r="P82" s="141"/>
-      <c r="Q82" s="141"/>
-      <c r="R82" s="141"/>
-      <c r="S82" s="141"/>
-      <c r="T82" s="141"/>
-      <c r="U82" s="141"/>
-      <c r="V82" s="141"/>
-      <c r="W82" s="166"/>
+      <c r="J82" s="163"/>
+      <c r="K82" s="164"/>
+      <c r="L82" s="140"/>
+      <c r="M82" s="140"/>
+      <c r="N82" s="140"/>
+      <c r="O82" s="140"/>
+      <c r="P82" s="140"/>
+      <c r="Q82" s="140"/>
+      <c r="R82" s="140"/>
+      <c r="S82" s="140"/>
+      <c r="T82" s="140"/>
+      <c r="U82" s="140"/>
+      <c r="V82" s="140"/>
+      <c r="W82" s="165"/>
     </row>
     <row r="83" spans="1:23" ht="12" customHeight="1">
       <c r="A83" s="122"/>
@@ -4173,20 +4173,20 @@
       <c r="G84" s="42"/>
       <c r="H84" s="57"/>
       <c r="I84" s="100"/>
-      <c r="J84" s="162"/>
-      <c r="K84" s="140"/>
-      <c r="L84" s="148"/>
-      <c r="M84" s="148"/>
-      <c r="N84" s="148"/>
-      <c r="O84" s="148"/>
-      <c r="P84" s="148"/>
-      <c r="Q84" s="148"/>
-      <c r="R84" s="148"/>
-      <c r="S84" s="148"/>
-      <c r="T84" s="148"/>
-      <c r="U84" s="148"/>
-      <c r="V84" s="148"/>
-      <c r="W84" s="128"/>
+      <c r="J84" s="161"/>
+      <c r="K84" s="139"/>
+      <c r="L84" s="147"/>
+      <c r="M84" s="147"/>
+      <c r="N84" s="147"/>
+      <c r="O84" s="147"/>
+      <c r="P84" s="147"/>
+      <c r="Q84" s="147"/>
+      <c r="R84" s="147"/>
+      <c r="S84" s="147"/>
+      <c r="T84" s="147"/>
+      <c r="U84" s="147"/>
+      <c r="V84" s="147"/>
+      <c r="W84" s="153"/>
     </row>
     <row r="85" spans="1:23" ht="12" customHeight="1">
       <c r="A85" s="122"/>
@@ -4211,32 +4211,32 @@
       <c r="T85" s="90"/>
       <c r="U85" s="90"/>
       <c r="V85" s="90"/>
-      <c r="W85" s="139"/>
+      <c r="W85" s="132"/>
     </row>
     <row r="86" spans="1:23" ht="12" customHeight="1">
       <c r="A86" s="122"/>
       <c r="B86" s="122"/>
-      <c r="C86" s="170"/>
-      <c r="D86" s="171"/>
+      <c r="C86" s="169"/>
+      <c r="D86" s="170"/>
       <c r="E86" s="54"/>
       <c r="F86" s="55"/>
       <c r="G86" s="55"/>
       <c r="H86" s="55"/>
       <c r="I86" s="99"/>
-      <c r="J86" s="164"/>
-      <c r="K86" s="165"/>
-      <c r="L86" s="141"/>
-      <c r="M86" s="141"/>
-      <c r="N86" s="141"/>
-      <c r="O86" s="141"/>
-      <c r="P86" s="141"/>
-      <c r="Q86" s="141"/>
-      <c r="R86" s="141"/>
-      <c r="S86" s="141"/>
-      <c r="T86" s="141"/>
-      <c r="U86" s="141"/>
-      <c r="V86" s="141"/>
-      <c r="W86" s="166"/>
+      <c r="J86" s="163"/>
+      <c r="K86" s="164"/>
+      <c r="L86" s="140"/>
+      <c r="M86" s="140"/>
+      <c r="N86" s="140"/>
+      <c r="O86" s="140"/>
+      <c r="P86" s="140"/>
+      <c r="Q86" s="140"/>
+      <c r="R86" s="140"/>
+      <c r="S86" s="140"/>
+      <c r="T86" s="140"/>
+      <c r="U86" s="140"/>
+      <c r="V86" s="140"/>
+      <c r="W86" s="165"/>
     </row>
     <row r="87" spans="1:23" ht="12" customHeight="1">
       <c r="A87" s="122"/>
@@ -4273,20 +4273,20 @@
       <c r="G88" s="42"/>
       <c r="H88" s="57"/>
       <c r="I88" s="100"/>
-      <c r="J88" s="162"/>
-      <c r="K88" s="140"/>
-      <c r="L88" s="148"/>
-      <c r="M88" s="148"/>
-      <c r="N88" s="148"/>
-      <c r="O88" s="148"/>
-      <c r="P88" s="148"/>
-      <c r="Q88" s="148"/>
-      <c r="R88" s="148"/>
-      <c r="S88" s="148"/>
-      <c r="T88" s="148"/>
-      <c r="U88" s="148"/>
-      <c r="V88" s="148"/>
-      <c r="W88" s="128"/>
+      <c r="J88" s="161"/>
+      <c r="K88" s="139"/>
+      <c r="L88" s="147"/>
+      <c r="M88" s="147"/>
+      <c r="N88" s="147"/>
+      <c r="O88" s="147"/>
+      <c r="P88" s="147"/>
+      <c r="Q88" s="147"/>
+      <c r="R88" s="147"/>
+      <c r="S88" s="147"/>
+      <c r="T88" s="147"/>
+      <c r="U88" s="147"/>
+      <c r="V88" s="147"/>
+      <c r="W88" s="153"/>
     </row>
     <row r="89" spans="1:23" ht="12" customHeight="1">
       <c r="A89" s="122"/>
@@ -4311,32 +4311,32 @@
       <c r="T89" s="90"/>
       <c r="U89" s="90"/>
       <c r="V89" s="90"/>
-      <c r="W89" s="139"/>
+      <c r="W89" s="132"/>
     </row>
     <row r="90" spans="1:23" ht="12" customHeight="1">
       <c r="A90" s="122"/>
       <c r="B90" s="122"/>
-      <c r="C90" s="170"/>
-      <c r="D90" s="171"/>
+      <c r="C90" s="169"/>
+      <c r="D90" s="170"/>
       <c r="E90" s="37"/>
       <c r="F90" s="59"/>
       <c r="G90" s="55"/>
       <c r="H90" s="55"/>
       <c r="I90" s="111"/>
-      <c r="J90" s="164"/>
-      <c r="K90" s="165"/>
-      <c r="L90" s="141"/>
-      <c r="M90" s="141"/>
-      <c r="N90" s="141"/>
-      <c r="O90" s="141"/>
-      <c r="P90" s="141"/>
-      <c r="Q90" s="141"/>
-      <c r="R90" s="141"/>
-      <c r="S90" s="141"/>
-      <c r="T90" s="141"/>
-      <c r="U90" s="141"/>
-      <c r="V90" s="141"/>
-      <c r="W90" s="166"/>
+      <c r="J90" s="163"/>
+      <c r="K90" s="164"/>
+      <c r="L90" s="140"/>
+      <c r="M90" s="140"/>
+      <c r="N90" s="140"/>
+      <c r="O90" s="140"/>
+      <c r="P90" s="140"/>
+      <c r="Q90" s="140"/>
+      <c r="R90" s="140"/>
+      <c r="S90" s="140"/>
+      <c r="T90" s="140"/>
+      <c r="U90" s="140"/>
+      <c r="V90" s="140"/>
+      <c r="W90" s="165"/>
     </row>
     <row r="91" spans="1:23" ht="12" customHeight="1">
       <c r="A91" s="122"/>
@@ -4373,20 +4373,20 @@
       <c r="G92" s="61"/>
       <c r="H92" s="62"/>
       <c r="I92" s="100"/>
-      <c r="J92" s="162"/>
-      <c r="K92" s="163"/>
-      <c r="L92" s="148"/>
-      <c r="M92" s="148"/>
-      <c r="N92" s="148"/>
-      <c r="O92" s="148"/>
-      <c r="P92" s="148"/>
-      <c r="Q92" s="148"/>
-      <c r="R92" s="148"/>
-      <c r="S92" s="148"/>
-      <c r="T92" s="148"/>
-      <c r="U92" s="148"/>
-      <c r="V92" s="148"/>
-      <c r="W92" s="133"/>
+      <c r="J92" s="161"/>
+      <c r="K92" s="162"/>
+      <c r="L92" s="147"/>
+      <c r="M92" s="147"/>
+      <c r="N92" s="147"/>
+      <c r="O92" s="147"/>
+      <c r="P92" s="147"/>
+      <c r="Q92" s="147"/>
+      <c r="R92" s="147"/>
+      <c r="S92" s="147"/>
+      <c r="T92" s="147"/>
+      <c r="U92" s="147"/>
+      <c r="V92" s="147"/>
+      <c r="W92" s="153"/>
     </row>
     <row r="93" spans="1:23" ht="12" customHeight="1">
       <c r="A93" s="122"/>
@@ -4411,31 +4411,31 @@
       <c r="T93" s="90"/>
       <c r="U93" s="90"/>
       <c r="V93" s="90"/>
-      <c r="W93" s="139"/>
+      <c r="W93" s="132"/>
     </row>
     <row r="94" spans="1:23" ht="12" customHeight="1">
       <c r="A94" s="122"/>
       <c r="B94" s="122"/>
-      <c r="C94" s="170"/>
-      <c r="D94" s="171"/>
+      <c r="C94" s="169"/>
+      <c r="D94" s="170"/>
       <c r="E94" s="37"/>
       <c r="F94" s="59"/>
       <c r="G94" s="55"/>
       <c r="H94" s="55"/>
       <c r="I94" s="111"/>
-      <c r="J94" s="164"/>
-      <c r="K94" s="165"/>
-      <c r="L94" s="141"/>
-      <c r="M94" s="141"/>
-      <c r="N94" s="141"/>
-      <c r="O94" s="141"/>
-      <c r="P94" s="141"/>
-      <c r="Q94" s="141"/>
-      <c r="R94" s="141"/>
-      <c r="S94" s="141"/>
-      <c r="T94" s="141"/>
-      <c r="U94" s="141"/>
-      <c r="V94" s="141"/>
+      <c r="J94" s="163"/>
+      <c r="K94" s="164"/>
+      <c r="L94" s="140"/>
+      <c r="M94" s="140"/>
+      <c r="N94" s="140"/>
+      <c r="O94" s="140"/>
+      <c r="P94" s="140"/>
+      <c r="Q94" s="140"/>
+      <c r="R94" s="140"/>
+      <c r="S94" s="140"/>
+      <c r="T94" s="140"/>
+      <c r="U94" s="140"/>
+      <c r="V94" s="140"/>
       <c r="W94" s="135"/>
     </row>
     <row r="95" spans="1:23" ht="12" customHeight="1">
@@ -4473,20 +4473,20 @@
       <c r="G96" s="61"/>
       <c r="H96" s="62"/>
       <c r="I96" s="100"/>
-      <c r="J96" s="162"/>
-      <c r="K96" s="163"/>
-      <c r="L96" s="148"/>
-      <c r="M96" s="148"/>
-      <c r="N96" s="148"/>
-      <c r="O96" s="148"/>
-      <c r="P96" s="148"/>
-      <c r="Q96" s="148"/>
-      <c r="R96" s="148"/>
-      <c r="S96" s="148"/>
-      <c r="T96" s="148"/>
-      <c r="U96" s="148"/>
-      <c r="V96" s="148"/>
-      <c r="W96" s="133"/>
+      <c r="J96" s="161"/>
+      <c r="K96" s="162"/>
+      <c r="L96" s="147"/>
+      <c r="M96" s="147"/>
+      <c r="N96" s="147"/>
+      <c r="O96" s="147"/>
+      <c r="P96" s="147"/>
+      <c r="Q96" s="147"/>
+      <c r="R96" s="147"/>
+      <c r="S96" s="147"/>
+      <c r="T96" s="147"/>
+      <c r="U96" s="147"/>
+      <c r="V96" s="147"/>
+      <c r="W96" s="153"/>
     </row>
     <row r="97" spans="1:23" ht="12" customHeight="1">
       <c r="A97" s="121"/>
@@ -4511,31 +4511,10 @@
       <c r="T97" s="90"/>
       <c r="U97" s="90"/>
       <c r="V97" s="90"/>
-      <c r="W97" s="139"/>
+      <c r="W97" s="181"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A2:W2"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A6:W6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C46:D46"/>
     <mergeCell ref="C86:D86"/>
     <mergeCell ref="C90:D90"/>
     <mergeCell ref="C94:D94"/>
@@ -4545,6 +4524,27 @@
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="C82:D82"/>
     <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="A2:W2"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A6:W6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C26:D26"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.31496062992125984"/>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_v2_template.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_v2_template.xlsx
@@ -1150,7 +1150,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1373,9 +1373,6 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1589,9 +1586,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1658,44 +1652,44 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1742,7 +1736,7 @@
         <xdr:cNvPr id="2" name="楕円 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2230,29 +2224,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:23" ht="12" customHeight="1">
-      <c r="A2" s="173"/>
-      <c r="B2" s="173"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="173"/>
-      <c r="J2" s="173"/>
-      <c r="K2" s="173"/>
-      <c r="L2" s="173"/>
-      <c r="M2" s="173"/>
-      <c r="N2" s="173"/>
-      <c r="O2" s="173"/>
-      <c r="P2" s="173"/>
-      <c r="Q2" s="173"/>
-      <c r="R2" s="173"/>
-      <c r="S2" s="173"/>
-      <c r="T2" s="173"/>
-      <c r="U2" s="173"/>
-      <c r="V2" s="173"/>
-      <c r="W2" s="173"/>
+      <c r="A2" s="170"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="170"/>
+      <c r="L2" s="170"/>
+      <c r="M2" s="170"/>
+      <c r="N2" s="170"/>
+      <c r="O2" s="170"/>
+      <c r="P2" s="170"/>
+      <c r="Q2" s="170"/>
+      <c r="R2" s="170"/>
+      <c r="S2" s="170"/>
+      <c r="T2" s="170"/>
+      <c r="U2" s="170"/>
+      <c r="V2" s="170"/>
+      <c r="W2" s="170"/>
     </row>
     <row r="3" spans="1:23" ht="12" customHeight="1" thickBot="1">
       <c r="A3" s="3"/>
@@ -2284,13 +2278,13 @@
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="174"/>
-      <c r="F4" s="175"/>
-      <c r="G4" s="175"/>
-      <c r="H4" s="175"/>
-      <c r="I4" s="176"/>
-      <c r="J4" s="177"/>
-      <c r="K4" s="178"/>
+      <c r="E4" s="171"/>
+      <c r="F4" s="172"/>
+      <c r="G4" s="172"/>
+      <c r="H4" s="172"/>
+      <c r="I4" s="173"/>
+      <c r="J4" s="174"/>
+      <c r="K4" s="175"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -2302,7 +2296,7 @@
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
-      <c r="W4" s="130"/>
+      <c r="W4" s="129"/>
     </row>
     <row r="5" spans="1:23" ht="12" customHeight="1" thickBot="1">
       <c r="A5" s="6"/>
@@ -2327,36 +2321,36 @@
       <c r="T5" s="67"/>
       <c r="U5" s="67"/>
       <c r="V5" s="67"/>
-      <c r="W5" s="131"/>
+      <c r="W5" s="130"/>
     </row>
     <row r="6" spans="1:23" ht="12" customHeight="1" thickBot="1">
-      <c r="A6" s="179"/>
-      <c r="B6" s="179"/>
-      <c r="C6" s="179"/>
-      <c r="D6" s="179"/>
-      <c r="E6" s="179"/>
-      <c r="F6" s="179"/>
-      <c r="G6" s="179"/>
-      <c r="H6" s="179"/>
-      <c r="I6" s="179"/>
-      <c r="J6" s="179"/>
-      <c r="K6" s="179"/>
-      <c r="L6" s="179"/>
-      <c r="M6" s="179"/>
-      <c r="N6" s="179"/>
-      <c r="O6" s="179"/>
-      <c r="P6" s="179"/>
-      <c r="Q6" s="179"/>
-      <c r="R6" s="179"/>
-      <c r="S6" s="179"/>
-      <c r="T6" s="179"/>
-      <c r="U6" s="179"/>
-      <c r="V6" s="179"/>
-      <c r="W6" s="179"/>
+      <c r="A6" s="176"/>
+      <c r="B6" s="176"/>
+      <c r="C6" s="176"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="176"/>
+      <c r="F6" s="176"/>
+      <c r="G6" s="176"/>
+      <c r="H6" s="176"/>
+      <c r="I6" s="176"/>
+      <c r="J6" s="176"/>
+      <c r="K6" s="176"/>
+      <c r="L6" s="176"/>
+      <c r="M6" s="176"/>
+      <c r="N6" s="176"/>
+      <c r="O6" s="176"/>
+      <c r="P6" s="176"/>
+      <c r="Q6" s="176"/>
+      <c r="R6" s="176"/>
+      <c r="S6" s="176"/>
+      <c r="T6" s="176"/>
+      <c r="U6" s="176"/>
+      <c r="V6" s="176"/>
+      <c r="W6" s="176"/>
     </row>
     <row r="7" spans="1:23" ht="12" customHeight="1">
-      <c r="A7" s="180"/>
-      <c r="B7" s="180"/>
+      <c r="A7" s="177"/>
+      <c r="B7" s="177"/>
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
       <c r="E7" s="12"/>
@@ -2364,24 +2358,24 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="68"/>
-      <c r="J7" s="141"/>
-      <c r="K7" s="142"/>
-      <c r="L7" s="143"/>
-      <c r="M7" s="143"/>
-      <c r="N7" s="143"/>
-      <c r="O7" s="143"/>
-      <c r="P7" s="143"/>
-      <c r="Q7" s="143"/>
-      <c r="R7" s="143"/>
-      <c r="S7" s="143"/>
-      <c r="T7" s="143"/>
-      <c r="U7" s="143"/>
-      <c r="V7" s="143"/>
-      <c r="W7" s="144"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="141"/>
+      <c r="L7" s="142"/>
+      <c r="M7" s="142"/>
+      <c r="N7" s="142"/>
+      <c r="O7" s="142"/>
+      <c r="P7" s="142"/>
+      <c r="Q7" s="142"/>
+      <c r="R7" s="142"/>
+      <c r="S7" s="142"/>
+      <c r="T7" s="142"/>
+      <c r="U7" s="142"/>
+      <c r="V7" s="142"/>
+      <c r="W7" s="143"/>
     </row>
     <row r="8" spans="1:23" ht="12" customHeight="1">
-      <c r="A8" s="171"/>
-      <c r="B8" s="171"/>
+      <c r="A8" s="178"/>
+      <c r="B8" s="178"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
       <c r="E8" s="16"/>
@@ -2402,11 +2396,11 @@
       <c r="T8" s="72"/>
       <c r="U8" s="72"/>
       <c r="V8" s="72"/>
-      <c r="W8" s="132"/>
+      <c r="W8" s="131"/>
     </row>
     <row r="9" spans="1:23" ht="12" customHeight="1">
-      <c r="A9" s="172"/>
-      <c r="B9" s="172"/>
+      <c r="A9" s="179"/>
+      <c r="B9" s="179"/>
       <c r="C9" s="14"/>
       <c r="D9" s="19"/>
       <c r="E9" s="20"/>
@@ -2414,24 +2408,24 @@
       <c r="G9" s="22"/>
       <c r="H9" s="23"/>
       <c r="I9" s="69"/>
-      <c r="J9" s="145"/>
-      <c r="K9" s="146"/>
-      <c r="L9" s="147"/>
-      <c r="M9" s="147"/>
-      <c r="N9" s="147"/>
-      <c r="O9" s="147"/>
-      <c r="P9" s="147"/>
-      <c r="Q9" s="147"/>
-      <c r="R9" s="147"/>
-      <c r="S9" s="147"/>
-      <c r="T9" s="147"/>
-      <c r="U9" s="147"/>
-      <c r="V9" s="139"/>
-      <c r="W9" s="157"/>
+      <c r="J9" s="144"/>
+      <c r="K9" s="153"/>
+      <c r="L9" s="145"/>
+      <c r="M9" s="145"/>
+      <c r="N9" s="145"/>
+      <c r="O9" s="145"/>
+      <c r="P9" s="145"/>
+      <c r="Q9" s="145"/>
+      <c r="R9" s="145"/>
+      <c r="S9" s="145"/>
+      <c r="T9" s="145"/>
+      <c r="U9" s="145"/>
+      <c r="V9" s="138"/>
+      <c r="W9" s="155"/>
     </row>
     <row r="10" spans="1:23" ht="12" customHeight="1">
-      <c r="A10" s="171"/>
-      <c r="B10" s="171"/>
+      <c r="A10" s="178"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="14"/>
       <c r="D10" s="24"/>
       <c r="E10" s="16"/>
@@ -2440,7 +2434,7 @@
       <c r="H10" s="23"/>
       <c r="I10" s="69"/>
       <c r="J10" s="70"/>
-      <c r="K10" s="74"/>
+      <c r="K10" s="112"/>
       <c r="L10" s="73"/>
       <c r="M10" s="73"/>
       <c r="N10" s="73"/>
@@ -2452,11 +2446,11 @@
       <c r="T10" s="73"/>
       <c r="U10" s="73"/>
       <c r="V10" s="73"/>
-      <c r="W10" s="132"/>
+      <c r="W10" s="131"/>
     </row>
     <row r="11" spans="1:23" ht="12" customHeight="1">
-      <c r="A11" s="171"/>
-      <c r="B11" s="171"/>
+      <c r="A11" s="178"/>
+      <c r="B11" s="178"/>
       <c r="C11" s="14"/>
       <c r="D11" s="15"/>
       <c r="E11" s="25"/>
@@ -2464,20 +2458,20 @@
       <c r="G11" s="27"/>
       <c r="H11" s="28"/>
       <c r="I11" s="69"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="77"/>
-      <c r="N11" s="77"/>
-      <c r="O11" s="77"/>
-      <c r="P11" s="77"/>
-      <c r="Q11" s="77"/>
-      <c r="R11" s="77"/>
-      <c r="S11" s="77"/>
-      <c r="T11" s="77"/>
-      <c r="U11" s="77"/>
-      <c r="V11" s="77"/>
-      <c r="W11" s="133"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="76"/>
+      <c r="P11" s="76"/>
+      <c r="Q11" s="76"/>
+      <c r="R11" s="76"/>
+      <c r="S11" s="76"/>
+      <c r="T11" s="76"/>
+      <c r="U11" s="76"/>
+      <c r="V11" s="76"/>
+      <c r="W11" s="132"/>
     </row>
     <row r="12" spans="1:23" ht="12" customHeight="1">
       <c r="A12" s="18"/>
@@ -2489,8 +2483,8 @@
       <c r="G12" s="27"/>
       <c r="H12" s="28"/>
       <c r="I12" s="69"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="79"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="78"/>
       <c r="L12" s="60"/>
       <c r="M12" s="60"/>
       <c r="N12" s="60"/>
@@ -2502,20 +2496,20 @@
       <c r="T12" s="60"/>
       <c r="U12" s="60"/>
       <c r="V12" s="60"/>
-      <c r="W12" s="128"/>
+      <c r="W12" s="127"/>
     </row>
     <row r="13" spans="1:23" ht="12" customHeight="1">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
-      <c r="C13" s="169"/>
-      <c r="D13" s="170"/>
+      <c r="C13" s="168"/>
+      <c r="D13" s="169"/>
       <c r="E13" s="30"/>
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
       <c r="H13" s="31"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="82"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="81"/>
       <c r="L13" s="55"/>
       <c r="M13" s="55"/>
       <c r="N13" s="55"/>
@@ -2525,9 +2519,9 @@
       <c r="R13" s="55"/>
       <c r="S13" s="55"/>
       <c r="T13" s="55"/>
-      <c r="U13" s="140"/>
+      <c r="U13" s="139"/>
       <c r="V13" s="55"/>
-      <c r="W13" s="135"/>
+      <c r="W13" s="134"/>
     </row>
     <row r="14" spans="1:23" ht="12" customHeight="1">
       <c r="A14" s="32"/>
@@ -2538,71 +2532,71 @@
       <c r="F14" s="36"/>
       <c r="G14" s="36"/>
       <c r="H14" s="36"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="86"/>
-      <c r="M14" s="86"/>
-      <c r="N14" s="86"/>
-      <c r="O14" s="86"/>
-      <c r="P14" s="86"/>
-      <c r="Q14" s="86"/>
-      <c r="R14" s="86"/>
-      <c r="S14" s="86"/>
-      <c r="T14" s="86"/>
-      <c r="U14" s="86"/>
-      <c r="V14" s="86"/>
-      <c r="W14" s="132"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="85"/>
+      <c r="O14" s="85"/>
+      <c r="P14" s="85"/>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="85"/>
+      <c r="S14" s="85"/>
+      <c r="T14" s="85"/>
+      <c r="U14" s="85"/>
+      <c r="V14" s="85"/>
+      <c r="W14" s="131"/>
     </row>
     <row r="15" spans="1:23" ht="12" customHeight="1">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
-      <c r="C15" s="169"/>
-      <c r="D15" s="170"/>
+      <c r="C15" s="168"/>
+      <c r="D15" s="169"/>
       <c r="E15" s="35"/>
       <c r="F15" s="36"/>
       <c r="G15" s="36"/>
       <c r="H15" s="36"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="148"/>
-      <c r="K15" s="149"/>
-      <c r="L15" s="150"/>
-      <c r="M15" s="150"/>
-      <c r="N15" s="150"/>
-      <c r="O15" s="150"/>
-      <c r="P15" s="150"/>
-      <c r="Q15" s="150"/>
-      <c r="R15" s="150"/>
-      <c r="S15" s="150"/>
-      <c r="T15" s="150"/>
-      <c r="U15" s="150"/>
-      <c r="V15" s="151"/>
-      <c r="W15" s="153"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="146"/>
+      <c r="K15" s="147"/>
+      <c r="L15" s="148"/>
+      <c r="M15" s="148"/>
+      <c r="N15" s="148"/>
+      <c r="O15" s="148"/>
+      <c r="P15" s="148"/>
+      <c r="Q15" s="148"/>
+      <c r="R15" s="148"/>
+      <c r="S15" s="148"/>
+      <c r="T15" s="148"/>
+      <c r="U15" s="148"/>
+      <c r="V15" s="149"/>
+      <c r="W15" s="151"/>
     </row>
     <row r="16" spans="1:23" ht="12" customHeight="1">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
-      <c r="C16" s="169"/>
-      <c r="D16" s="170"/>
+      <c r="C16" s="168"/>
+      <c r="D16" s="169"/>
       <c r="E16" s="30"/>
       <c r="F16" s="31"/>
       <c r="G16" s="31"/>
       <c r="H16" s="31"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="118"/>
-      <c r="K16" s="119"/>
-      <c r="L16" s="120"/>
-      <c r="M16" s="120"/>
-      <c r="N16" s="120"/>
-      <c r="O16" s="120"/>
-      <c r="P16" s="120"/>
-      <c r="Q16" s="120"/>
-      <c r="R16" s="120"/>
-      <c r="S16" s="120"/>
-      <c r="T16" s="120"/>
-      <c r="U16" s="120"/>
-      <c r="V16" s="120"/>
-      <c r="W16" s="136"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="119"/>
+      <c r="M16" s="119"/>
+      <c r="N16" s="119"/>
+      <c r="O16" s="119"/>
+      <c r="P16" s="119"/>
+      <c r="Q16" s="119"/>
+      <c r="R16" s="119"/>
+      <c r="S16" s="119"/>
+      <c r="T16" s="119"/>
+      <c r="U16" s="119"/>
+      <c r="V16" s="119"/>
+      <c r="W16" s="135"/>
     </row>
     <row r="17" spans="1:23" ht="12" customHeight="1">
       <c r="A17" s="32"/>
@@ -2613,46 +2607,46 @@
       <c r="F17" s="36"/>
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="152"/>
-      <c r="K17" s="139"/>
-      <c r="L17" s="147"/>
-      <c r="M17" s="147"/>
-      <c r="N17" s="147"/>
-      <c r="O17" s="147"/>
-      <c r="P17" s="147"/>
-      <c r="Q17" s="147"/>
-      <c r="R17" s="147"/>
-      <c r="S17" s="147"/>
-      <c r="T17" s="147"/>
-      <c r="U17" s="147"/>
-      <c r="V17" s="147"/>
-      <c r="W17" s="153"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="150"/>
+      <c r="K17" s="138"/>
+      <c r="L17" s="145"/>
+      <c r="M17" s="145"/>
+      <c r="N17" s="145"/>
+      <c r="O17" s="145"/>
+      <c r="P17" s="145"/>
+      <c r="Q17" s="145"/>
+      <c r="R17" s="145"/>
+      <c r="S17" s="145"/>
+      <c r="T17" s="145"/>
+      <c r="U17" s="145"/>
+      <c r="V17" s="145"/>
+      <c r="W17" s="151"/>
     </row>
     <row r="18" spans="1:23" ht="12" customHeight="1">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
-      <c r="C18" s="169"/>
-      <c r="D18" s="170"/>
+      <c r="C18" s="168"/>
+      <c r="D18" s="169"/>
       <c r="E18" s="37"/>
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="43"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="118"/>
-      <c r="K18" s="119"/>
-      <c r="L18" s="120"/>
-      <c r="M18" s="120"/>
-      <c r="N18" s="120"/>
-      <c r="O18" s="120"/>
-      <c r="P18" s="120"/>
-      <c r="Q18" s="120"/>
-      <c r="R18" s="120"/>
-      <c r="S18" s="120"/>
-      <c r="T18" s="120"/>
-      <c r="U18" s="120"/>
-      <c r="V18" s="120"/>
-      <c r="W18" s="136"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="117"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="119"/>
+      <c r="M18" s="119"/>
+      <c r="N18" s="119"/>
+      <c r="O18" s="119"/>
+      <c r="P18" s="119"/>
+      <c r="Q18" s="119"/>
+      <c r="R18" s="119"/>
+      <c r="S18" s="119"/>
+      <c r="T18" s="119"/>
+      <c r="U18" s="119"/>
+      <c r="V18" s="119"/>
+      <c r="W18" s="135"/>
     </row>
     <row r="19" spans="1:23" ht="12" customHeight="1">
       <c r="A19" s="18"/>
@@ -2663,21 +2657,21 @@
       <c r="F19" s="39"/>
       <c r="G19" s="40"/>
       <c r="H19" s="40"/>
-      <c r="I19" s="91"/>
-      <c r="J19" s="154"/>
-      <c r="K19" s="155"/>
-      <c r="L19" s="156"/>
-      <c r="M19" s="156"/>
-      <c r="N19" s="156"/>
-      <c r="O19" s="156"/>
-      <c r="P19" s="156"/>
-      <c r="Q19" s="156"/>
-      <c r="R19" s="156"/>
-      <c r="S19" s="156"/>
-      <c r="T19" s="156"/>
-      <c r="U19" s="156"/>
-      <c r="V19" s="156"/>
-      <c r="W19" s="157"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="152"/>
+      <c r="K19" s="153"/>
+      <c r="L19" s="154"/>
+      <c r="M19" s="154"/>
+      <c r="N19" s="154"/>
+      <c r="O19" s="154"/>
+      <c r="P19" s="154"/>
+      <c r="Q19" s="154"/>
+      <c r="R19" s="154"/>
+      <c r="S19" s="154"/>
+      <c r="T19" s="154"/>
+      <c r="U19" s="154"/>
+      <c r="V19" s="154"/>
+      <c r="W19" s="155"/>
     </row>
     <row r="20" spans="1:23" ht="12" customHeight="1">
       <c r="A20" s="18"/>
@@ -2688,21 +2682,21 @@
       <c r="F20" s="41"/>
       <c r="G20" s="42"/>
       <c r="H20" s="42"/>
-      <c r="I20" s="92"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="113"/>
-      <c r="L20" s="114"/>
-      <c r="M20" s="114"/>
-      <c r="N20" s="114"/>
-      <c r="O20" s="114"/>
-      <c r="P20" s="114"/>
-      <c r="Q20" s="114"/>
-      <c r="R20" s="114"/>
-      <c r="S20" s="114"/>
-      <c r="T20" s="114"/>
-      <c r="U20" s="114"/>
-      <c r="V20" s="114"/>
-      <c r="W20" s="132"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="112"/>
+      <c r="L20" s="113"/>
+      <c r="M20" s="113"/>
+      <c r="N20" s="113"/>
+      <c r="O20" s="113"/>
+      <c r="P20" s="113"/>
+      <c r="Q20" s="113"/>
+      <c r="R20" s="113"/>
+      <c r="S20" s="113"/>
+      <c r="T20" s="113"/>
+      <c r="U20" s="113"/>
+      <c r="V20" s="113"/>
+      <c r="W20" s="131"/>
     </row>
     <row r="21" spans="1:23" ht="12" customHeight="1">
       <c r="A21" s="18"/>
@@ -2713,46 +2707,46 @@
       <c r="F21" s="47"/>
       <c r="G21" s="48"/>
       <c r="H21" s="48"/>
-      <c r="I21" s="97"/>
-      <c r="J21" s="152"/>
-      <c r="K21" s="139"/>
-      <c r="L21" s="147"/>
-      <c r="M21" s="147"/>
-      <c r="N21" s="147"/>
-      <c r="O21" s="147"/>
-      <c r="P21" s="147"/>
-      <c r="Q21" s="147"/>
-      <c r="R21" s="147"/>
-      <c r="S21" s="147"/>
-      <c r="T21" s="147"/>
-      <c r="U21" s="147"/>
-      <c r="V21" s="147"/>
-      <c r="W21" s="153"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="150"/>
+      <c r="K21" s="138"/>
+      <c r="L21" s="145"/>
+      <c r="M21" s="145"/>
+      <c r="N21" s="145"/>
+      <c r="O21" s="145"/>
+      <c r="P21" s="145"/>
+      <c r="Q21" s="145"/>
+      <c r="R21" s="145"/>
+      <c r="S21" s="145"/>
+      <c r="T21" s="145"/>
+      <c r="U21" s="145"/>
+      <c r="V21" s="145"/>
+      <c r="W21" s="151"/>
     </row>
     <row r="22" spans="1:23" ht="12" customHeight="1">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
-      <c r="C22" s="169"/>
-      <c r="D22" s="170"/>
+      <c r="C22" s="168"/>
+      <c r="D22" s="169"/>
       <c r="E22" s="37"/>
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="43"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="118"/>
-      <c r="K22" s="119"/>
-      <c r="L22" s="120"/>
-      <c r="M22" s="120"/>
-      <c r="N22" s="120"/>
-      <c r="O22" s="120"/>
-      <c r="P22" s="120"/>
-      <c r="Q22" s="120"/>
-      <c r="R22" s="120"/>
-      <c r="S22" s="120"/>
-      <c r="T22" s="120"/>
-      <c r="U22" s="120"/>
-      <c r="V22" s="120"/>
-      <c r="W22" s="136"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="119"/>
+      <c r="M22" s="119"/>
+      <c r="N22" s="119"/>
+      <c r="O22" s="119"/>
+      <c r="P22" s="119"/>
+      <c r="Q22" s="119"/>
+      <c r="R22" s="119"/>
+      <c r="S22" s="119"/>
+      <c r="T22" s="119"/>
+      <c r="U22" s="119"/>
+      <c r="V22" s="119"/>
+      <c r="W22" s="135"/>
     </row>
     <row r="23" spans="1:23" ht="12" customHeight="1">
       <c r="A23" s="18"/>
@@ -2763,21 +2757,21 @@
       <c r="F23" s="39"/>
       <c r="G23" s="40"/>
       <c r="H23" s="40"/>
-      <c r="I23" s="91"/>
-      <c r="J23" s="154"/>
-      <c r="K23" s="155"/>
-      <c r="L23" s="156"/>
-      <c r="M23" s="156"/>
-      <c r="N23" s="156"/>
-      <c r="O23" s="156"/>
-      <c r="P23" s="156"/>
-      <c r="Q23" s="156"/>
-      <c r="R23" s="156"/>
-      <c r="S23" s="156"/>
-      <c r="T23" s="156"/>
-      <c r="U23" s="156"/>
-      <c r="V23" s="156"/>
-      <c r="W23" s="157"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="152"/>
+      <c r="K23" s="153"/>
+      <c r="L23" s="154"/>
+      <c r="M23" s="154"/>
+      <c r="N23" s="154"/>
+      <c r="O23" s="154"/>
+      <c r="P23" s="154"/>
+      <c r="Q23" s="154"/>
+      <c r="R23" s="154"/>
+      <c r="S23" s="154"/>
+      <c r="T23" s="154"/>
+      <c r="U23" s="154"/>
+      <c r="V23" s="154"/>
+      <c r="W23" s="155"/>
     </row>
     <row r="24" spans="1:23" ht="12" customHeight="1">
       <c r="A24" s="18"/>
@@ -2788,21 +2782,21 @@
       <c r="F24" s="41"/>
       <c r="G24" s="42"/>
       <c r="H24" s="42"/>
-      <c r="I24" s="92"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="113"/>
-      <c r="L24" s="114"/>
-      <c r="M24" s="114"/>
-      <c r="N24" s="114"/>
-      <c r="O24" s="114"/>
-      <c r="P24" s="114"/>
-      <c r="Q24" s="114"/>
-      <c r="R24" s="114"/>
-      <c r="S24" s="114"/>
-      <c r="T24" s="114"/>
-      <c r="U24" s="114"/>
-      <c r="V24" s="114"/>
-      <c r="W24" s="132"/>
+      <c r="I24" s="91"/>
+      <c r="J24" s="93"/>
+      <c r="K24" s="112"/>
+      <c r="L24" s="113"/>
+      <c r="M24" s="113"/>
+      <c r="N24" s="113"/>
+      <c r="O24" s="113"/>
+      <c r="P24" s="113"/>
+      <c r="Q24" s="113"/>
+      <c r="R24" s="113"/>
+      <c r="S24" s="113"/>
+      <c r="T24" s="113"/>
+      <c r="U24" s="113"/>
+      <c r="V24" s="113"/>
+      <c r="W24" s="131"/>
     </row>
     <row r="25" spans="1:23" ht="12" customHeight="1">
       <c r="A25" s="18"/>
@@ -2813,46 +2807,46 @@
       <c r="F25" s="47"/>
       <c r="G25" s="48"/>
       <c r="H25" s="48"/>
-      <c r="I25" s="97"/>
-      <c r="J25" s="152"/>
-      <c r="K25" s="139"/>
-      <c r="L25" s="147"/>
-      <c r="M25" s="147"/>
-      <c r="N25" s="147"/>
-      <c r="O25" s="147"/>
-      <c r="P25" s="147"/>
-      <c r="Q25" s="147"/>
-      <c r="R25" s="147"/>
-      <c r="S25" s="147"/>
-      <c r="T25" s="147"/>
-      <c r="U25" s="147"/>
-      <c r="V25" s="147"/>
-      <c r="W25" s="153"/>
+      <c r="I25" s="96"/>
+      <c r="J25" s="150"/>
+      <c r="K25" s="138"/>
+      <c r="L25" s="145"/>
+      <c r="M25" s="145"/>
+      <c r="N25" s="145"/>
+      <c r="O25" s="145"/>
+      <c r="P25" s="145"/>
+      <c r="Q25" s="145"/>
+      <c r="R25" s="145"/>
+      <c r="S25" s="145"/>
+      <c r="T25" s="145"/>
+      <c r="U25" s="145"/>
+      <c r="V25" s="145"/>
+      <c r="W25" s="151"/>
     </row>
     <row r="26" spans="1:23" ht="12" customHeight="1">
       <c r="A26" s="18"/>
       <c r="B26" s="18"/>
-      <c r="C26" s="169"/>
-      <c r="D26" s="170"/>
+      <c r="C26" s="168"/>
+      <c r="D26" s="169"/>
       <c r="E26" s="37"/>
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="43"/>
-      <c r="I26" s="98"/>
-      <c r="J26" s="118"/>
-      <c r="K26" s="119"/>
-      <c r="L26" s="120"/>
-      <c r="M26" s="120"/>
-      <c r="N26" s="120"/>
-      <c r="O26" s="120"/>
-      <c r="P26" s="120"/>
-      <c r="Q26" s="120"/>
-      <c r="R26" s="120"/>
-      <c r="S26" s="120"/>
-      <c r="T26" s="120"/>
-      <c r="U26" s="120"/>
-      <c r="V26" s="120"/>
-      <c r="W26" s="136"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="117"/>
+      <c r="K26" s="118"/>
+      <c r="L26" s="119"/>
+      <c r="M26" s="119"/>
+      <c r="N26" s="119"/>
+      <c r="O26" s="119"/>
+      <c r="P26" s="119"/>
+      <c r="Q26" s="119"/>
+      <c r="R26" s="119"/>
+      <c r="S26" s="119"/>
+      <c r="T26" s="119"/>
+      <c r="U26" s="119"/>
+      <c r="V26" s="119"/>
+      <c r="W26" s="135"/>
     </row>
     <row r="27" spans="1:23" ht="12" customHeight="1">
       <c r="A27" s="18"/>
@@ -2863,21 +2857,21 @@
       <c r="F27" s="41"/>
       <c r="G27" s="42"/>
       <c r="H27" s="42"/>
-      <c r="I27" s="92"/>
-      <c r="J27" s="154"/>
-      <c r="K27" s="155"/>
-      <c r="L27" s="156"/>
-      <c r="M27" s="156"/>
-      <c r="N27" s="156"/>
-      <c r="O27" s="156"/>
-      <c r="P27" s="156"/>
-      <c r="Q27" s="156"/>
-      <c r="R27" s="156"/>
-      <c r="S27" s="156"/>
-      <c r="T27" s="156"/>
-      <c r="U27" s="156"/>
-      <c r="V27" s="156"/>
-      <c r="W27" s="157"/>
+      <c r="I27" s="91"/>
+      <c r="J27" s="152"/>
+      <c r="K27" s="153"/>
+      <c r="L27" s="154"/>
+      <c r="M27" s="154"/>
+      <c r="N27" s="154"/>
+      <c r="O27" s="154"/>
+      <c r="P27" s="154"/>
+      <c r="Q27" s="154"/>
+      <c r="R27" s="154"/>
+      <c r="S27" s="154"/>
+      <c r="T27" s="154"/>
+      <c r="U27" s="154"/>
+      <c r="V27" s="154"/>
+      <c r="W27" s="155"/>
     </row>
     <row r="28" spans="1:23" ht="12" customHeight="1">
       <c r="A28" s="18"/>
@@ -2888,21 +2882,21 @@
       <c r="F28" s="41"/>
       <c r="G28" s="42"/>
       <c r="H28" s="42"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="108"/>
-      <c r="K28" s="113"/>
-      <c r="L28" s="114"/>
-      <c r="M28" s="114"/>
-      <c r="N28" s="114"/>
-      <c r="O28" s="114"/>
-      <c r="P28" s="114"/>
-      <c r="Q28" s="114"/>
-      <c r="R28" s="114"/>
-      <c r="S28" s="114"/>
-      <c r="T28" s="114"/>
-      <c r="U28" s="114"/>
-      <c r="V28" s="114"/>
-      <c r="W28" s="132"/>
+      <c r="I28" s="91"/>
+      <c r="J28" s="107"/>
+      <c r="K28" s="112"/>
+      <c r="L28" s="113"/>
+      <c r="M28" s="113"/>
+      <c r="N28" s="113"/>
+      <c r="O28" s="113"/>
+      <c r="P28" s="113"/>
+      <c r="Q28" s="113"/>
+      <c r="R28" s="113"/>
+      <c r="S28" s="113"/>
+      <c r="T28" s="113"/>
+      <c r="U28" s="113"/>
+      <c r="V28" s="113"/>
+      <c r="W28" s="131"/>
     </row>
     <row r="29" spans="1:23" ht="12" customHeight="1">
       <c r="A29" s="18"/>
@@ -2913,46 +2907,46 @@
       <c r="F29" s="47"/>
       <c r="G29" s="48"/>
       <c r="H29" s="48"/>
-      <c r="I29" s="97"/>
-      <c r="J29" s="152"/>
-      <c r="K29" s="139"/>
-      <c r="L29" s="147"/>
-      <c r="M29" s="147"/>
-      <c r="N29" s="147"/>
-      <c r="O29" s="147"/>
-      <c r="P29" s="147"/>
-      <c r="Q29" s="147"/>
-      <c r="R29" s="147"/>
-      <c r="S29" s="147"/>
-      <c r="T29" s="147"/>
-      <c r="U29" s="147"/>
-      <c r="V29" s="147"/>
-      <c r="W29" s="153"/>
+      <c r="I29" s="96"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="138"/>
+      <c r="L29" s="145"/>
+      <c r="M29" s="145"/>
+      <c r="N29" s="145"/>
+      <c r="O29" s="145"/>
+      <c r="P29" s="145"/>
+      <c r="Q29" s="145"/>
+      <c r="R29" s="145"/>
+      <c r="S29" s="145"/>
+      <c r="T29" s="145"/>
+      <c r="U29" s="145"/>
+      <c r="V29" s="145"/>
+      <c r="W29" s="151"/>
     </row>
     <row r="30" spans="1:23" ht="12" customHeight="1">
       <c r="A30" s="18"/>
       <c r="B30" s="18"/>
-      <c r="C30" s="169"/>
-      <c r="D30" s="170"/>
+      <c r="C30" s="168"/>
+      <c r="D30" s="169"/>
       <c r="E30" s="49"/>
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="43"/>
-      <c r="I30" s="99"/>
-      <c r="J30" s="118"/>
-      <c r="K30" s="119"/>
-      <c r="L30" s="120"/>
-      <c r="M30" s="120"/>
-      <c r="N30" s="120"/>
-      <c r="O30" s="120"/>
-      <c r="P30" s="120"/>
-      <c r="Q30" s="120"/>
-      <c r="R30" s="120"/>
-      <c r="S30" s="120"/>
-      <c r="T30" s="120"/>
-      <c r="U30" s="120"/>
-      <c r="V30" s="120"/>
-      <c r="W30" s="136"/>
+      <c r="I30" s="98"/>
+      <c r="J30" s="117"/>
+      <c r="K30" s="118"/>
+      <c r="L30" s="119"/>
+      <c r="M30" s="119"/>
+      <c r="N30" s="119"/>
+      <c r="O30" s="119"/>
+      <c r="P30" s="119"/>
+      <c r="Q30" s="119"/>
+      <c r="R30" s="119"/>
+      <c r="S30" s="119"/>
+      <c r="T30" s="119"/>
+      <c r="U30" s="119"/>
+      <c r="V30" s="119"/>
+      <c r="W30" s="135"/>
     </row>
     <row r="31" spans="1:23" ht="12" customHeight="1">
       <c r="A31" s="18"/>
@@ -2963,21 +2957,21 @@
       <c r="F31" s="42"/>
       <c r="G31" s="42"/>
       <c r="H31" s="42"/>
-      <c r="I31" s="100"/>
-      <c r="J31" s="154"/>
-      <c r="K31" s="155"/>
-      <c r="L31" s="156"/>
-      <c r="M31" s="156"/>
-      <c r="N31" s="156"/>
-      <c r="O31" s="156"/>
-      <c r="P31" s="156"/>
-      <c r="Q31" s="156"/>
-      <c r="R31" s="156"/>
-      <c r="S31" s="156"/>
-      <c r="T31" s="156"/>
-      <c r="U31" s="156"/>
-      <c r="V31" s="156"/>
-      <c r="W31" s="157"/>
+      <c r="I31" s="99"/>
+      <c r="J31" s="152"/>
+      <c r="K31" s="153"/>
+      <c r="L31" s="154"/>
+      <c r="M31" s="154"/>
+      <c r="N31" s="154"/>
+      <c r="O31" s="154"/>
+      <c r="P31" s="154"/>
+      <c r="Q31" s="154"/>
+      <c r="R31" s="154"/>
+      <c r="S31" s="154"/>
+      <c r="T31" s="154"/>
+      <c r="U31" s="154"/>
+      <c r="V31" s="154"/>
+      <c r="W31" s="155"/>
     </row>
     <row r="32" spans="1:23" ht="12" customHeight="1">
       <c r="A32" s="18"/>
@@ -2988,21 +2982,21 @@
       <c r="F32" s="42"/>
       <c r="G32" s="42"/>
       <c r="H32" s="42"/>
-      <c r="I32" s="100"/>
-      <c r="J32" s="94"/>
-      <c r="K32" s="113"/>
-      <c r="L32" s="114"/>
-      <c r="M32" s="114"/>
-      <c r="N32" s="114"/>
-      <c r="O32" s="114"/>
-      <c r="P32" s="114"/>
-      <c r="Q32" s="114"/>
-      <c r="R32" s="114"/>
-      <c r="S32" s="114"/>
-      <c r="T32" s="114"/>
-      <c r="U32" s="114"/>
-      <c r="V32" s="114"/>
-      <c r="W32" s="132"/>
+      <c r="I32" s="99"/>
+      <c r="J32" s="93"/>
+      <c r="K32" s="112"/>
+      <c r="L32" s="113"/>
+      <c r="M32" s="113"/>
+      <c r="N32" s="113"/>
+      <c r="O32" s="113"/>
+      <c r="P32" s="113"/>
+      <c r="Q32" s="113"/>
+      <c r="R32" s="113"/>
+      <c r="S32" s="113"/>
+      <c r="T32" s="113"/>
+      <c r="U32" s="113"/>
+      <c r="V32" s="113"/>
+      <c r="W32" s="131"/>
     </row>
     <row r="33" spans="1:23" ht="12" customHeight="1">
       <c r="A33" s="18"/>
@@ -3013,46 +3007,46 @@
       <c r="F33" s="48"/>
       <c r="G33" s="48"/>
       <c r="H33" s="48"/>
-      <c r="I33" s="101"/>
-      <c r="J33" s="148"/>
-      <c r="K33" s="139"/>
-      <c r="L33" s="147"/>
-      <c r="M33" s="147"/>
-      <c r="N33" s="147"/>
-      <c r="O33" s="147"/>
-      <c r="P33" s="147"/>
-      <c r="Q33" s="147"/>
-      <c r="R33" s="147"/>
-      <c r="S33" s="147"/>
-      <c r="T33" s="147"/>
-      <c r="U33" s="147"/>
-      <c r="V33" s="147"/>
-      <c r="W33" s="153"/>
+      <c r="I33" s="100"/>
+      <c r="J33" s="146"/>
+      <c r="K33" s="138"/>
+      <c r="L33" s="145"/>
+      <c r="M33" s="145"/>
+      <c r="N33" s="145"/>
+      <c r="O33" s="145"/>
+      <c r="P33" s="145"/>
+      <c r="Q33" s="145"/>
+      <c r="R33" s="145"/>
+      <c r="S33" s="145"/>
+      <c r="T33" s="145"/>
+      <c r="U33" s="145"/>
+      <c r="V33" s="145"/>
+      <c r="W33" s="151"/>
     </row>
     <row r="34" spans="1:23" ht="12" customHeight="1">
       <c r="A34" s="18"/>
       <c r="B34" s="18"/>
-      <c r="C34" s="169"/>
-      <c r="D34" s="170"/>
+      <c r="C34" s="168"/>
+      <c r="D34" s="169"/>
       <c r="E34" s="52"/>
       <c r="F34" s="53"/>
       <c r="G34" s="43"/>
       <c r="H34" s="53"/>
-      <c r="I34" s="99"/>
-      <c r="J34" s="108"/>
-      <c r="K34" s="102"/>
-      <c r="L34" s="103"/>
-      <c r="M34" s="103"/>
-      <c r="N34" s="103"/>
-      <c r="O34" s="103"/>
-      <c r="P34" s="103"/>
-      <c r="Q34" s="103"/>
-      <c r="R34" s="103"/>
-      <c r="S34" s="103"/>
-      <c r="T34" s="103"/>
-      <c r="U34" s="103"/>
-      <c r="V34" s="117"/>
-      <c r="W34" s="137"/>
+      <c r="I34" s="98"/>
+      <c r="J34" s="107"/>
+      <c r="K34" s="101"/>
+      <c r="L34" s="102"/>
+      <c r="M34" s="102"/>
+      <c r="N34" s="102"/>
+      <c r="O34" s="102"/>
+      <c r="P34" s="102"/>
+      <c r="Q34" s="102"/>
+      <c r="R34" s="102"/>
+      <c r="S34" s="102"/>
+      <c r="T34" s="102"/>
+      <c r="U34" s="102"/>
+      <c r="V34" s="116"/>
+      <c r="W34" s="136"/>
     </row>
     <row r="35" spans="1:23" ht="12" customHeight="1">
       <c r="A35" s="18"/>
@@ -3063,21 +3057,21 @@
       <c r="F35" s="42"/>
       <c r="G35" s="42"/>
       <c r="H35" s="42"/>
-      <c r="I35" s="100"/>
-      <c r="J35" s="95"/>
-      <c r="K35" s="104"/>
-      <c r="L35" s="105"/>
-      <c r="M35" s="105"/>
-      <c r="N35" s="105"/>
-      <c r="O35" s="105"/>
-      <c r="P35" s="105"/>
-      <c r="Q35" s="105"/>
-      <c r="R35" s="105"/>
-      <c r="S35" s="105"/>
-      <c r="T35" s="105"/>
-      <c r="U35" s="105"/>
-      <c r="V35" s="96"/>
-      <c r="W35" s="134"/>
+      <c r="I35" s="99"/>
+      <c r="J35" s="94"/>
+      <c r="K35" s="103"/>
+      <c r="L35" s="104"/>
+      <c r="M35" s="104"/>
+      <c r="N35" s="104"/>
+      <c r="O35" s="104"/>
+      <c r="P35" s="104"/>
+      <c r="Q35" s="104"/>
+      <c r="R35" s="104"/>
+      <c r="S35" s="104"/>
+      <c r="T35" s="104"/>
+      <c r="U35" s="104"/>
+      <c r="V35" s="95"/>
+      <c r="W35" s="133"/>
     </row>
     <row r="36" spans="1:23" ht="12" customHeight="1">
       <c r="A36" s="18"/>
@@ -3088,21 +3082,21 @@
       <c r="F36" s="42"/>
       <c r="G36" s="42"/>
       <c r="H36" s="42"/>
-      <c r="I36" s="100"/>
-      <c r="J36" s="108"/>
-      <c r="K36" s="113"/>
-      <c r="L36" s="114"/>
-      <c r="M36" s="114"/>
-      <c r="N36" s="114"/>
-      <c r="O36" s="114"/>
-      <c r="P36" s="114"/>
-      <c r="Q36" s="114"/>
-      <c r="R36" s="114"/>
-      <c r="S36" s="114"/>
-      <c r="T36" s="114"/>
-      <c r="U36" s="114"/>
-      <c r="V36" s="114"/>
-      <c r="W36" s="132"/>
+      <c r="I36" s="99"/>
+      <c r="J36" s="107"/>
+      <c r="K36" s="112"/>
+      <c r="L36" s="113"/>
+      <c r="M36" s="113"/>
+      <c r="N36" s="113"/>
+      <c r="O36" s="113"/>
+      <c r="P36" s="113"/>
+      <c r="Q36" s="113"/>
+      <c r="R36" s="113"/>
+      <c r="S36" s="113"/>
+      <c r="T36" s="113"/>
+      <c r="U36" s="113"/>
+      <c r="V36" s="113"/>
+      <c r="W36" s="131"/>
     </row>
     <row r="37" spans="1:23" ht="12" customHeight="1">
       <c r="A37" s="18"/>
@@ -3113,46 +3107,46 @@
       <c r="F37" s="48"/>
       <c r="G37" s="48"/>
       <c r="H37" s="48"/>
-      <c r="I37" s="101"/>
-      <c r="J37" s="95"/>
-      <c r="K37" s="106"/>
-      <c r="L37" s="107"/>
-      <c r="M37" s="107"/>
-      <c r="N37" s="107"/>
-      <c r="O37" s="107"/>
-      <c r="P37" s="107"/>
-      <c r="Q37" s="107"/>
-      <c r="R37" s="107"/>
-      <c r="S37" s="107"/>
-      <c r="T37" s="107"/>
-      <c r="U37" s="107"/>
-      <c r="V37" s="96"/>
-      <c r="W37" s="138"/>
+      <c r="I37" s="100"/>
+      <c r="J37" s="94"/>
+      <c r="K37" s="105"/>
+      <c r="L37" s="106"/>
+      <c r="M37" s="106"/>
+      <c r="N37" s="106"/>
+      <c r="O37" s="106"/>
+      <c r="P37" s="106"/>
+      <c r="Q37" s="106"/>
+      <c r="R37" s="106"/>
+      <c r="S37" s="106"/>
+      <c r="T37" s="106"/>
+      <c r="U37" s="106"/>
+      <c r="V37" s="95"/>
+      <c r="W37" s="137"/>
     </row>
     <row r="38" spans="1:23" ht="12" customHeight="1">
       <c r="A38" s="18"/>
       <c r="B38" s="18"/>
-      <c r="C38" s="169"/>
-      <c r="D38" s="170"/>
+      <c r="C38" s="168"/>
+      <c r="D38" s="169"/>
       <c r="E38" s="54"/>
       <c r="F38" s="55"/>
       <c r="G38" s="55"/>
       <c r="H38" s="55"/>
-      <c r="I38" s="99"/>
-      <c r="J38" s="118"/>
-      <c r="K38" s="119"/>
-      <c r="L38" s="120"/>
-      <c r="M38" s="120"/>
-      <c r="N38" s="120"/>
-      <c r="O38" s="120"/>
-      <c r="P38" s="120"/>
-      <c r="Q38" s="120"/>
-      <c r="R38" s="120"/>
-      <c r="S38" s="120"/>
-      <c r="T38" s="120"/>
-      <c r="U38" s="120"/>
-      <c r="V38" s="120"/>
-      <c r="W38" s="136"/>
+      <c r="I38" s="98"/>
+      <c r="J38" s="117"/>
+      <c r="K38" s="118"/>
+      <c r="L38" s="119"/>
+      <c r="M38" s="119"/>
+      <c r="N38" s="119"/>
+      <c r="O38" s="119"/>
+      <c r="P38" s="119"/>
+      <c r="Q38" s="119"/>
+      <c r="R38" s="119"/>
+      <c r="S38" s="119"/>
+      <c r="T38" s="119"/>
+      <c r="U38" s="119"/>
+      <c r="V38" s="119"/>
+      <c r="W38" s="135"/>
     </row>
     <row r="39" spans="1:23" ht="12" customHeight="1">
       <c r="A39" s="18"/>
@@ -3163,21 +3157,21 @@
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
-      <c r="I39" s="100"/>
-      <c r="J39" s="154"/>
-      <c r="K39" s="155"/>
-      <c r="L39" s="156"/>
-      <c r="M39" s="156"/>
-      <c r="N39" s="156"/>
-      <c r="O39" s="156"/>
-      <c r="P39" s="156"/>
-      <c r="Q39" s="156"/>
-      <c r="R39" s="156"/>
-      <c r="S39" s="156"/>
-      <c r="T39" s="156"/>
-      <c r="U39" s="156"/>
-      <c r="V39" s="156"/>
-      <c r="W39" s="157"/>
+      <c r="I39" s="99"/>
+      <c r="J39" s="152"/>
+      <c r="K39" s="153"/>
+      <c r="L39" s="154"/>
+      <c r="M39" s="154"/>
+      <c r="N39" s="154"/>
+      <c r="O39" s="154"/>
+      <c r="P39" s="154"/>
+      <c r="Q39" s="154"/>
+      <c r="R39" s="154"/>
+      <c r="S39" s="154"/>
+      <c r="T39" s="154"/>
+      <c r="U39" s="154"/>
+      <c r="V39" s="154"/>
+      <c r="W39" s="155"/>
     </row>
     <row r="40" spans="1:23" ht="12" customHeight="1">
       <c r="A40" s="18"/>
@@ -3188,21 +3182,21 @@
       <c r="F40" s="42"/>
       <c r="G40" s="42"/>
       <c r="H40" s="57"/>
-      <c r="I40" s="100"/>
-      <c r="J40" s="108"/>
-      <c r="K40" s="113"/>
-      <c r="L40" s="114"/>
-      <c r="M40" s="114"/>
-      <c r="N40" s="114"/>
-      <c r="O40" s="114"/>
-      <c r="P40" s="114"/>
-      <c r="Q40" s="114"/>
-      <c r="R40" s="114"/>
-      <c r="S40" s="114"/>
-      <c r="T40" s="114"/>
-      <c r="U40" s="114"/>
-      <c r="V40" s="114"/>
-      <c r="W40" s="132"/>
+      <c r="I40" s="99"/>
+      <c r="J40" s="107"/>
+      <c r="K40" s="112"/>
+      <c r="L40" s="113"/>
+      <c r="M40" s="113"/>
+      <c r="N40" s="113"/>
+      <c r="O40" s="113"/>
+      <c r="P40" s="113"/>
+      <c r="Q40" s="113"/>
+      <c r="R40" s="113"/>
+      <c r="S40" s="113"/>
+      <c r="T40" s="113"/>
+      <c r="U40" s="113"/>
+      <c r="V40" s="113"/>
+      <c r="W40" s="131"/>
     </row>
     <row r="41" spans="1:23" ht="12" customHeight="1">
       <c r="A41" s="18"/>
@@ -3213,46 +3207,46 @@
       <c r="F41" s="48"/>
       <c r="G41" s="48"/>
       <c r="H41" s="58"/>
-      <c r="I41" s="101"/>
-      <c r="J41" s="152"/>
-      <c r="K41" s="139"/>
-      <c r="L41" s="147"/>
-      <c r="M41" s="147"/>
-      <c r="N41" s="147"/>
-      <c r="O41" s="147"/>
-      <c r="P41" s="147"/>
-      <c r="Q41" s="147"/>
-      <c r="R41" s="147"/>
-      <c r="S41" s="147"/>
-      <c r="T41" s="147"/>
-      <c r="U41" s="147"/>
-      <c r="V41" s="147"/>
-      <c r="W41" s="153"/>
+      <c r="I41" s="100"/>
+      <c r="J41" s="150"/>
+      <c r="K41" s="138"/>
+      <c r="L41" s="145"/>
+      <c r="M41" s="145"/>
+      <c r="N41" s="145"/>
+      <c r="O41" s="145"/>
+      <c r="P41" s="145"/>
+      <c r="Q41" s="145"/>
+      <c r="R41" s="145"/>
+      <c r="S41" s="145"/>
+      <c r="T41" s="145"/>
+      <c r="U41" s="145"/>
+      <c r="V41" s="145"/>
+      <c r="W41" s="151"/>
     </row>
     <row r="42" spans="1:23" ht="12" customHeight="1">
       <c r="A42" s="18"/>
       <c r="B42" s="18"/>
-      <c r="C42" s="169"/>
-      <c r="D42" s="170"/>
+      <c r="C42" s="168"/>
+      <c r="D42" s="169"/>
       <c r="E42" s="54"/>
       <c r="F42" s="55"/>
       <c r="G42" s="55"/>
       <c r="H42" s="55"/>
-      <c r="I42" s="99"/>
-      <c r="J42" s="118"/>
-      <c r="K42" s="119"/>
-      <c r="L42" s="120"/>
-      <c r="M42" s="120"/>
-      <c r="N42" s="120"/>
-      <c r="O42" s="120"/>
-      <c r="P42" s="120"/>
-      <c r="Q42" s="120"/>
-      <c r="R42" s="120"/>
-      <c r="S42" s="120"/>
-      <c r="T42" s="120"/>
-      <c r="U42" s="120"/>
-      <c r="V42" s="120"/>
-      <c r="W42" s="136"/>
+      <c r="I42" s="98"/>
+      <c r="J42" s="117"/>
+      <c r="K42" s="118"/>
+      <c r="L42" s="119"/>
+      <c r="M42" s="119"/>
+      <c r="N42" s="119"/>
+      <c r="O42" s="119"/>
+      <c r="P42" s="119"/>
+      <c r="Q42" s="119"/>
+      <c r="R42" s="119"/>
+      <c r="S42" s="119"/>
+      <c r="T42" s="119"/>
+      <c r="U42" s="119"/>
+      <c r="V42" s="119"/>
+      <c r="W42" s="135"/>
     </row>
     <row r="43" spans="1:23" ht="12" customHeight="1">
       <c r="A43" s="18"/>
@@ -3263,21 +3257,21 @@
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
       <c r="H43" s="17"/>
-      <c r="I43" s="100"/>
-      <c r="J43" s="154"/>
-      <c r="K43" s="155"/>
-      <c r="L43" s="156"/>
-      <c r="M43" s="156"/>
-      <c r="N43" s="156"/>
-      <c r="O43" s="156"/>
-      <c r="P43" s="156"/>
-      <c r="Q43" s="156"/>
-      <c r="R43" s="156"/>
-      <c r="S43" s="156"/>
-      <c r="T43" s="156"/>
-      <c r="U43" s="156"/>
-      <c r="V43" s="156"/>
-      <c r="W43" s="157"/>
+      <c r="I43" s="99"/>
+      <c r="J43" s="152"/>
+      <c r="K43" s="153"/>
+      <c r="L43" s="154"/>
+      <c r="M43" s="154"/>
+      <c r="N43" s="154"/>
+      <c r="O43" s="154"/>
+      <c r="P43" s="154"/>
+      <c r="Q43" s="154"/>
+      <c r="R43" s="154"/>
+      <c r="S43" s="154"/>
+      <c r="T43" s="154"/>
+      <c r="U43" s="154"/>
+      <c r="V43" s="154"/>
+      <c r="W43" s="155"/>
     </row>
     <row r="44" spans="1:23" ht="12" customHeight="1">
       <c r="A44" s="18"/>
@@ -3288,21 +3282,21 @@
       <c r="F44" s="42"/>
       <c r="G44" s="42"/>
       <c r="H44" s="57"/>
-      <c r="I44" s="100"/>
-      <c r="J44" s="108"/>
-      <c r="K44" s="113"/>
-      <c r="L44" s="114"/>
-      <c r="M44" s="114"/>
-      <c r="N44" s="114"/>
-      <c r="O44" s="114"/>
-      <c r="P44" s="114"/>
-      <c r="Q44" s="114"/>
-      <c r="R44" s="114"/>
-      <c r="S44" s="114"/>
-      <c r="T44" s="114"/>
-      <c r="U44" s="114"/>
-      <c r="V44" s="114"/>
-      <c r="W44" s="132"/>
+      <c r="I44" s="99"/>
+      <c r="J44" s="107"/>
+      <c r="K44" s="112"/>
+      <c r="L44" s="113"/>
+      <c r="M44" s="113"/>
+      <c r="N44" s="113"/>
+      <c r="O44" s="113"/>
+      <c r="P44" s="113"/>
+      <c r="Q44" s="113"/>
+      <c r="R44" s="113"/>
+      <c r="S44" s="113"/>
+      <c r="T44" s="113"/>
+      <c r="U44" s="113"/>
+      <c r="V44" s="113"/>
+      <c r="W44" s="131"/>
     </row>
     <row r="45" spans="1:23" ht="12" customHeight="1">
       <c r="A45" s="18"/>
@@ -3313,46 +3307,46 @@
       <c r="F45" s="48"/>
       <c r="G45" s="48"/>
       <c r="H45" s="48"/>
-      <c r="I45" s="101"/>
-      <c r="J45" s="152"/>
-      <c r="K45" s="139"/>
-      <c r="L45" s="147"/>
-      <c r="M45" s="147"/>
-      <c r="N45" s="147"/>
-      <c r="O45" s="147"/>
-      <c r="P45" s="147"/>
-      <c r="Q45" s="147"/>
-      <c r="R45" s="147"/>
-      <c r="S45" s="147"/>
-      <c r="T45" s="147"/>
-      <c r="U45" s="147"/>
-      <c r="V45" s="147"/>
-      <c r="W45" s="153"/>
+      <c r="I45" s="100"/>
+      <c r="J45" s="150"/>
+      <c r="K45" s="138"/>
+      <c r="L45" s="145"/>
+      <c r="M45" s="145"/>
+      <c r="N45" s="145"/>
+      <c r="O45" s="145"/>
+      <c r="P45" s="145"/>
+      <c r="Q45" s="145"/>
+      <c r="R45" s="145"/>
+      <c r="S45" s="145"/>
+      <c r="T45" s="145"/>
+      <c r="U45" s="145"/>
+      <c r="V45" s="145"/>
+      <c r="W45" s="151"/>
     </row>
     <row r="46" spans="1:23" ht="12" customHeight="1">
       <c r="A46" s="18"/>
       <c r="B46" s="18"/>
-      <c r="C46" s="169"/>
-      <c r="D46" s="170"/>
+      <c r="C46" s="168"/>
+      <c r="D46" s="169"/>
       <c r="E46" s="37"/>
       <c r="F46" s="59"/>
       <c r="G46" s="55"/>
       <c r="H46" s="55"/>
-      <c r="I46" s="111"/>
-      <c r="J46" s="118"/>
-      <c r="K46" s="119"/>
-      <c r="L46" s="120"/>
-      <c r="M46" s="120"/>
-      <c r="N46" s="120"/>
-      <c r="O46" s="120"/>
-      <c r="P46" s="120"/>
-      <c r="Q46" s="120"/>
-      <c r="R46" s="120"/>
-      <c r="S46" s="120"/>
-      <c r="T46" s="120"/>
-      <c r="U46" s="120"/>
-      <c r="V46" s="120"/>
-      <c r="W46" s="136"/>
+      <c r="I46" s="110"/>
+      <c r="J46" s="117"/>
+      <c r="K46" s="118"/>
+      <c r="L46" s="119"/>
+      <c r="M46" s="119"/>
+      <c r="N46" s="119"/>
+      <c r="O46" s="119"/>
+      <c r="P46" s="119"/>
+      <c r="Q46" s="119"/>
+      <c r="R46" s="119"/>
+      <c r="S46" s="119"/>
+      <c r="T46" s="119"/>
+      <c r="U46" s="119"/>
+      <c r="V46" s="119"/>
+      <c r="W46" s="135"/>
     </row>
     <row r="47" spans="1:23" ht="12" customHeight="1">
       <c r="A47" s="18"/>
@@ -3363,21 +3357,21 @@
       <c r="F47" s="60"/>
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
-      <c r="I47" s="112"/>
-      <c r="J47" s="154"/>
-      <c r="K47" s="155"/>
-      <c r="L47" s="156"/>
-      <c r="M47" s="156"/>
-      <c r="N47" s="156"/>
-      <c r="O47" s="156"/>
-      <c r="P47" s="156"/>
-      <c r="Q47" s="156"/>
-      <c r="R47" s="156"/>
-      <c r="S47" s="156"/>
-      <c r="T47" s="156"/>
-      <c r="U47" s="156"/>
-      <c r="V47" s="156"/>
-      <c r="W47" s="157"/>
+      <c r="I47" s="111"/>
+      <c r="J47" s="152"/>
+      <c r="K47" s="153"/>
+      <c r="L47" s="154"/>
+      <c r="M47" s="154"/>
+      <c r="N47" s="154"/>
+      <c r="O47" s="154"/>
+      <c r="P47" s="154"/>
+      <c r="Q47" s="154"/>
+      <c r="R47" s="154"/>
+      <c r="S47" s="154"/>
+      <c r="T47" s="154"/>
+      <c r="U47" s="154"/>
+      <c r="V47" s="154"/>
+      <c r="W47" s="155"/>
     </row>
     <row r="48" spans="1:23" ht="12" customHeight="1">
       <c r="A48" s="18"/>
@@ -3388,21 +3382,21 @@
       <c r="F48" s="60"/>
       <c r="G48" s="61"/>
       <c r="H48" s="62"/>
-      <c r="I48" s="100"/>
-      <c r="J48" s="108"/>
-      <c r="K48" s="113"/>
-      <c r="L48" s="114"/>
-      <c r="M48" s="114"/>
-      <c r="N48" s="114"/>
-      <c r="O48" s="114"/>
-      <c r="P48" s="114"/>
-      <c r="Q48" s="114"/>
-      <c r="R48" s="114"/>
-      <c r="S48" s="114"/>
-      <c r="T48" s="114"/>
-      <c r="U48" s="114"/>
-      <c r="V48" s="114"/>
-      <c r="W48" s="132"/>
+      <c r="I48" s="99"/>
+      <c r="J48" s="107"/>
+      <c r="K48" s="112"/>
+      <c r="L48" s="113"/>
+      <c r="M48" s="113"/>
+      <c r="N48" s="113"/>
+      <c r="O48" s="113"/>
+      <c r="P48" s="113"/>
+      <c r="Q48" s="113"/>
+      <c r="R48" s="113"/>
+      <c r="S48" s="113"/>
+      <c r="T48" s="113"/>
+      <c r="U48" s="113"/>
+      <c r="V48" s="113"/>
+      <c r="W48" s="131"/>
     </row>
     <row r="49" spans="1:23" ht="12" customHeight="1">
       <c r="A49" s="18"/>
@@ -3413,46 +3407,46 @@
       <c r="F49" s="63"/>
       <c r="G49" s="47"/>
       <c r="H49" s="58"/>
-      <c r="I49" s="101"/>
-      <c r="J49" s="152"/>
-      <c r="K49" s="139"/>
-      <c r="L49" s="147"/>
-      <c r="M49" s="147"/>
-      <c r="N49" s="147"/>
-      <c r="O49" s="147"/>
-      <c r="P49" s="147"/>
-      <c r="Q49" s="147"/>
-      <c r="R49" s="147"/>
-      <c r="S49" s="147"/>
-      <c r="T49" s="147"/>
-      <c r="U49" s="147"/>
-      <c r="V49" s="147"/>
-      <c r="W49" s="153"/>
+      <c r="I49" s="100"/>
+      <c r="J49" s="150"/>
+      <c r="K49" s="138"/>
+      <c r="L49" s="145"/>
+      <c r="M49" s="145"/>
+      <c r="N49" s="145"/>
+      <c r="O49" s="145"/>
+      <c r="P49" s="145"/>
+      <c r="Q49" s="145"/>
+      <c r="R49" s="145"/>
+      <c r="S49" s="145"/>
+      <c r="T49" s="145"/>
+      <c r="U49" s="145"/>
+      <c r="V49" s="145"/>
+      <c r="W49" s="151"/>
     </row>
     <row r="50" spans="1:23" ht="12" customHeight="1">
       <c r="A50" s="18"/>
       <c r="B50" s="18"/>
-      <c r="C50" s="169"/>
-      <c r="D50" s="170"/>
+      <c r="C50" s="168"/>
+      <c r="D50" s="169"/>
       <c r="E50" s="37"/>
       <c r="F50" s="59"/>
       <c r="G50" s="55"/>
       <c r="H50" s="55"/>
-      <c r="I50" s="111"/>
-      <c r="J50" s="118"/>
-      <c r="K50" s="119"/>
-      <c r="L50" s="120"/>
-      <c r="M50" s="120"/>
-      <c r="N50" s="120"/>
-      <c r="O50" s="120"/>
-      <c r="P50" s="120"/>
-      <c r="Q50" s="120"/>
-      <c r="R50" s="120"/>
-      <c r="S50" s="120"/>
-      <c r="T50" s="120"/>
-      <c r="U50" s="120"/>
-      <c r="V50" s="120"/>
-      <c r="W50" s="136"/>
+      <c r="I50" s="110"/>
+      <c r="J50" s="117"/>
+      <c r="K50" s="118"/>
+      <c r="L50" s="119"/>
+      <c r="M50" s="119"/>
+      <c r="N50" s="119"/>
+      <c r="O50" s="119"/>
+      <c r="P50" s="119"/>
+      <c r="Q50" s="119"/>
+      <c r="R50" s="119"/>
+      <c r="S50" s="119"/>
+      <c r="T50" s="119"/>
+      <c r="U50" s="119"/>
+      <c r="V50" s="119"/>
+      <c r="W50" s="135"/>
     </row>
     <row r="51" spans="1:23" ht="12" customHeight="1">
       <c r="A51" s="18"/>
@@ -3463,21 +3457,21 @@
       <c r="F51" s="60"/>
       <c r="G51" s="17"/>
       <c r="H51" s="17"/>
-      <c r="I51" s="112"/>
-      <c r="J51" s="154"/>
-      <c r="K51" s="155"/>
-      <c r="L51" s="156"/>
-      <c r="M51" s="156"/>
-      <c r="N51" s="156"/>
-      <c r="O51" s="156"/>
-      <c r="P51" s="156"/>
-      <c r="Q51" s="156"/>
-      <c r="R51" s="156"/>
-      <c r="S51" s="156"/>
-      <c r="T51" s="156"/>
-      <c r="U51" s="156"/>
-      <c r="V51" s="156"/>
-      <c r="W51" s="157"/>
+      <c r="I51" s="111"/>
+      <c r="J51" s="152"/>
+      <c r="K51" s="153"/>
+      <c r="L51" s="154"/>
+      <c r="M51" s="154"/>
+      <c r="N51" s="154"/>
+      <c r="O51" s="154"/>
+      <c r="P51" s="154"/>
+      <c r="Q51" s="154"/>
+      <c r="R51" s="154"/>
+      <c r="S51" s="154"/>
+      <c r="T51" s="154"/>
+      <c r="U51" s="154"/>
+      <c r="V51" s="154"/>
+      <c r="W51" s="155"/>
     </row>
     <row r="52" spans="1:23" ht="12" customHeight="1">
       <c r="A52" s="18"/>
@@ -3488,207 +3482,207 @@
       <c r="F52" s="60"/>
       <c r="G52" s="61"/>
       <c r="H52" s="62"/>
-      <c r="I52" s="100"/>
-      <c r="J52" s="108"/>
-      <c r="K52" s="113"/>
-      <c r="L52" s="114"/>
-      <c r="M52" s="114"/>
-      <c r="N52" s="114"/>
-      <c r="O52" s="114"/>
-      <c r="P52" s="114"/>
-      <c r="Q52" s="114"/>
-      <c r="R52" s="114"/>
-      <c r="S52" s="114"/>
-      <c r="T52" s="114"/>
-      <c r="U52" s="114"/>
-      <c r="V52" s="114"/>
-      <c r="W52" s="132"/>
+      <c r="I52" s="99"/>
+      <c r="J52" s="107"/>
+      <c r="K52" s="112"/>
+      <c r="L52" s="113"/>
+      <c r="M52" s="113"/>
+      <c r="N52" s="113"/>
+      <c r="O52" s="113"/>
+      <c r="P52" s="113"/>
+      <c r="Q52" s="113"/>
+      <c r="R52" s="113"/>
+      <c r="S52" s="113"/>
+      <c r="T52" s="113"/>
+      <c r="U52" s="113"/>
+      <c r="V52" s="113"/>
+      <c r="W52" s="131"/>
     </row>
     <row r="53" spans="1:23" ht="12" customHeight="1">
-      <c r="A53" s="116"/>
-      <c r="B53" s="116"/>
+      <c r="A53" s="115"/>
+      <c r="B53" s="115"/>
       <c r="C53" s="33"/>
       <c r="D53" s="34"/>
       <c r="E53" s="46"/>
       <c r="F53" s="63"/>
       <c r="G53" s="47"/>
       <c r="H53" s="58"/>
-      <c r="I53" s="101"/>
-      <c r="J53" s="148"/>
-      <c r="K53" s="158"/>
-      <c r="L53" s="159"/>
-      <c r="M53" s="159"/>
-      <c r="N53" s="159"/>
-      <c r="O53" s="159"/>
-      <c r="P53" s="159"/>
-      <c r="Q53" s="159"/>
-      <c r="R53" s="159"/>
-      <c r="S53" s="159"/>
-      <c r="T53" s="159"/>
-      <c r="U53" s="159"/>
-      <c r="V53" s="159"/>
-      <c r="W53" s="160"/>
+      <c r="I53" s="100"/>
+      <c r="J53" s="146"/>
+      <c r="K53" s="156"/>
+      <c r="L53" s="157"/>
+      <c r="M53" s="157"/>
+      <c r="N53" s="157"/>
+      <c r="O53" s="157"/>
+      <c r="P53" s="157"/>
+      <c r="Q53" s="157"/>
+      <c r="R53" s="157"/>
+      <c r="S53" s="157"/>
+      <c r="T53" s="157"/>
+      <c r="U53" s="157"/>
+      <c r="V53" s="157"/>
+      <c r="W53" s="158"/>
     </row>
     <row r="54" spans="1:23" ht="12" customHeight="1">
-      <c r="C54" s="125"/>
-      <c r="D54" s="123"/>
-      <c r="E54" s="123"/>
-      <c r="F54" s="123"/>
-      <c r="G54" s="123"/>
-      <c r="H54" s="123"/>
-      <c r="I54" s="123"/>
-      <c r="J54" s="123"/>
-      <c r="K54" s="124"/>
-      <c r="L54" s="124"/>
-      <c r="M54" s="124"/>
-      <c r="N54" s="124"/>
-      <c r="O54" s="124"/>
-      <c r="P54" s="124"/>
-      <c r="Q54" s="124"/>
-      <c r="R54" s="124"/>
-      <c r="S54" s="124"/>
-      <c r="T54" s="124"/>
-      <c r="U54" s="124"/>
-      <c r="V54" s="124"/>
-      <c r="W54" s="129"/>
+      <c r="C54" s="124"/>
+      <c r="D54" s="122"/>
+      <c r="E54" s="122"/>
+      <c r="F54" s="122"/>
+      <c r="G54" s="122"/>
+      <c r="H54" s="122"/>
+      <c r="I54" s="122"/>
+      <c r="J54" s="122"/>
+      <c r="K54" s="123"/>
+      <c r="L54" s="123"/>
+      <c r="M54" s="123"/>
+      <c r="N54" s="123"/>
+      <c r="O54" s="123"/>
+      <c r="P54" s="123"/>
+      <c r="Q54" s="123"/>
+      <c r="R54" s="123"/>
+      <c r="S54" s="123"/>
+      <c r="T54" s="123"/>
+      <c r="U54" s="123"/>
+      <c r="V54" s="123"/>
+      <c r="W54" s="128"/>
     </row>
     <row r="55" spans="1:23" ht="12" customHeight="1">
-      <c r="C55" s="126"/>
-      <c r="D55" s="123"/>
-      <c r="E55" s="123"/>
-      <c r="F55" s="123"/>
-      <c r="G55" s="123"/>
-      <c r="H55" s="123"/>
-      <c r="I55" s="123"/>
-      <c r="J55" s="123"/>
-      <c r="K55" s="124"/>
-      <c r="L55" s="124"/>
-      <c r="M55" s="124"/>
-      <c r="N55" s="124"/>
-      <c r="O55" s="124"/>
-      <c r="P55" s="124"/>
-      <c r="Q55" s="124"/>
-      <c r="R55" s="124"/>
-      <c r="S55" s="124"/>
-      <c r="T55" s="124"/>
-      <c r="U55" s="124"/>
-      <c r="V55" s="124"/>
-      <c r="W55" s="129"/>
+      <c r="C55" s="125"/>
+      <c r="D55" s="122"/>
+      <c r="E55" s="122"/>
+      <c r="F55" s="122"/>
+      <c r="G55" s="122"/>
+      <c r="H55" s="122"/>
+      <c r="I55" s="122"/>
+      <c r="J55" s="122"/>
+      <c r="K55" s="123"/>
+      <c r="L55" s="123"/>
+      <c r="M55" s="123"/>
+      <c r="N55" s="123"/>
+      <c r="O55" s="123"/>
+      <c r="P55" s="123"/>
+      <c r="Q55" s="123"/>
+      <c r="R55" s="123"/>
+      <c r="S55" s="123"/>
+      <c r="T55" s="123"/>
+      <c r="U55" s="123"/>
+      <c r="V55" s="123"/>
+      <c r="W55" s="128"/>
     </row>
     <row r="56" spans="1:23" ht="12" customHeight="1">
-      <c r="C56" s="126"/>
-      <c r="D56" s="123"/>
-      <c r="E56" s="123"/>
-      <c r="F56" s="123"/>
-      <c r="G56" s="123"/>
-      <c r="H56" s="123"/>
-      <c r="I56" s="123"/>
-      <c r="J56" s="123"/>
-      <c r="K56" s="124"/>
-      <c r="L56" s="124"/>
-      <c r="M56" s="124"/>
-      <c r="N56" s="124"/>
-      <c r="O56" s="124"/>
-      <c r="P56" s="124"/>
-      <c r="Q56" s="124"/>
-      <c r="R56" s="124"/>
-      <c r="S56" s="124"/>
-      <c r="T56" s="124"/>
-      <c r="U56" s="124"/>
-      <c r="V56" s="124"/>
-      <c r="W56" s="129"/>
+      <c r="C56" s="125"/>
+      <c r="D56" s="122"/>
+      <c r="E56" s="122"/>
+      <c r="F56" s="122"/>
+      <c r="G56" s="122"/>
+      <c r="H56" s="122"/>
+      <c r="I56" s="122"/>
+      <c r="J56" s="122"/>
+      <c r="K56" s="123"/>
+      <c r="L56" s="123"/>
+      <c r="M56" s="123"/>
+      <c r="N56" s="123"/>
+      <c r="O56" s="123"/>
+      <c r="P56" s="123"/>
+      <c r="Q56" s="123"/>
+      <c r="R56" s="123"/>
+      <c r="S56" s="123"/>
+      <c r="T56" s="123"/>
+      <c r="U56" s="123"/>
+      <c r="V56" s="123"/>
+      <c r="W56" s="128"/>
     </row>
     <row r="57" spans="1:23" ht="12" customHeight="1">
-      <c r="C57" s="126"/>
-      <c r="D57" s="123"/>
-      <c r="E57" s="123"/>
-      <c r="F57" s="123"/>
-      <c r="G57" s="123"/>
-      <c r="H57" s="123"/>
-      <c r="I57" s="123"/>
-      <c r="J57" s="123"/>
-      <c r="K57" s="124"/>
-      <c r="L57" s="124"/>
-      <c r="M57" s="124"/>
-      <c r="N57" s="124"/>
-      <c r="O57" s="124"/>
-      <c r="P57" s="124"/>
-      <c r="Q57" s="124"/>
-      <c r="R57" s="124"/>
-      <c r="S57" s="124"/>
-      <c r="T57" s="124"/>
-      <c r="U57" s="124"/>
-      <c r="V57" s="124"/>
-      <c r="W57" s="129"/>
+      <c r="C57" s="125"/>
+      <c r="D57" s="122"/>
+      <c r="E57" s="122"/>
+      <c r="F57" s="122"/>
+      <c r="G57" s="122"/>
+      <c r="H57" s="122"/>
+      <c r="I57" s="122"/>
+      <c r="J57" s="122"/>
+      <c r="K57" s="123"/>
+      <c r="L57" s="123"/>
+      <c r="M57" s="123"/>
+      <c r="N57" s="123"/>
+      <c r="O57" s="123"/>
+      <c r="P57" s="123"/>
+      <c r="Q57" s="123"/>
+      <c r="R57" s="123"/>
+      <c r="S57" s="123"/>
+      <c r="T57" s="123"/>
+      <c r="U57" s="123"/>
+      <c r="V57" s="123"/>
+      <c r="W57" s="128"/>
     </row>
     <row r="58" spans="1:23" ht="12" customHeight="1">
-      <c r="C58" s="126"/>
-      <c r="D58" s="123"/>
-      <c r="E58" s="123"/>
-      <c r="F58" s="123"/>
-      <c r="G58" s="123"/>
-      <c r="H58" s="123"/>
-      <c r="I58" s="123"/>
-      <c r="J58" s="123"/>
-      <c r="K58" s="124"/>
-      <c r="L58" s="124"/>
-      <c r="M58" s="124"/>
-      <c r="N58" s="124"/>
-      <c r="O58" s="124"/>
-      <c r="P58" s="124"/>
-      <c r="Q58" s="124"/>
-      <c r="R58" s="124"/>
-      <c r="S58" s="124"/>
-      <c r="T58" s="124"/>
-      <c r="U58" s="124"/>
-      <c r="V58" s="124"/>
-      <c r="W58" s="129"/>
+      <c r="C58" s="125"/>
+      <c r="D58" s="122"/>
+      <c r="E58" s="122"/>
+      <c r="F58" s="122"/>
+      <c r="G58" s="122"/>
+      <c r="H58" s="122"/>
+      <c r="I58" s="122"/>
+      <c r="J58" s="122"/>
+      <c r="K58" s="123"/>
+      <c r="L58" s="123"/>
+      <c r="M58" s="123"/>
+      <c r="N58" s="123"/>
+      <c r="O58" s="123"/>
+      <c r="P58" s="123"/>
+      <c r="Q58" s="123"/>
+      <c r="R58" s="123"/>
+      <c r="S58" s="123"/>
+      <c r="T58" s="123"/>
+      <c r="U58" s="123"/>
+      <c r="V58" s="123"/>
+      <c r="W58" s="128"/>
     </row>
     <row r="59" spans="1:23" ht="12" customHeight="1">
-      <c r="C59" s="126"/>
-      <c r="D59" s="123"/>
-      <c r="E59" s="123"/>
-      <c r="F59" s="123"/>
-      <c r="G59" s="123"/>
-      <c r="H59" s="123"/>
-      <c r="I59" s="123"/>
-      <c r="J59" s="123"/>
-      <c r="K59" s="124"/>
-      <c r="L59" s="124"/>
-      <c r="M59" s="124"/>
-      <c r="N59" s="124"/>
-      <c r="O59" s="124"/>
-      <c r="P59" s="124"/>
-      <c r="Q59" s="124"/>
-      <c r="R59" s="124"/>
-      <c r="S59" s="124"/>
-      <c r="T59" s="124"/>
-      <c r="U59" s="124"/>
-      <c r="V59" s="124"/>
-      <c r="W59" s="129"/>
+      <c r="C59" s="125"/>
+      <c r="D59" s="122"/>
+      <c r="E59" s="122"/>
+      <c r="F59" s="122"/>
+      <c r="G59" s="122"/>
+      <c r="H59" s="122"/>
+      <c r="I59" s="122"/>
+      <c r="J59" s="122"/>
+      <c r="K59" s="123"/>
+      <c r="L59" s="123"/>
+      <c r="M59" s="123"/>
+      <c r="N59" s="123"/>
+      <c r="O59" s="123"/>
+      <c r="P59" s="123"/>
+      <c r="Q59" s="123"/>
+      <c r="R59" s="123"/>
+      <c r="S59" s="123"/>
+      <c r="T59" s="123"/>
+      <c r="U59" s="123"/>
+      <c r="V59" s="123"/>
+      <c r="W59" s="128"/>
     </row>
     <row r="64" spans="1:23" ht="12" customHeight="1">
-      <c r="C64" s="169"/>
-      <c r="D64" s="170"/>
+      <c r="C64" s="168"/>
+      <c r="D64" s="169"/>
       <c r="E64" s="30"/>
       <c r="F64" s="31"/>
       <c r="G64" s="31"/>
       <c r="H64" s="31"/>
-      <c r="I64" s="87"/>
-      <c r="J64" s="166"/>
-      <c r="K64" s="164"/>
-      <c r="L64" s="140"/>
-      <c r="M64" s="140"/>
-      <c r="N64" s="140"/>
-      <c r="O64" s="140"/>
-      <c r="P64" s="140"/>
-      <c r="Q64" s="140"/>
-      <c r="R64" s="140"/>
-      <c r="S64" s="140"/>
-      <c r="T64" s="140"/>
-      <c r="U64" s="140"/>
-      <c r="V64" s="140"/>
-      <c r="W64" s="165"/>
+      <c r="I64" s="86"/>
+      <c r="J64" s="164"/>
+      <c r="K64" s="162"/>
+      <c r="L64" s="139"/>
+      <c r="M64" s="139"/>
+      <c r="N64" s="139"/>
+      <c r="O64" s="139"/>
+      <c r="P64" s="139"/>
+      <c r="Q64" s="139"/>
+      <c r="R64" s="139"/>
+      <c r="S64" s="139"/>
+      <c r="T64" s="139"/>
+      <c r="U64" s="139"/>
+      <c r="V64" s="139"/>
+      <c r="W64" s="163"/>
     </row>
     <row r="65" spans="1:23" ht="12" customHeight="1">
       <c r="C65" s="33"/>
@@ -3697,58 +3691,58 @@
       <c r="F65" s="36"/>
       <c r="G65" s="36"/>
       <c r="H65" s="36"/>
-      <c r="I65" s="88"/>
-      <c r="J65" s="84"/>
-      <c r="K65" s="89"/>
-      <c r="L65" s="90"/>
-      <c r="M65" s="90"/>
-      <c r="N65" s="90"/>
-      <c r="O65" s="90"/>
-      <c r="P65" s="90"/>
-      <c r="Q65" s="90"/>
-      <c r="R65" s="90"/>
-      <c r="S65" s="90"/>
-      <c r="T65" s="90"/>
-      <c r="U65" s="90"/>
-      <c r="V65" s="90"/>
-      <c r="W65" s="132"/>
+      <c r="I65" s="87"/>
+      <c r="J65" s="83"/>
+      <c r="K65" s="88"/>
+      <c r="L65" s="89"/>
+      <c r="M65" s="89"/>
+      <c r="N65" s="89"/>
+      <c r="O65" s="89"/>
+      <c r="P65" s="89"/>
+      <c r="Q65" s="89"/>
+      <c r="R65" s="89"/>
+      <c r="S65" s="89"/>
+      <c r="T65" s="89"/>
+      <c r="U65" s="89"/>
+      <c r="V65" s="89"/>
+      <c r="W65" s="131"/>
     </row>
     <row r="66" spans="1:23" ht="12" customHeight="1">
-      <c r="A66" s="122"/>
-      <c r="B66" s="122"/>
-      <c r="C66" s="169"/>
-      <c r="D66" s="170"/>
+      <c r="A66" s="121"/>
+      <c r="B66" s="121"/>
+      <c r="C66" s="168"/>
+      <c r="D66" s="169"/>
       <c r="E66" s="37"/>
       <c r="F66" s="43"/>
       <c r="G66" s="43"/>
       <c r="H66" s="43"/>
-      <c r="I66" s="93"/>
-      <c r="J66" s="166"/>
-      <c r="K66" s="164"/>
-      <c r="L66" s="140"/>
-      <c r="M66" s="140"/>
-      <c r="N66" s="140"/>
-      <c r="O66" s="140"/>
-      <c r="P66" s="140"/>
-      <c r="Q66" s="140"/>
-      <c r="R66" s="140"/>
-      <c r="S66" s="140"/>
-      <c r="T66" s="140"/>
-      <c r="U66" s="140"/>
-      <c r="V66" s="140"/>
-      <c r="W66" s="165"/>
+      <c r="I66" s="92"/>
+      <c r="J66" s="164"/>
+      <c r="K66" s="162"/>
+      <c r="L66" s="139"/>
+      <c r="M66" s="139"/>
+      <c r="N66" s="139"/>
+      <c r="O66" s="139"/>
+      <c r="P66" s="139"/>
+      <c r="Q66" s="139"/>
+      <c r="R66" s="139"/>
+      <c r="S66" s="139"/>
+      <c r="T66" s="139"/>
+      <c r="U66" s="139"/>
+      <c r="V66" s="139"/>
+      <c r="W66" s="163"/>
     </row>
     <row r="67" spans="1:23" ht="12" customHeight="1">
-      <c r="A67" s="122"/>
-      <c r="B67" s="122"/>
+      <c r="A67" s="121"/>
+      <c r="B67" s="121"/>
       <c r="C67" s="44"/>
       <c r="D67" s="45"/>
       <c r="E67" s="38"/>
       <c r="F67" s="39"/>
       <c r="G67" s="40"/>
       <c r="H67" s="40"/>
-      <c r="I67" s="91"/>
-      <c r="J67" s="94"/>
+      <c r="I67" s="90"/>
+      <c r="J67" s="93"/>
       <c r="K67" s="71"/>
       <c r="L67" s="72"/>
       <c r="M67" s="72"/>
@@ -3761,94 +3755,94 @@
       <c r="T67" s="72"/>
       <c r="U67" s="72"/>
       <c r="V67" s="72"/>
-      <c r="W67" s="132"/>
+      <c r="W67" s="131"/>
     </row>
     <row r="68" spans="1:23" ht="12" customHeight="1">
-      <c r="A68" s="122"/>
-      <c r="B68" s="122"/>
+      <c r="A68" s="121"/>
+      <c r="B68" s="121"/>
       <c r="C68" s="44"/>
       <c r="D68" s="45"/>
       <c r="E68" s="38"/>
       <c r="F68" s="41"/>
       <c r="G68" s="42"/>
       <c r="H68" s="42"/>
-      <c r="I68" s="92"/>
-      <c r="J68" s="152"/>
-      <c r="K68" s="139"/>
-      <c r="L68" s="147"/>
-      <c r="M68" s="147"/>
-      <c r="N68" s="147"/>
-      <c r="O68" s="147"/>
-      <c r="P68" s="147"/>
-      <c r="Q68" s="147"/>
-      <c r="R68" s="147"/>
-      <c r="S68" s="147"/>
-      <c r="T68" s="147"/>
-      <c r="U68" s="147"/>
-      <c r="V68" s="168"/>
-      <c r="W68" s="153"/>
+      <c r="I68" s="91"/>
+      <c r="J68" s="150"/>
+      <c r="K68" s="138"/>
+      <c r="L68" s="145"/>
+      <c r="M68" s="145"/>
+      <c r="N68" s="145"/>
+      <c r="O68" s="145"/>
+      <c r="P68" s="145"/>
+      <c r="Q68" s="145"/>
+      <c r="R68" s="145"/>
+      <c r="S68" s="145"/>
+      <c r="T68" s="145"/>
+      <c r="U68" s="145"/>
+      <c r="V68" s="166"/>
+      <c r="W68" s="151"/>
     </row>
     <row r="69" spans="1:23" ht="12" customHeight="1">
-      <c r="A69" s="122"/>
-      <c r="B69" s="122"/>
+      <c r="A69" s="121"/>
+      <c r="B69" s="121"/>
       <c r="C69" s="33"/>
       <c r="D69" s="34"/>
       <c r="E69" s="46"/>
       <c r="F69" s="47"/>
       <c r="G69" s="48"/>
       <c r="H69" s="48"/>
-      <c r="I69" s="97"/>
-      <c r="J69" s="84"/>
-      <c r="K69" s="89"/>
-      <c r="L69" s="90"/>
-      <c r="M69" s="90"/>
-      <c r="N69" s="90"/>
-      <c r="O69" s="90"/>
-      <c r="P69" s="90"/>
-      <c r="Q69" s="90"/>
-      <c r="R69" s="90"/>
-      <c r="S69" s="90"/>
-      <c r="T69" s="90"/>
-      <c r="U69" s="90"/>
-      <c r="V69" s="90"/>
-      <c r="W69" s="132"/>
+      <c r="I69" s="96"/>
+      <c r="J69" s="83"/>
+      <c r="K69" s="88"/>
+      <c r="L69" s="89"/>
+      <c r="M69" s="89"/>
+      <c r="N69" s="89"/>
+      <c r="O69" s="89"/>
+      <c r="P69" s="89"/>
+      <c r="Q69" s="89"/>
+      <c r="R69" s="89"/>
+      <c r="S69" s="89"/>
+      <c r="T69" s="89"/>
+      <c r="U69" s="89"/>
+      <c r="V69" s="89"/>
+      <c r="W69" s="131"/>
     </row>
     <row r="70" spans="1:23" ht="12" customHeight="1">
-      <c r="A70" s="122"/>
-      <c r="B70" s="122"/>
-      <c r="C70" s="169"/>
-      <c r="D70" s="170"/>
+      <c r="A70" s="121"/>
+      <c r="B70" s="121"/>
+      <c r="C70" s="168"/>
+      <c r="D70" s="169"/>
       <c r="E70" s="37"/>
       <c r="F70" s="43"/>
       <c r="G70" s="43"/>
       <c r="H70" s="43"/>
-      <c r="I70" s="98"/>
-      <c r="J70" s="166"/>
-      <c r="K70" s="164"/>
-      <c r="L70" s="140"/>
-      <c r="M70" s="140"/>
-      <c r="N70" s="140"/>
-      <c r="O70" s="140"/>
-      <c r="P70" s="140"/>
-      <c r="Q70" s="140"/>
-      <c r="R70" s="140"/>
-      <c r="S70" s="140"/>
-      <c r="T70" s="140"/>
-      <c r="U70" s="140"/>
-      <c r="V70" s="167"/>
-      <c r="W70" s="165"/>
+      <c r="I70" s="97"/>
+      <c r="J70" s="164"/>
+      <c r="K70" s="162"/>
+      <c r="L70" s="139"/>
+      <c r="M70" s="139"/>
+      <c r="N70" s="139"/>
+      <c r="O70" s="139"/>
+      <c r="P70" s="139"/>
+      <c r="Q70" s="139"/>
+      <c r="R70" s="139"/>
+      <c r="S70" s="139"/>
+      <c r="T70" s="139"/>
+      <c r="U70" s="139"/>
+      <c r="V70" s="165"/>
+      <c r="W70" s="163"/>
     </row>
     <row r="71" spans="1:23" ht="12" customHeight="1">
-      <c r="A71" s="122"/>
-      <c r="B71" s="122"/>
+      <c r="A71" s="121"/>
+      <c r="B71" s="121"/>
       <c r="C71" s="44"/>
       <c r="D71" s="45"/>
       <c r="E71" s="38"/>
       <c r="F71" s="41"/>
       <c r="G71" s="42"/>
       <c r="H71" s="42"/>
-      <c r="I71" s="92"/>
-      <c r="J71" s="94"/>
+      <c r="I71" s="91"/>
+      <c r="J71" s="93"/>
       <c r="K71" s="71"/>
       <c r="L71" s="72"/>
       <c r="M71" s="72"/>
@@ -3861,94 +3855,94 @@
       <c r="T71" s="72"/>
       <c r="U71" s="72"/>
       <c r="V71" s="72"/>
-      <c r="W71" s="127"/>
+      <c r="W71" s="126"/>
     </row>
     <row r="72" spans="1:23" ht="12" customHeight="1">
-      <c r="A72" s="122"/>
-      <c r="B72" s="122"/>
+      <c r="A72" s="121"/>
+      <c r="B72" s="121"/>
       <c r="C72" s="44"/>
       <c r="D72" s="45"/>
       <c r="E72" s="38"/>
       <c r="F72" s="41"/>
       <c r="G72" s="42"/>
       <c r="H72" s="42"/>
-      <c r="I72" s="92"/>
-      <c r="J72" s="152"/>
-      <c r="K72" s="139"/>
-      <c r="L72" s="147"/>
-      <c r="M72" s="147"/>
-      <c r="N72" s="147"/>
-      <c r="O72" s="147"/>
-      <c r="P72" s="147"/>
-      <c r="Q72" s="147"/>
-      <c r="R72" s="147"/>
-      <c r="S72" s="147"/>
-      <c r="T72" s="147"/>
-      <c r="U72" s="147"/>
-      <c r="V72" s="147"/>
-      <c r="W72" s="153"/>
+      <c r="I72" s="91"/>
+      <c r="J72" s="150"/>
+      <c r="K72" s="138"/>
+      <c r="L72" s="145"/>
+      <c r="M72" s="145"/>
+      <c r="N72" s="145"/>
+      <c r="O72" s="145"/>
+      <c r="P72" s="145"/>
+      <c r="Q72" s="145"/>
+      <c r="R72" s="145"/>
+      <c r="S72" s="145"/>
+      <c r="T72" s="145"/>
+      <c r="U72" s="145"/>
+      <c r="V72" s="145"/>
+      <c r="W72" s="151"/>
     </row>
     <row r="73" spans="1:23" ht="12" customHeight="1">
-      <c r="A73" s="122"/>
-      <c r="B73" s="122"/>
+      <c r="A73" s="121"/>
+      <c r="B73" s="121"/>
       <c r="C73" s="33"/>
       <c r="D73" s="34"/>
       <c r="E73" s="46"/>
       <c r="F73" s="47"/>
       <c r="G73" s="48"/>
       <c r="H73" s="48"/>
-      <c r="I73" s="97"/>
-      <c r="J73" s="84"/>
-      <c r="K73" s="89"/>
-      <c r="L73" s="90"/>
-      <c r="M73" s="90"/>
-      <c r="N73" s="90"/>
-      <c r="O73" s="90"/>
-      <c r="P73" s="90"/>
-      <c r="Q73" s="90"/>
-      <c r="R73" s="90"/>
-      <c r="S73" s="90"/>
-      <c r="T73" s="90"/>
-      <c r="U73" s="90"/>
-      <c r="V73" s="90"/>
-      <c r="W73" s="132"/>
+      <c r="I73" s="96"/>
+      <c r="J73" s="83"/>
+      <c r="K73" s="88"/>
+      <c r="L73" s="89"/>
+      <c r="M73" s="89"/>
+      <c r="N73" s="89"/>
+      <c r="O73" s="89"/>
+      <c r="P73" s="89"/>
+      <c r="Q73" s="89"/>
+      <c r="R73" s="89"/>
+      <c r="S73" s="89"/>
+      <c r="T73" s="89"/>
+      <c r="U73" s="89"/>
+      <c r="V73" s="89"/>
+      <c r="W73" s="131"/>
     </row>
     <row r="74" spans="1:23" ht="12" customHeight="1">
-      <c r="A74" s="122"/>
-      <c r="B74" s="122"/>
-      <c r="C74" s="169"/>
-      <c r="D74" s="170"/>
+      <c r="A74" s="121"/>
+      <c r="B74" s="121"/>
+      <c r="C74" s="168"/>
+      <c r="D74" s="169"/>
       <c r="E74" s="49"/>
       <c r="F74" s="43"/>
       <c r="G74" s="43"/>
       <c r="H74" s="43"/>
-      <c r="I74" s="99"/>
-      <c r="J74" s="166"/>
-      <c r="K74" s="164"/>
-      <c r="L74" s="140"/>
-      <c r="M74" s="140"/>
-      <c r="N74" s="140"/>
-      <c r="O74" s="140"/>
-      <c r="P74" s="140"/>
-      <c r="Q74" s="140"/>
-      <c r="R74" s="140"/>
-      <c r="S74" s="140"/>
-      <c r="T74" s="140"/>
-      <c r="U74" s="140"/>
-      <c r="V74" s="140"/>
-      <c r="W74" s="165"/>
+      <c r="I74" s="98"/>
+      <c r="J74" s="164"/>
+      <c r="K74" s="162"/>
+      <c r="L74" s="139"/>
+      <c r="M74" s="139"/>
+      <c r="N74" s="139"/>
+      <c r="O74" s="139"/>
+      <c r="P74" s="139"/>
+      <c r="Q74" s="139"/>
+      <c r="R74" s="139"/>
+      <c r="S74" s="139"/>
+      <c r="T74" s="139"/>
+      <c r="U74" s="139"/>
+      <c r="V74" s="139"/>
+      <c r="W74" s="163"/>
     </row>
     <row r="75" spans="1:23" ht="12" customHeight="1">
-      <c r="A75" s="122"/>
-      <c r="B75" s="122"/>
+      <c r="A75" s="121"/>
+      <c r="B75" s="121"/>
       <c r="C75" s="44"/>
       <c r="D75" s="45"/>
       <c r="E75" s="50"/>
       <c r="F75" s="42"/>
       <c r="G75" s="42"/>
       <c r="H75" s="42"/>
-      <c r="I75" s="100"/>
-      <c r="J75" s="94"/>
+      <c r="I75" s="99"/>
+      <c r="J75" s="93"/>
       <c r="K75" s="71"/>
       <c r="L75" s="72"/>
       <c r="M75" s="72"/>
@@ -3961,194 +3955,194 @@
       <c r="T75" s="72"/>
       <c r="U75" s="72"/>
       <c r="V75" s="72"/>
-      <c r="W75" s="132"/>
+      <c r="W75" s="131"/>
     </row>
     <row r="76" spans="1:23" ht="12" customHeight="1">
-      <c r="A76" s="122"/>
-      <c r="B76" s="122"/>
+      <c r="A76" s="121"/>
+      <c r="B76" s="121"/>
       <c r="C76" s="44"/>
       <c r="D76" s="45"/>
       <c r="E76" s="50"/>
       <c r="F76" s="42"/>
       <c r="G76" s="42"/>
       <c r="H76" s="42"/>
-      <c r="I76" s="100"/>
-      <c r="J76" s="152"/>
-      <c r="K76" s="139"/>
-      <c r="L76" s="147"/>
-      <c r="M76" s="147"/>
-      <c r="N76" s="147"/>
-      <c r="O76" s="147"/>
-      <c r="P76" s="147"/>
-      <c r="Q76" s="147"/>
-      <c r="R76" s="147"/>
-      <c r="S76" s="147"/>
-      <c r="T76" s="147"/>
-      <c r="U76" s="147"/>
-      <c r="V76" s="147"/>
-      <c r="W76" s="153"/>
+      <c r="I76" s="99"/>
+      <c r="J76" s="150"/>
+      <c r="K76" s="138"/>
+      <c r="L76" s="145"/>
+      <c r="M76" s="145"/>
+      <c r="N76" s="145"/>
+      <c r="O76" s="145"/>
+      <c r="P76" s="145"/>
+      <c r="Q76" s="145"/>
+      <c r="R76" s="145"/>
+      <c r="S76" s="145"/>
+      <c r="T76" s="145"/>
+      <c r="U76" s="145"/>
+      <c r="V76" s="145"/>
+      <c r="W76" s="151"/>
     </row>
     <row r="77" spans="1:23" ht="12" customHeight="1">
-      <c r="A77" s="122"/>
-      <c r="B77" s="122"/>
+      <c r="A77" s="121"/>
+      <c r="B77" s="121"/>
       <c r="C77" s="33"/>
       <c r="D77" s="34"/>
       <c r="E77" s="51"/>
       <c r="F77" s="48"/>
       <c r="G77" s="48"/>
       <c r="H77" s="48"/>
-      <c r="I77" s="101"/>
-      <c r="J77" s="84"/>
-      <c r="K77" s="89"/>
-      <c r="L77" s="90"/>
-      <c r="M77" s="90"/>
-      <c r="N77" s="90"/>
-      <c r="O77" s="90"/>
-      <c r="P77" s="90"/>
-      <c r="Q77" s="90"/>
-      <c r="R77" s="90"/>
-      <c r="S77" s="90"/>
-      <c r="T77" s="90"/>
-      <c r="U77" s="90"/>
-      <c r="V77" s="90"/>
-      <c r="W77" s="132"/>
+      <c r="I77" s="100"/>
+      <c r="J77" s="83"/>
+      <c r="K77" s="88"/>
+      <c r="L77" s="89"/>
+      <c r="M77" s="89"/>
+      <c r="N77" s="89"/>
+      <c r="O77" s="89"/>
+      <c r="P77" s="89"/>
+      <c r="Q77" s="89"/>
+      <c r="R77" s="89"/>
+      <c r="S77" s="89"/>
+      <c r="T77" s="89"/>
+      <c r="U77" s="89"/>
+      <c r="V77" s="89"/>
+      <c r="W77" s="131"/>
     </row>
     <row r="78" spans="1:23" ht="12" customHeight="1">
-      <c r="A78" s="122"/>
-      <c r="B78" s="122"/>
-      <c r="C78" s="169"/>
-      <c r="D78" s="170"/>
+      <c r="A78" s="121"/>
+      <c r="B78" s="121"/>
+      <c r="C78" s="168"/>
+      <c r="D78" s="169"/>
       <c r="E78" s="52"/>
       <c r="F78" s="53"/>
       <c r="G78" s="43"/>
       <c r="H78" s="53"/>
-      <c r="I78" s="99"/>
-      <c r="J78" s="166"/>
-      <c r="K78" s="102"/>
-      <c r="L78" s="103"/>
-      <c r="M78" s="103"/>
-      <c r="N78" s="103"/>
-      <c r="O78" s="103"/>
-      <c r="P78" s="103"/>
-      <c r="Q78" s="103"/>
-      <c r="R78" s="103"/>
-      <c r="S78" s="103"/>
-      <c r="T78" s="103"/>
-      <c r="U78" s="103"/>
-      <c r="V78" s="140"/>
-      <c r="W78" s="137"/>
+      <c r="I78" s="98"/>
+      <c r="J78" s="164"/>
+      <c r="K78" s="101"/>
+      <c r="L78" s="102"/>
+      <c r="M78" s="102"/>
+      <c r="N78" s="102"/>
+      <c r="O78" s="102"/>
+      <c r="P78" s="102"/>
+      <c r="Q78" s="102"/>
+      <c r="R78" s="102"/>
+      <c r="S78" s="102"/>
+      <c r="T78" s="102"/>
+      <c r="U78" s="102"/>
+      <c r="V78" s="139"/>
+      <c r="W78" s="136"/>
     </row>
     <row r="79" spans="1:23" ht="12" customHeight="1">
-      <c r="A79" s="122"/>
-      <c r="B79" s="122"/>
+      <c r="A79" s="121"/>
+      <c r="B79" s="121"/>
       <c r="C79" s="44"/>
       <c r="D79" s="45"/>
       <c r="E79" s="50"/>
       <c r="F79" s="42"/>
       <c r="G79" s="42"/>
       <c r="H79" s="42"/>
-      <c r="I79" s="100"/>
-      <c r="J79" s="94"/>
-      <c r="K79" s="104"/>
-      <c r="L79" s="105"/>
-      <c r="M79" s="105"/>
-      <c r="N79" s="105"/>
-      <c r="O79" s="105"/>
-      <c r="P79" s="105"/>
-      <c r="Q79" s="105"/>
-      <c r="R79" s="105"/>
-      <c r="S79" s="105"/>
-      <c r="T79" s="105"/>
-      <c r="U79" s="105"/>
+      <c r="I79" s="99"/>
+      <c r="J79" s="93"/>
+      <c r="K79" s="103"/>
+      <c r="L79" s="104"/>
+      <c r="M79" s="104"/>
+      <c r="N79" s="104"/>
+      <c r="O79" s="104"/>
+      <c r="P79" s="104"/>
+      <c r="Q79" s="104"/>
+      <c r="R79" s="104"/>
+      <c r="S79" s="104"/>
+      <c r="T79" s="104"/>
+      <c r="U79" s="104"/>
       <c r="V79" s="72"/>
-      <c r="W79" s="134"/>
+      <c r="W79" s="133"/>
     </row>
     <row r="80" spans="1:23" ht="12" customHeight="1">
-      <c r="A80" s="122"/>
-      <c r="B80" s="122"/>
+      <c r="A80" s="121"/>
+      <c r="B80" s="121"/>
       <c r="C80" s="44"/>
       <c r="D80" s="45"/>
       <c r="E80" s="50"/>
       <c r="F80" s="42"/>
       <c r="G80" s="42"/>
       <c r="H80" s="42"/>
-      <c r="I80" s="100"/>
-      <c r="J80" s="152"/>
-      <c r="K80" s="139"/>
-      <c r="L80" s="147"/>
-      <c r="M80" s="147"/>
-      <c r="N80" s="147"/>
-      <c r="O80" s="147"/>
-      <c r="P80" s="147"/>
-      <c r="Q80" s="147"/>
-      <c r="R80" s="147"/>
-      <c r="S80" s="147"/>
-      <c r="T80" s="147"/>
-      <c r="U80" s="147"/>
-      <c r="V80" s="147"/>
-      <c r="W80" s="153"/>
+      <c r="I80" s="99"/>
+      <c r="J80" s="150"/>
+      <c r="K80" s="138"/>
+      <c r="L80" s="145"/>
+      <c r="M80" s="145"/>
+      <c r="N80" s="145"/>
+      <c r="O80" s="145"/>
+      <c r="P80" s="145"/>
+      <c r="Q80" s="145"/>
+      <c r="R80" s="145"/>
+      <c r="S80" s="145"/>
+      <c r="T80" s="145"/>
+      <c r="U80" s="145"/>
+      <c r="V80" s="145"/>
+      <c r="W80" s="151"/>
     </row>
     <row r="81" spans="1:23" ht="12" customHeight="1">
-      <c r="A81" s="122"/>
-      <c r="B81" s="122"/>
+      <c r="A81" s="121"/>
+      <c r="B81" s="121"/>
       <c r="C81" s="33"/>
       <c r="D81" s="34"/>
       <c r="E81" s="51"/>
       <c r="F81" s="48"/>
       <c r="G81" s="48"/>
       <c r="H81" s="48"/>
-      <c r="I81" s="101"/>
-      <c r="J81" s="84"/>
-      <c r="K81" s="106"/>
-      <c r="L81" s="107"/>
-      <c r="M81" s="107"/>
-      <c r="N81" s="107"/>
-      <c r="O81" s="107"/>
-      <c r="P81" s="107"/>
-      <c r="Q81" s="107"/>
-      <c r="R81" s="107"/>
-      <c r="S81" s="107"/>
-      <c r="T81" s="107"/>
-      <c r="U81" s="107"/>
-      <c r="V81" s="90"/>
-      <c r="W81" s="138"/>
+      <c r="I81" s="100"/>
+      <c r="J81" s="83"/>
+      <c r="K81" s="105"/>
+      <c r="L81" s="106"/>
+      <c r="M81" s="106"/>
+      <c r="N81" s="106"/>
+      <c r="O81" s="106"/>
+      <c r="P81" s="106"/>
+      <c r="Q81" s="106"/>
+      <c r="R81" s="106"/>
+      <c r="S81" s="106"/>
+      <c r="T81" s="106"/>
+      <c r="U81" s="106"/>
+      <c r="V81" s="89"/>
+      <c r="W81" s="137"/>
     </row>
     <row r="82" spans="1:23" ht="12" customHeight="1">
-      <c r="A82" s="122"/>
-      <c r="B82" s="122"/>
-      <c r="C82" s="169"/>
-      <c r="D82" s="170"/>
+      <c r="A82" s="121"/>
+      <c r="B82" s="121"/>
+      <c r="C82" s="168"/>
+      <c r="D82" s="169"/>
       <c r="E82" s="54"/>
       <c r="F82" s="55"/>
       <c r="G82" s="55"/>
       <c r="H82" s="55"/>
-      <c r="I82" s="99"/>
-      <c r="J82" s="163"/>
-      <c r="K82" s="164"/>
-      <c r="L82" s="140"/>
-      <c r="M82" s="140"/>
-      <c r="N82" s="140"/>
-      <c r="O82" s="140"/>
-      <c r="P82" s="140"/>
-      <c r="Q82" s="140"/>
-      <c r="R82" s="140"/>
-      <c r="S82" s="140"/>
-      <c r="T82" s="140"/>
-      <c r="U82" s="140"/>
-      <c r="V82" s="140"/>
-      <c r="W82" s="165"/>
+      <c r="I82" s="98"/>
+      <c r="J82" s="161"/>
+      <c r="K82" s="162"/>
+      <c r="L82" s="139"/>
+      <c r="M82" s="139"/>
+      <c r="N82" s="139"/>
+      <c r="O82" s="139"/>
+      <c r="P82" s="139"/>
+      <c r="Q82" s="139"/>
+      <c r="R82" s="139"/>
+      <c r="S82" s="139"/>
+      <c r="T82" s="139"/>
+      <c r="U82" s="139"/>
+      <c r="V82" s="139"/>
+      <c r="W82" s="163"/>
     </row>
     <row r="83" spans="1:23" ht="12" customHeight="1">
-      <c r="A83" s="122"/>
-      <c r="B83" s="122"/>
+      <c r="A83" s="121"/>
+      <c r="B83" s="121"/>
       <c r="C83" s="44"/>
       <c r="D83" s="45"/>
       <c r="E83" s="56"/>
       <c r="F83" s="17"/>
       <c r="G83" s="17"/>
       <c r="H83" s="17"/>
-      <c r="I83" s="100"/>
-      <c r="J83" s="108"/>
+      <c r="I83" s="99"/>
+      <c r="J83" s="107"/>
       <c r="K83" s="71"/>
       <c r="L83" s="72"/>
       <c r="M83" s="72"/>
@@ -4161,94 +4155,94 @@
       <c r="T83" s="72"/>
       <c r="U83" s="72"/>
       <c r="V83" s="72"/>
-      <c r="W83" s="132"/>
+      <c r="W83" s="131"/>
     </row>
     <row r="84" spans="1:23" ht="12" customHeight="1">
-      <c r="A84" s="122"/>
-      <c r="B84" s="122"/>
+      <c r="A84" s="121"/>
+      <c r="B84" s="121"/>
       <c r="C84" s="44"/>
       <c r="D84" s="45"/>
       <c r="E84" s="50"/>
       <c r="F84" s="42"/>
       <c r="G84" s="42"/>
       <c r="H84" s="57"/>
-      <c r="I84" s="100"/>
-      <c r="J84" s="161"/>
-      <c r="K84" s="139"/>
-      <c r="L84" s="147"/>
-      <c r="M84" s="147"/>
-      <c r="N84" s="147"/>
-      <c r="O84" s="147"/>
-      <c r="P84" s="147"/>
-      <c r="Q84" s="147"/>
-      <c r="R84" s="147"/>
-      <c r="S84" s="147"/>
-      <c r="T84" s="147"/>
-      <c r="U84" s="147"/>
-      <c r="V84" s="147"/>
-      <c r="W84" s="153"/>
+      <c r="I84" s="99"/>
+      <c r="J84" s="159"/>
+      <c r="K84" s="138"/>
+      <c r="L84" s="145"/>
+      <c r="M84" s="145"/>
+      <c r="N84" s="145"/>
+      <c r="O84" s="145"/>
+      <c r="P84" s="145"/>
+      <c r="Q84" s="145"/>
+      <c r="R84" s="145"/>
+      <c r="S84" s="145"/>
+      <c r="T84" s="145"/>
+      <c r="U84" s="145"/>
+      <c r="V84" s="145"/>
+      <c r="W84" s="151"/>
     </row>
     <row r="85" spans="1:23" ht="12" customHeight="1">
-      <c r="A85" s="122"/>
-      <c r="B85" s="122"/>
+      <c r="A85" s="121"/>
+      <c r="B85" s="121"/>
       <c r="C85" s="33"/>
       <c r="D85" s="34"/>
       <c r="E85" s="51"/>
       <c r="F85" s="48"/>
       <c r="G85" s="48"/>
       <c r="H85" s="58"/>
-      <c r="I85" s="101"/>
-      <c r="J85" s="109"/>
-      <c r="K85" s="89"/>
-      <c r="L85" s="90"/>
-      <c r="M85" s="90"/>
-      <c r="N85" s="90"/>
-      <c r="O85" s="90"/>
-      <c r="P85" s="90"/>
-      <c r="Q85" s="90"/>
-      <c r="R85" s="90"/>
-      <c r="S85" s="90"/>
-      <c r="T85" s="90"/>
-      <c r="U85" s="90"/>
-      <c r="V85" s="90"/>
-      <c r="W85" s="132"/>
+      <c r="I85" s="100"/>
+      <c r="J85" s="108"/>
+      <c r="K85" s="88"/>
+      <c r="L85" s="89"/>
+      <c r="M85" s="89"/>
+      <c r="N85" s="89"/>
+      <c r="O85" s="89"/>
+      <c r="P85" s="89"/>
+      <c r="Q85" s="89"/>
+      <c r="R85" s="89"/>
+      <c r="S85" s="89"/>
+      <c r="T85" s="89"/>
+      <c r="U85" s="89"/>
+      <c r="V85" s="89"/>
+      <c r="W85" s="131"/>
     </row>
     <row r="86" spans="1:23" ht="12" customHeight="1">
-      <c r="A86" s="122"/>
-      <c r="B86" s="122"/>
-      <c r="C86" s="169"/>
-      <c r="D86" s="170"/>
+      <c r="A86" s="121"/>
+      <c r="B86" s="121"/>
+      <c r="C86" s="168"/>
+      <c r="D86" s="169"/>
       <c r="E86" s="54"/>
       <c r="F86" s="55"/>
       <c r="G86" s="55"/>
       <c r="H86" s="55"/>
-      <c r="I86" s="99"/>
-      <c r="J86" s="163"/>
-      <c r="K86" s="164"/>
-      <c r="L86" s="140"/>
-      <c r="M86" s="140"/>
-      <c r="N86" s="140"/>
-      <c r="O86" s="140"/>
-      <c r="P86" s="140"/>
-      <c r="Q86" s="140"/>
-      <c r="R86" s="140"/>
-      <c r="S86" s="140"/>
-      <c r="T86" s="140"/>
-      <c r="U86" s="140"/>
-      <c r="V86" s="140"/>
-      <c r="W86" s="165"/>
+      <c r="I86" s="98"/>
+      <c r="J86" s="161"/>
+      <c r="K86" s="162"/>
+      <c r="L86" s="139"/>
+      <c r="M86" s="139"/>
+      <c r="N86" s="139"/>
+      <c r="O86" s="139"/>
+      <c r="P86" s="139"/>
+      <c r="Q86" s="139"/>
+      <c r="R86" s="139"/>
+      <c r="S86" s="139"/>
+      <c r="T86" s="139"/>
+      <c r="U86" s="139"/>
+      <c r="V86" s="139"/>
+      <c r="W86" s="163"/>
     </row>
     <row r="87" spans="1:23" ht="12" customHeight="1">
-      <c r="A87" s="122"/>
-      <c r="B87" s="122"/>
+      <c r="A87" s="121"/>
+      <c r="B87" s="121"/>
       <c r="C87" s="44"/>
       <c r="D87" s="45"/>
       <c r="E87" s="56"/>
       <c r="F87" s="17"/>
       <c r="G87" s="17"/>
       <c r="H87" s="17"/>
-      <c r="I87" s="100"/>
-      <c r="J87" s="110"/>
+      <c r="I87" s="99"/>
+      <c r="J87" s="109"/>
       <c r="K87" s="71"/>
       <c r="L87" s="72"/>
       <c r="M87" s="72"/>
@@ -4261,260 +4255,281 @@
       <c r="T87" s="72"/>
       <c r="U87" s="72"/>
       <c r="V87" s="72"/>
-      <c r="W87" s="132"/>
+      <c r="W87" s="131"/>
     </row>
     <row r="88" spans="1:23" ht="12" customHeight="1">
-      <c r="A88" s="122"/>
-      <c r="B88" s="122"/>
+      <c r="A88" s="121"/>
+      <c r="B88" s="121"/>
       <c r="C88" s="44"/>
       <c r="D88" s="45"/>
       <c r="E88" s="50"/>
       <c r="F88" s="42"/>
       <c r="G88" s="42"/>
       <c r="H88" s="57"/>
-      <c r="I88" s="100"/>
-      <c r="J88" s="161"/>
-      <c r="K88" s="139"/>
-      <c r="L88" s="147"/>
-      <c r="M88" s="147"/>
-      <c r="N88" s="147"/>
-      <c r="O88" s="147"/>
-      <c r="P88" s="147"/>
-      <c r="Q88" s="147"/>
-      <c r="R88" s="147"/>
-      <c r="S88" s="147"/>
-      <c r="T88" s="147"/>
-      <c r="U88" s="147"/>
-      <c r="V88" s="147"/>
-      <c r="W88" s="153"/>
+      <c r="I88" s="99"/>
+      <c r="J88" s="159"/>
+      <c r="K88" s="138"/>
+      <c r="L88" s="145"/>
+      <c r="M88" s="145"/>
+      <c r="N88" s="145"/>
+      <c r="O88" s="145"/>
+      <c r="P88" s="145"/>
+      <c r="Q88" s="145"/>
+      <c r="R88" s="145"/>
+      <c r="S88" s="145"/>
+      <c r="T88" s="145"/>
+      <c r="U88" s="145"/>
+      <c r="V88" s="145"/>
+      <c r="W88" s="151"/>
     </row>
     <row r="89" spans="1:23" ht="12" customHeight="1">
-      <c r="A89" s="122"/>
-      <c r="B89" s="122"/>
+      <c r="A89" s="121"/>
+      <c r="B89" s="121"/>
       <c r="C89" s="33"/>
       <c r="D89" s="34"/>
       <c r="E89" s="51"/>
       <c r="F89" s="48"/>
       <c r="G89" s="48"/>
       <c r="H89" s="48"/>
-      <c r="I89" s="101"/>
-      <c r="J89" s="110"/>
-      <c r="K89" s="89"/>
-      <c r="L89" s="90"/>
-      <c r="M89" s="90"/>
-      <c r="N89" s="90"/>
-      <c r="O89" s="90"/>
-      <c r="P89" s="90"/>
-      <c r="Q89" s="90"/>
-      <c r="R89" s="90"/>
-      <c r="S89" s="90"/>
-      <c r="T89" s="90"/>
-      <c r="U89" s="90"/>
-      <c r="V89" s="90"/>
-      <c r="W89" s="132"/>
+      <c r="I89" s="100"/>
+      <c r="J89" s="109"/>
+      <c r="K89" s="88"/>
+      <c r="L89" s="89"/>
+      <c r="M89" s="89"/>
+      <c r="N89" s="89"/>
+      <c r="O89" s="89"/>
+      <c r="P89" s="89"/>
+      <c r="Q89" s="89"/>
+      <c r="R89" s="89"/>
+      <c r="S89" s="89"/>
+      <c r="T89" s="89"/>
+      <c r="U89" s="89"/>
+      <c r="V89" s="89"/>
+      <c r="W89" s="131"/>
     </row>
     <row r="90" spans="1:23" ht="12" customHeight="1">
-      <c r="A90" s="122"/>
-      <c r="B90" s="122"/>
-      <c r="C90" s="169"/>
-      <c r="D90" s="170"/>
+      <c r="A90" s="121"/>
+      <c r="B90" s="121"/>
+      <c r="C90" s="168"/>
+      <c r="D90" s="169"/>
       <c r="E90" s="37"/>
       <c r="F90" s="59"/>
       <c r="G90" s="55"/>
       <c r="H90" s="55"/>
-      <c r="I90" s="111"/>
-      <c r="J90" s="163"/>
-      <c r="K90" s="164"/>
-      <c r="L90" s="140"/>
-      <c r="M90" s="140"/>
-      <c r="N90" s="140"/>
-      <c r="O90" s="140"/>
-      <c r="P90" s="140"/>
-      <c r="Q90" s="140"/>
-      <c r="R90" s="140"/>
-      <c r="S90" s="140"/>
-      <c r="T90" s="140"/>
-      <c r="U90" s="140"/>
-      <c r="V90" s="140"/>
-      <c r="W90" s="165"/>
+      <c r="I90" s="110"/>
+      <c r="J90" s="161"/>
+      <c r="K90" s="162"/>
+      <c r="L90" s="139"/>
+      <c r="M90" s="139"/>
+      <c r="N90" s="139"/>
+      <c r="O90" s="139"/>
+      <c r="P90" s="139"/>
+      <c r="Q90" s="139"/>
+      <c r="R90" s="139"/>
+      <c r="S90" s="139"/>
+      <c r="T90" s="139"/>
+      <c r="U90" s="139"/>
+      <c r="V90" s="139"/>
+      <c r="W90" s="163"/>
     </row>
     <row r="91" spans="1:23" ht="12" customHeight="1">
-      <c r="A91" s="122"/>
-      <c r="B91" s="122"/>
+      <c r="A91" s="121"/>
+      <c r="B91" s="121"/>
       <c r="C91" s="44"/>
       <c r="D91" s="45"/>
       <c r="E91" s="38"/>
       <c r="F91" s="60"/>
       <c r="G91" s="17"/>
       <c r="H91" s="17"/>
-      <c r="I91" s="112"/>
-      <c r="J91" s="108"/>
-      <c r="K91" s="113"/>
-      <c r="L91" s="114"/>
-      <c r="M91" s="114"/>
-      <c r="N91" s="114"/>
-      <c r="O91" s="114"/>
-      <c r="P91" s="114"/>
-      <c r="Q91" s="114"/>
-      <c r="R91" s="114"/>
-      <c r="S91" s="114"/>
-      <c r="T91" s="114"/>
-      <c r="U91" s="114"/>
-      <c r="V91" s="114"/>
-      <c r="W91" s="132"/>
+      <c r="I91" s="111"/>
+      <c r="J91" s="107"/>
+      <c r="K91" s="112"/>
+      <c r="L91" s="113"/>
+      <c r="M91" s="113"/>
+      <c r="N91" s="113"/>
+      <c r="O91" s="113"/>
+      <c r="P91" s="113"/>
+      <c r="Q91" s="113"/>
+      <c r="R91" s="113"/>
+      <c r="S91" s="113"/>
+      <c r="T91" s="113"/>
+      <c r="U91" s="113"/>
+      <c r="V91" s="113"/>
+      <c r="W91" s="131"/>
     </row>
     <row r="92" spans="1:23" ht="12" customHeight="1">
-      <c r="A92" s="122"/>
-      <c r="B92" s="122"/>
+      <c r="A92" s="121"/>
+      <c r="B92" s="121"/>
       <c r="C92" s="44"/>
       <c r="D92" s="45"/>
       <c r="E92" s="38"/>
       <c r="F92" s="60"/>
       <c r="G92" s="61"/>
       <c r="H92" s="62"/>
-      <c r="I92" s="100"/>
-      <c r="J92" s="161"/>
-      <c r="K92" s="162"/>
-      <c r="L92" s="147"/>
-      <c r="M92" s="147"/>
-      <c r="N92" s="147"/>
-      <c r="O92" s="147"/>
-      <c r="P92" s="147"/>
-      <c r="Q92" s="147"/>
-      <c r="R92" s="147"/>
-      <c r="S92" s="147"/>
-      <c r="T92" s="147"/>
-      <c r="U92" s="147"/>
-      <c r="V92" s="147"/>
-      <c r="W92" s="153"/>
+      <c r="I92" s="99"/>
+      <c r="J92" s="159"/>
+      <c r="K92" s="160"/>
+      <c r="L92" s="145"/>
+      <c r="M92" s="145"/>
+      <c r="N92" s="145"/>
+      <c r="O92" s="145"/>
+      <c r="P92" s="145"/>
+      <c r="Q92" s="145"/>
+      <c r="R92" s="145"/>
+      <c r="S92" s="145"/>
+      <c r="T92" s="145"/>
+      <c r="U92" s="145"/>
+      <c r="V92" s="145"/>
+      <c r="W92" s="151"/>
     </row>
     <row r="93" spans="1:23" ht="12" customHeight="1">
-      <c r="A93" s="122"/>
-      <c r="B93" s="122"/>
+      <c r="A93" s="121"/>
+      <c r="B93" s="121"/>
       <c r="C93" s="33"/>
       <c r="D93" s="34"/>
       <c r="E93" s="46"/>
       <c r="F93" s="63"/>
       <c r="G93" s="47"/>
       <c r="H93" s="58"/>
-      <c r="I93" s="101"/>
-      <c r="J93" s="109"/>
-      <c r="K93" s="115"/>
-      <c r="L93" s="90"/>
-      <c r="M93" s="90"/>
-      <c r="N93" s="90"/>
-      <c r="O93" s="90"/>
-      <c r="P93" s="90"/>
-      <c r="Q93" s="90"/>
-      <c r="R93" s="90"/>
-      <c r="S93" s="90"/>
-      <c r="T93" s="90"/>
-      <c r="U93" s="90"/>
-      <c r="V93" s="90"/>
-      <c r="W93" s="132"/>
+      <c r="I93" s="100"/>
+      <c r="J93" s="108"/>
+      <c r="K93" s="114"/>
+      <c r="L93" s="89"/>
+      <c r="M93" s="89"/>
+      <c r="N93" s="89"/>
+      <c r="O93" s="89"/>
+      <c r="P93" s="89"/>
+      <c r="Q93" s="89"/>
+      <c r="R93" s="89"/>
+      <c r="S93" s="89"/>
+      <c r="T93" s="89"/>
+      <c r="U93" s="89"/>
+      <c r="V93" s="89"/>
+      <c r="W93" s="131"/>
     </row>
     <row r="94" spans="1:23" ht="12" customHeight="1">
-      <c r="A94" s="122"/>
-      <c r="B94" s="122"/>
-      <c r="C94" s="169"/>
-      <c r="D94" s="170"/>
+      <c r="A94" s="121"/>
+      <c r="B94" s="121"/>
+      <c r="C94" s="168"/>
+      <c r="D94" s="169"/>
       <c r="E94" s="37"/>
       <c r="F94" s="59"/>
       <c r="G94" s="55"/>
       <c r="H94" s="55"/>
-      <c r="I94" s="111"/>
-      <c r="J94" s="163"/>
-      <c r="K94" s="164"/>
-      <c r="L94" s="140"/>
-      <c r="M94" s="140"/>
-      <c r="N94" s="140"/>
-      <c r="O94" s="140"/>
-      <c r="P94" s="140"/>
-      <c r="Q94" s="140"/>
-      <c r="R94" s="140"/>
-      <c r="S94" s="140"/>
-      <c r="T94" s="140"/>
-      <c r="U94" s="140"/>
-      <c r="V94" s="140"/>
-      <c r="W94" s="135"/>
+      <c r="I94" s="110"/>
+      <c r="J94" s="161"/>
+      <c r="K94" s="162"/>
+      <c r="L94" s="139"/>
+      <c r="M94" s="139"/>
+      <c r="N94" s="139"/>
+      <c r="O94" s="139"/>
+      <c r="P94" s="139"/>
+      <c r="Q94" s="139"/>
+      <c r="R94" s="139"/>
+      <c r="S94" s="139"/>
+      <c r="T94" s="139"/>
+      <c r="U94" s="139"/>
+      <c r="V94" s="139"/>
+      <c r="W94" s="134"/>
     </row>
     <row r="95" spans="1:23" ht="12" customHeight="1">
-      <c r="A95" s="122"/>
-      <c r="B95" s="122"/>
+      <c r="A95" s="121"/>
+      <c r="B95" s="121"/>
       <c r="C95" s="44"/>
       <c r="D95" s="45"/>
       <c r="E95" s="38"/>
       <c r="F95" s="60"/>
       <c r="G95" s="17"/>
       <c r="H95" s="17"/>
-      <c r="I95" s="112"/>
-      <c r="J95" s="108"/>
-      <c r="K95" s="113"/>
-      <c r="L95" s="114"/>
-      <c r="M95" s="114"/>
-      <c r="N95" s="114"/>
-      <c r="O95" s="114"/>
-      <c r="P95" s="114"/>
-      <c r="Q95" s="114"/>
-      <c r="R95" s="114"/>
-      <c r="S95" s="114"/>
-      <c r="T95" s="114"/>
-      <c r="U95" s="114"/>
-      <c r="V95" s="114"/>
-      <c r="W95" s="132"/>
+      <c r="I95" s="111"/>
+      <c r="J95" s="107"/>
+      <c r="K95" s="112"/>
+      <c r="L95" s="113"/>
+      <c r="M95" s="113"/>
+      <c r="N95" s="113"/>
+      <c r="O95" s="113"/>
+      <c r="P95" s="113"/>
+      <c r="Q95" s="113"/>
+      <c r="R95" s="113"/>
+      <c r="S95" s="113"/>
+      <c r="T95" s="113"/>
+      <c r="U95" s="113"/>
+      <c r="V95" s="113"/>
+      <c r="W95" s="131"/>
     </row>
     <row r="96" spans="1:23" ht="12" customHeight="1">
-      <c r="A96" s="122"/>
-      <c r="B96" s="122"/>
+      <c r="A96" s="121"/>
+      <c r="B96" s="121"/>
       <c r="C96" s="44"/>
       <c r="D96" s="45"/>
       <c r="E96" s="38"/>
       <c r="F96" s="60"/>
       <c r="G96" s="61"/>
       <c r="H96" s="62"/>
-      <c r="I96" s="100"/>
-      <c r="J96" s="161"/>
-      <c r="K96" s="162"/>
-      <c r="L96" s="147"/>
-      <c r="M96" s="147"/>
-      <c r="N96" s="147"/>
-      <c r="O96" s="147"/>
-      <c r="P96" s="147"/>
-      <c r="Q96" s="147"/>
-      <c r="R96" s="147"/>
-      <c r="S96" s="147"/>
-      <c r="T96" s="147"/>
-      <c r="U96" s="147"/>
-      <c r="V96" s="147"/>
-      <c r="W96" s="153"/>
+      <c r="I96" s="99"/>
+      <c r="J96" s="159"/>
+      <c r="K96" s="160"/>
+      <c r="L96" s="145"/>
+      <c r="M96" s="145"/>
+      <c r="N96" s="145"/>
+      <c r="O96" s="145"/>
+      <c r="P96" s="145"/>
+      <c r="Q96" s="145"/>
+      <c r="R96" s="145"/>
+      <c r="S96" s="145"/>
+      <c r="T96" s="145"/>
+      <c r="U96" s="145"/>
+      <c r="V96" s="145"/>
+      <c r="W96" s="151"/>
     </row>
     <row r="97" spans="1:23" ht="12" customHeight="1">
-      <c r="A97" s="121"/>
-      <c r="B97" s="121"/>
+      <c r="A97" s="120"/>
+      <c r="B97" s="120"/>
       <c r="C97" s="33"/>
       <c r="D97" s="34"/>
       <c r="E97" s="46"/>
       <c r="F97" s="63"/>
       <c r="G97" s="47"/>
       <c r="H97" s="58"/>
-      <c r="I97" s="101"/>
-      <c r="J97" s="109"/>
-      <c r="K97" s="115"/>
-      <c r="L97" s="90"/>
-      <c r="M97" s="90"/>
-      <c r="N97" s="90"/>
-      <c r="O97" s="90"/>
-      <c r="P97" s="90"/>
-      <c r="Q97" s="90"/>
-      <c r="R97" s="90"/>
-      <c r="S97" s="90"/>
-      <c r="T97" s="90"/>
-      <c r="U97" s="90"/>
-      <c r="V97" s="90"/>
-      <c r="W97" s="181"/>
+      <c r="I97" s="100"/>
+      <c r="J97" s="108"/>
+      <c r="K97" s="114"/>
+      <c r="L97" s="89"/>
+      <c r="M97" s="89"/>
+      <c r="N97" s="89"/>
+      <c r="O97" s="89"/>
+      <c r="P97" s="89"/>
+      <c r="Q97" s="89"/>
+      <c r="R97" s="89"/>
+      <c r="S97" s="89"/>
+      <c r="T97" s="89"/>
+      <c r="U97" s="89"/>
+      <c r="V97" s="89"/>
+      <c r="W97" s="167"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A2:W2"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A6:W6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C46:D46"/>
     <mergeCell ref="C86:D86"/>
     <mergeCell ref="C90:D90"/>
     <mergeCell ref="C94:D94"/>
@@ -4524,27 +4539,6 @@
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="C82:D82"/>
     <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="A2:W2"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A6:W6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C26:D26"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.31496062992125984"/>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_v2_template.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_v2_template.xlsx
@@ -196,7 +196,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="75">
+  <borders count="76">
     <border>
       <left/>
       <right/>
@@ -1140,6 +1140,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1148,7 +1157,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1653,6 +1662,12 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1677,11 +1692,11 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1728,7 +1743,7 @@
         <xdr:cNvPr id="2" name="楕円 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2205,40 +2220,40 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5" defaultRowHeight="12" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="9.83203125" style="144" customWidth="1"/>
-    <col min="3" max="4" width="9.1640625" style="144" customWidth="1"/>
-    <col min="5" max="9" width="6.5" style="144"/>
-    <col min="10" max="10" width="7.1640625" style="144" customWidth="1"/>
-    <col min="11" max="22" width="7.1640625" style="26" customWidth="1"/>
+    <col min="1" max="2" width="13.1640625" style="144" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="144" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="144" customWidth="1"/>
+    <col min="5" max="10" width="6.5" style="144" customWidth="1"/>
+    <col min="11" max="22" width="6.5" style="26" customWidth="1"/>
     <col min="23" max="23" width="7.1640625" style="25" customWidth="1"/>
     <col min="24" max="24" width="6.5" style="25"/>
     <col min="25" max="16384" width="6.5" style="26"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:23" ht="12" customHeight="1">
-      <c r="A2" s="168"/>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="168"/>
-      <c r="R2" s="168"/>
-      <c r="S2" s="168"/>
-      <c r="T2" s="168"/>
-      <c r="U2" s="168"/>
-      <c r="V2" s="168"/>
-      <c r="W2" s="168"/>
+      <c r="A2" s="170"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="170"/>
+      <c r="L2" s="170"/>
+      <c r="M2" s="170"/>
+      <c r="N2" s="170"/>
+      <c r="O2" s="170"/>
+      <c r="P2" s="170"/>
+      <c r="Q2" s="170"/>
+      <c r="R2" s="170"/>
+      <c r="S2" s="170"/>
+      <c r="T2" s="170"/>
+      <c r="U2" s="170"/>
+      <c r="V2" s="170"/>
+      <c r="W2" s="170"/>
     </row>
     <row r="3" spans="1:23" ht="12" customHeight="1" thickBot="1">
       <c r="A3" s="27"/>
@@ -2270,13 +2285,13 @@
       <c r="B4" s="28"/>
       <c r="C4" s="29"/>
       <c r="D4" s="28"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="170"/>
-      <c r="G4" s="170"/>
-      <c r="H4" s="170"/>
-      <c r="I4" s="171"/>
-      <c r="J4" s="172"/>
-      <c r="K4" s="173"/>
+      <c r="E4" s="171"/>
+      <c r="F4" s="172"/>
+      <c r="G4" s="172"/>
+      <c r="H4" s="172"/>
+      <c r="I4" s="173"/>
+      <c r="J4" s="174"/>
+      <c r="K4" s="175"/>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
@@ -2316,33 +2331,33 @@
       <c r="W5" s="22"/>
     </row>
     <row r="6" spans="1:23" ht="12" customHeight="1" thickBot="1">
-      <c r="A6" s="174"/>
-      <c r="B6" s="174"/>
-      <c r="C6" s="174"/>
-      <c r="D6" s="174"/>
-      <c r="E6" s="174"/>
-      <c r="F6" s="174"/>
-      <c r="G6" s="174"/>
-      <c r="H6" s="174"/>
-      <c r="I6" s="174"/>
-      <c r="J6" s="174"/>
-      <c r="K6" s="174"/>
-      <c r="L6" s="174"/>
-      <c r="M6" s="174"/>
-      <c r="N6" s="174"/>
-      <c r="O6" s="174"/>
-      <c r="P6" s="174"/>
-      <c r="Q6" s="174"/>
-      <c r="R6" s="174"/>
-      <c r="S6" s="174"/>
-      <c r="T6" s="174"/>
-      <c r="U6" s="174"/>
-      <c r="V6" s="174"/>
-      <c r="W6" s="174"/>
+      <c r="A6" s="176"/>
+      <c r="B6" s="176"/>
+      <c r="C6" s="176"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="176"/>
+      <c r="F6" s="176"/>
+      <c r="G6" s="176"/>
+      <c r="H6" s="176"/>
+      <c r="I6" s="176"/>
+      <c r="J6" s="176"/>
+      <c r="K6" s="176"/>
+      <c r="L6" s="176"/>
+      <c r="M6" s="176"/>
+      <c r="N6" s="176"/>
+      <c r="O6" s="176"/>
+      <c r="P6" s="176"/>
+      <c r="Q6" s="176"/>
+      <c r="R6" s="176"/>
+      <c r="S6" s="176"/>
+      <c r="T6" s="176"/>
+      <c r="U6" s="176"/>
+      <c r="V6" s="176"/>
+      <c r="W6" s="176"/>
     </row>
     <row r="7" spans="1:23" ht="12" customHeight="1">
-      <c r="A7" s="175"/>
-      <c r="B7" s="175"/>
+      <c r="A7" s="177"/>
+      <c r="B7" s="177"/>
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
@@ -2366,8 +2381,8 @@
       <c r="W7" s="40"/>
     </row>
     <row r="8" spans="1:23" ht="12" customHeight="1">
-      <c r="A8" s="176"/>
-      <c r="B8" s="176"/>
+      <c r="A8" s="168"/>
+      <c r="B8" s="168"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
@@ -2391,8 +2406,8 @@
       <c r="W8" s="45"/>
     </row>
     <row r="9" spans="1:23" ht="12" customHeight="1">
-      <c r="A9" s="177"/>
-      <c r="B9" s="177"/>
+      <c r="A9" s="169"/>
+      <c r="B9" s="169"/>
       <c r="C9" s="4"/>
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
@@ -2416,8 +2431,8 @@
       <c r="W9" s="52"/>
     </row>
     <row r="10" spans="1:23" ht="12" customHeight="1">
-      <c r="A10" s="176"/>
-      <c r="B10" s="176"/>
+      <c r="A10" s="168"/>
+      <c r="B10" s="168"/>
       <c r="C10" s="4"/>
       <c r="D10" s="9"/>
       <c r="E10" s="6"/>
@@ -2441,8 +2456,8 @@
       <c r="W10" s="45"/>
     </row>
     <row r="11" spans="1:23" ht="12" customHeight="1">
-      <c r="A11" s="176"/>
-      <c r="B11" s="176"/>
+      <c r="A11" s="168"/>
+      <c r="B11" s="168"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
       <c r="E11" s="10"/>
@@ -3515,51 +3530,28 @@
       <c r="V53" s="142"/>
       <c r="W53" s="143"/>
     </row>
-    <row r="54" spans="1:23" ht="12" customHeight="1">
-      <c r="C54" s="145"/>
-      <c r="D54" s="146"/>
-      <c r="E54" s="146"/>
-      <c r="F54" s="146"/>
-      <c r="G54" s="146"/>
-      <c r="H54" s="146"/>
-      <c r="I54" s="146"/>
-      <c r="J54" s="146"/>
-      <c r="K54" s="147"/>
-      <c r="L54" s="147"/>
-      <c r="M54" s="147"/>
-      <c r="N54" s="147"/>
-      <c r="O54" s="147"/>
-      <c r="P54" s="147"/>
-      <c r="Q54" s="147"/>
-      <c r="R54" s="147"/>
-      <c r="S54" s="147"/>
-      <c r="T54" s="147"/>
-      <c r="U54" s="147"/>
-      <c r="V54" s="147"/>
-      <c r="W54" s="148"/>
-    </row>
     <row r="55" spans="1:23" ht="12" customHeight="1">
-      <c r="C55" s="149"/>
-      <c r="D55" s="146"/>
-      <c r="E55" s="146"/>
-      <c r="F55" s="146"/>
-      <c r="G55" s="146"/>
-      <c r="H55" s="146"/>
-      <c r="I55" s="146"/>
-      <c r="J55" s="146"/>
-      <c r="K55" s="147"/>
-      <c r="L55" s="147"/>
-      <c r="M55" s="147"/>
-      <c r="N55" s="147"/>
-      <c r="O55" s="147"/>
-      <c r="P55" s="147"/>
-      <c r="Q55" s="147"/>
-      <c r="R55" s="147"/>
-      <c r="S55" s="147"/>
-      <c r="T55" s="147"/>
-      <c r="U55" s="147"/>
-      <c r="V55" s="147"/>
-      <c r="W55" s="148"/>
+      <c r="C55" s="145"/>
+      <c r="D55" s="178"/>
+      <c r="E55" s="178"/>
+      <c r="F55" s="178"/>
+      <c r="G55" s="178"/>
+      <c r="H55" s="178"/>
+      <c r="I55" s="178"/>
+      <c r="J55" s="178"/>
+      <c r="K55" s="179"/>
+      <c r="L55" s="179"/>
+      <c r="M55" s="179"/>
+      <c r="N55" s="179"/>
+      <c r="O55" s="179"/>
+      <c r="P55" s="179"/>
+      <c r="Q55" s="179"/>
+      <c r="R55" s="179"/>
+      <c r="S55" s="179"/>
+      <c r="T55" s="179"/>
+      <c r="U55" s="179"/>
+      <c r="V55" s="179"/>
+      <c r="W55" s="179"/>
     </row>
     <row r="56" spans="1:23" ht="12" customHeight="1">
       <c r="C56" s="149"/>
@@ -3675,6 +3667,29 @@
       <c r="U60" s="147"/>
       <c r="V60" s="147"/>
       <c r="W60" s="148"/>
+    </row>
+    <row r="61" spans="1:23" ht="12" customHeight="1">
+      <c r="C61" s="149"/>
+      <c r="D61" s="146"/>
+      <c r="E61" s="146"/>
+      <c r="F61" s="146"/>
+      <c r="G61" s="146"/>
+      <c r="H61" s="146"/>
+      <c r="I61" s="146"/>
+      <c r="J61" s="146"/>
+      <c r="K61" s="147"/>
+      <c r="L61" s="147"/>
+      <c r="M61" s="147"/>
+      <c r="N61" s="147"/>
+      <c r="O61" s="147"/>
+      <c r="P61" s="147"/>
+      <c r="Q61" s="147"/>
+      <c r="R61" s="147"/>
+      <c r="S61" s="147"/>
+      <c r="T61" s="147"/>
+      <c r="U61" s="147"/>
+      <c r="V61" s="147"/>
+      <c r="W61" s="148"/>
     </row>
     <row r="64" spans="1:23" ht="12" customHeight="1">
       <c r="C64" s="166"/>
@@ -4524,27 +4539,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A2:W2"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A6:W6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C46:D46"/>
     <mergeCell ref="C86:D86"/>
     <mergeCell ref="C90:D90"/>
     <mergeCell ref="C94:D94"/>
@@ -4554,6 +4548,27 @@
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="C82:D82"/>
     <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="A2:W2"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A6:W6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C26:D26"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.31496062992125984"/>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_v2_template.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_v2_template.xlsx
@@ -123,13 +123,13 @@
     <definedName name="電車" localSheetId="0">#REF!</definedName>
     <definedName name="飛行機" localSheetId="0">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="124519" calcMode="manual"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -144,11 +144,6 @@
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Meiryo UI"/>
       <charset val="128"/>
     </font>
     <font>
@@ -196,7 +191,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="76">
+  <borders count="81">
     <border>
       <left/>
       <right/>
@@ -1149,6 +1144,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1157,7 +1213,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1338,365 +1394,380 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="76" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1743,7 +1814,7 @@
         <xdr:cNvPr id="2" name="楕円 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2214,16 +2285,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:X97"/>
+  <dimension ref="A2:X111"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleSheetLayoutView="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5" defaultRowHeight="12" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="13.1640625" style="144" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="144" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" style="144" customWidth="1"/>
-    <col min="5" max="10" width="6.5" style="144" customWidth="1"/>
+    <col min="1" max="2" width="13.1640625" style="142" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="142" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="142" customWidth="1"/>
+    <col min="5" max="10" width="6.5" style="142" customWidth="1"/>
     <col min="11" max="22" width="6.5" style="26" customWidth="1"/>
     <col min="23" max="23" width="7.1640625" style="25" customWidth="1"/>
     <col min="24" max="24" width="6.5" style="25"/>
@@ -2231,29 +2302,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:23" ht="12" customHeight="1">
-      <c r="A2" s="170"/>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170"/>
-      <c r="K2" s="170"/>
-      <c r="L2" s="170"/>
-      <c r="M2" s="170"/>
-      <c r="N2" s="170"/>
-      <c r="O2" s="170"/>
-      <c r="P2" s="170"/>
-      <c r="Q2" s="170"/>
-      <c r="R2" s="170"/>
-      <c r="S2" s="170"/>
-      <c r="T2" s="170"/>
-      <c r="U2" s="170"/>
-      <c r="V2" s="170"/>
-      <c r="W2" s="170"/>
+      <c r="A2" s="171"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="171"/>
+      <c r="K2" s="171"/>
+      <c r="L2" s="171"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="171"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="171"/>
+      <c r="Q2" s="171"/>
+      <c r="R2" s="171"/>
+      <c r="S2" s="171"/>
+      <c r="T2" s="171"/>
+      <c r="U2" s="171"/>
+      <c r="V2" s="171"/>
+      <c r="W2" s="171"/>
     </row>
     <row r="3" spans="1:23" ht="12" customHeight="1" thickBot="1">
       <c r="A3" s="27"/>
@@ -2285,13 +2356,13 @@
       <c r="B4" s="28"/>
       <c r="C4" s="29"/>
       <c r="D4" s="28"/>
-      <c r="E4" s="171"/>
-      <c r="F4" s="172"/>
-      <c r="G4" s="172"/>
-      <c r="H4" s="172"/>
-      <c r="I4" s="173"/>
-      <c r="J4" s="174"/>
-      <c r="K4" s="175"/>
+      <c r="E4" s="172"/>
+      <c r="F4" s="173"/>
+      <c r="G4" s="173"/>
+      <c r="H4" s="173"/>
+      <c r="I4" s="174"/>
+      <c r="J4" s="175"/>
+      <c r="K4" s="173"/>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
@@ -2357,7 +2428,7 @@
     </row>
     <row r="7" spans="1:23" ht="12" customHeight="1">
       <c r="A7" s="177"/>
-      <c r="B7" s="177"/>
+      <c r="B7" s="178"/>
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
@@ -2381,8 +2452,8 @@
       <c r="W7" s="40"/>
     </row>
     <row r="8" spans="1:23" ht="12" customHeight="1">
-      <c r="A8" s="168"/>
-      <c r="B8" s="168"/>
+      <c r="A8" s="179"/>
+      <c r="B8" s="180"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
@@ -2406,8 +2477,8 @@
       <c r="W8" s="45"/>
     </row>
     <row r="9" spans="1:23" ht="12" customHeight="1">
-      <c r="A9" s="169"/>
-      <c r="B9" s="169"/>
+      <c r="A9" s="181"/>
+      <c r="B9" s="182"/>
       <c r="C9" s="4"/>
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
@@ -2431,8 +2502,8 @@
       <c r="W9" s="52"/>
     </row>
     <row r="10" spans="1:23" ht="12" customHeight="1">
-      <c r="A10" s="168"/>
-      <c r="B10" s="168"/>
+      <c r="A10" s="179"/>
+      <c r="B10" s="180"/>
       <c r="C10" s="4"/>
       <c r="D10" s="9"/>
       <c r="E10" s="6"/>
@@ -2456,8 +2527,8 @@
       <c r="W10" s="45"/>
     </row>
     <row r="11" spans="1:23" ht="12" customHeight="1">
-      <c r="A11" s="168"/>
-      <c r="B11" s="168"/>
+      <c r="A11" s="179"/>
+      <c r="B11" s="180"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
       <c r="E11" s="10"/>
@@ -2481,8 +2552,8 @@
       <c r="W11" s="59"/>
     </row>
     <row r="12" spans="1:23" ht="12" customHeight="1">
-      <c r="A12" s="60"/>
-      <c r="B12" s="60"/>
+      <c r="A12" s="164"/>
+      <c r="B12" s="164"/>
       <c r="C12" s="11"/>
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
@@ -2491,131 +2562,131 @@
       <c r="H12" s="56"/>
       <c r="I12" s="15"/>
       <c r="J12" s="18"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="62"/>
-      <c r="V12" s="62"/>
-      <c r="W12" s="63"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="61"/>
+      <c r="R12" s="61"/>
+      <c r="S12" s="61"/>
+      <c r="T12" s="61"/>
+      <c r="U12" s="61"/>
+      <c r="V12" s="61"/>
+      <c r="W12" s="62"/>
     </row>
     <row r="13" spans="1:23" ht="12" customHeight="1">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="166"/>
-      <c r="D13" s="167"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
+      <c r="A13" s="164"/>
+      <c r="B13" s="164"/>
+      <c r="C13" s="169"/>
+      <c r="D13" s="170"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
       <c r="I13" s="19"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="68"/>
-      <c r="T13" s="68"/>
-      <c r="U13" s="69"/>
-      <c r="V13" s="68"/>
-      <c r="W13" s="70"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="149"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="67"/>
+      <c r="S13" s="67"/>
+      <c r="T13" s="67"/>
+      <c r="U13" s="67"/>
+      <c r="V13" s="67"/>
+      <c r="W13" s="150"/>
     </row>
     <row r="14" spans="1:23" ht="12" customHeight="1">
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
       <c r="I14" s="20"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
-      <c r="N14" s="77"/>
-      <c r="O14" s="77"/>
-      <c r="P14" s="77"/>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="77"/>
-      <c r="S14" s="77"/>
-      <c r="T14" s="77"/>
-      <c r="U14" s="77"/>
-      <c r="V14" s="77"/>
-      <c r="W14" s="45"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="75"/>
+      <c r="R14" s="75"/>
+      <c r="S14" s="75"/>
+      <c r="T14" s="75"/>
+      <c r="U14" s="75"/>
+      <c r="V14" s="75"/>
+      <c r="W14" s="167"/>
     </row>
     <row r="15" spans="1:23" ht="12" customHeight="1">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
-      <c r="C15" s="166"/>
-      <c r="D15" s="167"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
+      <c r="C15" s="183"/>
+      <c r="D15" s="184"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
       <c r="I15" s="20"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="79"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="80"/>
-      <c r="O15" s="80"/>
-      <c r="P15" s="80"/>
-      <c r="Q15" s="80"/>
-      <c r="R15" s="80"/>
-      <c r="S15" s="80"/>
-      <c r="T15" s="80"/>
-      <c r="U15" s="80"/>
-      <c r="V15" s="81"/>
-      <c r="W15" s="82"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="78"/>
+      <c r="O15" s="78"/>
+      <c r="P15" s="78"/>
+      <c r="Q15" s="78"/>
+      <c r="R15" s="78"/>
+      <c r="S15" s="78"/>
+      <c r="T15" s="78"/>
+      <c r="U15" s="78"/>
+      <c r="V15" s="79"/>
+      <c r="W15" s="168"/>
     </row>
     <row r="16" spans="1:23" ht="12" customHeight="1">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
-      <c r="C16" s="166"/>
-      <c r="D16" s="167"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
+      <c r="C16" s="169"/>
+      <c r="D16" s="170"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
       <c r="I16" s="21"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="85"/>
-      <c r="M16" s="85"/>
-      <c r="N16" s="85"/>
-      <c r="O16" s="85"/>
-      <c r="P16" s="85"/>
-      <c r="Q16" s="85"/>
-      <c r="R16" s="85"/>
-      <c r="S16" s="85"/>
-      <c r="T16" s="85"/>
-      <c r="U16" s="85"/>
-      <c r="V16" s="85"/>
-      <c r="W16" s="86"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="83"/>
+      <c r="N16" s="83"/>
+      <c r="O16" s="83"/>
+      <c r="P16" s="83"/>
+      <c r="Q16" s="83"/>
+      <c r="R16" s="83"/>
+      <c r="S16" s="83"/>
+      <c r="T16" s="83"/>
+      <c r="U16" s="83"/>
+      <c r="V16" s="83"/>
+      <c r="W16" s="84"/>
     </row>
     <row r="17" spans="1:23" ht="12" customHeight="1">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="88"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="86"/>
       <c r="K17" s="51"/>
       <c r="L17" s="50"/>
       <c r="M17" s="50"/>
@@ -2628,94 +2699,94 @@
       <c r="T17" s="50"/>
       <c r="U17" s="50"/>
       <c r="V17" s="50"/>
-      <c r="W17" s="82"/>
+      <c r="W17" s="80"/>
     </row>
     <row r="18" spans="1:23" ht="12" customHeight="1">
-      <c r="A18" s="60"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="166"/>
-      <c r="D18" s="167"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="91"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="85"/>
-      <c r="O18" s="85"/>
-      <c r="P18" s="85"/>
-      <c r="Q18" s="85"/>
-      <c r="R18" s="85"/>
-      <c r="S18" s="85"/>
-      <c r="T18" s="85"/>
-      <c r="U18" s="85"/>
-      <c r="V18" s="85"/>
-      <c r="W18" s="86"/>
+      <c r="A18" s="164"/>
+      <c r="B18" s="164"/>
+      <c r="C18" s="169"/>
+      <c r="D18" s="170"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="83"/>
+      <c r="O18" s="83"/>
+      <c r="P18" s="83"/>
+      <c r="Q18" s="83"/>
+      <c r="R18" s="83"/>
+      <c r="S18" s="83"/>
+      <c r="T18" s="83"/>
+      <c r="U18" s="83"/>
+      <c r="V18" s="83"/>
+      <c r="W18" s="84"/>
     </row>
     <row r="19" spans="1:23" ht="12" customHeight="1">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="97"/>
-      <c r="J19" s="98"/>
+      <c r="A19" s="164"/>
+      <c r="B19" s="164"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="96"/>
       <c r="K19" s="49"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="99"/>
-      <c r="N19" s="99"/>
-      <c r="O19" s="99"/>
-      <c r="P19" s="99"/>
-      <c r="Q19" s="99"/>
-      <c r="R19" s="99"/>
-      <c r="S19" s="99"/>
-      <c r="T19" s="99"/>
-      <c r="U19" s="99"/>
-      <c r="V19" s="99"/>
+      <c r="L19" s="97"/>
+      <c r="M19" s="97"/>
+      <c r="N19" s="97"/>
+      <c r="O19" s="97"/>
+      <c r="P19" s="97"/>
+      <c r="Q19" s="97"/>
+      <c r="R19" s="97"/>
+      <c r="S19" s="97"/>
+      <c r="T19" s="97"/>
+      <c r="U19" s="97"/>
+      <c r="V19" s="97"/>
       <c r="W19" s="52"/>
     </row>
     <row r="20" spans="1:23" ht="12" customHeight="1">
-      <c r="A20" s="60"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="101"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="102"/>
-      <c r="J20" s="103"/>
+      <c r="A20" s="164"/>
+      <c r="B20" s="164"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="101"/>
       <c r="K20" s="53"/>
-      <c r="L20" s="104"/>
-      <c r="M20" s="104"/>
-      <c r="N20" s="104"/>
-      <c r="O20" s="104"/>
-      <c r="P20" s="104"/>
-      <c r="Q20" s="104"/>
-      <c r="R20" s="104"/>
-      <c r="S20" s="104"/>
-      <c r="T20" s="104"/>
-      <c r="U20" s="104"/>
-      <c r="V20" s="104"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="102"/>
+      <c r="N20" s="102"/>
+      <c r="O20" s="102"/>
+      <c r="P20" s="102"/>
+      <c r="Q20" s="102"/>
+      <c r="R20" s="102"/>
+      <c r="S20" s="102"/>
+      <c r="T20" s="102"/>
+      <c r="U20" s="102"/>
+      <c r="V20" s="102"/>
       <c r="W20" s="45"/>
     </row>
     <row r="21" spans="1:23" ht="12" customHeight="1">
-      <c r="A21" s="60"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="88"/>
+      <c r="A21" s="164"/>
+      <c r="B21" s="164"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="86"/>
       <c r="K21" s="51"/>
       <c r="L21" s="50"/>
       <c r="M21" s="50"/>
@@ -2728,94 +2799,94 @@
       <c r="T21" s="50"/>
       <c r="U21" s="50"/>
       <c r="V21" s="50"/>
-      <c r="W21" s="82"/>
+      <c r="W21" s="80"/>
     </row>
     <row r="22" spans="1:23" ht="12" customHeight="1">
-      <c r="A22" s="60"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="166"/>
-      <c r="D22" s="167"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="91"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="84"/>
-      <c r="L22" s="85"/>
-      <c r="M22" s="85"/>
-      <c r="N22" s="85"/>
-      <c r="O22" s="85"/>
-      <c r="P22" s="85"/>
-      <c r="Q22" s="85"/>
-      <c r="R22" s="85"/>
-      <c r="S22" s="85"/>
-      <c r="T22" s="85"/>
-      <c r="U22" s="85"/>
-      <c r="V22" s="85"/>
-      <c r="W22" s="86"/>
+      <c r="A22" s="164"/>
+      <c r="B22" s="164"/>
+      <c r="C22" s="169"/>
+      <c r="D22" s="170"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="83"/>
+      <c r="M22" s="83"/>
+      <c r="N22" s="83"/>
+      <c r="O22" s="83"/>
+      <c r="P22" s="83"/>
+      <c r="Q22" s="83"/>
+      <c r="R22" s="83"/>
+      <c r="S22" s="83"/>
+      <c r="T22" s="83"/>
+      <c r="U22" s="83"/>
+      <c r="V22" s="83"/>
+      <c r="W22" s="84"/>
     </row>
     <row r="23" spans="1:23" ht="12" customHeight="1">
-      <c r="A23" s="60"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="92"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="97"/>
-      <c r="J23" s="98"/>
+      <c r="A23" s="164"/>
+      <c r="B23" s="164"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="95"/>
+      <c r="J23" s="96"/>
       <c r="K23" s="49"/>
-      <c r="L23" s="99"/>
-      <c r="M23" s="99"/>
-      <c r="N23" s="99"/>
-      <c r="O23" s="99"/>
-      <c r="P23" s="99"/>
-      <c r="Q23" s="99"/>
-      <c r="R23" s="99"/>
-      <c r="S23" s="99"/>
-      <c r="T23" s="99"/>
-      <c r="U23" s="99"/>
-      <c r="V23" s="99"/>
+      <c r="L23" s="97"/>
+      <c r="M23" s="97"/>
+      <c r="N23" s="97"/>
+      <c r="O23" s="97"/>
+      <c r="P23" s="97"/>
+      <c r="Q23" s="97"/>
+      <c r="R23" s="97"/>
+      <c r="S23" s="97"/>
+      <c r="T23" s="97"/>
+      <c r="U23" s="97"/>
+      <c r="V23" s="97"/>
       <c r="W23" s="52"/>
     </row>
     <row r="24" spans="1:23" ht="12" customHeight="1">
-      <c r="A24" s="60"/>
-      <c r="B24" s="60"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="102"/>
-      <c r="J24" s="103"/>
+      <c r="A24" s="164"/>
+      <c r="B24" s="164"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="101"/>
       <c r="K24" s="53"/>
-      <c r="L24" s="104"/>
-      <c r="M24" s="104"/>
-      <c r="N24" s="104"/>
-      <c r="O24" s="104"/>
-      <c r="P24" s="104"/>
-      <c r="Q24" s="104"/>
-      <c r="R24" s="104"/>
-      <c r="S24" s="104"/>
-      <c r="T24" s="104"/>
-      <c r="U24" s="104"/>
-      <c r="V24" s="104"/>
+      <c r="L24" s="102"/>
+      <c r="M24" s="102"/>
+      <c r="N24" s="102"/>
+      <c r="O24" s="102"/>
+      <c r="P24" s="102"/>
+      <c r="Q24" s="102"/>
+      <c r="R24" s="102"/>
+      <c r="S24" s="102"/>
+      <c r="T24" s="102"/>
+      <c r="U24" s="102"/>
+      <c r="V24" s="102"/>
       <c r="W24" s="45"/>
     </row>
     <row r="25" spans="1:23" ht="12" customHeight="1">
-      <c r="A25" s="60"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="107"/>
-      <c r="I25" s="108"/>
-      <c r="J25" s="88"/>
+      <c r="A25" s="164"/>
+      <c r="B25" s="164"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="86"/>
       <c r="K25" s="51"/>
       <c r="L25" s="50"/>
       <c r="M25" s="50"/>
@@ -2828,94 +2899,94 @@
       <c r="T25" s="50"/>
       <c r="U25" s="50"/>
       <c r="V25" s="50"/>
-      <c r="W25" s="82"/>
+      <c r="W25" s="80"/>
     </row>
     <row r="26" spans="1:23" ht="12" customHeight="1">
-      <c r="A26" s="60"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="166"/>
-      <c r="D26" s="167"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="109"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="84"/>
-      <c r="L26" s="85"/>
-      <c r="M26" s="85"/>
-      <c r="N26" s="85"/>
-      <c r="O26" s="85"/>
-      <c r="P26" s="85"/>
-      <c r="Q26" s="85"/>
-      <c r="R26" s="85"/>
-      <c r="S26" s="85"/>
-      <c r="T26" s="85"/>
-      <c r="U26" s="85"/>
-      <c r="V26" s="85"/>
-      <c r="W26" s="86"/>
+      <c r="A26" s="164"/>
+      <c r="B26" s="164"/>
+      <c r="C26" s="169"/>
+      <c r="D26" s="170"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="107"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="83"/>
+      <c r="M26" s="83"/>
+      <c r="N26" s="83"/>
+      <c r="O26" s="83"/>
+      <c r="P26" s="83"/>
+      <c r="Q26" s="83"/>
+      <c r="R26" s="83"/>
+      <c r="S26" s="83"/>
+      <c r="T26" s="83"/>
+      <c r="U26" s="83"/>
+      <c r="V26" s="83"/>
+      <c r="W26" s="84"/>
     </row>
     <row r="27" spans="1:23" ht="12" customHeight="1">
-      <c r="A27" s="60"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="92"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="100"/>
-      <c r="G27" s="101"/>
-      <c r="H27" s="101"/>
-      <c r="I27" s="102"/>
-      <c r="J27" s="98"/>
+      <c r="A27" s="164"/>
+      <c r="B27" s="164"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="99"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="96"/>
       <c r="K27" s="49"/>
-      <c r="L27" s="99"/>
-      <c r="M27" s="99"/>
-      <c r="N27" s="99"/>
-      <c r="O27" s="99"/>
-      <c r="P27" s="99"/>
-      <c r="Q27" s="99"/>
-      <c r="R27" s="99"/>
-      <c r="S27" s="99"/>
-      <c r="T27" s="99"/>
-      <c r="U27" s="99"/>
-      <c r="V27" s="99"/>
+      <c r="L27" s="97"/>
+      <c r="M27" s="97"/>
+      <c r="N27" s="97"/>
+      <c r="O27" s="97"/>
+      <c r="P27" s="97"/>
+      <c r="Q27" s="97"/>
+      <c r="R27" s="97"/>
+      <c r="S27" s="97"/>
+      <c r="T27" s="97"/>
+      <c r="U27" s="97"/>
+      <c r="V27" s="97"/>
       <c r="W27" s="52"/>
     </row>
     <row r="28" spans="1:23" ht="12" customHeight="1">
-      <c r="A28" s="60"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="100"/>
-      <c r="G28" s="101"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="102"/>
-      <c r="J28" s="110"/>
+      <c r="A28" s="164"/>
+      <c r="B28" s="164"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="100"/>
+      <c r="J28" s="108"/>
       <c r="K28" s="53"/>
-      <c r="L28" s="104"/>
-      <c r="M28" s="104"/>
-      <c r="N28" s="104"/>
-      <c r="O28" s="104"/>
-      <c r="P28" s="104"/>
-      <c r="Q28" s="104"/>
-      <c r="R28" s="104"/>
-      <c r="S28" s="104"/>
-      <c r="T28" s="104"/>
-      <c r="U28" s="104"/>
-      <c r="V28" s="104"/>
+      <c r="L28" s="102"/>
+      <c r="M28" s="102"/>
+      <c r="N28" s="102"/>
+      <c r="O28" s="102"/>
+      <c r="P28" s="102"/>
+      <c r="Q28" s="102"/>
+      <c r="R28" s="102"/>
+      <c r="S28" s="102"/>
+      <c r="T28" s="102"/>
+      <c r="U28" s="102"/>
+      <c r="V28" s="102"/>
       <c r="W28" s="45"/>
     </row>
     <row r="29" spans="1:23" ht="12" customHeight="1">
-      <c r="A29" s="60"/>
-      <c r="B29" s="60"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="107"/>
-      <c r="H29" s="107"/>
-      <c r="I29" s="108"/>
-      <c r="J29" s="88"/>
+      <c r="A29" s="164"/>
+      <c r="B29" s="164"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="105"/>
+      <c r="I29" s="106"/>
+      <c r="J29" s="86"/>
       <c r="K29" s="51"/>
       <c r="L29" s="50"/>
       <c r="M29" s="50"/>
@@ -2928,94 +2999,94 @@
       <c r="T29" s="50"/>
       <c r="U29" s="50"/>
       <c r="V29" s="50"/>
-      <c r="W29" s="82"/>
+      <c r="W29" s="80"/>
     </row>
     <row r="30" spans="1:23" ht="12" customHeight="1">
-      <c r="A30" s="60"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="166"/>
-      <c r="D30" s="167"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="112"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="84"/>
-      <c r="L30" s="85"/>
-      <c r="M30" s="85"/>
-      <c r="N30" s="85"/>
-      <c r="O30" s="85"/>
-      <c r="P30" s="85"/>
-      <c r="Q30" s="85"/>
-      <c r="R30" s="85"/>
-      <c r="S30" s="85"/>
-      <c r="T30" s="85"/>
-      <c r="U30" s="85"/>
-      <c r="V30" s="85"/>
-      <c r="W30" s="86"/>
+      <c r="A30" s="164"/>
+      <c r="B30" s="164"/>
+      <c r="C30" s="169"/>
+      <c r="D30" s="170"/>
+      <c r="E30" s="109"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="110"/>
+      <c r="J30" s="81"/>
+      <c r="K30" s="82"/>
+      <c r="L30" s="83"/>
+      <c r="M30" s="83"/>
+      <c r="N30" s="83"/>
+      <c r="O30" s="83"/>
+      <c r="P30" s="83"/>
+      <c r="Q30" s="83"/>
+      <c r="R30" s="83"/>
+      <c r="S30" s="83"/>
+      <c r="T30" s="83"/>
+      <c r="U30" s="83"/>
+      <c r="V30" s="83"/>
+      <c r="W30" s="84"/>
     </row>
     <row r="31" spans="1:23" ht="12" customHeight="1">
-      <c r="A31" s="60"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="101"/>
-      <c r="G31" s="101"/>
-      <c r="H31" s="101"/>
-      <c r="I31" s="114"/>
-      <c r="J31" s="98"/>
+      <c r="A31" s="164"/>
+      <c r="B31" s="164"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="91"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="99"/>
+      <c r="H31" s="99"/>
+      <c r="I31" s="112"/>
+      <c r="J31" s="96"/>
       <c r="K31" s="49"/>
-      <c r="L31" s="99"/>
-      <c r="M31" s="99"/>
-      <c r="N31" s="99"/>
-      <c r="O31" s="99"/>
-      <c r="P31" s="99"/>
-      <c r="Q31" s="99"/>
-      <c r="R31" s="99"/>
-      <c r="S31" s="99"/>
-      <c r="T31" s="99"/>
-      <c r="U31" s="99"/>
-      <c r="V31" s="99"/>
+      <c r="L31" s="97"/>
+      <c r="M31" s="97"/>
+      <c r="N31" s="97"/>
+      <c r="O31" s="97"/>
+      <c r="P31" s="97"/>
+      <c r="Q31" s="97"/>
+      <c r="R31" s="97"/>
+      <c r="S31" s="97"/>
+      <c r="T31" s="97"/>
+      <c r="U31" s="97"/>
+      <c r="V31" s="97"/>
       <c r="W31" s="52"/>
     </row>
     <row r="32" spans="1:23" ht="12" customHeight="1">
-      <c r="A32" s="60"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="101"/>
-      <c r="G32" s="101"/>
-      <c r="H32" s="101"/>
-      <c r="I32" s="114"/>
-      <c r="J32" s="103"/>
+      <c r="A32" s="164"/>
+      <c r="B32" s="164"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="111"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="99"/>
+      <c r="I32" s="112"/>
+      <c r="J32" s="101"/>
       <c r="K32" s="53"/>
-      <c r="L32" s="104"/>
-      <c r="M32" s="104"/>
-      <c r="N32" s="104"/>
-      <c r="O32" s="104"/>
-      <c r="P32" s="104"/>
-      <c r="Q32" s="104"/>
-      <c r="R32" s="104"/>
-      <c r="S32" s="104"/>
-      <c r="T32" s="104"/>
-      <c r="U32" s="104"/>
-      <c r="V32" s="104"/>
+      <c r="L32" s="102"/>
+      <c r="M32" s="102"/>
+      <c r="N32" s="102"/>
+      <c r="O32" s="102"/>
+      <c r="P32" s="102"/>
+      <c r="Q32" s="102"/>
+      <c r="R32" s="102"/>
+      <c r="S32" s="102"/>
+      <c r="T32" s="102"/>
+      <c r="U32" s="102"/>
+      <c r="V32" s="102"/>
       <c r="W32" s="45"/>
     </row>
     <row r="33" spans="1:23" ht="12" customHeight="1">
-      <c r="A33" s="60"/>
-      <c r="B33" s="60"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="115"/>
-      <c r="F33" s="107"/>
-      <c r="G33" s="107"/>
-      <c r="H33" s="107"/>
-      <c r="I33" s="116"/>
-      <c r="J33" s="78"/>
+      <c r="A33" s="164"/>
+      <c r="B33" s="164"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="114"/>
+      <c r="J33" s="76"/>
       <c r="K33" s="51"/>
       <c r="L33" s="50"/>
       <c r="M33" s="50"/>
@@ -3028,194 +3099,194 @@
       <c r="T33" s="50"/>
       <c r="U33" s="50"/>
       <c r="V33" s="50"/>
-      <c r="W33" s="82"/>
+      <c r="W33" s="80"/>
     </row>
     <row r="34" spans="1:23" ht="12" customHeight="1">
-      <c r="A34" s="60"/>
-      <c r="B34" s="60"/>
-      <c r="C34" s="166"/>
-      <c r="D34" s="167"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="118"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="118"/>
-      <c r="I34" s="112"/>
-      <c r="J34" s="110"/>
-      <c r="K34" s="119"/>
-      <c r="L34" s="120"/>
-      <c r="M34" s="120"/>
-      <c r="N34" s="120"/>
-      <c r="O34" s="120"/>
-      <c r="P34" s="120"/>
-      <c r="Q34" s="120"/>
-      <c r="R34" s="120"/>
-      <c r="S34" s="120"/>
-      <c r="T34" s="120"/>
-      <c r="U34" s="120"/>
-      <c r="V34" s="121"/>
-      <c r="W34" s="122"/>
+      <c r="A34" s="164"/>
+      <c r="B34" s="164"/>
+      <c r="C34" s="169"/>
+      <c r="D34" s="170"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="110"/>
+      <c r="J34" s="108"/>
+      <c r="K34" s="117"/>
+      <c r="L34" s="118"/>
+      <c r="M34" s="118"/>
+      <c r="N34" s="118"/>
+      <c r="O34" s="118"/>
+      <c r="P34" s="118"/>
+      <c r="Q34" s="118"/>
+      <c r="R34" s="118"/>
+      <c r="S34" s="118"/>
+      <c r="T34" s="118"/>
+      <c r="U34" s="118"/>
+      <c r="V34" s="119"/>
+      <c r="W34" s="120"/>
     </row>
     <row r="35" spans="1:23" ht="12" customHeight="1">
-      <c r="A35" s="60"/>
-      <c r="B35" s="60"/>
-      <c r="C35" s="92"/>
-      <c r="D35" s="93"/>
-      <c r="E35" s="113"/>
-      <c r="F35" s="101"/>
-      <c r="G35" s="101"/>
-      <c r="H35" s="101"/>
-      <c r="I35" s="114"/>
-      <c r="J35" s="123"/>
-      <c r="K35" s="124"/>
-      <c r="L35" s="125"/>
-      <c r="M35" s="125"/>
-      <c r="N35" s="125"/>
-      <c r="O35" s="125"/>
-      <c r="P35" s="125"/>
-      <c r="Q35" s="125"/>
-      <c r="R35" s="125"/>
-      <c r="S35" s="125"/>
-      <c r="T35" s="125"/>
-      <c r="U35" s="125"/>
-      <c r="V35" s="126"/>
-      <c r="W35" s="127"/>
+      <c r="A35" s="164"/>
+      <c r="B35" s="164"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="111"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="99"/>
+      <c r="H35" s="99"/>
+      <c r="I35" s="112"/>
+      <c r="J35" s="121"/>
+      <c r="K35" s="122"/>
+      <c r="L35" s="123"/>
+      <c r="M35" s="123"/>
+      <c r="N35" s="123"/>
+      <c r="O35" s="123"/>
+      <c r="P35" s="123"/>
+      <c r="Q35" s="123"/>
+      <c r="R35" s="123"/>
+      <c r="S35" s="123"/>
+      <c r="T35" s="123"/>
+      <c r="U35" s="123"/>
+      <c r="V35" s="124"/>
+      <c r="W35" s="125"/>
     </row>
     <row r="36" spans="1:23" ht="12" customHeight="1">
-      <c r="A36" s="60"/>
-      <c r="B36" s="60"/>
-      <c r="C36" s="92"/>
-      <c r="D36" s="93"/>
-      <c r="E36" s="113"/>
-      <c r="F36" s="101"/>
-      <c r="G36" s="101"/>
-      <c r="H36" s="101"/>
-      <c r="I36" s="114"/>
-      <c r="J36" s="110"/>
+      <c r="A36" s="164"/>
+      <c r="B36" s="164"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="91"/>
+      <c r="E36" s="111"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="112"/>
+      <c r="J36" s="108"/>
       <c r="K36" s="53"/>
-      <c r="L36" s="104"/>
-      <c r="M36" s="104"/>
-      <c r="N36" s="104"/>
-      <c r="O36" s="104"/>
-      <c r="P36" s="104"/>
-      <c r="Q36" s="104"/>
-      <c r="R36" s="104"/>
-      <c r="S36" s="104"/>
-      <c r="T36" s="104"/>
-      <c r="U36" s="104"/>
-      <c r="V36" s="104"/>
+      <c r="L36" s="102"/>
+      <c r="M36" s="102"/>
+      <c r="N36" s="102"/>
+      <c r="O36" s="102"/>
+      <c r="P36" s="102"/>
+      <c r="Q36" s="102"/>
+      <c r="R36" s="102"/>
+      <c r="S36" s="102"/>
+      <c r="T36" s="102"/>
+      <c r="U36" s="102"/>
+      <c r="V36" s="102"/>
       <c r="W36" s="45"/>
     </row>
     <row r="37" spans="1:23" ht="12" customHeight="1">
-      <c r="A37" s="60"/>
-      <c r="B37" s="60"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="115"/>
-      <c r="F37" s="107"/>
-      <c r="G37" s="107"/>
-      <c r="H37" s="107"/>
-      <c r="I37" s="116"/>
-      <c r="J37" s="123"/>
-      <c r="K37" s="128"/>
-      <c r="L37" s="129"/>
-      <c r="M37" s="129"/>
-      <c r="N37" s="129"/>
-      <c r="O37" s="129"/>
-      <c r="P37" s="129"/>
-      <c r="Q37" s="129"/>
-      <c r="R37" s="129"/>
-      <c r="S37" s="129"/>
-      <c r="T37" s="129"/>
-      <c r="U37" s="129"/>
-      <c r="V37" s="126"/>
-      <c r="W37" s="130"/>
+      <c r="A37" s="164"/>
+      <c r="B37" s="164"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="113"/>
+      <c r="F37" s="105"/>
+      <c r="G37" s="105"/>
+      <c r="H37" s="105"/>
+      <c r="I37" s="114"/>
+      <c r="J37" s="121"/>
+      <c r="K37" s="126"/>
+      <c r="L37" s="127"/>
+      <c r="M37" s="127"/>
+      <c r="N37" s="127"/>
+      <c r="O37" s="127"/>
+      <c r="P37" s="127"/>
+      <c r="Q37" s="127"/>
+      <c r="R37" s="127"/>
+      <c r="S37" s="127"/>
+      <c r="T37" s="127"/>
+      <c r="U37" s="127"/>
+      <c r="V37" s="124"/>
+      <c r="W37" s="128"/>
     </row>
     <row r="38" spans="1:23" ht="12" customHeight="1">
-      <c r="A38" s="60"/>
-      <c r="B38" s="60"/>
-      <c r="C38" s="166"/>
-      <c r="D38" s="167"/>
-      <c r="E38" s="131"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="68"/>
-      <c r="I38" s="112"/>
-      <c r="J38" s="83"/>
-      <c r="K38" s="84"/>
-      <c r="L38" s="85"/>
-      <c r="M38" s="85"/>
-      <c r="N38" s="85"/>
-      <c r="O38" s="85"/>
-      <c r="P38" s="85"/>
-      <c r="Q38" s="85"/>
-      <c r="R38" s="85"/>
-      <c r="S38" s="85"/>
-      <c r="T38" s="85"/>
-      <c r="U38" s="85"/>
-      <c r="V38" s="85"/>
-      <c r="W38" s="86"/>
+      <c r="A38" s="164"/>
+      <c r="B38" s="164"/>
+      <c r="C38" s="169"/>
+      <c r="D38" s="170"/>
+      <c r="E38" s="129"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="110"/>
+      <c r="J38" s="81"/>
+      <c r="K38" s="82"/>
+      <c r="L38" s="83"/>
+      <c r="M38" s="83"/>
+      <c r="N38" s="83"/>
+      <c r="O38" s="83"/>
+      <c r="P38" s="83"/>
+      <c r="Q38" s="83"/>
+      <c r="R38" s="83"/>
+      <c r="S38" s="83"/>
+      <c r="T38" s="83"/>
+      <c r="U38" s="83"/>
+      <c r="V38" s="83"/>
+      <c r="W38" s="84"/>
     </row>
     <row r="39" spans="1:23" ht="12" customHeight="1">
-      <c r="A39" s="60"/>
-      <c r="B39" s="60"/>
-      <c r="C39" s="92"/>
-      <c r="D39" s="93"/>
-      <c r="E39" s="132"/>
+      <c r="A39" s="164"/>
+      <c r="B39" s="164"/>
+      <c r="C39" s="90"/>
+      <c r="D39" s="91"/>
+      <c r="E39" s="130"/>
       <c r="F39" s="41"/>
       <c r="G39" s="41"/>
       <c r="H39" s="41"/>
-      <c r="I39" s="114"/>
-      <c r="J39" s="98"/>
+      <c r="I39" s="112"/>
+      <c r="J39" s="96"/>
       <c r="K39" s="49"/>
-      <c r="L39" s="99"/>
-      <c r="M39" s="99"/>
-      <c r="N39" s="99"/>
-      <c r="O39" s="99"/>
-      <c r="P39" s="99"/>
-      <c r="Q39" s="99"/>
-      <c r="R39" s="99"/>
-      <c r="S39" s="99"/>
-      <c r="T39" s="99"/>
-      <c r="U39" s="99"/>
-      <c r="V39" s="99"/>
+      <c r="L39" s="97"/>
+      <c r="M39" s="97"/>
+      <c r="N39" s="97"/>
+      <c r="O39" s="97"/>
+      <c r="P39" s="97"/>
+      <c r="Q39" s="97"/>
+      <c r="R39" s="97"/>
+      <c r="S39" s="97"/>
+      <c r="T39" s="97"/>
+      <c r="U39" s="97"/>
+      <c r="V39" s="97"/>
       <c r="W39" s="52"/>
     </row>
     <row r="40" spans="1:23" ht="12" customHeight="1">
-      <c r="A40" s="60"/>
-      <c r="B40" s="60"/>
-      <c r="C40" s="92"/>
-      <c r="D40" s="93"/>
-      <c r="E40" s="113"/>
-      <c r="F40" s="101"/>
-      <c r="G40" s="101"/>
-      <c r="H40" s="133"/>
-      <c r="I40" s="114"/>
-      <c r="J40" s="110"/>
+      <c r="A40" s="164"/>
+      <c r="B40" s="164"/>
+      <c r="C40" s="90"/>
+      <c r="D40" s="91"/>
+      <c r="E40" s="111"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="99"/>
+      <c r="H40" s="131"/>
+      <c r="I40" s="112"/>
+      <c r="J40" s="108"/>
       <c r="K40" s="53"/>
-      <c r="L40" s="104"/>
-      <c r="M40" s="104"/>
-      <c r="N40" s="104"/>
-      <c r="O40" s="104"/>
-      <c r="P40" s="104"/>
-      <c r="Q40" s="104"/>
-      <c r="R40" s="104"/>
-      <c r="S40" s="104"/>
-      <c r="T40" s="104"/>
-      <c r="U40" s="104"/>
-      <c r="V40" s="104"/>
+      <c r="L40" s="102"/>
+      <c r="M40" s="102"/>
+      <c r="N40" s="102"/>
+      <c r="O40" s="102"/>
+      <c r="P40" s="102"/>
+      <c r="Q40" s="102"/>
+      <c r="R40" s="102"/>
+      <c r="S40" s="102"/>
+      <c r="T40" s="102"/>
+      <c r="U40" s="102"/>
+      <c r="V40" s="102"/>
       <c r="W40" s="45"/>
     </row>
     <row r="41" spans="1:23" ht="12" customHeight="1">
-      <c r="A41" s="60"/>
-      <c r="B41" s="60"/>
-      <c r="C41" s="71"/>
-      <c r="D41" s="72"/>
-      <c r="E41" s="115"/>
-      <c r="F41" s="107"/>
-      <c r="G41" s="107"/>
-      <c r="H41" s="134"/>
-      <c r="I41" s="116"/>
-      <c r="J41" s="88"/>
+      <c r="A41" s="164"/>
+      <c r="B41" s="164"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="70"/>
+      <c r="E41" s="113"/>
+      <c r="F41" s="105"/>
+      <c r="G41" s="105"/>
+      <c r="H41" s="132"/>
+      <c r="I41" s="114"/>
+      <c r="J41" s="86"/>
       <c r="K41" s="51"/>
       <c r="L41" s="50"/>
       <c r="M41" s="50"/>
@@ -3228,94 +3299,94 @@
       <c r="T41" s="50"/>
       <c r="U41" s="50"/>
       <c r="V41" s="50"/>
-      <c r="W41" s="82"/>
+      <c r="W41" s="80"/>
     </row>
     <row r="42" spans="1:23" ht="12" customHeight="1">
-      <c r="A42" s="60"/>
-      <c r="B42" s="60"/>
-      <c r="C42" s="166"/>
-      <c r="D42" s="167"/>
-      <c r="E42" s="131"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="68"/>
-      <c r="H42" s="68"/>
-      <c r="I42" s="112"/>
-      <c r="J42" s="83"/>
-      <c r="K42" s="84"/>
-      <c r="L42" s="85"/>
-      <c r="M42" s="85"/>
-      <c r="N42" s="85"/>
-      <c r="O42" s="85"/>
-      <c r="P42" s="85"/>
-      <c r="Q42" s="85"/>
-      <c r="R42" s="85"/>
-      <c r="S42" s="85"/>
-      <c r="T42" s="85"/>
-      <c r="U42" s="85"/>
-      <c r="V42" s="85"/>
-      <c r="W42" s="86"/>
+      <c r="A42" s="164"/>
+      <c r="B42" s="164"/>
+      <c r="C42" s="169"/>
+      <c r="D42" s="170"/>
+      <c r="E42" s="129"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="110"/>
+      <c r="J42" s="81"/>
+      <c r="K42" s="82"/>
+      <c r="L42" s="83"/>
+      <c r="M42" s="83"/>
+      <c r="N42" s="83"/>
+      <c r="O42" s="83"/>
+      <c r="P42" s="83"/>
+      <c r="Q42" s="83"/>
+      <c r="R42" s="83"/>
+      <c r="S42" s="83"/>
+      <c r="T42" s="83"/>
+      <c r="U42" s="83"/>
+      <c r="V42" s="83"/>
+      <c r="W42" s="84"/>
     </row>
     <row r="43" spans="1:23" ht="12" customHeight="1">
-      <c r="A43" s="60"/>
-      <c r="B43" s="60"/>
-      <c r="C43" s="92"/>
-      <c r="D43" s="93"/>
-      <c r="E43" s="132"/>
+      <c r="A43" s="164"/>
+      <c r="B43" s="164"/>
+      <c r="C43" s="90"/>
+      <c r="D43" s="91"/>
+      <c r="E43" s="130"/>
       <c r="F43" s="41"/>
       <c r="G43" s="41"/>
       <c r="H43" s="41"/>
-      <c r="I43" s="114"/>
-      <c r="J43" s="98"/>
+      <c r="I43" s="112"/>
+      <c r="J43" s="96"/>
       <c r="K43" s="49"/>
-      <c r="L43" s="99"/>
-      <c r="M43" s="99"/>
-      <c r="N43" s="99"/>
-      <c r="O43" s="99"/>
-      <c r="P43" s="99"/>
-      <c r="Q43" s="99"/>
-      <c r="R43" s="99"/>
-      <c r="S43" s="99"/>
-      <c r="T43" s="99"/>
-      <c r="U43" s="99"/>
-      <c r="V43" s="99"/>
+      <c r="L43" s="97"/>
+      <c r="M43" s="97"/>
+      <c r="N43" s="97"/>
+      <c r="O43" s="97"/>
+      <c r="P43" s="97"/>
+      <c r="Q43" s="97"/>
+      <c r="R43" s="97"/>
+      <c r="S43" s="97"/>
+      <c r="T43" s="97"/>
+      <c r="U43" s="97"/>
+      <c r="V43" s="97"/>
       <c r="W43" s="52"/>
     </row>
     <row r="44" spans="1:23" ht="12" customHeight="1">
-      <c r="A44" s="60"/>
-      <c r="B44" s="60"/>
-      <c r="C44" s="92"/>
-      <c r="D44" s="93"/>
-      <c r="E44" s="113"/>
-      <c r="F44" s="101"/>
-      <c r="G44" s="101"/>
-      <c r="H44" s="133"/>
-      <c r="I44" s="114"/>
-      <c r="J44" s="110"/>
+      <c r="A44" s="164"/>
+      <c r="B44" s="164"/>
+      <c r="C44" s="90"/>
+      <c r="D44" s="91"/>
+      <c r="E44" s="111"/>
+      <c r="F44" s="99"/>
+      <c r="G44" s="99"/>
+      <c r="H44" s="131"/>
+      <c r="I44" s="112"/>
+      <c r="J44" s="108"/>
       <c r="K44" s="53"/>
-      <c r="L44" s="104"/>
-      <c r="M44" s="104"/>
-      <c r="N44" s="104"/>
-      <c r="O44" s="104"/>
-      <c r="P44" s="104"/>
-      <c r="Q44" s="104"/>
-      <c r="R44" s="104"/>
-      <c r="S44" s="104"/>
-      <c r="T44" s="104"/>
-      <c r="U44" s="104"/>
-      <c r="V44" s="104"/>
+      <c r="L44" s="102"/>
+      <c r="M44" s="102"/>
+      <c r="N44" s="102"/>
+      <c r="O44" s="102"/>
+      <c r="P44" s="102"/>
+      <c r="Q44" s="102"/>
+      <c r="R44" s="102"/>
+      <c r="S44" s="102"/>
+      <c r="T44" s="102"/>
+      <c r="U44" s="102"/>
+      <c r="V44" s="102"/>
       <c r="W44" s="45"/>
     </row>
     <row r="45" spans="1:23" ht="12" customHeight="1">
-      <c r="A45" s="60"/>
-      <c r="B45" s="60"/>
-      <c r="C45" s="71"/>
-      <c r="D45" s="72"/>
-      <c r="E45" s="115"/>
-      <c r="F45" s="107"/>
-      <c r="G45" s="107"/>
-      <c r="H45" s="107"/>
-      <c r="I45" s="116"/>
-      <c r="J45" s="88"/>
+      <c r="A45" s="164"/>
+      <c r="B45" s="164"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="70"/>
+      <c r="E45" s="113"/>
+      <c r="F45" s="105"/>
+      <c r="G45" s="105"/>
+      <c r="H45" s="105"/>
+      <c r="I45" s="114"/>
+      <c r="J45" s="86"/>
       <c r="K45" s="51"/>
       <c r="L45" s="50"/>
       <c r="M45" s="50"/>
@@ -3328,94 +3399,94 @@
       <c r="T45" s="50"/>
       <c r="U45" s="50"/>
       <c r="V45" s="50"/>
-      <c r="W45" s="82"/>
+      <c r="W45" s="80"/>
     </row>
     <row r="46" spans="1:23" ht="12" customHeight="1">
-      <c r="A46" s="60"/>
-      <c r="B46" s="60"/>
-      <c r="C46" s="166"/>
-      <c r="D46" s="167"/>
-      <c r="E46" s="89"/>
-      <c r="F46" s="135"/>
-      <c r="G46" s="68"/>
-      <c r="H46" s="68"/>
-      <c r="I46" s="136"/>
-      <c r="J46" s="83"/>
-      <c r="K46" s="84"/>
-      <c r="L46" s="85"/>
-      <c r="M46" s="85"/>
-      <c r="N46" s="85"/>
-      <c r="O46" s="85"/>
-      <c r="P46" s="85"/>
-      <c r="Q46" s="85"/>
-      <c r="R46" s="85"/>
-      <c r="S46" s="85"/>
-      <c r="T46" s="85"/>
-      <c r="U46" s="85"/>
-      <c r="V46" s="85"/>
-      <c r="W46" s="86"/>
+      <c r="A46" s="164"/>
+      <c r="B46" s="164"/>
+      <c r="C46" s="169"/>
+      <c r="D46" s="170"/>
+      <c r="E46" s="87"/>
+      <c r="F46" s="133"/>
+      <c r="G46" s="66"/>
+      <c r="H46" s="66"/>
+      <c r="I46" s="134"/>
+      <c r="J46" s="81"/>
+      <c r="K46" s="82"/>
+      <c r="L46" s="83"/>
+      <c r="M46" s="83"/>
+      <c r="N46" s="83"/>
+      <c r="O46" s="83"/>
+      <c r="P46" s="83"/>
+      <c r="Q46" s="83"/>
+      <c r="R46" s="83"/>
+      <c r="S46" s="83"/>
+      <c r="T46" s="83"/>
+      <c r="U46" s="83"/>
+      <c r="V46" s="83"/>
+      <c r="W46" s="84"/>
     </row>
     <row r="47" spans="1:23" ht="12" customHeight="1">
-      <c r="A47" s="60"/>
-      <c r="B47" s="60"/>
-      <c r="C47" s="92"/>
-      <c r="D47" s="93"/>
-      <c r="E47" s="94"/>
-      <c r="F47" s="62"/>
+      <c r="A47" s="164"/>
+      <c r="B47" s="164"/>
+      <c r="C47" s="90"/>
+      <c r="D47" s="91"/>
+      <c r="E47" s="92"/>
+      <c r="F47" s="61"/>
       <c r="G47" s="41"/>
       <c r="H47" s="41"/>
-      <c r="I47" s="137"/>
-      <c r="J47" s="98"/>
+      <c r="I47" s="135"/>
+      <c r="J47" s="96"/>
       <c r="K47" s="49"/>
-      <c r="L47" s="99"/>
-      <c r="M47" s="99"/>
-      <c r="N47" s="99"/>
-      <c r="O47" s="99"/>
-      <c r="P47" s="99"/>
-      <c r="Q47" s="99"/>
-      <c r="R47" s="99"/>
-      <c r="S47" s="99"/>
-      <c r="T47" s="99"/>
-      <c r="U47" s="99"/>
-      <c r="V47" s="99"/>
+      <c r="L47" s="97"/>
+      <c r="M47" s="97"/>
+      <c r="N47" s="97"/>
+      <c r="O47" s="97"/>
+      <c r="P47" s="97"/>
+      <c r="Q47" s="97"/>
+      <c r="R47" s="97"/>
+      <c r="S47" s="97"/>
+      <c r="T47" s="97"/>
+      <c r="U47" s="97"/>
+      <c r="V47" s="97"/>
       <c r="W47" s="52"/>
     </row>
     <row r="48" spans="1:23" ht="12" customHeight="1">
-      <c r="A48" s="60"/>
-      <c r="B48" s="60"/>
-      <c r="C48" s="92"/>
-      <c r="D48" s="93"/>
-      <c r="E48" s="94"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="138"/>
-      <c r="H48" s="139"/>
-      <c r="I48" s="114"/>
-      <c r="J48" s="110"/>
+      <c r="A48" s="164"/>
+      <c r="B48" s="164"/>
+      <c r="C48" s="90"/>
+      <c r="D48" s="91"/>
+      <c r="E48" s="92"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="136"/>
+      <c r="H48" s="137"/>
+      <c r="I48" s="112"/>
+      <c r="J48" s="108"/>
       <c r="K48" s="53"/>
-      <c r="L48" s="104"/>
-      <c r="M48" s="104"/>
-      <c r="N48" s="104"/>
-      <c r="O48" s="104"/>
-      <c r="P48" s="104"/>
-      <c r="Q48" s="104"/>
-      <c r="R48" s="104"/>
-      <c r="S48" s="104"/>
-      <c r="T48" s="104"/>
-      <c r="U48" s="104"/>
-      <c r="V48" s="104"/>
+      <c r="L48" s="102"/>
+      <c r="M48" s="102"/>
+      <c r="N48" s="102"/>
+      <c r="O48" s="102"/>
+      <c r="P48" s="102"/>
+      <c r="Q48" s="102"/>
+      <c r="R48" s="102"/>
+      <c r="S48" s="102"/>
+      <c r="T48" s="102"/>
+      <c r="U48" s="102"/>
+      <c r="V48" s="102"/>
       <c r="W48" s="45"/>
     </row>
     <row r="49" spans="1:23" ht="12" customHeight="1">
-      <c r="A49" s="60"/>
-      <c r="B49" s="60"/>
-      <c r="C49" s="71"/>
-      <c r="D49" s="72"/>
-      <c r="E49" s="105"/>
-      <c r="F49" s="140"/>
-      <c r="G49" s="106"/>
-      <c r="H49" s="134"/>
-      <c r="I49" s="116"/>
-      <c r="J49" s="88"/>
+      <c r="A49" s="164"/>
+      <c r="B49" s="164"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="103"/>
+      <c r="F49" s="138"/>
+      <c r="G49" s="104"/>
+      <c r="H49" s="132"/>
+      <c r="I49" s="114"/>
+      <c r="J49" s="86"/>
       <c r="K49" s="51"/>
       <c r="L49" s="50"/>
       <c r="M49" s="50"/>
@@ -3428,351 +3499,351 @@
       <c r="T49" s="50"/>
       <c r="U49" s="50"/>
       <c r="V49" s="50"/>
-      <c r="W49" s="82"/>
+      <c r="W49" s="80"/>
     </row>
     <row r="50" spans="1:23" ht="12" customHeight="1">
-      <c r="A50" s="60"/>
-      <c r="B50" s="60"/>
-      <c r="C50" s="166"/>
-      <c r="D50" s="167"/>
-      <c r="E50" s="89"/>
-      <c r="F50" s="135"/>
-      <c r="G50" s="68"/>
-      <c r="H50" s="68"/>
-      <c r="I50" s="136"/>
-      <c r="J50" s="83"/>
-      <c r="K50" s="84"/>
-      <c r="L50" s="85"/>
-      <c r="M50" s="85"/>
-      <c r="N50" s="85"/>
-      <c r="O50" s="85"/>
-      <c r="P50" s="85"/>
-      <c r="Q50" s="85"/>
-      <c r="R50" s="85"/>
-      <c r="S50" s="85"/>
-      <c r="T50" s="85"/>
-      <c r="U50" s="85"/>
-      <c r="V50" s="85"/>
-      <c r="W50" s="86"/>
+      <c r="A50" s="164"/>
+      <c r="B50" s="164"/>
+      <c r="C50" s="169"/>
+      <c r="D50" s="170"/>
+      <c r="E50" s="87"/>
+      <c r="F50" s="133"/>
+      <c r="G50" s="66"/>
+      <c r="H50" s="66"/>
+      <c r="I50" s="134"/>
+      <c r="J50" s="81"/>
+      <c r="K50" s="82"/>
+      <c r="L50" s="83"/>
+      <c r="M50" s="83"/>
+      <c r="N50" s="83"/>
+      <c r="O50" s="83"/>
+      <c r="P50" s="83"/>
+      <c r="Q50" s="83"/>
+      <c r="R50" s="83"/>
+      <c r="S50" s="83"/>
+      <c r="T50" s="83"/>
+      <c r="U50" s="83"/>
+      <c r="V50" s="83"/>
+      <c r="W50" s="84"/>
     </row>
     <row r="51" spans="1:23" ht="12" customHeight="1">
-      <c r="A51" s="60"/>
-      <c r="B51" s="60"/>
-      <c r="C51" s="92"/>
-      <c r="D51" s="93"/>
-      <c r="E51" s="94"/>
-      <c r="F51" s="62"/>
+      <c r="A51" s="164"/>
+      <c r="B51" s="164"/>
+      <c r="C51" s="90"/>
+      <c r="D51" s="91"/>
+      <c r="E51" s="92"/>
+      <c r="F51" s="61"/>
       <c r="G51" s="41"/>
       <c r="H51" s="41"/>
-      <c r="I51" s="137"/>
-      <c r="J51" s="98"/>
+      <c r="I51" s="135"/>
+      <c r="J51" s="96"/>
       <c r="K51" s="49"/>
-      <c r="L51" s="99"/>
-      <c r="M51" s="99"/>
-      <c r="N51" s="99"/>
-      <c r="O51" s="99"/>
-      <c r="P51" s="99"/>
-      <c r="Q51" s="99"/>
-      <c r="R51" s="99"/>
-      <c r="S51" s="99"/>
-      <c r="T51" s="99"/>
-      <c r="U51" s="99"/>
-      <c r="V51" s="99"/>
+      <c r="L51" s="97"/>
+      <c r="M51" s="97"/>
+      <c r="N51" s="97"/>
+      <c r="O51" s="97"/>
+      <c r="P51" s="97"/>
+      <c r="Q51" s="97"/>
+      <c r="R51" s="97"/>
+      <c r="S51" s="97"/>
+      <c r="T51" s="97"/>
+      <c r="U51" s="97"/>
+      <c r="V51" s="97"/>
       <c r="W51" s="52"/>
     </row>
     <row r="52" spans="1:23" ht="12" customHeight="1">
-      <c r="A52" s="60"/>
-      <c r="B52" s="60"/>
-      <c r="C52" s="92"/>
-      <c r="D52" s="93"/>
-      <c r="E52" s="94"/>
-      <c r="F52" s="62"/>
-      <c r="G52" s="138"/>
-      <c r="H52" s="139"/>
-      <c r="I52" s="114"/>
-      <c r="J52" s="110"/>
+      <c r="A52" s="164"/>
+      <c r="B52" s="164"/>
+      <c r="C52" s="90"/>
+      <c r="D52" s="91"/>
+      <c r="E52" s="92"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="136"/>
+      <c r="H52" s="137"/>
+      <c r="I52" s="112"/>
+      <c r="J52" s="108"/>
       <c r="K52" s="53"/>
-      <c r="L52" s="104"/>
-      <c r="M52" s="104"/>
-      <c r="N52" s="104"/>
-      <c r="O52" s="104"/>
-      <c r="P52" s="104"/>
-      <c r="Q52" s="104"/>
-      <c r="R52" s="104"/>
-      <c r="S52" s="104"/>
-      <c r="T52" s="104"/>
-      <c r="U52" s="104"/>
-      <c r="V52" s="104"/>
+      <c r="L52" s="102"/>
+      <c r="M52" s="102"/>
+      <c r="N52" s="102"/>
+      <c r="O52" s="102"/>
+      <c r="P52" s="102"/>
+      <c r="Q52" s="102"/>
+      <c r="R52" s="102"/>
+      <c r="S52" s="102"/>
+      <c r="T52" s="102"/>
+      <c r="U52" s="102"/>
+      <c r="V52" s="102"/>
       <c r="W52" s="45"/>
     </row>
     <row r="53" spans="1:23" ht="12" customHeight="1">
-      <c r="A53" s="60"/>
-      <c r="B53" s="60"/>
-      <c r="C53" s="71"/>
-      <c r="D53" s="72"/>
-      <c r="E53" s="105"/>
-      <c r="F53" s="140"/>
-      <c r="G53" s="106"/>
-      <c r="H53" s="134"/>
-      <c r="I53" s="116"/>
-      <c r="J53" s="78"/>
-      <c r="K53" s="141"/>
-      <c r="L53" s="142"/>
-      <c r="M53" s="142"/>
-      <c r="N53" s="142"/>
-      <c r="O53" s="142"/>
-      <c r="P53" s="142"/>
-      <c r="Q53" s="142"/>
-      <c r="R53" s="142"/>
-      <c r="S53" s="142"/>
-      <c r="T53" s="142"/>
-      <c r="U53" s="142"/>
-      <c r="V53" s="142"/>
-      <c r="W53" s="143"/>
+      <c r="A53" s="164"/>
+      <c r="B53" s="164"/>
+      <c r="C53" s="69"/>
+      <c r="D53" s="70"/>
+      <c r="E53" s="103"/>
+      <c r="F53" s="138"/>
+      <c r="G53" s="104"/>
+      <c r="H53" s="132"/>
+      <c r="I53" s="114"/>
+      <c r="J53" s="76"/>
+      <c r="K53" s="139"/>
+      <c r="L53" s="140"/>
+      <c r="M53" s="140"/>
+      <c r="N53" s="140"/>
+      <c r="O53" s="140"/>
+      <c r="P53" s="140"/>
+      <c r="Q53" s="140"/>
+      <c r="R53" s="140"/>
+      <c r="S53" s="140"/>
+      <c r="T53" s="140"/>
+      <c r="U53" s="140"/>
+      <c r="V53" s="140"/>
+      <c r="W53" s="141"/>
     </row>
     <row r="55" spans="1:23" ht="12" customHeight="1">
-      <c r="C55" s="145"/>
-      <c r="D55" s="178"/>
-      <c r="E55" s="178"/>
-      <c r="F55" s="178"/>
-      <c r="G55" s="178"/>
-      <c r="H55" s="178"/>
-      <c r="I55" s="178"/>
-      <c r="J55" s="178"/>
-      <c r="K55" s="179"/>
-      <c r="L55" s="179"/>
-      <c r="M55" s="179"/>
-      <c r="N55" s="179"/>
-      <c r="O55" s="179"/>
-      <c r="P55" s="179"/>
-      <c r="Q55" s="179"/>
-      <c r="R55" s="179"/>
-      <c r="S55" s="179"/>
-      <c r="T55" s="179"/>
-      <c r="U55" s="179"/>
-      <c r="V55" s="179"/>
-      <c r="W55" s="179"/>
+      <c r="C55" s="143"/>
+      <c r="D55" s="165"/>
+      <c r="E55" s="165"/>
+      <c r="F55" s="165"/>
+      <c r="G55" s="165"/>
+      <c r="H55" s="165"/>
+      <c r="I55" s="165"/>
+      <c r="J55" s="165"/>
+      <c r="K55" s="166"/>
+      <c r="L55" s="166"/>
+      <c r="M55" s="166"/>
+      <c r="N55" s="166"/>
+      <c r="O55" s="166"/>
+      <c r="P55" s="166"/>
+      <c r="Q55" s="166"/>
+      <c r="R55" s="166"/>
+      <c r="S55" s="166"/>
+      <c r="T55" s="166"/>
+      <c r="U55" s="166"/>
+      <c r="V55" s="166"/>
+      <c r="W55" s="166"/>
     </row>
     <row r="56" spans="1:23" ht="12" customHeight="1">
-      <c r="C56" s="149"/>
-      <c r="D56" s="146"/>
-      <c r="E56" s="146"/>
-      <c r="F56" s="146"/>
-      <c r="G56" s="146"/>
-      <c r="H56" s="146"/>
-      <c r="I56" s="146"/>
-      <c r="J56" s="146"/>
-      <c r="K56" s="147"/>
-      <c r="L56" s="147"/>
-      <c r="M56" s="147"/>
-      <c r="N56" s="147"/>
-      <c r="O56" s="147"/>
-      <c r="P56" s="147"/>
-      <c r="Q56" s="147"/>
-      <c r="R56" s="147"/>
-      <c r="S56" s="147"/>
-      <c r="T56" s="147"/>
-      <c r="U56" s="147"/>
-      <c r="V56" s="147"/>
-      <c r="W56" s="148"/>
+      <c r="C56" s="147"/>
+      <c r="D56" s="144"/>
+      <c r="E56" s="144"/>
+      <c r="F56" s="144"/>
+      <c r="G56" s="144"/>
+      <c r="H56" s="144"/>
+      <c r="I56" s="144"/>
+      <c r="J56" s="144"/>
+      <c r="K56" s="145"/>
+      <c r="L56" s="145"/>
+      <c r="M56" s="145"/>
+      <c r="N56" s="145"/>
+      <c r="O56" s="145"/>
+      <c r="P56" s="145"/>
+      <c r="Q56" s="145"/>
+      <c r="R56" s="145"/>
+      <c r="S56" s="145"/>
+      <c r="T56" s="145"/>
+      <c r="U56" s="145"/>
+      <c r="V56" s="145"/>
+      <c r="W56" s="146"/>
     </row>
     <row r="57" spans="1:23" ht="12" customHeight="1">
-      <c r="C57" s="149"/>
-      <c r="D57" s="146"/>
-      <c r="E57" s="146"/>
-      <c r="F57" s="146"/>
-      <c r="G57" s="146"/>
-      <c r="H57" s="146"/>
-      <c r="I57" s="146"/>
-      <c r="J57" s="146"/>
-      <c r="K57" s="147"/>
-      <c r="L57" s="147"/>
-      <c r="M57" s="147"/>
-      <c r="N57" s="147"/>
-      <c r="O57" s="147"/>
-      <c r="P57" s="147"/>
-      <c r="Q57" s="147"/>
-      <c r="R57" s="147"/>
-      <c r="S57" s="147"/>
-      <c r="T57" s="147"/>
-      <c r="U57" s="147"/>
-      <c r="V57" s="147"/>
-      <c r="W57" s="148"/>
+      <c r="C57" s="147"/>
+      <c r="D57" s="144"/>
+      <c r="E57" s="144"/>
+      <c r="F57" s="144"/>
+      <c r="G57" s="144"/>
+      <c r="H57" s="144"/>
+      <c r="I57" s="144"/>
+      <c r="J57" s="144"/>
+      <c r="K57" s="145"/>
+      <c r="L57" s="145"/>
+      <c r="M57" s="145"/>
+      <c r="N57" s="145"/>
+      <c r="O57" s="145"/>
+      <c r="P57" s="145"/>
+      <c r="Q57" s="145"/>
+      <c r="R57" s="145"/>
+      <c r="S57" s="145"/>
+      <c r="T57" s="145"/>
+      <c r="U57" s="145"/>
+      <c r="V57" s="145"/>
+      <c r="W57" s="146"/>
     </row>
     <row r="58" spans="1:23" ht="12" customHeight="1">
-      <c r="C58" s="149"/>
-      <c r="D58" s="146"/>
-      <c r="E58" s="146"/>
-      <c r="F58" s="146"/>
-      <c r="G58" s="146"/>
-      <c r="H58" s="146"/>
-      <c r="I58" s="146"/>
-      <c r="J58" s="146"/>
-      <c r="K58" s="147"/>
-      <c r="L58" s="147"/>
-      <c r="M58" s="147"/>
-      <c r="N58" s="147"/>
-      <c r="O58" s="147"/>
-      <c r="P58" s="147"/>
-      <c r="Q58" s="147"/>
-      <c r="R58" s="147"/>
-      <c r="S58" s="147"/>
-      <c r="T58" s="147"/>
-      <c r="U58" s="147"/>
-      <c r="V58" s="147"/>
-      <c r="W58" s="148"/>
+      <c r="C58" s="147"/>
+      <c r="D58" s="144"/>
+      <c r="E58" s="144"/>
+      <c r="F58" s="144"/>
+      <c r="G58" s="144"/>
+      <c r="H58" s="144"/>
+      <c r="I58" s="144"/>
+      <c r="J58" s="144"/>
+      <c r="K58" s="145"/>
+      <c r="L58" s="145"/>
+      <c r="M58" s="145"/>
+      <c r="N58" s="145"/>
+      <c r="O58" s="145"/>
+      <c r="P58" s="145"/>
+      <c r="Q58" s="145"/>
+      <c r="R58" s="145"/>
+      <c r="S58" s="145"/>
+      <c r="T58" s="145"/>
+      <c r="U58" s="145"/>
+      <c r="V58" s="145"/>
+      <c r="W58" s="146"/>
     </row>
     <row r="59" spans="1:23" ht="12" customHeight="1">
-      <c r="C59" s="149"/>
-      <c r="D59" s="146"/>
-      <c r="E59" s="146"/>
-      <c r="F59" s="146"/>
-      <c r="G59" s="146"/>
-      <c r="H59" s="146"/>
-      <c r="I59" s="146"/>
-      <c r="J59" s="146"/>
-      <c r="K59" s="147"/>
-      <c r="L59" s="147"/>
-      <c r="M59" s="147"/>
-      <c r="N59" s="147"/>
-      <c r="O59" s="147"/>
-      <c r="P59" s="147"/>
-      <c r="Q59" s="147"/>
-      <c r="R59" s="147"/>
-      <c r="S59" s="147"/>
-      <c r="T59" s="147"/>
-      <c r="U59" s="147"/>
-      <c r="V59" s="147"/>
-      <c r="W59" s="148"/>
+      <c r="C59" s="147"/>
+      <c r="D59" s="144"/>
+      <c r="E59" s="144"/>
+      <c r="F59" s="144"/>
+      <c r="G59" s="144"/>
+      <c r="H59" s="144"/>
+      <c r="I59" s="144"/>
+      <c r="J59" s="144"/>
+      <c r="K59" s="145"/>
+      <c r="L59" s="145"/>
+      <c r="M59" s="145"/>
+      <c r="N59" s="145"/>
+      <c r="O59" s="145"/>
+      <c r="P59" s="145"/>
+      <c r="Q59" s="145"/>
+      <c r="R59" s="145"/>
+      <c r="S59" s="145"/>
+      <c r="T59" s="145"/>
+      <c r="U59" s="145"/>
+      <c r="V59" s="145"/>
+      <c r="W59" s="146"/>
     </row>
     <row r="60" spans="1:23" ht="12" customHeight="1">
-      <c r="C60" s="149"/>
-      <c r="D60" s="146"/>
-      <c r="E60" s="146"/>
-      <c r="F60" s="146"/>
-      <c r="G60" s="146"/>
-      <c r="H60" s="146"/>
-      <c r="I60" s="146"/>
-      <c r="J60" s="146"/>
-      <c r="K60" s="147"/>
-      <c r="L60" s="147"/>
-      <c r="M60" s="147"/>
-      <c r="N60" s="147"/>
-      <c r="O60" s="147"/>
-      <c r="P60" s="147"/>
-      <c r="Q60" s="147"/>
-      <c r="R60" s="147"/>
-      <c r="S60" s="147"/>
-      <c r="T60" s="147"/>
-      <c r="U60" s="147"/>
-      <c r="V60" s="147"/>
-      <c r="W60" s="148"/>
+      <c r="C60" s="147"/>
+      <c r="D60" s="144"/>
+      <c r="E60" s="144"/>
+      <c r="F60" s="144"/>
+      <c r="G60" s="144"/>
+      <c r="H60" s="144"/>
+      <c r="I60" s="144"/>
+      <c r="J60" s="144"/>
+      <c r="K60" s="145"/>
+      <c r="L60" s="145"/>
+      <c r="M60" s="145"/>
+      <c r="N60" s="145"/>
+      <c r="O60" s="145"/>
+      <c r="P60" s="145"/>
+      <c r="Q60" s="145"/>
+      <c r="R60" s="145"/>
+      <c r="S60" s="145"/>
+      <c r="T60" s="145"/>
+      <c r="U60" s="145"/>
+      <c r="V60" s="145"/>
+      <c r="W60" s="146"/>
     </row>
     <row r="61" spans="1:23" ht="12" customHeight="1">
-      <c r="C61" s="149"/>
-      <c r="D61" s="146"/>
-      <c r="E61" s="146"/>
-      <c r="F61" s="146"/>
-      <c r="G61" s="146"/>
-      <c r="H61" s="146"/>
-      <c r="I61" s="146"/>
-      <c r="J61" s="146"/>
-      <c r="K61" s="147"/>
-      <c r="L61" s="147"/>
-      <c r="M61" s="147"/>
-      <c r="N61" s="147"/>
-      <c r="O61" s="147"/>
-      <c r="P61" s="147"/>
-      <c r="Q61" s="147"/>
-      <c r="R61" s="147"/>
-      <c r="S61" s="147"/>
-      <c r="T61" s="147"/>
-      <c r="U61" s="147"/>
-      <c r="V61" s="147"/>
-      <c r="W61" s="148"/>
+      <c r="C61" s="147"/>
+      <c r="D61" s="144"/>
+      <c r="E61" s="144"/>
+      <c r="F61" s="144"/>
+      <c r="G61" s="144"/>
+      <c r="H61" s="144"/>
+      <c r="I61" s="144"/>
+      <c r="J61" s="144"/>
+      <c r="K61" s="145"/>
+      <c r="L61" s="145"/>
+      <c r="M61" s="145"/>
+      <c r="N61" s="145"/>
+      <c r="O61" s="145"/>
+      <c r="P61" s="145"/>
+      <c r="Q61" s="145"/>
+      <c r="R61" s="145"/>
+      <c r="S61" s="145"/>
+      <c r="T61" s="145"/>
+      <c r="U61" s="145"/>
+      <c r="V61" s="145"/>
+      <c r="W61" s="146"/>
     </row>
     <row r="64" spans="1:23" ht="12" customHeight="1">
-      <c r="C64" s="166"/>
-      <c r="D64" s="167"/>
-      <c r="E64" s="64"/>
-      <c r="F64" s="65"/>
-      <c r="G64" s="65"/>
-      <c r="H64" s="65"/>
+      <c r="C64" s="169"/>
+      <c r="D64" s="170"/>
+      <c r="E64" s="63"/>
+      <c r="F64" s="64"/>
+      <c r="G64" s="64"/>
+      <c r="H64" s="64"/>
       <c r="I64" s="21"/>
-      <c r="J64" s="150"/>
-      <c r="K64" s="151"/>
-      <c r="L64" s="69"/>
-      <c r="M64" s="69"/>
-      <c r="N64" s="69"/>
-      <c r="O64" s="69"/>
-      <c r="P64" s="69"/>
-      <c r="Q64" s="69"/>
-      <c r="R64" s="69"/>
-      <c r="S64" s="69"/>
-      <c r="T64" s="69"/>
-      <c r="U64" s="69"/>
-      <c r="V64" s="69"/>
-      <c r="W64" s="152"/>
+      <c r="J64" s="148"/>
+      <c r="K64" s="149"/>
+      <c r="L64" s="67"/>
+      <c r="M64" s="67"/>
+      <c r="N64" s="67"/>
+      <c r="O64" s="67"/>
+      <c r="P64" s="67"/>
+      <c r="Q64" s="67"/>
+      <c r="R64" s="67"/>
+      <c r="S64" s="67"/>
+      <c r="T64" s="67"/>
+      <c r="U64" s="67"/>
+      <c r="V64" s="67"/>
+      <c r="W64" s="150"/>
     </row>
     <row r="65" spans="1:23" ht="12" customHeight="1">
-      <c r="C65" s="71"/>
-      <c r="D65" s="72"/>
-      <c r="E65" s="73"/>
-      <c r="F65" s="74"/>
-      <c r="G65" s="74"/>
-      <c r="H65" s="74"/>
-      <c r="I65" s="87"/>
-      <c r="J65" s="75"/>
-      <c r="K65" s="153"/>
-      <c r="L65" s="154"/>
-      <c r="M65" s="154"/>
-      <c r="N65" s="154"/>
-      <c r="O65" s="154"/>
-      <c r="P65" s="154"/>
-      <c r="Q65" s="154"/>
-      <c r="R65" s="154"/>
-      <c r="S65" s="154"/>
-      <c r="T65" s="154"/>
-      <c r="U65" s="154"/>
-      <c r="V65" s="154"/>
+      <c r="C65" s="69"/>
+      <c r="D65" s="70"/>
+      <c r="E65" s="71"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="72"/>
+      <c r="H65" s="72"/>
+      <c r="I65" s="85"/>
+      <c r="J65" s="73"/>
+      <c r="K65" s="151"/>
+      <c r="L65" s="152"/>
+      <c r="M65" s="152"/>
+      <c r="N65" s="152"/>
+      <c r="O65" s="152"/>
+      <c r="P65" s="152"/>
+      <c r="Q65" s="152"/>
+      <c r="R65" s="152"/>
+      <c r="S65" s="152"/>
+      <c r="T65" s="152"/>
+      <c r="U65" s="152"/>
+      <c r="V65" s="152"/>
       <c r="W65" s="45"/>
     </row>
     <row r="66" spans="1:23" ht="12" customHeight="1">
-      <c r="A66" s="60"/>
-      <c r="B66" s="60"/>
-      <c r="C66" s="166"/>
-      <c r="D66" s="167"/>
-      <c r="E66" s="89"/>
-      <c r="F66" s="90"/>
-      <c r="G66" s="90"/>
-      <c r="H66" s="90"/>
-      <c r="I66" s="91"/>
-      <c r="J66" s="150"/>
-      <c r="K66" s="151"/>
-      <c r="L66" s="69"/>
-      <c r="M66" s="69"/>
-      <c r="N66" s="69"/>
-      <c r="O66" s="69"/>
-      <c r="P66" s="69"/>
-      <c r="Q66" s="69"/>
-      <c r="R66" s="69"/>
-      <c r="S66" s="69"/>
-      <c r="T66" s="69"/>
-      <c r="U66" s="69"/>
-      <c r="V66" s="69"/>
-      <c r="W66" s="152"/>
+      <c r="A66" s="164"/>
+      <c r="B66" s="164"/>
+      <c r="C66" s="169"/>
+      <c r="D66" s="170"/>
+      <c r="E66" s="87"/>
+      <c r="F66" s="88"/>
+      <c r="G66" s="88"/>
+      <c r="H66" s="88"/>
+      <c r="I66" s="89"/>
+      <c r="J66" s="148"/>
+      <c r="K66" s="149"/>
+      <c r="L66" s="67"/>
+      <c r="M66" s="67"/>
+      <c r="N66" s="67"/>
+      <c r="O66" s="67"/>
+      <c r="P66" s="67"/>
+      <c r="Q66" s="67"/>
+      <c r="R66" s="67"/>
+      <c r="S66" s="67"/>
+      <c r="T66" s="67"/>
+      <c r="U66" s="67"/>
+      <c r="V66" s="67"/>
+      <c r="W66" s="150"/>
     </row>
     <row r="67" spans="1:23" ht="12" customHeight="1">
-      <c r="A67" s="60"/>
-      <c r="B67" s="60"/>
-      <c r="C67" s="92"/>
-      <c r="D67" s="93"/>
-      <c r="E67" s="94"/>
-      <c r="F67" s="95"/>
-      <c r="G67" s="96"/>
-      <c r="H67" s="96"/>
-      <c r="I67" s="97"/>
-      <c r="J67" s="103"/>
+      <c r="A67" s="164"/>
+      <c r="B67" s="164"/>
+      <c r="C67" s="90"/>
+      <c r="D67" s="91"/>
+      <c r="E67" s="92"/>
+      <c r="F67" s="93"/>
+      <c r="G67" s="94"/>
+      <c r="H67" s="94"/>
+      <c r="I67" s="95"/>
+      <c r="J67" s="101"/>
       <c r="K67" s="42"/>
       <c r="L67" s="43"/>
       <c r="M67" s="43"/>
@@ -3788,16 +3859,16 @@
       <c r="W67" s="45"/>
     </row>
     <row r="68" spans="1:23" ht="12" customHeight="1">
-      <c r="A68" s="60"/>
-      <c r="B68" s="60"/>
-      <c r="C68" s="92"/>
-      <c r="D68" s="93"/>
-      <c r="E68" s="94"/>
-      <c r="F68" s="100"/>
-      <c r="G68" s="101"/>
-      <c r="H68" s="101"/>
-      <c r="I68" s="102"/>
-      <c r="J68" s="88"/>
+      <c r="A68" s="164"/>
+      <c r="B68" s="164"/>
+      <c r="C68" s="90"/>
+      <c r="D68" s="91"/>
+      <c r="E68" s="92"/>
+      <c r="F68" s="98"/>
+      <c r="G68" s="99"/>
+      <c r="H68" s="99"/>
+      <c r="I68" s="100"/>
+      <c r="J68" s="86"/>
       <c r="K68" s="51"/>
       <c r="L68" s="50"/>
       <c r="M68" s="50"/>
@@ -3809,70 +3880,70 @@
       <c r="S68" s="50"/>
       <c r="T68" s="50"/>
       <c r="U68" s="50"/>
-      <c r="V68" s="155"/>
-      <c r="W68" s="82"/>
+      <c r="V68" s="153"/>
+      <c r="W68" s="80"/>
     </row>
     <row r="69" spans="1:23" ht="12" customHeight="1">
-      <c r="A69" s="60"/>
-      <c r="B69" s="60"/>
-      <c r="C69" s="71"/>
-      <c r="D69" s="72"/>
-      <c r="E69" s="105"/>
-      <c r="F69" s="106"/>
-      <c r="G69" s="107"/>
-      <c r="H69" s="107"/>
-      <c r="I69" s="108"/>
-      <c r="J69" s="75"/>
-      <c r="K69" s="153"/>
-      <c r="L69" s="154"/>
-      <c r="M69" s="154"/>
-      <c r="N69" s="154"/>
-      <c r="O69" s="154"/>
-      <c r="P69" s="154"/>
-      <c r="Q69" s="154"/>
-      <c r="R69" s="154"/>
-      <c r="S69" s="154"/>
-      <c r="T69" s="154"/>
-      <c r="U69" s="154"/>
-      <c r="V69" s="154"/>
+      <c r="A69" s="164"/>
+      <c r="B69" s="164"/>
+      <c r="C69" s="69"/>
+      <c r="D69" s="70"/>
+      <c r="E69" s="103"/>
+      <c r="F69" s="104"/>
+      <c r="G69" s="105"/>
+      <c r="H69" s="105"/>
+      <c r="I69" s="106"/>
+      <c r="J69" s="73"/>
+      <c r="K69" s="151"/>
+      <c r="L69" s="152"/>
+      <c r="M69" s="152"/>
+      <c r="N69" s="152"/>
+      <c r="O69" s="152"/>
+      <c r="P69" s="152"/>
+      <c r="Q69" s="152"/>
+      <c r="R69" s="152"/>
+      <c r="S69" s="152"/>
+      <c r="T69" s="152"/>
+      <c r="U69" s="152"/>
+      <c r="V69" s="152"/>
       <c r="W69" s="45"/>
     </row>
     <row r="70" spans="1:23" ht="12" customHeight="1">
-      <c r="A70" s="60"/>
-      <c r="B70" s="60"/>
-      <c r="C70" s="166"/>
-      <c r="D70" s="167"/>
-      <c r="E70" s="89"/>
-      <c r="F70" s="90"/>
-      <c r="G70" s="90"/>
-      <c r="H70" s="90"/>
-      <c r="I70" s="109"/>
-      <c r="J70" s="150"/>
-      <c r="K70" s="151"/>
-      <c r="L70" s="69"/>
-      <c r="M70" s="69"/>
-      <c r="N70" s="69"/>
-      <c r="O70" s="69"/>
-      <c r="P70" s="69"/>
-      <c r="Q70" s="69"/>
-      <c r="R70" s="69"/>
-      <c r="S70" s="69"/>
-      <c r="T70" s="69"/>
-      <c r="U70" s="69"/>
-      <c r="V70" s="156"/>
-      <c r="W70" s="152"/>
+      <c r="A70" s="164"/>
+      <c r="B70" s="164"/>
+      <c r="C70" s="169"/>
+      <c r="D70" s="170"/>
+      <c r="E70" s="87"/>
+      <c r="F70" s="88"/>
+      <c r="G70" s="88"/>
+      <c r="H70" s="88"/>
+      <c r="I70" s="107"/>
+      <c r="J70" s="148"/>
+      <c r="K70" s="149"/>
+      <c r="L70" s="67"/>
+      <c r="M70" s="67"/>
+      <c r="N70" s="67"/>
+      <c r="O70" s="67"/>
+      <c r="P70" s="67"/>
+      <c r="Q70" s="67"/>
+      <c r="R70" s="67"/>
+      <c r="S70" s="67"/>
+      <c r="T70" s="67"/>
+      <c r="U70" s="67"/>
+      <c r="V70" s="154"/>
+      <c r="W70" s="150"/>
     </row>
     <row r="71" spans="1:23" ht="12" customHeight="1">
-      <c r="A71" s="60"/>
-      <c r="B71" s="60"/>
-      <c r="C71" s="92"/>
-      <c r="D71" s="93"/>
-      <c r="E71" s="94"/>
-      <c r="F71" s="100"/>
-      <c r="G71" s="101"/>
-      <c r="H71" s="101"/>
-      <c r="I71" s="102"/>
-      <c r="J71" s="103"/>
+      <c r="A71" s="164"/>
+      <c r="B71" s="164"/>
+      <c r="C71" s="90"/>
+      <c r="D71" s="91"/>
+      <c r="E71" s="92"/>
+      <c r="F71" s="98"/>
+      <c r="G71" s="99"/>
+      <c r="H71" s="99"/>
+      <c r="I71" s="100"/>
+      <c r="J71" s="101"/>
       <c r="K71" s="42"/>
       <c r="L71" s="43"/>
       <c r="M71" s="43"/>
@@ -3885,19 +3956,19 @@
       <c r="T71" s="43"/>
       <c r="U71" s="43"/>
       <c r="V71" s="43"/>
-      <c r="W71" s="157"/>
+      <c r="W71" s="155"/>
     </row>
     <row r="72" spans="1:23" ht="12" customHeight="1">
-      <c r="A72" s="60"/>
-      <c r="B72" s="60"/>
-      <c r="C72" s="92"/>
-      <c r="D72" s="93"/>
-      <c r="E72" s="94"/>
-      <c r="F72" s="100"/>
-      <c r="G72" s="101"/>
-      <c r="H72" s="101"/>
-      <c r="I72" s="102"/>
-      <c r="J72" s="88"/>
+      <c r="A72" s="164"/>
+      <c r="B72" s="164"/>
+      <c r="C72" s="90"/>
+      <c r="D72" s="91"/>
+      <c r="E72" s="92"/>
+      <c r="F72" s="98"/>
+      <c r="G72" s="99"/>
+      <c r="H72" s="99"/>
+      <c r="I72" s="100"/>
+      <c r="J72" s="86"/>
       <c r="K72" s="51"/>
       <c r="L72" s="50"/>
       <c r="M72" s="50"/>
@@ -3910,69 +3981,69 @@
       <c r="T72" s="50"/>
       <c r="U72" s="50"/>
       <c r="V72" s="50"/>
-      <c r="W72" s="82"/>
+      <c r="W72" s="80"/>
     </row>
     <row r="73" spans="1:23" ht="12" customHeight="1">
-      <c r="A73" s="60"/>
-      <c r="B73" s="60"/>
-      <c r="C73" s="71"/>
-      <c r="D73" s="72"/>
-      <c r="E73" s="105"/>
-      <c r="F73" s="106"/>
-      <c r="G73" s="107"/>
-      <c r="H73" s="107"/>
-      <c r="I73" s="108"/>
-      <c r="J73" s="75"/>
-      <c r="K73" s="153"/>
-      <c r="L73" s="154"/>
-      <c r="M73" s="154"/>
-      <c r="N73" s="154"/>
-      <c r="O73" s="154"/>
-      <c r="P73" s="154"/>
-      <c r="Q73" s="154"/>
-      <c r="R73" s="154"/>
-      <c r="S73" s="154"/>
-      <c r="T73" s="154"/>
-      <c r="U73" s="154"/>
-      <c r="V73" s="154"/>
+      <c r="A73" s="164"/>
+      <c r="B73" s="164"/>
+      <c r="C73" s="69"/>
+      <c r="D73" s="70"/>
+      <c r="E73" s="103"/>
+      <c r="F73" s="104"/>
+      <c r="G73" s="105"/>
+      <c r="H73" s="105"/>
+      <c r="I73" s="106"/>
+      <c r="J73" s="73"/>
+      <c r="K73" s="151"/>
+      <c r="L73" s="152"/>
+      <c r="M73" s="152"/>
+      <c r="N73" s="152"/>
+      <c r="O73" s="152"/>
+      <c r="P73" s="152"/>
+      <c r="Q73" s="152"/>
+      <c r="R73" s="152"/>
+      <c r="S73" s="152"/>
+      <c r="T73" s="152"/>
+      <c r="U73" s="152"/>
+      <c r="V73" s="152"/>
       <c r="W73" s="45"/>
     </row>
     <row r="74" spans="1:23" ht="12" customHeight="1">
-      <c r="A74" s="60"/>
-      <c r="B74" s="60"/>
-      <c r="C74" s="166"/>
-      <c r="D74" s="167"/>
-      <c r="E74" s="111"/>
-      <c r="F74" s="90"/>
-      <c r="G74" s="90"/>
-      <c r="H74" s="90"/>
-      <c r="I74" s="112"/>
-      <c r="J74" s="150"/>
-      <c r="K74" s="151"/>
-      <c r="L74" s="69"/>
-      <c r="M74" s="69"/>
-      <c r="N74" s="69"/>
-      <c r="O74" s="69"/>
-      <c r="P74" s="69"/>
-      <c r="Q74" s="69"/>
-      <c r="R74" s="69"/>
-      <c r="S74" s="69"/>
-      <c r="T74" s="69"/>
-      <c r="U74" s="69"/>
-      <c r="V74" s="69"/>
-      <c r="W74" s="152"/>
+      <c r="A74" s="164"/>
+      <c r="B74" s="164"/>
+      <c r="C74" s="169"/>
+      <c r="D74" s="170"/>
+      <c r="E74" s="109"/>
+      <c r="F74" s="88"/>
+      <c r="G74" s="88"/>
+      <c r="H74" s="88"/>
+      <c r="I74" s="110"/>
+      <c r="J74" s="148"/>
+      <c r="K74" s="149"/>
+      <c r="L74" s="67"/>
+      <c r="M74" s="67"/>
+      <c r="N74" s="67"/>
+      <c r="O74" s="67"/>
+      <c r="P74" s="67"/>
+      <c r="Q74" s="67"/>
+      <c r="R74" s="67"/>
+      <c r="S74" s="67"/>
+      <c r="T74" s="67"/>
+      <c r="U74" s="67"/>
+      <c r="V74" s="67"/>
+      <c r="W74" s="150"/>
     </row>
     <row r="75" spans="1:23" ht="12" customHeight="1">
-      <c r="A75" s="60"/>
-      <c r="B75" s="60"/>
-      <c r="C75" s="92"/>
-      <c r="D75" s="93"/>
-      <c r="E75" s="113"/>
-      <c r="F75" s="101"/>
-      <c r="G75" s="101"/>
-      <c r="H75" s="101"/>
-      <c r="I75" s="114"/>
-      <c r="J75" s="103"/>
+      <c r="A75" s="164"/>
+      <c r="B75" s="164"/>
+      <c r="C75" s="90"/>
+      <c r="D75" s="91"/>
+      <c r="E75" s="111"/>
+      <c r="F75" s="99"/>
+      <c r="G75" s="99"/>
+      <c r="H75" s="99"/>
+      <c r="I75" s="112"/>
+      <c r="J75" s="101"/>
       <c r="K75" s="42"/>
       <c r="L75" s="43"/>
       <c r="M75" s="43"/>
@@ -3988,16 +4059,16 @@
       <c r="W75" s="45"/>
     </row>
     <row r="76" spans="1:23" ht="12" customHeight="1">
-      <c r="A76" s="60"/>
-      <c r="B76" s="60"/>
-      <c r="C76" s="92"/>
-      <c r="D76" s="93"/>
-      <c r="E76" s="113"/>
-      <c r="F76" s="101"/>
-      <c r="G76" s="101"/>
-      <c r="H76" s="101"/>
-      <c r="I76" s="114"/>
-      <c r="J76" s="88"/>
+      <c r="A76" s="164"/>
+      <c r="B76" s="164"/>
+      <c r="C76" s="90"/>
+      <c r="D76" s="91"/>
+      <c r="E76" s="111"/>
+      <c r="F76" s="99"/>
+      <c r="G76" s="99"/>
+      <c r="H76" s="99"/>
+      <c r="I76" s="112"/>
+      <c r="J76" s="86"/>
       <c r="K76" s="51"/>
       <c r="L76" s="50"/>
       <c r="M76" s="50"/>
@@ -4010,94 +4081,94 @@
       <c r="T76" s="50"/>
       <c r="U76" s="50"/>
       <c r="V76" s="50"/>
-      <c r="W76" s="82"/>
+      <c r="W76" s="80"/>
     </row>
     <row r="77" spans="1:23" ht="12" customHeight="1">
-      <c r="A77" s="60"/>
-      <c r="B77" s="60"/>
-      <c r="C77" s="71"/>
-      <c r="D77" s="72"/>
-      <c r="E77" s="115"/>
-      <c r="F77" s="107"/>
-      <c r="G77" s="107"/>
-      <c r="H77" s="107"/>
-      <c r="I77" s="116"/>
-      <c r="J77" s="75"/>
-      <c r="K77" s="153"/>
-      <c r="L77" s="154"/>
-      <c r="M77" s="154"/>
-      <c r="N77" s="154"/>
-      <c r="O77" s="154"/>
-      <c r="P77" s="154"/>
-      <c r="Q77" s="154"/>
-      <c r="R77" s="154"/>
-      <c r="S77" s="154"/>
-      <c r="T77" s="154"/>
-      <c r="U77" s="154"/>
-      <c r="V77" s="154"/>
+      <c r="A77" s="164"/>
+      <c r="B77" s="164"/>
+      <c r="C77" s="69"/>
+      <c r="D77" s="70"/>
+      <c r="E77" s="113"/>
+      <c r="F77" s="105"/>
+      <c r="G77" s="105"/>
+      <c r="H77" s="105"/>
+      <c r="I77" s="114"/>
+      <c r="J77" s="73"/>
+      <c r="K77" s="151"/>
+      <c r="L77" s="152"/>
+      <c r="M77" s="152"/>
+      <c r="N77" s="152"/>
+      <c r="O77" s="152"/>
+      <c r="P77" s="152"/>
+      <c r="Q77" s="152"/>
+      <c r="R77" s="152"/>
+      <c r="S77" s="152"/>
+      <c r="T77" s="152"/>
+      <c r="U77" s="152"/>
+      <c r="V77" s="152"/>
       <c r="W77" s="45"/>
     </row>
     <row r="78" spans="1:23" ht="12" customHeight="1">
-      <c r="A78" s="60"/>
-      <c r="B78" s="60"/>
-      <c r="C78" s="166"/>
-      <c r="D78" s="167"/>
-      <c r="E78" s="117"/>
-      <c r="F78" s="118"/>
-      <c r="G78" s="90"/>
-      <c r="H78" s="118"/>
-      <c r="I78" s="112"/>
-      <c r="J78" s="150"/>
-      <c r="K78" s="119"/>
-      <c r="L78" s="120"/>
-      <c r="M78" s="120"/>
-      <c r="N78" s="120"/>
-      <c r="O78" s="120"/>
-      <c r="P78" s="120"/>
-      <c r="Q78" s="120"/>
-      <c r="R78" s="120"/>
-      <c r="S78" s="120"/>
-      <c r="T78" s="120"/>
-      <c r="U78" s="120"/>
-      <c r="V78" s="69"/>
-      <c r="W78" s="122"/>
+      <c r="A78" s="164"/>
+      <c r="B78" s="164"/>
+      <c r="C78" s="169"/>
+      <c r="D78" s="170"/>
+      <c r="E78" s="115"/>
+      <c r="F78" s="116"/>
+      <c r="G78" s="88"/>
+      <c r="H78" s="116"/>
+      <c r="I78" s="110"/>
+      <c r="J78" s="148"/>
+      <c r="K78" s="117"/>
+      <c r="L78" s="118"/>
+      <c r="M78" s="118"/>
+      <c r="N78" s="118"/>
+      <c r="O78" s="118"/>
+      <c r="P78" s="118"/>
+      <c r="Q78" s="118"/>
+      <c r="R78" s="118"/>
+      <c r="S78" s="118"/>
+      <c r="T78" s="118"/>
+      <c r="U78" s="118"/>
+      <c r="V78" s="67"/>
+      <c r="W78" s="120"/>
     </row>
     <row r="79" spans="1:23" ht="12" customHeight="1">
-      <c r="A79" s="60"/>
-      <c r="B79" s="60"/>
-      <c r="C79" s="92"/>
-      <c r="D79" s="93"/>
-      <c r="E79" s="113"/>
-      <c r="F79" s="101"/>
-      <c r="G79" s="101"/>
-      <c r="H79" s="101"/>
-      <c r="I79" s="114"/>
-      <c r="J79" s="103"/>
-      <c r="K79" s="124"/>
-      <c r="L79" s="125"/>
-      <c r="M79" s="125"/>
-      <c r="N79" s="125"/>
-      <c r="O79" s="125"/>
-      <c r="P79" s="125"/>
-      <c r="Q79" s="125"/>
-      <c r="R79" s="125"/>
-      <c r="S79" s="125"/>
-      <c r="T79" s="125"/>
-      <c r="U79" s="125"/>
+      <c r="A79" s="164"/>
+      <c r="B79" s="164"/>
+      <c r="C79" s="90"/>
+      <c r="D79" s="91"/>
+      <c r="E79" s="111"/>
+      <c r="F79" s="99"/>
+      <c r="G79" s="99"/>
+      <c r="H79" s="99"/>
+      <c r="I79" s="112"/>
+      <c r="J79" s="101"/>
+      <c r="K79" s="122"/>
+      <c r="L79" s="123"/>
+      <c r="M79" s="123"/>
+      <c r="N79" s="123"/>
+      <c r="O79" s="123"/>
+      <c r="P79" s="123"/>
+      <c r="Q79" s="123"/>
+      <c r="R79" s="123"/>
+      <c r="S79" s="123"/>
+      <c r="T79" s="123"/>
+      <c r="U79" s="123"/>
       <c r="V79" s="43"/>
-      <c r="W79" s="127"/>
+      <c r="W79" s="125"/>
     </row>
     <row r="80" spans="1:23" ht="12" customHeight="1">
-      <c r="A80" s="60"/>
-      <c r="B80" s="60"/>
-      <c r="C80" s="92"/>
-      <c r="D80" s="93"/>
-      <c r="E80" s="113"/>
-      <c r="F80" s="101"/>
-      <c r="G80" s="101"/>
-      <c r="H80" s="101"/>
-      <c r="I80" s="114"/>
-      <c r="J80" s="88"/>
+      <c r="A80" s="164"/>
+      <c r="B80" s="164"/>
+      <c r="C80" s="90"/>
+      <c r="D80" s="91"/>
+      <c r="E80" s="111"/>
+      <c r="F80" s="99"/>
+      <c r="G80" s="99"/>
+      <c r="H80" s="99"/>
+      <c r="I80" s="112"/>
+      <c r="J80" s="86"/>
       <c r="K80" s="51"/>
       <c r="L80" s="50"/>
       <c r="M80" s="50"/>
@@ -4110,69 +4181,69 @@
       <c r="T80" s="50"/>
       <c r="U80" s="50"/>
       <c r="V80" s="50"/>
-      <c r="W80" s="82"/>
+      <c r="W80" s="80"/>
     </row>
     <row r="81" spans="1:23" ht="12" customHeight="1">
-      <c r="A81" s="60"/>
-      <c r="B81" s="60"/>
-      <c r="C81" s="71"/>
-      <c r="D81" s="72"/>
-      <c r="E81" s="115"/>
-      <c r="F81" s="107"/>
-      <c r="G81" s="107"/>
-      <c r="H81" s="107"/>
-      <c r="I81" s="116"/>
-      <c r="J81" s="75"/>
-      <c r="K81" s="128"/>
-      <c r="L81" s="129"/>
-      <c r="M81" s="129"/>
-      <c r="N81" s="129"/>
-      <c r="O81" s="129"/>
-      <c r="P81" s="129"/>
-      <c r="Q81" s="129"/>
-      <c r="R81" s="129"/>
-      <c r="S81" s="129"/>
-      <c r="T81" s="129"/>
-      <c r="U81" s="129"/>
-      <c r="V81" s="154"/>
-      <c r="W81" s="130"/>
+      <c r="A81" s="164"/>
+      <c r="B81" s="164"/>
+      <c r="C81" s="69"/>
+      <c r="D81" s="70"/>
+      <c r="E81" s="113"/>
+      <c r="F81" s="105"/>
+      <c r="G81" s="105"/>
+      <c r="H81" s="105"/>
+      <c r="I81" s="114"/>
+      <c r="J81" s="73"/>
+      <c r="K81" s="126"/>
+      <c r="L81" s="127"/>
+      <c r="M81" s="127"/>
+      <c r="N81" s="127"/>
+      <c r="O81" s="127"/>
+      <c r="P81" s="127"/>
+      <c r="Q81" s="127"/>
+      <c r="R81" s="127"/>
+      <c r="S81" s="127"/>
+      <c r="T81" s="127"/>
+      <c r="U81" s="127"/>
+      <c r="V81" s="152"/>
+      <c r="W81" s="128"/>
     </row>
     <row r="82" spans="1:23" ht="12" customHeight="1">
-      <c r="A82" s="60"/>
-      <c r="B82" s="60"/>
-      <c r="C82" s="166"/>
-      <c r="D82" s="167"/>
-      <c r="E82" s="131"/>
-      <c r="F82" s="68"/>
-      <c r="G82" s="68"/>
-      <c r="H82" s="68"/>
-      <c r="I82" s="112"/>
-      <c r="J82" s="158"/>
-      <c r="K82" s="151"/>
-      <c r="L82" s="69"/>
-      <c r="M82" s="69"/>
-      <c r="N82" s="69"/>
-      <c r="O82" s="69"/>
-      <c r="P82" s="69"/>
-      <c r="Q82" s="69"/>
-      <c r="R82" s="69"/>
-      <c r="S82" s="69"/>
-      <c r="T82" s="69"/>
-      <c r="U82" s="69"/>
-      <c r="V82" s="69"/>
-      <c r="W82" s="152"/>
+      <c r="A82" s="164"/>
+      <c r="B82" s="164"/>
+      <c r="C82" s="169"/>
+      <c r="D82" s="170"/>
+      <c r="E82" s="129"/>
+      <c r="F82" s="66"/>
+      <c r="G82" s="66"/>
+      <c r="H82" s="66"/>
+      <c r="I82" s="110"/>
+      <c r="J82" s="156"/>
+      <c r="K82" s="149"/>
+      <c r="L82" s="67"/>
+      <c r="M82" s="67"/>
+      <c r="N82" s="67"/>
+      <c r="O82" s="67"/>
+      <c r="P82" s="67"/>
+      <c r="Q82" s="67"/>
+      <c r="R82" s="67"/>
+      <c r="S82" s="67"/>
+      <c r="T82" s="67"/>
+      <c r="U82" s="67"/>
+      <c r="V82" s="67"/>
+      <c r="W82" s="150"/>
     </row>
     <row r="83" spans="1:23" ht="12" customHeight="1">
-      <c r="A83" s="60"/>
-      <c r="B83" s="60"/>
-      <c r="C83" s="92"/>
-      <c r="D83" s="93"/>
-      <c r="E83" s="132"/>
+      <c r="A83" s="164"/>
+      <c r="B83" s="164"/>
+      <c r="C83" s="90"/>
+      <c r="D83" s="91"/>
+      <c r="E83" s="130"/>
       <c r="F83" s="41"/>
       <c r="G83" s="41"/>
       <c r="H83" s="41"/>
-      <c r="I83" s="114"/>
-      <c r="J83" s="110"/>
+      <c r="I83" s="112"/>
+      <c r="J83" s="108"/>
       <c r="K83" s="42"/>
       <c r="L83" s="43"/>
       <c r="M83" s="43"/>
@@ -4188,16 +4259,16 @@
       <c r="W83" s="45"/>
     </row>
     <row r="84" spans="1:23" ht="12" customHeight="1">
-      <c r="A84" s="60"/>
-      <c r="B84" s="60"/>
-      <c r="C84" s="92"/>
-      <c r="D84" s="93"/>
-      <c r="E84" s="113"/>
-      <c r="F84" s="101"/>
-      <c r="G84" s="101"/>
-      <c r="H84" s="133"/>
-      <c r="I84" s="114"/>
-      <c r="J84" s="159"/>
+      <c r="A84" s="164"/>
+      <c r="B84" s="164"/>
+      <c r="C84" s="90"/>
+      <c r="D84" s="91"/>
+      <c r="E84" s="111"/>
+      <c r="F84" s="99"/>
+      <c r="G84" s="99"/>
+      <c r="H84" s="131"/>
+      <c r="I84" s="112"/>
+      <c r="J84" s="157"/>
       <c r="K84" s="51"/>
       <c r="L84" s="50"/>
       <c r="M84" s="50"/>
@@ -4210,69 +4281,69 @@
       <c r="T84" s="50"/>
       <c r="U84" s="50"/>
       <c r="V84" s="50"/>
-      <c r="W84" s="82"/>
+      <c r="W84" s="80"/>
     </row>
     <row r="85" spans="1:23" ht="12" customHeight="1">
-      <c r="A85" s="60"/>
-      <c r="B85" s="60"/>
-      <c r="C85" s="71"/>
-      <c r="D85" s="72"/>
-      <c r="E85" s="115"/>
-      <c r="F85" s="107"/>
-      <c r="G85" s="107"/>
-      <c r="H85" s="134"/>
-      <c r="I85" s="116"/>
-      <c r="J85" s="160"/>
-      <c r="K85" s="153"/>
-      <c r="L85" s="154"/>
-      <c r="M85" s="154"/>
-      <c r="N85" s="154"/>
-      <c r="O85" s="154"/>
-      <c r="P85" s="154"/>
-      <c r="Q85" s="154"/>
-      <c r="R85" s="154"/>
-      <c r="S85" s="154"/>
-      <c r="T85" s="154"/>
-      <c r="U85" s="154"/>
-      <c r="V85" s="154"/>
+      <c r="A85" s="164"/>
+      <c r="B85" s="164"/>
+      <c r="C85" s="69"/>
+      <c r="D85" s="70"/>
+      <c r="E85" s="113"/>
+      <c r="F85" s="105"/>
+      <c r="G85" s="105"/>
+      <c r="H85" s="132"/>
+      <c r="I85" s="114"/>
+      <c r="J85" s="158"/>
+      <c r="K85" s="151"/>
+      <c r="L85" s="152"/>
+      <c r="M85" s="152"/>
+      <c r="N85" s="152"/>
+      <c r="O85" s="152"/>
+      <c r="P85" s="152"/>
+      <c r="Q85" s="152"/>
+      <c r="R85" s="152"/>
+      <c r="S85" s="152"/>
+      <c r="T85" s="152"/>
+      <c r="U85" s="152"/>
+      <c r="V85" s="152"/>
       <c r="W85" s="45"/>
     </row>
     <row r="86" spans="1:23" ht="12" customHeight="1">
-      <c r="A86" s="60"/>
-      <c r="B86" s="60"/>
-      <c r="C86" s="166"/>
-      <c r="D86" s="167"/>
-      <c r="E86" s="131"/>
-      <c r="F86" s="68"/>
-      <c r="G86" s="68"/>
-      <c r="H86" s="68"/>
-      <c r="I86" s="112"/>
-      <c r="J86" s="158"/>
-      <c r="K86" s="151"/>
-      <c r="L86" s="69"/>
-      <c r="M86" s="69"/>
-      <c r="N86" s="69"/>
-      <c r="O86" s="69"/>
-      <c r="P86" s="69"/>
-      <c r="Q86" s="69"/>
-      <c r="R86" s="69"/>
-      <c r="S86" s="69"/>
-      <c r="T86" s="69"/>
-      <c r="U86" s="69"/>
-      <c r="V86" s="69"/>
-      <c r="W86" s="152"/>
+      <c r="A86" s="164"/>
+      <c r="B86" s="164"/>
+      <c r="C86" s="169"/>
+      <c r="D86" s="170"/>
+      <c r="E86" s="129"/>
+      <c r="F86" s="66"/>
+      <c r="G86" s="66"/>
+      <c r="H86" s="66"/>
+      <c r="I86" s="110"/>
+      <c r="J86" s="156"/>
+      <c r="K86" s="149"/>
+      <c r="L86" s="67"/>
+      <c r="M86" s="67"/>
+      <c r="N86" s="67"/>
+      <c r="O86" s="67"/>
+      <c r="P86" s="67"/>
+      <c r="Q86" s="67"/>
+      <c r="R86" s="67"/>
+      <c r="S86" s="67"/>
+      <c r="T86" s="67"/>
+      <c r="U86" s="67"/>
+      <c r="V86" s="67"/>
+      <c r="W86" s="150"/>
     </row>
     <row r="87" spans="1:23" ht="12" customHeight="1">
-      <c r="A87" s="60"/>
-      <c r="B87" s="60"/>
-      <c r="C87" s="92"/>
-      <c r="D87" s="93"/>
-      <c r="E87" s="132"/>
+      <c r="A87" s="164"/>
+      <c r="B87" s="164"/>
+      <c r="C87" s="90"/>
+      <c r="D87" s="91"/>
+      <c r="E87" s="130"/>
       <c r="F87" s="41"/>
       <c r="G87" s="41"/>
       <c r="H87" s="41"/>
-      <c r="I87" s="114"/>
-      <c r="J87" s="161"/>
+      <c r="I87" s="112"/>
+      <c r="J87" s="159"/>
       <c r="K87" s="42"/>
       <c r="L87" s="43"/>
       <c r="M87" s="43"/>
@@ -4288,16 +4359,16 @@
       <c r="W87" s="45"/>
     </row>
     <row r="88" spans="1:23" ht="12" customHeight="1">
-      <c r="A88" s="60"/>
-      <c r="B88" s="60"/>
-      <c r="C88" s="92"/>
-      <c r="D88" s="93"/>
-      <c r="E88" s="113"/>
-      <c r="F88" s="101"/>
-      <c r="G88" s="101"/>
-      <c r="H88" s="133"/>
-      <c r="I88" s="114"/>
-      <c r="J88" s="159"/>
+      <c r="A88" s="164"/>
+      <c r="B88" s="164"/>
+      <c r="C88" s="90"/>
+      <c r="D88" s="91"/>
+      <c r="E88" s="111"/>
+      <c r="F88" s="99"/>
+      <c r="G88" s="99"/>
+      <c r="H88" s="131"/>
+      <c r="I88" s="112"/>
+      <c r="J88" s="157"/>
       <c r="K88" s="51"/>
       <c r="L88" s="50"/>
       <c r="M88" s="50"/>
@@ -4310,95 +4381,95 @@
       <c r="T88" s="50"/>
       <c r="U88" s="50"/>
       <c r="V88" s="50"/>
-      <c r="W88" s="82"/>
+      <c r="W88" s="80"/>
     </row>
     <row r="89" spans="1:23" ht="12" customHeight="1">
-      <c r="A89" s="60"/>
-      <c r="B89" s="60"/>
-      <c r="C89" s="71"/>
-      <c r="D89" s="72"/>
-      <c r="E89" s="115"/>
-      <c r="F89" s="107"/>
-      <c r="G89" s="107"/>
-      <c r="H89" s="107"/>
-      <c r="I89" s="116"/>
-      <c r="J89" s="161"/>
-      <c r="K89" s="153"/>
-      <c r="L89" s="154"/>
-      <c r="M89" s="154"/>
-      <c r="N89" s="154"/>
-      <c r="O89" s="154"/>
-      <c r="P89" s="154"/>
-      <c r="Q89" s="154"/>
-      <c r="R89" s="154"/>
-      <c r="S89" s="154"/>
-      <c r="T89" s="154"/>
-      <c r="U89" s="154"/>
-      <c r="V89" s="154"/>
+      <c r="A89" s="164"/>
+      <c r="B89" s="164"/>
+      <c r="C89" s="69"/>
+      <c r="D89" s="70"/>
+      <c r="E89" s="113"/>
+      <c r="F89" s="105"/>
+      <c r="G89" s="105"/>
+      <c r="H89" s="105"/>
+      <c r="I89" s="114"/>
+      <c r="J89" s="159"/>
+      <c r="K89" s="151"/>
+      <c r="L89" s="152"/>
+      <c r="M89" s="152"/>
+      <c r="N89" s="152"/>
+      <c r="O89" s="152"/>
+      <c r="P89" s="152"/>
+      <c r="Q89" s="152"/>
+      <c r="R89" s="152"/>
+      <c r="S89" s="152"/>
+      <c r="T89" s="152"/>
+      <c r="U89" s="152"/>
+      <c r="V89" s="152"/>
       <c r="W89" s="45"/>
     </row>
     <row r="90" spans="1:23" ht="12" customHeight="1">
-      <c r="A90" s="60"/>
-      <c r="B90" s="60"/>
-      <c r="C90" s="166"/>
-      <c r="D90" s="167"/>
-      <c r="E90" s="89"/>
-      <c r="F90" s="135"/>
-      <c r="G90" s="68"/>
-      <c r="H90" s="68"/>
-      <c r="I90" s="136"/>
-      <c r="J90" s="158"/>
-      <c r="K90" s="151"/>
-      <c r="L90" s="69"/>
-      <c r="M90" s="69"/>
-      <c r="N90" s="69"/>
-      <c r="O90" s="69"/>
-      <c r="P90" s="69"/>
-      <c r="Q90" s="69"/>
-      <c r="R90" s="69"/>
-      <c r="S90" s="69"/>
-      <c r="T90" s="69"/>
-      <c r="U90" s="69"/>
-      <c r="V90" s="69"/>
-      <c r="W90" s="152"/>
+      <c r="A90" s="164"/>
+      <c r="B90" s="164"/>
+      <c r="C90" s="169"/>
+      <c r="D90" s="170"/>
+      <c r="E90" s="87"/>
+      <c r="F90" s="133"/>
+      <c r="G90" s="66"/>
+      <c r="H90" s="66"/>
+      <c r="I90" s="134"/>
+      <c r="J90" s="156"/>
+      <c r="K90" s="149"/>
+      <c r="L90" s="67"/>
+      <c r="M90" s="67"/>
+      <c r="N90" s="67"/>
+      <c r="O90" s="67"/>
+      <c r="P90" s="67"/>
+      <c r="Q90" s="67"/>
+      <c r="R90" s="67"/>
+      <c r="S90" s="67"/>
+      <c r="T90" s="67"/>
+      <c r="U90" s="67"/>
+      <c r="V90" s="67"/>
+      <c r="W90" s="150"/>
     </row>
     <row r="91" spans="1:23" ht="12" customHeight="1">
-      <c r="A91" s="60"/>
-      <c r="B91" s="60"/>
-      <c r="C91" s="92"/>
-      <c r="D91" s="93"/>
-      <c r="E91" s="94"/>
-      <c r="F91" s="62"/>
+      <c r="A91" s="164"/>
+      <c r="B91" s="164"/>
+      <c r="C91" s="90"/>
+      <c r="D91" s="91"/>
+      <c r="E91" s="92"/>
+      <c r="F91" s="61"/>
       <c r="G91" s="41"/>
       <c r="H91" s="41"/>
-      <c r="I91" s="137"/>
-      <c r="J91" s="110"/>
+      <c r="I91" s="135"/>
+      <c r="J91" s="108"/>
       <c r="K91" s="53"/>
-      <c r="L91" s="104"/>
-      <c r="M91" s="104"/>
-      <c r="N91" s="104"/>
-      <c r="O91" s="104"/>
-      <c r="P91" s="104"/>
-      <c r="Q91" s="104"/>
-      <c r="R91" s="104"/>
-      <c r="S91" s="104"/>
-      <c r="T91" s="104"/>
-      <c r="U91" s="104"/>
-      <c r="V91" s="104"/>
+      <c r="L91" s="102"/>
+      <c r="M91" s="102"/>
+      <c r="N91" s="102"/>
+      <c r="O91" s="102"/>
+      <c r="P91" s="102"/>
+      <c r="Q91" s="102"/>
+      <c r="R91" s="102"/>
+      <c r="S91" s="102"/>
+      <c r="T91" s="102"/>
+      <c r="U91" s="102"/>
+      <c r="V91" s="102"/>
       <c r="W91" s="45"/>
     </row>
     <row r="92" spans="1:23" ht="12" customHeight="1">
-      <c r="A92" s="60"/>
-      <c r="B92" s="60"/>
-      <c r="C92" s="92"/>
-      <c r="D92" s="93"/>
-      <c r="E92" s="94"/>
-      <c r="F92" s="62"/>
-      <c r="G92" s="138"/>
-      <c r="H92" s="139"/>
-      <c r="I92" s="114"/>
-      <c r="J92" s="159"/>
-      <c r="K92" s="162"/>
+      <c r="A92" s="164"/>
+      <c r="B92" s="164"/>
+      <c r="C92" s="90"/>
+      <c r="D92" s="91"/>
+      <c r="E92" s="92"/>
+      <c r="F92" s="61"/>
+      <c r="G92" s="136"/>
+      <c r="H92" s="137"/>
+      <c r="I92" s="112"/>
+      <c r="J92" s="157"/>
+      <c r="K92" s="160"/>
       <c r="L92" s="50"/>
       <c r="M92" s="50"/>
       <c r="N92" s="50"/>
@@ -4410,95 +4481,95 @@
       <c r="T92" s="50"/>
       <c r="U92" s="50"/>
       <c r="V92" s="50"/>
-      <c r="W92" s="82"/>
+      <c r="W92" s="80"/>
     </row>
     <row r="93" spans="1:23" ht="12" customHeight="1">
-      <c r="A93" s="60"/>
-      <c r="B93" s="60"/>
-      <c r="C93" s="71"/>
-      <c r="D93" s="72"/>
-      <c r="E93" s="105"/>
-      <c r="F93" s="140"/>
-      <c r="G93" s="106"/>
-      <c r="H93" s="134"/>
-      <c r="I93" s="116"/>
-      <c r="J93" s="160"/>
-      <c r="K93" s="163"/>
-      <c r="L93" s="154"/>
-      <c r="M93" s="154"/>
-      <c r="N93" s="154"/>
-      <c r="O93" s="154"/>
-      <c r="P93" s="154"/>
-      <c r="Q93" s="154"/>
-      <c r="R93" s="154"/>
-      <c r="S93" s="154"/>
-      <c r="T93" s="154"/>
-      <c r="U93" s="154"/>
-      <c r="V93" s="154"/>
+      <c r="A93" s="164"/>
+      <c r="B93" s="164"/>
+      <c r="C93" s="69"/>
+      <c r="D93" s="70"/>
+      <c r="E93" s="103"/>
+      <c r="F93" s="138"/>
+      <c r="G93" s="104"/>
+      <c r="H93" s="132"/>
+      <c r="I93" s="114"/>
+      <c r="J93" s="158"/>
+      <c r="K93" s="161"/>
+      <c r="L93" s="152"/>
+      <c r="M93" s="152"/>
+      <c r="N93" s="152"/>
+      <c r="O93" s="152"/>
+      <c r="P93" s="152"/>
+      <c r="Q93" s="152"/>
+      <c r="R93" s="152"/>
+      <c r="S93" s="152"/>
+      <c r="T93" s="152"/>
+      <c r="U93" s="152"/>
+      <c r="V93" s="152"/>
       <c r="W93" s="45"/>
     </row>
     <row r="94" spans="1:23" ht="12" customHeight="1">
-      <c r="A94" s="60"/>
-      <c r="B94" s="60"/>
-      <c r="C94" s="166"/>
-      <c r="D94" s="167"/>
-      <c r="E94" s="89"/>
-      <c r="F94" s="135"/>
-      <c r="G94" s="68"/>
-      <c r="H94" s="68"/>
-      <c r="I94" s="136"/>
-      <c r="J94" s="158"/>
-      <c r="K94" s="151"/>
-      <c r="L94" s="69"/>
-      <c r="M94" s="69"/>
-      <c r="N94" s="69"/>
-      <c r="O94" s="69"/>
-      <c r="P94" s="69"/>
-      <c r="Q94" s="69"/>
-      <c r="R94" s="69"/>
-      <c r="S94" s="69"/>
-      <c r="T94" s="69"/>
-      <c r="U94" s="69"/>
-      <c r="V94" s="69"/>
-      <c r="W94" s="70"/>
+      <c r="A94" s="164"/>
+      <c r="B94" s="164"/>
+      <c r="C94" s="169"/>
+      <c r="D94" s="170"/>
+      <c r="E94" s="87"/>
+      <c r="F94" s="133"/>
+      <c r="G94" s="66"/>
+      <c r="H94" s="66"/>
+      <c r="I94" s="134"/>
+      <c r="J94" s="156"/>
+      <c r="K94" s="149"/>
+      <c r="L94" s="67"/>
+      <c r="M94" s="67"/>
+      <c r="N94" s="67"/>
+      <c r="O94" s="67"/>
+      <c r="P94" s="67"/>
+      <c r="Q94" s="67"/>
+      <c r="R94" s="67"/>
+      <c r="S94" s="67"/>
+      <c r="T94" s="67"/>
+      <c r="U94" s="67"/>
+      <c r="V94" s="67"/>
+      <c r="W94" s="68"/>
     </row>
     <row r="95" spans="1:23" ht="12" customHeight="1">
-      <c r="A95" s="60"/>
-      <c r="B95" s="60"/>
-      <c r="C95" s="92"/>
-      <c r="D95" s="93"/>
-      <c r="E95" s="94"/>
-      <c r="F95" s="62"/>
+      <c r="A95" s="164"/>
+      <c r="B95" s="164"/>
+      <c r="C95" s="90"/>
+      <c r="D95" s="91"/>
+      <c r="E95" s="92"/>
+      <c r="F95" s="61"/>
       <c r="G95" s="41"/>
       <c r="H95" s="41"/>
-      <c r="I95" s="137"/>
-      <c r="J95" s="110"/>
+      <c r="I95" s="135"/>
+      <c r="J95" s="108"/>
       <c r="K95" s="53"/>
-      <c r="L95" s="104"/>
-      <c r="M95" s="104"/>
-      <c r="N95" s="104"/>
-      <c r="O95" s="104"/>
-      <c r="P95" s="104"/>
-      <c r="Q95" s="104"/>
-      <c r="R95" s="104"/>
-      <c r="S95" s="104"/>
-      <c r="T95" s="104"/>
-      <c r="U95" s="104"/>
-      <c r="V95" s="104"/>
+      <c r="L95" s="102"/>
+      <c r="M95" s="102"/>
+      <c r="N95" s="102"/>
+      <c r="O95" s="102"/>
+      <c r="P95" s="102"/>
+      <c r="Q95" s="102"/>
+      <c r="R95" s="102"/>
+      <c r="S95" s="102"/>
+      <c r="T95" s="102"/>
+      <c r="U95" s="102"/>
+      <c r="V95" s="102"/>
       <c r="W95" s="45"/>
     </row>
     <row r="96" spans="1:23" ht="12" customHeight="1">
-      <c r="A96" s="60"/>
-      <c r="B96" s="60"/>
-      <c r="C96" s="92"/>
-      <c r="D96" s="93"/>
-      <c r="E96" s="94"/>
-      <c r="F96" s="62"/>
-      <c r="G96" s="138"/>
-      <c r="H96" s="139"/>
-      <c r="I96" s="114"/>
-      <c r="J96" s="159"/>
-      <c r="K96" s="162"/>
+      <c r="A96" s="164"/>
+      <c r="B96" s="164"/>
+      <c r="C96" s="90"/>
+      <c r="D96" s="91"/>
+      <c r="E96" s="92"/>
+      <c r="F96" s="61"/>
+      <c r="G96" s="136"/>
+      <c r="H96" s="137"/>
+      <c r="I96" s="112"/>
+      <c r="J96" s="157"/>
+      <c r="K96" s="160"/>
       <c r="L96" s="50"/>
       <c r="M96" s="50"/>
       <c r="N96" s="50"/>
@@ -4510,35 +4581,59 @@
       <c r="T96" s="50"/>
       <c r="U96" s="50"/>
       <c r="V96" s="50"/>
-      <c r="W96" s="82"/>
+      <c r="W96" s="80"/>
     </row>
     <row r="97" spans="1:23" ht="12" customHeight="1">
-      <c r="A97" s="164"/>
-      <c r="B97" s="164"/>
-      <c r="C97" s="71"/>
-      <c r="D97" s="72"/>
-      <c r="E97" s="105"/>
-      <c r="F97" s="140"/>
-      <c r="G97" s="106"/>
-      <c r="H97" s="134"/>
-      <c r="I97" s="116"/>
-      <c r="J97" s="160"/>
-      <c r="K97" s="163"/>
-      <c r="L97" s="154"/>
-      <c r="M97" s="154"/>
-      <c r="N97" s="154"/>
-      <c r="O97" s="154"/>
-      <c r="P97" s="154"/>
-      <c r="Q97" s="154"/>
-      <c r="R97" s="154"/>
-      <c r="S97" s="154"/>
-      <c r="T97" s="154"/>
-      <c r="U97" s="154"/>
-      <c r="V97" s="154"/>
-      <c r="W97" s="165"/>
+      <c r="A97" s="162"/>
+      <c r="B97" s="162"/>
+      <c r="C97" s="69"/>
+      <c r="D97" s="70"/>
+      <c r="E97" s="103"/>
+      <c r="F97" s="138"/>
+      <c r="G97" s="104"/>
+      <c r="H97" s="132"/>
+      <c r="I97" s="114"/>
+      <c r="J97" s="158"/>
+      <c r="K97" s="161"/>
+      <c r="L97" s="152"/>
+      <c r="M97" s="152"/>
+      <c r="N97" s="152"/>
+      <c r="O97" s="152"/>
+      <c r="P97" s="152"/>
+      <c r="Q97" s="152"/>
+      <c r="R97" s="152"/>
+      <c r="S97" s="152"/>
+      <c r="T97" s="152"/>
+      <c r="U97" s="152"/>
+      <c r="V97" s="152"/>
+      <c r="W97" s="163"/>
+    </row>
+    <row r="111" spans="1:23" ht="12" customHeight="1">
+      <c r="I111" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A2:W2"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A6:W6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C46:D46"/>
     <mergeCell ref="C86:D86"/>
     <mergeCell ref="C90:D90"/>
     <mergeCell ref="C94:D94"/>
@@ -4548,27 +4643,6 @@
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="C82:D82"/>
     <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="A2:W2"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A6:W6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C26:D26"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.31496062992125984"/>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_v2_template.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_v2_template.xlsx
@@ -127,9 +127,13 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -144,12 +148,6 @@
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="ＭＳ ゴシック"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -1213,7 +1211,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1481,251 +1479,254 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -1733,12 +1734,6 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1751,22 +1746,16 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="76" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1799,13 +1788,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>3175</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1814,7 +1803,7 @@
         <xdr:cNvPr id="2" name="楕円 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1822,8 +1811,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4537075" y="606425"/>
-          <a:ext cx="396875" cy="155575"/>
+          <a:off x="4918075" y="619125"/>
+          <a:ext cx="339725" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2291,10 +2280,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5" defaultRowHeight="12" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="13.1640625" style="142" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="142" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" style="142" customWidth="1"/>
-    <col min="5" max="10" width="6.5" style="142" customWidth="1"/>
+    <col min="1" max="2" width="13.1640625" style="140" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="140" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="140" customWidth="1"/>
+    <col min="5" max="10" width="6.5" style="140" customWidth="1"/>
     <col min="11" max="22" width="6.5" style="26" customWidth="1"/>
     <col min="23" max="23" width="7.1640625" style="25" customWidth="1"/>
     <col min="24" max="24" width="6.5" style="25"/>
@@ -2302,29 +2291,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:23" ht="12" customHeight="1">
-      <c r="A2" s="171"/>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
-      <c r="I2" s="171"/>
-      <c r="J2" s="171"/>
-      <c r="K2" s="171"/>
-      <c r="L2" s="171"/>
-      <c r="M2" s="171"/>
-      <c r="N2" s="171"/>
-      <c r="O2" s="171"/>
-      <c r="P2" s="171"/>
-      <c r="Q2" s="171"/>
-      <c r="R2" s="171"/>
-      <c r="S2" s="171"/>
-      <c r="T2" s="171"/>
-      <c r="U2" s="171"/>
-      <c r="V2" s="171"/>
-      <c r="W2" s="171"/>
+      <c r="A2" s="172"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="172"/>
+      <c r="J2" s="172"/>
+      <c r="K2" s="172"/>
+      <c r="L2" s="172"/>
+      <c r="M2" s="172"/>
+      <c r="N2" s="172"/>
+      <c r="O2" s="172"/>
+      <c r="P2" s="172"/>
+      <c r="Q2" s="172"/>
+      <c r="R2" s="172"/>
+      <c r="S2" s="172"/>
+      <c r="T2" s="172"/>
+      <c r="U2" s="172"/>
+      <c r="V2" s="172"/>
+      <c r="W2" s="172"/>
     </row>
     <row r="3" spans="1:23" ht="12" customHeight="1" thickBot="1">
       <c r="A3" s="27"/>
@@ -2356,13 +2345,13 @@
       <c r="B4" s="28"/>
       <c r="C4" s="29"/>
       <c r="D4" s="28"/>
-      <c r="E4" s="172"/>
-      <c r="F4" s="173"/>
-      <c r="G4" s="173"/>
-      <c r="H4" s="173"/>
-      <c r="I4" s="174"/>
-      <c r="J4" s="175"/>
-      <c r="K4" s="173"/>
+      <c r="E4" s="173"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="178"/>
+      <c r="H4" s="178"/>
+      <c r="I4" s="179"/>
+      <c r="J4" s="174"/>
+      <c r="K4" s="178"/>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
@@ -2402,33 +2391,33 @@
       <c r="W5" s="22"/>
     </row>
     <row r="6" spans="1:23" ht="12" customHeight="1" thickBot="1">
-      <c r="A6" s="176"/>
-      <c r="B6" s="176"/>
-      <c r="C6" s="176"/>
-      <c r="D6" s="176"/>
-      <c r="E6" s="176"/>
-      <c r="F6" s="176"/>
-      <c r="G6" s="176"/>
-      <c r="H6" s="176"/>
-      <c r="I6" s="176"/>
-      <c r="J6" s="176"/>
-      <c r="K6" s="176"/>
-      <c r="L6" s="176"/>
-      <c r="M6" s="176"/>
-      <c r="N6" s="176"/>
-      <c r="O6" s="176"/>
-      <c r="P6" s="176"/>
-      <c r="Q6" s="176"/>
-      <c r="R6" s="176"/>
-      <c r="S6" s="176"/>
-      <c r="T6" s="176"/>
-      <c r="U6" s="176"/>
-      <c r="V6" s="176"/>
-      <c r="W6" s="176"/>
+      <c r="A6" s="175"/>
+      <c r="B6" s="175"/>
+      <c r="C6" s="175"/>
+      <c r="D6" s="175"/>
+      <c r="E6" s="175"/>
+      <c r="F6" s="175"/>
+      <c r="G6" s="175"/>
+      <c r="H6" s="175"/>
+      <c r="I6" s="175"/>
+      <c r="J6" s="175"/>
+      <c r="K6" s="175"/>
+      <c r="L6" s="175"/>
+      <c r="M6" s="175"/>
+      <c r="N6" s="175"/>
+      <c r="O6" s="175"/>
+      <c r="P6" s="175"/>
+      <c r="Q6" s="175"/>
+      <c r="R6" s="175"/>
+      <c r="S6" s="175"/>
+      <c r="T6" s="175"/>
+      <c r="U6" s="175"/>
+      <c r="V6" s="175"/>
+      <c r="W6" s="175"/>
     </row>
     <row r="7" spans="1:23" ht="12" customHeight="1">
-      <c r="A7" s="177"/>
-      <c r="B7" s="178"/>
+      <c r="A7" s="176"/>
+      <c r="B7" s="177"/>
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
@@ -2452,8 +2441,8 @@
       <c r="W7" s="40"/>
     </row>
     <row r="8" spans="1:23" ht="12" customHeight="1">
-      <c r="A8" s="179"/>
-      <c r="B8" s="180"/>
+      <c r="A8" s="168"/>
+      <c r="B8" s="169"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
@@ -2477,8 +2466,8 @@
       <c r="W8" s="45"/>
     </row>
     <row r="9" spans="1:23" ht="12" customHeight="1">
-      <c r="A9" s="181"/>
-      <c r="B9" s="182"/>
+      <c r="A9" s="170"/>
+      <c r="B9" s="171"/>
       <c r="C9" s="4"/>
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
@@ -2502,8 +2491,8 @@
       <c r="W9" s="52"/>
     </row>
     <row r="10" spans="1:23" ht="12" customHeight="1">
-      <c r="A10" s="179"/>
-      <c r="B10" s="180"/>
+      <c r="A10" s="168"/>
+      <c r="B10" s="169"/>
       <c r="C10" s="4"/>
       <c r="D10" s="9"/>
       <c r="E10" s="6"/>
@@ -2527,8 +2516,8 @@
       <c r="W10" s="45"/>
     </row>
     <row r="11" spans="1:23" ht="12" customHeight="1">
-      <c r="A11" s="179"/>
-      <c r="B11" s="180"/>
+      <c r="A11" s="168"/>
+      <c r="B11" s="169"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
       <c r="E11" s="10"/>
@@ -2579,15 +2568,15 @@
     <row r="13" spans="1:23" ht="12" customHeight="1">
       <c r="A13" s="164"/>
       <c r="B13" s="164"/>
-      <c r="C13" s="169"/>
-      <c r="D13" s="170"/>
+      <c r="C13" s="167"/>
+      <c r="D13" s="180"/>
       <c r="E13" s="63"/>
       <c r="F13" s="64"/>
       <c r="G13" s="64"/>
       <c r="H13" s="64"/>
       <c r="I13" s="19"/>
       <c r="J13" s="65"/>
-      <c r="K13" s="149"/>
+      <c r="K13" s="147"/>
       <c r="L13" s="67"/>
       <c r="M13" s="67"/>
       <c r="N13" s="67"/>
@@ -2599,7 +2588,7 @@
       <c r="T13" s="67"/>
       <c r="U13" s="67"/>
       <c r="V13" s="67"/>
-      <c r="W13" s="150"/>
+      <c r="W13" s="148"/>
     </row>
     <row r="14" spans="1:23" ht="12" customHeight="1">
       <c r="A14" s="25"/>
@@ -2624,13 +2613,13 @@
       <c r="T14" s="75"/>
       <c r="U14" s="75"/>
       <c r="V14" s="75"/>
-      <c r="W14" s="167"/>
+      <c r="W14" s="162"/>
     </row>
     <row r="15" spans="1:23" ht="12" customHeight="1">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
-      <c r="C15" s="183"/>
-      <c r="D15" s="184"/>
+      <c r="C15" s="166"/>
+      <c r="D15" s="181"/>
       <c r="E15" s="71"/>
       <c r="F15" s="72"/>
       <c r="G15" s="72"/>
@@ -2649,13 +2638,13 @@
       <c r="T15" s="78"/>
       <c r="U15" s="78"/>
       <c r="V15" s="79"/>
-      <c r="W15" s="168"/>
+      <c r="W15" s="163"/>
     </row>
     <row r="16" spans="1:23" ht="12" customHeight="1">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
-      <c r="C16" s="169"/>
-      <c r="D16" s="170"/>
+      <c r="C16" s="167"/>
+      <c r="D16" s="180"/>
       <c r="E16" s="63"/>
       <c r="F16" s="64"/>
       <c r="G16" s="64"/>
@@ -2704,13 +2693,13 @@
     <row r="18" spans="1:23" ht="12" customHeight="1">
       <c r="A18" s="164"/>
       <c r="B18" s="164"/>
-      <c r="C18" s="169"/>
-      <c r="D18" s="170"/>
+      <c r="C18" s="167"/>
+      <c r="D18" s="180"/>
       <c r="E18" s="87"/>
       <c r="F18" s="88"/>
       <c r="G18" s="88"/>
       <c r="H18" s="88"/>
-      <c r="I18" s="89"/>
+      <c r="I18" s="105"/>
       <c r="J18" s="81"/>
       <c r="K18" s="82"/>
       <c r="L18" s="83"/>
@@ -2729,51 +2718,51 @@
     <row r="19" spans="1:23" ht="12" customHeight="1">
       <c r="A19" s="164"/>
       <c r="B19" s="164"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="94"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="96"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="165"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="94"/>
       <c r="K19" s="49"/>
-      <c r="L19" s="97"/>
-      <c r="M19" s="97"/>
-      <c r="N19" s="97"/>
-      <c r="O19" s="97"/>
-      <c r="P19" s="97"/>
-      <c r="Q19" s="97"/>
-      <c r="R19" s="97"/>
-      <c r="S19" s="97"/>
-      <c r="T19" s="97"/>
-      <c r="U19" s="97"/>
-      <c r="V19" s="97"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="95"/>
+      <c r="Q19" s="95"/>
+      <c r="R19" s="95"/>
+      <c r="S19" s="95"/>
+      <c r="T19" s="95"/>
+      <c r="U19" s="95"/>
+      <c r="V19" s="95"/>
       <c r="W19" s="52"/>
     </row>
     <row r="20" spans="1:23" ht="12" customHeight="1">
       <c r="A20" s="164"/>
       <c r="B20" s="164"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="100"/>
-      <c r="J20" s="101"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="165"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="99"/>
       <c r="K20" s="53"/>
-      <c r="L20" s="102"/>
-      <c r="M20" s="102"/>
-      <c r="N20" s="102"/>
-      <c r="O20" s="102"/>
-      <c r="P20" s="102"/>
-      <c r="Q20" s="102"/>
-      <c r="R20" s="102"/>
-      <c r="S20" s="102"/>
-      <c r="T20" s="102"/>
-      <c r="U20" s="102"/>
-      <c r="V20" s="102"/>
+      <c r="L20" s="100"/>
+      <c r="M20" s="100"/>
+      <c r="N20" s="100"/>
+      <c r="O20" s="100"/>
+      <c r="P20" s="100"/>
+      <c r="Q20" s="100"/>
+      <c r="R20" s="100"/>
+      <c r="S20" s="100"/>
+      <c r="T20" s="100"/>
+      <c r="U20" s="100"/>
+      <c r="V20" s="100"/>
       <c r="W20" s="45"/>
     </row>
     <row r="21" spans="1:23" ht="12" customHeight="1">
@@ -2781,11 +2770,11 @@
       <c r="B21" s="164"/>
       <c r="C21" s="69"/>
       <c r="D21" s="70"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="105"/>
-      <c r="I21" s="106"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="104"/>
       <c r="J21" s="86"/>
       <c r="K21" s="51"/>
       <c r="L21" s="50"/>
@@ -2804,13 +2793,13 @@
     <row r="22" spans="1:23" ht="12" customHeight="1">
       <c r="A22" s="164"/>
       <c r="B22" s="164"/>
-      <c r="C22" s="169"/>
-      <c r="D22" s="170"/>
+      <c r="C22" s="167"/>
+      <c r="D22" s="180"/>
       <c r="E22" s="87"/>
       <c r="F22" s="88"/>
       <c r="G22" s="88"/>
       <c r="H22" s="88"/>
-      <c r="I22" s="89"/>
+      <c r="I22" s="105"/>
       <c r="J22" s="81"/>
       <c r="K22" s="82"/>
       <c r="L22" s="83"/>
@@ -2829,51 +2818,51 @@
     <row r="23" spans="1:23" ht="12" customHeight="1">
       <c r="A23" s="164"/>
       <c r="B23" s="164"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="94"/>
-      <c r="H23" s="94"/>
-      <c r="I23" s="95"/>
-      <c r="J23" s="96"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="165"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="93"/>
+      <c r="J23" s="94"/>
       <c r="K23" s="49"/>
-      <c r="L23" s="97"/>
-      <c r="M23" s="97"/>
-      <c r="N23" s="97"/>
-      <c r="O23" s="97"/>
-      <c r="P23" s="97"/>
-      <c r="Q23" s="97"/>
-      <c r="R23" s="97"/>
-      <c r="S23" s="97"/>
-      <c r="T23" s="97"/>
-      <c r="U23" s="97"/>
-      <c r="V23" s="97"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="95"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="95"/>
+      <c r="Q23" s="95"/>
+      <c r="R23" s="95"/>
+      <c r="S23" s="95"/>
+      <c r="T23" s="95"/>
+      <c r="U23" s="95"/>
+      <c r="V23" s="95"/>
       <c r="W23" s="52"/>
     </row>
     <row r="24" spans="1:23" ht="12" customHeight="1">
       <c r="A24" s="164"/>
       <c r="B24" s="164"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="100"/>
-      <c r="J24" s="101"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="165"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="98"/>
+      <c r="J24" s="99"/>
       <c r="K24" s="53"/>
-      <c r="L24" s="102"/>
-      <c r="M24" s="102"/>
-      <c r="N24" s="102"/>
-      <c r="O24" s="102"/>
-      <c r="P24" s="102"/>
-      <c r="Q24" s="102"/>
-      <c r="R24" s="102"/>
-      <c r="S24" s="102"/>
-      <c r="T24" s="102"/>
-      <c r="U24" s="102"/>
-      <c r="V24" s="102"/>
+      <c r="L24" s="100"/>
+      <c r="M24" s="100"/>
+      <c r="N24" s="100"/>
+      <c r="O24" s="100"/>
+      <c r="P24" s="100"/>
+      <c r="Q24" s="100"/>
+      <c r="R24" s="100"/>
+      <c r="S24" s="100"/>
+      <c r="T24" s="100"/>
+      <c r="U24" s="100"/>
+      <c r="V24" s="100"/>
       <c r="W24" s="45"/>
     </row>
     <row r="25" spans="1:23" ht="12" customHeight="1">
@@ -2881,11 +2870,11 @@
       <c r="B25" s="164"/>
       <c r="C25" s="69"/>
       <c r="D25" s="70"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="105"/>
-      <c r="I25" s="106"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="104"/>
       <c r="J25" s="86"/>
       <c r="K25" s="51"/>
       <c r="L25" s="50"/>
@@ -2904,13 +2893,13 @@
     <row r="26" spans="1:23" ht="12" customHeight="1">
       <c r="A26" s="164"/>
       <c r="B26" s="164"/>
-      <c r="C26" s="169"/>
-      <c r="D26" s="170"/>
+      <c r="C26" s="167"/>
+      <c r="D26" s="180"/>
       <c r="E26" s="87"/>
       <c r="F26" s="88"/>
       <c r="G26" s="88"/>
       <c r="H26" s="88"/>
-      <c r="I26" s="107"/>
+      <c r="I26" s="105"/>
       <c r="J26" s="81"/>
       <c r="K26" s="82"/>
       <c r="L26" s="83"/>
@@ -2929,51 +2918,51 @@
     <row r="27" spans="1:23" ht="12" customHeight="1">
       <c r="A27" s="164"/>
       <c r="B27" s="164"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="100"/>
-      <c r="J27" s="96"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="165"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="97"/>
+      <c r="H27" s="97"/>
+      <c r="I27" s="98"/>
+      <c r="J27" s="94"/>
       <c r="K27" s="49"/>
-      <c r="L27" s="97"/>
-      <c r="M27" s="97"/>
-      <c r="N27" s="97"/>
-      <c r="O27" s="97"/>
-      <c r="P27" s="97"/>
-      <c r="Q27" s="97"/>
-      <c r="R27" s="97"/>
-      <c r="S27" s="97"/>
-      <c r="T27" s="97"/>
-      <c r="U27" s="97"/>
-      <c r="V27" s="97"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="95"/>
+      <c r="Q27" s="95"/>
+      <c r="R27" s="95"/>
+      <c r="S27" s="95"/>
+      <c r="T27" s="95"/>
+      <c r="U27" s="95"/>
+      <c r="V27" s="95"/>
       <c r="W27" s="52"/>
     </row>
     <row r="28" spans="1:23" ht="12" customHeight="1">
       <c r="A28" s="164"/>
       <c r="B28" s="164"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="98"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="99"/>
-      <c r="I28" s="100"/>
-      <c r="J28" s="108"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="165"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="97"/>
+      <c r="H28" s="97"/>
+      <c r="I28" s="98"/>
+      <c r="J28" s="106"/>
       <c r="K28" s="53"/>
-      <c r="L28" s="102"/>
-      <c r="M28" s="102"/>
-      <c r="N28" s="102"/>
-      <c r="O28" s="102"/>
-      <c r="P28" s="102"/>
-      <c r="Q28" s="102"/>
-      <c r="R28" s="102"/>
-      <c r="S28" s="102"/>
-      <c r="T28" s="102"/>
-      <c r="U28" s="102"/>
-      <c r="V28" s="102"/>
+      <c r="L28" s="100"/>
+      <c r="M28" s="100"/>
+      <c r="N28" s="100"/>
+      <c r="O28" s="100"/>
+      <c r="P28" s="100"/>
+      <c r="Q28" s="100"/>
+      <c r="R28" s="100"/>
+      <c r="S28" s="100"/>
+      <c r="T28" s="100"/>
+      <c r="U28" s="100"/>
+      <c r="V28" s="100"/>
       <c r="W28" s="45"/>
     </row>
     <row r="29" spans="1:23" ht="12" customHeight="1">
@@ -2981,11 +2970,11 @@
       <c r="B29" s="164"/>
       <c r="C29" s="69"/>
       <c r="D29" s="70"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="105"/>
-      <c r="H29" s="105"/>
-      <c r="I29" s="106"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="104"/>
       <c r="J29" s="86"/>
       <c r="K29" s="51"/>
       <c r="L29" s="50"/>
@@ -3004,13 +2993,13 @@
     <row r="30" spans="1:23" ht="12" customHeight="1">
       <c r="A30" s="164"/>
       <c r="B30" s="164"/>
-      <c r="C30" s="169"/>
-      <c r="D30" s="170"/>
-      <c r="E30" s="109"/>
+      <c r="C30" s="167"/>
+      <c r="D30" s="180"/>
+      <c r="E30" s="107"/>
       <c r="F30" s="88"/>
       <c r="G30" s="88"/>
       <c r="H30" s="88"/>
-      <c r="I30" s="110"/>
+      <c r="I30" s="108"/>
       <c r="J30" s="81"/>
       <c r="K30" s="82"/>
       <c r="L30" s="83"/>
@@ -3029,51 +3018,51 @@
     <row r="31" spans="1:23" ht="12" customHeight="1">
       <c r="A31" s="164"/>
       <c r="B31" s="164"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="112"/>
-      <c r="J31" s="96"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="165"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="97"/>
+      <c r="H31" s="97"/>
+      <c r="I31" s="110"/>
+      <c r="J31" s="94"/>
       <c r="K31" s="49"/>
-      <c r="L31" s="97"/>
-      <c r="M31" s="97"/>
-      <c r="N31" s="97"/>
-      <c r="O31" s="97"/>
-      <c r="P31" s="97"/>
-      <c r="Q31" s="97"/>
-      <c r="R31" s="97"/>
-      <c r="S31" s="97"/>
-      <c r="T31" s="97"/>
-      <c r="U31" s="97"/>
-      <c r="V31" s="97"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="95"/>
+      <c r="Q31" s="95"/>
+      <c r="R31" s="95"/>
+      <c r="S31" s="95"/>
+      <c r="T31" s="95"/>
+      <c r="U31" s="95"/>
+      <c r="V31" s="95"/>
       <c r="W31" s="52"/>
     </row>
     <row r="32" spans="1:23" ht="12" customHeight="1">
       <c r="A32" s="164"/>
       <c r="B32" s="164"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="111"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="112"/>
-      <c r="J32" s="101"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="165"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="97"/>
+      <c r="G32" s="97"/>
+      <c r="H32" s="97"/>
+      <c r="I32" s="110"/>
+      <c r="J32" s="99"/>
       <c r="K32" s="53"/>
-      <c r="L32" s="102"/>
-      <c r="M32" s="102"/>
-      <c r="N32" s="102"/>
-      <c r="O32" s="102"/>
-      <c r="P32" s="102"/>
-      <c r="Q32" s="102"/>
-      <c r="R32" s="102"/>
-      <c r="S32" s="102"/>
-      <c r="T32" s="102"/>
-      <c r="U32" s="102"/>
-      <c r="V32" s="102"/>
+      <c r="L32" s="100"/>
+      <c r="M32" s="100"/>
+      <c r="N32" s="100"/>
+      <c r="O32" s="100"/>
+      <c r="P32" s="100"/>
+      <c r="Q32" s="100"/>
+      <c r="R32" s="100"/>
+      <c r="S32" s="100"/>
+      <c r="T32" s="100"/>
+      <c r="U32" s="100"/>
+      <c r="V32" s="100"/>
       <c r="W32" s="45"/>
     </row>
     <row r="33" spans="1:23" ht="12" customHeight="1">
@@ -3081,11 +3070,11 @@
       <c r="B33" s="164"/>
       <c r="C33" s="69"/>
       <c r="D33" s="70"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="105"/>
-      <c r="H33" s="105"/>
-      <c r="I33" s="114"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="112"/>
       <c r="J33" s="76"/>
       <c r="K33" s="51"/>
       <c r="L33" s="50"/>
@@ -3104,76 +3093,76 @@
     <row r="34" spans="1:23" ht="12" customHeight="1">
       <c r="A34" s="164"/>
       <c r="B34" s="164"/>
-      <c r="C34" s="169"/>
-      <c r="D34" s="170"/>
-      <c r="E34" s="115"/>
-      <c r="F34" s="116"/>
+      <c r="C34" s="167"/>
+      <c r="D34" s="180"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="114"/>
       <c r="G34" s="88"/>
-      <c r="H34" s="116"/>
-      <c r="I34" s="110"/>
-      <c r="J34" s="108"/>
-      <c r="K34" s="117"/>
-      <c r="L34" s="118"/>
-      <c r="M34" s="118"/>
-      <c r="N34" s="118"/>
-      <c r="O34" s="118"/>
-      <c r="P34" s="118"/>
-      <c r="Q34" s="118"/>
-      <c r="R34" s="118"/>
-      <c r="S34" s="118"/>
-      <c r="T34" s="118"/>
-      <c r="U34" s="118"/>
-      <c r="V34" s="119"/>
-      <c r="W34" s="120"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="108"/>
+      <c r="J34" s="106"/>
+      <c r="K34" s="115"/>
+      <c r="L34" s="116"/>
+      <c r="M34" s="116"/>
+      <c r="N34" s="116"/>
+      <c r="O34" s="116"/>
+      <c r="P34" s="116"/>
+      <c r="Q34" s="116"/>
+      <c r="R34" s="116"/>
+      <c r="S34" s="116"/>
+      <c r="T34" s="116"/>
+      <c r="U34" s="116"/>
+      <c r="V34" s="117"/>
+      <c r="W34" s="118"/>
     </row>
     <row r="35" spans="1:23" ht="12" customHeight="1">
       <c r="A35" s="164"/>
       <c r="B35" s="164"/>
-      <c r="C35" s="90"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="111"/>
-      <c r="F35" s="99"/>
-      <c r="G35" s="99"/>
-      <c r="H35" s="99"/>
-      <c r="I35" s="112"/>
-      <c r="J35" s="121"/>
-      <c r="K35" s="122"/>
-      <c r="L35" s="123"/>
-      <c r="M35" s="123"/>
-      <c r="N35" s="123"/>
-      <c r="O35" s="123"/>
-      <c r="P35" s="123"/>
-      <c r="Q35" s="123"/>
-      <c r="R35" s="123"/>
-      <c r="S35" s="123"/>
-      <c r="T35" s="123"/>
-      <c r="U35" s="123"/>
-      <c r="V35" s="124"/>
-      <c r="W35" s="125"/>
+      <c r="C35" s="89"/>
+      <c r="D35" s="165"/>
+      <c r="E35" s="109"/>
+      <c r="F35" s="97"/>
+      <c r="G35" s="97"/>
+      <c r="H35" s="97"/>
+      <c r="I35" s="110"/>
+      <c r="J35" s="119"/>
+      <c r="K35" s="120"/>
+      <c r="L35" s="121"/>
+      <c r="M35" s="121"/>
+      <c r="N35" s="121"/>
+      <c r="O35" s="121"/>
+      <c r="P35" s="121"/>
+      <c r="Q35" s="121"/>
+      <c r="R35" s="121"/>
+      <c r="S35" s="121"/>
+      <c r="T35" s="121"/>
+      <c r="U35" s="121"/>
+      <c r="V35" s="122"/>
+      <c r="W35" s="123"/>
     </row>
     <row r="36" spans="1:23" ht="12" customHeight="1">
       <c r="A36" s="164"/>
       <c r="B36" s="164"/>
-      <c r="C36" s="90"/>
-      <c r="D36" s="91"/>
-      <c r="E36" s="111"/>
-      <c r="F36" s="99"/>
-      <c r="G36" s="99"/>
-      <c r="H36" s="99"/>
-      <c r="I36" s="112"/>
-      <c r="J36" s="108"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="165"/>
+      <c r="E36" s="109"/>
+      <c r="F36" s="97"/>
+      <c r="G36" s="97"/>
+      <c r="H36" s="97"/>
+      <c r="I36" s="110"/>
+      <c r="J36" s="106"/>
       <c r="K36" s="53"/>
-      <c r="L36" s="102"/>
-      <c r="M36" s="102"/>
-      <c r="N36" s="102"/>
-      <c r="O36" s="102"/>
-      <c r="P36" s="102"/>
-      <c r="Q36" s="102"/>
-      <c r="R36" s="102"/>
-      <c r="S36" s="102"/>
-      <c r="T36" s="102"/>
-      <c r="U36" s="102"/>
-      <c r="V36" s="102"/>
+      <c r="L36" s="100"/>
+      <c r="M36" s="100"/>
+      <c r="N36" s="100"/>
+      <c r="O36" s="100"/>
+      <c r="P36" s="100"/>
+      <c r="Q36" s="100"/>
+      <c r="R36" s="100"/>
+      <c r="S36" s="100"/>
+      <c r="T36" s="100"/>
+      <c r="U36" s="100"/>
+      <c r="V36" s="100"/>
       <c r="W36" s="45"/>
     </row>
     <row r="37" spans="1:23" ht="12" customHeight="1">
@@ -3181,36 +3170,36 @@
       <c r="B37" s="164"/>
       <c r="C37" s="69"/>
       <c r="D37" s="70"/>
-      <c r="E37" s="113"/>
-      <c r="F37" s="105"/>
-      <c r="G37" s="105"/>
-      <c r="H37" s="105"/>
-      <c r="I37" s="114"/>
-      <c r="J37" s="121"/>
-      <c r="K37" s="126"/>
-      <c r="L37" s="127"/>
-      <c r="M37" s="127"/>
-      <c r="N37" s="127"/>
-      <c r="O37" s="127"/>
-      <c r="P37" s="127"/>
-      <c r="Q37" s="127"/>
-      <c r="R37" s="127"/>
-      <c r="S37" s="127"/>
-      <c r="T37" s="127"/>
-      <c r="U37" s="127"/>
-      <c r="V37" s="124"/>
-      <c r="W37" s="128"/>
+      <c r="E37" s="111"/>
+      <c r="F37" s="103"/>
+      <c r="G37" s="103"/>
+      <c r="H37" s="103"/>
+      <c r="I37" s="112"/>
+      <c r="J37" s="119"/>
+      <c r="K37" s="124"/>
+      <c r="L37" s="125"/>
+      <c r="M37" s="125"/>
+      <c r="N37" s="125"/>
+      <c r="O37" s="125"/>
+      <c r="P37" s="125"/>
+      <c r="Q37" s="125"/>
+      <c r="R37" s="125"/>
+      <c r="S37" s="125"/>
+      <c r="T37" s="125"/>
+      <c r="U37" s="125"/>
+      <c r="V37" s="122"/>
+      <c r="W37" s="126"/>
     </row>
     <row r="38" spans="1:23" ht="12" customHeight="1">
       <c r="A38" s="164"/>
       <c r="B38" s="164"/>
-      <c r="C38" s="169"/>
-      <c r="D38" s="170"/>
-      <c r="E38" s="129"/>
+      <c r="C38" s="167"/>
+      <c r="D38" s="180"/>
+      <c r="E38" s="127"/>
       <c r="F38" s="66"/>
       <c r="G38" s="66"/>
       <c r="H38" s="66"/>
-      <c r="I38" s="110"/>
+      <c r="I38" s="108"/>
       <c r="J38" s="81"/>
       <c r="K38" s="82"/>
       <c r="L38" s="83"/>
@@ -3229,51 +3218,51 @@
     <row r="39" spans="1:23" ht="12" customHeight="1">
       <c r="A39" s="164"/>
       <c r="B39" s="164"/>
-      <c r="C39" s="90"/>
-      <c r="D39" s="91"/>
-      <c r="E39" s="130"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="165"/>
+      <c r="E39" s="128"/>
       <c r="F39" s="41"/>
       <c r="G39" s="41"/>
       <c r="H39" s="41"/>
-      <c r="I39" s="112"/>
-      <c r="J39" s="96"/>
+      <c r="I39" s="110"/>
+      <c r="J39" s="94"/>
       <c r="K39" s="49"/>
-      <c r="L39" s="97"/>
-      <c r="M39" s="97"/>
-      <c r="N39" s="97"/>
-      <c r="O39" s="97"/>
-      <c r="P39" s="97"/>
-      <c r="Q39" s="97"/>
-      <c r="R39" s="97"/>
-      <c r="S39" s="97"/>
-      <c r="T39" s="97"/>
-      <c r="U39" s="97"/>
-      <c r="V39" s="97"/>
+      <c r="L39" s="95"/>
+      <c r="M39" s="95"/>
+      <c r="N39" s="95"/>
+      <c r="O39" s="95"/>
+      <c r="P39" s="95"/>
+      <c r="Q39" s="95"/>
+      <c r="R39" s="95"/>
+      <c r="S39" s="95"/>
+      <c r="T39" s="95"/>
+      <c r="U39" s="95"/>
+      <c r="V39" s="95"/>
       <c r="W39" s="52"/>
     </row>
     <row r="40" spans="1:23" ht="12" customHeight="1">
       <c r="A40" s="164"/>
       <c r="B40" s="164"/>
-      <c r="C40" s="90"/>
-      <c r="D40" s="91"/>
-      <c r="E40" s="111"/>
-      <c r="F40" s="99"/>
-      <c r="G40" s="99"/>
-      <c r="H40" s="131"/>
-      <c r="I40" s="112"/>
-      <c r="J40" s="108"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="165"/>
+      <c r="E40" s="109"/>
+      <c r="F40" s="97"/>
+      <c r="G40" s="97"/>
+      <c r="H40" s="129"/>
+      <c r="I40" s="110"/>
+      <c r="J40" s="106"/>
       <c r="K40" s="53"/>
-      <c r="L40" s="102"/>
-      <c r="M40" s="102"/>
-      <c r="N40" s="102"/>
-      <c r="O40" s="102"/>
-      <c r="P40" s="102"/>
-      <c r="Q40" s="102"/>
-      <c r="R40" s="102"/>
-      <c r="S40" s="102"/>
-      <c r="T40" s="102"/>
-      <c r="U40" s="102"/>
-      <c r="V40" s="102"/>
+      <c r="L40" s="100"/>
+      <c r="M40" s="100"/>
+      <c r="N40" s="100"/>
+      <c r="O40" s="100"/>
+      <c r="P40" s="100"/>
+      <c r="Q40" s="100"/>
+      <c r="R40" s="100"/>
+      <c r="S40" s="100"/>
+      <c r="T40" s="100"/>
+      <c r="U40" s="100"/>
+      <c r="V40" s="100"/>
       <c r="W40" s="45"/>
     </row>
     <row r="41" spans="1:23" ht="12" customHeight="1">
@@ -3281,11 +3270,11 @@
       <c r="B41" s="164"/>
       <c r="C41" s="69"/>
       <c r="D41" s="70"/>
-      <c r="E41" s="113"/>
-      <c r="F41" s="105"/>
-      <c r="G41" s="105"/>
-      <c r="H41" s="132"/>
-      <c r="I41" s="114"/>
+      <c r="E41" s="111"/>
+      <c r="F41" s="103"/>
+      <c r="G41" s="103"/>
+      <c r="H41" s="130"/>
+      <c r="I41" s="112"/>
       <c r="J41" s="86"/>
       <c r="K41" s="51"/>
       <c r="L41" s="50"/>
@@ -3304,13 +3293,13 @@
     <row r="42" spans="1:23" ht="12" customHeight="1">
       <c r="A42" s="164"/>
       <c r="B42" s="164"/>
-      <c r="C42" s="169"/>
-      <c r="D42" s="170"/>
-      <c r="E42" s="129"/>
+      <c r="C42" s="167"/>
+      <c r="D42" s="180"/>
+      <c r="E42" s="127"/>
       <c r="F42" s="66"/>
       <c r="G42" s="66"/>
       <c r="H42" s="66"/>
-      <c r="I42" s="110"/>
+      <c r="I42" s="108"/>
       <c r="J42" s="81"/>
       <c r="K42" s="82"/>
       <c r="L42" s="83"/>
@@ -3329,51 +3318,51 @@
     <row r="43" spans="1:23" ht="12" customHeight="1">
       <c r="A43" s="164"/>
       <c r="B43" s="164"/>
-      <c r="C43" s="90"/>
-      <c r="D43" s="91"/>
-      <c r="E43" s="130"/>
+      <c r="C43" s="89"/>
+      <c r="D43" s="165"/>
+      <c r="E43" s="128"/>
       <c r="F43" s="41"/>
       <c r="G43" s="41"/>
       <c r="H43" s="41"/>
-      <c r="I43" s="112"/>
-      <c r="J43" s="96"/>
+      <c r="I43" s="110"/>
+      <c r="J43" s="94"/>
       <c r="K43" s="49"/>
-      <c r="L43" s="97"/>
-      <c r="M43" s="97"/>
-      <c r="N43" s="97"/>
-      <c r="O43" s="97"/>
-      <c r="P43" s="97"/>
-      <c r="Q43" s="97"/>
-      <c r="R43" s="97"/>
-      <c r="S43" s="97"/>
-      <c r="T43" s="97"/>
-      <c r="U43" s="97"/>
-      <c r="V43" s="97"/>
+      <c r="L43" s="95"/>
+      <c r="M43" s="95"/>
+      <c r="N43" s="95"/>
+      <c r="O43" s="95"/>
+      <c r="P43" s="95"/>
+      <c r="Q43" s="95"/>
+      <c r="R43" s="95"/>
+      <c r="S43" s="95"/>
+      <c r="T43" s="95"/>
+      <c r="U43" s="95"/>
+      <c r="V43" s="95"/>
       <c r="W43" s="52"/>
     </row>
     <row r="44" spans="1:23" ht="12" customHeight="1">
       <c r="A44" s="164"/>
       <c r="B44" s="164"/>
-      <c r="C44" s="90"/>
-      <c r="D44" s="91"/>
-      <c r="E44" s="111"/>
-      <c r="F44" s="99"/>
-      <c r="G44" s="99"/>
-      <c r="H44" s="131"/>
-      <c r="I44" s="112"/>
-      <c r="J44" s="108"/>
+      <c r="C44" s="89"/>
+      <c r="D44" s="165"/>
+      <c r="E44" s="109"/>
+      <c r="F44" s="97"/>
+      <c r="G44" s="97"/>
+      <c r="H44" s="129"/>
+      <c r="I44" s="110"/>
+      <c r="J44" s="106"/>
       <c r="K44" s="53"/>
-      <c r="L44" s="102"/>
-      <c r="M44" s="102"/>
-      <c r="N44" s="102"/>
-      <c r="O44" s="102"/>
-      <c r="P44" s="102"/>
-      <c r="Q44" s="102"/>
-      <c r="R44" s="102"/>
-      <c r="S44" s="102"/>
-      <c r="T44" s="102"/>
-      <c r="U44" s="102"/>
-      <c r="V44" s="102"/>
+      <c r="L44" s="100"/>
+      <c r="M44" s="100"/>
+      <c r="N44" s="100"/>
+      <c r="O44" s="100"/>
+      <c r="P44" s="100"/>
+      <c r="Q44" s="100"/>
+      <c r="R44" s="100"/>
+      <c r="S44" s="100"/>
+      <c r="T44" s="100"/>
+      <c r="U44" s="100"/>
+      <c r="V44" s="100"/>
       <c r="W44" s="45"/>
     </row>
     <row r="45" spans="1:23" ht="12" customHeight="1">
@@ -3381,11 +3370,11 @@
       <c r="B45" s="164"/>
       <c r="C45" s="69"/>
       <c r="D45" s="70"/>
-      <c r="E45" s="113"/>
-      <c r="F45" s="105"/>
-      <c r="G45" s="105"/>
-      <c r="H45" s="105"/>
-      <c r="I45" s="114"/>
+      <c r="E45" s="111"/>
+      <c r="F45" s="103"/>
+      <c r="G45" s="103"/>
+      <c r="H45" s="103"/>
+      <c r="I45" s="112"/>
       <c r="J45" s="86"/>
       <c r="K45" s="51"/>
       <c r="L45" s="50"/>
@@ -3404,13 +3393,13 @@
     <row r="46" spans="1:23" ht="12" customHeight="1">
       <c r="A46" s="164"/>
       <c r="B46" s="164"/>
-      <c r="C46" s="169"/>
-      <c r="D46" s="170"/>
+      <c r="C46" s="167"/>
+      <c r="D46" s="180"/>
       <c r="E46" s="87"/>
-      <c r="F46" s="133"/>
+      <c r="F46" s="131"/>
       <c r="G46" s="66"/>
       <c r="H46" s="66"/>
-      <c r="I46" s="134"/>
+      <c r="I46" s="132"/>
       <c r="J46" s="81"/>
       <c r="K46" s="82"/>
       <c r="L46" s="83"/>
@@ -3429,51 +3418,51 @@
     <row r="47" spans="1:23" ht="12" customHeight="1">
       <c r="A47" s="164"/>
       <c r="B47" s="164"/>
-      <c r="C47" s="90"/>
-      <c r="D47" s="91"/>
-      <c r="E47" s="92"/>
+      <c r="C47" s="89"/>
+      <c r="D47" s="165"/>
+      <c r="E47" s="90"/>
       <c r="F47" s="61"/>
       <c r="G47" s="41"/>
       <c r="H47" s="41"/>
-      <c r="I47" s="135"/>
-      <c r="J47" s="96"/>
+      <c r="I47" s="133"/>
+      <c r="J47" s="94"/>
       <c r="K47" s="49"/>
-      <c r="L47" s="97"/>
-      <c r="M47" s="97"/>
-      <c r="N47" s="97"/>
-      <c r="O47" s="97"/>
-      <c r="P47" s="97"/>
-      <c r="Q47" s="97"/>
-      <c r="R47" s="97"/>
-      <c r="S47" s="97"/>
-      <c r="T47" s="97"/>
-      <c r="U47" s="97"/>
-      <c r="V47" s="97"/>
+      <c r="L47" s="95"/>
+      <c r="M47" s="95"/>
+      <c r="N47" s="95"/>
+      <c r="O47" s="95"/>
+      <c r="P47" s="95"/>
+      <c r="Q47" s="95"/>
+      <c r="R47" s="95"/>
+      <c r="S47" s="95"/>
+      <c r="T47" s="95"/>
+      <c r="U47" s="95"/>
+      <c r="V47" s="95"/>
       <c r="W47" s="52"/>
     </row>
     <row r="48" spans="1:23" ht="12" customHeight="1">
       <c r="A48" s="164"/>
       <c r="B48" s="164"/>
-      <c r="C48" s="90"/>
-      <c r="D48" s="91"/>
-      <c r="E48" s="92"/>
+      <c r="C48" s="89"/>
+      <c r="D48" s="165"/>
+      <c r="E48" s="90"/>
       <c r="F48" s="61"/>
-      <c r="G48" s="136"/>
-      <c r="H48" s="137"/>
-      <c r="I48" s="112"/>
-      <c r="J48" s="108"/>
+      <c r="G48" s="134"/>
+      <c r="H48" s="135"/>
+      <c r="I48" s="110"/>
+      <c r="J48" s="106"/>
       <c r="K48" s="53"/>
-      <c r="L48" s="102"/>
-      <c r="M48" s="102"/>
-      <c r="N48" s="102"/>
-      <c r="O48" s="102"/>
-      <c r="P48" s="102"/>
-      <c r="Q48" s="102"/>
-      <c r="R48" s="102"/>
-      <c r="S48" s="102"/>
-      <c r="T48" s="102"/>
-      <c r="U48" s="102"/>
-      <c r="V48" s="102"/>
+      <c r="L48" s="100"/>
+      <c r="M48" s="100"/>
+      <c r="N48" s="100"/>
+      <c r="O48" s="100"/>
+      <c r="P48" s="100"/>
+      <c r="Q48" s="100"/>
+      <c r="R48" s="100"/>
+      <c r="S48" s="100"/>
+      <c r="T48" s="100"/>
+      <c r="U48" s="100"/>
+      <c r="V48" s="100"/>
       <c r="W48" s="45"/>
     </row>
     <row r="49" spans="1:23" ht="12" customHeight="1">
@@ -3481,11 +3470,11 @@
       <c r="B49" s="164"/>
       <c r="C49" s="69"/>
       <c r="D49" s="70"/>
-      <c r="E49" s="103"/>
-      <c r="F49" s="138"/>
-      <c r="G49" s="104"/>
-      <c r="H49" s="132"/>
-      <c r="I49" s="114"/>
+      <c r="E49" s="101"/>
+      <c r="F49" s="136"/>
+      <c r="G49" s="102"/>
+      <c r="H49" s="130"/>
+      <c r="I49" s="112"/>
       <c r="J49" s="86"/>
       <c r="K49" s="51"/>
       <c r="L49" s="50"/>
@@ -3504,13 +3493,13 @@
     <row r="50" spans="1:23" ht="12" customHeight="1">
       <c r="A50" s="164"/>
       <c r="B50" s="164"/>
-      <c r="C50" s="169"/>
-      <c r="D50" s="170"/>
+      <c r="C50" s="167"/>
+      <c r="D50" s="180"/>
       <c r="E50" s="87"/>
-      <c r="F50" s="133"/>
+      <c r="F50" s="131"/>
       <c r="G50" s="66"/>
       <c r="H50" s="66"/>
-      <c r="I50" s="134"/>
+      <c r="I50" s="132"/>
       <c r="J50" s="81"/>
       <c r="K50" s="82"/>
       <c r="L50" s="83"/>
@@ -3529,51 +3518,51 @@
     <row r="51" spans="1:23" ht="12" customHeight="1">
       <c r="A51" s="164"/>
       <c r="B51" s="164"/>
-      <c r="C51" s="90"/>
-      <c r="D51" s="91"/>
-      <c r="E51" s="92"/>
+      <c r="C51" s="89"/>
+      <c r="D51" s="165"/>
+      <c r="E51" s="90"/>
       <c r="F51" s="61"/>
       <c r="G51" s="41"/>
       <c r="H51" s="41"/>
-      <c r="I51" s="135"/>
-      <c r="J51" s="96"/>
+      <c r="I51" s="133"/>
+      <c r="J51" s="94"/>
       <c r="K51" s="49"/>
-      <c r="L51" s="97"/>
-      <c r="M51" s="97"/>
-      <c r="N51" s="97"/>
-      <c r="O51" s="97"/>
-      <c r="P51" s="97"/>
-      <c r="Q51" s="97"/>
-      <c r="R51" s="97"/>
-      <c r="S51" s="97"/>
-      <c r="T51" s="97"/>
-      <c r="U51" s="97"/>
-      <c r="V51" s="97"/>
+      <c r="L51" s="95"/>
+      <c r="M51" s="95"/>
+      <c r="N51" s="95"/>
+      <c r="O51" s="95"/>
+      <c r="P51" s="95"/>
+      <c r="Q51" s="95"/>
+      <c r="R51" s="95"/>
+      <c r="S51" s="95"/>
+      <c r="T51" s="95"/>
+      <c r="U51" s="95"/>
+      <c r="V51" s="95"/>
       <c r="W51" s="52"/>
     </row>
     <row r="52" spans="1:23" ht="12" customHeight="1">
       <c r="A52" s="164"/>
       <c r="B52" s="164"/>
-      <c r="C52" s="90"/>
-      <c r="D52" s="91"/>
-      <c r="E52" s="92"/>
+      <c r="C52" s="89"/>
+      <c r="D52" s="165"/>
+      <c r="E52" s="90"/>
       <c r="F52" s="61"/>
-      <c r="G52" s="136"/>
-      <c r="H52" s="137"/>
-      <c r="I52" s="112"/>
-      <c r="J52" s="108"/>
+      <c r="G52" s="134"/>
+      <c r="H52" s="135"/>
+      <c r="I52" s="110"/>
+      <c r="J52" s="106"/>
       <c r="K52" s="53"/>
-      <c r="L52" s="102"/>
-      <c r="M52" s="102"/>
-      <c r="N52" s="102"/>
-      <c r="O52" s="102"/>
-      <c r="P52" s="102"/>
-      <c r="Q52" s="102"/>
-      <c r="R52" s="102"/>
-      <c r="S52" s="102"/>
-      <c r="T52" s="102"/>
-      <c r="U52" s="102"/>
-      <c r="V52" s="102"/>
+      <c r="L52" s="100"/>
+      <c r="M52" s="100"/>
+      <c r="N52" s="100"/>
+      <c r="O52" s="100"/>
+      <c r="P52" s="100"/>
+      <c r="Q52" s="100"/>
+      <c r="R52" s="100"/>
+      <c r="S52" s="100"/>
+      <c r="T52" s="100"/>
+      <c r="U52" s="100"/>
+      <c r="V52" s="100"/>
       <c r="W52" s="45"/>
     </row>
     <row r="53" spans="1:23" ht="12" customHeight="1">
@@ -3581,197 +3570,197 @@
       <c r="B53" s="164"/>
       <c r="C53" s="69"/>
       <c r="D53" s="70"/>
-      <c r="E53" s="103"/>
-      <c r="F53" s="138"/>
-      <c r="G53" s="104"/>
-      <c r="H53" s="132"/>
-      <c r="I53" s="114"/>
+      <c r="E53" s="101"/>
+      <c r="F53" s="136"/>
+      <c r="G53" s="102"/>
+      <c r="H53" s="130"/>
+      <c r="I53" s="112"/>
       <c r="J53" s="76"/>
-      <c r="K53" s="139"/>
-      <c r="L53" s="140"/>
-      <c r="M53" s="140"/>
-      <c r="N53" s="140"/>
-      <c r="O53" s="140"/>
-      <c r="P53" s="140"/>
-      <c r="Q53" s="140"/>
-      <c r="R53" s="140"/>
-      <c r="S53" s="140"/>
-      <c r="T53" s="140"/>
-      <c r="U53" s="140"/>
-      <c r="V53" s="140"/>
-      <c r="W53" s="141"/>
+      <c r="K53" s="137"/>
+      <c r="L53" s="138"/>
+      <c r="M53" s="138"/>
+      <c r="N53" s="138"/>
+      <c r="O53" s="138"/>
+      <c r="P53" s="138"/>
+      <c r="Q53" s="138"/>
+      <c r="R53" s="138"/>
+      <c r="S53" s="138"/>
+      <c r="T53" s="138"/>
+      <c r="U53" s="138"/>
+      <c r="V53" s="138"/>
+      <c r="W53" s="139"/>
     </row>
     <row r="55" spans="1:23" ht="12" customHeight="1">
-      <c r="C55" s="143"/>
-      <c r="D55" s="165"/>
-      <c r="E55" s="165"/>
-      <c r="F55" s="165"/>
-      <c r="G55" s="165"/>
-      <c r="H55" s="165"/>
-      <c r="I55" s="165"/>
-      <c r="J55" s="165"/>
-      <c r="K55" s="166"/>
-      <c r="L55" s="166"/>
-      <c r="M55" s="166"/>
-      <c r="N55" s="166"/>
-      <c r="O55" s="166"/>
-      <c r="P55" s="166"/>
-      <c r="Q55" s="166"/>
-      <c r="R55" s="166"/>
-      <c r="S55" s="166"/>
-      <c r="T55" s="166"/>
-      <c r="U55" s="166"/>
-      <c r="V55" s="166"/>
-      <c r="W55" s="166"/>
+      <c r="C55" s="141"/>
+      <c r="D55" s="160"/>
+      <c r="E55" s="160"/>
+      <c r="F55" s="160"/>
+      <c r="G55" s="160"/>
+      <c r="H55" s="160"/>
+      <c r="I55" s="160"/>
+      <c r="J55" s="160"/>
+      <c r="K55" s="161"/>
+      <c r="L55" s="161"/>
+      <c r="M55" s="161"/>
+      <c r="N55" s="161"/>
+      <c r="O55" s="161"/>
+      <c r="P55" s="161"/>
+      <c r="Q55" s="161"/>
+      <c r="R55" s="161"/>
+      <c r="S55" s="161"/>
+      <c r="T55" s="161"/>
+      <c r="U55" s="161"/>
+      <c r="V55" s="161"/>
+      <c r="W55" s="161"/>
     </row>
     <row r="56" spans="1:23" ht="12" customHeight="1">
-      <c r="C56" s="147"/>
-      <c r="D56" s="144"/>
-      <c r="E56" s="144"/>
-      <c r="F56" s="144"/>
-      <c r="G56" s="144"/>
-      <c r="H56" s="144"/>
-      <c r="I56" s="144"/>
-      <c r="J56" s="144"/>
-      <c r="K56" s="145"/>
-      <c r="L56" s="145"/>
-      <c r="M56" s="145"/>
-      <c r="N56" s="145"/>
-      <c r="O56" s="145"/>
-      <c r="P56" s="145"/>
-      <c r="Q56" s="145"/>
-      <c r="R56" s="145"/>
-      <c r="S56" s="145"/>
-      <c r="T56" s="145"/>
-      <c r="U56" s="145"/>
-      <c r="V56" s="145"/>
-      <c r="W56" s="146"/>
+      <c r="C56" s="145"/>
+      <c r="D56" s="142"/>
+      <c r="E56" s="142"/>
+      <c r="F56" s="142"/>
+      <c r="G56" s="142"/>
+      <c r="H56" s="142"/>
+      <c r="I56" s="142"/>
+      <c r="J56" s="142"/>
+      <c r="K56" s="143"/>
+      <c r="L56" s="143"/>
+      <c r="M56" s="143"/>
+      <c r="N56" s="143"/>
+      <c r="O56" s="143"/>
+      <c r="P56" s="143"/>
+      <c r="Q56" s="143"/>
+      <c r="R56" s="143"/>
+      <c r="S56" s="143"/>
+      <c r="T56" s="143"/>
+      <c r="U56" s="143"/>
+      <c r="V56" s="143"/>
+      <c r="W56" s="144"/>
     </row>
     <row r="57" spans="1:23" ht="12" customHeight="1">
-      <c r="C57" s="147"/>
-      <c r="D57" s="144"/>
-      <c r="E57" s="144"/>
-      <c r="F57" s="144"/>
-      <c r="G57" s="144"/>
-      <c r="H57" s="144"/>
-      <c r="I57" s="144"/>
-      <c r="J57" s="144"/>
-      <c r="K57" s="145"/>
-      <c r="L57" s="145"/>
-      <c r="M57" s="145"/>
-      <c r="N57" s="145"/>
-      <c r="O57" s="145"/>
-      <c r="P57" s="145"/>
-      <c r="Q57" s="145"/>
-      <c r="R57" s="145"/>
-      <c r="S57" s="145"/>
-      <c r="T57" s="145"/>
-      <c r="U57" s="145"/>
-      <c r="V57" s="145"/>
-      <c r="W57" s="146"/>
+      <c r="C57" s="145"/>
+      <c r="D57" s="142"/>
+      <c r="E57" s="142"/>
+      <c r="F57" s="142"/>
+      <c r="G57" s="142"/>
+      <c r="H57" s="142"/>
+      <c r="I57" s="142"/>
+      <c r="J57" s="142"/>
+      <c r="K57" s="143"/>
+      <c r="L57" s="143"/>
+      <c r="M57" s="143"/>
+      <c r="N57" s="143"/>
+      <c r="O57" s="143"/>
+      <c r="P57" s="143"/>
+      <c r="Q57" s="143"/>
+      <c r="R57" s="143"/>
+      <c r="S57" s="143"/>
+      <c r="T57" s="143"/>
+      <c r="U57" s="143"/>
+      <c r="V57" s="143"/>
+      <c r="W57" s="144"/>
     </row>
     <row r="58" spans="1:23" ht="12" customHeight="1">
-      <c r="C58" s="147"/>
-      <c r="D58" s="144"/>
-      <c r="E58" s="144"/>
-      <c r="F58" s="144"/>
-      <c r="G58" s="144"/>
-      <c r="H58" s="144"/>
-      <c r="I58" s="144"/>
-      <c r="J58" s="144"/>
-      <c r="K58" s="145"/>
-      <c r="L58" s="145"/>
-      <c r="M58" s="145"/>
-      <c r="N58" s="145"/>
-      <c r="O58" s="145"/>
-      <c r="P58" s="145"/>
-      <c r="Q58" s="145"/>
-      <c r="R58" s="145"/>
-      <c r="S58" s="145"/>
-      <c r="T58" s="145"/>
-      <c r="U58" s="145"/>
-      <c r="V58" s="145"/>
-      <c r="W58" s="146"/>
+      <c r="C58" s="145"/>
+      <c r="D58" s="142"/>
+      <c r="E58" s="142"/>
+      <c r="F58" s="142"/>
+      <c r="G58" s="142"/>
+      <c r="H58" s="142"/>
+      <c r="I58" s="142"/>
+      <c r="J58" s="142"/>
+      <c r="K58" s="143"/>
+      <c r="L58" s="143"/>
+      <c r="M58" s="143"/>
+      <c r="N58" s="143"/>
+      <c r="O58" s="143"/>
+      <c r="P58" s="143"/>
+      <c r="Q58" s="143"/>
+      <c r="R58" s="143"/>
+      <c r="S58" s="143"/>
+      <c r="T58" s="143"/>
+      <c r="U58" s="143"/>
+      <c r="V58" s="143"/>
+      <c r="W58" s="144"/>
     </row>
     <row r="59" spans="1:23" ht="12" customHeight="1">
-      <c r="C59" s="147"/>
-      <c r="D59" s="144"/>
-      <c r="E59" s="144"/>
-      <c r="F59" s="144"/>
-      <c r="G59" s="144"/>
-      <c r="H59" s="144"/>
-      <c r="I59" s="144"/>
-      <c r="J59" s="144"/>
-      <c r="K59" s="145"/>
-      <c r="L59" s="145"/>
-      <c r="M59" s="145"/>
-      <c r="N59" s="145"/>
-      <c r="O59" s="145"/>
-      <c r="P59" s="145"/>
-      <c r="Q59" s="145"/>
-      <c r="R59" s="145"/>
-      <c r="S59" s="145"/>
-      <c r="T59" s="145"/>
-      <c r="U59" s="145"/>
-      <c r="V59" s="145"/>
-      <c r="W59" s="146"/>
+      <c r="C59" s="145"/>
+      <c r="D59" s="142"/>
+      <c r="E59" s="142"/>
+      <c r="F59" s="142"/>
+      <c r="G59" s="142"/>
+      <c r="H59" s="142"/>
+      <c r="I59" s="142"/>
+      <c r="J59" s="142"/>
+      <c r="K59" s="143"/>
+      <c r="L59" s="143"/>
+      <c r="M59" s="143"/>
+      <c r="N59" s="143"/>
+      <c r="O59" s="143"/>
+      <c r="P59" s="143"/>
+      <c r="Q59" s="143"/>
+      <c r="R59" s="143"/>
+      <c r="S59" s="143"/>
+      <c r="T59" s="143"/>
+      <c r="U59" s="143"/>
+      <c r="V59" s="143"/>
+      <c r="W59" s="144"/>
     </row>
     <row r="60" spans="1:23" ht="12" customHeight="1">
-      <c r="C60" s="147"/>
-      <c r="D60" s="144"/>
-      <c r="E60" s="144"/>
-      <c r="F60" s="144"/>
-      <c r="G60" s="144"/>
-      <c r="H60" s="144"/>
-      <c r="I60" s="144"/>
-      <c r="J60" s="144"/>
-      <c r="K60" s="145"/>
-      <c r="L60" s="145"/>
-      <c r="M60" s="145"/>
-      <c r="N60" s="145"/>
-      <c r="O60" s="145"/>
-      <c r="P60" s="145"/>
-      <c r="Q60" s="145"/>
-      <c r="R60" s="145"/>
-      <c r="S60" s="145"/>
-      <c r="T60" s="145"/>
-      <c r="U60" s="145"/>
-      <c r="V60" s="145"/>
-      <c r="W60" s="146"/>
+      <c r="C60" s="145"/>
+      <c r="D60" s="142"/>
+      <c r="E60" s="142"/>
+      <c r="F60" s="142"/>
+      <c r="G60" s="142"/>
+      <c r="H60" s="142"/>
+      <c r="I60" s="142"/>
+      <c r="J60" s="142"/>
+      <c r="K60" s="143"/>
+      <c r="L60" s="143"/>
+      <c r="M60" s="143"/>
+      <c r="N60" s="143"/>
+      <c r="O60" s="143"/>
+      <c r="P60" s="143"/>
+      <c r="Q60" s="143"/>
+      <c r="R60" s="143"/>
+      <c r="S60" s="143"/>
+      <c r="T60" s="143"/>
+      <c r="U60" s="143"/>
+      <c r="V60" s="143"/>
+      <c r="W60" s="144"/>
     </row>
     <row r="61" spans="1:23" ht="12" customHeight="1">
-      <c r="C61" s="147"/>
-      <c r="D61" s="144"/>
-      <c r="E61" s="144"/>
-      <c r="F61" s="144"/>
-      <c r="G61" s="144"/>
-      <c r="H61" s="144"/>
-      <c r="I61" s="144"/>
-      <c r="J61" s="144"/>
-      <c r="K61" s="145"/>
-      <c r="L61" s="145"/>
-      <c r="M61" s="145"/>
-      <c r="N61" s="145"/>
-      <c r="O61" s="145"/>
-      <c r="P61" s="145"/>
-      <c r="Q61" s="145"/>
-      <c r="R61" s="145"/>
-      <c r="S61" s="145"/>
-      <c r="T61" s="145"/>
-      <c r="U61" s="145"/>
-      <c r="V61" s="145"/>
-      <c r="W61" s="146"/>
+      <c r="C61" s="145"/>
+      <c r="D61" s="142"/>
+      <c r="E61" s="142"/>
+      <c r="F61" s="142"/>
+      <c r="G61" s="142"/>
+      <c r="H61" s="142"/>
+      <c r="I61" s="142"/>
+      <c r="J61" s="142"/>
+      <c r="K61" s="143"/>
+      <c r="L61" s="143"/>
+      <c r="M61" s="143"/>
+      <c r="N61" s="143"/>
+      <c r="O61" s="143"/>
+      <c r="P61" s="143"/>
+      <c r="Q61" s="143"/>
+      <c r="R61" s="143"/>
+      <c r="S61" s="143"/>
+      <c r="T61" s="143"/>
+      <c r="U61" s="143"/>
+      <c r="V61" s="143"/>
+      <c r="W61" s="144"/>
     </row>
     <row r="64" spans="1:23" ht="12" customHeight="1">
-      <c r="C64" s="169"/>
-      <c r="D64" s="170"/>
+      <c r="C64" s="167"/>
+      <c r="D64" s="180"/>
       <c r="E64" s="63"/>
       <c r="F64" s="64"/>
       <c r="G64" s="64"/>
       <c r="H64" s="64"/>
       <c r="I64" s="21"/>
-      <c r="J64" s="148"/>
-      <c r="K64" s="149"/>
+      <c r="J64" s="146"/>
+      <c r="K64" s="147"/>
       <c r="L64" s="67"/>
       <c r="M64" s="67"/>
       <c r="N64" s="67"/>
@@ -3783,7 +3772,7 @@
       <c r="T64" s="67"/>
       <c r="U64" s="67"/>
       <c r="V64" s="67"/>
-      <c r="W64" s="150"/>
+      <c r="W64" s="148"/>
     </row>
     <row r="65" spans="1:23" ht="12" customHeight="1">
       <c r="C65" s="69"/>
@@ -3794,32 +3783,32 @@
       <c r="H65" s="72"/>
       <c r="I65" s="85"/>
       <c r="J65" s="73"/>
-      <c r="K65" s="151"/>
-      <c r="L65" s="152"/>
-      <c r="M65" s="152"/>
-      <c r="N65" s="152"/>
-      <c r="O65" s="152"/>
-      <c r="P65" s="152"/>
-      <c r="Q65" s="152"/>
-      <c r="R65" s="152"/>
-      <c r="S65" s="152"/>
-      <c r="T65" s="152"/>
-      <c r="U65" s="152"/>
-      <c r="V65" s="152"/>
+      <c r="K65" s="149"/>
+      <c r="L65" s="150"/>
+      <c r="M65" s="150"/>
+      <c r="N65" s="150"/>
+      <c r="O65" s="150"/>
+      <c r="P65" s="150"/>
+      <c r="Q65" s="150"/>
+      <c r="R65" s="150"/>
+      <c r="S65" s="150"/>
+      <c r="T65" s="150"/>
+      <c r="U65" s="150"/>
+      <c r="V65" s="150"/>
       <c r="W65" s="45"/>
     </row>
     <row r="66" spans="1:23" ht="12" customHeight="1">
       <c r="A66" s="164"/>
       <c r="B66" s="164"/>
-      <c r="C66" s="169"/>
-      <c r="D66" s="170"/>
+      <c r="C66" s="167"/>
+      <c r="D66" s="180"/>
       <c r="E66" s="87"/>
       <c r="F66" s="88"/>
       <c r="G66" s="88"/>
       <c r="H66" s="88"/>
-      <c r="I66" s="89"/>
-      <c r="J66" s="148"/>
-      <c r="K66" s="149"/>
+      <c r="I66" s="105"/>
+      <c r="J66" s="146"/>
+      <c r="K66" s="147"/>
       <c r="L66" s="67"/>
       <c r="M66" s="67"/>
       <c r="N66" s="67"/>
@@ -3831,19 +3820,19 @@
       <c r="T66" s="67"/>
       <c r="U66" s="67"/>
       <c r="V66" s="67"/>
-      <c r="W66" s="150"/>
+      <c r="W66" s="148"/>
     </row>
     <row r="67" spans="1:23" ht="12" customHeight="1">
       <c r="A67" s="164"/>
       <c r="B67" s="164"/>
-      <c r="C67" s="90"/>
-      <c r="D67" s="91"/>
-      <c r="E67" s="92"/>
-      <c r="F67" s="93"/>
-      <c r="G67" s="94"/>
-      <c r="H67" s="94"/>
-      <c r="I67" s="95"/>
-      <c r="J67" s="101"/>
+      <c r="C67" s="89"/>
+      <c r="D67" s="165"/>
+      <c r="E67" s="90"/>
+      <c r="F67" s="91"/>
+      <c r="G67" s="92"/>
+      <c r="H67" s="92"/>
+      <c r="I67" s="93"/>
+      <c r="J67" s="99"/>
       <c r="K67" s="42"/>
       <c r="L67" s="43"/>
       <c r="M67" s="43"/>
@@ -3861,13 +3850,13 @@
     <row r="68" spans="1:23" ht="12" customHeight="1">
       <c r="A68" s="164"/>
       <c r="B68" s="164"/>
-      <c r="C68" s="90"/>
-      <c r="D68" s="91"/>
-      <c r="E68" s="92"/>
-      <c r="F68" s="98"/>
-      <c r="G68" s="99"/>
-      <c r="H68" s="99"/>
-      <c r="I68" s="100"/>
+      <c r="C68" s="89"/>
+      <c r="D68" s="165"/>
+      <c r="E68" s="90"/>
+      <c r="F68" s="96"/>
+      <c r="G68" s="97"/>
+      <c r="H68" s="97"/>
+      <c r="I68" s="98"/>
       <c r="J68" s="86"/>
       <c r="K68" s="51"/>
       <c r="L68" s="50"/>
@@ -3880,7 +3869,7 @@
       <c r="S68" s="50"/>
       <c r="T68" s="50"/>
       <c r="U68" s="50"/>
-      <c r="V68" s="153"/>
+      <c r="V68" s="50"/>
       <c r="W68" s="80"/>
     </row>
     <row r="69" spans="1:23" ht="12" customHeight="1">
@@ -3888,38 +3877,38 @@
       <c r="B69" s="164"/>
       <c r="C69" s="69"/>
       <c r="D69" s="70"/>
-      <c r="E69" s="103"/>
-      <c r="F69" s="104"/>
-      <c r="G69" s="105"/>
-      <c r="H69" s="105"/>
-      <c r="I69" s="106"/>
+      <c r="E69" s="101"/>
+      <c r="F69" s="102"/>
+      <c r="G69" s="103"/>
+      <c r="H69" s="103"/>
+      <c r="I69" s="104"/>
       <c r="J69" s="73"/>
-      <c r="K69" s="151"/>
-      <c r="L69" s="152"/>
-      <c r="M69" s="152"/>
-      <c r="N69" s="152"/>
-      <c r="O69" s="152"/>
-      <c r="P69" s="152"/>
-      <c r="Q69" s="152"/>
-      <c r="R69" s="152"/>
-      <c r="S69" s="152"/>
-      <c r="T69" s="152"/>
-      <c r="U69" s="152"/>
-      <c r="V69" s="152"/>
+      <c r="K69" s="149"/>
+      <c r="L69" s="150"/>
+      <c r="M69" s="150"/>
+      <c r="N69" s="150"/>
+      <c r="O69" s="150"/>
+      <c r="P69" s="150"/>
+      <c r="Q69" s="150"/>
+      <c r="R69" s="150"/>
+      <c r="S69" s="150"/>
+      <c r="T69" s="150"/>
+      <c r="U69" s="150"/>
+      <c r="V69" s="150"/>
       <c r="W69" s="45"/>
     </row>
     <row r="70" spans="1:23" ht="12" customHeight="1">
       <c r="A70" s="164"/>
       <c r="B70" s="164"/>
-      <c r="C70" s="169"/>
-      <c r="D70" s="170"/>
+      <c r="C70" s="167"/>
+      <c r="D70" s="180"/>
       <c r="E70" s="87"/>
       <c r="F70" s="88"/>
       <c r="G70" s="88"/>
       <c r="H70" s="88"/>
-      <c r="I70" s="107"/>
-      <c r="J70" s="148"/>
-      <c r="K70" s="149"/>
+      <c r="I70" s="105"/>
+      <c r="J70" s="146"/>
+      <c r="K70" s="147"/>
       <c r="L70" s="67"/>
       <c r="M70" s="67"/>
       <c r="N70" s="67"/>
@@ -3930,20 +3919,20 @@
       <c r="S70" s="67"/>
       <c r="T70" s="67"/>
       <c r="U70" s="67"/>
-      <c r="V70" s="154"/>
-      <c r="W70" s="150"/>
+      <c r="V70" s="67"/>
+      <c r="W70" s="148"/>
     </row>
     <row r="71" spans="1:23" ht="12" customHeight="1">
       <c r="A71" s="164"/>
       <c r="B71" s="164"/>
-      <c r="C71" s="90"/>
-      <c r="D71" s="91"/>
-      <c r="E71" s="92"/>
-      <c r="F71" s="98"/>
-      <c r="G71" s="99"/>
-      <c r="H71" s="99"/>
-      <c r="I71" s="100"/>
-      <c r="J71" s="101"/>
+      <c r="C71" s="89"/>
+      <c r="D71" s="165"/>
+      <c r="E71" s="90"/>
+      <c r="F71" s="96"/>
+      <c r="G71" s="97"/>
+      <c r="H71" s="97"/>
+      <c r="I71" s="98"/>
+      <c r="J71" s="99"/>
       <c r="K71" s="42"/>
       <c r="L71" s="43"/>
       <c r="M71" s="43"/>
@@ -3956,18 +3945,18 @@
       <c r="T71" s="43"/>
       <c r="U71" s="43"/>
       <c r="V71" s="43"/>
-      <c r="W71" s="155"/>
+      <c r="W71" s="151"/>
     </row>
     <row r="72" spans="1:23" ht="12" customHeight="1">
       <c r="A72" s="164"/>
       <c r="B72" s="164"/>
-      <c r="C72" s="90"/>
-      <c r="D72" s="91"/>
-      <c r="E72" s="92"/>
-      <c r="F72" s="98"/>
-      <c r="G72" s="99"/>
-      <c r="H72" s="99"/>
-      <c r="I72" s="100"/>
+      <c r="C72" s="89"/>
+      <c r="D72" s="165"/>
+      <c r="E72" s="90"/>
+      <c r="F72" s="96"/>
+      <c r="G72" s="97"/>
+      <c r="H72" s="97"/>
+      <c r="I72" s="98"/>
       <c r="J72" s="86"/>
       <c r="K72" s="51"/>
       <c r="L72" s="50"/>
@@ -3988,38 +3977,38 @@
       <c r="B73" s="164"/>
       <c r="C73" s="69"/>
       <c r="D73" s="70"/>
-      <c r="E73" s="103"/>
-      <c r="F73" s="104"/>
-      <c r="G73" s="105"/>
-      <c r="H73" s="105"/>
-      <c r="I73" s="106"/>
+      <c r="E73" s="101"/>
+      <c r="F73" s="102"/>
+      <c r="G73" s="103"/>
+      <c r="H73" s="103"/>
+      <c r="I73" s="104"/>
       <c r="J73" s="73"/>
-      <c r="K73" s="151"/>
-      <c r="L73" s="152"/>
-      <c r="M73" s="152"/>
-      <c r="N73" s="152"/>
-      <c r="O73" s="152"/>
-      <c r="P73" s="152"/>
-      <c r="Q73" s="152"/>
-      <c r="R73" s="152"/>
-      <c r="S73" s="152"/>
-      <c r="T73" s="152"/>
-      <c r="U73" s="152"/>
-      <c r="V73" s="152"/>
+      <c r="K73" s="149"/>
+      <c r="L73" s="150"/>
+      <c r="M73" s="150"/>
+      <c r="N73" s="150"/>
+      <c r="O73" s="150"/>
+      <c r="P73" s="150"/>
+      <c r="Q73" s="150"/>
+      <c r="R73" s="150"/>
+      <c r="S73" s="150"/>
+      <c r="T73" s="150"/>
+      <c r="U73" s="150"/>
+      <c r="V73" s="150"/>
       <c r="W73" s="45"/>
     </row>
     <row r="74" spans="1:23" ht="12" customHeight="1">
       <c r="A74" s="164"/>
       <c r="B74" s="164"/>
-      <c r="C74" s="169"/>
-      <c r="D74" s="170"/>
-      <c r="E74" s="109"/>
+      <c r="C74" s="167"/>
+      <c r="D74" s="180"/>
+      <c r="E74" s="107"/>
       <c r="F74" s="88"/>
       <c r="G74" s="88"/>
       <c r="H74" s="88"/>
-      <c r="I74" s="110"/>
-      <c r="J74" s="148"/>
-      <c r="K74" s="149"/>
+      <c r="I74" s="108"/>
+      <c r="J74" s="146"/>
+      <c r="K74" s="147"/>
       <c r="L74" s="67"/>
       <c r="M74" s="67"/>
       <c r="N74" s="67"/>
@@ -4031,19 +4020,19 @@
       <c r="T74" s="67"/>
       <c r="U74" s="67"/>
       <c r="V74" s="67"/>
-      <c r="W74" s="150"/>
+      <c r="W74" s="148"/>
     </row>
     <row r="75" spans="1:23" ht="12" customHeight="1">
       <c r="A75" s="164"/>
       <c r="B75" s="164"/>
-      <c r="C75" s="90"/>
-      <c r="D75" s="91"/>
-      <c r="E75" s="111"/>
-      <c r="F75" s="99"/>
-      <c r="G75" s="99"/>
-      <c r="H75" s="99"/>
-      <c r="I75" s="112"/>
-      <c r="J75" s="101"/>
+      <c r="C75" s="89"/>
+      <c r="D75" s="165"/>
+      <c r="E75" s="109"/>
+      <c r="F75" s="97"/>
+      <c r="G75" s="97"/>
+      <c r="H75" s="97"/>
+      <c r="I75" s="110"/>
+      <c r="J75" s="99"/>
       <c r="K75" s="42"/>
       <c r="L75" s="43"/>
       <c r="M75" s="43"/>
@@ -4061,13 +4050,13 @@
     <row r="76" spans="1:23" ht="12" customHeight="1">
       <c r="A76" s="164"/>
       <c r="B76" s="164"/>
-      <c r="C76" s="90"/>
-      <c r="D76" s="91"/>
-      <c r="E76" s="111"/>
-      <c r="F76" s="99"/>
-      <c r="G76" s="99"/>
-      <c r="H76" s="99"/>
-      <c r="I76" s="112"/>
+      <c r="C76" s="89"/>
+      <c r="D76" s="165"/>
+      <c r="E76" s="109"/>
+      <c r="F76" s="97"/>
+      <c r="G76" s="97"/>
+      <c r="H76" s="97"/>
+      <c r="I76" s="110"/>
       <c r="J76" s="86"/>
       <c r="K76" s="51"/>
       <c r="L76" s="50"/>
@@ -4088,86 +4077,86 @@
       <c r="B77" s="164"/>
       <c r="C77" s="69"/>
       <c r="D77" s="70"/>
-      <c r="E77" s="113"/>
-      <c r="F77" s="105"/>
-      <c r="G77" s="105"/>
-      <c r="H77" s="105"/>
-      <c r="I77" s="114"/>
+      <c r="E77" s="111"/>
+      <c r="F77" s="103"/>
+      <c r="G77" s="103"/>
+      <c r="H77" s="103"/>
+      <c r="I77" s="112"/>
       <c r="J77" s="73"/>
-      <c r="K77" s="151"/>
-      <c r="L77" s="152"/>
-      <c r="M77" s="152"/>
-      <c r="N77" s="152"/>
-      <c r="O77" s="152"/>
-      <c r="P77" s="152"/>
-      <c r="Q77" s="152"/>
-      <c r="R77" s="152"/>
-      <c r="S77" s="152"/>
-      <c r="T77" s="152"/>
-      <c r="U77" s="152"/>
-      <c r="V77" s="152"/>
+      <c r="K77" s="149"/>
+      <c r="L77" s="150"/>
+      <c r="M77" s="150"/>
+      <c r="N77" s="150"/>
+      <c r="O77" s="150"/>
+      <c r="P77" s="150"/>
+      <c r="Q77" s="150"/>
+      <c r="R77" s="150"/>
+      <c r="S77" s="150"/>
+      <c r="T77" s="150"/>
+      <c r="U77" s="150"/>
+      <c r="V77" s="150"/>
       <c r="W77" s="45"/>
     </row>
     <row r="78" spans="1:23" ht="12" customHeight="1">
       <c r="A78" s="164"/>
       <c r="B78" s="164"/>
-      <c r="C78" s="169"/>
-      <c r="D78" s="170"/>
-      <c r="E78" s="115"/>
-      <c r="F78" s="116"/>
+      <c r="C78" s="167"/>
+      <c r="D78" s="180"/>
+      <c r="E78" s="113"/>
+      <c r="F78" s="114"/>
       <c r="G78" s="88"/>
-      <c r="H78" s="116"/>
-      <c r="I78" s="110"/>
-      <c r="J78" s="148"/>
-      <c r="K78" s="117"/>
-      <c r="L78" s="118"/>
-      <c r="M78" s="118"/>
-      <c r="N78" s="118"/>
-      <c r="O78" s="118"/>
-      <c r="P78" s="118"/>
-      <c r="Q78" s="118"/>
-      <c r="R78" s="118"/>
-      <c r="S78" s="118"/>
-      <c r="T78" s="118"/>
-      <c r="U78" s="118"/>
+      <c r="H78" s="114"/>
+      <c r="I78" s="108"/>
+      <c r="J78" s="146"/>
+      <c r="K78" s="115"/>
+      <c r="L78" s="116"/>
+      <c r="M78" s="116"/>
+      <c r="N78" s="116"/>
+      <c r="O78" s="116"/>
+      <c r="P78" s="116"/>
+      <c r="Q78" s="116"/>
+      <c r="R78" s="116"/>
+      <c r="S78" s="116"/>
+      <c r="T78" s="116"/>
+      <c r="U78" s="116"/>
       <c r="V78" s="67"/>
-      <c r="W78" s="120"/>
+      <c r="W78" s="118"/>
     </row>
     <row r="79" spans="1:23" ht="12" customHeight="1">
       <c r="A79" s="164"/>
       <c r="B79" s="164"/>
-      <c r="C79" s="90"/>
-      <c r="D79" s="91"/>
-      <c r="E79" s="111"/>
-      <c r="F79" s="99"/>
-      <c r="G79" s="99"/>
-      <c r="H79" s="99"/>
-      <c r="I79" s="112"/>
-      <c r="J79" s="101"/>
-      <c r="K79" s="122"/>
-      <c r="L79" s="123"/>
-      <c r="M79" s="123"/>
-      <c r="N79" s="123"/>
-      <c r="O79" s="123"/>
-      <c r="P79" s="123"/>
-      <c r="Q79" s="123"/>
-      <c r="R79" s="123"/>
-      <c r="S79" s="123"/>
-      <c r="T79" s="123"/>
-      <c r="U79" s="123"/>
+      <c r="C79" s="89"/>
+      <c r="D79" s="165"/>
+      <c r="E79" s="109"/>
+      <c r="F79" s="97"/>
+      <c r="G79" s="97"/>
+      <c r="H79" s="97"/>
+      <c r="I79" s="110"/>
+      <c r="J79" s="99"/>
+      <c r="K79" s="120"/>
+      <c r="L79" s="121"/>
+      <c r="M79" s="121"/>
+      <c r="N79" s="121"/>
+      <c r="O79" s="121"/>
+      <c r="P79" s="121"/>
+      <c r="Q79" s="121"/>
+      <c r="R79" s="121"/>
+      <c r="S79" s="121"/>
+      <c r="T79" s="121"/>
+      <c r="U79" s="121"/>
       <c r="V79" s="43"/>
-      <c r="W79" s="125"/>
+      <c r="W79" s="123"/>
     </row>
     <row r="80" spans="1:23" ht="12" customHeight="1">
       <c r="A80" s="164"/>
       <c r="B80" s="164"/>
-      <c r="C80" s="90"/>
-      <c r="D80" s="91"/>
-      <c r="E80" s="111"/>
-      <c r="F80" s="99"/>
-      <c r="G80" s="99"/>
-      <c r="H80" s="99"/>
-      <c r="I80" s="112"/>
+      <c r="C80" s="89"/>
+      <c r="D80" s="165"/>
+      <c r="E80" s="109"/>
+      <c r="F80" s="97"/>
+      <c r="G80" s="97"/>
+      <c r="H80" s="97"/>
+      <c r="I80" s="110"/>
       <c r="J80" s="86"/>
       <c r="K80" s="51"/>
       <c r="L80" s="50"/>
@@ -4188,38 +4177,38 @@
       <c r="B81" s="164"/>
       <c r="C81" s="69"/>
       <c r="D81" s="70"/>
-      <c r="E81" s="113"/>
-      <c r="F81" s="105"/>
-      <c r="G81" s="105"/>
-      <c r="H81" s="105"/>
-      <c r="I81" s="114"/>
+      <c r="E81" s="111"/>
+      <c r="F81" s="103"/>
+      <c r="G81" s="103"/>
+      <c r="H81" s="103"/>
+      <c r="I81" s="112"/>
       <c r="J81" s="73"/>
-      <c r="K81" s="126"/>
-      <c r="L81" s="127"/>
-      <c r="M81" s="127"/>
-      <c r="N81" s="127"/>
-      <c r="O81" s="127"/>
-      <c r="P81" s="127"/>
-      <c r="Q81" s="127"/>
-      <c r="R81" s="127"/>
-      <c r="S81" s="127"/>
-      <c r="T81" s="127"/>
-      <c r="U81" s="127"/>
-      <c r="V81" s="152"/>
-      <c r="W81" s="128"/>
+      <c r="K81" s="124"/>
+      <c r="L81" s="125"/>
+      <c r="M81" s="125"/>
+      <c r="N81" s="125"/>
+      <c r="O81" s="125"/>
+      <c r="P81" s="125"/>
+      <c r="Q81" s="125"/>
+      <c r="R81" s="125"/>
+      <c r="S81" s="125"/>
+      <c r="T81" s="125"/>
+      <c r="U81" s="125"/>
+      <c r="V81" s="150"/>
+      <c r="W81" s="126"/>
     </row>
     <row r="82" spans="1:23" ht="12" customHeight="1">
       <c r="A82" s="164"/>
       <c r="B82" s="164"/>
-      <c r="C82" s="169"/>
-      <c r="D82" s="170"/>
-      <c r="E82" s="129"/>
+      <c r="C82" s="167"/>
+      <c r="D82" s="180"/>
+      <c r="E82" s="127"/>
       <c r="F82" s="66"/>
       <c r="G82" s="66"/>
       <c r="H82" s="66"/>
-      <c r="I82" s="110"/>
-      <c r="J82" s="156"/>
-      <c r="K82" s="149"/>
+      <c r="I82" s="108"/>
+      <c r="J82" s="152"/>
+      <c r="K82" s="147"/>
       <c r="L82" s="67"/>
       <c r="M82" s="67"/>
       <c r="N82" s="67"/>
@@ -4231,19 +4220,19 @@
       <c r="T82" s="67"/>
       <c r="U82" s="67"/>
       <c r="V82" s="67"/>
-      <c r="W82" s="150"/>
+      <c r="W82" s="148"/>
     </row>
     <row r="83" spans="1:23" ht="12" customHeight="1">
       <c r="A83" s="164"/>
       <c r="B83" s="164"/>
-      <c r="C83" s="90"/>
-      <c r="D83" s="91"/>
-      <c r="E83" s="130"/>
+      <c r="C83" s="89"/>
+      <c r="D83" s="165"/>
+      <c r="E83" s="128"/>
       <c r="F83" s="41"/>
       <c r="G83" s="41"/>
       <c r="H83" s="41"/>
-      <c r="I83" s="112"/>
-      <c r="J83" s="108"/>
+      <c r="I83" s="110"/>
+      <c r="J83" s="106"/>
       <c r="K83" s="42"/>
       <c r="L83" s="43"/>
       <c r="M83" s="43"/>
@@ -4261,14 +4250,14 @@
     <row r="84" spans="1:23" ht="12" customHeight="1">
       <c r="A84" s="164"/>
       <c r="B84" s="164"/>
-      <c r="C84" s="90"/>
-      <c r="D84" s="91"/>
-      <c r="E84" s="111"/>
-      <c r="F84" s="99"/>
-      <c r="G84" s="99"/>
-      <c r="H84" s="131"/>
-      <c r="I84" s="112"/>
-      <c r="J84" s="157"/>
+      <c r="C84" s="89"/>
+      <c r="D84" s="165"/>
+      <c r="E84" s="109"/>
+      <c r="F84" s="97"/>
+      <c r="G84" s="97"/>
+      <c r="H84" s="129"/>
+      <c r="I84" s="110"/>
+      <c r="J84" s="153"/>
       <c r="K84" s="51"/>
       <c r="L84" s="50"/>
       <c r="M84" s="50"/>
@@ -4288,38 +4277,38 @@
       <c r="B85" s="164"/>
       <c r="C85" s="69"/>
       <c r="D85" s="70"/>
-      <c r="E85" s="113"/>
-      <c r="F85" s="105"/>
-      <c r="G85" s="105"/>
-      <c r="H85" s="132"/>
-      <c r="I85" s="114"/>
-      <c r="J85" s="158"/>
-      <c r="K85" s="151"/>
-      <c r="L85" s="152"/>
-      <c r="M85" s="152"/>
-      <c r="N85" s="152"/>
-      <c r="O85" s="152"/>
-      <c r="P85" s="152"/>
-      <c r="Q85" s="152"/>
-      <c r="R85" s="152"/>
-      <c r="S85" s="152"/>
-      <c r="T85" s="152"/>
-      <c r="U85" s="152"/>
-      <c r="V85" s="152"/>
+      <c r="E85" s="111"/>
+      <c r="F85" s="103"/>
+      <c r="G85" s="103"/>
+      <c r="H85" s="130"/>
+      <c r="I85" s="112"/>
+      <c r="J85" s="154"/>
+      <c r="K85" s="149"/>
+      <c r="L85" s="150"/>
+      <c r="M85" s="150"/>
+      <c r="N85" s="150"/>
+      <c r="O85" s="150"/>
+      <c r="P85" s="150"/>
+      <c r="Q85" s="150"/>
+      <c r="R85" s="150"/>
+      <c r="S85" s="150"/>
+      <c r="T85" s="150"/>
+      <c r="U85" s="150"/>
+      <c r="V85" s="150"/>
       <c r="W85" s="45"/>
     </row>
     <row r="86" spans="1:23" ht="12" customHeight="1">
       <c r="A86" s="164"/>
       <c r="B86" s="164"/>
-      <c r="C86" s="169"/>
-      <c r="D86" s="170"/>
-      <c r="E86" s="129"/>
+      <c r="C86" s="167"/>
+      <c r="D86" s="180"/>
+      <c r="E86" s="127"/>
       <c r="F86" s="66"/>
       <c r="G86" s="66"/>
       <c r="H86" s="66"/>
-      <c r="I86" s="110"/>
-      <c r="J86" s="156"/>
-      <c r="K86" s="149"/>
+      <c r="I86" s="108"/>
+      <c r="J86" s="152"/>
+      <c r="K86" s="147"/>
       <c r="L86" s="67"/>
       <c r="M86" s="67"/>
       <c r="N86" s="67"/>
@@ -4331,19 +4320,19 @@
       <c r="T86" s="67"/>
       <c r="U86" s="67"/>
       <c r="V86" s="67"/>
-      <c r="W86" s="150"/>
+      <c r="W86" s="148"/>
     </row>
     <row r="87" spans="1:23" ht="12" customHeight="1">
       <c r="A87" s="164"/>
       <c r="B87" s="164"/>
-      <c r="C87" s="90"/>
-      <c r="D87" s="91"/>
-      <c r="E87" s="130"/>
+      <c r="C87" s="89"/>
+      <c r="D87" s="165"/>
+      <c r="E87" s="128"/>
       <c r="F87" s="41"/>
       <c r="G87" s="41"/>
       <c r="H87" s="41"/>
-      <c r="I87" s="112"/>
-      <c r="J87" s="159"/>
+      <c r="I87" s="110"/>
+      <c r="J87" s="155"/>
       <c r="K87" s="42"/>
       <c r="L87" s="43"/>
       <c r="M87" s="43"/>
@@ -4361,14 +4350,14 @@
     <row r="88" spans="1:23" ht="12" customHeight="1">
       <c r="A88" s="164"/>
       <c r="B88" s="164"/>
-      <c r="C88" s="90"/>
-      <c r="D88" s="91"/>
-      <c r="E88" s="111"/>
-      <c r="F88" s="99"/>
-      <c r="G88" s="99"/>
-      <c r="H88" s="131"/>
-      <c r="I88" s="112"/>
-      <c r="J88" s="157"/>
+      <c r="C88" s="89"/>
+      <c r="D88" s="165"/>
+      <c r="E88" s="109"/>
+      <c r="F88" s="97"/>
+      <c r="G88" s="97"/>
+      <c r="H88" s="129"/>
+      <c r="I88" s="110"/>
+      <c r="J88" s="153"/>
       <c r="K88" s="51"/>
       <c r="L88" s="50"/>
       <c r="M88" s="50"/>
@@ -4388,38 +4377,38 @@
       <c r="B89" s="164"/>
       <c r="C89" s="69"/>
       <c r="D89" s="70"/>
-      <c r="E89" s="113"/>
-      <c r="F89" s="105"/>
-      <c r="G89" s="105"/>
-      <c r="H89" s="105"/>
-      <c r="I89" s="114"/>
-      <c r="J89" s="159"/>
-      <c r="K89" s="151"/>
-      <c r="L89" s="152"/>
-      <c r="M89" s="152"/>
-      <c r="N89" s="152"/>
-      <c r="O89" s="152"/>
-      <c r="P89" s="152"/>
-      <c r="Q89" s="152"/>
-      <c r="R89" s="152"/>
-      <c r="S89" s="152"/>
-      <c r="T89" s="152"/>
-      <c r="U89" s="152"/>
-      <c r="V89" s="152"/>
+      <c r="E89" s="111"/>
+      <c r="F89" s="103"/>
+      <c r="G89" s="103"/>
+      <c r="H89" s="103"/>
+      <c r="I89" s="112"/>
+      <c r="J89" s="155"/>
+      <c r="K89" s="149"/>
+      <c r="L89" s="150"/>
+      <c r="M89" s="150"/>
+      <c r="N89" s="150"/>
+      <c r="O89" s="150"/>
+      <c r="P89" s="150"/>
+      <c r="Q89" s="150"/>
+      <c r="R89" s="150"/>
+      <c r="S89" s="150"/>
+      <c r="T89" s="150"/>
+      <c r="U89" s="150"/>
+      <c r="V89" s="150"/>
       <c r="W89" s="45"/>
     </row>
     <row r="90" spans="1:23" ht="12" customHeight="1">
       <c r="A90" s="164"/>
       <c r="B90" s="164"/>
-      <c r="C90" s="169"/>
-      <c r="D90" s="170"/>
+      <c r="C90" s="167"/>
+      <c r="D90" s="180"/>
       <c r="E90" s="87"/>
-      <c r="F90" s="133"/>
+      <c r="F90" s="131"/>
       <c r="G90" s="66"/>
       <c r="H90" s="66"/>
-      <c r="I90" s="134"/>
-      <c r="J90" s="156"/>
-      <c r="K90" s="149"/>
+      <c r="I90" s="132"/>
+      <c r="J90" s="152"/>
+      <c r="K90" s="147"/>
       <c r="L90" s="67"/>
       <c r="M90" s="67"/>
       <c r="N90" s="67"/>
@@ -4431,45 +4420,45 @@
       <c r="T90" s="67"/>
       <c r="U90" s="67"/>
       <c r="V90" s="67"/>
-      <c r="W90" s="150"/>
+      <c r="W90" s="148"/>
     </row>
     <row r="91" spans="1:23" ht="12" customHeight="1">
       <c r="A91" s="164"/>
       <c r="B91" s="164"/>
-      <c r="C91" s="90"/>
-      <c r="D91" s="91"/>
-      <c r="E91" s="92"/>
+      <c r="C91" s="89"/>
+      <c r="D91" s="165"/>
+      <c r="E91" s="90"/>
       <c r="F91" s="61"/>
       <c r="G91" s="41"/>
       <c r="H91" s="41"/>
-      <c r="I91" s="135"/>
-      <c r="J91" s="108"/>
+      <c r="I91" s="133"/>
+      <c r="J91" s="106"/>
       <c r="K91" s="53"/>
-      <c r="L91" s="102"/>
-      <c r="M91" s="102"/>
-      <c r="N91" s="102"/>
-      <c r="O91" s="102"/>
-      <c r="P91" s="102"/>
-      <c r="Q91" s="102"/>
-      <c r="R91" s="102"/>
-      <c r="S91" s="102"/>
-      <c r="T91" s="102"/>
-      <c r="U91" s="102"/>
-      <c r="V91" s="102"/>
+      <c r="L91" s="100"/>
+      <c r="M91" s="100"/>
+      <c r="N91" s="100"/>
+      <c r="O91" s="100"/>
+      <c r="P91" s="100"/>
+      <c r="Q91" s="100"/>
+      <c r="R91" s="100"/>
+      <c r="S91" s="100"/>
+      <c r="T91" s="100"/>
+      <c r="U91" s="100"/>
+      <c r="V91" s="100"/>
       <c r="W91" s="45"/>
     </row>
     <row r="92" spans="1:23" ht="12" customHeight="1">
       <c r="A92" s="164"/>
       <c r="B92" s="164"/>
-      <c r="C92" s="90"/>
-      <c r="D92" s="91"/>
-      <c r="E92" s="92"/>
+      <c r="C92" s="89"/>
+      <c r="D92" s="165"/>
+      <c r="E92" s="90"/>
       <c r="F92" s="61"/>
-      <c r="G92" s="136"/>
-      <c r="H92" s="137"/>
-      <c r="I92" s="112"/>
-      <c r="J92" s="157"/>
-      <c r="K92" s="160"/>
+      <c r="G92" s="134"/>
+      <c r="H92" s="135"/>
+      <c r="I92" s="110"/>
+      <c r="J92" s="153"/>
+      <c r="K92" s="156"/>
       <c r="L92" s="50"/>
       <c r="M92" s="50"/>
       <c r="N92" s="50"/>
@@ -4488,38 +4477,38 @@
       <c r="B93" s="164"/>
       <c r="C93" s="69"/>
       <c r="D93" s="70"/>
-      <c r="E93" s="103"/>
-      <c r="F93" s="138"/>
-      <c r="G93" s="104"/>
-      <c r="H93" s="132"/>
-      <c r="I93" s="114"/>
-      <c r="J93" s="158"/>
-      <c r="K93" s="161"/>
-      <c r="L93" s="152"/>
-      <c r="M93" s="152"/>
-      <c r="N93" s="152"/>
-      <c r="O93" s="152"/>
-      <c r="P93" s="152"/>
-      <c r="Q93" s="152"/>
-      <c r="R93" s="152"/>
-      <c r="S93" s="152"/>
-      <c r="T93" s="152"/>
-      <c r="U93" s="152"/>
-      <c r="V93" s="152"/>
+      <c r="E93" s="101"/>
+      <c r="F93" s="136"/>
+      <c r="G93" s="102"/>
+      <c r="H93" s="130"/>
+      <c r="I93" s="112"/>
+      <c r="J93" s="154"/>
+      <c r="K93" s="157"/>
+      <c r="L93" s="150"/>
+      <c r="M93" s="150"/>
+      <c r="N93" s="150"/>
+      <c r="O93" s="150"/>
+      <c r="P93" s="150"/>
+      <c r="Q93" s="150"/>
+      <c r="R93" s="150"/>
+      <c r="S93" s="150"/>
+      <c r="T93" s="150"/>
+      <c r="U93" s="150"/>
+      <c r="V93" s="150"/>
       <c r="W93" s="45"/>
     </row>
     <row r="94" spans="1:23" ht="12" customHeight="1">
       <c r="A94" s="164"/>
       <c r="B94" s="164"/>
-      <c r="C94" s="169"/>
-      <c r="D94" s="170"/>
+      <c r="C94" s="167"/>
+      <c r="D94" s="180"/>
       <c r="E94" s="87"/>
-      <c r="F94" s="133"/>
+      <c r="F94" s="131"/>
       <c r="G94" s="66"/>
       <c r="H94" s="66"/>
-      <c r="I94" s="134"/>
-      <c r="J94" s="156"/>
-      <c r="K94" s="149"/>
+      <c r="I94" s="132"/>
+      <c r="J94" s="152"/>
+      <c r="K94" s="147"/>
       <c r="L94" s="67"/>
       <c r="M94" s="67"/>
       <c r="N94" s="67"/>
@@ -4536,40 +4525,40 @@
     <row r="95" spans="1:23" ht="12" customHeight="1">
       <c r="A95" s="164"/>
       <c r="B95" s="164"/>
-      <c r="C95" s="90"/>
-      <c r="D95" s="91"/>
-      <c r="E95" s="92"/>
+      <c r="C95" s="89"/>
+      <c r="D95" s="165"/>
+      <c r="E95" s="90"/>
       <c r="F95" s="61"/>
       <c r="G95" s="41"/>
       <c r="H95" s="41"/>
-      <c r="I95" s="135"/>
-      <c r="J95" s="108"/>
+      <c r="I95" s="133"/>
+      <c r="J95" s="106"/>
       <c r="K95" s="53"/>
-      <c r="L95" s="102"/>
-      <c r="M95" s="102"/>
-      <c r="N95" s="102"/>
-      <c r="O95" s="102"/>
-      <c r="P95" s="102"/>
-      <c r="Q95" s="102"/>
-      <c r="R95" s="102"/>
-      <c r="S95" s="102"/>
-      <c r="T95" s="102"/>
-      <c r="U95" s="102"/>
-      <c r="V95" s="102"/>
+      <c r="L95" s="100"/>
+      <c r="M95" s="100"/>
+      <c r="N95" s="100"/>
+      <c r="O95" s="100"/>
+      <c r="P95" s="100"/>
+      <c r="Q95" s="100"/>
+      <c r="R95" s="100"/>
+      <c r="S95" s="100"/>
+      <c r="T95" s="100"/>
+      <c r="U95" s="100"/>
+      <c r="V95" s="100"/>
       <c r="W95" s="45"/>
     </row>
     <row r="96" spans="1:23" ht="12" customHeight="1">
       <c r="A96" s="164"/>
       <c r="B96" s="164"/>
-      <c r="C96" s="90"/>
-      <c r="D96" s="91"/>
-      <c r="E96" s="92"/>
+      <c r="C96" s="89"/>
+      <c r="D96" s="165"/>
+      <c r="E96" s="90"/>
       <c r="F96" s="61"/>
-      <c r="G96" s="136"/>
-      <c r="H96" s="137"/>
-      <c r="I96" s="112"/>
-      <c r="J96" s="157"/>
-      <c r="K96" s="160"/>
+      <c r="G96" s="134"/>
+      <c r="H96" s="135"/>
+      <c r="I96" s="110"/>
+      <c r="J96" s="153"/>
+      <c r="K96" s="156"/>
       <c r="L96" s="50"/>
       <c r="M96" s="50"/>
       <c r="N96" s="50"/>
@@ -4584,56 +4573,35 @@
       <c r="W96" s="80"/>
     </row>
     <row r="97" spans="1:23" ht="12" customHeight="1">
-      <c r="A97" s="162"/>
-      <c r="B97" s="162"/>
+      <c r="A97" s="158"/>
+      <c r="B97" s="158"/>
       <c r="C97" s="69"/>
       <c r="D97" s="70"/>
-      <c r="E97" s="103"/>
-      <c r="F97" s="138"/>
-      <c r="G97" s="104"/>
-      <c r="H97" s="132"/>
-      <c r="I97" s="114"/>
-      <c r="J97" s="158"/>
-      <c r="K97" s="161"/>
-      <c r="L97" s="152"/>
-      <c r="M97" s="152"/>
-      <c r="N97" s="152"/>
-      <c r="O97" s="152"/>
-      <c r="P97" s="152"/>
-      <c r="Q97" s="152"/>
-      <c r="R97" s="152"/>
-      <c r="S97" s="152"/>
-      <c r="T97" s="152"/>
-      <c r="U97" s="152"/>
-      <c r="V97" s="152"/>
-      <c r="W97" s="163"/>
+      <c r="E97" s="101"/>
+      <c r="F97" s="136"/>
+      <c r="G97" s="102"/>
+      <c r="H97" s="130"/>
+      <c r="I97" s="112"/>
+      <c r="J97" s="154"/>
+      <c r="K97" s="157"/>
+      <c r="L97" s="150"/>
+      <c r="M97" s="150"/>
+      <c r="N97" s="150"/>
+      <c r="O97" s="150"/>
+      <c r="P97" s="150"/>
+      <c r="Q97" s="150"/>
+      <c r="R97" s="150"/>
+      <c r="S97" s="150"/>
+      <c r="T97" s="150"/>
+      <c r="U97" s="150"/>
+      <c r="V97" s="150"/>
+      <c r="W97" s="159"/>
     </row>
     <row r="111" spans="1:23" ht="12" customHeight="1">
       <c r="I111" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A2:W2"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A6:W6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C46:D46"/>
     <mergeCell ref="C86:D86"/>
     <mergeCell ref="C90:D90"/>
     <mergeCell ref="C94:D94"/>
@@ -4643,12 +4611,33 @@
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="C82:D82"/>
     <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="A2:W2"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A6:W6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C26:D26"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"MSゴシック,Regular"日通システム株式会社&amp;C&amp;"MSゴシック,Regular"&amp;16休暇残数管理表&amp;R&amp;"MSゴシック,Regular"&amp;D　&amp;T　page&amp;P</oddHeader>
+    <oddHeader>&amp;L&amp;"MSゴシック,Regular"日通システム株式会社&amp;C&amp;"MSゴシック,Bold"&amp;16休暇残数管理表&amp;R&amp;"MSゴシック,Regular"&amp;D　&amp;T　page&amp;P</oddHeader>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_v2_template.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_v2_template.xlsx
@@ -1706,29 +1706,11 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -1753,6 +1735,24 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="76" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1799,7 +1799,7 @@
         <xdr:cNvPr id="2" name="楕円 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -45103,7 +45103,7 @@
   <dimension ref="A1:X111"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleSheetLayoutView="175" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:W2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="12" customHeight="1"/>
@@ -45122,29 +45122,29 @@
   <sheetData>
     <row r="1" spans="1:23" ht="0.75" customHeight="1"/>
     <row r="2" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A2" s="174"/>
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="174"/>
-      <c r="J2" s="174"/>
-      <c r="K2" s="174"/>
-      <c r="L2" s="174"/>
-      <c r="M2" s="174"/>
-      <c r="N2" s="174"/>
-      <c r="O2" s="174"/>
-      <c r="P2" s="174"/>
-      <c r="Q2" s="174"/>
-      <c r="R2" s="174"/>
-      <c r="S2" s="174"/>
-      <c r="T2" s="174"/>
-      <c r="U2" s="174"/>
-      <c r="V2" s="174"/>
-      <c r="W2" s="174"/>
+      <c r="A2" s="168"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="168"/>
+      <c r="R2" s="168"/>
+      <c r="S2" s="168"/>
+      <c r="T2" s="168"/>
+      <c r="U2" s="168"/>
+      <c r="V2" s="168"/>
+      <c r="W2" s="168"/>
     </row>
     <row r="3" spans="1:23" ht="0.75" customHeight="1" thickBot="1">
       <c r="A3" s="27"/>
@@ -45176,13 +45176,13 @@
       <c r="B4" s="28"/>
       <c r="C4" s="29"/>
       <c r="D4" s="28"/>
-      <c r="E4" s="175"/>
-      <c r="F4" s="176"/>
-      <c r="G4" s="176"/>
-      <c r="H4" s="176"/>
-      <c r="I4" s="177"/>
-      <c r="J4" s="178"/>
-      <c r="K4" s="176"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="170"/>
+      <c r="H4" s="170"/>
+      <c r="I4" s="171"/>
+      <c r="J4" s="172"/>
+      <c r="K4" s="170"/>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
@@ -45222,33 +45222,33 @@
       <c r="W5" s="22"/>
     </row>
     <row r="6" spans="1:23" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A6" s="179"/>
-      <c r="B6" s="179"/>
-      <c r="C6" s="179"/>
-      <c r="D6" s="179"/>
-      <c r="E6" s="179"/>
-      <c r="F6" s="179"/>
-      <c r="G6" s="179"/>
-      <c r="H6" s="179"/>
-      <c r="I6" s="179"/>
-      <c r="J6" s="179"/>
-      <c r="K6" s="179"/>
-      <c r="L6" s="179"/>
-      <c r="M6" s="179"/>
-      <c r="N6" s="179"/>
-      <c r="O6" s="179"/>
-      <c r="P6" s="179"/>
-      <c r="Q6" s="179"/>
-      <c r="R6" s="179"/>
-      <c r="S6" s="179"/>
-      <c r="T6" s="179"/>
-      <c r="U6" s="179"/>
-      <c r="V6" s="179"/>
-      <c r="W6" s="179"/>
+      <c r="A6" s="173"/>
+      <c r="B6" s="173"/>
+      <c r="C6" s="173"/>
+      <c r="D6" s="173"/>
+      <c r="E6" s="173"/>
+      <c r="F6" s="173"/>
+      <c r="G6" s="173"/>
+      <c r="H6" s="173"/>
+      <c r="I6" s="173"/>
+      <c r="J6" s="173"/>
+      <c r="K6" s="173"/>
+      <c r="L6" s="173"/>
+      <c r="M6" s="173"/>
+      <c r="N6" s="173"/>
+      <c r="O6" s="173"/>
+      <c r="P6" s="173"/>
+      <c r="Q6" s="173"/>
+      <c r="R6" s="173"/>
+      <c r="S6" s="173"/>
+      <c r="T6" s="173"/>
+      <c r="U6" s="173"/>
+      <c r="V6" s="173"/>
+      <c r="W6" s="173"/>
     </row>
     <row r="7" spans="1:23" ht="12" customHeight="1">
-      <c r="A7" s="180"/>
-      <c r="B7" s="181"/>
+      <c r="A7" s="174"/>
+      <c r="B7" s="175"/>
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
@@ -45272,8 +45272,8 @@
       <c r="W7" s="40"/>
     </row>
     <row r="8" spans="1:23" ht="12" customHeight="1">
-      <c r="A8" s="170"/>
-      <c r="B8" s="171"/>
+      <c r="A8" s="176"/>
+      <c r="B8" s="177"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
@@ -45297,8 +45297,8 @@
       <c r="W8" s="45"/>
     </row>
     <row r="9" spans="1:23" ht="12" customHeight="1">
-      <c r="A9" s="172"/>
-      <c r="B9" s="173"/>
+      <c r="A9" s="178"/>
+      <c r="B9" s="179"/>
       <c r="C9" s="4"/>
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
@@ -45322,8 +45322,8 @@
       <c r="W9" s="52"/>
     </row>
     <row r="10" spans="1:23" ht="12" customHeight="1">
-      <c r="A10" s="170"/>
-      <c r="B10" s="171"/>
+      <c r="A10" s="176"/>
+      <c r="B10" s="177"/>
       <c r="C10" s="4"/>
       <c r="D10" s="9"/>
       <c r="E10" s="6"/>
@@ -45347,8 +45347,8 @@
       <c r="W10" s="45"/>
     </row>
     <row r="11" spans="1:23" ht="12" customHeight="1">
-      <c r="A11" s="170"/>
-      <c r="B11" s="171"/>
+      <c r="A11" s="176"/>
+      <c r="B11" s="177"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
       <c r="E11" s="10"/>
@@ -45399,8 +45399,8 @@
     <row r="13" spans="1:23" ht="12" customHeight="1">
       <c r="A13" s="164"/>
       <c r="B13" s="164"/>
-      <c r="C13" s="168"/>
-      <c r="D13" s="169"/>
+      <c r="C13" s="166"/>
+      <c r="D13" s="167"/>
       <c r="E13" s="63"/>
       <c r="F13" s="64"/>
       <c r="G13" s="64"/>
@@ -45449,8 +45449,8 @@
     <row r="15" spans="1:23" ht="12" customHeight="1">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
-      <c r="C15" s="166"/>
-      <c r="D15" s="167"/>
+      <c r="C15" s="180"/>
+      <c r="D15" s="181"/>
       <c r="E15" s="71"/>
       <c r="F15" s="72"/>
       <c r="G15" s="72"/>
@@ -45474,8 +45474,8 @@
     <row r="16" spans="1:23" ht="12" customHeight="1">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
-      <c r="C16" s="168"/>
-      <c r="D16" s="169"/>
+      <c r="C16" s="166"/>
+      <c r="D16" s="167"/>
       <c r="E16" s="63"/>
       <c r="F16" s="64"/>
       <c r="G16" s="64"/>
@@ -45524,8 +45524,8 @@
     <row r="18" spans="1:23" ht="12" customHeight="1">
       <c r="A18" s="164"/>
       <c r="B18" s="164"/>
-      <c r="C18" s="168"/>
-      <c r="D18" s="169"/>
+      <c r="C18" s="166"/>
+      <c r="D18" s="167"/>
       <c r="E18" s="87"/>
       <c r="F18" s="88"/>
       <c r="G18" s="88"/>
@@ -45624,8 +45624,8 @@
     <row r="22" spans="1:23" ht="12" customHeight="1">
       <c r="A22" s="164"/>
       <c r="B22" s="164"/>
-      <c r="C22" s="168"/>
-      <c r="D22" s="169"/>
+      <c r="C22" s="166"/>
+      <c r="D22" s="167"/>
       <c r="E22" s="87"/>
       <c r="F22" s="88"/>
       <c r="G22" s="88"/>
@@ -45724,8 +45724,8 @@
     <row r="26" spans="1:23" ht="12" customHeight="1">
       <c r="A26" s="164"/>
       <c r="B26" s="164"/>
-      <c r="C26" s="168"/>
-      <c r="D26" s="169"/>
+      <c r="C26" s="166"/>
+      <c r="D26" s="167"/>
       <c r="E26" s="87"/>
       <c r="F26" s="88"/>
       <c r="G26" s="88"/>
@@ -45824,8 +45824,8 @@
     <row r="30" spans="1:23" ht="12" customHeight="1">
       <c r="A30" s="164"/>
       <c r="B30" s="164"/>
-      <c r="C30" s="168"/>
-      <c r="D30" s="169"/>
+      <c r="C30" s="166"/>
+      <c r="D30" s="167"/>
       <c r="E30" s="107"/>
       <c r="F30" s="88"/>
       <c r="G30" s="88"/>
@@ -45924,8 +45924,8 @@
     <row r="34" spans="1:23" ht="12" customHeight="1">
       <c r="A34" s="164"/>
       <c r="B34" s="164"/>
-      <c r="C34" s="168"/>
-      <c r="D34" s="169"/>
+      <c r="C34" s="166"/>
+      <c r="D34" s="167"/>
       <c r="E34" s="113"/>
       <c r="F34" s="114"/>
       <c r="G34" s="88"/>
@@ -46024,8 +46024,8 @@
     <row r="38" spans="1:23" ht="12" customHeight="1">
       <c r="A38" s="164"/>
       <c r="B38" s="164"/>
-      <c r="C38" s="168"/>
-      <c r="D38" s="169"/>
+      <c r="C38" s="166"/>
+      <c r="D38" s="167"/>
       <c r="E38" s="127"/>
       <c r="F38" s="66"/>
       <c r="G38" s="66"/>
@@ -46124,8 +46124,8 @@
     <row r="42" spans="1:23" ht="12" customHeight="1">
       <c r="A42" s="164"/>
       <c r="B42" s="164"/>
-      <c r="C42" s="168"/>
-      <c r="D42" s="169"/>
+      <c r="C42" s="166"/>
+      <c r="D42" s="167"/>
       <c r="E42" s="127"/>
       <c r="F42" s="66"/>
       <c r="G42" s="66"/>
@@ -46224,8 +46224,8 @@
     <row r="46" spans="1:23" ht="12" customHeight="1">
       <c r="A46" s="164"/>
       <c r="B46" s="164"/>
-      <c r="C46" s="168"/>
-      <c r="D46" s="169"/>
+      <c r="C46" s="166"/>
+      <c r="D46" s="167"/>
       <c r="E46" s="87"/>
       <c r="F46" s="131"/>
       <c r="G46" s="66"/>
@@ -46324,8 +46324,8 @@
     <row r="50" spans="1:23" ht="12" customHeight="1">
       <c r="A50" s="164"/>
       <c r="B50" s="164"/>
-      <c r="C50" s="168"/>
-      <c r="D50" s="169"/>
+      <c r="C50" s="166"/>
+      <c r="D50" s="167"/>
       <c r="E50" s="87"/>
       <c r="F50" s="131"/>
       <c r="G50" s="66"/>
@@ -46583,8 +46583,8 @@
       <c r="W61" s="144"/>
     </row>
     <row r="64" spans="1:23" ht="12" customHeight="1">
-      <c r="C64" s="168"/>
-      <c r="D64" s="169"/>
+      <c r="C64" s="166"/>
+      <c r="D64" s="167"/>
       <c r="E64" s="63"/>
       <c r="F64" s="64"/>
       <c r="G64" s="64"/>
@@ -46631,8 +46631,8 @@
     <row r="66" spans="1:23" ht="12" customHeight="1">
       <c r="A66" s="164"/>
       <c r="B66" s="164"/>
-      <c r="C66" s="168"/>
-      <c r="D66" s="169"/>
+      <c r="C66" s="166"/>
+      <c r="D66" s="167"/>
       <c r="E66" s="87"/>
       <c r="F66" s="88"/>
       <c r="G66" s="88"/>
@@ -46731,8 +46731,8 @@
     <row r="70" spans="1:23" ht="12" customHeight="1">
       <c r="A70" s="164"/>
       <c r="B70" s="164"/>
-      <c r="C70" s="168"/>
-      <c r="D70" s="169"/>
+      <c r="C70" s="166"/>
+      <c r="D70" s="167"/>
       <c r="E70" s="87"/>
       <c r="F70" s="88"/>
       <c r="G70" s="88"/>
@@ -46831,8 +46831,8 @@
     <row r="74" spans="1:23" ht="12" customHeight="1">
       <c r="A74" s="164"/>
       <c r="B74" s="164"/>
-      <c r="C74" s="168"/>
-      <c r="D74" s="169"/>
+      <c r="C74" s="166"/>
+      <c r="D74" s="167"/>
       <c r="E74" s="107"/>
       <c r="F74" s="88"/>
       <c r="G74" s="88"/>
@@ -46931,8 +46931,8 @@
     <row r="78" spans="1:23" ht="12" customHeight="1">
       <c r="A78" s="164"/>
       <c r="B78" s="164"/>
-      <c r="C78" s="168"/>
-      <c r="D78" s="169"/>
+      <c r="C78" s="166"/>
+      <c r="D78" s="167"/>
       <c r="E78" s="113"/>
       <c r="F78" s="114"/>
       <c r="G78" s="88"/>
@@ -47031,8 +47031,8 @@
     <row r="82" spans="1:23" ht="12" customHeight="1">
       <c r="A82" s="164"/>
       <c r="B82" s="164"/>
-      <c r="C82" s="168"/>
-      <c r="D82" s="169"/>
+      <c r="C82" s="166"/>
+      <c r="D82" s="167"/>
       <c r="E82" s="127"/>
       <c r="F82" s="66"/>
       <c r="G82" s="66"/>
@@ -47131,8 +47131,8 @@
     <row r="86" spans="1:23" ht="12" customHeight="1">
       <c r="A86" s="164"/>
       <c r="B86" s="164"/>
-      <c r="C86" s="168"/>
-      <c r="D86" s="169"/>
+      <c r="C86" s="166"/>
+      <c r="D86" s="167"/>
       <c r="E86" s="127"/>
       <c r="F86" s="66"/>
       <c r="G86" s="66"/>
@@ -47231,8 +47231,8 @@
     <row r="90" spans="1:23" ht="12" customHeight="1">
       <c r="A90" s="164"/>
       <c r="B90" s="164"/>
-      <c r="C90" s="168"/>
-      <c r="D90" s="169"/>
+      <c r="C90" s="166"/>
+      <c r="D90" s="167"/>
       <c r="E90" s="87"/>
       <c r="F90" s="131"/>
       <c r="G90" s="66"/>
@@ -47331,8 +47331,8 @@
     <row r="94" spans="1:23" ht="12" customHeight="1">
       <c r="A94" s="164"/>
       <c r="B94" s="164"/>
-      <c r="C94" s="168"/>
-      <c r="D94" s="169"/>
+      <c r="C94" s="166"/>
+      <c r="D94" s="167"/>
       <c r="E94" s="87"/>
       <c r="F94" s="131"/>
       <c r="G94" s="66"/>
@@ -47433,6 +47433,27 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A2:W2"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A6:W6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C46:D46"/>
     <mergeCell ref="C86:D86"/>
     <mergeCell ref="C90:D90"/>
     <mergeCell ref="C94:D94"/>
@@ -47442,33 +47463,12 @@
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="C82:D82"/>
     <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="A2:W2"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A6:W6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C26:D26"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"MSゴシック,Regular"日通システム株式会社&amp;C&amp;"MSゴシック,Bold"&amp;16休暇残数管理表&amp;R&amp;"MSゴシック,Regular"&amp;D　&amp;T　page&amp;P</oddHeader>
+    <oddHeader>&amp;L&amp;"ＭＳ ゴシック,Regular"日通システム株式会社&amp;C&amp;"ＭＳ ゴシック,Bold"&amp;16休暇残数管理表&amp;R&amp;"ＭＳ ゴシック,Regular"&amp;D　&amp;T　page&amp;P</oddHeader>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_v2_template.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_v2_template.xlsx
@@ -1706,11 +1706,29 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -1735,24 +1753,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="76" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1799,7 +1799,7 @@
         <xdr:cNvPr id="2" name="楕円 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -45103,7 +45103,7 @@
   <dimension ref="A1:X111"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleSheetLayoutView="175" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A2" sqref="A2:W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="12" customHeight="1"/>
@@ -45122,29 +45122,29 @@
   <sheetData>
     <row r="1" spans="1:23" ht="0.75" customHeight="1"/>
     <row r="2" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A2" s="168"/>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="168"/>
-      <c r="R2" s="168"/>
-      <c r="S2" s="168"/>
-      <c r="T2" s="168"/>
-      <c r="U2" s="168"/>
-      <c r="V2" s="168"/>
-      <c r="W2" s="168"/>
+      <c r="A2" s="174"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="174"/>
+      <c r="J2" s="174"/>
+      <c r="K2" s="174"/>
+      <c r="L2" s="174"/>
+      <c r="M2" s="174"/>
+      <c r="N2" s="174"/>
+      <c r="O2" s="174"/>
+      <c r="P2" s="174"/>
+      <c r="Q2" s="174"/>
+      <c r="R2" s="174"/>
+      <c r="S2" s="174"/>
+      <c r="T2" s="174"/>
+      <c r="U2" s="174"/>
+      <c r="V2" s="174"/>
+      <c r="W2" s="174"/>
     </row>
     <row r="3" spans="1:23" ht="0.75" customHeight="1" thickBot="1">
       <c r="A3" s="27"/>
@@ -45176,13 +45176,13 @@
       <c r="B4" s="28"/>
       <c r="C4" s="29"/>
       <c r="D4" s="28"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="170"/>
-      <c r="G4" s="170"/>
-      <c r="H4" s="170"/>
-      <c r="I4" s="171"/>
-      <c r="J4" s="172"/>
-      <c r="K4" s="170"/>
+      <c r="E4" s="175"/>
+      <c r="F4" s="176"/>
+      <c r="G4" s="176"/>
+      <c r="H4" s="176"/>
+      <c r="I4" s="177"/>
+      <c r="J4" s="178"/>
+      <c r="K4" s="176"/>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
@@ -45222,33 +45222,33 @@
       <c r="W5" s="22"/>
     </row>
     <row r="6" spans="1:23" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A6" s="173"/>
-      <c r="B6" s="173"/>
-      <c r="C6" s="173"/>
-      <c r="D6" s="173"/>
-      <c r="E6" s="173"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="173"/>
-      <c r="H6" s="173"/>
-      <c r="I6" s="173"/>
-      <c r="J6" s="173"/>
-      <c r="K6" s="173"/>
-      <c r="L6" s="173"/>
-      <c r="M6" s="173"/>
-      <c r="N6" s="173"/>
-      <c r="O6" s="173"/>
-      <c r="P6" s="173"/>
-      <c r="Q6" s="173"/>
-      <c r="R6" s="173"/>
-      <c r="S6" s="173"/>
-      <c r="T6" s="173"/>
-      <c r="U6" s="173"/>
-      <c r="V6" s="173"/>
-      <c r="W6" s="173"/>
+      <c r="A6" s="179"/>
+      <c r="B6" s="179"/>
+      <c r="C6" s="179"/>
+      <c r="D6" s="179"/>
+      <c r="E6" s="179"/>
+      <c r="F6" s="179"/>
+      <c r="G6" s="179"/>
+      <c r="H6" s="179"/>
+      <c r="I6" s="179"/>
+      <c r="J6" s="179"/>
+      <c r="K6" s="179"/>
+      <c r="L6" s="179"/>
+      <c r="M6" s="179"/>
+      <c r="N6" s="179"/>
+      <c r="O6" s="179"/>
+      <c r="P6" s="179"/>
+      <c r="Q6" s="179"/>
+      <c r="R6" s="179"/>
+      <c r="S6" s="179"/>
+      <c r="T6" s="179"/>
+      <c r="U6" s="179"/>
+      <c r="V6" s="179"/>
+      <c r="W6" s="179"/>
     </row>
     <row r="7" spans="1:23" ht="12" customHeight="1">
-      <c r="A7" s="174"/>
-      <c r="B7" s="175"/>
+      <c r="A7" s="180"/>
+      <c r="B7" s="181"/>
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
@@ -45272,8 +45272,8 @@
       <c r="W7" s="40"/>
     </row>
     <row r="8" spans="1:23" ht="12" customHeight="1">
-      <c r="A8" s="176"/>
-      <c r="B8" s="177"/>
+      <c r="A8" s="170"/>
+      <c r="B8" s="171"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
@@ -45297,8 +45297,8 @@
       <c r="W8" s="45"/>
     </row>
     <row r="9" spans="1:23" ht="12" customHeight="1">
-      <c r="A9" s="178"/>
-      <c r="B9" s="179"/>
+      <c r="A9" s="172"/>
+      <c r="B9" s="173"/>
       <c r="C9" s="4"/>
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
@@ -45322,8 +45322,8 @@
       <c r="W9" s="52"/>
     </row>
     <row r="10" spans="1:23" ht="12" customHeight="1">
-      <c r="A10" s="176"/>
-      <c r="B10" s="177"/>
+      <c r="A10" s="170"/>
+      <c r="B10" s="171"/>
       <c r="C10" s="4"/>
       <c r="D10" s="9"/>
       <c r="E10" s="6"/>
@@ -45347,8 +45347,8 @@
       <c r="W10" s="45"/>
     </row>
     <row r="11" spans="1:23" ht="12" customHeight="1">
-      <c r="A11" s="176"/>
-      <c r="B11" s="177"/>
+      <c r="A11" s="170"/>
+      <c r="B11" s="171"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
       <c r="E11" s="10"/>
@@ -45399,8 +45399,8 @@
     <row r="13" spans="1:23" ht="12" customHeight="1">
       <c r="A13" s="164"/>
       <c r="B13" s="164"/>
-      <c r="C13" s="166"/>
-      <c r="D13" s="167"/>
+      <c r="C13" s="168"/>
+      <c r="D13" s="169"/>
       <c r="E13" s="63"/>
       <c r="F13" s="64"/>
       <c r="G13" s="64"/>
@@ -45449,8 +45449,8 @@
     <row r="15" spans="1:23" ht="12" customHeight="1">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
-      <c r="C15" s="180"/>
-      <c r="D15" s="181"/>
+      <c r="C15" s="166"/>
+      <c r="D15" s="167"/>
       <c r="E15" s="71"/>
       <c r="F15" s="72"/>
       <c r="G15" s="72"/>
@@ -45474,8 +45474,8 @@
     <row r="16" spans="1:23" ht="12" customHeight="1">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
-      <c r="C16" s="166"/>
-      <c r="D16" s="167"/>
+      <c r="C16" s="168"/>
+      <c r="D16" s="169"/>
       <c r="E16" s="63"/>
       <c r="F16" s="64"/>
       <c r="G16" s="64"/>
@@ -45524,8 +45524,8 @@
     <row r="18" spans="1:23" ht="12" customHeight="1">
       <c r="A18" s="164"/>
       <c r="B18" s="164"/>
-      <c r="C18" s="166"/>
-      <c r="D18" s="167"/>
+      <c r="C18" s="168"/>
+      <c r="D18" s="169"/>
       <c r="E18" s="87"/>
       <c r="F18" s="88"/>
       <c r="G18" s="88"/>
@@ -45624,8 +45624,8 @@
     <row r="22" spans="1:23" ht="12" customHeight="1">
       <c r="A22" s="164"/>
       <c r="B22" s="164"/>
-      <c r="C22" s="166"/>
-      <c r="D22" s="167"/>
+      <c r="C22" s="168"/>
+      <c r="D22" s="169"/>
       <c r="E22" s="87"/>
       <c r="F22" s="88"/>
       <c r="G22" s="88"/>
@@ -45724,8 +45724,8 @@
     <row r="26" spans="1:23" ht="12" customHeight="1">
       <c r="A26" s="164"/>
       <c r="B26" s="164"/>
-      <c r="C26" s="166"/>
-      <c r="D26" s="167"/>
+      <c r="C26" s="168"/>
+      <c r="D26" s="169"/>
       <c r="E26" s="87"/>
       <c r="F26" s="88"/>
       <c r="G26" s="88"/>
@@ -45824,8 +45824,8 @@
     <row r="30" spans="1:23" ht="12" customHeight="1">
       <c r="A30" s="164"/>
       <c r="B30" s="164"/>
-      <c r="C30" s="166"/>
-      <c r="D30" s="167"/>
+      <c r="C30" s="168"/>
+      <c r="D30" s="169"/>
       <c r="E30" s="107"/>
       <c r="F30" s="88"/>
       <c r="G30" s="88"/>
@@ -45924,8 +45924,8 @@
     <row r="34" spans="1:23" ht="12" customHeight="1">
       <c r="A34" s="164"/>
       <c r="B34" s="164"/>
-      <c r="C34" s="166"/>
-      <c r="D34" s="167"/>
+      <c r="C34" s="168"/>
+      <c r="D34" s="169"/>
       <c r="E34" s="113"/>
       <c r="F34" s="114"/>
       <c r="G34" s="88"/>
@@ -46024,8 +46024,8 @@
     <row r="38" spans="1:23" ht="12" customHeight="1">
       <c r="A38" s="164"/>
       <c r="B38" s="164"/>
-      <c r="C38" s="166"/>
-      <c r="D38" s="167"/>
+      <c r="C38" s="168"/>
+      <c r="D38" s="169"/>
       <c r="E38" s="127"/>
       <c r="F38" s="66"/>
       <c r="G38" s="66"/>
@@ -46124,8 +46124,8 @@
     <row r="42" spans="1:23" ht="12" customHeight="1">
       <c r="A42" s="164"/>
       <c r="B42" s="164"/>
-      <c r="C42" s="166"/>
-      <c r="D42" s="167"/>
+      <c r="C42" s="168"/>
+      <c r="D42" s="169"/>
       <c r="E42" s="127"/>
       <c r="F42" s="66"/>
       <c r="G42" s="66"/>
@@ -46224,8 +46224,8 @@
     <row r="46" spans="1:23" ht="12" customHeight="1">
       <c r="A46" s="164"/>
       <c r="B46" s="164"/>
-      <c r="C46" s="166"/>
-      <c r="D46" s="167"/>
+      <c r="C46" s="168"/>
+      <c r="D46" s="169"/>
       <c r="E46" s="87"/>
       <c r="F46" s="131"/>
       <c r="G46" s="66"/>
@@ -46324,8 +46324,8 @@
     <row r="50" spans="1:23" ht="12" customHeight="1">
       <c r="A50" s="164"/>
       <c r="B50" s="164"/>
-      <c r="C50" s="166"/>
-      <c r="D50" s="167"/>
+      <c r="C50" s="168"/>
+      <c r="D50" s="169"/>
       <c r="E50" s="87"/>
       <c r="F50" s="131"/>
       <c r="G50" s="66"/>
@@ -46583,8 +46583,8 @@
       <c r="W61" s="144"/>
     </row>
     <row r="64" spans="1:23" ht="12" customHeight="1">
-      <c r="C64" s="166"/>
-      <c r="D64" s="167"/>
+      <c r="C64" s="168"/>
+      <c r="D64" s="169"/>
       <c r="E64" s="63"/>
       <c r="F64" s="64"/>
       <c r="G64" s="64"/>
@@ -46631,8 +46631,8 @@
     <row r="66" spans="1:23" ht="12" customHeight="1">
       <c r="A66" s="164"/>
       <c r="B66" s="164"/>
-      <c r="C66" s="166"/>
-      <c r="D66" s="167"/>
+      <c r="C66" s="168"/>
+      <c r="D66" s="169"/>
       <c r="E66" s="87"/>
       <c r="F66" s="88"/>
       <c r="G66" s="88"/>
@@ -46731,8 +46731,8 @@
     <row r="70" spans="1:23" ht="12" customHeight="1">
       <c r="A70" s="164"/>
       <c r="B70" s="164"/>
-      <c r="C70" s="166"/>
-      <c r="D70" s="167"/>
+      <c r="C70" s="168"/>
+      <c r="D70" s="169"/>
       <c r="E70" s="87"/>
       <c r="F70" s="88"/>
       <c r="G70" s="88"/>
@@ -46831,8 +46831,8 @@
     <row r="74" spans="1:23" ht="12" customHeight="1">
       <c r="A74" s="164"/>
       <c r="B74" s="164"/>
-      <c r="C74" s="166"/>
-      <c r="D74" s="167"/>
+      <c r="C74" s="168"/>
+      <c r="D74" s="169"/>
       <c r="E74" s="107"/>
       <c r="F74" s="88"/>
       <c r="G74" s="88"/>
@@ -46931,8 +46931,8 @@
     <row r="78" spans="1:23" ht="12" customHeight="1">
       <c r="A78" s="164"/>
       <c r="B78" s="164"/>
-      <c r="C78" s="166"/>
-      <c r="D78" s="167"/>
+      <c r="C78" s="168"/>
+      <c r="D78" s="169"/>
       <c r="E78" s="113"/>
       <c r="F78" s="114"/>
       <c r="G78" s="88"/>
@@ -47031,8 +47031,8 @@
     <row r="82" spans="1:23" ht="12" customHeight="1">
       <c r="A82" s="164"/>
       <c r="B82" s="164"/>
-      <c r="C82" s="166"/>
-      <c r="D82" s="167"/>
+      <c r="C82" s="168"/>
+      <c r="D82" s="169"/>
       <c r="E82" s="127"/>
       <c r="F82" s="66"/>
       <c r="G82" s="66"/>
@@ -47131,8 +47131,8 @@
     <row r="86" spans="1:23" ht="12" customHeight="1">
       <c r="A86" s="164"/>
       <c r="B86" s="164"/>
-      <c r="C86" s="166"/>
-      <c r="D86" s="167"/>
+      <c r="C86" s="168"/>
+      <c r="D86" s="169"/>
       <c r="E86" s="127"/>
       <c r="F86" s="66"/>
       <c r="G86" s="66"/>
@@ -47231,8 +47231,8 @@
     <row r="90" spans="1:23" ht="12" customHeight="1">
       <c r="A90" s="164"/>
       <c r="B90" s="164"/>
-      <c r="C90" s="166"/>
-      <c r="D90" s="167"/>
+      <c r="C90" s="168"/>
+      <c r="D90" s="169"/>
       <c r="E90" s="87"/>
       <c r="F90" s="131"/>
       <c r="G90" s="66"/>
@@ -47331,8 +47331,8 @@
     <row r="94" spans="1:23" ht="12" customHeight="1">
       <c r="A94" s="164"/>
       <c r="B94" s="164"/>
-      <c r="C94" s="166"/>
-      <c r="D94" s="167"/>
+      <c r="C94" s="168"/>
+      <c r="D94" s="169"/>
       <c r="E94" s="87"/>
       <c r="F94" s="131"/>
       <c r="G94" s="66"/>
@@ -47433,27 +47433,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A2:W2"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A6:W6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C46:D46"/>
     <mergeCell ref="C86:D86"/>
     <mergeCell ref="C90:D90"/>
     <mergeCell ref="C94:D94"/>
@@ -47463,6 +47442,27 @@
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="C82:D82"/>
     <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="A2:W2"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A6:W6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C26:D26"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.31496062992125984"/>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_v2_template.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_v2_template.xlsx
@@ -1706,29 +1706,11 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -1753,6 +1735,24 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="76" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1799,7 +1799,7 @@
         <xdr:cNvPr id="2" name="楕円 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -45114,37 +45114,37 @@
     <col min="4" max="4" width="10.6640625" style="140" customWidth="1"/>
     <col min="5" max="9" width="5.6640625" style="140"/>
     <col min="10" max="10" width="6.6640625" style="140" customWidth="1"/>
-    <col min="11" max="11" width="5.33203125" style="26" customWidth="1"/>
-    <col min="12" max="22" width="5.6640625" style="26"/>
-    <col min="23" max="24" width="5.6640625" style="25"/>
+    <col min="11" max="22" width="5.33203125" style="26" customWidth="1"/>
+    <col min="23" max="23" width="4.83203125" style="25" customWidth="1"/>
+    <col min="24" max="24" width="5.6640625" style="25"/>
     <col min="25" max="16384" width="5.6640625" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="0.75" customHeight="1"/>
     <row r="2" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A2" s="174"/>
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="174"/>
-      <c r="J2" s="174"/>
-      <c r="K2" s="174"/>
-      <c r="L2" s="174"/>
-      <c r="M2" s="174"/>
-      <c r="N2" s="174"/>
-      <c r="O2" s="174"/>
-      <c r="P2" s="174"/>
-      <c r="Q2" s="174"/>
-      <c r="R2" s="174"/>
-      <c r="S2" s="174"/>
-      <c r="T2" s="174"/>
-      <c r="U2" s="174"/>
-      <c r="V2" s="174"/>
-      <c r="W2" s="174"/>
+      <c r="A2" s="168"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="168"/>
+      <c r="R2" s="168"/>
+      <c r="S2" s="168"/>
+      <c r="T2" s="168"/>
+      <c r="U2" s="168"/>
+      <c r="V2" s="168"/>
+      <c r="W2" s="168"/>
     </row>
     <row r="3" spans="1:23" ht="0.75" customHeight="1" thickBot="1">
       <c r="A3" s="27"/>
@@ -45176,13 +45176,13 @@
       <c r="B4" s="28"/>
       <c r="C4" s="29"/>
       <c r="D4" s="28"/>
-      <c r="E4" s="175"/>
-      <c r="F4" s="176"/>
-      <c r="G4" s="176"/>
-      <c r="H4" s="176"/>
-      <c r="I4" s="177"/>
-      <c r="J4" s="178"/>
-      <c r="K4" s="176"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="170"/>
+      <c r="H4" s="170"/>
+      <c r="I4" s="171"/>
+      <c r="J4" s="172"/>
+      <c r="K4" s="170"/>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
@@ -45222,33 +45222,33 @@
       <c r="W5" s="22"/>
     </row>
     <row r="6" spans="1:23" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A6" s="179"/>
-      <c r="B6" s="179"/>
-      <c r="C6" s="179"/>
-      <c r="D6" s="179"/>
-      <c r="E6" s="179"/>
-      <c r="F6" s="179"/>
-      <c r="G6" s="179"/>
-      <c r="H6" s="179"/>
-      <c r="I6" s="179"/>
-      <c r="J6" s="179"/>
-      <c r="K6" s="179"/>
-      <c r="L6" s="179"/>
-      <c r="M6" s="179"/>
-      <c r="N6" s="179"/>
-      <c r="O6" s="179"/>
-      <c r="P6" s="179"/>
-      <c r="Q6" s="179"/>
-      <c r="R6" s="179"/>
-      <c r="S6" s="179"/>
-      <c r="T6" s="179"/>
-      <c r="U6" s="179"/>
-      <c r="V6" s="179"/>
-      <c r="W6" s="179"/>
+      <c r="A6" s="173"/>
+      <c r="B6" s="173"/>
+      <c r="C6" s="173"/>
+      <c r="D6" s="173"/>
+      <c r="E6" s="173"/>
+      <c r="F6" s="173"/>
+      <c r="G6" s="173"/>
+      <c r="H6" s="173"/>
+      <c r="I6" s="173"/>
+      <c r="J6" s="173"/>
+      <c r="K6" s="173"/>
+      <c r="L6" s="173"/>
+      <c r="M6" s="173"/>
+      <c r="N6" s="173"/>
+      <c r="O6" s="173"/>
+      <c r="P6" s="173"/>
+      <c r="Q6" s="173"/>
+      <c r="R6" s="173"/>
+      <c r="S6" s="173"/>
+      <c r="T6" s="173"/>
+      <c r="U6" s="173"/>
+      <c r="V6" s="173"/>
+      <c r="W6" s="173"/>
     </row>
     <row r="7" spans="1:23" ht="12" customHeight="1">
-      <c r="A7" s="180"/>
-      <c r="B7" s="181"/>
+      <c r="A7" s="174"/>
+      <c r="B7" s="175"/>
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
@@ -45272,8 +45272,8 @@
       <c r="W7" s="40"/>
     </row>
     <row r="8" spans="1:23" ht="12" customHeight="1">
-      <c r="A8" s="170"/>
-      <c r="B8" s="171"/>
+      <c r="A8" s="176"/>
+      <c r="B8" s="177"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
@@ -45297,8 +45297,8 @@
       <c r="W8" s="45"/>
     </row>
     <row r="9" spans="1:23" ht="12" customHeight="1">
-      <c r="A9" s="172"/>
-      <c r="B9" s="173"/>
+      <c r="A9" s="178"/>
+      <c r="B9" s="179"/>
       <c r="C9" s="4"/>
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
@@ -45322,8 +45322,8 @@
       <c r="W9" s="52"/>
     </row>
     <row r="10" spans="1:23" ht="12" customHeight="1">
-      <c r="A10" s="170"/>
-      <c r="B10" s="171"/>
+      <c r="A10" s="176"/>
+      <c r="B10" s="177"/>
       <c r="C10" s="4"/>
       <c r="D10" s="9"/>
       <c r="E10" s="6"/>
@@ -45347,8 +45347,8 @@
       <c r="W10" s="45"/>
     </row>
     <row r="11" spans="1:23" ht="12" customHeight="1">
-      <c r="A11" s="170"/>
-      <c r="B11" s="171"/>
+      <c r="A11" s="176"/>
+      <c r="B11" s="177"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
       <c r="E11" s="10"/>
@@ -45399,8 +45399,8 @@
     <row r="13" spans="1:23" ht="12" customHeight="1">
       <c r="A13" s="164"/>
       <c r="B13" s="164"/>
-      <c r="C13" s="168"/>
-      <c r="D13" s="169"/>
+      <c r="C13" s="166"/>
+      <c r="D13" s="167"/>
       <c r="E13" s="63"/>
       <c r="F13" s="64"/>
       <c r="G13" s="64"/>
@@ -45449,8 +45449,8 @@
     <row r="15" spans="1:23" ht="12" customHeight="1">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
-      <c r="C15" s="166"/>
-      <c r="D15" s="167"/>
+      <c r="C15" s="180"/>
+      <c r="D15" s="181"/>
       <c r="E15" s="71"/>
       <c r="F15" s="72"/>
       <c r="G15" s="72"/>
@@ -45474,8 +45474,8 @@
     <row r="16" spans="1:23" ht="12" customHeight="1">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
-      <c r="C16" s="168"/>
-      <c r="D16" s="169"/>
+      <c r="C16" s="166"/>
+      <c r="D16" s="167"/>
       <c r="E16" s="63"/>
       <c r="F16" s="64"/>
       <c r="G16" s="64"/>
@@ -45524,8 +45524,8 @@
     <row r="18" spans="1:23" ht="12" customHeight="1">
       <c r="A18" s="164"/>
       <c r="B18" s="164"/>
-      <c r="C18" s="168"/>
-      <c r="D18" s="169"/>
+      <c r="C18" s="166"/>
+      <c r="D18" s="167"/>
       <c r="E18" s="87"/>
       <c r="F18" s="88"/>
       <c r="G18" s="88"/>
@@ -45624,8 +45624,8 @@
     <row r="22" spans="1:23" ht="12" customHeight="1">
       <c r="A22" s="164"/>
       <c r="B22" s="164"/>
-      <c r="C22" s="168"/>
-      <c r="D22" s="169"/>
+      <c r="C22" s="166"/>
+      <c r="D22" s="167"/>
       <c r="E22" s="87"/>
       <c r="F22" s="88"/>
       <c r="G22" s="88"/>
@@ -45724,8 +45724,8 @@
     <row r="26" spans="1:23" ht="12" customHeight="1">
       <c r="A26" s="164"/>
       <c r="B26" s="164"/>
-      <c r="C26" s="168"/>
-      <c r="D26" s="169"/>
+      <c r="C26" s="166"/>
+      <c r="D26" s="167"/>
       <c r="E26" s="87"/>
       <c r="F26" s="88"/>
       <c r="G26" s="88"/>
@@ -45824,8 +45824,8 @@
     <row r="30" spans="1:23" ht="12" customHeight="1">
       <c r="A30" s="164"/>
       <c r="B30" s="164"/>
-      <c r="C30" s="168"/>
-      <c r="D30" s="169"/>
+      <c r="C30" s="166"/>
+      <c r="D30" s="167"/>
       <c r="E30" s="107"/>
       <c r="F30" s="88"/>
       <c r="G30" s="88"/>
@@ -45924,8 +45924,8 @@
     <row r="34" spans="1:23" ht="12" customHeight="1">
       <c r="A34" s="164"/>
       <c r="B34" s="164"/>
-      <c r="C34" s="168"/>
-      <c r="D34" s="169"/>
+      <c r="C34" s="166"/>
+      <c r="D34" s="167"/>
       <c r="E34" s="113"/>
       <c r="F34" s="114"/>
       <c r="G34" s="88"/>
@@ -46024,8 +46024,8 @@
     <row r="38" spans="1:23" ht="12" customHeight="1">
       <c r="A38" s="164"/>
       <c r="B38" s="164"/>
-      <c r="C38" s="168"/>
-      <c r="D38" s="169"/>
+      <c r="C38" s="166"/>
+      <c r="D38" s="167"/>
       <c r="E38" s="127"/>
       <c r="F38" s="66"/>
       <c r="G38" s="66"/>
@@ -46124,8 +46124,8 @@
     <row r="42" spans="1:23" ht="12" customHeight="1">
       <c r="A42" s="164"/>
       <c r="B42" s="164"/>
-      <c r="C42" s="168"/>
-      <c r="D42" s="169"/>
+      <c r="C42" s="166"/>
+      <c r="D42" s="167"/>
       <c r="E42" s="127"/>
       <c r="F42" s="66"/>
       <c r="G42" s="66"/>
@@ -46224,8 +46224,8 @@
     <row r="46" spans="1:23" ht="12" customHeight="1">
       <c r="A46" s="164"/>
       <c r="B46" s="164"/>
-      <c r="C46" s="168"/>
-      <c r="D46" s="169"/>
+      <c r="C46" s="166"/>
+      <c r="D46" s="167"/>
       <c r="E46" s="87"/>
       <c r="F46" s="131"/>
       <c r="G46" s="66"/>
@@ -46324,8 +46324,8 @@
     <row r="50" spans="1:23" ht="12" customHeight="1">
       <c r="A50" s="164"/>
       <c r="B50" s="164"/>
-      <c r="C50" s="168"/>
-      <c r="D50" s="169"/>
+      <c r="C50" s="166"/>
+      <c r="D50" s="167"/>
       <c r="E50" s="87"/>
       <c r="F50" s="131"/>
       <c r="G50" s="66"/>
@@ -46583,8 +46583,8 @@
       <c r="W61" s="144"/>
     </row>
     <row r="64" spans="1:23" ht="12" customHeight="1">
-      <c r="C64" s="168"/>
-      <c r="D64" s="169"/>
+      <c r="C64" s="166"/>
+      <c r="D64" s="167"/>
       <c r="E64" s="63"/>
       <c r="F64" s="64"/>
       <c r="G64" s="64"/>
@@ -46631,8 +46631,8 @@
     <row r="66" spans="1:23" ht="12" customHeight="1">
       <c r="A66" s="164"/>
       <c r="B66" s="164"/>
-      <c r="C66" s="168"/>
-      <c r="D66" s="169"/>
+      <c r="C66" s="166"/>
+      <c r="D66" s="167"/>
       <c r="E66" s="87"/>
       <c r="F66" s="88"/>
       <c r="G66" s="88"/>
@@ -46731,8 +46731,8 @@
     <row r="70" spans="1:23" ht="12" customHeight="1">
       <c r="A70" s="164"/>
       <c r="B70" s="164"/>
-      <c r="C70" s="168"/>
-      <c r="D70" s="169"/>
+      <c r="C70" s="166"/>
+      <c r="D70" s="167"/>
       <c r="E70" s="87"/>
       <c r="F70" s="88"/>
       <c r="G70" s="88"/>
@@ -46831,8 +46831,8 @@
     <row r="74" spans="1:23" ht="12" customHeight="1">
       <c r="A74" s="164"/>
       <c r="B74" s="164"/>
-      <c r="C74" s="168"/>
-      <c r="D74" s="169"/>
+      <c r="C74" s="166"/>
+      <c r="D74" s="167"/>
       <c r="E74" s="107"/>
       <c r="F74" s="88"/>
       <c r="G74" s="88"/>
@@ -46931,8 +46931,8 @@
     <row r="78" spans="1:23" ht="12" customHeight="1">
       <c r="A78" s="164"/>
       <c r="B78" s="164"/>
-      <c r="C78" s="168"/>
-      <c r="D78" s="169"/>
+      <c r="C78" s="166"/>
+      <c r="D78" s="167"/>
       <c r="E78" s="113"/>
       <c r="F78" s="114"/>
       <c r="G78" s="88"/>
@@ -47031,8 +47031,8 @@
     <row r="82" spans="1:23" ht="12" customHeight="1">
       <c r="A82" s="164"/>
       <c r="B82" s="164"/>
-      <c r="C82" s="168"/>
-      <c r="D82" s="169"/>
+      <c r="C82" s="166"/>
+      <c r="D82" s="167"/>
       <c r="E82" s="127"/>
       <c r="F82" s="66"/>
       <c r="G82" s="66"/>
@@ -47131,8 +47131,8 @@
     <row r="86" spans="1:23" ht="12" customHeight="1">
       <c r="A86" s="164"/>
       <c r="B86" s="164"/>
-      <c r="C86" s="168"/>
-      <c r="D86" s="169"/>
+      <c r="C86" s="166"/>
+      <c r="D86" s="167"/>
       <c r="E86" s="127"/>
       <c r="F86" s="66"/>
       <c r="G86" s="66"/>
@@ -47231,8 +47231,8 @@
     <row r="90" spans="1:23" ht="12" customHeight="1">
       <c r="A90" s="164"/>
       <c r="B90" s="164"/>
-      <c r="C90" s="168"/>
-      <c r="D90" s="169"/>
+      <c r="C90" s="166"/>
+      <c r="D90" s="167"/>
       <c r="E90" s="87"/>
       <c r="F90" s="131"/>
       <c r="G90" s="66"/>
@@ -47331,8 +47331,8 @@
     <row r="94" spans="1:23" ht="12" customHeight="1">
       <c r="A94" s="164"/>
       <c r="B94" s="164"/>
-      <c r="C94" s="168"/>
-      <c r="D94" s="169"/>
+      <c r="C94" s="166"/>
+      <c r="D94" s="167"/>
       <c r="E94" s="87"/>
       <c r="F94" s="131"/>
       <c r="G94" s="66"/>
@@ -47433,6 +47433,27 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A2:W2"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A6:W6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C46:D46"/>
     <mergeCell ref="C86:D86"/>
     <mergeCell ref="C90:D90"/>
     <mergeCell ref="C94:D94"/>
@@ -47442,27 +47463,6 @@
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="C82:D82"/>
     <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="A2:W2"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A6:W6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C26:D26"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.31496062992125984"/>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_v2_template.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_v2_template.xlsx
@@ -185,7 +185,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="81">
+  <borders count="82">
     <border>
       <left/>
       <right/>
@@ -1199,6 +1199,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1207,7 +1220,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1706,6 +1719,15 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1753,6 +1775,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -45122,29 +45150,29 @@
   <sheetData>
     <row r="1" spans="1:23" ht="0.75" customHeight="1"/>
     <row r="2" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A2" s="168"/>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="168"/>
-      <c r="R2" s="168"/>
-      <c r="S2" s="168"/>
-      <c r="T2" s="168"/>
-      <c r="U2" s="168"/>
-      <c r="V2" s="168"/>
-      <c r="W2" s="168"/>
+      <c r="A2" s="171"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="171"/>
+      <c r="K2" s="171"/>
+      <c r="L2" s="171"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="171"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="171"/>
+      <c r="Q2" s="171"/>
+      <c r="R2" s="171"/>
+      <c r="S2" s="171"/>
+      <c r="T2" s="171"/>
+      <c r="U2" s="171"/>
+      <c r="V2" s="171"/>
+      <c r="W2" s="171"/>
     </row>
     <row r="3" spans="1:23" ht="0.75" customHeight="1" thickBot="1">
       <c r="A3" s="27"/>
@@ -45176,13 +45204,13 @@
       <c r="B4" s="28"/>
       <c r="C4" s="29"/>
       <c r="D4" s="28"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="170"/>
-      <c r="G4" s="170"/>
-      <c r="H4" s="170"/>
-      <c r="I4" s="171"/>
-      <c r="J4" s="172"/>
-      <c r="K4" s="170"/>
+      <c r="E4" s="172"/>
+      <c r="F4" s="173"/>
+      <c r="G4" s="173"/>
+      <c r="H4" s="173"/>
+      <c r="I4" s="174"/>
+      <c r="J4" s="175"/>
+      <c r="K4" s="173"/>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
@@ -45222,33 +45250,33 @@
       <c r="W5" s="22"/>
     </row>
     <row r="6" spans="1:23" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A6" s="173"/>
-      <c r="B6" s="173"/>
-      <c r="C6" s="173"/>
-      <c r="D6" s="173"/>
-      <c r="E6" s="173"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="173"/>
-      <c r="H6" s="173"/>
-      <c r="I6" s="173"/>
-      <c r="J6" s="173"/>
-      <c r="K6" s="173"/>
-      <c r="L6" s="173"/>
-      <c r="M6" s="173"/>
-      <c r="N6" s="173"/>
-      <c r="O6" s="173"/>
-      <c r="P6" s="173"/>
-      <c r="Q6" s="173"/>
-      <c r="R6" s="173"/>
-      <c r="S6" s="173"/>
-      <c r="T6" s="173"/>
-      <c r="U6" s="173"/>
-      <c r="V6" s="173"/>
-      <c r="W6" s="173"/>
+      <c r="A6" s="176"/>
+      <c r="B6" s="176"/>
+      <c r="C6" s="176"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="176"/>
+      <c r="F6" s="176"/>
+      <c r="G6" s="176"/>
+      <c r="H6" s="176"/>
+      <c r="I6" s="176"/>
+      <c r="J6" s="176"/>
+      <c r="K6" s="176"/>
+      <c r="L6" s="176"/>
+      <c r="M6" s="176"/>
+      <c r="N6" s="176"/>
+      <c r="O6" s="176"/>
+      <c r="P6" s="176"/>
+      <c r="Q6" s="176"/>
+      <c r="R6" s="176"/>
+      <c r="S6" s="176"/>
+      <c r="T6" s="176"/>
+      <c r="U6" s="176"/>
+      <c r="V6" s="176"/>
+      <c r="W6" s="176"/>
     </row>
     <row r="7" spans="1:23" ht="12" customHeight="1">
-      <c r="A7" s="174"/>
-      <c r="B7" s="175"/>
+      <c r="A7" s="177"/>
+      <c r="B7" s="178"/>
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
@@ -45272,8 +45300,8 @@
       <c r="W7" s="40"/>
     </row>
     <row r="8" spans="1:23" ht="12" customHeight="1">
-      <c r="A8" s="176"/>
-      <c r="B8" s="177"/>
+      <c r="A8" s="179"/>
+      <c r="B8" s="180"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
@@ -45297,8 +45325,8 @@
       <c r="W8" s="45"/>
     </row>
     <row r="9" spans="1:23" ht="12" customHeight="1">
-      <c r="A9" s="178"/>
-      <c r="B9" s="179"/>
+      <c r="A9" s="181"/>
+      <c r="B9" s="182"/>
       <c r="C9" s="4"/>
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
@@ -45322,8 +45350,8 @@
       <c r="W9" s="52"/>
     </row>
     <row r="10" spans="1:23" ht="12" customHeight="1">
-      <c r="A10" s="176"/>
-      <c r="B10" s="177"/>
+      <c r="A10" s="179"/>
+      <c r="B10" s="180"/>
       <c r="C10" s="4"/>
       <c r="D10" s="9"/>
       <c r="E10" s="6"/>
@@ -45347,8 +45375,8 @@
       <c r="W10" s="45"/>
     </row>
     <row r="11" spans="1:23" ht="12" customHeight="1">
-      <c r="A11" s="176"/>
-      <c r="B11" s="177"/>
+      <c r="A11" s="179"/>
+      <c r="B11" s="180"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
       <c r="E11" s="10"/>
@@ -45399,8 +45427,8 @@
     <row r="13" spans="1:23" ht="12" customHeight="1">
       <c r="A13" s="164"/>
       <c r="B13" s="164"/>
-      <c r="C13" s="166"/>
-      <c r="D13" s="167"/>
+      <c r="C13" s="169"/>
+      <c r="D13" s="170"/>
       <c r="E13" s="63"/>
       <c r="F13" s="64"/>
       <c r="G13" s="64"/>
@@ -45449,8 +45477,8 @@
     <row r="15" spans="1:23" ht="12" customHeight="1">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
-      <c r="C15" s="180"/>
-      <c r="D15" s="181"/>
+      <c r="C15" s="183"/>
+      <c r="D15" s="184"/>
       <c r="E15" s="71"/>
       <c r="F15" s="72"/>
       <c r="G15" s="72"/>
@@ -45474,8 +45502,8 @@
     <row r="16" spans="1:23" ht="12" customHeight="1">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
-      <c r="C16" s="166"/>
-      <c r="D16" s="167"/>
+      <c r="C16" s="169"/>
+      <c r="D16" s="170"/>
       <c r="E16" s="63"/>
       <c r="F16" s="64"/>
       <c r="G16" s="64"/>
@@ -45524,8 +45552,8 @@
     <row r="18" spans="1:23" ht="12" customHeight="1">
       <c r="A18" s="164"/>
       <c r="B18" s="164"/>
-      <c r="C18" s="166"/>
-      <c r="D18" s="167"/>
+      <c r="C18" s="169"/>
+      <c r="D18" s="170"/>
       <c r="E18" s="87"/>
       <c r="F18" s="88"/>
       <c r="G18" s="88"/>
@@ -45624,8 +45652,8 @@
     <row r="22" spans="1:23" ht="12" customHeight="1">
       <c r="A22" s="164"/>
       <c r="B22" s="164"/>
-      <c r="C22" s="166"/>
-      <c r="D22" s="167"/>
+      <c r="C22" s="169"/>
+      <c r="D22" s="170"/>
       <c r="E22" s="87"/>
       <c r="F22" s="88"/>
       <c r="G22" s="88"/>
@@ -45724,14 +45752,14 @@
     <row r="26" spans="1:23" ht="12" customHeight="1">
       <c r="A26" s="164"/>
       <c r="B26" s="164"/>
-      <c r="C26" s="166"/>
-      <c r="D26" s="167"/>
+      <c r="C26" s="169"/>
+      <c r="D26" s="170"/>
       <c r="E26" s="87"/>
       <c r="F26" s="88"/>
       <c r="G26" s="88"/>
       <c r="H26" s="88"/>
       <c r="I26" s="105"/>
-      <c r="J26" s="81"/>
+      <c r="J26" s="167"/>
       <c r="K26" s="82"/>
       <c r="L26" s="83"/>
       <c r="M26" s="83"/>
@@ -45781,7 +45809,7 @@
       <c r="G28" s="97"/>
       <c r="H28" s="97"/>
       <c r="I28" s="98"/>
-      <c r="J28" s="106"/>
+      <c r="J28" s="168"/>
       <c r="K28" s="53"/>
       <c r="L28" s="100"/>
       <c r="M28" s="100"/>
@@ -45806,7 +45834,7 @@
       <c r="G29" s="103"/>
       <c r="H29" s="103"/>
       <c r="I29" s="104"/>
-      <c r="J29" s="86"/>
+      <c r="J29" s="185"/>
       <c r="K29" s="51"/>
       <c r="L29" s="50"/>
       <c r="M29" s="50"/>
@@ -45824,8 +45852,8 @@
     <row r="30" spans="1:23" ht="12" customHeight="1">
       <c r="A30" s="164"/>
       <c r="B30" s="164"/>
-      <c r="C30" s="166"/>
-      <c r="D30" s="167"/>
+      <c r="C30" s="169"/>
+      <c r="D30" s="170"/>
       <c r="E30" s="107"/>
       <c r="F30" s="88"/>
       <c r="G30" s="88"/>
@@ -45924,8 +45952,8 @@
     <row r="34" spans="1:23" ht="12" customHeight="1">
       <c r="A34" s="164"/>
       <c r="B34" s="164"/>
-      <c r="C34" s="166"/>
-      <c r="D34" s="167"/>
+      <c r="C34" s="169"/>
+      <c r="D34" s="170"/>
       <c r="E34" s="113"/>
       <c r="F34" s="114"/>
       <c r="G34" s="88"/>
@@ -46024,14 +46052,14 @@
     <row r="38" spans="1:23" ht="12" customHeight="1">
       <c r="A38" s="164"/>
       <c r="B38" s="164"/>
-      <c r="C38" s="166"/>
-      <c r="D38" s="167"/>
+      <c r="C38" s="169"/>
+      <c r="D38" s="170"/>
       <c r="E38" s="127"/>
       <c r="F38" s="66"/>
       <c r="G38" s="66"/>
       <c r="H38" s="66"/>
       <c r="I38" s="108"/>
-      <c r="J38" s="81"/>
+      <c r="J38" s="167"/>
       <c r="K38" s="82"/>
       <c r="L38" s="83"/>
       <c r="M38" s="83"/>
@@ -46081,7 +46109,7 @@
       <c r="G40" s="97"/>
       <c r="H40" s="129"/>
       <c r="I40" s="110"/>
-      <c r="J40" s="106"/>
+      <c r="J40" s="168"/>
       <c r="K40" s="53"/>
       <c r="L40" s="100"/>
       <c r="M40" s="100"/>
@@ -46106,7 +46134,7 @@
       <c r="G41" s="103"/>
       <c r="H41" s="130"/>
       <c r="I41" s="112"/>
-      <c r="J41" s="86"/>
+      <c r="J41" s="166"/>
       <c r="K41" s="51"/>
       <c r="L41" s="50"/>
       <c r="M41" s="50"/>
@@ -46124,14 +46152,14 @@
     <row r="42" spans="1:23" ht="12" customHeight="1">
       <c r="A42" s="164"/>
       <c r="B42" s="164"/>
-      <c r="C42" s="166"/>
-      <c r="D42" s="167"/>
+      <c r="C42" s="169"/>
+      <c r="D42" s="170"/>
       <c r="E42" s="127"/>
       <c r="F42" s="66"/>
       <c r="G42" s="66"/>
       <c r="H42" s="66"/>
       <c r="I42" s="108"/>
-      <c r="J42" s="81"/>
+      <c r="J42" s="167"/>
       <c r="K42" s="82"/>
       <c r="L42" s="83"/>
       <c r="M42" s="83"/>
@@ -46181,7 +46209,7 @@
       <c r="G44" s="97"/>
       <c r="H44" s="129"/>
       <c r="I44" s="110"/>
-      <c r="J44" s="106"/>
+      <c r="J44" s="168"/>
       <c r="K44" s="53"/>
       <c r="L44" s="100"/>
       <c r="M44" s="100"/>
@@ -46206,7 +46234,7 @@
       <c r="G45" s="103"/>
       <c r="H45" s="103"/>
       <c r="I45" s="112"/>
-      <c r="J45" s="86"/>
+      <c r="J45" s="166"/>
       <c r="K45" s="51"/>
       <c r="L45" s="50"/>
       <c r="M45" s="50"/>
@@ -46224,14 +46252,14 @@
     <row r="46" spans="1:23" ht="12" customHeight="1">
       <c r="A46" s="164"/>
       <c r="B46" s="164"/>
-      <c r="C46" s="166"/>
-      <c r="D46" s="167"/>
+      <c r="C46" s="169"/>
+      <c r="D46" s="170"/>
       <c r="E46" s="87"/>
       <c r="F46" s="131"/>
       <c r="G46" s="66"/>
       <c r="H46" s="66"/>
       <c r="I46" s="132"/>
-      <c r="J46" s="81"/>
+      <c r="J46" s="167"/>
       <c r="K46" s="82"/>
       <c r="L46" s="83"/>
       <c r="M46" s="83"/>
@@ -46281,7 +46309,7 @@
       <c r="G48" s="134"/>
       <c r="H48" s="135"/>
       <c r="I48" s="110"/>
-      <c r="J48" s="106"/>
+      <c r="J48" s="186"/>
       <c r="K48" s="53"/>
       <c r="L48" s="100"/>
       <c r="M48" s="100"/>
@@ -46306,7 +46334,7 @@
       <c r="G49" s="102"/>
       <c r="H49" s="130"/>
       <c r="I49" s="112"/>
-      <c r="J49" s="86"/>
+      <c r="J49" s="185"/>
       <c r="K49" s="51"/>
       <c r="L49" s="50"/>
       <c r="M49" s="50"/>
@@ -46324,14 +46352,14 @@
     <row r="50" spans="1:23" ht="12" customHeight="1">
       <c r="A50" s="164"/>
       <c r="B50" s="164"/>
-      <c r="C50" s="166"/>
-      <c r="D50" s="167"/>
+      <c r="C50" s="169"/>
+      <c r="D50" s="170"/>
       <c r="E50" s="87"/>
       <c r="F50" s="131"/>
       <c r="G50" s="66"/>
       <c r="H50" s="66"/>
       <c r="I50" s="132"/>
-      <c r="J50" s="81"/>
+      <c r="J50" s="167"/>
       <c r="K50" s="82"/>
       <c r="L50" s="83"/>
       <c r="M50" s="83"/>
@@ -46381,7 +46409,7 @@
       <c r="G52" s="134"/>
       <c r="H52" s="135"/>
       <c r="I52" s="110"/>
-      <c r="J52" s="106"/>
+      <c r="J52" s="186"/>
       <c r="K52" s="53"/>
       <c r="L52" s="100"/>
       <c r="M52" s="100"/>
@@ -46406,7 +46434,7 @@
       <c r="G53" s="102"/>
       <c r="H53" s="130"/>
       <c r="I53" s="112"/>
-      <c r="J53" s="76"/>
+      <c r="J53" s="185"/>
       <c r="K53" s="137"/>
       <c r="L53" s="138"/>
       <c r="M53" s="138"/>
@@ -46583,8 +46611,8 @@
       <c r="W61" s="144"/>
     </row>
     <row r="64" spans="1:23" ht="12" customHeight="1">
-      <c r="C64" s="166"/>
-      <c r="D64" s="167"/>
+      <c r="C64" s="169"/>
+      <c r="D64" s="170"/>
       <c r="E64" s="63"/>
       <c r="F64" s="64"/>
       <c r="G64" s="64"/>
@@ -46631,8 +46659,8 @@
     <row r="66" spans="1:23" ht="12" customHeight="1">
       <c r="A66" s="164"/>
       <c r="B66" s="164"/>
-      <c r="C66" s="166"/>
-      <c r="D66" s="167"/>
+      <c r="C66" s="169"/>
+      <c r="D66" s="170"/>
       <c r="E66" s="87"/>
       <c r="F66" s="88"/>
       <c r="G66" s="88"/>
@@ -46731,8 +46759,8 @@
     <row r="70" spans="1:23" ht="12" customHeight="1">
       <c r="A70" s="164"/>
       <c r="B70" s="164"/>
-      <c r="C70" s="166"/>
-      <c r="D70" s="167"/>
+      <c r="C70" s="169"/>
+      <c r="D70" s="170"/>
       <c r="E70" s="87"/>
       <c r="F70" s="88"/>
       <c r="G70" s="88"/>
@@ -46831,8 +46859,8 @@
     <row r="74" spans="1:23" ht="12" customHeight="1">
       <c r="A74" s="164"/>
       <c r="B74" s="164"/>
-      <c r="C74" s="166"/>
-      <c r="D74" s="167"/>
+      <c r="C74" s="169"/>
+      <c r="D74" s="170"/>
       <c r="E74" s="107"/>
       <c r="F74" s="88"/>
       <c r="G74" s="88"/>
@@ -46931,8 +46959,8 @@
     <row r="78" spans="1:23" ht="12" customHeight="1">
       <c r="A78" s="164"/>
       <c r="B78" s="164"/>
-      <c r="C78" s="166"/>
-      <c r="D78" s="167"/>
+      <c r="C78" s="169"/>
+      <c r="D78" s="170"/>
       <c r="E78" s="113"/>
       <c r="F78" s="114"/>
       <c r="G78" s="88"/>
@@ -47031,8 +47059,8 @@
     <row r="82" spans="1:23" ht="12" customHeight="1">
       <c r="A82" s="164"/>
       <c r="B82" s="164"/>
-      <c r="C82" s="166"/>
-      <c r="D82" s="167"/>
+      <c r="C82" s="169"/>
+      <c r="D82" s="170"/>
       <c r="E82" s="127"/>
       <c r="F82" s="66"/>
       <c r="G82" s="66"/>
@@ -47131,8 +47159,8 @@
     <row r="86" spans="1:23" ht="12" customHeight="1">
       <c r="A86" s="164"/>
       <c r="B86" s="164"/>
-      <c r="C86" s="166"/>
-      <c r="D86" s="167"/>
+      <c r="C86" s="169"/>
+      <c r="D86" s="170"/>
       <c r="E86" s="127"/>
       <c r="F86" s="66"/>
       <c r="G86" s="66"/>
@@ -47231,8 +47259,8 @@
     <row r="90" spans="1:23" ht="12" customHeight="1">
       <c r="A90" s="164"/>
       <c r="B90" s="164"/>
-      <c r="C90" s="166"/>
-      <c r="D90" s="167"/>
+      <c r="C90" s="169"/>
+      <c r="D90" s="170"/>
       <c r="E90" s="87"/>
       <c r="F90" s="131"/>
       <c r="G90" s="66"/>
@@ -47331,8 +47359,8 @@
     <row r="94" spans="1:23" ht="12" customHeight="1">
       <c r="A94" s="164"/>
       <c r="B94" s="164"/>
-      <c r="C94" s="166"/>
-      <c r="D94" s="167"/>
+      <c r="C94" s="169"/>
+      <c r="D94" s="170"/>
       <c r="E94" s="87"/>
       <c r="F94" s="131"/>
       <c r="G94" s="66"/>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_v2_template.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_v2_template.xlsx
@@ -1728,11 +1728,35 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -1756,30 +1780,6 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="76" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1827,7 +1827,7 @@
         <xdr:cNvPr id="2" name="楕円 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -45143,36 +45143,36 @@
     <col min="5" max="9" width="5.6640625" style="140"/>
     <col min="10" max="10" width="6.6640625" style="140" customWidth="1"/>
     <col min="11" max="22" width="5.33203125" style="26" customWidth="1"/>
-    <col min="23" max="23" width="4.83203125" style="25" customWidth="1"/>
+    <col min="23" max="23" width="5.33203125" style="25" customWidth="1"/>
     <col min="24" max="24" width="5.6640625" style="25"/>
     <col min="25" max="16384" width="5.6640625" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="0.75" customHeight="1"/>
     <row r="2" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A2" s="171"/>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
-      <c r="I2" s="171"/>
-      <c r="J2" s="171"/>
-      <c r="K2" s="171"/>
-      <c r="L2" s="171"/>
-      <c r="M2" s="171"/>
-      <c r="N2" s="171"/>
-      <c r="O2" s="171"/>
-      <c r="P2" s="171"/>
-      <c r="Q2" s="171"/>
-      <c r="R2" s="171"/>
-      <c r="S2" s="171"/>
-      <c r="T2" s="171"/>
-      <c r="U2" s="171"/>
-      <c r="V2" s="171"/>
-      <c r="W2" s="171"/>
+      <c r="A2" s="179"/>
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="179"/>
+      <c r="H2" s="179"/>
+      <c r="I2" s="179"/>
+      <c r="J2" s="179"/>
+      <c r="K2" s="179"/>
+      <c r="L2" s="179"/>
+      <c r="M2" s="179"/>
+      <c r="N2" s="179"/>
+      <c r="O2" s="179"/>
+      <c r="P2" s="179"/>
+      <c r="Q2" s="179"/>
+      <c r="R2" s="179"/>
+      <c r="S2" s="179"/>
+      <c r="T2" s="179"/>
+      <c r="U2" s="179"/>
+      <c r="V2" s="179"/>
+      <c r="W2" s="179"/>
     </row>
     <row r="3" spans="1:23" ht="0.75" customHeight="1" thickBot="1">
       <c r="A3" s="27"/>
@@ -45204,13 +45204,13 @@
       <c r="B4" s="28"/>
       <c r="C4" s="29"/>
       <c r="D4" s="28"/>
-      <c r="E4" s="172"/>
-      <c r="F4" s="173"/>
-      <c r="G4" s="173"/>
-      <c r="H4" s="173"/>
-      <c r="I4" s="174"/>
-      <c r="J4" s="175"/>
-      <c r="K4" s="173"/>
+      <c r="E4" s="180"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="182"/>
+      <c r="J4" s="183"/>
+      <c r="K4" s="181"/>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
@@ -45250,33 +45250,33 @@
       <c r="W5" s="22"/>
     </row>
     <row r="6" spans="1:23" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A6" s="176"/>
-      <c r="B6" s="176"/>
-      <c r="C6" s="176"/>
-      <c r="D6" s="176"/>
-      <c r="E6" s="176"/>
-      <c r="F6" s="176"/>
-      <c r="G6" s="176"/>
-      <c r="H6" s="176"/>
-      <c r="I6" s="176"/>
-      <c r="J6" s="176"/>
-      <c r="K6" s="176"/>
-      <c r="L6" s="176"/>
-      <c r="M6" s="176"/>
-      <c r="N6" s="176"/>
-      <c r="O6" s="176"/>
-      <c r="P6" s="176"/>
-      <c r="Q6" s="176"/>
-      <c r="R6" s="176"/>
-      <c r="S6" s="176"/>
-      <c r="T6" s="176"/>
-      <c r="U6" s="176"/>
-      <c r="V6" s="176"/>
-      <c r="W6" s="176"/>
+      <c r="A6" s="184"/>
+      <c r="B6" s="184"/>
+      <c r="C6" s="184"/>
+      <c r="D6" s="184"/>
+      <c r="E6" s="184"/>
+      <c r="F6" s="184"/>
+      <c r="G6" s="184"/>
+      <c r="H6" s="184"/>
+      <c r="I6" s="184"/>
+      <c r="J6" s="184"/>
+      <c r="K6" s="184"/>
+      <c r="L6" s="184"/>
+      <c r="M6" s="184"/>
+      <c r="N6" s="184"/>
+      <c r="O6" s="184"/>
+      <c r="P6" s="184"/>
+      <c r="Q6" s="184"/>
+      <c r="R6" s="184"/>
+      <c r="S6" s="184"/>
+      <c r="T6" s="184"/>
+      <c r="U6" s="184"/>
+      <c r="V6" s="184"/>
+      <c r="W6" s="184"/>
     </row>
     <row r="7" spans="1:23" ht="12" customHeight="1">
-      <c r="A7" s="177"/>
-      <c r="B7" s="178"/>
+      <c r="A7" s="185"/>
+      <c r="B7" s="186"/>
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
@@ -45300,8 +45300,8 @@
       <c r="W7" s="40"/>
     </row>
     <row r="8" spans="1:23" ht="12" customHeight="1">
-      <c r="A8" s="179"/>
-      <c r="B8" s="180"/>
+      <c r="A8" s="175"/>
+      <c r="B8" s="176"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
@@ -45325,8 +45325,8 @@
       <c r="W8" s="45"/>
     </row>
     <row r="9" spans="1:23" ht="12" customHeight="1">
-      <c r="A9" s="181"/>
-      <c r="B9" s="182"/>
+      <c r="A9" s="177"/>
+      <c r="B9" s="178"/>
       <c r="C9" s="4"/>
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
@@ -45350,8 +45350,8 @@
       <c r="W9" s="52"/>
     </row>
     <row r="10" spans="1:23" ht="12" customHeight="1">
-      <c r="A10" s="179"/>
-      <c r="B10" s="180"/>
+      <c r="A10" s="175"/>
+      <c r="B10" s="176"/>
       <c r="C10" s="4"/>
       <c r="D10" s="9"/>
       <c r="E10" s="6"/>
@@ -45375,8 +45375,8 @@
       <c r="W10" s="45"/>
     </row>
     <row r="11" spans="1:23" ht="12" customHeight="1">
-      <c r="A11" s="179"/>
-      <c r="B11" s="180"/>
+      <c r="A11" s="175"/>
+      <c r="B11" s="176"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
       <c r="E11" s="10"/>
@@ -45427,8 +45427,8 @@
     <row r="13" spans="1:23" ht="12" customHeight="1">
       <c r="A13" s="164"/>
       <c r="B13" s="164"/>
-      <c r="C13" s="169"/>
-      <c r="D13" s="170"/>
+      <c r="C13" s="173"/>
+      <c r="D13" s="174"/>
       <c r="E13" s="63"/>
       <c r="F13" s="64"/>
       <c r="G13" s="64"/>
@@ -45477,8 +45477,8 @@
     <row r="15" spans="1:23" ht="12" customHeight="1">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
-      <c r="C15" s="183"/>
-      <c r="D15" s="184"/>
+      <c r="C15" s="171"/>
+      <c r="D15" s="172"/>
       <c r="E15" s="71"/>
       <c r="F15" s="72"/>
       <c r="G15" s="72"/>
@@ -45502,8 +45502,8 @@
     <row r="16" spans="1:23" ht="12" customHeight="1">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
-      <c r="C16" s="169"/>
-      <c r="D16" s="170"/>
+      <c r="C16" s="173"/>
+      <c r="D16" s="174"/>
       <c r="E16" s="63"/>
       <c r="F16" s="64"/>
       <c r="G16" s="64"/>
@@ -45552,8 +45552,8 @@
     <row r="18" spans="1:23" ht="12" customHeight="1">
       <c r="A18" s="164"/>
       <c r="B18" s="164"/>
-      <c r="C18" s="169"/>
-      <c r="D18" s="170"/>
+      <c r="C18" s="173"/>
+      <c r="D18" s="174"/>
       <c r="E18" s="87"/>
       <c r="F18" s="88"/>
       <c r="G18" s="88"/>
@@ -45652,8 +45652,8 @@
     <row r="22" spans="1:23" ht="12" customHeight="1">
       <c r="A22" s="164"/>
       <c r="B22" s="164"/>
-      <c r="C22" s="169"/>
-      <c r="D22" s="170"/>
+      <c r="C22" s="173"/>
+      <c r="D22" s="174"/>
       <c r="E22" s="87"/>
       <c r="F22" s="88"/>
       <c r="G22" s="88"/>
@@ -45752,8 +45752,8 @@
     <row r="26" spans="1:23" ht="12" customHeight="1">
       <c r="A26" s="164"/>
       <c r="B26" s="164"/>
-      <c r="C26" s="169"/>
-      <c r="D26" s="170"/>
+      <c r="C26" s="173"/>
+      <c r="D26" s="174"/>
       <c r="E26" s="87"/>
       <c r="F26" s="88"/>
       <c r="G26" s="88"/>
@@ -45834,7 +45834,7 @@
       <c r="G29" s="103"/>
       <c r="H29" s="103"/>
       <c r="I29" s="104"/>
-      <c r="J29" s="185"/>
+      <c r="J29" s="169"/>
       <c r="K29" s="51"/>
       <c r="L29" s="50"/>
       <c r="M29" s="50"/>
@@ -45852,8 +45852,8 @@
     <row r="30" spans="1:23" ht="12" customHeight="1">
       <c r="A30" s="164"/>
       <c r="B30" s="164"/>
-      <c r="C30" s="169"/>
-      <c r="D30" s="170"/>
+      <c r="C30" s="173"/>
+      <c r="D30" s="174"/>
       <c r="E30" s="107"/>
       <c r="F30" s="88"/>
       <c r="G30" s="88"/>
@@ -45952,8 +45952,8 @@
     <row r="34" spans="1:23" ht="12" customHeight="1">
       <c r="A34" s="164"/>
       <c r="B34" s="164"/>
-      <c r="C34" s="169"/>
-      <c r="D34" s="170"/>
+      <c r="C34" s="173"/>
+      <c r="D34" s="174"/>
       <c r="E34" s="113"/>
       <c r="F34" s="114"/>
       <c r="G34" s="88"/>
@@ -46052,8 +46052,8 @@
     <row r="38" spans="1:23" ht="12" customHeight="1">
       <c r="A38" s="164"/>
       <c r="B38" s="164"/>
-      <c r="C38" s="169"/>
-      <c r="D38" s="170"/>
+      <c r="C38" s="173"/>
+      <c r="D38" s="174"/>
       <c r="E38" s="127"/>
       <c r="F38" s="66"/>
       <c r="G38" s="66"/>
@@ -46152,8 +46152,8 @@
     <row r="42" spans="1:23" ht="12" customHeight="1">
       <c r="A42" s="164"/>
       <c r="B42" s="164"/>
-      <c r="C42" s="169"/>
-      <c r="D42" s="170"/>
+      <c r="C42" s="173"/>
+      <c r="D42" s="174"/>
       <c r="E42" s="127"/>
       <c r="F42" s="66"/>
       <c r="G42" s="66"/>
@@ -46252,8 +46252,8 @@
     <row r="46" spans="1:23" ht="12" customHeight="1">
       <c r="A46" s="164"/>
       <c r="B46" s="164"/>
-      <c r="C46" s="169"/>
-      <c r="D46" s="170"/>
+      <c r="C46" s="173"/>
+      <c r="D46" s="174"/>
       <c r="E46" s="87"/>
       <c r="F46" s="131"/>
       <c r="G46" s="66"/>
@@ -46309,7 +46309,7 @@
       <c r="G48" s="134"/>
       <c r="H48" s="135"/>
       <c r="I48" s="110"/>
-      <c r="J48" s="186"/>
+      <c r="J48" s="170"/>
       <c r="K48" s="53"/>
       <c r="L48" s="100"/>
       <c r="M48" s="100"/>
@@ -46334,7 +46334,7 @@
       <c r="G49" s="102"/>
       <c r="H49" s="130"/>
       <c r="I49" s="112"/>
-      <c r="J49" s="185"/>
+      <c r="J49" s="169"/>
       <c r="K49" s="51"/>
       <c r="L49" s="50"/>
       <c r="M49" s="50"/>
@@ -46352,8 +46352,8 @@
     <row r="50" spans="1:23" ht="12" customHeight="1">
       <c r="A50" s="164"/>
       <c r="B50" s="164"/>
-      <c r="C50" s="169"/>
-      <c r="D50" s="170"/>
+      <c r="C50" s="173"/>
+      <c r="D50" s="174"/>
       <c r="E50" s="87"/>
       <c r="F50" s="131"/>
       <c r="G50" s="66"/>
@@ -46409,7 +46409,7 @@
       <c r="G52" s="134"/>
       <c r="H52" s="135"/>
       <c r="I52" s="110"/>
-      <c r="J52" s="186"/>
+      <c r="J52" s="170"/>
       <c r="K52" s="53"/>
       <c r="L52" s="100"/>
       <c r="M52" s="100"/>
@@ -46434,7 +46434,7 @@
       <c r="G53" s="102"/>
       <c r="H53" s="130"/>
       <c r="I53" s="112"/>
-      <c r="J53" s="185"/>
+      <c r="J53" s="169"/>
       <c r="K53" s="137"/>
       <c r="L53" s="138"/>
       <c r="M53" s="138"/>
@@ -46611,8 +46611,8 @@
       <c r="W61" s="144"/>
     </row>
     <row r="64" spans="1:23" ht="12" customHeight="1">
-      <c r="C64" s="169"/>
-      <c r="D64" s="170"/>
+      <c r="C64" s="173"/>
+      <c r="D64" s="174"/>
       <c r="E64" s="63"/>
       <c r="F64" s="64"/>
       <c r="G64" s="64"/>
@@ -46659,8 +46659,8 @@
     <row r="66" spans="1:23" ht="12" customHeight="1">
       <c r="A66" s="164"/>
       <c r="B66" s="164"/>
-      <c r="C66" s="169"/>
-      <c r="D66" s="170"/>
+      <c r="C66" s="173"/>
+      <c r="D66" s="174"/>
       <c r="E66" s="87"/>
       <c r="F66" s="88"/>
       <c r="G66" s="88"/>
@@ -46759,8 +46759,8 @@
     <row r="70" spans="1:23" ht="12" customHeight="1">
       <c r="A70" s="164"/>
       <c r="B70" s="164"/>
-      <c r="C70" s="169"/>
-      <c r="D70" s="170"/>
+      <c r="C70" s="173"/>
+      <c r="D70" s="174"/>
       <c r="E70" s="87"/>
       <c r="F70" s="88"/>
       <c r="G70" s="88"/>
@@ -46859,8 +46859,8 @@
     <row r="74" spans="1:23" ht="12" customHeight="1">
       <c r="A74" s="164"/>
       <c r="B74" s="164"/>
-      <c r="C74" s="169"/>
-      <c r="D74" s="170"/>
+      <c r="C74" s="173"/>
+      <c r="D74" s="174"/>
       <c r="E74" s="107"/>
       <c r="F74" s="88"/>
       <c r="G74" s="88"/>
@@ -46959,8 +46959,8 @@
     <row r="78" spans="1:23" ht="12" customHeight="1">
       <c r="A78" s="164"/>
       <c r="B78" s="164"/>
-      <c r="C78" s="169"/>
-      <c r="D78" s="170"/>
+      <c r="C78" s="173"/>
+      <c r="D78" s="174"/>
       <c r="E78" s="113"/>
       <c r="F78" s="114"/>
       <c r="G78" s="88"/>
@@ -47059,8 +47059,8 @@
     <row r="82" spans="1:23" ht="12" customHeight="1">
       <c r="A82" s="164"/>
       <c r="B82" s="164"/>
-      <c r="C82" s="169"/>
-      <c r="D82" s="170"/>
+      <c r="C82" s="173"/>
+      <c r="D82" s="174"/>
       <c r="E82" s="127"/>
       <c r="F82" s="66"/>
       <c r="G82" s="66"/>
@@ -47159,8 +47159,8 @@
     <row r="86" spans="1:23" ht="12" customHeight="1">
       <c r="A86" s="164"/>
       <c r="B86" s="164"/>
-      <c r="C86" s="169"/>
-      <c r="D86" s="170"/>
+      <c r="C86" s="173"/>
+      <c r="D86" s="174"/>
       <c r="E86" s="127"/>
       <c r="F86" s="66"/>
       <c r="G86" s="66"/>
@@ -47259,8 +47259,8 @@
     <row r="90" spans="1:23" ht="12" customHeight="1">
       <c r="A90" s="164"/>
       <c r="B90" s="164"/>
-      <c r="C90" s="169"/>
-      <c r="D90" s="170"/>
+      <c r="C90" s="173"/>
+      <c r="D90" s="174"/>
       <c r="E90" s="87"/>
       <c r="F90" s="131"/>
       <c r="G90" s="66"/>
@@ -47359,8 +47359,8 @@
     <row r="94" spans="1:23" ht="12" customHeight="1">
       <c r="A94" s="164"/>
       <c r="B94" s="164"/>
-      <c r="C94" s="169"/>
-      <c r="D94" s="170"/>
+      <c r="C94" s="173"/>
+      <c r="D94" s="174"/>
       <c r="E94" s="87"/>
       <c r="F94" s="131"/>
       <c r="G94" s="66"/>
@@ -47461,27 +47461,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A2:W2"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A6:W6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C46:D46"/>
     <mergeCell ref="C86:D86"/>
     <mergeCell ref="C90:D90"/>
     <mergeCell ref="C94:D94"/>
@@ -47491,6 +47470,27 @@
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="C82:D82"/>
     <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="A2:W2"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A6:W6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C26:D26"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.31496062992125984"/>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_v2_template.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_v2_template.xlsx
@@ -125,6 +125,10 @@
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1224,563 +1228,563 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="68" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="76" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="68" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="76" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1827,7 +1831,7 @@
         <xdr:cNvPr id="2" name="楕円 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -45136,180 +45140,180 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="12" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="140" customWidth="1"/>
-    <col min="2" max="2" width="12" style="140" customWidth="1"/>
-    <col min="3" max="3" width="3.6640625" style="140" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="140" customWidth="1"/>
-    <col min="5" max="9" width="5.6640625" style="140"/>
-    <col min="10" max="10" width="6.6640625" style="140" customWidth="1"/>
-    <col min="11" max="22" width="5.33203125" style="26" customWidth="1"/>
-    <col min="23" max="23" width="5.33203125" style="25" customWidth="1"/>
-    <col min="24" max="24" width="5.6640625" style="25"/>
-    <col min="25" max="16384" width="5.6640625" style="26"/>
+    <col min="1" max="1" width="8.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="1" customWidth="1"/>
+    <col min="5" max="9" width="5.6640625" style="1"/>
+    <col min="10" max="10" width="6.6640625" style="1" customWidth="1"/>
+    <col min="11" max="22" width="5.33203125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="5.33203125" style="3" customWidth="1"/>
+    <col min="24" max="24" width="5.6640625" style="3"/>
+    <col min="25" max="16384" width="5.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="0.75" customHeight="1"/>
     <row r="2" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A2" s="179"/>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="179"/>
-      <c r="K2" s="179"/>
-      <c r="L2" s="179"/>
-      <c r="M2" s="179"/>
-      <c r="N2" s="179"/>
-      <c r="O2" s="179"/>
-      <c r="P2" s="179"/>
-      <c r="Q2" s="179"/>
-      <c r="R2" s="179"/>
-      <c r="S2" s="179"/>
-      <c r="T2" s="179"/>
-      <c r="U2" s="179"/>
-      <c r="V2" s="179"/>
-      <c r="W2" s="179"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
     </row>
     <row r="3" spans="1:23" ht="0.75" customHeight="1" thickBot="1">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
     </row>
     <row r="4" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="180"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="182"/>
-      <c r="J4" s="183"/>
-      <c r="K4" s="181"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="30"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="12"/>
     </row>
     <row r="5" spans="1:23" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="22"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="21"/>
     </row>
     <row r="6" spans="1:23" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A6" s="184"/>
-      <c r="B6" s="184"/>
-      <c r="C6" s="184"/>
-      <c r="D6" s="184"/>
-      <c r="E6" s="184"/>
-      <c r="F6" s="184"/>
-      <c r="G6" s="184"/>
-      <c r="H6" s="184"/>
-      <c r="I6" s="184"/>
-      <c r="J6" s="184"/>
-      <c r="K6" s="184"/>
-      <c r="L6" s="184"/>
-      <c r="M6" s="184"/>
-      <c r="N6" s="184"/>
-      <c r="O6" s="184"/>
-      <c r="P6" s="184"/>
-      <c r="Q6" s="184"/>
-      <c r="R6" s="184"/>
-      <c r="S6" s="184"/>
-      <c r="T6" s="184"/>
-      <c r="U6" s="184"/>
-      <c r="V6" s="184"/>
-      <c r="W6" s="184"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
     </row>
     <row r="7" spans="1:23" ht="12" customHeight="1">
-      <c r="A7" s="185"/>
-      <c r="B7" s="186"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="40"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="33"/>
     </row>
     <row r="8" spans="1:23" ht="12" customHeight="1">
-      <c r="A8" s="175"/>
-      <c r="B8" s="176"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="41"/>
       <c r="K8" s="42"/>
       <c r="L8" s="43"/>
       <c r="M8" s="44"/>
@@ -45325,42 +45329,42 @@
       <c r="W8" s="45"/>
     </row>
     <row r="9" spans="1:23" ht="12" customHeight="1">
-      <c r="A9" s="177"/>
-      <c r="B9" s="178"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="51"/>
-      <c r="W9" s="52"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="57"/>
     </row>
     <row r="10" spans="1:23" ht="12" customHeight="1">
-      <c r="A10" s="175"/>
-      <c r="B10" s="176"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="53"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="59"/>
       <c r="L10" s="44"/>
       <c r="M10" s="44"/>
       <c r="N10" s="44"/>
@@ -45375,1323 +45379,1323 @@
       <c r="W10" s="45"/>
     </row>
     <row r="11" spans="1:23" ht="12" customHeight="1">
-      <c r="A11" s="175"/>
-      <c r="B11" s="176"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="58"/>
-      <c r="S11" s="58"/>
-      <c r="T11" s="58"/>
-      <c r="U11" s="58"/>
-      <c r="V11" s="58"/>
-      <c r="W11" s="59"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="66"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="67"/>
     </row>
     <row r="12" spans="1:23" ht="12" customHeight="1">
-      <c r="A12" s="164"/>
-      <c r="B12" s="164"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="61"/>
-      <c r="S12" s="61"/>
-      <c r="T12" s="61"/>
-      <c r="U12" s="61"/>
-      <c r="V12" s="61"/>
-      <c r="W12" s="62"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="72"/>
+      <c r="R12" s="72"/>
+      <c r="S12" s="72"/>
+      <c r="T12" s="72"/>
+      <c r="U12" s="72"/>
+      <c r="V12" s="72"/>
+      <c r="W12" s="73"/>
     </row>
     <row r="13" spans="1:23" ht="12" customHeight="1">
-      <c r="A13" s="164"/>
-      <c r="B13" s="164"/>
-      <c r="C13" s="173"/>
-      <c r="D13" s="174"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="147"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="67"/>
-      <c r="V13" s="67"/>
-      <c r="W13" s="148"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="81"/>
+      <c r="O13" s="81"/>
+      <c r="P13" s="81"/>
+      <c r="Q13" s="81"/>
+      <c r="R13" s="81"/>
+      <c r="S13" s="81"/>
+      <c r="T13" s="81"/>
+      <c r="U13" s="81"/>
+      <c r="V13" s="81"/>
+      <c r="W13" s="82"/>
     </row>
     <row r="14" spans="1:23" ht="12" customHeight="1">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="75"/>
-      <c r="Q14" s="75"/>
-      <c r="R14" s="75"/>
-      <c r="S14" s="75"/>
-      <c r="T14" s="75"/>
-      <c r="U14" s="75"/>
-      <c r="V14" s="75"/>
-      <c r="W14" s="162"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="90"/>
+      <c r="P14" s="90"/>
+      <c r="Q14" s="90"/>
+      <c r="R14" s="90"/>
+      <c r="S14" s="90"/>
+      <c r="T14" s="90"/>
+      <c r="U14" s="90"/>
+      <c r="V14" s="90"/>
+      <c r="W14" s="91"/>
     </row>
     <row r="15" spans="1:23" ht="12" customHeight="1">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="171"/>
-      <c r="D15" s="172"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="78"/>
-      <c r="M15" s="78"/>
-      <c r="N15" s="78"/>
-      <c r="O15" s="78"/>
-      <c r="P15" s="78"/>
-      <c r="Q15" s="78"/>
-      <c r="R15" s="78"/>
-      <c r="S15" s="78"/>
-      <c r="T15" s="78"/>
-      <c r="U15" s="78"/>
-      <c r="V15" s="79"/>
-      <c r="W15" s="163"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="96"/>
+      <c r="M15" s="96"/>
+      <c r="N15" s="96"/>
+      <c r="O15" s="96"/>
+      <c r="P15" s="96"/>
+      <c r="Q15" s="96"/>
+      <c r="R15" s="96"/>
+      <c r="S15" s="96"/>
+      <c r="T15" s="96"/>
+      <c r="U15" s="96"/>
+      <c r="V15" s="97"/>
+      <c r="W15" s="98"/>
     </row>
     <row r="16" spans="1:23" ht="12" customHeight="1">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="173"/>
-      <c r="D16" s="174"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="83"/>
-      <c r="O16" s="83"/>
-      <c r="P16" s="83"/>
-      <c r="Q16" s="83"/>
-      <c r="R16" s="83"/>
-      <c r="S16" s="83"/>
-      <c r="T16" s="83"/>
-      <c r="U16" s="83"/>
-      <c r="V16" s="83"/>
-      <c r="W16" s="84"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="102"/>
+      <c r="M16" s="102"/>
+      <c r="N16" s="102"/>
+      <c r="O16" s="102"/>
+      <c r="P16" s="102"/>
+      <c r="Q16" s="102"/>
+      <c r="R16" s="102"/>
+      <c r="S16" s="102"/>
+      <c r="T16" s="102"/>
+      <c r="U16" s="102"/>
+      <c r="V16" s="102"/>
+      <c r="W16" s="103"/>
     </row>
     <row r="17" spans="1:23" ht="12" customHeight="1">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="50"/>
-      <c r="S17" s="50"/>
-      <c r="T17" s="50"/>
-      <c r="U17" s="50"/>
-      <c r="V17" s="50"/>
-      <c r="W17" s="80"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="55"/>
+      <c r="U17" s="55"/>
+      <c r="V17" s="55"/>
+      <c r="W17" s="106"/>
     </row>
     <row r="18" spans="1:23" ht="12" customHeight="1">
-      <c r="A18" s="164"/>
-      <c r="B18" s="164"/>
-      <c r="C18" s="173"/>
-      <c r="D18" s="174"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="83"/>
-      <c r="N18" s="83"/>
-      <c r="O18" s="83"/>
-      <c r="P18" s="83"/>
-      <c r="Q18" s="83"/>
-      <c r="R18" s="83"/>
-      <c r="S18" s="83"/>
-      <c r="T18" s="83"/>
-      <c r="U18" s="83"/>
-      <c r="V18" s="83"/>
-      <c r="W18" s="84"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="108"/>
+      <c r="I18" s="109"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="101"/>
+      <c r="L18" s="102"/>
+      <c r="M18" s="102"/>
+      <c r="N18" s="102"/>
+      <c r="O18" s="102"/>
+      <c r="P18" s="102"/>
+      <c r="Q18" s="102"/>
+      <c r="R18" s="102"/>
+      <c r="S18" s="102"/>
+      <c r="T18" s="102"/>
+      <c r="U18" s="102"/>
+      <c r="V18" s="102"/>
+      <c r="W18" s="103"/>
     </row>
     <row r="19" spans="1:23" ht="12" customHeight="1">
-      <c r="A19" s="164"/>
-      <c r="B19" s="164"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="165"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="95"/>
-      <c r="N19" s="95"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="95"/>
-      <c r="Q19" s="95"/>
-      <c r="R19" s="95"/>
-      <c r="S19" s="95"/>
-      <c r="T19" s="95"/>
-      <c r="U19" s="95"/>
-      <c r="V19" s="95"/>
-      <c r="W19" s="52"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="116"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="117"/>
+      <c r="M19" s="117"/>
+      <c r="N19" s="117"/>
+      <c r="O19" s="117"/>
+      <c r="P19" s="117"/>
+      <c r="Q19" s="117"/>
+      <c r="R19" s="117"/>
+      <c r="S19" s="117"/>
+      <c r="T19" s="117"/>
+      <c r="U19" s="117"/>
+      <c r="V19" s="117"/>
+      <c r="W19" s="57"/>
     </row>
     <row r="20" spans="1:23" ht="12" customHeight="1">
-      <c r="A20" s="164"/>
-      <c r="B20" s="164"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="165"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="98"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="100"/>
-      <c r="N20" s="100"/>
-      <c r="O20" s="100"/>
-      <c r="P20" s="100"/>
-      <c r="Q20" s="100"/>
-      <c r="R20" s="100"/>
-      <c r="S20" s="100"/>
-      <c r="T20" s="100"/>
-      <c r="U20" s="100"/>
-      <c r="V20" s="100"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="120"/>
+      <c r="J20" s="121"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="122"/>
+      <c r="M20" s="122"/>
+      <c r="N20" s="122"/>
+      <c r="O20" s="122"/>
+      <c r="P20" s="122"/>
+      <c r="Q20" s="122"/>
+      <c r="R20" s="122"/>
+      <c r="S20" s="122"/>
+      <c r="T20" s="122"/>
+      <c r="U20" s="122"/>
+      <c r="V20" s="122"/>
       <c r="W20" s="45"/>
     </row>
     <row r="21" spans="1:23" ht="12" customHeight="1">
-      <c r="A21" s="164"/>
-      <c r="B21" s="164"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="104"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="50"/>
-      <c r="S21" s="50"/>
-      <c r="T21" s="50"/>
-      <c r="U21" s="50"/>
-      <c r="V21" s="50"/>
-      <c r="W21" s="80"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="124"/>
+      <c r="G21" s="125"/>
+      <c r="H21" s="125"/>
+      <c r="I21" s="126"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="55"/>
+      <c r="S21" s="55"/>
+      <c r="T21" s="55"/>
+      <c r="U21" s="55"/>
+      <c r="V21" s="55"/>
+      <c r="W21" s="106"/>
     </row>
     <row r="22" spans="1:23" ht="12" customHeight="1">
-      <c r="A22" s="164"/>
-      <c r="B22" s="164"/>
-      <c r="C22" s="173"/>
-      <c r="D22" s="174"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="105"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="83"/>
-      <c r="N22" s="83"/>
-      <c r="O22" s="83"/>
-      <c r="P22" s="83"/>
-      <c r="Q22" s="83"/>
-      <c r="R22" s="83"/>
-      <c r="S22" s="83"/>
-      <c r="T22" s="83"/>
-      <c r="U22" s="83"/>
-      <c r="V22" s="83"/>
-      <c r="W22" s="84"/>
+      <c r="A22" s="68"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="109"/>
+      <c r="J22" s="100"/>
+      <c r="K22" s="101"/>
+      <c r="L22" s="102"/>
+      <c r="M22" s="102"/>
+      <c r="N22" s="102"/>
+      <c r="O22" s="102"/>
+      <c r="P22" s="102"/>
+      <c r="Q22" s="102"/>
+      <c r="R22" s="102"/>
+      <c r="S22" s="102"/>
+      <c r="T22" s="102"/>
+      <c r="U22" s="102"/>
+      <c r="V22" s="102"/>
+      <c r="W22" s="103"/>
     </row>
     <row r="23" spans="1:23" ht="12" customHeight="1">
-      <c r="A23" s="164"/>
-      <c r="B23" s="164"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="165"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="91"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="93"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="95"/>
-      <c r="M23" s="95"/>
-      <c r="N23" s="95"/>
-      <c r="O23" s="95"/>
-      <c r="P23" s="95"/>
-      <c r="Q23" s="95"/>
-      <c r="R23" s="95"/>
-      <c r="S23" s="95"/>
-      <c r="T23" s="95"/>
-      <c r="U23" s="95"/>
-      <c r="V23" s="95"/>
-      <c r="W23" s="52"/>
+      <c r="A23" s="68"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="113"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="116"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="117"/>
+      <c r="M23" s="117"/>
+      <c r="N23" s="117"/>
+      <c r="O23" s="117"/>
+      <c r="P23" s="117"/>
+      <c r="Q23" s="117"/>
+      <c r="R23" s="117"/>
+      <c r="S23" s="117"/>
+      <c r="T23" s="117"/>
+      <c r="U23" s="117"/>
+      <c r="V23" s="117"/>
+      <c r="W23" s="57"/>
     </row>
     <row r="24" spans="1:23" ht="12" customHeight="1">
-      <c r="A24" s="164"/>
-      <c r="B24" s="164"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="165"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="97"/>
-      <c r="I24" s="98"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="100"/>
-      <c r="M24" s="100"/>
-      <c r="N24" s="100"/>
-      <c r="O24" s="100"/>
-      <c r="P24" s="100"/>
-      <c r="Q24" s="100"/>
-      <c r="R24" s="100"/>
-      <c r="S24" s="100"/>
-      <c r="T24" s="100"/>
-      <c r="U24" s="100"/>
-      <c r="V24" s="100"/>
+      <c r="A24" s="68"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="119"/>
+      <c r="H24" s="119"/>
+      <c r="I24" s="120"/>
+      <c r="J24" s="121"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="122"/>
+      <c r="M24" s="122"/>
+      <c r="N24" s="122"/>
+      <c r="O24" s="122"/>
+      <c r="P24" s="122"/>
+      <c r="Q24" s="122"/>
+      <c r="R24" s="122"/>
+      <c r="S24" s="122"/>
+      <c r="T24" s="122"/>
+      <c r="U24" s="122"/>
+      <c r="V24" s="122"/>
       <c r="W24" s="45"/>
     </row>
     <row r="25" spans="1:23" ht="12" customHeight="1">
-      <c r="A25" s="164"/>
-      <c r="B25" s="164"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="104"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="50"/>
-      <c r="R25" s="50"/>
-      <c r="S25" s="50"/>
-      <c r="T25" s="50"/>
-      <c r="U25" s="50"/>
-      <c r="V25" s="50"/>
-      <c r="W25" s="80"/>
+      <c r="A25" s="68"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="123"/>
+      <c r="F25" s="124"/>
+      <c r="G25" s="125"/>
+      <c r="H25" s="125"/>
+      <c r="I25" s="126"/>
+      <c r="J25" s="105"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="55"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="55"/>
+      <c r="W25" s="106"/>
     </row>
     <row r="26" spans="1:23" ht="12" customHeight="1">
-      <c r="A26" s="164"/>
-      <c r="B26" s="164"/>
-      <c r="C26" s="173"/>
-      <c r="D26" s="174"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="105"/>
-      <c r="J26" s="167"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="83"/>
-      <c r="M26" s="83"/>
-      <c r="N26" s="83"/>
-      <c r="O26" s="83"/>
-      <c r="P26" s="83"/>
-      <c r="Q26" s="83"/>
-      <c r="R26" s="83"/>
-      <c r="S26" s="83"/>
-      <c r="T26" s="83"/>
-      <c r="U26" s="83"/>
-      <c r="V26" s="83"/>
-      <c r="W26" s="84"/>
+      <c r="A26" s="68"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="109"/>
+      <c r="J26" s="127"/>
+      <c r="K26" s="101"/>
+      <c r="L26" s="102"/>
+      <c r="M26" s="102"/>
+      <c r="N26" s="102"/>
+      <c r="O26" s="102"/>
+      <c r="P26" s="102"/>
+      <c r="Q26" s="102"/>
+      <c r="R26" s="102"/>
+      <c r="S26" s="102"/>
+      <c r="T26" s="102"/>
+      <c r="U26" s="102"/>
+      <c r="V26" s="102"/>
+      <c r="W26" s="103"/>
     </row>
     <row r="27" spans="1:23" ht="12" customHeight="1">
-      <c r="A27" s="164"/>
-      <c r="B27" s="164"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="165"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="97"/>
-      <c r="I27" s="98"/>
-      <c r="J27" s="94"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="95"/>
-      <c r="M27" s="95"/>
-      <c r="N27" s="95"/>
-      <c r="O27" s="95"/>
-      <c r="P27" s="95"/>
-      <c r="Q27" s="95"/>
-      <c r="R27" s="95"/>
-      <c r="S27" s="95"/>
-      <c r="T27" s="95"/>
-      <c r="U27" s="95"/>
-      <c r="V27" s="95"/>
-      <c r="W27" s="52"/>
+      <c r="A27" s="68"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="118"/>
+      <c r="G27" s="119"/>
+      <c r="H27" s="119"/>
+      <c r="I27" s="120"/>
+      <c r="J27" s="116"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="117"/>
+      <c r="M27" s="117"/>
+      <c r="N27" s="117"/>
+      <c r="O27" s="117"/>
+      <c r="P27" s="117"/>
+      <c r="Q27" s="117"/>
+      <c r="R27" s="117"/>
+      <c r="S27" s="117"/>
+      <c r="T27" s="117"/>
+      <c r="U27" s="117"/>
+      <c r="V27" s="117"/>
+      <c r="W27" s="57"/>
     </row>
     <row r="28" spans="1:23" ht="12" customHeight="1">
-      <c r="A28" s="164"/>
-      <c r="B28" s="164"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="165"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="97"/>
-      <c r="H28" s="97"/>
-      <c r="I28" s="98"/>
-      <c r="J28" s="168"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="100"/>
-      <c r="M28" s="100"/>
-      <c r="N28" s="100"/>
-      <c r="O28" s="100"/>
-      <c r="P28" s="100"/>
-      <c r="Q28" s="100"/>
-      <c r="R28" s="100"/>
-      <c r="S28" s="100"/>
-      <c r="T28" s="100"/>
-      <c r="U28" s="100"/>
-      <c r="V28" s="100"/>
+      <c r="A28" s="68"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="110"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="118"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="119"/>
+      <c r="I28" s="120"/>
+      <c r="J28" s="128"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="122"/>
+      <c r="M28" s="122"/>
+      <c r="N28" s="122"/>
+      <c r="O28" s="122"/>
+      <c r="P28" s="122"/>
+      <c r="Q28" s="122"/>
+      <c r="R28" s="122"/>
+      <c r="S28" s="122"/>
+      <c r="T28" s="122"/>
+      <c r="U28" s="122"/>
+      <c r="V28" s="122"/>
       <c r="W28" s="45"/>
     </row>
     <row r="29" spans="1:23" ht="12" customHeight="1">
-      <c r="A29" s="164"/>
-      <c r="B29" s="164"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="103"/>
-      <c r="I29" s="104"/>
-      <c r="J29" s="169"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="50"/>
-      <c r="R29" s="50"/>
-      <c r="S29" s="50"/>
-      <c r="T29" s="50"/>
-      <c r="U29" s="50"/>
-      <c r="V29" s="50"/>
-      <c r="W29" s="80"/>
+      <c r="A29" s="68"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="123"/>
+      <c r="F29" s="124"/>
+      <c r="G29" s="125"/>
+      <c r="H29" s="125"/>
+      <c r="I29" s="126"/>
+      <c r="J29" s="129"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="55"/>
+      <c r="S29" s="55"/>
+      <c r="T29" s="55"/>
+      <c r="U29" s="55"/>
+      <c r="V29" s="55"/>
+      <c r="W29" s="106"/>
     </row>
     <row r="30" spans="1:23" ht="12" customHeight="1">
-      <c r="A30" s="164"/>
-      <c r="B30" s="164"/>
-      <c r="C30" s="173"/>
-      <c r="D30" s="174"/>
-      <c r="E30" s="107"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="108"/>
-      <c r="J30" s="81"/>
-      <c r="K30" s="82"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="83"/>
-      <c r="N30" s="83"/>
-      <c r="O30" s="83"/>
-      <c r="P30" s="83"/>
-      <c r="Q30" s="83"/>
-      <c r="R30" s="83"/>
-      <c r="S30" s="83"/>
-      <c r="T30" s="83"/>
-      <c r="U30" s="83"/>
-      <c r="V30" s="83"/>
-      <c r="W30" s="84"/>
+      <c r="A30" s="68"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="130"/>
+      <c r="F30" s="108"/>
+      <c r="G30" s="108"/>
+      <c r="H30" s="108"/>
+      <c r="I30" s="131"/>
+      <c r="J30" s="100"/>
+      <c r="K30" s="101"/>
+      <c r="L30" s="102"/>
+      <c r="M30" s="102"/>
+      <c r="N30" s="102"/>
+      <c r="O30" s="102"/>
+      <c r="P30" s="102"/>
+      <c r="Q30" s="102"/>
+      <c r="R30" s="102"/>
+      <c r="S30" s="102"/>
+      <c r="T30" s="102"/>
+      <c r="U30" s="102"/>
+      <c r="V30" s="102"/>
+      <c r="W30" s="103"/>
     </row>
     <row r="31" spans="1:23" ht="12" customHeight="1">
-      <c r="A31" s="164"/>
-      <c r="B31" s="164"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="165"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="97"/>
-      <c r="G31" s="97"/>
-      <c r="H31" s="97"/>
-      <c r="I31" s="110"/>
-      <c r="J31" s="94"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="95"/>
-      <c r="M31" s="95"/>
-      <c r="N31" s="95"/>
-      <c r="O31" s="95"/>
-      <c r="P31" s="95"/>
-      <c r="Q31" s="95"/>
-      <c r="R31" s="95"/>
-      <c r="S31" s="95"/>
-      <c r="T31" s="95"/>
-      <c r="U31" s="95"/>
-      <c r="V31" s="95"/>
-      <c r="W31" s="52"/>
+      <c r="A31" s="68"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="110"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="132"/>
+      <c r="F31" s="119"/>
+      <c r="G31" s="119"/>
+      <c r="H31" s="119"/>
+      <c r="I31" s="133"/>
+      <c r="J31" s="116"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="117"/>
+      <c r="M31" s="117"/>
+      <c r="N31" s="117"/>
+      <c r="O31" s="117"/>
+      <c r="P31" s="117"/>
+      <c r="Q31" s="117"/>
+      <c r="R31" s="117"/>
+      <c r="S31" s="117"/>
+      <c r="T31" s="117"/>
+      <c r="U31" s="117"/>
+      <c r="V31" s="117"/>
+      <c r="W31" s="57"/>
     </row>
     <row r="32" spans="1:23" ht="12" customHeight="1">
-      <c r="A32" s="164"/>
-      <c r="B32" s="164"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="165"/>
-      <c r="E32" s="109"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="97"/>
-      <c r="H32" s="97"/>
-      <c r="I32" s="110"/>
-      <c r="J32" s="99"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="100"/>
-      <c r="M32" s="100"/>
-      <c r="N32" s="100"/>
-      <c r="O32" s="100"/>
-      <c r="P32" s="100"/>
-      <c r="Q32" s="100"/>
-      <c r="R32" s="100"/>
-      <c r="S32" s="100"/>
-      <c r="T32" s="100"/>
-      <c r="U32" s="100"/>
-      <c r="V32" s="100"/>
+      <c r="A32" s="68"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="110"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="132"/>
+      <c r="F32" s="119"/>
+      <c r="G32" s="119"/>
+      <c r="H32" s="119"/>
+      <c r="I32" s="133"/>
+      <c r="J32" s="121"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="122"/>
+      <c r="M32" s="122"/>
+      <c r="N32" s="122"/>
+      <c r="O32" s="122"/>
+      <c r="P32" s="122"/>
+      <c r="Q32" s="122"/>
+      <c r="R32" s="122"/>
+      <c r="S32" s="122"/>
+      <c r="T32" s="122"/>
+      <c r="U32" s="122"/>
+      <c r="V32" s="122"/>
       <c r="W32" s="45"/>
     </row>
     <row r="33" spans="1:23" ht="12" customHeight="1">
-      <c r="A33" s="164"/>
-      <c r="B33" s="164"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="111"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="103"/>
-      <c r="I33" s="112"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="50"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="50"/>
-      <c r="Q33" s="50"/>
-      <c r="R33" s="50"/>
-      <c r="S33" s="50"/>
-      <c r="T33" s="50"/>
-      <c r="U33" s="50"/>
-      <c r="V33" s="50"/>
-      <c r="W33" s="80"/>
+      <c r="A33" s="68"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="134"/>
+      <c r="F33" s="125"/>
+      <c r="G33" s="125"/>
+      <c r="H33" s="125"/>
+      <c r="I33" s="135"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="55"/>
+      <c r="O33" s="55"/>
+      <c r="P33" s="55"/>
+      <c r="Q33" s="55"/>
+      <c r="R33" s="55"/>
+      <c r="S33" s="55"/>
+      <c r="T33" s="55"/>
+      <c r="U33" s="55"/>
+      <c r="V33" s="55"/>
+      <c r="W33" s="106"/>
     </row>
     <row r="34" spans="1:23" ht="12" customHeight="1">
-      <c r="A34" s="164"/>
-      <c r="B34" s="164"/>
-      <c r="C34" s="173"/>
-      <c r="D34" s="174"/>
-      <c r="E34" s="113"/>
-      <c r="F34" s="114"/>
-      <c r="G34" s="88"/>
-      <c r="H34" s="114"/>
-      <c r="I34" s="108"/>
-      <c r="J34" s="106"/>
-      <c r="K34" s="115"/>
-      <c r="L34" s="116"/>
-      <c r="M34" s="116"/>
-      <c r="N34" s="116"/>
-      <c r="O34" s="116"/>
-      <c r="P34" s="116"/>
-      <c r="Q34" s="116"/>
-      <c r="R34" s="116"/>
-      <c r="S34" s="116"/>
-      <c r="T34" s="116"/>
-      <c r="U34" s="116"/>
-      <c r="V34" s="117"/>
-      <c r="W34" s="118"/>
+      <c r="A34" s="68"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="136"/>
+      <c r="F34" s="137"/>
+      <c r="G34" s="108"/>
+      <c r="H34" s="137"/>
+      <c r="I34" s="131"/>
+      <c r="J34" s="138"/>
+      <c r="K34" s="139"/>
+      <c r="L34" s="140"/>
+      <c r="M34" s="140"/>
+      <c r="N34" s="140"/>
+      <c r="O34" s="140"/>
+      <c r="P34" s="140"/>
+      <c r="Q34" s="140"/>
+      <c r="R34" s="140"/>
+      <c r="S34" s="140"/>
+      <c r="T34" s="140"/>
+      <c r="U34" s="140"/>
+      <c r="V34" s="141"/>
+      <c r="W34" s="142"/>
     </row>
     <row r="35" spans="1:23" ht="12" customHeight="1">
-      <c r="A35" s="164"/>
-      <c r="B35" s="164"/>
-      <c r="C35" s="89"/>
-      <c r="D35" s="165"/>
-      <c r="E35" s="109"/>
-      <c r="F35" s="97"/>
-      <c r="G35" s="97"/>
-      <c r="H35" s="97"/>
-      <c r="I35" s="110"/>
-      <c r="J35" s="119"/>
-      <c r="K35" s="120"/>
-      <c r="L35" s="121"/>
-      <c r="M35" s="121"/>
-      <c r="N35" s="121"/>
-      <c r="O35" s="121"/>
-      <c r="P35" s="121"/>
-      <c r="Q35" s="121"/>
-      <c r="R35" s="121"/>
-      <c r="S35" s="121"/>
-      <c r="T35" s="121"/>
-      <c r="U35" s="121"/>
-      <c r="V35" s="122"/>
-      <c r="W35" s="123"/>
+      <c r="A35" s="68"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="132"/>
+      <c r="F35" s="119"/>
+      <c r="G35" s="119"/>
+      <c r="H35" s="119"/>
+      <c r="I35" s="133"/>
+      <c r="J35" s="143"/>
+      <c r="K35" s="144"/>
+      <c r="L35" s="145"/>
+      <c r="M35" s="145"/>
+      <c r="N35" s="145"/>
+      <c r="O35" s="145"/>
+      <c r="P35" s="145"/>
+      <c r="Q35" s="145"/>
+      <c r="R35" s="145"/>
+      <c r="S35" s="145"/>
+      <c r="T35" s="145"/>
+      <c r="U35" s="145"/>
+      <c r="V35" s="146"/>
+      <c r="W35" s="147"/>
     </row>
     <row r="36" spans="1:23" ht="12" customHeight="1">
-      <c r="A36" s="164"/>
-      <c r="B36" s="164"/>
-      <c r="C36" s="89"/>
-      <c r="D36" s="165"/>
-      <c r="E36" s="109"/>
-      <c r="F36" s="97"/>
-      <c r="G36" s="97"/>
-      <c r="H36" s="97"/>
-      <c r="I36" s="110"/>
-      <c r="J36" s="106"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="100"/>
-      <c r="M36" s="100"/>
-      <c r="N36" s="100"/>
-      <c r="O36" s="100"/>
-      <c r="P36" s="100"/>
-      <c r="Q36" s="100"/>
-      <c r="R36" s="100"/>
-      <c r="S36" s="100"/>
-      <c r="T36" s="100"/>
-      <c r="U36" s="100"/>
-      <c r="V36" s="100"/>
+      <c r="A36" s="68"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="110"/>
+      <c r="D36" s="111"/>
+      <c r="E36" s="132"/>
+      <c r="F36" s="119"/>
+      <c r="G36" s="119"/>
+      <c r="H36" s="119"/>
+      <c r="I36" s="133"/>
+      <c r="J36" s="138"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="122"/>
+      <c r="M36" s="122"/>
+      <c r="N36" s="122"/>
+      <c r="O36" s="122"/>
+      <c r="P36" s="122"/>
+      <c r="Q36" s="122"/>
+      <c r="R36" s="122"/>
+      <c r="S36" s="122"/>
+      <c r="T36" s="122"/>
+      <c r="U36" s="122"/>
+      <c r="V36" s="122"/>
       <c r="W36" s="45"/>
     </row>
     <row r="37" spans="1:23" ht="12" customHeight="1">
-      <c r="A37" s="164"/>
-      <c r="B37" s="164"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="111"/>
-      <c r="F37" s="103"/>
-      <c r="G37" s="103"/>
-      <c r="H37" s="103"/>
-      <c r="I37" s="112"/>
-      <c r="J37" s="119"/>
-      <c r="K37" s="124"/>
-      <c r="L37" s="125"/>
-      <c r="M37" s="125"/>
-      <c r="N37" s="125"/>
-      <c r="O37" s="125"/>
-      <c r="P37" s="125"/>
-      <c r="Q37" s="125"/>
-      <c r="R37" s="125"/>
-      <c r="S37" s="125"/>
-      <c r="T37" s="125"/>
-      <c r="U37" s="125"/>
-      <c r="V37" s="122"/>
-      <c r="W37" s="126"/>
+      <c r="A37" s="68"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="134"/>
+      <c r="F37" s="125"/>
+      <c r="G37" s="125"/>
+      <c r="H37" s="125"/>
+      <c r="I37" s="135"/>
+      <c r="J37" s="143"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
+      <c r="N37" s="149"/>
+      <c r="O37" s="149"/>
+      <c r="P37" s="149"/>
+      <c r="Q37" s="149"/>
+      <c r="R37" s="149"/>
+      <c r="S37" s="149"/>
+      <c r="T37" s="149"/>
+      <c r="U37" s="149"/>
+      <c r="V37" s="146"/>
+      <c r="W37" s="150"/>
     </row>
     <row r="38" spans="1:23" ht="12" customHeight="1">
-      <c r="A38" s="164"/>
-      <c r="B38" s="164"/>
-      <c r="C38" s="173"/>
-      <c r="D38" s="174"/>
-      <c r="E38" s="127"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="66"/>
-      <c r="I38" s="108"/>
-      <c r="J38" s="167"/>
-      <c r="K38" s="82"/>
-      <c r="L38" s="83"/>
-      <c r="M38" s="83"/>
-      <c r="N38" s="83"/>
-      <c r="O38" s="83"/>
-      <c r="P38" s="83"/>
-      <c r="Q38" s="83"/>
-      <c r="R38" s="83"/>
-      <c r="S38" s="83"/>
-      <c r="T38" s="83"/>
-      <c r="U38" s="83"/>
-      <c r="V38" s="83"/>
-      <c r="W38" s="84"/>
+      <c r="A38" s="68"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="151"/>
+      <c r="F38" s="152"/>
+      <c r="G38" s="152"/>
+      <c r="H38" s="152"/>
+      <c r="I38" s="131"/>
+      <c r="J38" s="127"/>
+      <c r="K38" s="101"/>
+      <c r="L38" s="102"/>
+      <c r="M38" s="102"/>
+      <c r="N38" s="102"/>
+      <c r="O38" s="102"/>
+      <c r="P38" s="102"/>
+      <c r="Q38" s="102"/>
+      <c r="R38" s="102"/>
+      <c r="S38" s="102"/>
+      <c r="T38" s="102"/>
+      <c r="U38" s="102"/>
+      <c r="V38" s="102"/>
+      <c r="W38" s="103"/>
     </row>
     <row r="39" spans="1:23" ht="12" customHeight="1">
-      <c r="A39" s="164"/>
-      <c r="B39" s="164"/>
-      <c r="C39" s="89"/>
-      <c r="D39" s="165"/>
-      <c r="E39" s="128"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="110"/>
-      <c r="J39" s="94"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="95"/>
-      <c r="M39" s="95"/>
-      <c r="N39" s="95"/>
-      <c r="O39" s="95"/>
-      <c r="P39" s="95"/>
-      <c r="Q39" s="95"/>
-      <c r="R39" s="95"/>
-      <c r="S39" s="95"/>
-      <c r="T39" s="95"/>
-      <c r="U39" s="95"/>
-      <c r="V39" s="95"/>
-      <c r="W39" s="52"/>
+      <c r="A39" s="68"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="110"/>
+      <c r="D39" s="111"/>
+      <c r="E39" s="153"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="133"/>
+      <c r="J39" s="116"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="117"/>
+      <c r="M39" s="117"/>
+      <c r="N39" s="117"/>
+      <c r="O39" s="117"/>
+      <c r="P39" s="117"/>
+      <c r="Q39" s="117"/>
+      <c r="R39" s="117"/>
+      <c r="S39" s="117"/>
+      <c r="T39" s="117"/>
+      <c r="U39" s="117"/>
+      <c r="V39" s="117"/>
+      <c r="W39" s="57"/>
     </row>
     <row r="40" spans="1:23" ht="12" customHeight="1">
-      <c r="A40" s="164"/>
-      <c r="B40" s="164"/>
-      <c r="C40" s="89"/>
-      <c r="D40" s="165"/>
-      <c r="E40" s="109"/>
-      <c r="F40" s="97"/>
-      <c r="G40" s="97"/>
-      <c r="H40" s="129"/>
-      <c r="I40" s="110"/>
-      <c r="J40" s="168"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="100"/>
-      <c r="M40" s="100"/>
-      <c r="N40" s="100"/>
-      <c r="O40" s="100"/>
-      <c r="P40" s="100"/>
-      <c r="Q40" s="100"/>
-      <c r="R40" s="100"/>
-      <c r="S40" s="100"/>
-      <c r="T40" s="100"/>
-      <c r="U40" s="100"/>
-      <c r="V40" s="100"/>
+      <c r="A40" s="68"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="110"/>
+      <c r="D40" s="111"/>
+      <c r="E40" s="132"/>
+      <c r="F40" s="119"/>
+      <c r="G40" s="119"/>
+      <c r="H40" s="154"/>
+      <c r="I40" s="133"/>
+      <c r="J40" s="128"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="122"/>
+      <c r="M40" s="122"/>
+      <c r="N40" s="122"/>
+      <c r="O40" s="122"/>
+      <c r="P40" s="122"/>
+      <c r="Q40" s="122"/>
+      <c r="R40" s="122"/>
+      <c r="S40" s="122"/>
+      <c r="T40" s="122"/>
+      <c r="U40" s="122"/>
+      <c r="V40" s="122"/>
       <c r="W40" s="45"/>
     </row>
     <row r="41" spans="1:23" ht="12" customHeight="1">
-      <c r="A41" s="164"/>
-      <c r="B41" s="164"/>
-      <c r="C41" s="69"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="111"/>
-      <c r="F41" s="103"/>
-      <c r="G41" s="103"/>
-      <c r="H41" s="130"/>
-      <c r="I41" s="112"/>
-      <c r="J41" s="166"/>
-      <c r="K41" s="51"/>
-      <c r="L41" s="50"/>
-      <c r="M41" s="50"/>
-      <c r="N41" s="50"/>
-      <c r="O41" s="50"/>
-      <c r="P41" s="50"/>
-      <c r="Q41" s="50"/>
-      <c r="R41" s="50"/>
-      <c r="S41" s="50"/>
-      <c r="T41" s="50"/>
-      <c r="U41" s="50"/>
-      <c r="V41" s="50"/>
-      <c r="W41" s="80"/>
+      <c r="A41" s="68"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="83"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="134"/>
+      <c r="F41" s="125"/>
+      <c r="G41" s="125"/>
+      <c r="H41" s="155"/>
+      <c r="I41" s="135"/>
+      <c r="J41" s="156"/>
+      <c r="K41" s="56"/>
+      <c r="L41" s="55"/>
+      <c r="M41" s="55"/>
+      <c r="N41" s="55"/>
+      <c r="O41" s="55"/>
+      <c r="P41" s="55"/>
+      <c r="Q41" s="55"/>
+      <c r="R41" s="55"/>
+      <c r="S41" s="55"/>
+      <c r="T41" s="55"/>
+      <c r="U41" s="55"/>
+      <c r="V41" s="55"/>
+      <c r="W41" s="106"/>
     </row>
     <row r="42" spans="1:23" ht="12" customHeight="1">
-      <c r="A42" s="164"/>
-      <c r="B42" s="164"/>
-      <c r="C42" s="173"/>
-      <c r="D42" s="174"/>
-      <c r="E42" s="127"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="66"/>
-      <c r="H42" s="66"/>
-      <c r="I42" s="108"/>
-      <c r="J42" s="167"/>
-      <c r="K42" s="82"/>
-      <c r="L42" s="83"/>
-      <c r="M42" s="83"/>
-      <c r="N42" s="83"/>
-      <c r="O42" s="83"/>
-      <c r="P42" s="83"/>
-      <c r="Q42" s="83"/>
-      <c r="R42" s="83"/>
-      <c r="S42" s="83"/>
-      <c r="T42" s="83"/>
-      <c r="U42" s="83"/>
-      <c r="V42" s="83"/>
-      <c r="W42" s="84"/>
+      <c r="A42" s="68"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="151"/>
+      <c r="F42" s="152"/>
+      <c r="G42" s="152"/>
+      <c r="H42" s="152"/>
+      <c r="I42" s="131"/>
+      <c r="J42" s="127"/>
+      <c r="K42" s="101"/>
+      <c r="L42" s="102"/>
+      <c r="M42" s="102"/>
+      <c r="N42" s="102"/>
+      <c r="O42" s="102"/>
+      <c r="P42" s="102"/>
+      <c r="Q42" s="102"/>
+      <c r="R42" s="102"/>
+      <c r="S42" s="102"/>
+      <c r="T42" s="102"/>
+      <c r="U42" s="102"/>
+      <c r="V42" s="102"/>
+      <c r="W42" s="103"/>
     </row>
     <row r="43" spans="1:23" ht="12" customHeight="1">
-      <c r="A43" s="164"/>
-      <c r="B43" s="164"/>
-      <c r="C43" s="89"/>
-      <c r="D43" s="165"/>
-      <c r="E43" s="128"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="110"/>
-      <c r="J43" s="94"/>
-      <c r="K43" s="49"/>
-      <c r="L43" s="95"/>
-      <c r="M43" s="95"/>
-      <c r="N43" s="95"/>
-      <c r="O43" s="95"/>
-      <c r="P43" s="95"/>
-      <c r="Q43" s="95"/>
-      <c r="R43" s="95"/>
-      <c r="S43" s="95"/>
-      <c r="T43" s="95"/>
-      <c r="U43" s="95"/>
-      <c r="V43" s="95"/>
-      <c r="W43" s="52"/>
+      <c r="A43" s="68"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="110"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="153"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="133"/>
+      <c r="J43" s="116"/>
+      <c r="K43" s="54"/>
+      <c r="L43" s="117"/>
+      <c r="M43" s="117"/>
+      <c r="N43" s="117"/>
+      <c r="O43" s="117"/>
+      <c r="P43" s="117"/>
+      <c r="Q43" s="117"/>
+      <c r="R43" s="117"/>
+      <c r="S43" s="117"/>
+      <c r="T43" s="117"/>
+      <c r="U43" s="117"/>
+      <c r="V43" s="117"/>
+      <c r="W43" s="57"/>
     </row>
     <row r="44" spans="1:23" ht="12" customHeight="1">
-      <c r="A44" s="164"/>
-      <c r="B44" s="164"/>
-      <c r="C44" s="89"/>
-      <c r="D44" s="165"/>
-      <c r="E44" s="109"/>
-      <c r="F44" s="97"/>
-      <c r="G44" s="97"/>
-      <c r="H44" s="129"/>
-      <c r="I44" s="110"/>
-      <c r="J44" s="168"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="100"/>
-      <c r="M44" s="100"/>
-      <c r="N44" s="100"/>
-      <c r="O44" s="100"/>
-      <c r="P44" s="100"/>
-      <c r="Q44" s="100"/>
-      <c r="R44" s="100"/>
-      <c r="S44" s="100"/>
-      <c r="T44" s="100"/>
-      <c r="U44" s="100"/>
-      <c r="V44" s="100"/>
+      <c r="A44" s="68"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="110"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="132"/>
+      <c r="F44" s="119"/>
+      <c r="G44" s="119"/>
+      <c r="H44" s="154"/>
+      <c r="I44" s="133"/>
+      <c r="J44" s="128"/>
+      <c r="K44" s="59"/>
+      <c r="L44" s="122"/>
+      <c r="M44" s="122"/>
+      <c r="N44" s="122"/>
+      <c r="O44" s="122"/>
+      <c r="P44" s="122"/>
+      <c r="Q44" s="122"/>
+      <c r="R44" s="122"/>
+      <c r="S44" s="122"/>
+      <c r="T44" s="122"/>
+      <c r="U44" s="122"/>
+      <c r="V44" s="122"/>
       <c r="W44" s="45"/>
     </row>
     <row r="45" spans="1:23" ht="12" customHeight="1">
-      <c r="A45" s="164"/>
-      <c r="B45" s="164"/>
-      <c r="C45" s="69"/>
-      <c r="D45" s="70"/>
-      <c r="E45" s="111"/>
-      <c r="F45" s="103"/>
-      <c r="G45" s="103"/>
-      <c r="H45" s="103"/>
-      <c r="I45" s="112"/>
-      <c r="J45" s="166"/>
-      <c r="K45" s="51"/>
-      <c r="L45" s="50"/>
-      <c r="M45" s="50"/>
-      <c r="N45" s="50"/>
-      <c r="O45" s="50"/>
-      <c r="P45" s="50"/>
-      <c r="Q45" s="50"/>
-      <c r="R45" s="50"/>
-      <c r="S45" s="50"/>
-      <c r="T45" s="50"/>
-      <c r="U45" s="50"/>
-      <c r="V45" s="50"/>
-      <c r="W45" s="80"/>
+      <c r="A45" s="68"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="83"/>
+      <c r="D45" s="84"/>
+      <c r="E45" s="134"/>
+      <c r="F45" s="125"/>
+      <c r="G45" s="125"/>
+      <c r="H45" s="125"/>
+      <c r="I45" s="135"/>
+      <c r="J45" s="156"/>
+      <c r="K45" s="56"/>
+      <c r="L45" s="55"/>
+      <c r="M45" s="55"/>
+      <c r="N45" s="55"/>
+      <c r="O45" s="55"/>
+      <c r="P45" s="55"/>
+      <c r="Q45" s="55"/>
+      <c r="R45" s="55"/>
+      <c r="S45" s="55"/>
+      <c r="T45" s="55"/>
+      <c r="U45" s="55"/>
+      <c r="V45" s="55"/>
+      <c r="W45" s="106"/>
     </row>
     <row r="46" spans="1:23" ht="12" customHeight="1">
-      <c r="A46" s="164"/>
-      <c r="B46" s="164"/>
-      <c r="C46" s="173"/>
-      <c r="D46" s="174"/>
-      <c r="E46" s="87"/>
-      <c r="F46" s="131"/>
-      <c r="G46" s="66"/>
-      <c r="H46" s="66"/>
-      <c r="I46" s="132"/>
-      <c r="J46" s="167"/>
-      <c r="K46" s="82"/>
-      <c r="L46" s="83"/>
-      <c r="M46" s="83"/>
-      <c r="N46" s="83"/>
-      <c r="O46" s="83"/>
-      <c r="P46" s="83"/>
-      <c r="Q46" s="83"/>
-      <c r="R46" s="83"/>
-      <c r="S46" s="83"/>
-      <c r="T46" s="83"/>
-      <c r="U46" s="83"/>
-      <c r="V46" s="83"/>
-      <c r="W46" s="84"/>
+      <c r="A46" s="68"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="107"/>
+      <c r="F46" s="157"/>
+      <c r="G46" s="152"/>
+      <c r="H46" s="152"/>
+      <c r="I46" s="158"/>
+      <c r="J46" s="127"/>
+      <c r="K46" s="101"/>
+      <c r="L46" s="102"/>
+      <c r="M46" s="102"/>
+      <c r="N46" s="102"/>
+      <c r="O46" s="102"/>
+      <c r="P46" s="102"/>
+      <c r="Q46" s="102"/>
+      <c r="R46" s="102"/>
+      <c r="S46" s="102"/>
+      <c r="T46" s="102"/>
+      <c r="U46" s="102"/>
+      <c r="V46" s="102"/>
+      <c r="W46" s="103"/>
     </row>
     <row r="47" spans="1:23" ht="12" customHeight="1">
-      <c r="A47" s="164"/>
-      <c r="B47" s="164"/>
-      <c r="C47" s="89"/>
-      <c r="D47" s="165"/>
-      <c r="E47" s="90"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="133"/>
-      <c r="J47" s="94"/>
-      <c r="K47" s="49"/>
-      <c r="L47" s="95"/>
-      <c r="M47" s="95"/>
-      <c r="N47" s="95"/>
-      <c r="O47" s="95"/>
-      <c r="P47" s="95"/>
-      <c r="Q47" s="95"/>
-      <c r="R47" s="95"/>
-      <c r="S47" s="95"/>
-      <c r="T47" s="95"/>
-      <c r="U47" s="95"/>
-      <c r="V47" s="95"/>
-      <c r="W47" s="52"/>
+      <c r="A47" s="68"/>
+      <c r="B47" s="68"/>
+      <c r="C47" s="110"/>
+      <c r="D47" s="111"/>
+      <c r="E47" s="112"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="159"/>
+      <c r="J47" s="116"/>
+      <c r="K47" s="54"/>
+      <c r="L47" s="117"/>
+      <c r="M47" s="117"/>
+      <c r="N47" s="117"/>
+      <c r="O47" s="117"/>
+      <c r="P47" s="117"/>
+      <c r="Q47" s="117"/>
+      <c r="R47" s="117"/>
+      <c r="S47" s="117"/>
+      <c r="T47" s="117"/>
+      <c r="U47" s="117"/>
+      <c r="V47" s="117"/>
+      <c r="W47" s="57"/>
     </row>
     <row r="48" spans="1:23" ht="12" customHeight="1">
-      <c r="A48" s="164"/>
-      <c r="B48" s="164"/>
-      <c r="C48" s="89"/>
-      <c r="D48" s="165"/>
-      <c r="E48" s="90"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="134"/>
-      <c r="H48" s="135"/>
-      <c r="I48" s="110"/>
-      <c r="J48" s="170"/>
-      <c r="K48" s="53"/>
-      <c r="L48" s="100"/>
-      <c r="M48" s="100"/>
-      <c r="N48" s="100"/>
-      <c r="O48" s="100"/>
-      <c r="P48" s="100"/>
-      <c r="Q48" s="100"/>
-      <c r="R48" s="100"/>
-      <c r="S48" s="100"/>
-      <c r="T48" s="100"/>
-      <c r="U48" s="100"/>
-      <c r="V48" s="100"/>
+      <c r="A48" s="68"/>
+      <c r="B48" s="68"/>
+      <c r="C48" s="110"/>
+      <c r="D48" s="111"/>
+      <c r="E48" s="112"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="160"/>
+      <c r="H48" s="161"/>
+      <c r="I48" s="133"/>
+      <c r="J48" s="162"/>
+      <c r="K48" s="59"/>
+      <c r="L48" s="122"/>
+      <c r="M48" s="122"/>
+      <c r="N48" s="122"/>
+      <c r="O48" s="122"/>
+      <c r="P48" s="122"/>
+      <c r="Q48" s="122"/>
+      <c r="R48" s="122"/>
+      <c r="S48" s="122"/>
+      <c r="T48" s="122"/>
+      <c r="U48" s="122"/>
+      <c r="V48" s="122"/>
       <c r="W48" s="45"/>
     </row>
     <row r="49" spans="1:23" ht="12" customHeight="1">
-      <c r="A49" s="164"/>
-      <c r="B49" s="164"/>
-      <c r="C49" s="69"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="101"/>
-      <c r="F49" s="136"/>
-      <c r="G49" s="102"/>
-      <c r="H49" s="130"/>
-      <c r="I49" s="112"/>
-      <c r="J49" s="169"/>
-      <c r="K49" s="51"/>
-      <c r="L49" s="50"/>
-      <c r="M49" s="50"/>
-      <c r="N49" s="50"/>
-      <c r="O49" s="50"/>
-      <c r="P49" s="50"/>
-      <c r="Q49" s="50"/>
-      <c r="R49" s="50"/>
-      <c r="S49" s="50"/>
-      <c r="T49" s="50"/>
-      <c r="U49" s="50"/>
-      <c r="V49" s="50"/>
-      <c r="W49" s="80"/>
+      <c r="A49" s="68"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="83"/>
+      <c r="D49" s="84"/>
+      <c r="E49" s="123"/>
+      <c r="F49" s="163"/>
+      <c r="G49" s="124"/>
+      <c r="H49" s="155"/>
+      <c r="I49" s="135"/>
+      <c r="J49" s="129"/>
+      <c r="K49" s="56"/>
+      <c r="L49" s="55"/>
+      <c r="M49" s="55"/>
+      <c r="N49" s="55"/>
+      <c r="O49" s="55"/>
+      <c r="P49" s="55"/>
+      <c r="Q49" s="55"/>
+      <c r="R49" s="55"/>
+      <c r="S49" s="55"/>
+      <c r="T49" s="55"/>
+      <c r="U49" s="55"/>
+      <c r="V49" s="55"/>
+      <c r="W49" s="106"/>
     </row>
     <row r="50" spans="1:23" ht="12" customHeight="1">
-      <c r="A50" s="164"/>
-      <c r="B50" s="164"/>
-      <c r="C50" s="173"/>
-      <c r="D50" s="174"/>
-      <c r="E50" s="87"/>
-      <c r="F50" s="131"/>
-      <c r="G50" s="66"/>
-      <c r="H50" s="66"/>
-      <c r="I50" s="132"/>
-      <c r="J50" s="167"/>
-      <c r="K50" s="82"/>
-      <c r="L50" s="83"/>
-      <c r="M50" s="83"/>
-      <c r="N50" s="83"/>
-      <c r="O50" s="83"/>
-      <c r="P50" s="83"/>
-      <c r="Q50" s="83"/>
-      <c r="R50" s="83"/>
-      <c r="S50" s="83"/>
-      <c r="T50" s="83"/>
-      <c r="U50" s="83"/>
-      <c r="V50" s="83"/>
-      <c r="W50" s="84"/>
+      <c r="A50" s="68"/>
+      <c r="B50" s="68"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="75"/>
+      <c r="E50" s="107"/>
+      <c r="F50" s="157"/>
+      <c r="G50" s="152"/>
+      <c r="H50" s="152"/>
+      <c r="I50" s="158"/>
+      <c r="J50" s="127"/>
+      <c r="K50" s="101"/>
+      <c r="L50" s="102"/>
+      <c r="M50" s="102"/>
+      <c r="N50" s="102"/>
+      <c r="O50" s="102"/>
+      <c r="P50" s="102"/>
+      <c r="Q50" s="102"/>
+      <c r="R50" s="102"/>
+      <c r="S50" s="102"/>
+      <c r="T50" s="102"/>
+      <c r="U50" s="102"/>
+      <c r="V50" s="102"/>
+      <c r="W50" s="103"/>
     </row>
     <row r="51" spans="1:23" ht="12" customHeight="1">
-      <c r="A51" s="164"/>
-      <c r="B51" s="164"/>
-      <c r="C51" s="89"/>
-      <c r="D51" s="165"/>
-      <c r="E51" s="90"/>
-      <c r="F51" s="61"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="133"/>
-      <c r="J51" s="94"/>
-      <c r="K51" s="49"/>
-      <c r="L51" s="95"/>
-      <c r="M51" s="95"/>
-      <c r="N51" s="95"/>
-      <c r="O51" s="95"/>
-      <c r="P51" s="95"/>
-      <c r="Q51" s="95"/>
-      <c r="R51" s="95"/>
-      <c r="S51" s="95"/>
-      <c r="T51" s="95"/>
-      <c r="U51" s="95"/>
-      <c r="V51" s="95"/>
-      <c r="W51" s="52"/>
+      <c r="A51" s="68"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="110"/>
+      <c r="D51" s="111"/>
+      <c r="E51" s="112"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="159"/>
+      <c r="J51" s="116"/>
+      <c r="K51" s="54"/>
+      <c r="L51" s="117"/>
+      <c r="M51" s="117"/>
+      <c r="N51" s="117"/>
+      <c r="O51" s="117"/>
+      <c r="P51" s="117"/>
+      <c r="Q51" s="117"/>
+      <c r="R51" s="117"/>
+      <c r="S51" s="117"/>
+      <c r="T51" s="117"/>
+      <c r="U51" s="117"/>
+      <c r="V51" s="117"/>
+      <c r="W51" s="57"/>
     </row>
     <row r="52" spans="1:23" ht="12" customHeight="1">
-      <c r="A52" s="164"/>
-      <c r="B52" s="164"/>
-      <c r="C52" s="89"/>
-      <c r="D52" s="165"/>
-      <c r="E52" s="90"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="134"/>
-      <c r="H52" s="135"/>
-      <c r="I52" s="110"/>
-      <c r="J52" s="170"/>
-      <c r="K52" s="53"/>
-      <c r="L52" s="100"/>
-      <c r="M52" s="100"/>
-      <c r="N52" s="100"/>
-      <c r="O52" s="100"/>
-      <c r="P52" s="100"/>
-      <c r="Q52" s="100"/>
-      <c r="R52" s="100"/>
-      <c r="S52" s="100"/>
-      <c r="T52" s="100"/>
-      <c r="U52" s="100"/>
-      <c r="V52" s="100"/>
+      <c r="A52" s="68"/>
+      <c r="B52" s="68"/>
+      <c r="C52" s="110"/>
+      <c r="D52" s="111"/>
+      <c r="E52" s="112"/>
+      <c r="F52" s="72"/>
+      <c r="G52" s="160"/>
+      <c r="H52" s="161"/>
+      <c r="I52" s="133"/>
+      <c r="J52" s="162"/>
+      <c r="K52" s="59"/>
+      <c r="L52" s="122"/>
+      <c r="M52" s="122"/>
+      <c r="N52" s="122"/>
+      <c r="O52" s="122"/>
+      <c r="P52" s="122"/>
+      <c r="Q52" s="122"/>
+      <c r="R52" s="122"/>
+      <c r="S52" s="122"/>
+      <c r="T52" s="122"/>
+      <c r="U52" s="122"/>
+      <c r="V52" s="122"/>
       <c r="W52" s="45"/>
     </row>
     <row r="53" spans="1:23" ht="12" customHeight="1">
-      <c r="A53" s="164"/>
-      <c r="B53" s="164"/>
-      <c r="C53" s="69"/>
-      <c r="D53" s="70"/>
-      <c r="E53" s="101"/>
-      <c r="F53" s="136"/>
-      <c r="G53" s="102"/>
-      <c r="H53" s="130"/>
-      <c r="I53" s="112"/>
-      <c r="J53" s="169"/>
-      <c r="K53" s="137"/>
-      <c r="L53" s="138"/>
-      <c r="M53" s="138"/>
-      <c r="N53" s="138"/>
-      <c r="O53" s="138"/>
-      <c r="P53" s="138"/>
-      <c r="Q53" s="138"/>
-      <c r="R53" s="138"/>
-      <c r="S53" s="138"/>
-      <c r="T53" s="138"/>
-      <c r="U53" s="138"/>
-      <c r="V53" s="138"/>
-      <c r="W53" s="139"/>
+      <c r="A53" s="68"/>
+      <c r="B53" s="68"/>
+      <c r="C53" s="83"/>
+      <c r="D53" s="84"/>
+      <c r="E53" s="123"/>
+      <c r="F53" s="163"/>
+      <c r="G53" s="124"/>
+      <c r="H53" s="155"/>
+      <c r="I53" s="135"/>
+      <c r="J53" s="129"/>
+      <c r="K53" s="164"/>
+      <c r="L53" s="165"/>
+      <c r="M53" s="165"/>
+      <c r="N53" s="165"/>
+      <c r="O53" s="165"/>
+      <c r="P53" s="165"/>
+      <c r="Q53" s="165"/>
+      <c r="R53" s="165"/>
+      <c r="S53" s="165"/>
+      <c r="T53" s="165"/>
+      <c r="U53" s="165"/>
+      <c r="V53" s="165"/>
+      <c r="W53" s="166"/>
     </row>
     <row r="55" spans="1:23" ht="12" customHeight="1">
-      <c r="C55" s="141"/>
-      <c r="D55" s="160"/>
-      <c r="E55" s="160"/>
-      <c r="F55" s="160"/>
-      <c r="G55" s="160"/>
-      <c r="H55" s="160"/>
-      <c r="I55" s="160"/>
-      <c r="J55" s="160"/>
-      <c r="K55" s="161"/>
-      <c r="L55" s="161"/>
-      <c r="M55" s="161"/>
-      <c r="N55" s="161"/>
-      <c r="O55" s="161"/>
-      <c r="P55" s="161"/>
-      <c r="Q55" s="161"/>
-      <c r="R55" s="161"/>
-      <c r="S55" s="161"/>
-      <c r="T55" s="161"/>
-      <c r="U55" s="161"/>
-      <c r="V55" s="161"/>
-      <c r="W55" s="161"/>
+      <c r="C55" s="167"/>
+      <c r="D55" s="168"/>
+      <c r="E55" s="168"/>
+      <c r="F55" s="168"/>
+      <c r="G55" s="168"/>
+      <c r="H55" s="168"/>
+      <c r="I55" s="168"/>
+      <c r="J55" s="168"/>
+      <c r="K55" s="169"/>
+      <c r="L55" s="169"/>
+      <c r="M55" s="169"/>
+      <c r="N55" s="169"/>
+      <c r="O55" s="169"/>
+      <c r="P55" s="169"/>
+      <c r="Q55" s="169"/>
+      <c r="R55" s="169"/>
+      <c r="S55" s="169"/>
+      <c r="T55" s="169"/>
+      <c r="U55" s="169"/>
+      <c r="V55" s="169"/>
+      <c r="W55" s="169"/>
     </row>
     <row r="56" spans="1:23" ht="12" customHeight="1">
-      <c r="C56" s="145"/>
-      <c r="D56" s="142"/>
-      <c r="E56" s="142"/>
-      <c r="F56" s="142"/>
-      <c r="G56" s="142"/>
-      <c r="H56" s="142"/>
-      <c r="I56" s="142"/>
-      <c r="J56" s="142"/>
-      <c r="K56" s="143"/>
-      <c r="L56" s="143"/>
-      <c r="M56" s="143"/>
-      <c r="N56" s="143"/>
-      <c r="O56" s="143"/>
-      <c r="P56" s="143"/>
-      <c r="Q56" s="143"/>
-      <c r="R56" s="143"/>
-      <c r="S56" s="143"/>
-      <c r="T56" s="143"/>
-      <c r="U56" s="143"/>
-      <c r="V56" s="143"/>
-      <c r="W56" s="144"/>
+      <c r="C56" s="170"/>
+      <c r="D56" s="171"/>
+      <c r="E56" s="171"/>
+      <c r="F56" s="171"/>
+      <c r="G56" s="171"/>
+      <c r="H56" s="171"/>
+      <c r="I56" s="171"/>
+      <c r="J56" s="171"/>
+      <c r="K56" s="172"/>
+      <c r="L56" s="172"/>
+      <c r="M56" s="172"/>
+      <c r="N56" s="172"/>
+      <c r="O56" s="172"/>
+      <c r="P56" s="172"/>
+      <c r="Q56" s="172"/>
+      <c r="R56" s="172"/>
+      <c r="S56" s="172"/>
+      <c r="T56" s="172"/>
+      <c r="U56" s="172"/>
+      <c r="V56" s="172"/>
+      <c r="W56" s="173"/>
     </row>
     <row r="57" spans="1:23" ht="12" customHeight="1">
-      <c r="C57" s="145"/>
-      <c r="D57" s="142"/>
-      <c r="E57" s="142"/>
-      <c r="F57" s="142"/>
-      <c r="G57" s="142"/>
-      <c r="H57" s="142"/>
-      <c r="I57" s="142"/>
-      <c r="J57" s="142"/>
-      <c r="K57" s="143"/>
-      <c r="L57" s="143"/>
-      <c r="M57" s="143"/>
-      <c r="N57" s="143"/>
-      <c r="O57" s="143"/>
-      <c r="P57" s="143"/>
-      <c r="Q57" s="143"/>
-      <c r="R57" s="143"/>
-      <c r="S57" s="143"/>
-      <c r="T57" s="143"/>
-      <c r="U57" s="143"/>
-      <c r="V57" s="143"/>
-      <c r="W57" s="144"/>
+      <c r="C57" s="170"/>
+      <c r="D57" s="171"/>
+      <c r="E57" s="171"/>
+      <c r="F57" s="171"/>
+      <c r="G57" s="171"/>
+      <c r="H57" s="171"/>
+      <c r="I57" s="171"/>
+      <c r="J57" s="171"/>
+      <c r="K57" s="172"/>
+      <c r="L57" s="172"/>
+      <c r="M57" s="172"/>
+      <c r="N57" s="172"/>
+      <c r="O57" s="172"/>
+      <c r="P57" s="172"/>
+      <c r="Q57" s="172"/>
+      <c r="R57" s="172"/>
+      <c r="S57" s="172"/>
+      <c r="T57" s="172"/>
+      <c r="U57" s="172"/>
+      <c r="V57" s="172"/>
+      <c r="W57" s="173"/>
     </row>
     <row r="58" spans="1:23" ht="12" customHeight="1">
-      <c r="C58" s="145"/>
-      <c r="D58" s="142"/>
-      <c r="E58" s="142"/>
-      <c r="F58" s="142"/>
-      <c r="G58" s="142"/>
-      <c r="H58" s="142"/>
-      <c r="I58" s="142"/>
-      <c r="J58" s="142"/>
-      <c r="K58" s="143"/>
-      <c r="L58" s="143"/>
-      <c r="M58" s="143"/>
-      <c r="N58" s="143"/>
-      <c r="O58" s="143"/>
-      <c r="P58" s="143"/>
-      <c r="Q58" s="143"/>
-      <c r="R58" s="143"/>
-      <c r="S58" s="143"/>
-      <c r="T58" s="143"/>
-      <c r="U58" s="143"/>
-      <c r="V58" s="143"/>
-      <c r="W58" s="144"/>
+      <c r="C58" s="170"/>
+      <c r="D58" s="171"/>
+      <c r="E58" s="171"/>
+      <c r="F58" s="171"/>
+      <c r="G58" s="171"/>
+      <c r="H58" s="171"/>
+      <c r="I58" s="171"/>
+      <c r="J58" s="171"/>
+      <c r="K58" s="172"/>
+      <c r="L58" s="172"/>
+      <c r="M58" s="172"/>
+      <c r="N58" s="172"/>
+      <c r="O58" s="172"/>
+      <c r="P58" s="172"/>
+      <c r="Q58" s="172"/>
+      <c r="R58" s="172"/>
+      <c r="S58" s="172"/>
+      <c r="T58" s="172"/>
+      <c r="U58" s="172"/>
+      <c r="V58" s="172"/>
+      <c r="W58" s="173"/>
     </row>
     <row r="59" spans="1:23" ht="12" customHeight="1">
-      <c r="C59" s="145"/>
-      <c r="D59" s="142"/>
-      <c r="E59" s="142"/>
-      <c r="F59" s="142"/>
-      <c r="G59" s="142"/>
-      <c r="H59" s="142"/>
-      <c r="I59" s="142"/>
-      <c r="J59" s="142"/>
-      <c r="K59" s="143"/>
-      <c r="L59" s="143"/>
-      <c r="M59" s="143"/>
-      <c r="N59" s="143"/>
-      <c r="O59" s="143"/>
-      <c r="P59" s="143"/>
-      <c r="Q59" s="143"/>
-      <c r="R59" s="143"/>
-      <c r="S59" s="143"/>
-      <c r="T59" s="143"/>
-      <c r="U59" s="143"/>
-      <c r="V59" s="143"/>
-      <c r="W59" s="144"/>
+      <c r="C59" s="170"/>
+      <c r="D59" s="171"/>
+      <c r="E59" s="171"/>
+      <c r="F59" s="171"/>
+      <c r="G59" s="171"/>
+      <c r="H59" s="171"/>
+      <c r="I59" s="171"/>
+      <c r="J59" s="171"/>
+      <c r="K59" s="172"/>
+      <c r="L59" s="172"/>
+      <c r="M59" s="172"/>
+      <c r="N59" s="172"/>
+      <c r="O59" s="172"/>
+      <c r="P59" s="172"/>
+      <c r="Q59" s="172"/>
+      <c r="R59" s="172"/>
+      <c r="S59" s="172"/>
+      <c r="T59" s="172"/>
+      <c r="U59" s="172"/>
+      <c r="V59" s="172"/>
+      <c r="W59" s="173"/>
     </row>
     <row r="60" spans="1:23" ht="12" customHeight="1">
-      <c r="C60" s="145"/>
-      <c r="D60" s="142"/>
-      <c r="E60" s="142"/>
-      <c r="F60" s="142"/>
-      <c r="G60" s="142"/>
-      <c r="H60" s="142"/>
-      <c r="I60" s="142"/>
-      <c r="J60" s="142"/>
-      <c r="K60" s="143"/>
-      <c r="L60" s="143"/>
-      <c r="M60" s="143"/>
-      <c r="N60" s="143"/>
-      <c r="O60" s="143"/>
-      <c r="P60" s="143"/>
-      <c r="Q60" s="143"/>
-      <c r="R60" s="143"/>
-      <c r="S60" s="143"/>
-      <c r="T60" s="143"/>
-      <c r="U60" s="143"/>
-      <c r="V60" s="143"/>
-      <c r="W60" s="144"/>
+      <c r="C60" s="170"/>
+      <c r="D60" s="171"/>
+      <c r="E60" s="171"/>
+      <c r="F60" s="171"/>
+      <c r="G60" s="171"/>
+      <c r="H60" s="171"/>
+      <c r="I60" s="171"/>
+      <c r="J60" s="171"/>
+      <c r="K60" s="172"/>
+      <c r="L60" s="172"/>
+      <c r="M60" s="172"/>
+      <c r="N60" s="172"/>
+      <c r="O60" s="172"/>
+      <c r="P60" s="172"/>
+      <c r="Q60" s="172"/>
+      <c r="R60" s="172"/>
+      <c r="S60" s="172"/>
+      <c r="T60" s="172"/>
+      <c r="U60" s="172"/>
+      <c r="V60" s="172"/>
+      <c r="W60" s="173"/>
     </row>
     <row r="61" spans="1:23" ht="12" customHeight="1">
-      <c r="C61" s="145"/>
-      <c r="D61" s="142"/>
-      <c r="E61" s="142"/>
-      <c r="F61" s="142"/>
-      <c r="G61" s="142"/>
-      <c r="H61" s="142"/>
-      <c r="I61" s="142"/>
-      <c r="J61" s="142"/>
-      <c r="K61" s="143"/>
-      <c r="L61" s="143"/>
-      <c r="M61" s="143"/>
-      <c r="N61" s="143"/>
-      <c r="O61" s="143"/>
-      <c r="P61" s="143"/>
-      <c r="Q61" s="143"/>
-      <c r="R61" s="143"/>
-      <c r="S61" s="143"/>
-      <c r="T61" s="143"/>
-      <c r="U61" s="143"/>
-      <c r="V61" s="143"/>
-      <c r="W61" s="144"/>
+      <c r="C61" s="170"/>
+      <c r="D61" s="171"/>
+      <c r="E61" s="171"/>
+      <c r="F61" s="171"/>
+      <c r="G61" s="171"/>
+      <c r="H61" s="171"/>
+      <c r="I61" s="171"/>
+      <c r="J61" s="171"/>
+      <c r="K61" s="172"/>
+      <c r="L61" s="172"/>
+      <c r="M61" s="172"/>
+      <c r="N61" s="172"/>
+      <c r="O61" s="172"/>
+      <c r="P61" s="172"/>
+      <c r="Q61" s="172"/>
+      <c r="R61" s="172"/>
+      <c r="S61" s="172"/>
+      <c r="T61" s="172"/>
+      <c r="U61" s="172"/>
+      <c r="V61" s="172"/>
+      <c r="W61" s="173"/>
     </row>
     <row r="64" spans="1:23" ht="12" customHeight="1">
-      <c r="C64" s="173"/>
-      <c r="D64" s="174"/>
-      <c r="E64" s="63"/>
-      <c r="F64" s="64"/>
-      <c r="G64" s="64"/>
-      <c r="H64" s="64"/>
-      <c r="I64" s="21"/>
-      <c r="J64" s="146"/>
-      <c r="K64" s="147"/>
-      <c r="L64" s="67"/>
-      <c r="M64" s="67"/>
-      <c r="N64" s="67"/>
-      <c r="O64" s="67"/>
-      <c r="P64" s="67"/>
-      <c r="Q64" s="67"/>
-      <c r="R64" s="67"/>
-      <c r="S64" s="67"/>
-      <c r="T64" s="67"/>
-      <c r="U64" s="67"/>
-      <c r="V64" s="67"/>
-      <c r="W64" s="148"/>
+      <c r="C64" s="74"/>
+      <c r="D64" s="75"/>
+      <c r="E64" s="76"/>
+      <c r="F64" s="77"/>
+      <c r="G64" s="77"/>
+      <c r="H64" s="77"/>
+      <c r="I64" s="99"/>
+      <c r="J64" s="174"/>
+      <c r="K64" s="80"/>
+      <c r="L64" s="81"/>
+      <c r="M64" s="81"/>
+      <c r="N64" s="81"/>
+      <c r="O64" s="81"/>
+      <c r="P64" s="81"/>
+      <c r="Q64" s="81"/>
+      <c r="R64" s="81"/>
+      <c r="S64" s="81"/>
+      <c r="T64" s="81"/>
+      <c r="U64" s="81"/>
+      <c r="V64" s="81"/>
+      <c r="W64" s="82"/>
     </row>
     <row r="65" spans="1:23" ht="12" customHeight="1">
-      <c r="C65" s="69"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="71"/>
-      <c r="F65" s="72"/>
-      <c r="G65" s="72"/>
-      <c r="H65" s="72"/>
-      <c r="I65" s="85"/>
-      <c r="J65" s="73"/>
-      <c r="K65" s="149"/>
-      <c r="L65" s="150"/>
-      <c r="M65" s="150"/>
-      <c r="N65" s="150"/>
-      <c r="O65" s="150"/>
-      <c r="P65" s="150"/>
-      <c r="Q65" s="150"/>
-      <c r="R65" s="150"/>
-      <c r="S65" s="150"/>
-      <c r="T65" s="150"/>
-      <c r="U65" s="150"/>
-      <c r="V65" s="150"/>
+      <c r="C65" s="83"/>
+      <c r="D65" s="84"/>
+      <c r="E65" s="85"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="H65" s="86"/>
+      <c r="I65" s="104"/>
+      <c r="J65" s="88"/>
+      <c r="K65" s="175"/>
+      <c r="L65" s="176"/>
+      <c r="M65" s="176"/>
+      <c r="N65" s="176"/>
+      <c r="O65" s="176"/>
+      <c r="P65" s="176"/>
+      <c r="Q65" s="176"/>
+      <c r="R65" s="176"/>
+      <c r="S65" s="176"/>
+      <c r="T65" s="176"/>
+      <c r="U65" s="176"/>
+      <c r="V65" s="176"/>
       <c r="W65" s="45"/>
     </row>
     <row r="66" spans="1:23" ht="12" customHeight="1">
-      <c r="A66" s="164"/>
-      <c r="B66" s="164"/>
-      <c r="C66" s="173"/>
-      <c r="D66" s="174"/>
-      <c r="E66" s="87"/>
-      <c r="F66" s="88"/>
-      <c r="G66" s="88"/>
-      <c r="H66" s="88"/>
-      <c r="I66" s="105"/>
-      <c r="J66" s="146"/>
-      <c r="K66" s="147"/>
-      <c r="L66" s="67"/>
-      <c r="M66" s="67"/>
-      <c r="N66" s="67"/>
-      <c r="O66" s="67"/>
-      <c r="P66" s="67"/>
-      <c r="Q66" s="67"/>
-      <c r="R66" s="67"/>
-      <c r="S66" s="67"/>
-      <c r="T66" s="67"/>
-      <c r="U66" s="67"/>
-      <c r="V66" s="67"/>
-      <c r="W66" s="148"/>
+      <c r="A66" s="68"/>
+      <c r="B66" s="68"/>
+      <c r="C66" s="74"/>
+      <c r="D66" s="75"/>
+      <c r="E66" s="107"/>
+      <c r="F66" s="108"/>
+      <c r="G66" s="108"/>
+      <c r="H66" s="108"/>
+      <c r="I66" s="109"/>
+      <c r="J66" s="174"/>
+      <c r="K66" s="80"/>
+      <c r="L66" s="81"/>
+      <c r="M66" s="81"/>
+      <c r="N66" s="81"/>
+      <c r="O66" s="81"/>
+      <c r="P66" s="81"/>
+      <c r="Q66" s="81"/>
+      <c r="R66" s="81"/>
+      <c r="S66" s="81"/>
+      <c r="T66" s="81"/>
+      <c r="U66" s="81"/>
+      <c r="V66" s="81"/>
+      <c r="W66" s="82"/>
     </row>
     <row r="67" spans="1:23" ht="12" customHeight="1">
-      <c r="A67" s="164"/>
-      <c r="B67" s="164"/>
-      <c r="C67" s="89"/>
-      <c r="D67" s="165"/>
-      <c r="E67" s="90"/>
-      <c r="F67" s="91"/>
-      <c r="G67" s="92"/>
-      <c r="H67" s="92"/>
-      <c r="I67" s="93"/>
-      <c r="J67" s="99"/>
+      <c r="A67" s="68"/>
+      <c r="B67" s="68"/>
+      <c r="C67" s="110"/>
+      <c r="D67" s="111"/>
+      <c r="E67" s="112"/>
+      <c r="F67" s="113"/>
+      <c r="G67" s="114"/>
+      <c r="H67" s="114"/>
+      <c r="I67" s="115"/>
+      <c r="J67" s="121"/>
       <c r="K67" s="42"/>
       <c r="L67" s="43"/>
       <c r="M67" s="43"/>
@@ -46707,91 +46711,91 @@
       <c r="W67" s="45"/>
     </row>
     <row r="68" spans="1:23" ht="12" customHeight="1">
-      <c r="A68" s="164"/>
-      <c r="B68" s="164"/>
-      <c r="C68" s="89"/>
-      <c r="D68" s="165"/>
-      <c r="E68" s="90"/>
-      <c r="F68" s="96"/>
-      <c r="G68" s="97"/>
-      <c r="H68" s="97"/>
-      <c r="I68" s="98"/>
-      <c r="J68" s="86"/>
-      <c r="K68" s="51"/>
-      <c r="L68" s="50"/>
-      <c r="M68" s="50"/>
-      <c r="N68" s="50"/>
-      <c r="O68" s="50"/>
-      <c r="P68" s="50"/>
-      <c r="Q68" s="50"/>
-      <c r="R68" s="50"/>
-      <c r="S68" s="50"/>
-      <c r="T68" s="50"/>
-      <c r="U68" s="50"/>
-      <c r="V68" s="50"/>
-      <c r="W68" s="80"/>
+      <c r="A68" s="68"/>
+      <c r="B68" s="68"/>
+      <c r="C68" s="110"/>
+      <c r="D68" s="111"/>
+      <c r="E68" s="112"/>
+      <c r="F68" s="118"/>
+      <c r="G68" s="119"/>
+      <c r="H68" s="119"/>
+      <c r="I68" s="120"/>
+      <c r="J68" s="105"/>
+      <c r="K68" s="56"/>
+      <c r="L68" s="55"/>
+      <c r="M68" s="55"/>
+      <c r="N68" s="55"/>
+      <c r="O68" s="55"/>
+      <c r="P68" s="55"/>
+      <c r="Q68" s="55"/>
+      <c r="R68" s="55"/>
+      <c r="S68" s="55"/>
+      <c r="T68" s="55"/>
+      <c r="U68" s="55"/>
+      <c r="V68" s="55"/>
+      <c r="W68" s="106"/>
     </row>
     <row r="69" spans="1:23" ht="12" customHeight="1">
-      <c r="A69" s="164"/>
-      <c r="B69" s="164"/>
-      <c r="C69" s="69"/>
-      <c r="D69" s="70"/>
-      <c r="E69" s="101"/>
-      <c r="F69" s="102"/>
-      <c r="G69" s="103"/>
-      <c r="H69" s="103"/>
-      <c r="I69" s="104"/>
-      <c r="J69" s="73"/>
-      <c r="K69" s="149"/>
-      <c r="L69" s="150"/>
-      <c r="M69" s="150"/>
-      <c r="N69" s="150"/>
-      <c r="O69" s="150"/>
-      <c r="P69" s="150"/>
-      <c r="Q69" s="150"/>
-      <c r="R69" s="150"/>
-      <c r="S69" s="150"/>
-      <c r="T69" s="150"/>
-      <c r="U69" s="150"/>
-      <c r="V69" s="150"/>
+      <c r="A69" s="68"/>
+      <c r="B69" s="68"/>
+      <c r="C69" s="83"/>
+      <c r="D69" s="84"/>
+      <c r="E69" s="123"/>
+      <c r="F69" s="124"/>
+      <c r="G69" s="125"/>
+      <c r="H69" s="125"/>
+      <c r="I69" s="126"/>
+      <c r="J69" s="88"/>
+      <c r="K69" s="175"/>
+      <c r="L69" s="176"/>
+      <c r="M69" s="176"/>
+      <c r="N69" s="176"/>
+      <c r="O69" s="176"/>
+      <c r="P69" s="176"/>
+      <c r="Q69" s="176"/>
+      <c r="R69" s="176"/>
+      <c r="S69" s="176"/>
+      <c r="T69" s="176"/>
+      <c r="U69" s="176"/>
+      <c r="V69" s="176"/>
       <c r="W69" s="45"/>
     </row>
     <row r="70" spans="1:23" ht="12" customHeight="1">
-      <c r="A70" s="164"/>
-      <c r="B70" s="164"/>
-      <c r="C70" s="173"/>
-      <c r="D70" s="174"/>
-      <c r="E70" s="87"/>
-      <c r="F70" s="88"/>
-      <c r="G70" s="88"/>
-      <c r="H70" s="88"/>
-      <c r="I70" s="105"/>
-      <c r="J70" s="146"/>
-      <c r="K70" s="147"/>
-      <c r="L70" s="67"/>
-      <c r="M70" s="67"/>
-      <c r="N70" s="67"/>
-      <c r="O70" s="67"/>
-      <c r="P70" s="67"/>
-      <c r="Q70" s="67"/>
-      <c r="R70" s="67"/>
-      <c r="S70" s="67"/>
-      <c r="T70" s="67"/>
-      <c r="U70" s="67"/>
-      <c r="V70" s="67"/>
-      <c r="W70" s="148"/>
+      <c r="A70" s="68"/>
+      <c r="B70" s="68"/>
+      <c r="C70" s="74"/>
+      <c r="D70" s="75"/>
+      <c r="E70" s="107"/>
+      <c r="F70" s="108"/>
+      <c r="G70" s="108"/>
+      <c r="H70" s="108"/>
+      <c r="I70" s="109"/>
+      <c r="J70" s="174"/>
+      <c r="K70" s="80"/>
+      <c r="L70" s="81"/>
+      <c r="M70" s="81"/>
+      <c r="N70" s="81"/>
+      <c r="O70" s="81"/>
+      <c r="P70" s="81"/>
+      <c r="Q70" s="81"/>
+      <c r="R70" s="81"/>
+      <c r="S70" s="81"/>
+      <c r="T70" s="81"/>
+      <c r="U70" s="81"/>
+      <c r="V70" s="81"/>
+      <c r="W70" s="82"/>
     </row>
     <row r="71" spans="1:23" ht="12" customHeight="1">
-      <c r="A71" s="164"/>
-      <c r="B71" s="164"/>
-      <c r="C71" s="89"/>
-      <c r="D71" s="165"/>
-      <c r="E71" s="90"/>
-      <c r="F71" s="96"/>
-      <c r="G71" s="97"/>
-      <c r="H71" s="97"/>
-      <c r="I71" s="98"/>
-      <c r="J71" s="99"/>
+      <c r="A71" s="68"/>
+      <c r="B71" s="68"/>
+      <c r="C71" s="110"/>
+      <c r="D71" s="111"/>
+      <c r="E71" s="112"/>
+      <c r="F71" s="118"/>
+      <c r="G71" s="119"/>
+      <c r="H71" s="119"/>
+      <c r="I71" s="120"/>
+      <c r="J71" s="121"/>
       <c r="K71" s="42"/>
       <c r="L71" s="43"/>
       <c r="M71" s="43"/>
@@ -46804,94 +46808,94 @@
       <c r="T71" s="43"/>
       <c r="U71" s="43"/>
       <c r="V71" s="43"/>
-      <c r="W71" s="151"/>
+      <c r="W71" s="177"/>
     </row>
     <row r="72" spans="1:23" ht="12" customHeight="1">
-      <c r="A72" s="164"/>
-      <c r="B72" s="164"/>
-      <c r="C72" s="89"/>
-      <c r="D72" s="165"/>
-      <c r="E72" s="90"/>
-      <c r="F72" s="96"/>
-      <c r="G72" s="97"/>
-      <c r="H72" s="97"/>
-      <c r="I72" s="98"/>
-      <c r="J72" s="86"/>
-      <c r="K72" s="51"/>
-      <c r="L72" s="50"/>
-      <c r="M72" s="50"/>
-      <c r="N72" s="50"/>
-      <c r="O72" s="50"/>
-      <c r="P72" s="50"/>
-      <c r="Q72" s="50"/>
-      <c r="R72" s="50"/>
-      <c r="S72" s="50"/>
-      <c r="T72" s="50"/>
-      <c r="U72" s="50"/>
-      <c r="V72" s="50"/>
-      <c r="W72" s="80"/>
+      <c r="A72" s="68"/>
+      <c r="B72" s="68"/>
+      <c r="C72" s="110"/>
+      <c r="D72" s="111"/>
+      <c r="E72" s="112"/>
+      <c r="F72" s="118"/>
+      <c r="G72" s="119"/>
+      <c r="H72" s="119"/>
+      <c r="I72" s="120"/>
+      <c r="J72" s="105"/>
+      <c r="K72" s="56"/>
+      <c r="L72" s="55"/>
+      <c r="M72" s="55"/>
+      <c r="N72" s="55"/>
+      <c r="O72" s="55"/>
+      <c r="P72" s="55"/>
+      <c r="Q72" s="55"/>
+      <c r="R72" s="55"/>
+      <c r="S72" s="55"/>
+      <c r="T72" s="55"/>
+      <c r="U72" s="55"/>
+      <c r="V72" s="55"/>
+      <c r="W72" s="106"/>
     </row>
     <row r="73" spans="1:23" ht="12" customHeight="1">
-      <c r="A73" s="164"/>
-      <c r="B73" s="164"/>
-      <c r="C73" s="69"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="101"/>
-      <c r="F73" s="102"/>
-      <c r="G73" s="103"/>
-      <c r="H73" s="103"/>
-      <c r="I73" s="104"/>
-      <c r="J73" s="73"/>
-      <c r="K73" s="149"/>
-      <c r="L73" s="150"/>
-      <c r="M73" s="150"/>
-      <c r="N73" s="150"/>
-      <c r="O73" s="150"/>
-      <c r="P73" s="150"/>
-      <c r="Q73" s="150"/>
-      <c r="R73" s="150"/>
-      <c r="S73" s="150"/>
-      <c r="T73" s="150"/>
-      <c r="U73" s="150"/>
-      <c r="V73" s="150"/>
+      <c r="A73" s="68"/>
+      <c r="B73" s="68"/>
+      <c r="C73" s="83"/>
+      <c r="D73" s="84"/>
+      <c r="E73" s="123"/>
+      <c r="F73" s="124"/>
+      <c r="G73" s="125"/>
+      <c r="H73" s="125"/>
+      <c r="I73" s="126"/>
+      <c r="J73" s="88"/>
+      <c r="K73" s="175"/>
+      <c r="L73" s="176"/>
+      <c r="M73" s="176"/>
+      <c r="N73" s="176"/>
+      <c r="O73" s="176"/>
+      <c r="P73" s="176"/>
+      <c r="Q73" s="176"/>
+      <c r="R73" s="176"/>
+      <c r="S73" s="176"/>
+      <c r="T73" s="176"/>
+      <c r="U73" s="176"/>
+      <c r="V73" s="176"/>
       <c r="W73" s="45"/>
     </row>
     <row r="74" spans="1:23" ht="12" customHeight="1">
-      <c r="A74" s="164"/>
-      <c r="B74" s="164"/>
-      <c r="C74" s="173"/>
-      <c r="D74" s="174"/>
-      <c r="E74" s="107"/>
-      <c r="F74" s="88"/>
-      <c r="G74" s="88"/>
-      <c r="H74" s="88"/>
-      <c r="I74" s="108"/>
-      <c r="J74" s="146"/>
-      <c r="K74" s="147"/>
-      <c r="L74" s="67"/>
-      <c r="M74" s="67"/>
-      <c r="N74" s="67"/>
-      <c r="O74" s="67"/>
-      <c r="P74" s="67"/>
-      <c r="Q74" s="67"/>
-      <c r="R74" s="67"/>
-      <c r="S74" s="67"/>
-      <c r="T74" s="67"/>
-      <c r="U74" s="67"/>
-      <c r="V74" s="67"/>
-      <c r="W74" s="148"/>
+      <c r="A74" s="68"/>
+      <c r="B74" s="68"/>
+      <c r="C74" s="74"/>
+      <c r="D74" s="75"/>
+      <c r="E74" s="130"/>
+      <c r="F74" s="108"/>
+      <c r="G74" s="108"/>
+      <c r="H74" s="108"/>
+      <c r="I74" s="131"/>
+      <c r="J74" s="174"/>
+      <c r="K74" s="80"/>
+      <c r="L74" s="81"/>
+      <c r="M74" s="81"/>
+      <c r="N74" s="81"/>
+      <c r="O74" s="81"/>
+      <c r="P74" s="81"/>
+      <c r="Q74" s="81"/>
+      <c r="R74" s="81"/>
+      <c r="S74" s="81"/>
+      <c r="T74" s="81"/>
+      <c r="U74" s="81"/>
+      <c r="V74" s="81"/>
+      <c r="W74" s="82"/>
     </row>
     <row r="75" spans="1:23" ht="12" customHeight="1">
-      <c r="A75" s="164"/>
-      <c r="B75" s="164"/>
-      <c r="C75" s="89"/>
-      <c r="D75" s="165"/>
-      <c r="E75" s="109"/>
-      <c r="F75" s="97"/>
-      <c r="G75" s="97"/>
-      <c r="H75" s="97"/>
-      <c r="I75" s="110"/>
-      <c r="J75" s="99"/>
+      <c r="A75" s="68"/>
+      <c r="B75" s="68"/>
+      <c r="C75" s="110"/>
+      <c r="D75" s="111"/>
+      <c r="E75" s="132"/>
+      <c r="F75" s="119"/>
+      <c r="G75" s="119"/>
+      <c r="H75" s="119"/>
+      <c r="I75" s="133"/>
+      <c r="J75" s="121"/>
       <c r="K75" s="42"/>
       <c r="L75" s="43"/>
       <c r="M75" s="43"/>
@@ -46907,191 +46911,191 @@
       <c r="W75" s="45"/>
     </row>
     <row r="76" spans="1:23" ht="12" customHeight="1">
-      <c r="A76" s="164"/>
-      <c r="B76" s="164"/>
-      <c r="C76" s="89"/>
-      <c r="D76" s="165"/>
-      <c r="E76" s="109"/>
-      <c r="F76" s="97"/>
-      <c r="G76" s="97"/>
-      <c r="H76" s="97"/>
-      <c r="I76" s="110"/>
-      <c r="J76" s="86"/>
-      <c r="K76" s="51"/>
-      <c r="L76" s="50"/>
-      <c r="M76" s="50"/>
-      <c r="N76" s="50"/>
-      <c r="O76" s="50"/>
-      <c r="P76" s="50"/>
-      <c r="Q76" s="50"/>
-      <c r="R76" s="50"/>
-      <c r="S76" s="50"/>
-      <c r="T76" s="50"/>
-      <c r="U76" s="50"/>
-      <c r="V76" s="50"/>
-      <c r="W76" s="80"/>
+      <c r="A76" s="68"/>
+      <c r="B76" s="68"/>
+      <c r="C76" s="110"/>
+      <c r="D76" s="111"/>
+      <c r="E76" s="132"/>
+      <c r="F76" s="119"/>
+      <c r="G76" s="119"/>
+      <c r="H76" s="119"/>
+      <c r="I76" s="133"/>
+      <c r="J76" s="105"/>
+      <c r="K76" s="56"/>
+      <c r="L76" s="55"/>
+      <c r="M76" s="55"/>
+      <c r="N76" s="55"/>
+      <c r="O76" s="55"/>
+      <c r="P76" s="55"/>
+      <c r="Q76" s="55"/>
+      <c r="R76" s="55"/>
+      <c r="S76" s="55"/>
+      <c r="T76" s="55"/>
+      <c r="U76" s="55"/>
+      <c r="V76" s="55"/>
+      <c r="W76" s="106"/>
     </row>
     <row r="77" spans="1:23" ht="12" customHeight="1">
-      <c r="A77" s="164"/>
-      <c r="B77" s="164"/>
-      <c r="C77" s="69"/>
-      <c r="D77" s="70"/>
-      <c r="E77" s="111"/>
-      <c r="F77" s="103"/>
-      <c r="G77" s="103"/>
-      <c r="H77" s="103"/>
-      <c r="I77" s="112"/>
-      <c r="J77" s="73"/>
-      <c r="K77" s="149"/>
-      <c r="L77" s="150"/>
-      <c r="M77" s="150"/>
-      <c r="N77" s="150"/>
-      <c r="O77" s="150"/>
-      <c r="P77" s="150"/>
-      <c r="Q77" s="150"/>
-      <c r="R77" s="150"/>
-      <c r="S77" s="150"/>
-      <c r="T77" s="150"/>
-      <c r="U77" s="150"/>
-      <c r="V77" s="150"/>
+      <c r="A77" s="68"/>
+      <c r="B77" s="68"/>
+      <c r="C77" s="83"/>
+      <c r="D77" s="84"/>
+      <c r="E77" s="134"/>
+      <c r="F77" s="125"/>
+      <c r="G77" s="125"/>
+      <c r="H77" s="125"/>
+      <c r="I77" s="135"/>
+      <c r="J77" s="88"/>
+      <c r="K77" s="175"/>
+      <c r="L77" s="176"/>
+      <c r="M77" s="176"/>
+      <c r="N77" s="176"/>
+      <c r="O77" s="176"/>
+      <c r="P77" s="176"/>
+      <c r="Q77" s="176"/>
+      <c r="R77" s="176"/>
+      <c r="S77" s="176"/>
+      <c r="T77" s="176"/>
+      <c r="U77" s="176"/>
+      <c r="V77" s="176"/>
       <c r="W77" s="45"/>
     </row>
     <row r="78" spans="1:23" ht="12" customHeight="1">
-      <c r="A78" s="164"/>
-      <c r="B78" s="164"/>
-      <c r="C78" s="173"/>
-      <c r="D78" s="174"/>
-      <c r="E78" s="113"/>
-      <c r="F78" s="114"/>
-      <c r="G78" s="88"/>
-      <c r="H78" s="114"/>
-      <c r="I78" s="108"/>
-      <c r="J78" s="146"/>
-      <c r="K78" s="115"/>
-      <c r="L78" s="116"/>
-      <c r="M78" s="116"/>
-      <c r="N78" s="116"/>
-      <c r="O78" s="116"/>
-      <c r="P78" s="116"/>
-      <c r="Q78" s="116"/>
-      <c r="R78" s="116"/>
-      <c r="S78" s="116"/>
-      <c r="T78" s="116"/>
-      <c r="U78" s="116"/>
-      <c r="V78" s="67"/>
-      <c r="W78" s="118"/>
+      <c r="A78" s="68"/>
+      <c r="B78" s="68"/>
+      <c r="C78" s="74"/>
+      <c r="D78" s="75"/>
+      <c r="E78" s="136"/>
+      <c r="F78" s="137"/>
+      <c r="G78" s="108"/>
+      <c r="H78" s="137"/>
+      <c r="I78" s="131"/>
+      <c r="J78" s="174"/>
+      <c r="K78" s="139"/>
+      <c r="L78" s="140"/>
+      <c r="M78" s="140"/>
+      <c r="N78" s="140"/>
+      <c r="O78" s="140"/>
+      <c r="P78" s="140"/>
+      <c r="Q78" s="140"/>
+      <c r="R78" s="140"/>
+      <c r="S78" s="140"/>
+      <c r="T78" s="140"/>
+      <c r="U78" s="140"/>
+      <c r="V78" s="81"/>
+      <c r="W78" s="142"/>
     </row>
     <row r="79" spans="1:23" ht="12" customHeight="1">
-      <c r="A79" s="164"/>
-      <c r="B79" s="164"/>
-      <c r="C79" s="89"/>
-      <c r="D79" s="165"/>
-      <c r="E79" s="109"/>
-      <c r="F79" s="97"/>
-      <c r="G79" s="97"/>
-      <c r="H79" s="97"/>
-      <c r="I79" s="110"/>
-      <c r="J79" s="99"/>
-      <c r="K79" s="120"/>
-      <c r="L79" s="121"/>
-      <c r="M79" s="121"/>
-      <c r="N79" s="121"/>
-      <c r="O79" s="121"/>
-      <c r="P79" s="121"/>
-      <c r="Q79" s="121"/>
-      <c r="R79" s="121"/>
-      <c r="S79" s="121"/>
-      <c r="T79" s="121"/>
-      <c r="U79" s="121"/>
+      <c r="A79" s="68"/>
+      <c r="B79" s="68"/>
+      <c r="C79" s="110"/>
+      <c r="D79" s="111"/>
+      <c r="E79" s="132"/>
+      <c r="F79" s="119"/>
+      <c r="G79" s="119"/>
+      <c r="H79" s="119"/>
+      <c r="I79" s="133"/>
+      <c r="J79" s="121"/>
+      <c r="K79" s="144"/>
+      <c r="L79" s="145"/>
+      <c r="M79" s="145"/>
+      <c r="N79" s="145"/>
+      <c r="O79" s="145"/>
+      <c r="P79" s="145"/>
+      <c r="Q79" s="145"/>
+      <c r="R79" s="145"/>
+      <c r="S79" s="145"/>
+      <c r="T79" s="145"/>
+      <c r="U79" s="145"/>
       <c r="V79" s="43"/>
-      <c r="W79" s="123"/>
+      <c r="W79" s="147"/>
     </row>
     <row r="80" spans="1:23" ht="12" customHeight="1">
-      <c r="A80" s="164"/>
-      <c r="B80" s="164"/>
-      <c r="C80" s="89"/>
-      <c r="D80" s="165"/>
-      <c r="E80" s="109"/>
-      <c r="F80" s="97"/>
-      <c r="G80" s="97"/>
-      <c r="H80" s="97"/>
-      <c r="I80" s="110"/>
-      <c r="J80" s="86"/>
-      <c r="K80" s="51"/>
-      <c r="L80" s="50"/>
-      <c r="M80" s="50"/>
-      <c r="N80" s="50"/>
-      <c r="O80" s="50"/>
-      <c r="P80" s="50"/>
-      <c r="Q80" s="50"/>
-      <c r="R80" s="50"/>
-      <c r="S80" s="50"/>
-      <c r="T80" s="50"/>
-      <c r="U80" s="50"/>
-      <c r="V80" s="50"/>
-      <c r="W80" s="80"/>
+      <c r="A80" s="68"/>
+      <c r="B80" s="68"/>
+      <c r="C80" s="110"/>
+      <c r="D80" s="111"/>
+      <c r="E80" s="132"/>
+      <c r="F80" s="119"/>
+      <c r="G80" s="119"/>
+      <c r="H80" s="119"/>
+      <c r="I80" s="133"/>
+      <c r="J80" s="105"/>
+      <c r="K80" s="56"/>
+      <c r="L80" s="55"/>
+      <c r="M80" s="55"/>
+      <c r="N80" s="55"/>
+      <c r="O80" s="55"/>
+      <c r="P80" s="55"/>
+      <c r="Q80" s="55"/>
+      <c r="R80" s="55"/>
+      <c r="S80" s="55"/>
+      <c r="T80" s="55"/>
+      <c r="U80" s="55"/>
+      <c r="V80" s="55"/>
+      <c r="W80" s="106"/>
     </row>
     <row r="81" spans="1:23" ht="12" customHeight="1">
-      <c r="A81" s="164"/>
-      <c r="B81" s="164"/>
-      <c r="C81" s="69"/>
-      <c r="D81" s="70"/>
-      <c r="E81" s="111"/>
-      <c r="F81" s="103"/>
-      <c r="G81" s="103"/>
-      <c r="H81" s="103"/>
-      <c r="I81" s="112"/>
-      <c r="J81" s="73"/>
-      <c r="K81" s="124"/>
-      <c r="L81" s="125"/>
-      <c r="M81" s="125"/>
-      <c r="N81" s="125"/>
-      <c r="O81" s="125"/>
-      <c r="P81" s="125"/>
-      <c r="Q81" s="125"/>
-      <c r="R81" s="125"/>
-      <c r="S81" s="125"/>
-      <c r="T81" s="125"/>
-      <c r="U81" s="125"/>
-      <c r="V81" s="150"/>
-      <c r="W81" s="126"/>
+      <c r="A81" s="68"/>
+      <c r="B81" s="68"/>
+      <c r="C81" s="83"/>
+      <c r="D81" s="84"/>
+      <c r="E81" s="134"/>
+      <c r="F81" s="125"/>
+      <c r="G81" s="125"/>
+      <c r="H81" s="125"/>
+      <c r="I81" s="135"/>
+      <c r="J81" s="88"/>
+      <c r="K81" s="148"/>
+      <c r="L81" s="149"/>
+      <c r="M81" s="149"/>
+      <c r="N81" s="149"/>
+      <c r="O81" s="149"/>
+      <c r="P81" s="149"/>
+      <c r="Q81" s="149"/>
+      <c r="R81" s="149"/>
+      <c r="S81" s="149"/>
+      <c r="T81" s="149"/>
+      <c r="U81" s="149"/>
+      <c r="V81" s="176"/>
+      <c r="W81" s="150"/>
     </row>
     <row r="82" spans="1:23" ht="12" customHeight="1">
-      <c r="A82" s="164"/>
-      <c r="B82" s="164"/>
-      <c r="C82" s="173"/>
-      <c r="D82" s="174"/>
-      <c r="E82" s="127"/>
-      <c r="F82" s="66"/>
-      <c r="G82" s="66"/>
-      <c r="H82" s="66"/>
-      <c r="I82" s="108"/>
-      <c r="J82" s="152"/>
-      <c r="K82" s="147"/>
-      <c r="L82" s="67"/>
-      <c r="M82" s="67"/>
-      <c r="N82" s="67"/>
-      <c r="O82" s="67"/>
-      <c r="P82" s="67"/>
-      <c r="Q82" s="67"/>
-      <c r="R82" s="67"/>
-      <c r="S82" s="67"/>
-      <c r="T82" s="67"/>
-      <c r="U82" s="67"/>
-      <c r="V82" s="67"/>
-      <c r="W82" s="148"/>
+      <c r="A82" s="68"/>
+      <c r="B82" s="68"/>
+      <c r="C82" s="74"/>
+      <c r="D82" s="75"/>
+      <c r="E82" s="151"/>
+      <c r="F82" s="152"/>
+      <c r="G82" s="152"/>
+      <c r="H82" s="152"/>
+      <c r="I82" s="131"/>
+      <c r="J82" s="178"/>
+      <c r="K82" s="80"/>
+      <c r="L82" s="81"/>
+      <c r="M82" s="81"/>
+      <c r="N82" s="81"/>
+      <c r="O82" s="81"/>
+      <c r="P82" s="81"/>
+      <c r="Q82" s="81"/>
+      <c r="R82" s="81"/>
+      <c r="S82" s="81"/>
+      <c r="T82" s="81"/>
+      <c r="U82" s="81"/>
+      <c r="V82" s="81"/>
+      <c r="W82" s="82"/>
     </row>
     <row r="83" spans="1:23" ht="12" customHeight="1">
-      <c r="A83" s="164"/>
-      <c r="B83" s="164"/>
-      <c r="C83" s="89"/>
-      <c r="D83" s="165"/>
-      <c r="E83" s="128"/>
-      <c r="F83" s="41"/>
-      <c r="G83" s="41"/>
-      <c r="H83" s="41"/>
-      <c r="I83" s="110"/>
-      <c r="J83" s="106"/>
+      <c r="A83" s="68"/>
+      <c r="B83" s="68"/>
+      <c r="C83" s="110"/>
+      <c r="D83" s="111"/>
+      <c r="E83" s="153"/>
+      <c r="F83" s="39"/>
+      <c r="G83" s="39"/>
+      <c r="H83" s="39"/>
+      <c r="I83" s="133"/>
+      <c r="J83" s="138"/>
       <c r="K83" s="42"/>
       <c r="L83" s="43"/>
       <c r="M83" s="43"/>
@@ -47107,91 +47111,91 @@
       <c r="W83" s="45"/>
     </row>
     <row r="84" spans="1:23" ht="12" customHeight="1">
-      <c r="A84" s="164"/>
-      <c r="B84" s="164"/>
-      <c r="C84" s="89"/>
-      <c r="D84" s="165"/>
-      <c r="E84" s="109"/>
-      <c r="F84" s="97"/>
-      <c r="G84" s="97"/>
-      <c r="H84" s="129"/>
-      <c r="I84" s="110"/>
-      <c r="J84" s="153"/>
-      <c r="K84" s="51"/>
-      <c r="L84" s="50"/>
-      <c r="M84" s="50"/>
-      <c r="N84" s="50"/>
-      <c r="O84" s="50"/>
-      <c r="P84" s="50"/>
-      <c r="Q84" s="50"/>
-      <c r="R84" s="50"/>
-      <c r="S84" s="50"/>
-      <c r="T84" s="50"/>
-      <c r="U84" s="50"/>
-      <c r="V84" s="50"/>
-      <c r="W84" s="80"/>
+      <c r="A84" s="68"/>
+      <c r="B84" s="68"/>
+      <c r="C84" s="110"/>
+      <c r="D84" s="111"/>
+      <c r="E84" s="132"/>
+      <c r="F84" s="119"/>
+      <c r="G84" s="119"/>
+      <c r="H84" s="154"/>
+      <c r="I84" s="133"/>
+      <c r="J84" s="179"/>
+      <c r="K84" s="56"/>
+      <c r="L84" s="55"/>
+      <c r="M84" s="55"/>
+      <c r="N84" s="55"/>
+      <c r="O84" s="55"/>
+      <c r="P84" s="55"/>
+      <c r="Q84" s="55"/>
+      <c r="R84" s="55"/>
+      <c r="S84" s="55"/>
+      <c r="T84" s="55"/>
+      <c r="U84" s="55"/>
+      <c r="V84" s="55"/>
+      <c r="W84" s="106"/>
     </row>
     <row r="85" spans="1:23" ht="12" customHeight="1">
-      <c r="A85" s="164"/>
-      <c r="B85" s="164"/>
-      <c r="C85" s="69"/>
-      <c r="D85" s="70"/>
-      <c r="E85" s="111"/>
-      <c r="F85" s="103"/>
-      <c r="G85" s="103"/>
-      <c r="H85" s="130"/>
-      <c r="I85" s="112"/>
-      <c r="J85" s="154"/>
-      <c r="K85" s="149"/>
-      <c r="L85" s="150"/>
-      <c r="M85" s="150"/>
-      <c r="N85" s="150"/>
-      <c r="O85" s="150"/>
-      <c r="P85" s="150"/>
-      <c r="Q85" s="150"/>
-      <c r="R85" s="150"/>
-      <c r="S85" s="150"/>
-      <c r="T85" s="150"/>
-      <c r="U85" s="150"/>
-      <c r="V85" s="150"/>
+      <c r="A85" s="68"/>
+      <c r="B85" s="68"/>
+      <c r="C85" s="83"/>
+      <c r="D85" s="84"/>
+      <c r="E85" s="134"/>
+      <c r="F85" s="125"/>
+      <c r="G85" s="125"/>
+      <c r="H85" s="155"/>
+      <c r="I85" s="135"/>
+      <c r="J85" s="180"/>
+      <c r="K85" s="175"/>
+      <c r="L85" s="176"/>
+      <c r="M85" s="176"/>
+      <c r="N85" s="176"/>
+      <c r="O85" s="176"/>
+      <c r="P85" s="176"/>
+      <c r="Q85" s="176"/>
+      <c r="R85" s="176"/>
+      <c r="S85" s="176"/>
+      <c r="T85" s="176"/>
+      <c r="U85" s="176"/>
+      <c r="V85" s="176"/>
       <c r="W85" s="45"/>
     </row>
     <row r="86" spans="1:23" ht="12" customHeight="1">
-      <c r="A86" s="164"/>
-      <c r="B86" s="164"/>
-      <c r="C86" s="173"/>
-      <c r="D86" s="174"/>
-      <c r="E86" s="127"/>
-      <c r="F86" s="66"/>
-      <c r="G86" s="66"/>
-      <c r="H86" s="66"/>
-      <c r="I86" s="108"/>
-      <c r="J86" s="152"/>
-      <c r="K86" s="147"/>
-      <c r="L86" s="67"/>
-      <c r="M86" s="67"/>
-      <c r="N86" s="67"/>
-      <c r="O86" s="67"/>
-      <c r="P86" s="67"/>
-      <c r="Q86" s="67"/>
-      <c r="R86" s="67"/>
-      <c r="S86" s="67"/>
-      <c r="T86" s="67"/>
-      <c r="U86" s="67"/>
-      <c r="V86" s="67"/>
-      <c r="W86" s="148"/>
+      <c r="A86" s="68"/>
+      <c r="B86" s="68"/>
+      <c r="C86" s="74"/>
+      <c r="D86" s="75"/>
+      <c r="E86" s="151"/>
+      <c r="F86" s="152"/>
+      <c r="G86" s="152"/>
+      <c r="H86" s="152"/>
+      <c r="I86" s="131"/>
+      <c r="J86" s="178"/>
+      <c r="K86" s="80"/>
+      <c r="L86" s="81"/>
+      <c r="M86" s="81"/>
+      <c r="N86" s="81"/>
+      <c r="O86" s="81"/>
+      <c r="P86" s="81"/>
+      <c r="Q86" s="81"/>
+      <c r="R86" s="81"/>
+      <c r="S86" s="81"/>
+      <c r="T86" s="81"/>
+      <c r="U86" s="81"/>
+      <c r="V86" s="81"/>
+      <c r="W86" s="82"/>
     </row>
     <row r="87" spans="1:23" ht="12" customHeight="1">
-      <c r="A87" s="164"/>
-      <c r="B87" s="164"/>
-      <c r="C87" s="89"/>
-      <c r="D87" s="165"/>
-      <c r="E87" s="128"/>
-      <c r="F87" s="41"/>
-      <c r="G87" s="41"/>
-      <c r="H87" s="41"/>
-      <c r="I87" s="110"/>
-      <c r="J87" s="155"/>
+      <c r="A87" s="68"/>
+      <c r="B87" s="68"/>
+      <c r="C87" s="110"/>
+      <c r="D87" s="111"/>
+      <c r="E87" s="153"/>
+      <c r="F87" s="39"/>
+      <c r="G87" s="39"/>
+      <c r="H87" s="39"/>
+      <c r="I87" s="133"/>
+      <c r="J87" s="181"/>
       <c r="K87" s="42"/>
       <c r="L87" s="43"/>
       <c r="M87" s="43"/>
@@ -47207,260 +47211,281 @@
       <c r="W87" s="45"/>
     </row>
     <row r="88" spans="1:23" ht="12" customHeight="1">
-      <c r="A88" s="164"/>
-      <c r="B88" s="164"/>
-      <c r="C88" s="89"/>
-      <c r="D88" s="165"/>
-      <c r="E88" s="109"/>
-      <c r="F88" s="97"/>
-      <c r="G88" s="97"/>
-      <c r="H88" s="129"/>
-      <c r="I88" s="110"/>
-      <c r="J88" s="153"/>
-      <c r="K88" s="51"/>
-      <c r="L88" s="50"/>
-      <c r="M88" s="50"/>
-      <c r="N88" s="50"/>
-      <c r="O88" s="50"/>
-      <c r="P88" s="50"/>
-      <c r="Q88" s="50"/>
-      <c r="R88" s="50"/>
-      <c r="S88" s="50"/>
-      <c r="T88" s="50"/>
-      <c r="U88" s="50"/>
-      <c r="V88" s="50"/>
-      <c r="W88" s="80"/>
+      <c r="A88" s="68"/>
+      <c r="B88" s="68"/>
+      <c r="C88" s="110"/>
+      <c r="D88" s="111"/>
+      <c r="E88" s="132"/>
+      <c r="F88" s="119"/>
+      <c r="G88" s="119"/>
+      <c r="H88" s="154"/>
+      <c r="I88" s="133"/>
+      <c r="J88" s="179"/>
+      <c r="K88" s="56"/>
+      <c r="L88" s="55"/>
+      <c r="M88" s="55"/>
+      <c r="N88" s="55"/>
+      <c r="O88" s="55"/>
+      <c r="P88" s="55"/>
+      <c r="Q88" s="55"/>
+      <c r="R88" s="55"/>
+      <c r="S88" s="55"/>
+      <c r="T88" s="55"/>
+      <c r="U88" s="55"/>
+      <c r="V88" s="55"/>
+      <c r="W88" s="106"/>
     </row>
     <row r="89" spans="1:23" ht="12" customHeight="1">
-      <c r="A89" s="164"/>
-      <c r="B89" s="164"/>
-      <c r="C89" s="69"/>
-      <c r="D89" s="70"/>
-      <c r="E89" s="111"/>
-      <c r="F89" s="103"/>
-      <c r="G89" s="103"/>
-      <c r="H89" s="103"/>
-      <c r="I89" s="112"/>
-      <c r="J89" s="155"/>
-      <c r="K89" s="149"/>
-      <c r="L89" s="150"/>
-      <c r="M89" s="150"/>
-      <c r="N89" s="150"/>
-      <c r="O89" s="150"/>
-      <c r="P89" s="150"/>
-      <c r="Q89" s="150"/>
-      <c r="R89" s="150"/>
-      <c r="S89" s="150"/>
-      <c r="T89" s="150"/>
-      <c r="U89" s="150"/>
-      <c r="V89" s="150"/>
+      <c r="A89" s="68"/>
+      <c r="B89" s="68"/>
+      <c r="C89" s="83"/>
+      <c r="D89" s="84"/>
+      <c r="E89" s="134"/>
+      <c r="F89" s="125"/>
+      <c r="G89" s="125"/>
+      <c r="H89" s="125"/>
+      <c r="I89" s="135"/>
+      <c r="J89" s="181"/>
+      <c r="K89" s="175"/>
+      <c r="L89" s="176"/>
+      <c r="M89" s="176"/>
+      <c r="N89" s="176"/>
+      <c r="O89" s="176"/>
+      <c r="P89" s="176"/>
+      <c r="Q89" s="176"/>
+      <c r="R89" s="176"/>
+      <c r="S89" s="176"/>
+      <c r="T89" s="176"/>
+      <c r="U89" s="176"/>
+      <c r="V89" s="176"/>
       <c r="W89" s="45"/>
     </row>
     <row r="90" spans="1:23" ht="12" customHeight="1">
-      <c r="A90" s="164"/>
-      <c r="B90" s="164"/>
-      <c r="C90" s="173"/>
-      <c r="D90" s="174"/>
-      <c r="E90" s="87"/>
-      <c r="F90" s="131"/>
-      <c r="G90" s="66"/>
-      <c r="H90" s="66"/>
-      <c r="I90" s="132"/>
-      <c r="J90" s="152"/>
-      <c r="K90" s="147"/>
-      <c r="L90" s="67"/>
-      <c r="M90" s="67"/>
-      <c r="N90" s="67"/>
-      <c r="O90" s="67"/>
-      <c r="P90" s="67"/>
-      <c r="Q90" s="67"/>
-      <c r="R90" s="67"/>
-      <c r="S90" s="67"/>
-      <c r="T90" s="67"/>
-      <c r="U90" s="67"/>
-      <c r="V90" s="67"/>
-      <c r="W90" s="148"/>
+      <c r="A90" s="68"/>
+      <c r="B90" s="68"/>
+      <c r="C90" s="74"/>
+      <c r="D90" s="75"/>
+      <c r="E90" s="107"/>
+      <c r="F90" s="157"/>
+      <c r="G90" s="152"/>
+      <c r="H90" s="152"/>
+      <c r="I90" s="158"/>
+      <c r="J90" s="178"/>
+      <c r="K90" s="80"/>
+      <c r="L90" s="81"/>
+      <c r="M90" s="81"/>
+      <c r="N90" s="81"/>
+      <c r="O90" s="81"/>
+      <c r="P90" s="81"/>
+      <c r="Q90" s="81"/>
+      <c r="R90" s="81"/>
+      <c r="S90" s="81"/>
+      <c r="T90" s="81"/>
+      <c r="U90" s="81"/>
+      <c r="V90" s="81"/>
+      <c r="W90" s="82"/>
     </row>
     <row r="91" spans="1:23" ht="12" customHeight="1">
-      <c r="A91" s="164"/>
-      <c r="B91" s="164"/>
-      <c r="C91" s="89"/>
-      <c r="D91" s="165"/>
-      <c r="E91" s="90"/>
-      <c r="F91" s="61"/>
-      <c r="G91" s="41"/>
-      <c r="H91" s="41"/>
-      <c r="I91" s="133"/>
-      <c r="J91" s="106"/>
-      <c r="K91" s="53"/>
-      <c r="L91" s="100"/>
-      <c r="M91" s="100"/>
-      <c r="N91" s="100"/>
-      <c r="O91" s="100"/>
-      <c r="P91" s="100"/>
-      <c r="Q91" s="100"/>
-      <c r="R91" s="100"/>
-      <c r="S91" s="100"/>
-      <c r="T91" s="100"/>
-      <c r="U91" s="100"/>
-      <c r="V91" s="100"/>
+      <c r="A91" s="68"/>
+      <c r="B91" s="68"/>
+      <c r="C91" s="110"/>
+      <c r="D91" s="111"/>
+      <c r="E91" s="112"/>
+      <c r="F91" s="72"/>
+      <c r="G91" s="39"/>
+      <c r="H91" s="39"/>
+      <c r="I91" s="159"/>
+      <c r="J91" s="138"/>
+      <c r="K91" s="59"/>
+      <c r="L91" s="122"/>
+      <c r="M91" s="122"/>
+      <c r="N91" s="122"/>
+      <c r="O91" s="122"/>
+      <c r="P91" s="122"/>
+      <c r="Q91" s="122"/>
+      <c r="R91" s="122"/>
+      <c r="S91" s="122"/>
+      <c r="T91" s="122"/>
+      <c r="U91" s="122"/>
+      <c r="V91" s="122"/>
       <c r="W91" s="45"/>
     </row>
     <row r="92" spans="1:23" ht="12" customHeight="1">
-      <c r="A92" s="164"/>
-      <c r="B92" s="164"/>
-      <c r="C92" s="89"/>
-      <c r="D92" s="165"/>
-      <c r="E92" s="90"/>
-      <c r="F92" s="61"/>
-      <c r="G92" s="134"/>
-      <c r="H92" s="135"/>
-      <c r="I92" s="110"/>
-      <c r="J92" s="153"/>
-      <c r="K92" s="156"/>
-      <c r="L92" s="50"/>
-      <c r="M92" s="50"/>
-      <c r="N92" s="50"/>
-      <c r="O92" s="50"/>
-      <c r="P92" s="50"/>
-      <c r="Q92" s="50"/>
-      <c r="R92" s="50"/>
-      <c r="S92" s="50"/>
-      <c r="T92" s="50"/>
-      <c r="U92" s="50"/>
-      <c r="V92" s="50"/>
-      <c r="W92" s="80"/>
+      <c r="A92" s="68"/>
+      <c r="B92" s="68"/>
+      <c r="C92" s="110"/>
+      <c r="D92" s="111"/>
+      <c r="E92" s="112"/>
+      <c r="F92" s="72"/>
+      <c r="G92" s="160"/>
+      <c r="H92" s="161"/>
+      <c r="I92" s="133"/>
+      <c r="J92" s="179"/>
+      <c r="K92" s="182"/>
+      <c r="L92" s="55"/>
+      <c r="M92" s="55"/>
+      <c r="N92" s="55"/>
+      <c r="O92" s="55"/>
+      <c r="P92" s="55"/>
+      <c r="Q92" s="55"/>
+      <c r="R92" s="55"/>
+      <c r="S92" s="55"/>
+      <c r="T92" s="55"/>
+      <c r="U92" s="55"/>
+      <c r="V92" s="55"/>
+      <c r="W92" s="106"/>
     </row>
     <row r="93" spans="1:23" ht="12" customHeight="1">
-      <c r="A93" s="164"/>
-      <c r="B93" s="164"/>
-      <c r="C93" s="69"/>
-      <c r="D93" s="70"/>
-      <c r="E93" s="101"/>
-      <c r="F93" s="136"/>
-      <c r="G93" s="102"/>
-      <c r="H93" s="130"/>
-      <c r="I93" s="112"/>
-      <c r="J93" s="154"/>
-      <c r="K93" s="157"/>
-      <c r="L93" s="150"/>
-      <c r="M93" s="150"/>
-      <c r="N93" s="150"/>
-      <c r="O93" s="150"/>
-      <c r="P93" s="150"/>
-      <c r="Q93" s="150"/>
-      <c r="R93" s="150"/>
-      <c r="S93" s="150"/>
-      <c r="T93" s="150"/>
-      <c r="U93" s="150"/>
-      <c r="V93" s="150"/>
+      <c r="A93" s="68"/>
+      <c r="B93" s="68"/>
+      <c r="C93" s="83"/>
+      <c r="D93" s="84"/>
+      <c r="E93" s="123"/>
+      <c r="F93" s="163"/>
+      <c r="G93" s="124"/>
+      <c r="H93" s="155"/>
+      <c r="I93" s="135"/>
+      <c r="J93" s="180"/>
+      <c r="K93" s="183"/>
+      <c r="L93" s="176"/>
+      <c r="M93" s="176"/>
+      <c r="N93" s="176"/>
+      <c r="O93" s="176"/>
+      <c r="P93" s="176"/>
+      <c r="Q93" s="176"/>
+      <c r="R93" s="176"/>
+      <c r="S93" s="176"/>
+      <c r="T93" s="176"/>
+      <c r="U93" s="176"/>
+      <c r="V93" s="176"/>
       <c r="W93" s="45"/>
     </row>
     <row r="94" spans="1:23" ht="12" customHeight="1">
-      <c r="A94" s="164"/>
-      <c r="B94" s="164"/>
-      <c r="C94" s="173"/>
-      <c r="D94" s="174"/>
-      <c r="E94" s="87"/>
-      <c r="F94" s="131"/>
-      <c r="G94" s="66"/>
-      <c r="H94" s="66"/>
-      <c r="I94" s="132"/>
-      <c r="J94" s="152"/>
-      <c r="K94" s="147"/>
-      <c r="L94" s="67"/>
-      <c r="M94" s="67"/>
-      <c r="N94" s="67"/>
-      <c r="O94" s="67"/>
-      <c r="P94" s="67"/>
-      <c r="Q94" s="67"/>
-      <c r="R94" s="67"/>
-      <c r="S94" s="67"/>
-      <c r="T94" s="67"/>
-      <c r="U94" s="67"/>
-      <c r="V94" s="67"/>
-      <c r="W94" s="68"/>
+      <c r="A94" s="68"/>
+      <c r="B94" s="68"/>
+      <c r="C94" s="74"/>
+      <c r="D94" s="75"/>
+      <c r="E94" s="107"/>
+      <c r="F94" s="157"/>
+      <c r="G94" s="152"/>
+      <c r="H94" s="152"/>
+      <c r="I94" s="158"/>
+      <c r="J94" s="178"/>
+      <c r="K94" s="80"/>
+      <c r="L94" s="81"/>
+      <c r="M94" s="81"/>
+      <c r="N94" s="81"/>
+      <c r="O94" s="81"/>
+      <c r="P94" s="81"/>
+      <c r="Q94" s="81"/>
+      <c r="R94" s="81"/>
+      <c r="S94" s="81"/>
+      <c r="T94" s="81"/>
+      <c r="U94" s="81"/>
+      <c r="V94" s="81"/>
+      <c r="W94" s="184"/>
     </row>
     <row r="95" spans="1:23" ht="12" customHeight="1">
-      <c r="A95" s="164"/>
-      <c r="B95" s="164"/>
-      <c r="C95" s="89"/>
-      <c r="D95" s="165"/>
-      <c r="E95" s="90"/>
-      <c r="F95" s="61"/>
-      <c r="G95" s="41"/>
-      <c r="H95" s="41"/>
-      <c r="I95" s="133"/>
-      <c r="J95" s="106"/>
-      <c r="K95" s="53"/>
-      <c r="L95" s="100"/>
-      <c r="M95" s="100"/>
-      <c r="N95" s="100"/>
-      <c r="O95" s="100"/>
-      <c r="P95" s="100"/>
-      <c r="Q95" s="100"/>
-      <c r="R95" s="100"/>
-      <c r="S95" s="100"/>
-      <c r="T95" s="100"/>
-      <c r="U95" s="100"/>
-      <c r="V95" s="100"/>
+      <c r="A95" s="68"/>
+      <c r="B95" s="68"/>
+      <c r="C95" s="110"/>
+      <c r="D95" s="111"/>
+      <c r="E95" s="112"/>
+      <c r="F95" s="72"/>
+      <c r="G95" s="39"/>
+      <c r="H95" s="39"/>
+      <c r="I95" s="159"/>
+      <c r="J95" s="138"/>
+      <c r="K95" s="59"/>
+      <c r="L95" s="122"/>
+      <c r="M95" s="122"/>
+      <c r="N95" s="122"/>
+      <c r="O95" s="122"/>
+      <c r="P95" s="122"/>
+      <c r="Q95" s="122"/>
+      <c r="R95" s="122"/>
+      <c r="S95" s="122"/>
+      <c r="T95" s="122"/>
+      <c r="U95" s="122"/>
+      <c r="V95" s="122"/>
       <c r="W95" s="45"/>
     </row>
     <row r="96" spans="1:23" ht="12" customHeight="1">
-      <c r="A96" s="164"/>
-      <c r="B96" s="164"/>
-      <c r="C96" s="89"/>
-      <c r="D96" s="165"/>
-      <c r="E96" s="90"/>
-      <c r="F96" s="61"/>
-      <c r="G96" s="134"/>
-      <c r="H96" s="135"/>
-      <c r="I96" s="110"/>
-      <c r="J96" s="153"/>
-      <c r="K96" s="156"/>
-      <c r="L96" s="50"/>
-      <c r="M96" s="50"/>
-      <c r="N96" s="50"/>
-      <c r="O96" s="50"/>
-      <c r="P96" s="50"/>
-      <c r="Q96" s="50"/>
-      <c r="R96" s="50"/>
-      <c r="S96" s="50"/>
-      <c r="T96" s="50"/>
-      <c r="U96" s="50"/>
-      <c r="V96" s="50"/>
-      <c r="W96" s="80"/>
+      <c r="A96" s="68"/>
+      <c r="B96" s="68"/>
+      <c r="C96" s="110"/>
+      <c r="D96" s="111"/>
+      <c r="E96" s="112"/>
+      <c r="F96" s="72"/>
+      <c r="G96" s="160"/>
+      <c r="H96" s="161"/>
+      <c r="I96" s="133"/>
+      <c r="J96" s="179"/>
+      <c r="K96" s="182"/>
+      <c r="L96" s="55"/>
+      <c r="M96" s="55"/>
+      <c r="N96" s="55"/>
+      <c r="O96" s="55"/>
+      <c r="P96" s="55"/>
+      <c r="Q96" s="55"/>
+      <c r="R96" s="55"/>
+      <c r="S96" s="55"/>
+      <c r="T96" s="55"/>
+      <c r="U96" s="55"/>
+      <c r="V96" s="55"/>
+      <c r="W96" s="106"/>
     </row>
     <row r="97" spans="1:23" ht="12" customHeight="1">
-      <c r="A97" s="158"/>
-      <c r="B97" s="158"/>
-      <c r="C97" s="69"/>
-      <c r="D97" s="70"/>
-      <c r="E97" s="101"/>
-      <c r="F97" s="136"/>
-      <c r="G97" s="102"/>
-      <c r="H97" s="130"/>
-      <c r="I97" s="112"/>
-      <c r="J97" s="154"/>
-      <c r="K97" s="157"/>
-      <c r="L97" s="150"/>
-      <c r="M97" s="150"/>
-      <c r="N97" s="150"/>
-      <c r="O97" s="150"/>
-      <c r="P97" s="150"/>
-      <c r="Q97" s="150"/>
-      <c r="R97" s="150"/>
-      <c r="S97" s="150"/>
-      <c r="T97" s="150"/>
-      <c r="U97" s="150"/>
-      <c r="V97" s="150"/>
-      <c r="W97" s="159"/>
+      <c r="A97" s="185"/>
+      <c r="B97" s="185"/>
+      <c r="C97" s="83"/>
+      <c r="D97" s="84"/>
+      <c r="E97" s="123"/>
+      <c r="F97" s="163"/>
+      <c r="G97" s="124"/>
+      <c r="H97" s="155"/>
+      <c r="I97" s="135"/>
+      <c r="J97" s="180"/>
+      <c r="K97" s="183"/>
+      <c r="L97" s="176"/>
+      <c r="M97" s="176"/>
+      <c r="N97" s="176"/>
+      <c r="O97" s="176"/>
+      <c r="P97" s="176"/>
+      <c r="Q97" s="176"/>
+      <c r="R97" s="176"/>
+      <c r="S97" s="176"/>
+      <c r="T97" s="176"/>
+      <c r="U97" s="176"/>
+      <c r="V97" s="176"/>
+      <c r="W97" s="186"/>
     </row>
     <row r="111" spans="1:23" ht="12" customHeight="1">
-      <c r="I111" s="26"/>
+      <c r="I111" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A2:W2"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A6:W6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C46:D46"/>
     <mergeCell ref="C86:D86"/>
     <mergeCell ref="C90:D90"/>
     <mergeCell ref="C94:D94"/>
@@ -47470,27 +47495,6 @@
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="C82:D82"/>
     <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="A2:W2"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A6:W6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C26:D26"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.31496062992125984"/>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_v2_template.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_v2_template.xlsx
@@ -125,10 +125,6 @@
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1229,562 +1225,562 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="68" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="76" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1831,7 +1827,7 @@
         <xdr:cNvPr id="2" name="楕円 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -47465,27 +47461,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A2:W2"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A6:W6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C46:D46"/>
     <mergeCell ref="C86:D86"/>
     <mergeCell ref="C90:D90"/>
     <mergeCell ref="C94:D94"/>
@@ -47495,6 +47470,27 @@
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="C82:D82"/>
     <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="A2:W2"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A6:W6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C26:D26"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.31496062992125984"/>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_v2_template.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_v2_template.xlsx
@@ -1220,7 +1220,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1233,9 +1233,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1244,18 +1241,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1275,9 +1260,6 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1287,26 +1269,11 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="68" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="76" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
@@ -1323,12 +1290,6 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1336,9 +1297,6 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1358,12 +1316,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -1443,18 +1395,6 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1476,12 +1416,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1496,12 +1430,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -1548,9 +1476,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1575,13 +1500,7 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1596,12 +1515,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1611,9 +1524,6 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1621,9 +1531,6 @@
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1674,18 +1581,6 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1693,12 +1588,6 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1776,11 +1665,149 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="76" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1827,7 +1854,7 @@
         <xdr:cNvPr id="2" name="楕円 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -44860,7 +44887,7 @@
       <sheetName val="アコーディオン画面"/>
     </sheetNames>
     <definedNames>
-      <definedName name="機種SORT"/>
+      <definedName name="機種SORT" refersTo="#REF!"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -45128,9 +45155,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X111"/>
+  <dimension ref="A1:X109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleSheetLayoutView="175" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleSheetLayoutView="175" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:W2"/>
     </sheetView>
   </sheetViews>
@@ -45141,7 +45168,7 @@
     <col min="3" max="3" width="3.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" style="1" customWidth="1"/>
     <col min="5" max="9" width="5.6640625" style="1"/>
-    <col min="10" max="10" width="6.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" style="172" customWidth="1"/>
     <col min="11" max="22" width="5.33203125" style="2" customWidth="1"/>
     <col min="23" max="23" width="5.33203125" style="3" customWidth="1"/>
     <col min="24" max="24" width="5.6640625" style="3"/>
@@ -45150,2347 +45177,2541 @@
   <sheetData>
     <row r="1" spans="1:23" ht="0.75" customHeight="1"/>
     <row r="2" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
+      <c r="A2" s="182"/>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
+      <c r="H2" s="182"/>
+      <c r="I2" s="182"/>
+      <c r="J2" s="182"/>
+      <c r="K2" s="182"/>
+      <c r="L2" s="182"/>
+      <c r="M2" s="182"/>
+      <c r="N2" s="182"/>
+      <c r="O2" s="182"/>
+      <c r="P2" s="182"/>
+      <c r="Q2" s="182"/>
+      <c r="R2" s="182"/>
+      <c r="S2" s="182"/>
+      <c r="T2" s="182"/>
+      <c r="U2" s="182"/>
+      <c r="V2" s="182"/>
+      <c r="W2" s="182"/>
     </row>
     <row r="3" spans="1:23" ht="0.75" customHeight="1" thickBot="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="173"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
     </row>
     <row r="4" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="12"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="184"/>
+      <c r="H4" s="184"/>
+      <c r="I4" s="185"/>
+      <c r="J4" s="186"/>
+      <c r="K4" s="184"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="7"/>
     </row>
     <row r="5" spans="1:23" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="21"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="174"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="15"/>
     </row>
     <row r="6" spans="1:23" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
+      <c r="A6" s="187"/>
+      <c r="B6" s="187"/>
+      <c r="C6" s="187"/>
+      <c r="D6" s="187"/>
+      <c r="E6" s="187"/>
+      <c r="F6" s="187"/>
+      <c r="G6" s="187"/>
+      <c r="H6" s="187"/>
+      <c r="I6" s="187"/>
+      <c r="J6" s="187"/>
+      <c r="K6" s="187"/>
+      <c r="L6" s="187"/>
+      <c r="M6" s="187"/>
+      <c r="N6" s="187"/>
+      <c r="O6" s="187"/>
+      <c r="P6" s="187"/>
+      <c r="Q6" s="187"/>
+      <c r="R6" s="187"/>
+      <c r="S6" s="187"/>
+      <c r="T6" s="187"/>
+      <c r="U6" s="187"/>
+      <c r="V6" s="187"/>
+      <c r="W6" s="187"/>
     </row>
     <row r="7" spans="1:23" ht="12" customHeight="1">
-      <c r="A7" s="23"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="33"/>
+      <c r="A7" s="188"/>
+      <c r="B7" s="189"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="22"/>
     </row>
     <row r="8" spans="1:23" ht="12" customHeight="1">
-      <c r="A8" s="34"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="43"/>
-      <c r="W8" s="45"/>
+      <c r="A8" s="190"/>
+      <c r="B8" s="191"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="152"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="128"/>
+      <c r="H8" s="128"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="31"/>
     </row>
     <row r="9" spans="1:23" ht="12" customHeight="1">
-      <c r="A9" s="46"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="55"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="55"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="57"/>
+      <c r="A9" s="192"/>
+      <c r="B9" s="193"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="41"/>
     </row>
     <row r="10" spans="1:23" ht="12" customHeight="1">
-      <c r="A10" s="34"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="44"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="44"/>
-      <c r="V10" s="44"/>
-      <c r="W10" s="45"/>
+      <c r="A10" s="190"/>
+      <c r="B10" s="191"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="31"/>
     </row>
     <row r="11" spans="1:23" ht="12" customHeight="1">
-      <c r="A11" s="34"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="66"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="66"/>
-      <c r="V11" s="66"/>
-      <c r="W11" s="67"/>
+      <c r="A11" s="190"/>
+      <c r="B11" s="191"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="50"/>
+      <c r="W11" s="51"/>
     </row>
     <row r="12" spans="1:23" ht="12" customHeight="1">
-      <c r="A12" s="68"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="72"/>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="72"/>
-      <c r="R12" s="72"/>
-      <c r="S12" s="72"/>
-      <c r="T12" s="72"/>
-      <c r="U12" s="72"/>
-      <c r="V12" s="72"/>
-      <c r="W12" s="73"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="57"/>
     </row>
     <row r="13" spans="1:23" ht="12" customHeight="1">
-      <c r="A13" s="68"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="81"/>
-      <c r="O13" s="81"/>
-      <c r="P13" s="81"/>
-      <c r="Q13" s="81"/>
-      <c r="R13" s="81"/>
-      <c r="S13" s="81"/>
-      <c r="T13" s="81"/>
-      <c r="U13" s="81"/>
-      <c r="V13" s="81"/>
-      <c r="W13" s="82"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="180"/>
+      <c r="D13" s="181"/>
+      <c r="E13" s="153"/>
+      <c r="F13" s="154"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="154"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="61"/>
+      <c r="W13" s="62"/>
     </row>
     <row r="14" spans="1:23" ht="12" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="90"/>
-      <c r="S14" s="90"/>
-      <c r="T14" s="90"/>
-      <c r="U14" s="90"/>
-      <c r="V14" s="90"/>
-      <c r="W14" s="91"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="155"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="68"/>
+      <c r="V14" s="68"/>
+      <c r="W14" s="69"/>
     </row>
     <row r="15" spans="1:23" ht="12" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="96"/>
-      <c r="M15" s="96"/>
-      <c r="N15" s="96"/>
-      <c r="O15" s="96"/>
-      <c r="P15" s="96"/>
-      <c r="Q15" s="96"/>
-      <c r="R15" s="96"/>
-      <c r="S15" s="96"/>
-      <c r="T15" s="96"/>
-      <c r="U15" s="96"/>
-      <c r="V15" s="97"/>
-      <c r="W15" s="98"/>
+      <c r="C15" s="194"/>
+      <c r="D15" s="195"/>
+      <c r="E15" s="155"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="72"/>
+      <c r="R15" s="72"/>
+      <c r="S15" s="72"/>
+      <c r="T15" s="72"/>
+      <c r="U15" s="72"/>
+      <c r="V15" s="73"/>
+      <c r="W15" s="74"/>
     </row>
     <row r="16" spans="1:23" ht="12" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="102"/>
-      <c r="M16" s="102"/>
-      <c r="N16" s="102"/>
-      <c r="O16" s="102"/>
-      <c r="P16" s="102"/>
-      <c r="Q16" s="102"/>
-      <c r="R16" s="102"/>
-      <c r="S16" s="102"/>
-      <c r="T16" s="102"/>
-      <c r="U16" s="102"/>
-      <c r="V16" s="102"/>
-      <c r="W16" s="103"/>
+      <c r="C16" s="180"/>
+      <c r="D16" s="181"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="78"/>
+      <c r="O16" s="78"/>
+      <c r="P16" s="78"/>
+      <c r="Q16" s="78"/>
+      <c r="R16" s="78"/>
+      <c r="S16" s="78"/>
+      <c r="T16" s="78"/>
+      <c r="U16" s="78"/>
+      <c r="V16" s="78"/>
+      <c r="W16" s="79"/>
     </row>
     <row r="17" spans="1:23" ht="12" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="105"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="55"/>
-      <c r="T17" s="55"/>
-      <c r="U17" s="55"/>
-      <c r="V17" s="55"/>
-      <c r="W17" s="106"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="155"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="82"/>
     </row>
     <row r="18" spans="1:23" ht="12" customHeight="1">
-      <c r="A18" s="68"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="108"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="109"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="101"/>
-      <c r="L18" s="102"/>
-      <c r="M18" s="102"/>
-      <c r="N18" s="102"/>
-      <c r="O18" s="102"/>
-      <c r="P18" s="102"/>
-      <c r="Q18" s="102"/>
-      <c r="R18" s="102"/>
-      <c r="S18" s="102"/>
-      <c r="T18" s="102"/>
-      <c r="U18" s="102"/>
-      <c r="V18" s="102"/>
-      <c r="W18" s="103"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="180"/>
+      <c r="D18" s="181"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="156"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="78"/>
+      <c r="R18" s="78"/>
+      <c r="S18" s="78"/>
+      <c r="T18" s="78"/>
+      <c r="U18" s="78"/>
+      <c r="V18" s="78"/>
+      <c r="W18" s="79"/>
     </row>
     <row r="19" spans="1:23" ht="12" customHeight="1">
-      <c r="A19" s="68"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="117"/>
-      <c r="M19" s="117"/>
-      <c r="N19" s="117"/>
-      <c r="O19" s="117"/>
-      <c r="P19" s="117"/>
-      <c r="Q19" s="117"/>
-      <c r="R19" s="117"/>
-      <c r="S19" s="117"/>
-      <c r="T19" s="117"/>
-      <c r="U19" s="117"/>
-      <c r="V19" s="117"/>
-      <c r="W19" s="57"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="92"/>
+      <c r="O19" s="92"/>
+      <c r="P19" s="92"/>
+      <c r="Q19" s="92"/>
+      <c r="R19" s="92"/>
+      <c r="S19" s="92"/>
+      <c r="T19" s="92"/>
+      <c r="U19" s="92"/>
+      <c r="V19" s="92"/>
+      <c r="W19" s="41"/>
     </row>
     <row r="20" spans="1:23" ht="12" customHeight="1">
-      <c r="A20" s="68"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="120"/>
-      <c r="J20" s="121"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="122"/>
-      <c r="M20" s="122"/>
-      <c r="N20" s="122"/>
-      <c r="O20" s="122"/>
-      <c r="P20" s="122"/>
-      <c r="Q20" s="122"/>
-      <c r="R20" s="122"/>
-      <c r="S20" s="122"/>
-      <c r="T20" s="122"/>
-      <c r="U20" s="122"/>
-      <c r="V20" s="122"/>
-      <c r="W20" s="45"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="95"/>
+      <c r="Q20" s="95"/>
+      <c r="R20" s="95"/>
+      <c r="S20" s="95"/>
+      <c r="T20" s="95"/>
+      <c r="U20" s="95"/>
+      <c r="V20" s="95"/>
+      <c r="W20" s="31"/>
     </row>
     <row r="21" spans="1:23" ht="12" customHeight="1">
-      <c r="A21" s="68"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="125"/>
-      <c r="I21" s="126"/>
-      <c r="J21" s="105"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="55"/>
-      <c r="S21" s="55"/>
-      <c r="T21" s="55"/>
-      <c r="U21" s="55"/>
-      <c r="V21" s="55"/>
-      <c r="W21" s="106"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="157"/>
+      <c r="G21" s="158"/>
+      <c r="H21" s="158"/>
+      <c r="I21" s="159"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="82"/>
     </row>
     <row r="22" spans="1:23" ht="12" customHeight="1">
-      <c r="A22" s="68"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="109"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="101"/>
-      <c r="L22" s="102"/>
-      <c r="M22" s="102"/>
-      <c r="N22" s="102"/>
-      <c r="O22" s="102"/>
-      <c r="P22" s="102"/>
-      <c r="Q22" s="102"/>
-      <c r="R22" s="102"/>
-      <c r="S22" s="102"/>
-      <c r="T22" s="102"/>
-      <c r="U22" s="102"/>
-      <c r="V22" s="102"/>
-      <c r="W22" s="103"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="180"/>
+      <c r="D22" s="181"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="78"/>
+      <c r="N22" s="78"/>
+      <c r="O22" s="78"/>
+      <c r="P22" s="78"/>
+      <c r="Q22" s="78"/>
+      <c r="R22" s="78"/>
+      <c r="S22" s="78"/>
+      <c r="T22" s="78"/>
+      <c r="U22" s="78"/>
+      <c r="V22" s="78"/>
+      <c r="W22" s="79"/>
     </row>
     <row r="23" spans="1:23" ht="12" customHeight="1">
-      <c r="A23" s="68"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="113"/>
-      <c r="G23" s="114"/>
-      <c r="H23" s="114"/>
-      <c r="I23" s="115"/>
-      <c r="J23" s="116"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="117"/>
-      <c r="M23" s="117"/>
-      <c r="N23" s="117"/>
-      <c r="O23" s="117"/>
-      <c r="P23" s="117"/>
-      <c r="Q23" s="117"/>
-      <c r="R23" s="117"/>
-      <c r="S23" s="117"/>
-      <c r="T23" s="117"/>
-      <c r="U23" s="117"/>
-      <c r="V23" s="117"/>
-      <c r="W23" s="57"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="92"/>
+      <c r="M23" s="92"/>
+      <c r="N23" s="92"/>
+      <c r="O23" s="92"/>
+      <c r="P23" s="92"/>
+      <c r="Q23" s="92"/>
+      <c r="R23" s="92"/>
+      <c r="S23" s="92"/>
+      <c r="T23" s="92"/>
+      <c r="U23" s="92"/>
+      <c r="V23" s="92"/>
+      <c r="W23" s="41"/>
     </row>
     <row r="24" spans="1:23" ht="12" customHeight="1">
-      <c r="A24" s="68"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="118"/>
-      <c r="G24" s="119"/>
-      <c r="H24" s="119"/>
-      <c r="I24" s="120"/>
-      <c r="J24" s="121"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="122"/>
-      <c r="M24" s="122"/>
-      <c r="N24" s="122"/>
-      <c r="O24" s="122"/>
-      <c r="P24" s="122"/>
-      <c r="Q24" s="122"/>
-      <c r="R24" s="122"/>
-      <c r="S24" s="122"/>
-      <c r="T24" s="122"/>
-      <c r="U24" s="122"/>
-      <c r="V24" s="122"/>
-      <c r="W24" s="45"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="95"/>
+      <c r="Q24" s="95"/>
+      <c r="R24" s="95"/>
+      <c r="S24" s="95"/>
+      <c r="T24" s="95"/>
+      <c r="U24" s="95"/>
+      <c r="V24" s="95"/>
+      <c r="W24" s="31"/>
     </row>
     <row r="25" spans="1:23" ht="12" customHeight="1">
-      <c r="A25" s="68"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="123"/>
-      <c r="F25" s="124"/>
-      <c r="G25" s="125"/>
-      <c r="H25" s="125"/>
-      <c r="I25" s="126"/>
-      <c r="J25" s="105"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="55"/>
-      <c r="S25" s="55"/>
-      <c r="T25" s="55"/>
-      <c r="U25" s="55"/>
-      <c r="V25" s="55"/>
-      <c r="W25" s="106"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="157"/>
+      <c r="G25" s="158"/>
+      <c r="H25" s="158"/>
+      <c r="I25" s="159"/>
+      <c r="J25" s="81"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="82"/>
     </row>
     <row r="26" spans="1:23" ht="12" customHeight="1">
-      <c r="A26" s="68"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="108"/>
-      <c r="H26" s="108"/>
-      <c r="I26" s="109"/>
-      <c r="J26" s="127"/>
-      <c r="K26" s="101"/>
-      <c r="L26" s="102"/>
-      <c r="M26" s="102"/>
-      <c r="N26" s="102"/>
-      <c r="O26" s="102"/>
-      <c r="P26" s="102"/>
-      <c r="Q26" s="102"/>
-      <c r="R26" s="102"/>
-      <c r="S26" s="102"/>
-      <c r="T26" s="102"/>
-      <c r="U26" s="102"/>
-      <c r="V26" s="102"/>
-      <c r="W26" s="103"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="180"/>
+      <c r="D26" s="181"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="156"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="78"/>
+      <c r="N26" s="78"/>
+      <c r="O26" s="78"/>
+      <c r="P26" s="78"/>
+      <c r="Q26" s="78"/>
+      <c r="R26" s="78"/>
+      <c r="S26" s="78"/>
+      <c r="T26" s="78"/>
+      <c r="U26" s="78"/>
+      <c r="V26" s="78"/>
+      <c r="W26" s="79"/>
     </row>
     <row r="27" spans="1:23" ht="12" customHeight="1">
-      <c r="A27" s="68"/>
-      <c r="B27" s="68"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="111"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="118"/>
-      <c r="G27" s="119"/>
-      <c r="H27" s="119"/>
-      <c r="I27" s="120"/>
-      <c r="J27" s="116"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="117"/>
-      <c r="M27" s="117"/>
-      <c r="N27" s="117"/>
-      <c r="O27" s="117"/>
-      <c r="P27" s="117"/>
-      <c r="Q27" s="117"/>
-      <c r="R27" s="117"/>
-      <c r="S27" s="117"/>
-      <c r="T27" s="117"/>
-      <c r="U27" s="117"/>
-      <c r="V27" s="117"/>
-      <c r="W27" s="57"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="90"/>
+      <c r="J27" s="91"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="92"/>
+      <c r="M27" s="92"/>
+      <c r="N27" s="92"/>
+      <c r="O27" s="92"/>
+      <c r="P27" s="92"/>
+      <c r="Q27" s="92"/>
+      <c r="R27" s="92"/>
+      <c r="S27" s="92"/>
+      <c r="T27" s="92"/>
+      <c r="U27" s="92"/>
+      <c r="V27" s="92"/>
+      <c r="W27" s="41"/>
     </row>
     <row r="28" spans="1:23" ht="12" customHeight="1">
-      <c r="A28" s="68"/>
-      <c r="B28" s="68"/>
-      <c r="C28" s="110"/>
-      <c r="D28" s="111"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="118"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="119"/>
-      <c r="I28" s="120"/>
-      <c r="J28" s="128"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="122"/>
-      <c r="M28" s="122"/>
-      <c r="N28" s="122"/>
-      <c r="O28" s="122"/>
-      <c r="P28" s="122"/>
-      <c r="Q28" s="122"/>
-      <c r="R28" s="122"/>
-      <c r="S28" s="122"/>
-      <c r="T28" s="122"/>
-      <c r="U28" s="122"/>
-      <c r="V28" s="122"/>
-      <c r="W28" s="45"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="99"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="95"/>
+      <c r="M28" s="95"/>
+      <c r="N28" s="95"/>
+      <c r="O28" s="95"/>
+      <c r="P28" s="95"/>
+      <c r="Q28" s="95"/>
+      <c r="R28" s="95"/>
+      <c r="S28" s="95"/>
+      <c r="T28" s="95"/>
+      <c r="U28" s="95"/>
+      <c r="V28" s="95"/>
+      <c r="W28" s="31"/>
     </row>
     <row r="29" spans="1:23" ht="12" customHeight="1">
-      <c r="A29" s="68"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="123"/>
-      <c r="F29" s="124"/>
-      <c r="G29" s="125"/>
-      <c r="H29" s="125"/>
-      <c r="I29" s="126"/>
-      <c r="J29" s="129"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="55"/>
-      <c r="S29" s="55"/>
-      <c r="T29" s="55"/>
-      <c r="U29" s="55"/>
-      <c r="V29" s="55"/>
-      <c r="W29" s="106"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="157"/>
+      <c r="G29" s="158"/>
+      <c r="H29" s="158"/>
+      <c r="I29" s="159"/>
+      <c r="J29" s="100"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="39"/>
+      <c r="U29" s="39"/>
+      <c r="V29" s="39"/>
+      <c r="W29" s="82"/>
     </row>
     <row r="30" spans="1:23" ht="12" customHeight="1">
-      <c r="A30" s="68"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="130"/>
-      <c r="F30" s="108"/>
-      <c r="G30" s="108"/>
-      <c r="H30" s="108"/>
-      <c r="I30" s="131"/>
-      <c r="J30" s="100"/>
-      <c r="K30" s="101"/>
-      <c r="L30" s="102"/>
-      <c r="M30" s="102"/>
-      <c r="N30" s="102"/>
-      <c r="O30" s="102"/>
-      <c r="P30" s="102"/>
-      <c r="Q30" s="102"/>
-      <c r="R30" s="102"/>
-      <c r="S30" s="102"/>
-      <c r="T30" s="102"/>
-      <c r="U30" s="102"/>
-      <c r="V30" s="102"/>
-      <c r="W30" s="103"/>
+      <c r="A30" s="52"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="180"/>
+      <c r="D30" s="181"/>
+      <c r="E30" s="160"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="101"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="78"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="78"/>
+      <c r="P30" s="78"/>
+      <c r="Q30" s="78"/>
+      <c r="R30" s="78"/>
+      <c r="S30" s="78"/>
+      <c r="T30" s="78"/>
+      <c r="U30" s="78"/>
+      <c r="V30" s="78"/>
+      <c r="W30" s="79"/>
     </row>
     <row r="31" spans="1:23" ht="12" customHeight="1">
-      <c r="A31" s="68"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="110"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="132"/>
-      <c r="F31" s="119"/>
-      <c r="G31" s="119"/>
-      <c r="H31" s="119"/>
-      <c r="I31" s="133"/>
-      <c r="J31" s="116"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="117"/>
-      <c r="M31" s="117"/>
-      <c r="N31" s="117"/>
-      <c r="O31" s="117"/>
-      <c r="P31" s="117"/>
-      <c r="Q31" s="117"/>
-      <c r="R31" s="117"/>
-      <c r="S31" s="117"/>
-      <c r="T31" s="117"/>
-      <c r="U31" s="117"/>
-      <c r="V31" s="117"/>
-      <c r="W31" s="57"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="161"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="91"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="92"/>
+      <c r="M31" s="92"/>
+      <c r="N31" s="92"/>
+      <c r="O31" s="92"/>
+      <c r="P31" s="92"/>
+      <c r="Q31" s="92"/>
+      <c r="R31" s="92"/>
+      <c r="S31" s="92"/>
+      <c r="T31" s="92"/>
+      <c r="U31" s="92"/>
+      <c r="V31" s="92"/>
+      <c r="W31" s="41"/>
     </row>
     <row r="32" spans="1:23" ht="12" customHeight="1">
-      <c r="A32" s="68"/>
-      <c r="B32" s="68"/>
-      <c r="C32" s="110"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="132"/>
-      <c r="F32" s="119"/>
-      <c r="G32" s="119"/>
-      <c r="H32" s="119"/>
-      <c r="I32" s="133"/>
-      <c r="J32" s="121"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="122"/>
-      <c r="M32" s="122"/>
-      <c r="N32" s="122"/>
-      <c r="O32" s="122"/>
-      <c r="P32" s="122"/>
-      <c r="Q32" s="122"/>
-      <c r="R32" s="122"/>
-      <c r="S32" s="122"/>
-      <c r="T32" s="122"/>
-      <c r="U32" s="122"/>
-      <c r="V32" s="122"/>
-      <c r="W32" s="45"/>
+      <c r="A32" s="52"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="161"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="89"/>
+      <c r="I32" s="103"/>
+      <c r="J32" s="94"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="95"/>
+      <c r="M32" s="95"/>
+      <c r="N32" s="95"/>
+      <c r="O32" s="95"/>
+      <c r="P32" s="95"/>
+      <c r="Q32" s="95"/>
+      <c r="R32" s="95"/>
+      <c r="S32" s="95"/>
+      <c r="T32" s="95"/>
+      <c r="U32" s="95"/>
+      <c r="V32" s="95"/>
+      <c r="W32" s="31"/>
     </row>
     <row r="33" spans="1:23" ht="12" customHeight="1">
-      <c r="A33" s="68"/>
-      <c r="B33" s="68"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="134"/>
-      <c r="F33" s="125"/>
-      <c r="G33" s="125"/>
-      <c r="H33" s="125"/>
-      <c r="I33" s="135"/>
-      <c r="J33" s="94"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="55"/>
-      <c r="O33" s="55"/>
-      <c r="P33" s="55"/>
-      <c r="Q33" s="55"/>
-      <c r="R33" s="55"/>
-      <c r="S33" s="55"/>
-      <c r="T33" s="55"/>
-      <c r="U33" s="55"/>
-      <c r="V33" s="55"/>
-      <c r="W33" s="106"/>
+      <c r="A33" s="52"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="162"/>
+      <c r="F33" s="158"/>
+      <c r="G33" s="158"/>
+      <c r="H33" s="158"/>
+      <c r="I33" s="104"/>
+      <c r="J33" s="70"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="39"/>
+      <c r="T33" s="39"/>
+      <c r="U33" s="39"/>
+      <c r="V33" s="39"/>
+      <c r="W33" s="82"/>
     </row>
     <row r="34" spans="1:23" ht="12" customHeight="1">
-      <c r="A34" s="68"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="136"/>
-      <c r="F34" s="137"/>
-      <c r="G34" s="108"/>
-      <c r="H34" s="137"/>
-      <c r="I34" s="131"/>
-      <c r="J34" s="138"/>
-      <c r="K34" s="139"/>
-      <c r="L34" s="140"/>
-      <c r="M34" s="140"/>
-      <c r="N34" s="140"/>
-      <c r="O34" s="140"/>
-      <c r="P34" s="140"/>
-      <c r="Q34" s="140"/>
-      <c r="R34" s="140"/>
-      <c r="S34" s="140"/>
-      <c r="T34" s="140"/>
-      <c r="U34" s="140"/>
-      <c r="V34" s="141"/>
-      <c r="W34" s="142"/>
+      <c r="A34" s="52"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="180"/>
+      <c r="D34" s="181"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="106"/>
+      <c r="I34" s="101"/>
+      <c r="J34" s="107"/>
+      <c r="K34" s="108"/>
+      <c r="L34" s="109"/>
+      <c r="M34" s="109"/>
+      <c r="N34" s="109"/>
+      <c r="O34" s="109"/>
+      <c r="P34" s="109"/>
+      <c r="Q34" s="109"/>
+      <c r="R34" s="109"/>
+      <c r="S34" s="109"/>
+      <c r="T34" s="109"/>
+      <c r="U34" s="109"/>
+      <c r="V34" s="110"/>
+      <c r="W34" s="111"/>
     </row>
     <row r="35" spans="1:23" ht="12" customHeight="1">
-      <c r="A35" s="68"/>
-      <c r="B35" s="68"/>
-      <c r="C35" s="110"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="132"/>
-      <c r="F35" s="119"/>
-      <c r="G35" s="119"/>
-      <c r="H35" s="119"/>
-      <c r="I35" s="133"/>
-      <c r="J35" s="143"/>
-      <c r="K35" s="144"/>
-      <c r="L35" s="145"/>
-      <c r="M35" s="145"/>
-      <c r="N35" s="145"/>
-      <c r="O35" s="145"/>
-      <c r="P35" s="145"/>
-      <c r="Q35" s="145"/>
-      <c r="R35" s="145"/>
-      <c r="S35" s="145"/>
-      <c r="T35" s="145"/>
-      <c r="U35" s="145"/>
-      <c r="V35" s="146"/>
-      <c r="W35" s="147"/>
+      <c r="A35" s="52"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="103"/>
+      <c r="J35" s="112"/>
+      <c r="K35" s="113"/>
+      <c r="L35" s="114"/>
+      <c r="M35" s="114"/>
+      <c r="N35" s="114"/>
+      <c r="O35" s="114"/>
+      <c r="P35" s="114"/>
+      <c r="Q35" s="114"/>
+      <c r="R35" s="114"/>
+      <c r="S35" s="114"/>
+      <c r="T35" s="114"/>
+      <c r="U35" s="114"/>
+      <c r="V35" s="115"/>
+      <c r="W35" s="116"/>
     </row>
     <row r="36" spans="1:23" ht="12" customHeight="1">
-      <c r="A36" s="68"/>
-      <c r="B36" s="68"/>
-      <c r="C36" s="110"/>
-      <c r="D36" s="111"/>
-      <c r="E36" s="132"/>
-      <c r="F36" s="119"/>
-      <c r="G36" s="119"/>
-      <c r="H36" s="119"/>
-      <c r="I36" s="133"/>
-      <c r="J36" s="138"/>
-      <c r="K36" s="59"/>
-      <c r="L36" s="122"/>
-      <c r="M36" s="122"/>
-      <c r="N36" s="122"/>
-      <c r="O36" s="122"/>
-      <c r="P36" s="122"/>
-      <c r="Q36" s="122"/>
-      <c r="R36" s="122"/>
-      <c r="S36" s="122"/>
-      <c r="T36" s="122"/>
-      <c r="U36" s="122"/>
-      <c r="V36" s="122"/>
-      <c r="W36" s="45"/>
+      <c r="A36" s="52"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="161"/>
+      <c r="F36" s="89"/>
+      <c r="G36" s="89"/>
+      <c r="H36" s="89"/>
+      <c r="I36" s="103"/>
+      <c r="J36" s="107"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="95"/>
+      <c r="M36" s="95"/>
+      <c r="N36" s="95"/>
+      <c r="O36" s="95"/>
+      <c r="P36" s="95"/>
+      <c r="Q36" s="95"/>
+      <c r="R36" s="95"/>
+      <c r="S36" s="95"/>
+      <c r="T36" s="95"/>
+      <c r="U36" s="95"/>
+      <c r="V36" s="95"/>
+      <c r="W36" s="31"/>
     </row>
     <row r="37" spans="1:23" ht="12" customHeight="1">
-      <c r="A37" s="68"/>
-      <c r="B37" s="68"/>
-      <c r="C37" s="83"/>
-      <c r="D37" s="84"/>
-      <c r="E37" s="134"/>
-      <c r="F37" s="125"/>
-      <c r="G37" s="125"/>
-      <c r="H37" s="125"/>
-      <c r="I37" s="135"/>
-      <c r="J37" s="143"/>
-      <c r="K37" s="148"/>
-      <c r="L37" s="149"/>
-      <c r="M37" s="149"/>
-      <c r="N37" s="149"/>
-      <c r="O37" s="149"/>
-      <c r="P37" s="149"/>
-      <c r="Q37" s="149"/>
-      <c r="R37" s="149"/>
-      <c r="S37" s="149"/>
-      <c r="T37" s="149"/>
-      <c r="U37" s="149"/>
-      <c r="V37" s="146"/>
-      <c r="W37" s="150"/>
+      <c r="A37" s="52"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="162"/>
+      <c r="F37" s="158"/>
+      <c r="G37" s="158"/>
+      <c r="H37" s="158"/>
+      <c r="I37" s="104"/>
+      <c r="J37" s="112"/>
+      <c r="K37" s="117"/>
+      <c r="L37" s="118"/>
+      <c r="M37" s="118"/>
+      <c r="N37" s="118"/>
+      <c r="O37" s="118"/>
+      <c r="P37" s="118"/>
+      <c r="Q37" s="118"/>
+      <c r="R37" s="118"/>
+      <c r="S37" s="118"/>
+      <c r="T37" s="118"/>
+      <c r="U37" s="118"/>
+      <c r="V37" s="115"/>
+      <c r="W37" s="119"/>
     </row>
     <row r="38" spans="1:23" ht="12" customHeight="1">
-      <c r="A38" s="68"/>
-      <c r="B38" s="68"/>
-      <c r="C38" s="74"/>
-      <c r="D38" s="75"/>
-      <c r="E38" s="151"/>
-      <c r="F38" s="152"/>
-      <c r="G38" s="152"/>
-      <c r="H38" s="152"/>
-      <c r="I38" s="131"/>
-      <c r="J38" s="127"/>
-      <c r="K38" s="101"/>
-      <c r="L38" s="102"/>
-      <c r="M38" s="102"/>
-      <c r="N38" s="102"/>
-      <c r="O38" s="102"/>
-      <c r="P38" s="102"/>
-      <c r="Q38" s="102"/>
-      <c r="R38" s="102"/>
-      <c r="S38" s="102"/>
-      <c r="T38" s="102"/>
-      <c r="U38" s="102"/>
-      <c r="V38" s="102"/>
-      <c r="W38" s="103"/>
+      <c r="A38" s="52"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="180"/>
+      <c r="D38" s="181"/>
+      <c r="E38" s="163"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="101"/>
+      <c r="J38" s="98"/>
+      <c r="K38" s="77"/>
+      <c r="L38" s="78"/>
+      <c r="M38" s="78"/>
+      <c r="N38" s="78"/>
+      <c r="O38" s="78"/>
+      <c r="P38" s="78"/>
+      <c r="Q38" s="78"/>
+      <c r="R38" s="78"/>
+      <c r="S38" s="78"/>
+      <c r="T38" s="78"/>
+      <c r="U38" s="78"/>
+      <c r="V38" s="78"/>
+      <c r="W38" s="79"/>
     </row>
     <row r="39" spans="1:23" ht="12" customHeight="1">
-      <c r="A39" s="68"/>
-      <c r="B39" s="68"/>
-      <c r="C39" s="110"/>
-      <c r="D39" s="111"/>
-      <c r="E39" s="153"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="133"/>
-      <c r="J39" s="116"/>
-      <c r="K39" s="54"/>
-      <c r="L39" s="117"/>
-      <c r="M39" s="117"/>
-      <c r="N39" s="117"/>
-      <c r="O39" s="117"/>
-      <c r="P39" s="117"/>
-      <c r="Q39" s="117"/>
-      <c r="R39" s="117"/>
-      <c r="S39" s="117"/>
-      <c r="T39" s="117"/>
-      <c r="U39" s="117"/>
-      <c r="V39" s="117"/>
-      <c r="W39" s="57"/>
+      <c r="A39" s="52"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="86"/>
+      <c r="E39" s="164"/>
+      <c r="F39" s="128"/>
+      <c r="G39" s="128"/>
+      <c r="H39" s="128"/>
+      <c r="I39" s="103"/>
+      <c r="J39" s="91"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="92"/>
+      <c r="M39" s="92"/>
+      <c r="N39" s="92"/>
+      <c r="O39" s="92"/>
+      <c r="P39" s="92"/>
+      <c r="Q39" s="92"/>
+      <c r="R39" s="92"/>
+      <c r="S39" s="92"/>
+      <c r="T39" s="92"/>
+      <c r="U39" s="92"/>
+      <c r="V39" s="92"/>
+      <c r="W39" s="41"/>
     </row>
     <row r="40" spans="1:23" ht="12" customHeight="1">
-      <c r="A40" s="68"/>
-      <c r="B40" s="68"/>
-      <c r="C40" s="110"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="132"/>
-      <c r="F40" s="119"/>
-      <c r="G40" s="119"/>
-      <c r="H40" s="154"/>
-      <c r="I40" s="133"/>
-      <c r="J40" s="128"/>
-      <c r="K40" s="59"/>
-      <c r="L40" s="122"/>
-      <c r="M40" s="122"/>
-      <c r="N40" s="122"/>
-      <c r="O40" s="122"/>
-      <c r="P40" s="122"/>
-      <c r="Q40" s="122"/>
-      <c r="R40" s="122"/>
-      <c r="S40" s="122"/>
-      <c r="T40" s="122"/>
-      <c r="U40" s="122"/>
-      <c r="V40" s="122"/>
-      <c r="W40" s="45"/>
+      <c r="A40" s="52"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="86"/>
+      <c r="E40" s="161"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="89"/>
+      <c r="H40" s="165"/>
+      <c r="I40" s="103"/>
+      <c r="J40" s="99"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="95"/>
+      <c r="M40" s="95"/>
+      <c r="N40" s="95"/>
+      <c r="O40" s="95"/>
+      <c r="P40" s="95"/>
+      <c r="Q40" s="95"/>
+      <c r="R40" s="95"/>
+      <c r="S40" s="95"/>
+      <c r="T40" s="95"/>
+      <c r="U40" s="95"/>
+      <c r="V40" s="95"/>
+      <c r="W40" s="31"/>
     </row>
     <row r="41" spans="1:23" ht="12" customHeight="1">
-      <c r="A41" s="68"/>
-      <c r="B41" s="68"/>
-      <c r="C41" s="83"/>
-      <c r="D41" s="84"/>
-      <c r="E41" s="134"/>
-      <c r="F41" s="125"/>
-      <c r="G41" s="125"/>
-      <c r="H41" s="155"/>
-      <c r="I41" s="135"/>
-      <c r="J41" s="156"/>
-      <c r="K41" s="56"/>
-      <c r="L41" s="55"/>
-      <c r="M41" s="55"/>
-      <c r="N41" s="55"/>
-      <c r="O41" s="55"/>
-      <c r="P41" s="55"/>
-      <c r="Q41" s="55"/>
-      <c r="R41" s="55"/>
-      <c r="S41" s="55"/>
-      <c r="T41" s="55"/>
-      <c r="U41" s="55"/>
-      <c r="V41" s="55"/>
-      <c r="W41" s="106"/>
+      <c r="A41" s="52"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="162"/>
+      <c r="F41" s="158"/>
+      <c r="G41" s="158"/>
+      <c r="H41" s="71"/>
+      <c r="I41" s="104"/>
+      <c r="J41" s="121"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="39"/>
+      <c r="R41" s="39"/>
+      <c r="S41" s="39"/>
+      <c r="T41" s="39"/>
+      <c r="U41" s="39"/>
+      <c r="V41" s="39"/>
+      <c r="W41" s="82"/>
     </row>
     <row r="42" spans="1:23" ht="12" customHeight="1">
-      <c r="A42" s="68"/>
-      <c r="B42" s="68"/>
-      <c r="C42" s="74"/>
-      <c r="D42" s="75"/>
-      <c r="E42" s="151"/>
-      <c r="F42" s="152"/>
-      <c r="G42" s="152"/>
-      <c r="H42" s="152"/>
-      <c r="I42" s="131"/>
-      <c r="J42" s="127"/>
-      <c r="K42" s="101"/>
-      <c r="L42" s="102"/>
-      <c r="M42" s="102"/>
-      <c r="N42" s="102"/>
-      <c r="O42" s="102"/>
-      <c r="P42" s="102"/>
-      <c r="Q42" s="102"/>
-      <c r="R42" s="102"/>
-      <c r="S42" s="102"/>
-      <c r="T42" s="102"/>
-      <c r="U42" s="102"/>
-      <c r="V42" s="102"/>
-      <c r="W42" s="103"/>
+      <c r="A42" s="52"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="180"/>
+      <c r="D42" s="181"/>
+      <c r="E42" s="163"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="101"/>
+      <c r="J42" s="98"/>
+      <c r="K42" s="77"/>
+      <c r="L42" s="78"/>
+      <c r="M42" s="78"/>
+      <c r="N42" s="78"/>
+      <c r="O42" s="78"/>
+      <c r="P42" s="78"/>
+      <c r="Q42" s="78"/>
+      <c r="R42" s="78"/>
+      <c r="S42" s="78"/>
+      <c r="T42" s="78"/>
+      <c r="U42" s="78"/>
+      <c r="V42" s="78"/>
+      <c r="W42" s="79"/>
     </row>
     <row r="43" spans="1:23" ht="12" customHeight="1">
-      <c r="A43" s="68"/>
-      <c r="B43" s="68"/>
-      <c r="C43" s="110"/>
-      <c r="D43" s="111"/>
-      <c r="E43" s="153"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="133"/>
-      <c r="J43" s="116"/>
-      <c r="K43" s="54"/>
-      <c r="L43" s="117"/>
-      <c r="M43" s="117"/>
-      <c r="N43" s="117"/>
-      <c r="O43" s="117"/>
-      <c r="P43" s="117"/>
-      <c r="Q43" s="117"/>
-      <c r="R43" s="117"/>
-      <c r="S43" s="117"/>
-      <c r="T43" s="117"/>
-      <c r="U43" s="117"/>
-      <c r="V43" s="117"/>
-      <c r="W43" s="57"/>
+      <c r="A43" s="52"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="164"/>
+      <c r="F43" s="128"/>
+      <c r="G43" s="128"/>
+      <c r="H43" s="128"/>
+      <c r="I43" s="103"/>
+      <c r="J43" s="91"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="92"/>
+      <c r="M43" s="92"/>
+      <c r="N43" s="92"/>
+      <c r="O43" s="92"/>
+      <c r="P43" s="92"/>
+      <c r="Q43" s="92"/>
+      <c r="R43" s="92"/>
+      <c r="S43" s="92"/>
+      <c r="T43" s="92"/>
+      <c r="U43" s="92"/>
+      <c r="V43" s="92"/>
+      <c r="W43" s="41"/>
     </row>
     <row r="44" spans="1:23" ht="12" customHeight="1">
-      <c r="A44" s="68"/>
-      <c r="B44" s="68"/>
-      <c r="C44" s="110"/>
-      <c r="D44" s="111"/>
-      <c r="E44" s="132"/>
-      <c r="F44" s="119"/>
-      <c r="G44" s="119"/>
-      <c r="H44" s="154"/>
-      <c r="I44" s="133"/>
-      <c r="J44" s="128"/>
-      <c r="K44" s="59"/>
-      <c r="L44" s="122"/>
-      <c r="M44" s="122"/>
-      <c r="N44" s="122"/>
-      <c r="O44" s="122"/>
-      <c r="P44" s="122"/>
-      <c r="Q44" s="122"/>
-      <c r="R44" s="122"/>
-      <c r="S44" s="122"/>
-      <c r="T44" s="122"/>
-      <c r="U44" s="122"/>
-      <c r="V44" s="122"/>
-      <c r="W44" s="45"/>
+      <c r="A44" s="52"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="86"/>
+      <c r="E44" s="161"/>
+      <c r="F44" s="89"/>
+      <c r="G44" s="89"/>
+      <c r="H44" s="165"/>
+      <c r="I44" s="103"/>
+      <c r="J44" s="99"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="95"/>
+      <c r="M44" s="95"/>
+      <c r="N44" s="95"/>
+      <c r="O44" s="95"/>
+      <c r="P44" s="95"/>
+      <c r="Q44" s="95"/>
+      <c r="R44" s="95"/>
+      <c r="S44" s="95"/>
+      <c r="T44" s="95"/>
+      <c r="U44" s="95"/>
+      <c r="V44" s="95"/>
+      <c r="W44" s="31"/>
     </row>
     <row r="45" spans="1:23" ht="12" customHeight="1">
-      <c r="A45" s="68"/>
-      <c r="B45" s="68"/>
-      <c r="C45" s="83"/>
-      <c r="D45" s="84"/>
-      <c r="E45" s="134"/>
-      <c r="F45" s="125"/>
-      <c r="G45" s="125"/>
-      <c r="H45" s="125"/>
-      <c r="I45" s="135"/>
-      <c r="J45" s="156"/>
-      <c r="K45" s="56"/>
-      <c r="L45" s="55"/>
-      <c r="M45" s="55"/>
-      <c r="N45" s="55"/>
-      <c r="O45" s="55"/>
-      <c r="P45" s="55"/>
-      <c r="Q45" s="55"/>
-      <c r="R45" s="55"/>
-      <c r="S45" s="55"/>
-      <c r="T45" s="55"/>
-      <c r="U45" s="55"/>
-      <c r="V45" s="55"/>
-      <c r="W45" s="106"/>
+      <c r="A45" s="52"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="63"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="162"/>
+      <c r="F45" s="158"/>
+      <c r="G45" s="158"/>
+      <c r="H45" s="158"/>
+      <c r="I45" s="104"/>
+      <c r="J45" s="121"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="39"/>
+      <c r="O45" s="39"/>
+      <c r="P45" s="39"/>
+      <c r="Q45" s="39"/>
+      <c r="R45" s="39"/>
+      <c r="S45" s="39"/>
+      <c r="T45" s="39"/>
+      <c r="U45" s="39"/>
+      <c r="V45" s="39"/>
+      <c r="W45" s="82"/>
     </row>
     <row r="46" spans="1:23" ht="12" customHeight="1">
-      <c r="A46" s="68"/>
-      <c r="B46" s="68"/>
-      <c r="C46" s="74"/>
-      <c r="D46" s="75"/>
-      <c r="E46" s="107"/>
-      <c r="F46" s="157"/>
-      <c r="G46" s="152"/>
-      <c r="H46" s="152"/>
-      <c r="I46" s="158"/>
-      <c r="J46" s="127"/>
-      <c r="K46" s="101"/>
-      <c r="L46" s="102"/>
-      <c r="M46" s="102"/>
-      <c r="N46" s="102"/>
-      <c r="O46" s="102"/>
-      <c r="P46" s="102"/>
-      <c r="Q46" s="102"/>
-      <c r="R46" s="102"/>
-      <c r="S46" s="102"/>
-      <c r="T46" s="102"/>
-      <c r="U46" s="102"/>
-      <c r="V46" s="102"/>
-      <c r="W46" s="103"/>
+      <c r="A46" s="52"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="180"/>
+      <c r="D46" s="181"/>
+      <c r="E46" s="83"/>
+      <c r="F46" s="122"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="166"/>
+      <c r="J46" s="98"/>
+      <c r="K46" s="77"/>
+      <c r="L46" s="78"/>
+      <c r="M46" s="78"/>
+      <c r="N46" s="78"/>
+      <c r="O46" s="78"/>
+      <c r="P46" s="78"/>
+      <c r="Q46" s="78"/>
+      <c r="R46" s="78"/>
+      <c r="S46" s="78"/>
+      <c r="T46" s="78"/>
+      <c r="U46" s="78"/>
+      <c r="V46" s="78"/>
+      <c r="W46" s="79"/>
     </row>
     <row r="47" spans="1:23" ht="12" customHeight="1">
-      <c r="A47" s="68"/>
-      <c r="B47" s="68"/>
-      <c r="C47" s="110"/>
-      <c r="D47" s="111"/>
-      <c r="E47" s="112"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="159"/>
-      <c r="J47" s="116"/>
-      <c r="K47" s="54"/>
-      <c r="L47" s="117"/>
-      <c r="M47" s="117"/>
-      <c r="N47" s="117"/>
-      <c r="O47" s="117"/>
-      <c r="P47" s="117"/>
-      <c r="Q47" s="117"/>
-      <c r="R47" s="117"/>
-      <c r="S47" s="117"/>
-      <c r="T47" s="117"/>
-      <c r="U47" s="117"/>
-      <c r="V47" s="117"/>
-      <c r="W47" s="57"/>
+      <c r="A47" s="52"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="85"/>
+      <c r="D47" s="86"/>
+      <c r="E47" s="87"/>
+      <c r="F47" s="56"/>
+      <c r="G47" s="128"/>
+      <c r="H47" s="128"/>
+      <c r="I47" s="167"/>
+      <c r="J47" s="91"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="92"/>
+      <c r="M47" s="92"/>
+      <c r="N47" s="92"/>
+      <c r="O47" s="92"/>
+      <c r="P47" s="92"/>
+      <c r="Q47" s="92"/>
+      <c r="R47" s="92"/>
+      <c r="S47" s="92"/>
+      <c r="T47" s="92"/>
+      <c r="U47" s="92"/>
+      <c r="V47" s="92"/>
+      <c r="W47" s="41"/>
     </row>
     <row r="48" spans="1:23" ht="12" customHeight="1">
-      <c r="A48" s="68"/>
-      <c r="B48" s="68"/>
-      <c r="C48" s="110"/>
-      <c r="D48" s="111"/>
-      <c r="E48" s="112"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="160"/>
-      <c r="H48" s="161"/>
-      <c r="I48" s="133"/>
-      <c r="J48" s="162"/>
-      <c r="K48" s="59"/>
-      <c r="L48" s="122"/>
-      <c r="M48" s="122"/>
-      <c r="N48" s="122"/>
-      <c r="O48" s="122"/>
-      <c r="P48" s="122"/>
-      <c r="Q48" s="122"/>
-      <c r="R48" s="122"/>
-      <c r="S48" s="122"/>
-      <c r="T48" s="122"/>
-      <c r="U48" s="122"/>
-      <c r="V48" s="122"/>
-      <c r="W48" s="45"/>
+      <c r="A48" s="52"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="85"/>
+      <c r="D48" s="86"/>
+      <c r="E48" s="87"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="123"/>
+      <c r="H48" s="124"/>
+      <c r="I48" s="103"/>
+      <c r="J48" s="125"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="95"/>
+      <c r="M48" s="95"/>
+      <c r="N48" s="95"/>
+      <c r="O48" s="95"/>
+      <c r="P48" s="95"/>
+      <c r="Q48" s="95"/>
+      <c r="R48" s="95"/>
+      <c r="S48" s="95"/>
+      <c r="T48" s="95"/>
+      <c r="U48" s="95"/>
+      <c r="V48" s="95"/>
+      <c r="W48" s="31"/>
     </row>
     <row r="49" spans="1:23" ht="12" customHeight="1">
-      <c r="A49" s="68"/>
-      <c r="B49" s="68"/>
-      <c r="C49" s="83"/>
-      <c r="D49" s="84"/>
-      <c r="E49" s="123"/>
-      <c r="F49" s="163"/>
-      <c r="G49" s="124"/>
-      <c r="H49" s="155"/>
-      <c r="I49" s="135"/>
-      <c r="J49" s="129"/>
-      <c r="K49" s="56"/>
-      <c r="L49" s="55"/>
-      <c r="M49" s="55"/>
-      <c r="N49" s="55"/>
-      <c r="O49" s="55"/>
-      <c r="P49" s="55"/>
-      <c r="Q49" s="55"/>
-      <c r="R49" s="55"/>
-      <c r="S49" s="55"/>
-      <c r="T49" s="55"/>
-      <c r="U49" s="55"/>
-      <c r="V49" s="55"/>
-      <c r="W49" s="106"/>
+      <c r="A49" s="52"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="96"/>
+      <c r="F49" s="126"/>
+      <c r="G49" s="97"/>
+      <c r="H49" s="120"/>
+      <c r="I49" s="104"/>
+      <c r="J49" s="100"/>
+      <c r="K49" s="40"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="39"/>
+      <c r="O49" s="39"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="39"/>
+      <c r="R49" s="39"/>
+      <c r="S49" s="39"/>
+      <c r="T49" s="39"/>
+      <c r="U49" s="39"/>
+      <c r="V49" s="39"/>
+      <c r="W49" s="82"/>
     </row>
     <row r="50" spans="1:23" ht="12" customHeight="1">
-      <c r="A50" s="68"/>
-      <c r="B50" s="68"/>
-      <c r="C50" s="74"/>
-      <c r="D50" s="75"/>
-      <c r="E50" s="107"/>
-      <c r="F50" s="157"/>
-      <c r="G50" s="152"/>
-      <c r="H50" s="152"/>
-      <c r="I50" s="158"/>
-      <c r="J50" s="127"/>
-      <c r="K50" s="101"/>
-      <c r="L50" s="102"/>
-      <c r="M50" s="102"/>
-      <c r="N50" s="102"/>
-      <c r="O50" s="102"/>
-      <c r="P50" s="102"/>
-      <c r="Q50" s="102"/>
-      <c r="R50" s="102"/>
-      <c r="S50" s="102"/>
-      <c r="T50" s="102"/>
-      <c r="U50" s="102"/>
-      <c r="V50" s="102"/>
-      <c r="W50" s="103"/>
+      <c r="A50" s="52"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="180"/>
+      <c r="D50" s="181"/>
+      <c r="E50" s="83"/>
+      <c r="F50" s="122"/>
+      <c r="G50" s="61"/>
+      <c r="H50" s="61"/>
+      <c r="I50" s="166"/>
+      <c r="J50" s="98"/>
+      <c r="K50" s="77"/>
+      <c r="L50" s="78"/>
+      <c r="M50" s="78"/>
+      <c r="N50" s="78"/>
+      <c r="O50" s="78"/>
+      <c r="P50" s="78"/>
+      <c r="Q50" s="78"/>
+      <c r="R50" s="78"/>
+      <c r="S50" s="78"/>
+      <c r="T50" s="78"/>
+      <c r="U50" s="78"/>
+      <c r="V50" s="78"/>
+      <c r="W50" s="79"/>
     </row>
     <row r="51" spans="1:23" ht="12" customHeight="1">
-      <c r="A51" s="68"/>
-      <c r="B51" s="68"/>
-      <c r="C51" s="110"/>
-      <c r="D51" s="111"/>
-      <c r="E51" s="112"/>
-      <c r="F51" s="72"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="159"/>
-      <c r="J51" s="116"/>
-      <c r="K51" s="54"/>
-      <c r="L51" s="117"/>
-      <c r="M51" s="117"/>
-      <c r="N51" s="117"/>
-      <c r="O51" s="117"/>
-      <c r="P51" s="117"/>
-      <c r="Q51" s="117"/>
-      <c r="R51" s="117"/>
-      <c r="S51" s="117"/>
-      <c r="T51" s="117"/>
-      <c r="U51" s="117"/>
-      <c r="V51" s="117"/>
-      <c r="W51" s="57"/>
+      <c r="A51" s="52"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="85"/>
+      <c r="D51" s="86"/>
+      <c r="E51" s="87"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="128"/>
+      <c r="H51" s="128"/>
+      <c r="I51" s="167"/>
+      <c r="J51" s="91"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="92"/>
+      <c r="M51" s="92"/>
+      <c r="N51" s="92"/>
+      <c r="O51" s="92"/>
+      <c r="P51" s="92"/>
+      <c r="Q51" s="92"/>
+      <c r="R51" s="92"/>
+      <c r="S51" s="92"/>
+      <c r="T51" s="92"/>
+      <c r="U51" s="92"/>
+      <c r="V51" s="92"/>
+      <c r="W51" s="41"/>
     </row>
     <row r="52" spans="1:23" ht="12" customHeight="1">
-      <c r="A52" s="68"/>
-      <c r="B52" s="68"/>
-      <c r="C52" s="110"/>
-      <c r="D52" s="111"/>
-      <c r="E52" s="112"/>
-      <c r="F52" s="72"/>
-      <c r="G52" s="160"/>
-      <c r="H52" s="161"/>
-      <c r="I52" s="133"/>
-      <c r="J52" s="162"/>
-      <c r="K52" s="59"/>
-      <c r="L52" s="122"/>
-      <c r="M52" s="122"/>
-      <c r="N52" s="122"/>
-      <c r="O52" s="122"/>
-      <c r="P52" s="122"/>
-      <c r="Q52" s="122"/>
-      <c r="R52" s="122"/>
-      <c r="S52" s="122"/>
-      <c r="T52" s="122"/>
-      <c r="U52" s="122"/>
-      <c r="V52" s="122"/>
-      <c r="W52" s="45"/>
+      <c r="A52" s="52"/>
+      <c r="B52" s="52"/>
+      <c r="C52" s="85"/>
+      <c r="D52" s="86"/>
+      <c r="E52" s="87"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="123"/>
+      <c r="H52" s="124"/>
+      <c r="I52" s="103"/>
+      <c r="J52" s="125"/>
+      <c r="K52" s="43"/>
+      <c r="L52" s="95"/>
+      <c r="M52" s="95"/>
+      <c r="N52" s="95"/>
+      <c r="O52" s="95"/>
+      <c r="P52" s="95"/>
+      <c r="Q52" s="95"/>
+      <c r="R52" s="95"/>
+      <c r="S52" s="95"/>
+      <c r="T52" s="95"/>
+      <c r="U52" s="95"/>
+      <c r="V52" s="95"/>
+      <c r="W52" s="31"/>
     </row>
     <row r="53" spans="1:23" ht="12" customHeight="1">
-      <c r="A53" s="68"/>
-      <c r="B53" s="68"/>
-      <c r="C53" s="83"/>
-      <c r="D53" s="84"/>
-      <c r="E53" s="123"/>
-      <c r="F53" s="163"/>
-      <c r="G53" s="124"/>
-      <c r="H53" s="155"/>
-      <c r="I53" s="135"/>
-      <c r="J53" s="129"/>
-      <c r="K53" s="164"/>
-      <c r="L53" s="165"/>
-      <c r="M53" s="165"/>
-      <c r="N53" s="165"/>
-      <c r="O53" s="165"/>
-      <c r="P53" s="165"/>
-      <c r="Q53" s="165"/>
-      <c r="R53" s="165"/>
-      <c r="S53" s="165"/>
-      <c r="T53" s="165"/>
-      <c r="U53" s="165"/>
-      <c r="V53" s="165"/>
-      <c r="W53" s="166"/>
+      <c r="A53" s="52"/>
+      <c r="B53" s="52"/>
+      <c r="C53" s="63"/>
+      <c r="D53" s="64"/>
+      <c r="E53" s="96"/>
+      <c r="F53" s="126"/>
+      <c r="G53" s="97"/>
+      <c r="H53" s="120"/>
+      <c r="I53" s="104"/>
+      <c r="J53" s="100"/>
+      <c r="K53" s="127"/>
+      <c r="L53" s="128"/>
+      <c r="M53" s="128"/>
+      <c r="N53" s="128"/>
+      <c r="O53" s="128"/>
+      <c r="P53" s="128"/>
+      <c r="Q53" s="128"/>
+      <c r="R53" s="128"/>
+      <c r="S53" s="128"/>
+      <c r="T53" s="128"/>
+      <c r="U53" s="128"/>
+      <c r="V53" s="128"/>
+      <c r="W53" s="129"/>
     </row>
     <row r="55" spans="1:23" ht="12" customHeight="1">
-      <c r="C55" s="167"/>
-      <c r="D55" s="168"/>
-      <c r="E55" s="168"/>
-      <c r="F55" s="168"/>
-      <c r="G55" s="168"/>
-      <c r="H55" s="168"/>
-      <c r="I55" s="168"/>
-      <c r="J55" s="168"/>
-      <c r="K55" s="169"/>
-      <c r="L55" s="169"/>
-      <c r="M55" s="169"/>
-      <c r="N55" s="169"/>
-      <c r="O55" s="169"/>
-      <c r="P55" s="169"/>
-      <c r="Q55" s="169"/>
-      <c r="R55" s="169"/>
-      <c r="S55" s="169"/>
-      <c r="T55" s="169"/>
-      <c r="U55" s="169"/>
-      <c r="V55" s="169"/>
-      <c r="W55" s="169"/>
+      <c r="C55" s="130"/>
+      <c r="D55" s="131"/>
+      <c r="E55" s="131"/>
+      <c r="F55" s="131"/>
+      <c r="G55" s="131"/>
+      <c r="H55" s="131"/>
+      <c r="I55" s="131"/>
+      <c r="J55" s="175"/>
+      <c r="K55" s="132"/>
+      <c r="L55" s="132"/>
+      <c r="M55" s="132"/>
+      <c r="N55" s="132"/>
+      <c r="O55" s="132"/>
+      <c r="P55" s="132"/>
+      <c r="Q55" s="132"/>
+      <c r="R55" s="132"/>
+      <c r="S55" s="132"/>
+      <c r="T55" s="132"/>
+      <c r="U55" s="132"/>
+      <c r="V55" s="132"/>
+      <c r="W55" s="132"/>
     </row>
     <row r="56" spans="1:23" ht="12" customHeight="1">
-      <c r="C56" s="170"/>
-      <c r="D56" s="171"/>
-      <c r="E56" s="171"/>
-      <c r="F56" s="171"/>
-      <c r="G56" s="171"/>
-      <c r="H56" s="171"/>
-      <c r="I56" s="171"/>
-      <c r="J56" s="171"/>
-      <c r="K56" s="172"/>
-      <c r="L56" s="172"/>
-      <c r="M56" s="172"/>
-      <c r="N56" s="172"/>
-      <c r="O56" s="172"/>
-      <c r="P56" s="172"/>
-      <c r="Q56" s="172"/>
-      <c r="R56" s="172"/>
-      <c r="S56" s="172"/>
-      <c r="T56" s="172"/>
-      <c r="U56" s="172"/>
-      <c r="V56" s="172"/>
-      <c r="W56" s="173"/>
+      <c r="C56" s="133"/>
+      <c r="D56" s="134"/>
+      <c r="E56" s="134"/>
+      <c r="F56" s="134"/>
+      <c r="G56" s="134"/>
+      <c r="H56" s="134"/>
+      <c r="I56" s="134"/>
+      <c r="J56" s="176"/>
+      <c r="K56" s="135"/>
+      <c r="L56" s="135"/>
+      <c r="M56" s="135"/>
+      <c r="N56" s="135"/>
+      <c r="O56" s="135"/>
+      <c r="P56" s="135"/>
+      <c r="Q56" s="135"/>
+      <c r="R56" s="135"/>
+      <c r="S56" s="135"/>
+      <c r="T56" s="135"/>
+      <c r="U56" s="135"/>
+      <c r="V56" s="135"/>
+      <c r="W56" s="136"/>
     </row>
     <row r="57" spans="1:23" ht="12" customHeight="1">
-      <c r="C57" s="170"/>
-      <c r="D57" s="171"/>
-      <c r="E57" s="171"/>
-      <c r="F57" s="171"/>
-      <c r="G57" s="171"/>
-      <c r="H57" s="171"/>
-      <c r="I57" s="171"/>
-      <c r="J57" s="171"/>
-      <c r="K57" s="172"/>
-      <c r="L57" s="172"/>
-      <c r="M57" s="172"/>
-      <c r="N57" s="172"/>
-      <c r="O57" s="172"/>
-      <c r="P57" s="172"/>
-      <c r="Q57" s="172"/>
-      <c r="R57" s="172"/>
-      <c r="S57" s="172"/>
-      <c r="T57" s="172"/>
-      <c r="U57" s="172"/>
-      <c r="V57" s="172"/>
-      <c r="W57" s="173"/>
+      <c r="C57" s="133"/>
+      <c r="D57" s="134"/>
+      <c r="E57" s="134"/>
+      <c r="F57" s="134"/>
+      <c r="G57" s="134"/>
+      <c r="H57" s="134"/>
+      <c r="I57" s="134"/>
+      <c r="J57" s="176"/>
+      <c r="K57" s="135"/>
+      <c r="L57" s="135"/>
+      <c r="M57" s="135"/>
+      <c r="N57" s="135"/>
+      <c r="O57" s="135"/>
+      <c r="P57" s="135"/>
+      <c r="Q57" s="135"/>
+      <c r="R57" s="135"/>
+      <c r="S57" s="135"/>
+      <c r="T57" s="135"/>
+      <c r="U57" s="135"/>
+      <c r="V57" s="135"/>
+      <c r="W57" s="136"/>
     </row>
     <row r="58" spans="1:23" ht="12" customHeight="1">
-      <c r="C58" s="170"/>
-      <c r="D58" s="171"/>
-      <c r="E58" s="171"/>
-      <c r="F58" s="171"/>
-      <c r="G58" s="171"/>
-      <c r="H58" s="171"/>
-      <c r="I58" s="171"/>
-      <c r="J58" s="171"/>
-      <c r="K58" s="172"/>
-      <c r="L58" s="172"/>
-      <c r="M58" s="172"/>
-      <c r="N58" s="172"/>
-      <c r="O58" s="172"/>
-      <c r="P58" s="172"/>
-      <c r="Q58" s="172"/>
-      <c r="R58" s="172"/>
-      <c r="S58" s="172"/>
-      <c r="T58" s="172"/>
-      <c r="U58" s="172"/>
-      <c r="V58" s="172"/>
-      <c r="W58" s="173"/>
+      <c r="C58" s="133"/>
+      <c r="D58" s="134"/>
+      <c r="E58" s="134"/>
+      <c r="F58" s="134"/>
+      <c r="G58" s="134"/>
+      <c r="H58" s="134"/>
+      <c r="I58" s="134"/>
+      <c r="J58" s="176"/>
+      <c r="K58" s="135"/>
+      <c r="L58" s="135"/>
+      <c r="M58" s="135"/>
+      <c r="N58" s="135"/>
+      <c r="O58" s="135"/>
+      <c r="P58" s="135"/>
+      <c r="Q58" s="135"/>
+      <c r="R58" s="135"/>
+      <c r="S58" s="135"/>
+      <c r="T58" s="135"/>
+      <c r="U58" s="135"/>
+      <c r="V58" s="135"/>
+      <c r="W58" s="136"/>
     </row>
     <row r="59" spans="1:23" ht="12" customHeight="1">
-      <c r="C59" s="170"/>
-      <c r="D59" s="171"/>
-      <c r="E59" s="171"/>
-      <c r="F59" s="171"/>
-      <c r="G59" s="171"/>
-      <c r="H59" s="171"/>
-      <c r="I59" s="171"/>
-      <c r="J59" s="171"/>
-      <c r="K59" s="172"/>
-      <c r="L59" s="172"/>
-      <c r="M59" s="172"/>
-      <c r="N59" s="172"/>
-      <c r="O59" s="172"/>
-      <c r="P59" s="172"/>
-      <c r="Q59" s="172"/>
-      <c r="R59" s="172"/>
-      <c r="S59" s="172"/>
-      <c r="T59" s="172"/>
-      <c r="U59" s="172"/>
-      <c r="V59" s="172"/>
-      <c r="W59" s="173"/>
+      <c r="C59" s="133"/>
+      <c r="D59" s="134"/>
+      <c r="E59" s="134"/>
+      <c r="F59" s="134"/>
+      <c r="G59" s="134"/>
+      <c r="H59" s="134"/>
+      <c r="I59" s="134"/>
+      <c r="J59" s="176"/>
+      <c r="K59" s="135"/>
+      <c r="L59" s="135"/>
+      <c r="M59" s="135"/>
+      <c r="N59" s="135"/>
+      <c r="O59" s="135"/>
+      <c r="P59" s="135"/>
+      <c r="Q59" s="135"/>
+      <c r="R59" s="135"/>
+      <c r="S59" s="135"/>
+      <c r="T59" s="135"/>
+      <c r="U59" s="135"/>
+      <c r="V59" s="135"/>
+      <c r="W59" s="136"/>
     </row>
     <row r="60" spans="1:23" ht="12" customHeight="1">
-      <c r="C60" s="170"/>
-      <c r="D60" s="171"/>
-      <c r="E60" s="171"/>
-      <c r="F60" s="171"/>
-      <c r="G60" s="171"/>
-      <c r="H60" s="171"/>
-      <c r="I60" s="171"/>
-      <c r="J60" s="171"/>
-      <c r="K60" s="172"/>
-      <c r="L60" s="172"/>
-      <c r="M60" s="172"/>
-      <c r="N60" s="172"/>
-      <c r="O60" s="172"/>
-      <c r="P60" s="172"/>
-      <c r="Q60" s="172"/>
-      <c r="R60" s="172"/>
-      <c r="S60" s="172"/>
-      <c r="T60" s="172"/>
-      <c r="U60" s="172"/>
-      <c r="V60" s="172"/>
-      <c r="W60" s="173"/>
+      <c r="C60" s="133"/>
+      <c r="D60" s="134"/>
+      <c r="E60" s="134"/>
+      <c r="F60" s="134"/>
+      <c r="G60" s="134"/>
+      <c r="H60" s="134"/>
+      <c r="I60" s="134"/>
+      <c r="J60" s="176"/>
+      <c r="K60" s="135"/>
+      <c r="L60" s="135"/>
+      <c r="M60" s="135"/>
+      <c r="N60" s="135"/>
+      <c r="O60" s="135"/>
+      <c r="P60" s="135"/>
+      <c r="Q60" s="135"/>
+      <c r="R60" s="135"/>
+      <c r="S60" s="135"/>
+      <c r="T60" s="135"/>
+      <c r="U60" s="135"/>
+      <c r="V60" s="135"/>
+      <c r="W60" s="136"/>
     </row>
     <row r="61" spans="1:23" ht="12" customHeight="1">
-      <c r="C61" s="170"/>
-      <c r="D61" s="171"/>
-      <c r="E61" s="171"/>
-      <c r="F61" s="171"/>
-      <c r="G61" s="171"/>
-      <c r="H61" s="171"/>
-      <c r="I61" s="171"/>
-      <c r="J61" s="171"/>
-      <c r="K61" s="172"/>
-      <c r="L61" s="172"/>
-      <c r="M61" s="172"/>
-      <c r="N61" s="172"/>
-      <c r="O61" s="172"/>
-      <c r="P61" s="172"/>
-      <c r="Q61" s="172"/>
-      <c r="R61" s="172"/>
-      <c r="S61" s="172"/>
-      <c r="T61" s="172"/>
-      <c r="U61" s="172"/>
-      <c r="V61" s="172"/>
-      <c r="W61" s="173"/>
+      <c r="C61" s="133"/>
+      <c r="D61" s="134"/>
+      <c r="E61" s="134"/>
+      <c r="F61" s="134"/>
+      <c r="G61" s="134"/>
+      <c r="H61" s="134"/>
+      <c r="I61" s="134"/>
+      <c r="J61" s="176"/>
+      <c r="K61" s="135"/>
+      <c r="L61" s="135"/>
+      <c r="M61" s="135"/>
+      <c r="N61" s="135"/>
+      <c r="O61" s="135"/>
+      <c r="P61" s="135"/>
+      <c r="Q61" s="135"/>
+      <c r="R61" s="135"/>
+      <c r="S61" s="135"/>
+      <c r="T61" s="135"/>
+      <c r="U61" s="135"/>
+      <c r="V61" s="135"/>
+      <c r="W61" s="136"/>
     </row>
     <row r="64" spans="1:23" ht="12" customHeight="1">
-      <c r="C64" s="74"/>
-      <c r="D64" s="75"/>
-      <c r="E64" s="76"/>
-      <c r="F64" s="77"/>
-      <c r="G64" s="77"/>
-      <c r="H64" s="77"/>
-      <c r="I64" s="99"/>
-      <c r="J64" s="174"/>
-      <c r="K64" s="80"/>
-      <c r="L64" s="81"/>
-      <c r="M64" s="81"/>
-      <c r="N64" s="81"/>
-      <c r="O64" s="81"/>
-      <c r="P64" s="81"/>
-      <c r="Q64" s="81"/>
-      <c r="R64" s="81"/>
-      <c r="S64" s="81"/>
-      <c r="T64" s="81"/>
-      <c r="U64" s="81"/>
-      <c r="V64" s="81"/>
-      <c r="W64" s="82"/>
+      <c r="C64" s="180"/>
+      <c r="D64" s="181"/>
+      <c r="E64" s="153"/>
+      <c r="F64" s="154"/>
+      <c r="G64" s="154"/>
+      <c r="H64" s="154"/>
+      <c r="I64" s="168"/>
+      <c r="J64" s="137"/>
+      <c r="K64" s="60"/>
+      <c r="L64" s="61"/>
+      <c r="M64" s="61"/>
+      <c r="N64" s="61"/>
+      <c r="O64" s="61"/>
+      <c r="P64" s="61"/>
+      <c r="Q64" s="61"/>
+      <c r="R64" s="61"/>
+      <c r="S64" s="61"/>
+      <c r="T64" s="61"/>
+      <c r="U64" s="61"/>
+      <c r="V64" s="61"/>
+      <c r="W64" s="62"/>
     </row>
     <row r="65" spans="1:23" ht="12" customHeight="1">
-      <c r="C65" s="83"/>
-      <c r="D65" s="84"/>
-      <c r="E65" s="85"/>
-      <c r="F65" s="86"/>
-      <c r="G65" s="86"/>
-      <c r="H65" s="86"/>
-      <c r="I65" s="104"/>
-      <c r="J65" s="88"/>
-      <c r="K65" s="175"/>
-      <c r="L65" s="176"/>
-      <c r="M65" s="176"/>
-      <c r="N65" s="176"/>
-      <c r="O65" s="176"/>
-      <c r="P65" s="176"/>
-      <c r="Q65" s="176"/>
-      <c r="R65" s="176"/>
-      <c r="S65" s="176"/>
-      <c r="T65" s="176"/>
-      <c r="U65" s="176"/>
-      <c r="V65" s="176"/>
-      <c r="W65" s="45"/>
+      <c r="C65" s="63"/>
+      <c r="D65" s="64"/>
+      <c r="E65" s="155"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="72"/>
+      <c r="H65" s="72"/>
+      <c r="I65" s="169"/>
+      <c r="J65" s="66"/>
+      <c r="K65" s="138"/>
+      <c r="L65" s="139"/>
+      <c r="M65" s="139"/>
+      <c r="N65" s="139"/>
+      <c r="O65" s="139"/>
+      <c r="P65" s="139"/>
+      <c r="Q65" s="139"/>
+      <c r="R65" s="139"/>
+      <c r="S65" s="139"/>
+      <c r="T65" s="139"/>
+      <c r="U65" s="139"/>
+      <c r="V65" s="139"/>
+      <c r="W65" s="31"/>
     </row>
     <row r="66" spans="1:23" ht="12" customHeight="1">
-      <c r="A66" s="68"/>
-      <c r="B66" s="68"/>
-      <c r="C66" s="74"/>
-      <c r="D66" s="75"/>
-      <c r="E66" s="107"/>
-      <c r="F66" s="108"/>
-      <c r="G66" s="108"/>
-      <c r="H66" s="108"/>
-      <c r="I66" s="109"/>
-      <c r="J66" s="174"/>
-      <c r="K66" s="80"/>
-      <c r="L66" s="81"/>
-      <c r="M66" s="81"/>
-      <c r="N66" s="81"/>
-      <c r="O66" s="81"/>
-      <c r="P66" s="81"/>
-      <c r="Q66" s="81"/>
-      <c r="R66" s="81"/>
-      <c r="S66" s="81"/>
-      <c r="T66" s="81"/>
-      <c r="U66" s="81"/>
-      <c r="V66" s="81"/>
-      <c r="W66" s="82"/>
+      <c r="A66" s="52"/>
+      <c r="B66" s="52"/>
+      <c r="C66" s="180"/>
+      <c r="D66" s="181"/>
+      <c r="E66" s="83"/>
+      <c r="F66" s="73"/>
+      <c r="G66" s="73"/>
+      <c r="H66" s="73"/>
+      <c r="I66" s="156"/>
+      <c r="J66" s="137"/>
+      <c r="K66" s="60"/>
+      <c r="L66" s="61"/>
+      <c r="M66" s="61"/>
+      <c r="N66" s="61"/>
+      <c r="O66" s="61"/>
+      <c r="P66" s="61"/>
+      <c r="Q66" s="61"/>
+      <c r="R66" s="61"/>
+      <c r="S66" s="61"/>
+      <c r="T66" s="61"/>
+      <c r="U66" s="61"/>
+      <c r="V66" s="61"/>
+      <c r="W66" s="62"/>
     </row>
     <row r="67" spans="1:23" ht="12" customHeight="1">
-      <c r="A67" s="68"/>
-      <c r="B67" s="68"/>
-      <c r="C67" s="110"/>
-      <c r="D67" s="111"/>
-      <c r="E67" s="112"/>
-      <c r="F67" s="113"/>
-      <c r="G67" s="114"/>
-      <c r="H67" s="114"/>
-      <c r="I67" s="115"/>
-      <c r="J67" s="121"/>
-      <c r="K67" s="42"/>
-      <c r="L67" s="43"/>
-      <c r="M67" s="43"/>
-      <c r="N67" s="43"/>
-      <c r="O67" s="43"/>
-      <c r="P67" s="43"/>
-      <c r="Q67" s="43"/>
-      <c r="R67" s="43"/>
-      <c r="S67" s="43"/>
-      <c r="T67" s="43"/>
-      <c r="U67" s="43"/>
-      <c r="V67" s="43"/>
-      <c r="W67" s="45"/>
+      <c r="A67" s="52"/>
+      <c r="B67" s="52"/>
+      <c r="C67" s="85"/>
+      <c r="D67" s="86"/>
+      <c r="E67" s="87"/>
+      <c r="F67" s="88"/>
+      <c r="G67" s="89"/>
+      <c r="H67" s="89"/>
+      <c r="I67" s="90"/>
+      <c r="J67" s="94"/>
+      <c r="K67" s="28"/>
+      <c r="L67" s="29"/>
+      <c r="M67" s="29"/>
+      <c r="N67" s="29"/>
+      <c r="O67" s="29"/>
+      <c r="P67" s="29"/>
+      <c r="Q67" s="29"/>
+      <c r="R67" s="29"/>
+      <c r="S67" s="29"/>
+      <c r="T67" s="29"/>
+      <c r="U67" s="29"/>
+      <c r="V67" s="29"/>
+      <c r="W67" s="31"/>
     </row>
     <row r="68" spans="1:23" ht="12" customHeight="1">
-      <c r="A68" s="68"/>
-      <c r="B68" s="68"/>
-      <c r="C68" s="110"/>
-      <c r="D68" s="111"/>
-      <c r="E68" s="112"/>
-      <c r="F68" s="118"/>
-      <c r="G68" s="119"/>
-      <c r="H68" s="119"/>
-      <c r="I68" s="120"/>
-      <c r="J68" s="105"/>
-      <c r="K68" s="56"/>
-      <c r="L68" s="55"/>
-      <c r="M68" s="55"/>
-      <c r="N68" s="55"/>
-      <c r="O68" s="55"/>
-      <c r="P68" s="55"/>
-      <c r="Q68" s="55"/>
-      <c r="R68" s="55"/>
-      <c r="S68" s="55"/>
-      <c r="T68" s="55"/>
-      <c r="U68" s="55"/>
-      <c r="V68" s="55"/>
-      <c r="W68" s="106"/>
+      <c r="A68" s="52"/>
+      <c r="B68" s="52"/>
+      <c r="C68" s="85"/>
+      <c r="D68" s="86"/>
+      <c r="E68" s="87"/>
+      <c r="F68" s="88"/>
+      <c r="G68" s="89"/>
+      <c r="H68" s="89"/>
+      <c r="I68" s="90"/>
+      <c r="J68" s="81"/>
+      <c r="K68" s="40"/>
+      <c r="L68" s="39"/>
+      <c r="M68" s="39"/>
+      <c r="N68" s="39"/>
+      <c r="O68" s="39"/>
+      <c r="P68" s="39"/>
+      <c r="Q68" s="39"/>
+      <c r="R68" s="39"/>
+      <c r="S68" s="39"/>
+      <c r="T68" s="39"/>
+      <c r="U68" s="39"/>
+      <c r="V68" s="39"/>
+      <c r="W68" s="82"/>
     </row>
     <row r="69" spans="1:23" ht="12" customHeight="1">
-      <c r="A69" s="68"/>
-      <c r="B69" s="68"/>
-      <c r="C69" s="83"/>
-      <c r="D69" s="84"/>
-      <c r="E69" s="123"/>
-      <c r="F69" s="124"/>
-      <c r="G69" s="125"/>
-      <c r="H69" s="125"/>
-      <c r="I69" s="126"/>
-      <c r="J69" s="88"/>
-      <c r="K69" s="175"/>
-      <c r="L69" s="176"/>
-      <c r="M69" s="176"/>
-      <c r="N69" s="176"/>
-      <c r="O69" s="176"/>
-      <c r="P69" s="176"/>
-      <c r="Q69" s="176"/>
-      <c r="R69" s="176"/>
-      <c r="S69" s="176"/>
-      <c r="T69" s="176"/>
-      <c r="U69" s="176"/>
-      <c r="V69" s="176"/>
-      <c r="W69" s="45"/>
+      <c r="A69" s="52"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="63"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="96"/>
+      <c r="F69" s="157"/>
+      <c r="G69" s="158"/>
+      <c r="H69" s="158"/>
+      <c r="I69" s="159"/>
+      <c r="J69" s="66"/>
+      <c r="K69" s="138"/>
+      <c r="L69" s="139"/>
+      <c r="M69" s="139"/>
+      <c r="N69" s="139"/>
+      <c r="O69" s="139"/>
+      <c r="P69" s="139"/>
+      <c r="Q69" s="139"/>
+      <c r="R69" s="139"/>
+      <c r="S69" s="139"/>
+      <c r="T69" s="139"/>
+      <c r="U69" s="139"/>
+      <c r="V69" s="139"/>
+      <c r="W69" s="31"/>
     </row>
     <row r="70" spans="1:23" ht="12" customHeight="1">
-      <c r="A70" s="68"/>
-      <c r="B70" s="68"/>
-      <c r="C70" s="74"/>
-      <c r="D70" s="75"/>
-      <c r="E70" s="107"/>
-      <c r="F70" s="108"/>
-      <c r="G70" s="108"/>
-      <c r="H70" s="108"/>
-      <c r="I70" s="109"/>
-      <c r="J70" s="174"/>
-      <c r="K70" s="80"/>
-      <c r="L70" s="81"/>
-      <c r="M70" s="81"/>
-      <c r="N70" s="81"/>
-      <c r="O70" s="81"/>
-      <c r="P70" s="81"/>
-      <c r="Q70" s="81"/>
-      <c r="R70" s="81"/>
-      <c r="S70" s="81"/>
-      <c r="T70" s="81"/>
-      <c r="U70" s="81"/>
-      <c r="V70" s="81"/>
-      <c r="W70" s="82"/>
+      <c r="A70" s="52"/>
+      <c r="B70" s="52"/>
+      <c r="C70" s="180"/>
+      <c r="D70" s="181"/>
+      <c r="E70" s="83"/>
+      <c r="F70" s="73"/>
+      <c r="G70" s="73"/>
+      <c r="H70" s="73"/>
+      <c r="I70" s="156"/>
+      <c r="J70" s="137"/>
+      <c r="K70" s="60"/>
+      <c r="L70" s="61"/>
+      <c r="M70" s="61"/>
+      <c r="N70" s="61"/>
+      <c r="O70" s="61"/>
+      <c r="P70" s="61"/>
+      <c r="Q70" s="61"/>
+      <c r="R70" s="61"/>
+      <c r="S70" s="61"/>
+      <c r="T70" s="61"/>
+      <c r="U70" s="61"/>
+      <c r="V70" s="61"/>
+      <c r="W70" s="62"/>
     </row>
     <row r="71" spans="1:23" ht="12" customHeight="1">
-      <c r="A71" s="68"/>
-      <c r="B71" s="68"/>
-      <c r="C71" s="110"/>
-      <c r="D71" s="111"/>
-      <c r="E71" s="112"/>
-      <c r="F71" s="118"/>
-      <c r="G71" s="119"/>
-      <c r="H71" s="119"/>
-      <c r="I71" s="120"/>
-      <c r="J71" s="121"/>
-      <c r="K71" s="42"/>
-      <c r="L71" s="43"/>
-      <c r="M71" s="43"/>
-      <c r="N71" s="43"/>
-      <c r="O71" s="43"/>
-      <c r="P71" s="43"/>
-      <c r="Q71" s="43"/>
-      <c r="R71" s="43"/>
-      <c r="S71" s="43"/>
-      <c r="T71" s="43"/>
-      <c r="U71" s="43"/>
-      <c r="V71" s="43"/>
-      <c r="W71" s="177"/>
+      <c r="A71" s="52"/>
+      <c r="B71" s="52"/>
+      <c r="C71" s="85"/>
+      <c r="D71" s="86"/>
+      <c r="E71" s="87"/>
+      <c r="F71" s="88"/>
+      <c r="G71" s="89"/>
+      <c r="H71" s="89"/>
+      <c r="I71" s="90"/>
+      <c r="J71" s="94"/>
+      <c r="K71" s="28"/>
+      <c r="L71" s="29"/>
+      <c r="M71" s="29"/>
+      <c r="N71" s="29"/>
+      <c r="O71" s="29"/>
+      <c r="P71" s="29"/>
+      <c r="Q71" s="29"/>
+      <c r="R71" s="29"/>
+      <c r="S71" s="29"/>
+      <c r="T71" s="29"/>
+      <c r="U71" s="29"/>
+      <c r="V71" s="29"/>
+      <c r="W71" s="140"/>
     </row>
     <row r="72" spans="1:23" ht="12" customHeight="1">
-      <c r="A72" s="68"/>
-      <c r="B72" s="68"/>
-      <c r="C72" s="110"/>
-      <c r="D72" s="111"/>
-      <c r="E72" s="112"/>
-      <c r="F72" s="118"/>
-      <c r="G72" s="119"/>
-      <c r="H72" s="119"/>
-      <c r="I72" s="120"/>
-      <c r="J72" s="105"/>
-      <c r="K72" s="56"/>
-      <c r="L72" s="55"/>
-      <c r="M72" s="55"/>
-      <c r="N72" s="55"/>
-      <c r="O72" s="55"/>
-      <c r="P72" s="55"/>
-      <c r="Q72" s="55"/>
-      <c r="R72" s="55"/>
-      <c r="S72" s="55"/>
-      <c r="T72" s="55"/>
-      <c r="U72" s="55"/>
-      <c r="V72" s="55"/>
-      <c r="W72" s="106"/>
+      <c r="A72" s="52"/>
+      <c r="B72" s="52"/>
+      <c r="C72" s="85"/>
+      <c r="D72" s="86"/>
+      <c r="E72" s="87"/>
+      <c r="F72" s="88"/>
+      <c r="G72" s="89"/>
+      <c r="H72" s="89"/>
+      <c r="I72" s="90"/>
+      <c r="J72" s="81"/>
+      <c r="K72" s="40"/>
+      <c r="L72" s="39"/>
+      <c r="M72" s="39"/>
+      <c r="N72" s="39"/>
+      <c r="O72" s="39"/>
+      <c r="P72" s="39"/>
+      <c r="Q72" s="39"/>
+      <c r="R72" s="39"/>
+      <c r="S72" s="39"/>
+      <c r="T72" s="39"/>
+      <c r="U72" s="39"/>
+      <c r="V72" s="39"/>
+      <c r="W72" s="82"/>
     </row>
     <row r="73" spans="1:23" ht="12" customHeight="1">
-      <c r="A73" s="68"/>
-      <c r="B73" s="68"/>
-      <c r="C73" s="83"/>
-      <c r="D73" s="84"/>
-      <c r="E73" s="123"/>
-      <c r="F73" s="124"/>
-      <c r="G73" s="125"/>
-      <c r="H73" s="125"/>
-      <c r="I73" s="126"/>
-      <c r="J73" s="88"/>
-      <c r="K73" s="175"/>
-      <c r="L73" s="176"/>
-      <c r="M73" s="176"/>
-      <c r="N73" s="176"/>
-      <c r="O73" s="176"/>
-      <c r="P73" s="176"/>
-      <c r="Q73" s="176"/>
-      <c r="R73" s="176"/>
-      <c r="S73" s="176"/>
-      <c r="T73" s="176"/>
-      <c r="U73" s="176"/>
-      <c r="V73" s="176"/>
-      <c r="W73" s="45"/>
+      <c r="A73" s="52"/>
+      <c r="B73" s="52"/>
+      <c r="C73" s="63"/>
+      <c r="D73" s="64"/>
+      <c r="E73" s="96"/>
+      <c r="F73" s="157"/>
+      <c r="G73" s="158"/>
+      <c r="H73" s="158"/>
+      <c r="I73" s="159"/>
+      <c r="J73" s="66"/>
+      <c r="K73" s="138"/>
+      <c r="L73" s="139"/>
+      <c r="M73" s="139"/>
+      <c r="N73" s="139"/>
+      <c r="O73" s="139"/>
+      <c r="P73" s="139"/>
+      <c r="Q73" s="139"/>
+      <c r="R73" s="139"/>
+      <c r="S73" s="139"/>
+      <c r="T73" s="139"/>
+      <c r="U73" s="139"/>
+      <c r="V73" s="139"/>
+      <c r="W73" s="31"/>
     </row>
     <row r="74" spans="1:23" ht="12" customHeight="1">
-      <c r="A74" s="68"/>
-      <c r="B74" s="68"/>
-      <c r="C74" s="74"/>
-      <c r="D74" s="75"/>
-      <c r="E74" s="130"/>
-      <c r="F74" s="108"/>
-      <c r="G74" s="108"/>
-      <c r="H74" s="108"/>
-      <c r="I74" s="131"/>
-      <c r="J74" s="174"/>
-      <c r="K74" s="80"/>
-      <c r="L74" s="81"/>
-      <c r="M74" s="81"/>
-      <c r="N74" s="81"/>
-      <c r="O74" s="81"/>
-      <c r="P74" s="81"/>
-      <c r="Q74" s="81"/>
-      <c r="R74" s="81"/>
-      <c r="S74" s="81"/>
-      <c r="T74" s="81"/>
-      <c r="U74" s="81"/>
-      <c r="V74" s="81"/>
-      <c r="W74" s="82"/>
+      <c r="A74" s="52"/>
+      <c r="B74" s="52"/>
+      <c r="C74" s="180"/>
+      <c r="D74" s="181"/>
+      <c r="E74" s="160"/>
+      <c r="F74" s="73"/>
+      <c r="G74" s="73"/>
+      <c r="H74" s="73"/>
+      <c r="I74" s="101"/>
+      <c r="J74" s="137"/>
+      <c r="K74" s="60"/>
+      <c r="L74" s="61"/>
+      <c r="M74" s="61"/>
+      <c r="N74" s="61"/>
+      <c r="O74" s="61"/>
+      <c r="P74" s="61"/>
+      <c r="Q74" s="61"/>
+      <c r="R74" s="61"/>
+      <c r="S74" s="61"/>
+      <c r="T74" s="61"/>
+      <c r="U74" s="61"/>
+      <c r="V74" s="61"/>
+      <c r="W74" s="62"/>
     </row>
     <row r="75" spans="1:23" ht="12" customHeight="1">
-      <c r="A75" s="68"/>
-      <c r="B75" s="68"/>
-      <c r="C75" s="110"/>
-      <c r="D75" s="111"/>
-      <c r="E75" s="132"/>
-      <c r="F75" s="119"/>
-      <c r="G75" s="119"/>
-      <c r="H75" s="119"/>
-      <c r="I75" s="133"/>
-      <c r="J75" s="121"/>
-      <c r="K75" s="42"/>
-      <c r="L75" s="43"/>
-      <c r="M75" s="43"/>
-      <c r="N75" s="43"/>
-      <c r="O75" s="43"/>
-      <c r="P75" s="43"/>
-      <c r="Q75" s="43"/>
-      <c r="R75" s="43"/>
-      <c r="S75" s="43"/>
-      <c r="T75" s="43"/>
-      <c r="U75" s="43"/>
-      <c r="V75" s="43"/>
-      <c r="W75" s="45"/>
+      <c r="A75" s="52"/>
+      <c r="B75" s="52"/>
+      <c r="C75" s="85"/>
+      <c r="D75" s="86"/>
+      <c r="E75" s="161"/>
+      <c r="F75" s="89"/>
+      <c r="G75" s="89"/>
+      <c r="H75" s="89"/>
+      <c r="I75" s="103"/>
+      <c r="J75" s="94"/>
+      <c r="K75" s="28"/>
+      <c r="L75" s="29"/>
+      <c r="M75" s="29"/>
+      <c r="N75" s="29"/>
+      <c r="O75" s="29"/>
+      <c r="P75" s="29"/>
+      <c r="Q75" s="29"/>
+      <c r="R75" s="29"/>
+      <c r="S75" s="29"/>
+      <c r="T75" s="29"/>
+      <c r="U75" s="29"/>
+      <c r="V75" s="29"/>
+      <c r="W75" s="31"/>
     </row>
     <row r="76" spans="1:23" ht="12" customHeight="1">
-      <c r="A76" s="68"/>
-      <c r="B76" s="68"/>
-      <c r="C76" s="110"/>
-      <c r="D76" s="111"/>
-      <c r="E76" s="132"/>
-      <c r="F76" s="119"/>
-      <c r="G76" s="119"/>
-      <c r="H76" s="119"/>
-      <c r="I76" s="133"/>
-      <c r="J76" s="105"/>
-      <c r="K76" s="56"/>
-      <c r="L76" s="55"/>
-      <c r="M76" s="55"/>
-      <c r="N76" s="55"/>
-      <c r="O76" s="55"/>
-      <c r="P76" s="55"/>
-      <c r="Q76" s="55"/>
-      <c r="R76" s="55"/>
-      <c r="S76" s="55"/>
-      <c r="T76" s="55"/>
-      <c r="U76" s="55"/>
-      <c r="V76" s="55"/>
-      <c r="W76" s="106"/>
+      <c r="A76" s="52"/>
+      <c r="B76" s="52"/>
+      <c r="C76" s="85"/>
+      <c r="D76" s="86"/>
+      <c r="E76" s="161"/>
+      <c r="F76" s="89"/>
+      <c r="G76" s="89"/>
+      <c r="H76" s="89"/>
+      <c r="I76" s="103"/>
+      <c r="J76" s="81"/>
+      <c r="K76" s="40"/>
+      <c r="L76" s="39"/>
+      <c r="M76" s="39"/>
+      <c r="N76" s="39"/>
+      <c r="O76" s="39"/>
+      <c r="P76" s="39"/>
+      <c r="Q76" s="39"/>
+      <c r="R76" s="39"/>
+      <c r="S76" s="39"/>
+      <c r="T76" s="39"/>
+      <c r="U76" s="39"/>
+      <c r="V76" s="39"/>
+      <c r="W76" s="82"/>
     </row>
     <row r="77" spans="1:23" ht="12" customHeight="1">
-      <c r="A77" s="68"/>
-      <c r="B77" s="68"/>
-      <c r="C77" s="83"/>
-      <c r="D77" s="84"/>
-      <c r="E77" s="134"/>
-      <c r="F77" s="125"/>
-      <c r="G77" s="125"/>
-      <c r="H77" s="125"/>
-      <c r="I77" s="135"/>
-      <c r="J77" s="88"/>
-      <c r="K77" s="175"/>
-      <c r="L77" s="176"/>
-      <c r="M77" s="176"/>
-      <c r="N77" s="176"/>
-      <c r="O77" s="176"/>
-      <c r="P77" s="176"/>
-      <c r="Q77" s="176"/>
-      <c r="R77" s="176"/>
-      <c r="S77" s="176"/>
-      <c r="T77" s="176"/>
-      <c r="U77" s="176"/>
-      <c r="V77" s="176"/>
-      <c r="W77" s="45"/>
+      <c r="A77" s="52"/>
+      <c r="B77" s="52"/>
+      <c r="C77" s="63"/>
+      <c r="D77" s="64"/>
+      <c r="E77" s="162"/>
+      <c r="F77" s="158"/>
+      <c r="G77" s="158"/>
+      <c r="H77" s="158"/>
+      <c r="I77" s="104"/>
+      <c r="J77" s="66"/>
+      <c r="K77" s="138"/>
+      <c r="L77" s="139"/>
+      <c r="M77" s="139"/>
+      <c r="N77" s="139"/>
+      <c r="O77" s="139"/>
+      <c r="P77" s="139"/>
+      <c r="Q77" s="139"/>
+      <c r="R77" s="139"/>
+      <c r="S77" s="139"/>
+      <c r="T77" s="139"/>
+      <c r="U77" s="139"/>
+      <c r="V77" s="139"/>
+      <c r="W77" s="31"/>
     </row>
     <row r="78" spans="1:23" ht="12" customHeight="1">
-      <c r="A78" s="68"/>
-      <c r="B78" s="68"/>
-      <c r="C78" s="74"/>
-      <c r="D78" s="75"/>
-      <c r="E78" s="136"/>
-      <c r="F78" s="137"/>
-      <c r="G78" s="108"/>
-      <c r="H78" s="137"/>
-      <c r="I78" s="131"/>
-      <c r="J78" s="174"/>
-      <c r="K78" s="139"/>
-      <c r="L78" s="140"/>
-      <c r="M78" s="140"/>
-      <c r="N78" s="140"/>
-      <c r="O78" s="140"/>
-      <c r="P78" s="140"/>
-      <c r="Q78" s="140"/>
-      <c r="R78" s="140"/>
-      <c r="S78" s="140"/>
-      <c r="T78" s="140"/>
-      <c r="U78" s="140"/>
-      <c r="V78" s="81"/>
-      <c r="W78" s="142"/>
+      <c r="A78" s="52"/>
+      <c r="B78" s="52"/>
+      <c r="C78" s="180"/>
+      <c r="D78" s="181"/>
+      <c r="E78" s="105"/>
+      <c r="F78" s="106"/>
+      <c r="G78" s="84"/>
+      <c r="H78" s="106"/>
+      <c r="I78" s="101"/>
+      <c r="J78" s="137"/>
+      <c r="K78" s="108"/>
+      <c r="L78" s="109"/>
+      <c r="M78" s="109"/>
+      <c r="N78" s="109"/>
+      <c r="O78" s="109"/>
+      <c r="P78" s="109"/>
+      <c r="Q78" s="109"/>
+      <c r="R78" s="109"/>
+      <c r="S78" s="109"/>
+      <c r="T78" s="109"/>
+      <c r="U78" s="109"/>
+      <c r="V78" s="61"/>
+      <c r="W78" s="111"/>
     </row>
     <row r="79" spans="1:23" ht="12" customHeight="1">
-      <c r="A79" s="68"/>
-      <c r="B79" s="68"/>
-      <c r="C79" s="110"/>
-      <c r="D79" s="111"/>
-      <c r="E79" s="132"/>
-      <c r="F79" s="119"/>
-      <c r="G79" s="119"/>
-      <c r="H79" s="119"/>
-      <c r="I79" s="133"/>
-      <c r="J79" s="121"/>
-      <c r="K79" s="144"/>
-      <c r="L79" s="145"/>
-      <c r="M79" s="145"/>
-      <c r="N79" s="145"/>
-      <c r="O79" s="145"/>
-      <c r="P79" s="145"/>
-      <c r="Q79" s="145"/>
-      <c r="R79" s="145"/>
-      <c r="S79" s="145"/>
-      <c r="T79" s="145"/>
-      <c r="U79" s="145"/>
-      <c r="V79" s="43"/>
-      <c r="W79" s="147"/>
+      <c r="A79" s="52"/>
+      <c r="B79" s="52"/>
+      <c r="C79" s="85"/>
+      <c r="D79" s="86"/>
+      <c r="E79" s="161"/>
+      <c r="F79" s="89"/>
+      <c r="G79" s="89"/>
+      <c r="H79" s="89"/>
+      <c r="I79" s="103"/>
+      <c r="J79" s="94"/>
+      <c r="K79" s="113"/>
+      <c r="L79" s="114"/>
+      <c r="M79" s="114"/>
+      <c r="N79" s="114"/>
+      <c r="O79" s="114"/>
+      <c r="P79" s="114"/>
+      <c r="Q79" s="114"/>
+      <c r="R79" s="114"/>
+      <c r="S79" s="114"/>
+      <c r="T79" s="114"/>
+      <c r="U79" s="114"/>
+      <c r="V79" s="29"/>
+      <c r="W79" s="116"/>
     </row>
     <row r="80" spans="1:23" ht="12" customHeight="1">
-      <c r="A80" s="68"/>
-      <c r="B80" s="68"/>
-      <c r="C80" s="110"/>
-      <c r="D80" s="111"/>
-      <c r="E80" s="132"/>
-      <c r="F80" s="119"/>
-      <c r="G80" s="119"/>
-      <c r="H80" s="119"/>
-      <c r="I80" s="133"/>
-      <c r="J80" s="105"/>
-      <c r="K80" s="56"/>
-      <c r="L80" s="55"/>
-      <c r="M80" s="55"/>
-      <c r="N80" s="55"/>
-      <c r="O80" s="55"/>
-      <c r="P80" s="55"/>
-      <c r="Q80" s="55"/>
-      <c r="R80" s="55"/>
-      <c r="S80" s="55"/>
-      <c r="T80" s="55"/>
-      <c r="U80" s="55"/>
-      <c r="V80" s="55"/>
-      <c r="W80" s="106"/>
+      <c r="A80" s="52"/>
+      <c r="B80" s="52"/>
+      <c r="C80" s="85"/>
+      <c r="D80" s="86"/>
+      <c r="E80" s="161"/>
+      <c r="F80" s="89"/>
+      <c r="G80" s="89"/>
+      <c r="H80" s="89"/>
+      <c r="I80" s="103"/>
+      <c r="J80" s="81"/>
+      <c r="K80" s="40"/>
+      <c r="L80" s="39"/>
+      <c r="M80" s="39"/>
+      <c r="N80" s="39"/>
+      <c r="O80" s="39"/>
+      <c r="P80" s="39"/>
+      <c r="Q80" s="39"/>
+      <c r="R80" s="39"/>
+      <c r="S80" s="39"/>
+      <c r="T80" s="39"/>
+      <c r="U80" s="39"/>
+      <c r="V80" s="39"/>
+      <c r="W80" s="82"/>
     </row>
     <row r="81" spans="1:23" ht="12" customHeight="1">
-      <c r="A81" s="68"/>
-      <c r="B81" s="68"/>
-      <c r="C81" s="83"/>
-      <c r="D81" s="84"/>
-      <c r="E81" s="134"/>
-      <c r="F81" s="125"/>
-      <c r="G81" s="125"/>
-      <c r="H81" s="125"/>
-      <c r="I81" s="135"/>
-      <c r="J81" s="88"/>
-      <c r="K81" s="148"/>
-      <c r="L81" s="149"/>
-      <c r="M81" s="149"/>
-      <c r="N81" s="149"/>
-      <c r="O81" s="149"/>
-      <c r="P81" s="149"/>
-      <c r="Q81" s="149"/>
-      <c r="R81" s="149"/>
-      <c r="S81" s="149"/>
-      <c r="T81" s="149"/>
-      <c r="U81" s="149"/>
-      <c r="V81" s="176"/>
-      <c r="W81" s="150"/>
+      <c r="A81" s="52"/>
+      <c r="B81" s="52"/>
+      <c r="C81" s="63"/>
+      <c r="D81" s="64"/>
+      <c r="E81" s="162"/>
+      <c r="F81" s="158"/>
+      <c r="G81" s="158"/>
+      <c r="H81" s="158"/>
+      <c r="I81" s="104"/>
+      <c r="J81" s="66"/>
+      <c r="K81" s="117"/>
+      <c r="L81" s="118"/>
+      <c r="M81" s="118"/>
+      <c r="N81" s="118"/>
+      <c r="O81" s="118"/>
+      <c r="P81" s="118"/>
+      <c r="Q81" s="118"/>
+      <c r="R81" s="118"/>
+      <c r="S81" s="118"/>
+      <c r="T81" s="118"/>
+      <c r="U81" s="118"/>
+      <c r="V81" s="139"/>
+      <c r="W81" s="119"/>
     </row>
     <row r="82" spans="1:23" ht="12" customHeight="1">
-      <c r="A82" s="68"/>
-      <c r="B82" s="68"/>
-      <c r="C82" s="74"/>
-      <c r="D82" s="75"/>
-      <c r="E82" s="151"/>
-      <c r="F82" s="152"/>
-      <c r="G82" s="152"/>
-      <c r="H82" s="152"/>
-      <c r="I82" s="131"/>
-      <c r="J82" s="178"/>
-      <c r="K82" s="80"/>
-      <c r="L82" s="81"/>
-      <c r="M82" s="81"/>
-      <c r="N82" s="81"/>
-      <c r="O82" s="81"/>
-      <c r="P82" s="81"/>
-      <c r="Q82" s="81"/>
-      <c r="R82" s="81"/>
-      <c r="S82" s="81"/>
-      <c r="T82" s="81"/>
-      <c r="U82" s="81"/>
-      <c r="V82" s="81"/>
-      <c r="W82" s="82"/>
+      <c r="A82" s="52"/>
+      <c r="B82" s="52"/>
+      <c r="C82" s="180"/>
+      <c r="D82" s="181"/>
+      <c r="E82" s="163"/>
+      <c r="F82" s="61"/>
+      <c r="G82" s="61"/>
+      <c r="H82" s="61"/>
+      <c r="I82" s="101"/>
+      <c r="J82" s="141"/>
+      <c r="K82" s="60"/>
+      <c r="L82" s="61"/>
+      <c r="M82" s="61"/>
+      <c r="N82" s="61"/>
+      <c r="O82" s="61"/>
+      <c r="P82" s="61"/>
+      <c r="Q82" s="61"/>
+      <c r="R82" s="61"/>
+      <c r="S82" s="61"/>
+      <c r="T82" s="61"/>
+      <c r="U82" s="61"/>
+      <c r="V82" s="61"/>
+      <c r="W82" s="62"/>
     </row>
     <row r="83" spans="1:23" ht="12" customHeight="1">
-      <c r="A83" s="68"/>
-      <c r="B83" s="68"/>
-      <c r="C83" s="110"/>
-      <c r="D83" s="111"/>
-      <c r="E83" s="153"/>
-      <c r="F83" s="39"/>
-      <c r="G83" s="39"/>
-      <c r="H83" s="39"/>
-      <c r="I83" s="133"/>
-      <c r="J83" s="138"/>
-      <c r="K83" s="42"/>
-      <c r="L83" s="43"/>
-      <c r="M83" s="43"/>
-      <c r="N83" s="43"/>
-      <c r="O83" s="43"/>
-      <c r="P83" s="43"/>
-      <c r="Q83" s="43"/>
-      <c r="R83" s="43"/>
-      <c r="S83" s="43"/>
-      <c r="T83" s="43"/>
-      <c r="U83" s="43"/>
-      <c r="V83" s="43"/>
-      <c r="W83" s="45"/>
+      <c r="A83" s="52"/>
+      <c r="B83" s="52"/>
+      <c r="C83" s="85"/>
+      <c r="D83" s="86"/>
+      <c r="E83" s="164"/>
+      <c r="F83" s="128"/>
+      <c r="G83" s="128"/>
+      <c r="H83" s="128"/>
+      <c r="I83" s="103"/>
+      <c r="J83" s="107"/>
+      <c r="K83" s="28"/>
+      <c r="L83" s="29"/>
+      <c r="M83" s="29"/>
+      <c r="N83" s="29"/>
+      <c r="O83" s="29"/>
+      <c r="P83" s="29"/>
+      <c r="Q83" s="29"/>
+      <c r="R83" s="29"/>
+      <c r="S83" s="29"/>
+      <c r="T83" s="29"/>
+      <c r="U83" s="29"/>
+      <c r="V83" s="29"/>
+      <c r="W83" s="31"/>
     </row>
     <row r="84" spans="1:23" ht="12" customHeight="1">
-      <c r="A84" s="68"/>
-      <c r="B84" s="68"/>
-      <c r="C84" s="110"/>
-      <c r="D84" s="111"/>
-      <c r="E84" s="132"/>
-      <c r="F84" s="119"/>
-      <c r="G84" s="119"/>
-      <c r="H84" s="154"/>
-      <c r="I84" s="133"/>
-      <c r="J84" s="179"/>
-      <c r="K84" s="56"/>
-      <c r="L84" s="55"/>
-      <c r="M84" s="55"/>
-      <c r="N84" s="55"/>
-      <c r="O84" s="55"/>
-      <c r="P84" s="55"/>
-      <c r="Q84" s="55"/>
-      <c r="R84" s="55"/>
-      <c r="S84" s="55"/>
-      <c r="T84" s="55"/>
-      <c r="U84" s="55"/>
-      <c r="V84" s="55"/>
-      <c r="W84" s="106"/>
+      <c r="A84" s="52"/>
+      <c r="B84" s="52"/>
+      <c r="C84" s="85"/>
+      <c r="D84" s="86"/>
+      <c r="E84" s="161"/>
+      <c r="F84" s="89"/>
+      <c r="G84" s="89"/>
+      <c r="H84" s="165"/>
+      <c r="I84" s="103"/>
+      <c r="J84" s="142"/>
+      <c r="K84" s="40"/>
+      <c r="L84" s="39"/>
+      <c r="M84" s="39"/>
+      <c r="N84" s="39"/>
+      <c r="O84" s="39"/>
+      <c r="P84" s="39"/>
+      <c r="Q84" s="39"/>
+      <c r="R84" s="39"/>
+      <c r="S84" s="39"/>
+      <c r="T84" s="39"/>
+      <c r="U84" s="39"/>
+      <c r="V84" s="39"/>
+      <c r="W84" s="82"/>
     </row>
     <row r="85" spans="1:23" ht="12" customHeight="1">
-      <c r="A85" s="68"/>
-      <c r="B85" s="68"/>
-      <c r="C85" s="83"/>
-      <c r="D85" s="84"/>
-      <c r="E85" s="134"/>
-      <c r="F85" s="125"/>
-      <c r="G85" s="125"/>
-      <c r="H85" s="155"/>
-      <c r="I85" s="135"/>
-      <c r="J85" s="180"/>
-      <c r="K85" s="175"/>
-      <c r="L85" s="176"/>
-      <c r="M85" s="176"/>
-      <c r="N85" s="176"/>
-      <c r="O85" s="176"/>
-      <c r="P85" s="176"/>
-      <c r="Q85" s="176"/>
-      <c r="R85" s="176"/>
-      <c r="S85" s="176"/>
-      <c r="T85" s="176"/>
-      <c r="U85" s="176"/>
-      <c r="V85" s="176"/>
-      <c r="W85" s="45"/>
+      <c r="A85" s="52"/>
+      <c r="B85" s="52"/>
+      <c r="C85" s="63"/>
+      <c r="D85" s="64"/>
+      <c r="E85" s="162"/>
+      <c r="F85" s="158"/>
+      <c r="G85" s="158"/>
+      <c r="H85" s="71"/>
+      <c r="I85" s="104"/>
+      <c r="J85" s="143"/>
+      <c r="K85" s="138"/>
+      <c r="L85" s="139"/>
+      <c r="M85" s="139"/>
+      <c r="N85" s="139"/>
+      <c r="O85" s="139"/>
+      <c r="P85" s="139"/>
+      <c r="Q85" s="139"/>
+      <c r="R85" s="139"/>
+      <c r="S85" s="139"/>
+      <c r="T85" s="139"/>
+      <c r="U85" s="139"/>
+      <c r="V85" s="139"/>
+      <c r="W85" s="31"/>
     </row>
     <row r="86" spans="1:23" ht="12" customHeight="1">
-      <c r="A86" s="68"/>
-      <c r="B86" s="68"/>
-      <c r="C86" s="74"/>
-      <c r="D86" s="75"/>
-      <c r="E86" s="151"/>
-      <c r="F86" s="152"/>
-      <c r="G86" s="152"/>
-      <c r="H86" s="152"/>
-      <c r="I86" s="131"/>
-      <c r="J86" s="178"/>
-      <c r="K86" s="80"/>
-      <c r="L86" s="81"/>
-      <c r="M86" s="81"/>
-      <c r="N86" s="81"/>
-      <c r="O86" s="81"/>
-      <c r="P86" s="81"/>
-      <c r="Q86" s="81"/>
-      <c r="R86" s="81"/>
-      <c r="S86" s="81"/>
-      <c r="T86" s="81"/>
-      <c r="U86" s="81"/>
-      <c r="V86" s="81"/>
-      <c r="W86" s="82"/>
+      <c r="A86" s="52"/>
+      <c r="B86" s="52"/>
+      <c r="C86" s="180"/>
+      <c r="D86" s="181"/>
+      <c r="E86" s="163"/>
+      <c r="F86" s="61"/>
+      <c r="G86" s="61"/>
+      <c r="H86" s="61"/>
+      <c r="I86" s="101"/>
+      <c r="J86" s="141"/>
+      <c r="K86" s="60"/>
+      <c r="L86" s="61"/>
+      <c r="M86" s="61"/>
+      <c r="N86" s="61"/>
+      <c r="O86" s="61"/>
+      <c r="P86" s="61"/>
+      <c r="Q86" s="61"/>
+      <c r="R86" s="61"/>
+      <c r="S86" s="61"/>
+      <c r="T86" s="61"/>
+      <c r="U86" s="61"/>
+      <c r="V86" s="61"/>
+      <c r="W86" s="62"/>
     </row>
     <row r="87" spans="1:23" ht="12" customHeight="1">
-      <c r="A87" s="68"/>
-      <c r="B87" s="68"/>
-      <c r="C87" s="110"/>
-      <c r="D87" s="111"/>
-      <c r="E87" s="153"/>
-      <c r="F87" s="39"/>
-      <c r="G87" s="39"/>
-      <c r="H87" s="39"/>
-      <c r="I87" s="133"/>
-      <c r="J87" s="181"/>
-      <c r="K87" s="42"/>
-      <c r="L87" s="43"/>
-      <c r="M87" s="43"/>
-      <c r="N87" s="43"/>
-      <c r="O87" s="43"/>
-      <c r="P87" s="43"/>
-      <c r="Q87" s="43"/>
-      <c r="R87" s="43"/>
-      <c r="S87" s="43"/>
-      <c r="T87" s="43"/>
-      <c r="U87" s="43"/>
-      <c r="V87" s="43"/>
-      <c r="W87" s="45"/>
+      <c r="A87" s="52"/>
+      <c r="B87" s="52"/>
+      <c r="C87" s="85"/>
+      <c r="D87" s="86"/>
+      <c r="E87" s="164"/>
+      <c r="F87" s="128"/>
+      <c r="G87" s="128"/>
+      <c r="H87" s="128"/>
+      <c r="I87" s="103"/>
+      <c r="J87" s="144"/>
+      <c r="K87" s="28"/>
+      <c r="L87" s="29"/>
+      <c r="M87" s="29"/>
+      <c r="N87" s="29"/>
+      <c r="O87" s="29"/>
+      <c r="P87" s="29"/>
+      <c r="Q87" s="29"/>
+      <c r="R87" s="29"/>
+      <c r="S87" s="29"/>
+      <c r="T87" s="29"/>
+      <c r="U87" s="29"/>
+      <c r="V87" s="29"/>
+      <c r="W87" s="31"/>
     </row>
     <row r="88" spans="1:23" ht="12" customHeight="1">
-      <c r="A88" s="68"/>
-      <c r="B88" s="68"/>
-      <c r="C88" s="110"/>
-      <c r="D88" s="111"/>
-      <c r="E88" s="132"/>
-      <c r="F88" s="119"/>
-      <c r="G88" s="119"/>
-      <c r="H88" s="154"/>
-      <c r="I88" s="133"/>
-      <c r="J88" s="179"/>
-      <c r="K88" s="56"/>
-      <c r="L88" s="55"/>
-      <c r="M88" s="55"/>
-      <c r="N88" s="55"/>
-      <c r="O88" s="55"/>
-      <c r="P88" s="55"/>
-      <c r="Q88" s="55"/>
-      <c r="R88" s="55"/>
-      <c r="S88" s="55"/>
-      <c r="T88" s="55"/>
-      <c r="U88" s="55"/>
-      <c r="V88" s="55"/>
-      <c r="W88" s="106"/>
+      <c r="A88" s="52"/>
+      <c r="B88" s="52"/>
+      <c r="C88" s="85"/>
+      <c r="D88" s="86"/>
+      <c r="E88" s="161"/>
+      <c r="F88" s="89"/>
+      <c r="G88" s="89"/>
+      <c r="H88" s="165"/>
+      <c r="I88" s="103"/>
+      <c r="J88" s="142"/>
+      <c r="K88" s="40"/>
+      <c r="L88" s="39"/>
+      <c r="M88" s="39"/>
+      <c r="N88" s="39"/>
+      <c r="O88" s="39"/>
+      <c r="P88" s="39"/>
+      <c r="Q88" s="39"/>
+      <c r="R88" s="39"/>
+      <c r="S88" s="39"/>
+      <c r="T88" s="39"/>
+      <c r="U88" s="39"/>
+      <c r="V88" s="39"/>
+      <c r="W88" s="82"/>
     </row>
     <row r="89" spans="1:23" ht="12" customHeight="1">
-      <c r="A89" s="68"/>
-      <c r="B89" s="68"/>
-      <c r="C89" s="83"/>
-      <c r="D89" s="84"/>
-      <c r="E89" s="134"/>
-      <c r="F89" s="125"/>
-      <c r="G89" s="125"/>
-      <c r="H89" s="125"/>
-      <c r="I89" s="135"/>
-      <c r="J89" s="181"/>
-      <c r="K89" s="175"/>
-      <c r="L89" s="176"/>
-      <c r="M89" s="176"/>
-      <c r="N89" s="176"/>
-      <c r="O89" s="176"/>
-      <c r="P89" s="176"/>
-      <c r="Q89" s="176"/>
-      <c r="R89" s="176"/>
-      <c r="S89" s="176"/>
-      <c r="T89" s="176"/>
-      <c r="U89" s="176"/>
-      <c r="V89" s="176"/>
-      <c r="W89" s="45"/>
+      <c r="A89" s="52"/>
+      <c r="B89" s="52"/>
+      <c r="C89" s="63"/>
+      <c r="D89" s="64"/>
+      <c r="E89" s="162"/>
+      <c r="F89" s="158"/>
+      <c r="G89" s="158"/>
+      <c r="H89" s="158"/>
+      <c r="I89" s="104"/>
+      <c r="J89" s="144"/>
+      <c r="K89" s="138"/>
+      <c r="L89" s="139"/>
+      <c r="M89" s="139"/>
+      <c r="N89" s="139"/>
+      <c r="O89" s="139"/>
+      <c r="P89" s="139"/>
+      <c r="Q89" s="139"/>
+      <c r="R89" s="139"/>
+      <c r="S89" s="139"/>
+      <c r="T89" s="139"/>
+      <c r="U89" s="139"/>
+      <c r="V89" s="139"/>
+      <c r="W89" s="31"/>
     </row>
     <row r="90" spans="1:23" ht="12" customHeight="1">
-      <c r="A90" s="68"/>
-      <c r="B90" s="68"/>
-      <c r="C90" s="74"/>
-      <c r="D90" s="75"/>
-      <c r="E90" s="107"/>
-      <c r="F90" s="157"/>
-      <c r="G90" s="152"/>
-      <c r="H90" s="152"/>
-      <c r="I90" s="158"/>
-      <c r="J90" s="178"/>
-      <c r="K90" s="80"/>
-      <c r="L90" s="81"/>
-      <c r="M90" s="81"/>
-      <c r="N90" s="81"/>
-      <c r="O90" s="81"/>
-      <c r="P90" s="81"/>
-      <c r="Q90" s="81"/>
-      <c r="R90" s="81"/>
-      <c r="S90" s="81"/>
-      <c r="T90" s="81"/>
-      <c r="U90" s="81"/>
-      <c r="V90" s="81"/>
-      <c r="W90" s="82"/>
+      <c r="A90" s="52"/>
+      <c r="B90" s="52"/>
+      <c r="C90" s="180"/>
+      <c r="D90" s="181"/>
+      <c r="E90" s="83"/>
+      <c r="F90" s="122"/>
+      <c r="G90" s="61"/>
+      <c r="H90" s="61"/>
+      <c r="I90" s="166"/>
+      <c r="J90" s="141"/>
+      <c r="K90" s="60"/>
+      <c r="L90" s="61"/>
+      <c r="M90" s="61"/>
+      <c r="N90" s="61"/>
+      <c r="O90" s="61"/>
+      <c r="P90" s="61"/>
+      <c r="Q90" s="61"/>
+      <c r="R90" s="61"/>
+      <c r="S90" s="61"/>
+      <c r="T90" s="61"/>
+      <c r="U90" s="61"/>
+      <c r="V90" s="61"/>
+      <c r="W90" s="62"/>
     </row>
     <row r="91" spans="1:23" ht="12" customHeight="1">
-      <c r="A91" s="68"/>
-      <c r="B91" s="68"/>
-      <c r="C91" s="110"/>
-      <c r="D91" s="111"/>
-      <c r="E91" s="112"/>
-      <c r="F91" s="72"/>
-      <c r="G91" s="39"/>
-      <c r="H91" s="39"/>
-      <c r="I91" s="159"/>
-      <c r="J91" s="138"/>
-      <c r="K91" s="59"/>
-      <c r="L91" s="122"/>
-      <c r="M91" s="122"/>
-      <c r="N91" s="122"/>
-      <c r="O91" s="122"/>
-      <c r="P91" s="122"/>
-      <c r="Q91" s="122"/>
-      <c r="R91" s="122"/>
-      <c r="S91" s="122"/>
-      <c r="T91" s="122"/>
-      <c r="U91" s="122"/>
-      <c r="V91" s="122"/>
-      <c r="W91" s="45"/>
+      <c r="A91" s="52"/>
+      <c r="B91" s="52"/>
+      <c r="C91" s="85"/>
+      <c r="D91" s="86"/>
+      <c r="E91" s="87"/>
+      <c r="F91" s="56"/>
+      <c r="G91" s="128"/>
+      <c r="H91" s="128"/>
+      <c r="I91" s="167"/>
+      <c r="J91" s="107"/>
+      <c r="K91" s="43"/>
+      <c r="L91" s="95"/>
+      <c r="M91" s="95"/>
+      <c r="N91" s="95"/>
+      <c r="O91" s="95"/>
+      <c r="P91" s="95"/>
+      <c r="Q91" s="95"/>
+      <c r="R91" s="95"/>
+      <c r="S91" s="95"/>
+      <c r="T91" s="95"/>
+      <c r="U91" s="95"/>
+      <c r="V91" s="95"/>
+      <c r="W91" s="31"/>
     </row>
     <row r="92" spans="1:23" ht="12" customHeight="1">
-      <c r="A92" s="68"/>
-      <c r="B92" s="68"/>
-      <c r="C92" s="110"/>
-      <c r="D92" s="111"/>
-      <c r="E92" s="112"/>
-      <c r="F92" s="72"/>
-      <c r="G92" s="160"/>
-      <c r="H92" s="161"/>
-      <c r="I92" s="133"/>
-      <c r="J92" s="179"/>
-      <c r="K92" s="182"/>
-      <c r="L92" s="55"/>
-      <c r="M92" s="55"/>
-      <c r="N92" s="55"/>
-      <c r="O92" s="55"/>
-      <c r="P92" s="55"/>
-      <c r="Q92" s="55"/>
-      <c r="R92" s="55"/>
-      <c r="S92" s="55"/>
-      <c r="T92" s="55"/>
-      <c r="U92" s="55"/>
-      <c r="V92" s="55"/>
-      <c r="W92" s="106"/>
+      <c r="A92" s="52"/>
+      <c r="B92" s="52"/>
+      <c r="C92" s="85"/>
+      <c r="D92" s="86"/>
+      <c r="E92" s="87"/>
+      <c r="F92" s="56"/>
+      <c r="G92" s="123"/>
+      <c r="H92" s="124"/>
+      <c r="I92" s="103"/>
+      <c r="J92" s="142"/>
+      <c r="K92" s="145"/>
+      <c r="L92" s="39"/>
+      <c r="M92" s="39"/>
+      <c r="N92" s="39"/>
+      <c r="O92" s="39"/>
+      <c r="P92" s="39"/>
+      <c r="Q92" s="39"/>
+      <c r="R92" s="39"/>
+      <c r="S92" s="39"/>
+      <c r="T92" s="39"/>
+      <c r="U92" s="39"/>
+      <c r="V92" s="39"/>
+      <c r="W92" s="82"/>
     </row>
     <row r="93" spans="1:23" ht="12" customHeight="1">
-      <c r="A93" s="68"/>
-      <c r="B93" s="68"/>
-      <c r="C93" s="83"/>
-      <c r="D93" s="84"/>
-      <c r="E93" s="123"/>
-      <c r="F93" s="163"/>
-      <c r="G93" s="124"/>
-      <c r="H93" s="155"/>
-      <c r="I93" s="135"/>
-      <c r="J93" s="180"/>
-      <c r="K93" s="183"/>
-      <c r="L93" s="176"/>
-      <c r="M93" s="176"/>
-      <c r="N93" s="176"/>
-      <c r="O93" s="176"/>
-      <c r="P93" s="176"/>
-      <c r="Q93" s="176"/>
-      <c r="R93" s="176"/>
-      <c r="S93" s="176"/>
-      <c r="T93" s="176"/>
-      <c r="U93" s="176"/>
-      <c r="V93" s="176"/>
-      <c r="W93" s="45"/>
+      <c r="A93" s="52"/>
+      <c r="B93" s="52"/>
+      <c r="C93" s="63"/>
+      <c r="D93" s="64"/>
+      <c r="E93" s="96"/>
+      <c r="F93" s="126"/>
+      <c r="G93" s="97"/>
+      <c r="H93" s="120"/>
+      <c r="I93" s="104"/>
+      <c r="J93" s="143"/>
+      <c r="K93" s="146"/>
+      <c r="L93" s="139"/>
+      <c r="M93" s="139"/>
+      <c r="N93" s="139"/>
+      <c r="O93" s="139"/>
+      <c r="P93" s="139"/>
+      <c r="Q93" s="139"/>
+      <c r="R93" s="139"/>
+      <c r="S93" s="139"/>
+      <c r="T93" s="139"/>
+      <c r="U93" s="139"/>
+      <c r="V93" s="139"/>
+      <c r="W93" s="31"/>
     </row>
     <row r="94" spans="1:23" ht="12" customHeight="1">
-      <c r="A94" s="68"/>
-      <c r="B94" s="68"/>
-      <c r="C94" s="74"/>
-      <c r="D94" s="75"/>
-      <c r="E94" s="107"/>
-      <c r="F94" s="157"/>
-      <c r="G94" s="152"/>
-      <c r="H94" s="152"/>
-      <c r="I94" s="158"/>
-      <c r="J94" s="178"/>
-      <c r="K94" s="80"/>
-      <c r="L94" s="81"/>
-      <c r="M94" s="81"/>
-      <c r="N94" s="81"/>
-      <c r="O94" s="81"/>
-      <c r="P94" s="81"/>
-      <c r="Q94" s="81"/>
-      <c r="R94" s="81"/>
-      <c r="S94" s="81"/>
-      <c r="T94" s="81"/>
-      <c r="U94" s="81"/>
-      <c r="V94" s="81"/>
-      <c r="W94" s="184"/>
+      <c r="A94" s="52"/>
+      <c r="B94" s="52"/>
+      <c r="C94" s="180"/>
+      <c r="D94" s="181"/>
+      <c r="E94" s="83"/>
+      <c r="F94" s="122"/>
+      <c r="G94" s="61"/>
+      <c r="H94" s="61"/>
+      <c r="I94" s="166"/>
+      <c r="J94" s="141"/>
+      <c r="K94" s="60"/>
+      <c r="L94" s="61"/>
+      <c r="M94" s="61"/>
+      <c r="N94" s="61"/>
+      <c r="O94" s="61"/>
+      <c r="P94" s="61"/>
+      <c r="Q94" s="61"/>
+      <c r="R94" s="61"/>
+      <c r="S94" s="61"/>
+      <c r="T94" s="61"/>
+      <c r="U94" s="61"/>
+      <c r="V94" s="61"/>
+      <c r="W94" s="147"/>
     </row>
     <row r="95" spans="1:23" ht="12" customHeight="1">
-      <c r="A95" s="68"/>
-      <c r="B95" s="68"/>
-      <c r="C95" s="110"/>
-      <c r="D95" s="111"/>
-      <c r="E95" s="112"/>
-      <c r="F95" s="72"/>
-      <c r="G95" s="39"/>
-      <c r="H95" s="39"/>
-      <c r="I95" s="159"/>
-      <c r="J95" s="138"/>
-      <c r="K95" s="59"/>
-      <c r="L95" s="122"/>
-      <c r="M95" s="122"/>
-      <c r="N95" s="122"/>
-      <c r="O95" s="122"/>
-      <c r="P95" s="122"/>
-      <c r="Q95" s="122"/>
-      <c r="R95" s="122"/>
-      <c r="S95" s="122"/>
-      <c r="T95" s="122"/>
-      <c r="U95" s="122"/>
-      <c r="V95" s="122"/>
-      <c r="W95" s="45"/>
+      <c r="A95" s="52"/>
+      <c r="B95" s="52"/>
+      <c r="C95" s="85"/>
+      <c r="D95" s="86"/>
+      <c r="E95" s="87"/>
+      <c r="F95" s="56"/>
+      <c r="G95" s="128"/>
+      <c r="H95" s="128"/>
+      <c r="I95" s="167"/>
+      <c r="J95" s="107"/>
+      <c r="K95" s="43"/>
+      <c r="L95" s="95"/>
+      <c r="M95" s="95"/>
+      <c r="N95" s="95"/>
+      <c r="O95" s="95"/>
+      <c r="P95" s="95"/>
+      <c r="Q95" s="95"/>
+      <c r="R95" s="95"/>
+      <c r="S95" s="95"/>
+      <c r="T95" s="95"/>
+      <c r="U95" s="95"/>
+      <c r="V95" s="95"/>
+      <c r="W95" s="31"/>
     </row>
     <row r="96" spans="1:23" ht="12" customHeight="1">
-      <c r="A96" s="68"/>
-      <c r="B96" s="68"/>
-      <c r="C96" s="110"/>
-      <c r="D96" s="111"/>
-      <c r="E96" s="112"/>
-      <c r="F96" s="72"/>
-      <c r="G96" s="160"/>
-      <c r="H96" s="161"/>
-      <c r="I96" s="133"/>
-      <c r="J96" s="179"/>
-      <c r="K96" s="182"/>
-      <c r="L96" s="55"/>
-      <c r="M96" s="55"/>
-      <c r="N96" s="55"/>
-      <c r="O96" s="55"/>
-      <c r="P96" s="55"/>
-      <c r="Q96" s="55"/>
-      <c r="R96" s="55"/>
-      <c r="S96" s="55"/>
-      <c r="T96" s="55"/>
-      <c r="U96" s="55"/>
-      <c r="V96" s="55"/>
-      <c r="W96" s="106"/>
+      <c r="A96" s="52"/>
+      <c r="B96" s="52"/>
+      <c r="C96" s="85"/>
+      <c r="D96" s="86"/>
+      <c r="E96" s="87"/>
+      <c r="F96" s="56"/>
+      <c r="G96" s="123"/>
+      <c r="H96" s="124"/>
+      <c r="I96" s="103"/>
+      <c r="J96" s="142"/>
+      <c r="K96" s="145"/>
+      <c r="L96" s="39"/>
+      <c r="M96" s="39"/>
+      <c r="N96" s="39"/>
+      <c r="O96" s="39"/>
+      <c r="P96" s="39"/>
+      <c r="Q96" s="39"/>
+      <c r="R96" s="39"/>
+      <c r="S96" s="39"/>
+      <c r="T96" s="39"/>
+      <c r="U96" s="39"/>
+      <c r="V96" s="39"/>
+      <c r="W96" s="82"/>
     </row>
     <row r="97" spans="1:23" ht="12" customHeight="1">
-      <c r="A97" s="185"/>
-      <c r="B97" s="185"/>
-      <c r="C97" s="83"/>
-      <c r="D97" s="84"/>
-      <c r="E97" s="123"/>
-      <c r="F97" s="163"/>
-      <c r="G97" s="124"/>
-      <c r="H97" s="155"/>
-      <c r="I97" s="135"/>
-      <c r="J97" s="180"/>
-      <c r="K97" s="183"/>
-      <c r="L97" s="176"/>
-      <c r="M97" s="176"/>
-      <c r="N97" s="176"/>
-      <c r="O97" s="176"/>
-      <c r="P97" s="176"/>
-      <c r="Q97" s="176"/>
-      <c r="R97" s="176"/>
-      <c r="S97" s="176"/>
-      <c r="T97" s="176"/>
-      <c r="U97" s="176"/>
-      <c r="V97" s="176"/>
-      <c r="W97" s="186"/>
+      <c r="A97" s="149"/>
+      <c r="B97" s="150"/>
+      <c r="C97" s="63"/>
+      <c r="D97" s="64"/>
+      <c r="E97" s="96"/>
+      <c r="F97" s="126"/>
+      <c r="G97" s="97"/>
+      <c r="H97" s="120"/>
+      <c r="I97" s="104"/>
+      <c r="J97" s="143"/>
+      <c r="K97" s="146"/>
+      <c r="L97" s="139"/>
+      <c r="M97" s="139"/>
+      <c r="N97" s="139"/>
+      <c r="O97" s="139"/>
+      <c r="P97" s="139"/>
+      <c r="Q97" s="139"/>
+      <c r="R97" s="139"/>
+      <c r="S97" s="139"/>
+      <c r="T97" s="139"/>
+      <c r="U97" s="139"/>
+      <c r="V97" s="139"/>
+      <c r="W97" s="148"/>
     </row>
-    <row r="111" spans="1:23" ht="12" customHeight="1">
-      <c r="I111" s="2"/>
+    <row r="98" spans="1:23" ht="12" customHeight="1">
+      <c r="A98" s="149"/>
+      <c r="B98" s="149"/>
+      <c r="C98" s="180"/>
+      <c r="D98" s="181"/>
+      <c r="E98" s="163"/>
+      <c r="F98" s="61"/>
+      <c r="G98" s="61"/>
+      <c r="H98" s="61"/>
+      <c r="I98" s="101"/>
+      <c r="J98" s="98"/>
+      <c r="K98" s="77"/>
+      <c r="L98" s="78"/>
+      <c r="M98" s="78"/>
+      <c r="N98" s="78"/>
+      <c r="O98" s="78"/>
+      <c r="P98" s="78"/>
+      <c r="Q98" s="78"/>
+      <c r="R98" s="78"/>
+      <c r="S98" s="78"/>
+      <c r="T98" s="78"/>
+      <c r="U98" s="78"/>
+      <c r="V98" s="78"/>
+      <c r="W98" s="79"/>
+    </row>
+    <row r="99" spans="1:23" ht="12" customHeight="1">
+      <c r="A99" s="149"/>
+      <c r="B99" s="149"/>
+      <c r="C99" s="63"/>
+      <c r="D99" s="64"/>
+      <c r="E99" s="162"/>
+      <c r="F99" s="158"/>
+      <c r="G99" s="158"/>
+      <c r="H99" s="71"/>
+      <c r="I99" s="104"/>
+      <c r="J99" s="70"/>
+      <c r="K99" s="164"/>
+      <c r="L99" s="128"/>
+      <c r="M99" s="128"/>
+      <c r="N99" s="128"/>
+      <c r="O99" s="128"/>
+      <c r="P99" s="128"/>
+      <c r="Q99" s="128"/>
+      <c r="R99" s="128"/>
+      <c r="S99" s="128"/>
+      <c r="T99" s="128"/>
+      <c r="U99" s="128"/>
+      <c r="V99" s="128"/>
+      <c r="W99" s="129"/>
+    </row>
+    <row r="100" spans="1:23" ht="12" customHeight="1">
+      <c r="A100" s="149"/>
+      <c r="B100" s="149"/>
+      <c r="C100" s="180"/>
+      <c r="D100" s="181"/>
+      <c r="E100" s="163"/>
+      <c r="F100" s="61"/>
+      <c r="G100" s="61"/>
+      <c r="H100" s="61"/>
+      <c r="I100" s="101"/>
+      <c r="J100" s="141"/>
+      <c r="K100" s="60"/>
+      <c r="L100" s="61"/>
+      <c r="M100" s="61"/>
+      <c r="N100" s="61"/>
+      <c r="O100" s="61"/>
+      <c r="P100" s="61"/>
+      <c r="Q100" s="61"/>
+      <c r="R100" s="61"/>
+      <c r="S100" s="61"/>
+      <c r="T100" s="61"/>
+      <c r="U100" s="61"/>
+      <c r="V100" s="61"/>
+      <c r="W100" s="147"/>
+    </row>
+    <row r="101" spans="1:23" ht="12" customHeight="1">
+      <c r="A101" s="149"/>
+      <c r="B101" s="149"/>
+      <c r="C101" s="63"/>
+      <c r="D101" s="64"/>
+      <c r="E101" s="162"/>
+      <c r="F101" s="158"/>
+      <c r="G101" s="158"/>
+      <c r="H101" s="71"/>
+      <c r="I101" s="104"/>
+      <c r="J101" s="177"/>
+      <c r="K101" s="146"/>
+      <c r="L101" s="139"/>
+      <c r="M101" s="139"/>
+      <c r="N101" s="139"/>
+      <c r="O101" s="139"/>
+      <c r="P101" s="139"/>
+      <c r="Q101" s="139"/>
+      <c r="R101" s="139"/>
+      <c r="S101" s="139"/>
+      <c r="T101" s="139"/>
+      <c r="U101" s="139"/>
+      <c r="V101" s="139"/>
+      <c r="W101" s="148"/>
+    </row>
+    <row r="102" spans="1:23" ht="12" customHeight="1">
+      <c r="C102" s="180"/>
+      <c r="D102" s="181"/>
+      <c r="E102" s="83"/>
+      <c r="F102" s="122"/>
+      <c r="G102" s="73"/>
+      <c r="H102" s="73"/>
+      <c r="I102" s="179"/>
+      <c r="J102" s="141"/>
+      <c r="K102" s="60"/>
+      <c r="L102" s="61"/>
+      <c r="M102" s="61"/>
+      <c r="N102" s="61"/>
+      <c r="O102" s="61"/>
+      <c r="P102" s="61"/>
+      <c r="Q102" s="61"/>
+      <c r="R102" s="61"/>
+      <c r="S102" s="61"/>
+      <c r="T102" s="61"/>
+      <c r="U102" s="61"/>
+      <c r="V102" s="61"/>
+      <c r="W102" s="62"/>
+    </row>
+    <row r="103" spans="1:23" ht="12" customHeight="1">
+      <c r="C103" s="85"/>
+      <c r="D103" s="171"/>
+      <c r="E103" s="87"/>
+      <c r="F103" s="56"/>
+      <c r="J103" s="66"/>
+      <c r="K103" s="43"/>
+      <c r="L103" s="95"/>
+      <c r="M103" s="95"/>
+      <c r="N103" s="95"/>
+      <c r="O103" s="95"/>
+      <c r="P103" s="95"/>
+      <c r="Q103" s="95"/>
+      <c r="R103" s="95"/>
+      <c r="S103" s="95"/>
+      <c r="T103" s="95"/>
+      <c r="U103" s="95"/>
+      <c r="V103" s="95"/>
+      <c r="W103" s="31"/>
+    </row>
+    <row r="104" spans="1:23" ht="12" customHeight="1">
+      <c r="A104" s="170"/>
+      <c r="B104" s="170"/>
+      <c r="C104" s="180"/>
+      <c r="D104" s="181"/>
+      <c r="E104" s="83"/>
+      <c r="F104" s="122"/>
+      <c r="G104" s="73"/>
+      <c r="H104" s="73"/>
+      <c r="I104" s="179"/>
+      <c r="J104" s="178"/>
+      <c r="K104" s="77"/>
+      <c r="L104" s="78"/>
+      <c r="M104" s="78"/>
+      <c r="N104" s="78"/>
+      <c r="O104" s="78"/>
+      <c r="P104" s="78"/>
+      <c r="Q104" s="78"/>
+      <c r="R104" s="78"/>
+      <c r="S104" s="78"/>
+      <c r="T104" s="78"/>
+      <c r="U104" s="78"/>
+      <c r="V104" s="78"/>
+      <c r="W104" s="79"/>
+    </row>
+    <row r="105" spans="1:23" ht="12" customHeight="1">
+      <c r="A105" s="170"/>
+      <c r="B105" s="170"/>
+      <c r="C105" s="85"/>
+      <c r="D105" s="171"/>
+      <c r="E105" s="87"/>
+      <c r="F105" s="56"/>
+      <c r="J105" s="91"/>
+      <c r="K105" s="38"/>
+      <c r="L105" s="92"/>
+      <c r="M105" s="92"/>
+      <c r="N105" s="92"/>
+      <c r="O105" s="92"/>
+      <c r="P105" s="92"/>
+      <c r="Q105" s="92"/>
+      <c r="R105" s="92"/>
+      <c r="S105" s="92"/>
+      <c r="T105" s="92"/>
+      <c r="U105" s="92"/>
+      <c r="V105" s="92"/>
+      <c r="W105" s="41"/>
+    </row>
+    <row r="109" spans="1:23" ht="12" customHeight="1">
+      <c r="I109" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C74:D74"/>
+  <mergeCells count="34">
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C26:D26"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="A2:W2"/>
     <mergeCell ref="E4:I4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="A6:W6"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C94:D94"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.31496062992125984"/>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_v2_template.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_v2_template.xlsx
@@ -127,9 +127,13 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -144,6 +148,13 @@
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -1220,7 +1231,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1758,14 +1769,29 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -1791,23 +1817,14 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="76" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="66" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1854,7 +1871,7 @@
         <xdr:cNvPr id="2" name="楕円 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -45177,29 +45194,29 @@
   <sheetData>
     <row r="1" spans="1:23" ht="0.75" customHeight="1"/>
     <row r="2" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A2" s="182"/>
-      <c r="B2" s="182"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
-      <c r="G2" s="182"/>
-      <c r="H2" s="182"/>
-      <c r="I2" s="182"/>
-      <c r="J2" s="182"/>
-      <c r="K2" s="182"/>
-      <c r="L2" s="182"/>
-      <c r="M2" s="182"/>
-      <c r="N2" s="182"/>
-      <c r="O2" s="182"/>
-      <c r="P2" s="182"/>
-      <c r="Q2" s="182"/>
-      <c r="R2" s="182"/>
-      <c r="S2" s="182"/>
-      <c r="T2" s="182"/>
-      <c r="U2" s="182"/>
-      <c r="V2" s="182"/>
-      <c r="W2" s="182"/>
+      <c r="A2" s="187"/>
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="187"/>
+      <c r="L2" s="187"/>
+      <c r="M2" s="187"/>
+      <c r="N2" s="187"/>
+      <c r="O2" s="187"/>
+      <c r="P2" s="187"/>
+      <c r="Q2" s="187"/>
+      <c r="R2" s="187"/>
+      <c r="S2" s="187"/>
+      <c r="T2" s="187"/>
+      <c r="U2" s="187"/>
+      <c r="V2" s="187"/>
+      <c r="W2" s="187"/>
     </row>
     <row r="3" spans="1:23" ht="0.75" customHeight="1" thickBot="1">
       <c r="A3" s="4"/>
@@ -45231,13 +45248,13 @@
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="183"/>
-      <c r="F4" s="184"/>
-      <c r="G4" s="184"/>
-      <c r="H4" s="184"/>
-      <c r="I4" s="185"/>
-      <c r="J4" s="186"/>
-      <c r="K4" s="184"/>
+      <c r="E4" s="188"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="189"/>
+      <c r="H4" s="189"/>
+      <c r="I4" s="190"/>
+      <c r="J4" s="191"/>
+      <c r="K4" s="189"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -45277,33 +45294,33 @@
       <c r="W5" s="15"/>
     </row>
     <row r="6" spans="1:23" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A6" s="187"/>
-      <c r="B6" s="187"/>
-      <c r="C6" s="187"/>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="187"/>
-      <c r="H6" s="187"/>
-      <c r="I6" s="187"/>
-      <c r="J6" s="187"/>
-      <c r="K6" s="187"/>
-      <c r="L6" s="187"/>
-      <c r="M6" s="187"/>
-      <c r="N6" s="187"/>
-      <c r="O6" s="187"/>
-      <c r="P6" s="187"/>
-      <c r="Q6" s="187"/>
-      <c r="R6" s="187"/>
-      <c r="S6" s="187"/>
-      <c r="T6" s="187"/>
-      <c r="U6" s="187"/>
-      <c r="V6" s="187"/>
-      <c r="W6" s="187"/>
+      <c r="A6" s="192"/>
+      <c r="B6" s="192"/>
+      <c r="C6" s="192"/>
+      <c r="D6" s="192"/>
+      <c r="E6" s="192"/>
+      <c r="F6" s="192"/>
+      <c r="G6" s="192"/>
+      <c r="H6" s="192"/>
+      <c r="I6" s="192"/>
+      <c r="J6" s="192"/>
+      <c r="K6" s="192"/>
+      <c r="L6" s="192"/>
+      <c r="M6" s="192"/>
+      <c r="N6" s="192"/>
+      <c r="O6" s="192"/>
+      <c r="P6" s="192"/>
+      <c r="Q6" s="192"/>
+      <c r="R6" s="192"/>
+      <c r="S6" s="192"/>
+      <c r="T6" s="192"/>
+      <c r="U6" s="192"/>
+      <c r="V6" s="192"/>
+      <c r="W6" s="192"/>
     </row>
     <row r="7" spans="1:23" ht="12" customHeight="1">
-      <c r="A7" s="188"/>
-      <c r="B7" s="189"/>
+      <c r="A7" s="193"/>
+      <c r="B7" s="194"/>
       <c r="C7" s="16"/>
       <c r="D7" s="17"/>
       <c r="E7" s="151"/>
@@ -45327,8 +45344,8 @@
       <c r="W7" s="22"/>
     </row>
     <row r="8" spans="1:23" ht="12" customHeight="1">
-      <c r="A8" s="190"/>
-      <c r="B8" s="191"/>
+      <c r="A8" s="183"/>
+      <c r="B8" s="184"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
       <c r="E8" s="152"/>
@@ -45352,8 +45369,8 @@
       <c r="W8" s="31"/>
     </row>
     <row r="9" spans="1:23" ht="12" customHeight="1">
-      <c r="A9" s="192"/>
-      <c r="B9" s="193"/>
+      <c r="A9" s="185"/>
+      <c r="B9" s="186"/>
       <c r="C9" s="23"/>
       <c r="D9" s="32"/>
       <c r="E9" s="33"/>
@@ -45377,8 +45394,8 @@
       <c r="W9" s="41"/>
     </row>
     <row r="10" spans="1:23" ht="12" customHeight="1">
-      <c r="A10" s="190"/>
-      <c r="B10" s="191"/>
+      <c r="A10" s="183"/>
+      <c r="B10" s="184"/>
       <c r="C10" s="23"/>
       <c r="D10" s="42"/>
       <c r="E10" s="25"/>
@@ -45402,8 +45419,8 @@
       <c r="W10" s="31"/>
     </row>
     <row r="11" spans="1:23" ht="12" customHeight="1">
-      <c r="A11" s="190"/>
-      <c r="B11" s="191"/>
+      <c r="A11" s="183"/>
+      <c r="B11" s="184"/>
       <c r="C11" s="23"/>
       <c r="D11" s="24"/>
       <c r="E11" s="44"/>
@@ -45454,8 +45471,8 @@
     <row r="13" spans="1:23" ht="12" customHeight="1">
       <c r="A13" s="52"/>
       <c r="B13" s="52"/>
-      <c r="C13" s="180"/>
-      <c r="D13" s="181"/>
+      <c r="C13" s="179"/>
+      <c r="D13" s="180"/>
       <c r="E13" s="153"/>
       <c r="F13" s="154"/>
       <c r="G13" s="154"/>
@@ -45504,8 +45521,8 @@
     <row r="15" spans="1:23" ht="12" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="194"/>
-      <c r="D15" s="195"/>
+      <c r="C15" s="181"/>
+      <c r="D15" s="182"/>
       <c r="E15" s="155"/>
       <c r="F15" s="72"/>
       <c r="G15" s="72"/>
@@ -45529,8 +45546,8 @@
     <row r="16" spans="1:23" ht="12" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="180"/>
-      <c r="D16" s="181"/>
+      <c r="C16" s="179"/>
+      <c r="D16" s="180"/>
       <c r="E16" s="153"/>
       <c r="F16" s="154"/>
       <c r="G16" s="154"/>
@@ -45579,8 +45596,8 @@
     <row r="18" spans="1:23" ht="12" customHeight="1">
       <c r="A18" s="52"/>
       <c r="B18" s="52"/>
-      <c r="C18" s="180"/>
-      <c r="D18" s="181"/>
+      <c r="C18" s="179"/>
+      <c r="D18" s="180"/>
       <c r="E18" s="83"/>
       <c r="F18" s="73"/>
       <c r="G18" s="73"/>
@@ -45679,8 +45696,8 @@
     <row r="22" spans="1:23" ht="12" customHeight="1">
       <c r="A22" s="52"/>
       <c r="B22" s="52"/>
-      <c r="C22" s="180"/>
-      <c r="D22" s="181"/>
+      <c r="C22" s="179"/>
+      <c r="D22" s="180"/>
       <c r="E22" s="83"/>
       <c r="F22" s="73"/>
       <c r="G22" s="73"/>
@@ -45779,8 +45796,8 @@
     <row r="26" spans="1:23" ht="12" customHeight="1">
       <c r="A26" s="52"/>
       <c r="B26" s="52"/>
-      <c r="C26" s="180"/>
-      <c r="D26" s="181"/>
+      <c r="C26" s="179"/>
+      <c r="D26" s="180"/>
       <c r="E26" s="83"/>
       <c r="F26" s="73"/>
       <c r="G26" s="73"/>
@@ -45879,8 +45896,8 @@
     <row r="30" spans="1:23" ht="12" customHeight="1">
       <c r="A30" s="52"/>
       <c r="B30" s="52"/>
-      <c r="C30" s="180"/>
-      <c r="D30" s="181"/>
+      <c r="C30" s="179"/>
+      <c r="D30" s="180"/>
       <c r="E30" s="160"/>
       <c r="F30" s="73"/>
       <c r="G30" s="73"/>
@@ -45979,8 +45996,8 @@
     <row r="34" spans="1:23" ht="12" customHeight="1">
       <c r="A34" s="52"/>
       <c r="B34" s="52"/>
-      <c r="C34" s="180"/>
-      <c r="D34" s="181"/>
+      <c r="C34" s="179"/>
+      <c r="D34" s="180"/>
       <c r="E34" s="105"/>
       <c r="F34" s="106"/>
       <c r="G34" s="84"/>
@@ -46079,8 +46096,8 @@
     <row r="38" spans="1:23" ht="12" customHeight="1">
       <c r="A38" s="52"/>
       <c r="B38" s="52"/>
-      <c r="C38" s="180"/>
-      <c r="D38" s="181"/>
+      <c r="C38" s="179"/>
+      <c r="D38" s="180"/>
       <c r="E38" s="163"/>
       <c r="F38" s="61"/>
       <c r="G38" s="61"/>
@@ -46179,8 +46196,8 @@
     <row r="42" spans="1:23" ht="12" customHeight="1">
       <c r="A42" s="52"/>
       <c r="B42" s="52"/>
-      <c r="C42" s="180"/>
-      <c r="D42" s="181"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="180"/>
       <c r="E42" s="163"/>
       <c r="F42" s="61"/>
       <c r="G42" s="61"/>
@@ -46279,8 +46296,8 @@
     <row r="46" spans="1:23" ht="12" customHeight="1">
       <c r="A46" s="52"/>
       <c r="B46" s="52"/>
-      <c r="C46" s="180"/>
-      <c r="D46" s="181"/>
+      <c r="C46" s="179"/>
+      <c r="D46" s="180"/>
       <c r="E46" s="83"/>
       <c r="F46" s="122"/>
       <c r="G46" s="61"/>
@@ -46379,8 +46396,8 @@
     <row r="50" spans="1:23" ht="12" customHeight="1">
       <c r="A50" s="52"/>
       <c r="B50" s="52"/>
-      <c r="C50" s="180"/>
-      <c r="D50" s="181"/>
+      <c r="C50" s="179"/>
+      <c r="D50" s="180"/>
       <c r="E50" s="83"/>
       <c r="F50" s="122"/>
       <c r="G50" s="61"/>
@@ -46638,8 +46655,8 @@
       <c r="W61" s="136"/>
     </row>
     <row r="64" spans="1:23" ht="12" customHeight="1">
-      <c r="C64" s="180"/>
-      <c r="D64" s="181"/>
+      <c r="C64" s="179"/>
+      <c r="D64" s="180"/>
       <c r="E64" s="153"/>
       <c r="F64" s="154"/>
       <c r="G64" s="154"/>
@@ -46686,8 +46703,8 @@
     <row r="66" spans="1:23" ht="12" customHeight="1">
       <c r="A66" s="52"/>
       <c r="B66" s="52"/>
-      <c r="C66" s="180"/>
-      <c r="D66" s="181"/>
+      <c r="C66" s="179"/>
+      <c r="D66" s="180"/>
       <c r="E66" s="83"/>
       <c r="F66" s="73"/>
       <c r="G66" s="73"/>
@@ -46786,8 +46803,8 @@
     <row r="70" spans="1:23" ht="12" customHeight="1">
       <c r="A70" s="52"/>
       <c r="B70" s="52"/>
-      <c r="C70" s="180"/>
-      <c r="D70" s="181"/>
+      <c r="C70" s="179"/>
+      <c r="D70" s="180"/>
       <c r="E70" s="83"/>
       <c r="F70" s="73"/>
       <c r="G70" s="73"/>
@@ -46886,8 +46903,8 @@
     <row r="74" spans="1:23" ht="12" customHeight="1">
       <c r="A74" s="52"/>
       <c r="B74" s="52"/>
-      <c r="C74" s="180"/>
-      <c r="D74" s="181"/>
+      <c r="C74" s="179"/>
+      <c r="D74" s="180"/>
       <c r="E74" s="160"/>
       <c r="F74" s="73"/>
       <c r="G74" s="73"/>
@@ -46986,8 +47003,8 @@
     <row r="78" spans="1:23" ht="12" customHeight="1">
       <c r="A78" s="52"/>
       <c r="B78" s="52"/>
-      <c r="C78" s="180"/>
-      <c r="D78" s="181"/>
+      <c r="C78" s="179"/>
+      <c r="D78" s="180"/>
       <c r="E78" s="105"/>
       <c r="F78" s="106"/>
       <c r="G78" s="84"/>
@@ -47086,8 +47103,8 @@
     <row r="82" spans="1:23" ht="12" customHeight="1">
       <c r="A82" s="52"/>
       <c r="B82" s="52"/>
-      <c r="C82" s="180"/>
-      <c r="D82" s="181"/>
+      <c r="C82" s="179"/>
+      <c r="D82" s="180"/>
       <c r="E82" s="163"/>
       <c r="F82" s="61"/>
       <c r="G82" s="61"/>
@@ -47186,8 +47203,8 @@
     <row r="86" spans="1:23" ht="12" customHeight="1">
       <c r="A86" s="52"/>
       <c r="B86" s="52"/>
-      <c r="C86" s="180"/>
-      <c r="D86" s="181"/>
+      <c r="C86" s="179"/>
+      <c r="D86" s="180"/>
       <c r="E86" s="163"/>
       <c r="F86" s="61"/>
       <c r="G86" s="61"/>
@@ -47286,8 +47303,8 @@
     <row r="90" spans="1:23" ht="12" customHeight="1">
       <c r="A90" s="52"/>
       <c r="B90" s="52"/>
-      <c r="C90" s="180"/>
-      <c r="D90" s="181"/>
+      <c r="C90" s="179"/>
+      <c r="D90" s="180"/>
       <c r="E90" s="83"/>
       <c r="F90" s="122"/>
       <c r="G90" s="61"/>
@@ -47386,8 +47403,8 @@
     <row r="94" spans="1:23" ht="12" customHeight="1">
       <c r="A94" s="52"/>
       <c r="B94" s="52"/>
-      <c r="C94" s="180"/>
-      <c r="D94" s="181"/>
+      <c r="C94" s="179"/>
+      <c r="D94" s="180"/>
       <c r="E94" s="83"/>
       <c r="F94" s="122"/>
       <c r="G94" s="61"/>
@@ -47486,8 +47503,8 @@
     <row r="98" spans="1:23" ht="12" customHeight="1">
       <c r="A98" s="149"/>
       <c r="B98" s="149"/>
-      <c r="C98" s="180"/>
-      <c r="D98" s="181"/>
+      <c r="C98" s="179"/>
+      <c r="D98" s="180"/>
       <c r="E98" s="163"/>
       <c r="F98" s="61"/>
       <c r="G98" s="61"/>
@@ -47536,8 +47553,8 @@
     <row r="100" spans="1:23" ht="12" customHeight="1">
       <c r="A100" s="149"/>
       <c r="B100" s="149"/>
-      <c r="C100" s="180"/>
-      <c r="D100" s="181"/>
+      <c r="C100" s="179"/>
+      <c r="D100" s="180"/>
       <c r="E100" s="163"/>
       <c r="F100" s="61"/>
       <c r="G100" s="61"/>
@@ -47584,13 +47601,13 @@
       <c r="W101" s="148"/>
     </row>
     <row r="102" spans="1:23" ht="12" customHeight="1">
-      <c r="C102" s="180"/>
-      <c r="D102" s="181"/>
+      <c r="C102" s="179"/>
+      <c r="D102" s="180"/>
       <c r="E102" s="83"/>
       <c r="F102" s="122"/>
       <c r="G102" s="73"/>
       <c r="H102" s="73"/>
-      <c r="I102" s="179"/>
+      <c r="I102" s="166"/>
       <c r="J102" s="141"/>
       <c r="K102" s="60"/>
       <c r="L102" s="61"/>
@@ -47611,6 +47628,7 @@
       <c r="D103" s="171"/>
       <c r="E103" s="87"/>
       <c r="F103" s="56"/>
+      <c r="I103" s="197"/>
       <c r="J103" s="66"/>
       <c r="K103" s="43"/>
       <c r="L103" s="95"/>
@@ -47629,13 +47647,13 @@
     <row r="104" spans="1:23" ht="12" customHeight="1">
       <c r="A104" s="170"/>
       <c r="B104" s="170"/>
-      <c r="C104" s="180"/>
-      <c r="D104" s="181"/>
+      <c r="C104" s="179"/>
+      <c r="D104" s="180"/>
       <c r="E104" s="83"/>
       <c r="F104" s="122"/>
       <c r="G104" s="73"/>
       <c r="H104" s="73"/>
-      <c r="I104" s="179"/>
+      <c r="I104" s="196"/>
       <c r="J104" s="178"/>
       <c r="K104" s="77"/>
       <c r="L104" s="78"/>
@@ -47658,6 +47676,7 @@
       <c r="D105" s="171"/>
       <c r="E105" s="87"/>
       <c r="F105" s="56"/>
+      <c r="I105" s="195"/>
       <c r="J105" s="91"/>
       <c r="K105" s="38"/>
       <c r="L105" s="92"/>
@@ -47678,6 +47697,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A2:W2"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A6:W6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="C102:D102"/>
     <mergeCell ref="C104:D104"/>
     <mergeCell ref="C15:D15"/>
@@ -47694,24 +47731,6 @@
     <mergeCell ref="C64:D64"/>
     <mergeCell ref="C66:D66"/>
     <mergeCell ref="C70:D70"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A2:W2"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A6:W6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C94:D94"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.31496062992125984"/>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_v2_template.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_v2_template.xlsx
@@ -125,6 +125,10 @@
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1220,594 +1224,579 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="68" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="76" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="76" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1854,7 +1843,7 @@
         <xdr:cNvPr id="2" name="楕円 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -45157,7 +45146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleSheetLayoutView="175" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleSheetLayoutView="175" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:W2"/>
     </sheetView>
   </sheetViews>
@@ -45168,2516 +45157,2534 @@
     <col min="3" max="3" width="3.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" style="1" customWidth="1"/>
     <col min="5" max="9" width="5.6640625" style="1"/>
-    <col min="10" max="10" width="6.6640625" style="172" customWidth="1"/>
-    <col min="11" max="22" width="5.33203125" style="2" customWidth="1"/>
-    <col min="23" max="23" width="5.33203125" style="3" customWidth="1"/>
-    <col min="24" max="24" width="5.6640625" style="3"/>
-    <col min="25" max="16384" width="5.6640625" style="2"/>
+    <col min="10" max="10" width="6.6640625" style="2" customWidth="1"/>
+    <col min="11" max="22" width="5.33203125" style="3" customWidth="1"/>
+    <col min="23" max="23" width="5.33203125" style="4" customWidth="1"/>
+    <col min="24" max="24" width="5.6640625" style="4"/>
+    <col min="25" max="16384" width="5.6640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="0.75" customHeight="1"/>
     <row r="2" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A2" s="182"/>
-      <c r="B2" s="182"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
-      <c r="G2" s="182"/>
-      <c r="H2" s="182"/>
-      <c r="I2" s="182"/>
-      <c r="J2" s="182"/>
-      <c r="K2" s="182"/>
-      <c r="L2" s="182"/>
-      <c r="M2" s="182"/>
-      <c r="N2" s="182"/>
-      <c r="O2" s="182"/>
-      <c r="P2" s="182"/>
-      <c r="Q2" s="182"/>
-      <c r="R2" s="182"/>
-      <c r="S2" s="182"/>
-      <c r="T2" s="182"/>
-      <c r="U2" s="182"/>
-      <c r="V2" s="182"/>
-      <c r="W2" s="182"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
     </row>
     <row r="3" spans="1:23" ht="0.75" customHeight="1" thickBot="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="173"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
     </row>
     <row r="4" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="183"/>
-      <c r="F4" s="184"/>
-      <c r="G4" s="184"/>
-      <c r="H4" s="184"/>
-      <c r="I4" s="185"/>
-      <c r="J4" s="186"/>
-      <c r="K4" s="184"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="7"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="14"/>
     </row>
     <row r="5" spans="1:23" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="174"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="15"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="23"/>
     </row>
     <row r="6" spans="1:23" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A6" s="187"/>
-      <c r="B6" s="187"/>
-      <c r="C6" s="187"/>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="187"/>
-      <c r="H6" s="187"/>
-      <c r="I6" s="187"/>
-      <c r="J6" s="187"/>
-      <c r="K6" s="187"/>
-      <c r="L6" s="187"/>
-      <c r="M6" s="187"/>
-      <c r="N6" s="187"/>
-      <c r="O6" s="187"/>
-      <c r="P6" s="187"/>
-      <c r="Q6" s="187"/>
-      <c r="R6" s="187"/>
-      <c r="S6" s="187"/>
-      <c r="T6" s="187"/>
-      <c r="U6" s="187"/>
-      <c r="V6" s="187"/>
-      <c r="W6" s="187"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
     </row>
     <row r="7" spans="1:23" ht="12" customHeight="1">
-      <c r="A7" s="188"/>
-      <c r="B7" s="189"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="22"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="34"/>
     </row>
     <row r="8" spans="1:23" ht="12" customHeight="1">
-      <c r="A8" s="190"/>
-      <c r="B8" s="191"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="152"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="128"/>
-      <c r="H8" s="128"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="31"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="44"/>
+      <c r="V8" s="44"/>
+      <c r="W8" s="46"/>
     </row>
     <row r="9" spans="1:23" ht="12" customHeight="1">
-      <c r="A9" s="192"/>
-      <c r="B9" s="193"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="41"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="57"/>
+      <c r="W9" s="58"/>
     </row>
     <row r="10" spans="1:23" ht="12" customHeight="1">
-      <c r="A10" s="190"/>
-      <c r="B10" s="191"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="31"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="45"/>
+      <c r="W10" s="46"/>
     </row>
     <row r="11" spans="1:23" ht="12" customHeight="1">
-      <c r="A11" s="190"/>
-      <c r="B11" s="191"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="50"/>
-      <c r="V11" s="50"/>
-      <c r="W11" s="51"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="68"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="68"/>
+      <c r="T11" s="68"/>
+      <c r="U11" s="68"/>
+      <c r="V11" s="68"/>
+      <c r="W11" s="69"/>
     </row>
     <row r="12" spans="1:23" ht="12" customHeight="1">
-      <c r="A12" s="52"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="56"/>
-      <c r="V12" s="56"/>
-      <c r="W12" s="57"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="74"/>
+      <c r="R12" s="74"/>
+      <c r="S12" s="74"/>
+      <c r="T12" s="74"/>
+      <c r="U12" s="74"/>
+      <c r="V12" s="74"/>
+      <c r="W12" s="75"/>
     </row>
     <row r="13" spans="1:23" ht="12" customHeight="1">
-      <c r="A13" s="52"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="180"/>
-      <c r="D13" s="181"/>
-      <c r="E13" s="153"/>
-      <c r="F13" s="154"/>
-      <c r="G13" s="154"/>
-      <c r="H13" s="154"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="61"/>
-      <c r="T13" s="61"/>
-      <c r="U13" s="61"/>
-      <c r="V13" s="61"/>
-      <c r="W13" s="62"/>
+      <c r="A13" s="70"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="83"/>
+      <c r="Q13" s="83"/>
+      <c r="R13" s="83"/>
+      <c r="S13" s="83"/>
+      <c r="T13" s="83"/>
+      <c r="U13" s="83"/>
+      <c r="V13" s="83"/>
+      <c r="W13" s="84"/>
     </row>
     <row r="14" spans="1:23" ht="12" customHeight="1">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="155"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="68"/>
-      <c r="S14" s="68"/>
-      <c r="T14" s="68"/>
-      <c r="U14" s="68"/>
-      <c r="V14" s="68"/>
-      <c r="W14" s="69"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="92"/>
+      <c r="R14" s="92"/>
+      <c r="S14" s="92"/>
+      <c r="T14" s="92"/>
+      <c r="U14" s="92"/>
+      <c r="V14" s="92"/>
+      <c r="W14" s="93"/>
     </row>
     <row r="15" spans="1:23" ht="12" customHeight="1">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="194"/>
-      <c r="D15" s="195"/>
-      <c r="E15" s="155"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="72"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="72"/>
-      <c r="R15" s="72"/>
-      <c r="S15" s="72"/>
-      <c r="T15" s="72"/>
-      <c r="U15" s="72"/>
-      <c r="V15" s="73"/>
-      <c r="W15" s="74"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="97"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="88"/>
+      <c r="N15" s="88"/>
+      <c r="O15" s="88"/>
+      <c r="P15" s="88"/>
+      <c r="Q15" s="88"/>
+      <c r="R15" s="88"/>
+      <c r="S15" s="88"/>
+      <c r="T15" s="88"/>
+      <c r="U15" s="88"/>
+      <c r="V15" s="98"/>
+      <c r="W15" s="99"/>
     </row>
     <row r="16" spans="1:23" ht="12" customHeight="1">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="180"/>
-      <c r="D16" s="181"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="78"/>
-      <c r="N16" s="78"/>
-      <c r="O16" s="78"/>
-      <c r="P16" s="78"/>
-      <c r="Q16" s="78"/>
-      <c r="R16" s="78"/>
-      <c r="S16" s="78"/>
-      <c r="T16" s="78"/>
-      <c r="U16" s="78"/>
-      <c r="V16" s="78"/>
-      <c r="W16" s="79"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="101"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="103"/>
+      <c r="N16" s="103"/>
+      <c r="O16" s="103"/>
+      <c r="P16" s="103"/>
+      <c r="Q16" s="103"/>
+      <c r="R16" s="103"/>
+      <c r="S16" s="103"/>
+      <c r="T16" s="103"/>
+      <c r="U16" s="103"/>
+      <c r="V16" s="103"/>
+      <c r="W16" s="104"/>
     </row>
     <row r="17" spans="1:23" ht="12" customHeight="1">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="155"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="82"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="106"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="107"/>
     </row>
     <row r="18" spans="1:23" ht="12" customHeight="1">
-      <c r="A18" s="52"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="180"/>
-      <c r="D18" s="181"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="156"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="78"/>
-      <c r="N18" s="78"/>
-      <c r="O18" s="78"/>
-      <c r="P18" s="78"/>
-      <c r="Q18" s="78"/>
-      <c r="R18" s="78"/>
-      <c r="S18" s="78"/>
-      <c r="T18" s="78"/>
-      <c r="U18" s="78"/>
-      <c r="V18" s="78"/>
-      <c r="W18" s="79"/>
+      <c r="A18" s="70"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="109"/>
+      <c r="J18" s="101"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="103"/>
+      <c r="M18" s="103"/>
+      <c r="N18" s="103"/>
+      <c r="O18" s="103"/>
+      <c r="P18" s="103"/>
+      <c r="Q18" s="103"/>
+      <c r="R18" s="103"/>
+      <c r="S18" s="103"/>
+      <c r="T18" s="103"/>
+      <c r="U18" s="103"/>
+      <c r="V18" s="103"/>
+      <c r="W18" s="104"/>
     </row>
     <row r="19" spans="1:23" ht="12" customHeight="1">
-      <c r="A19" s="52"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="92"/>
-      <c r="N19" s="92"/>
-      <c r="O19" s="92"/>
-      <c r="P19" s="92"/>
-      <c r="Q19" s="92"/>
-      <c r="R19" s="92"/>
-      <c r="S19" s="92"/>
-      <c r="T19" s="92"/>
-      <c r="U19" s="92"/>
-      <c r="V19" s="92"/>
-      <c r="W19" s="41"/>
+      <c r="A19" s="70"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="116"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="117"/>
+      <c r="M19" s="117"/>
+      <c r="N19" s="117"/>
+      <c r="O19" s="117"/>
+      <c r="P19" s="117"/>
+      <c r="Q19" s="117"/>
+      <c r="R19" s="117"/>
+      <c r="S19" s="117"/>
+      <c r="T19" s="117"/>
+      <c r="U19" s="117"/>
+      <c r="V19" s="117"/>
+      <c r="W19" s="58"/>
     </row>
     <row r="20" spans="1:23" ht="12" customHeight="1">
-      <c r="A20" s="52"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="95"/>
-      <c r="N20" s="95"/>
-      <c r="O20" s="95"/>
-      <c r="P20" s="95"/>
-      <c r="Q20" s="95"/>
-      <c r="R20" s="95"/>
-      <c r="S20" s="95"/>
-      <c r="T20" s="95"/>
-      <c r="U20" s="95"/>
-      <c r="V20" s="95"/>
-      <c r="W20" s="31"/>
+      <c r="A20" s="70"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="119"/>
+      <c r="M20" s="119"/>
+      <c r="N20" s="119"/>
+      <c r="O20" s="119"/>
+      <c r="P20" s="119"/>
+      <c r="Q20" s="119"/>
+      <c r="R20" s="119"/>
+      <c r="S20" s="119"/>
+      <c r="T20" s="119"/>
+      <c r="U20" s="119"/>
+      <c r="V20" s="119"/>
+      <c r="W20" s="46"/>
     </row>
     <row r="21" spans="1:23" ht="12" customHeight="1">
-      <c r="A21" s="52"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="157"/>
-      <c r="G21" s="158"/>
-      <c r="H21" s="158"/>
-      <c r="I21" s="159"/>
-      <c r="J21" s="81"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="39"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="39"/>
-      <c r="V21" s="39"/>
-      <c r="W21" s="82"/>
+      <c r="A21" s="70"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="106"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="56"/>
+      <c r="U21" s="56"/>
+      <c r="V21" s="56"/>
+      <c r="W21" s="107"/>
     </row>
     <row r="22" spans="1:23" ht="12" customHeight="1">
-      <c r="A22" s="52"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="180"/>
-      <c r="D22" s="181"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="78"/>
-      <c r="O22" s="78"/>
-      <c r="P22" s="78"/>
-      <c r="Q22" s="78"/>
-      <c r="R22" s="78"/>
-      <c r="S22" s="78"/>
-      <c r="T22" s="78"/>
-      <c r="U22" s="78"/>
-      <c r="V22" s="78"/>
-      <c r="W22" s="79"/>
+      <c r="A22" s="70"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="98"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="109"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="102"/>
+      <c r="L22" s="103"/>
+      <c r="M22" s="103"/>
+      <c r="N22" s="103"/>
+      <c r="O22" s="103"/>
+      <c r="P22" s="103"/>
+      <c r="Q22" s="103"/>
+      <c r="R22" s="103"/>
+      <c r="S22" s="103"/>
+      <c r="T22" s="103"/>
+      <c r="U22" s="103"/>
+      <c r="V22" s="103"/>
+      <c r="W22" s="104"/>
     </row>
     <row r="23" spans="1:23" ht="12" customHeight="1">
-      <c r="A23" s="52"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="92"/>
-      <c r="M23" s="92"/>
-      <c r="N23" s="92"/>
-      <c r="O23" s="92"/>
-      <c r="P23" s="92"/>
-      <c r="Q23" s="92"/>
-      <c r="R23" s="92"/>
-      <c r="S23" s="92"/>
-      <c r="T23" s="92"/>
-      <c r="U23" s="92"/>
-      <c r="V23" s="92"/>
-      <c r="W23" s="41"/>
+      <c r="A23" s="70"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="113"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="116"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="117"/>
+      <c r="M23" s="117"/>
+      <c r="N23" s="117"/>
+      <c r="O23" s="117"/>
+      <c r="P23" s="117"/>
+      <c r="Q23" s="117"/>
+      <c r="R23" s="117"/>
+      <c r="S23" s="117"/>
+      <c r="T23" s="117"/>
+      <c r="U23" s="117"/>
+      <c r="V23" s="117"/>
+      <c r="W23" s="58"/>
     </row>
     <row r="24" spans="1:23" ht="12" customHeight="1">
-      <c r="A24" s="52"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="95"/>
-      <c r="N24" s="95"/>
-      <c r="O24" s="95"/>
-      <c r="P24" s="95"/>
-      <c r="Q24" s="95"/>
-      <c r="R24" s="95"/>
-      <c r="S24" s="95"/>
-      <c r="T24" s="95"/>
-      <c r="U24" s="95"/>
-      <c r="V24" s="95"/>
-      <c r="W24" s="31"/>
+      <c r="A24" s="70"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="113"/>
+      <c r="G24" s="114"/>
+      <c r="H24" s="114"/>
+      <c r="I24" s="115"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="119"/>
+      <c r="M24" s="119"/>
+      <c r="N24" s="119"/>
+      <c r="O24" s="119"/>
+      <c r="P24" s="119"/>
+      <c r="Q24" s="119"/>
+      <c r="R24" s="119"/>
+      <c r="S24" s="119"/>
+      <c r="T24" s="119"/>
+      <c r="U24" s="119"/>
+      <c r="V24" s="119"/>
+      <c r="W24" s="46"/>
     </row>
     <row r="25" spans="1:23" ht="12" customHeight="1">
-      <c r="A25" s="52"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="157"/>
-      <c r="G25" s="158"/>
-      <c r="H25" s="158"/>
-      <c r="I25" s="159"/>
-      <c r="J25" s="81"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
-      <c r="T25" s="39"/>
-      <c r="U25" s="39"/>
-      <c r="V25" s="39"/>
-      <c r="W25" s="82"/>
+      <c r="A25" s="70"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="120"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="123"/>
+      <c r="J25" s="106"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="56"/>
+      <c r="U25" s="56"/>
+      <c r="V25" s="56"/>
+      <c r="W25" s="107"/>
     </row>
     <row r="26" spans="1:23" ht="12" customHeight="1">
-      <c r="A26" s="52"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="180"/>
-      <c r="D26" s="181"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="156"/>
-      <c r="J26" s="98"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="78"/>
-      <c r="N26" s="78"/>
-      <c r="O26" s="78"/>
-      <c r="P26" s="78"/>
-      <c r="Q26" s="78"/>
-      <c r="R26" s="78"/>
-      <c r="S26" s="78"/>
-      <c r="T26" s="78"/>
-      <c r="U26" s="78"/>
-      <c r="V26" s="78"/>
-      <c r="W26" s="79"/>
+      <c r="A26" s="70"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="109"/>
+      <c r="J26" s="124"/>
+      <c r="K26" s="102"/>
+      <c r="L26" s="103"/>
+      <c r="M26" s="103"/>
+      <c r="N26" s="103"/>
+      <c r="O26" s="103"/>
+      <c r="P26" s="103"/>
+      <c r="Q26" s="103"/>
+      <c r="R26" s="103"/>
+      <c r="S26" s="103"/>
+      <c r="T26" s="103"/>
+      <c r="U26" s="103"/>
+      <c r="V26" s="103"/>
+      <c r="W26" s="104"/>
     </row>
     <row r="27" spans="1:23" ht="12" customHeight="1">
-      <c r="A27" s="52"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="90"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="92"/>
-      <c r="M27" s="92"/>
-      <c r="N27" s="92"/>
-      <c r="O27" s="92"/>
-      <c r="P27" s="92"/>
-      <c r="Q27" s="92"/>
-      <c r="R27" s="92"/>
-      <c r="S27" s="92"/>
-      <c r="T27" s="92"/>
-      <c r="U27" s="92"/>
-      <c r="V27" s="92"/>
-      <c r="W27" s="41"/>
+      <c r="A27" s="70"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="113"/>
+      <c r="G27" s="114"/>
+      <c r="H27" s="114"/>
+      <c r="I27" s="115"/>
+      <c r="J27" s="116"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="117"/>
+      <c r="M27" s="117"/>
+      <c r="N27" s="117"/>
+      <c r="O27" s="117"/>
+      <c r="P27" s="117"/>
+      <c r="Q27" s="117"/>
+      <c r="R27" s="117"/>
+      <c r="S27" s="117"/>
+      <c r="T27" s="117"/>
+      <c r="U27" s="117"/>
+      <c r="V27" s="117"/>
+      <c r="W27" s="58"/>
     </row>
     <row r="28" spans="1:23" ht="12" customHeight="1">
-      <c r="A28" s="52"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="99"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="95"/>
-      <c r="M28" s="95"/>
-      <c r="N28" s="95"/>
-      <c r="O28" s="95"/>
-      <c r="P28" s="95"/>
-      <c r="Q28" s="95"/>
-      <c r="R28" s="95"/>
-      <c r="S28" s="95"/>
-      <c r="T28" s="95"/>
-      <c r="U28" s="95"/>
-      <c r="V28" s="95"/>
-      <c r="W28" s="31"/>
+      <c r="A28" s="70"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="110"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="115"/>
+      <c r="J28" s="125"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="119"/>
+      <c r="M28" s="119"/>
+      <c r="N28" s="119"/>
+      <c r="O28" s="119"/>
+      <c r="P28" s="119"/>
+      <c r="Q28" s="119"/>
+      <c r="R28" s="119"/>
+      <c r="S28" s="119"/>
+      <c r="T28" s="119"/>
+      <c r="U28" s="119"/>
+      <c r="V28" s="119"/>
+      <c r="W28" s="46"/>
     </row>
     <row r="29" spans="1:23" ht="12" customHeight="1">
-      <c r="A29" s="52"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="157"/>
-      <c r="G29" s="158"/>
-      <c r="H29" s="158"/>
-      <c r="I29" s="159"/>
-      <c r="J29" s="100"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="39"/>
-      <c r="S29" s="39"/>
-      <c r="T29" s="39"/>
-      <c r="U29" s="39"/>
-      <c r="V29" s="39"/>
-      <c r="W29" s="82"/>
+      <c r="A29" s="70"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="121"/>
+      <c r="G29" s="122"/>
+      <c r="H29" s="122"/>
+      <c r="I29" s="123"/>
+      <c r="J29" s="126"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="56"/>
+      <c r="R29" s="56"/>
+      <c r="S29" s="56"/>
+      <c r="T29" s="56"/>
+      <c r="U29" s="56"/>
+      <c r="V29" s="56"/>
+      <c r="W29" s="107"/>
     </row>
     <row r="30" spans="1:23" ht="12" customHeight="1">
-      <c r="A30" s="52"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="180"/>
-      <c r="D30" s="181"/>
-      <c r="E30" s="160"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="101"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="78"/>
-      <c r="M30" s="78"/>
-      <c r="N30" s="78"/>
-      <c r="O30" s="78"/>
-      <c r="P30" s="78"/>
-      <c r="Q30" s="78"/>
-      <c r="R30" s="78"/>
-      <c r="S30" s="78"/>
-      <c r="T30" s="78"/>
-      <c r="U30" s="78"/>
-      <c r="V30" s="78"/>
-      <c r="W30" s="79"/>
+      <c r="A30" s="70"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="127"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="98"/>
+      <c r="I30" s="128"/>
+      <c r="J30" s="101"/>
+      <c r="K30" s="102"/>
+      <c r="L30" s="103"/>
+      <c r="M30" s="103"/>
+      <c r="N30" s="103"/>
+      <c r="O30" s="103"/>
+      <c r="P30" s="103"/>
+      <c r="Q30" s="103"/>
+      <c r="R30" s="103"/>
+      <c r="S30" s="103"/>
+      <c r="T30" s="103"/>
+      <c r="U30" s="103"/>
+      <c r="V30" s="103"/>
+      <c r="W30" s="104"/>
     </row>
     <row r="31" spans="1:23" ht="12" customHeight="1">
-      <c r="A31" s="52"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="161"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="89"/>
-      <c r="I31" s="103"/>
-      <c r="J31" s="91"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="92"/>
-      <c r="M31" s="92"/>
-      <c r="N31" s="92"/>
-      <c r="O31" s="92"/>
-      <c r="P31" s="92"/>
-      <c r="Q31" s="92"/>
-      <c r="R31" s="92"/>
-      <c r="S31" s="92"/>
-      <c r="T31" s="92"/>
-      <c r="U31" s="92"/>
-      <c r="V31" s="92"/>
-      <c r="W31" s="41"/>
+      <c r="A31" s="70"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="110"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="129"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="114"/>
+      <c r="H31" s="114"/>
+      <c r="I31" s="130"/>
+      <c r="J31" s="116"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="117"/>
+      <c r="M31" s="117"/>
+      <c r="N31" s="117"/>
+      <c r="O31" s="117"/>
+      <c r="P31" s="117"/>
+      <c r="Q31" s="117"/>
+      <c r="R31" s="117"/>
+      <c r="S31" s="117"/>
+      <c r="T31" s="117"/>
+      <c r="U31" s="117"/>
+      <c r="V31" s="117"/>
+      <c r="W31" s="58"/>
     </row>
     <row r="32" spans="1:23" ht="12" customHeight="1">
-      <c r="A32" s="52"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="161"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="89"/>
-      <c r="I32" s="103"/>
-      <c r="J32" s="94"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="95"/>
-      <c r="M32" s="95"/>
-      <c r="N32" s="95"/>
-      <c r="O32" s="95"/>
-      <c r="P32" s="95"/>
-      <c r="Q32" s="95"/>
-      <c r="R32" s="95"/>
-      <c r="S32" s="95"/>
-      <c r="T32" s="95"/>
-      <c r="U32" s="95"/>
-      <c r="V32" s="95"/>
-      <c r="W32" s="31"/>
+      <c r="A32" s="70"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="110"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="129"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="114"/>
+      <c r="I32" s="130"/>
+      <c r="J32" s="118"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="119"/>
+      <c r="M32" s="119"/>
+      <c r="N32" s="119"/>
+      <c r="O32" s="119"/>
+      <c r="P32" s="119"/>
+      <c r="Q32" s="119"/>
+      <c r="R32" s="119"/>
+      <c r="S32" s="119"/>
+      <c r="T32" s="119"/>
+      <c r="U32" s="119"/>
+      <c r="V32" s="119"/>
+      <c r="W32" s="46"/>
     </row>
     <row r="33" spans="1:23" ht="12" customHeight="1">
-      <c r="A33" s="52"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="162"/>
-      <c r="F33" s="158"/>
-      <c r="G33" s="158"/>
-      <c r="H33" s="158"/>
-      <c r="I33" s="104"/>
-      <c r="J33" s="70"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="39"/>
-      <c r="S33" s="39"/>
-      <c r="T33" s="39"/>
-      <c r="U33" s="39"/>
-      <c r="V33" s="39"/>
-      <c r="W33" s="82"/>
+      <c r="A33" s="70"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="131"/>
+      <c r="F33" s="122"/>
+      <c r="G33" s="122"/>
+      <c r="H33" s="122"/>
+      <c r="I33" s="132"/>
+      <c r="J33" s="96"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="56"/>
+      <c r="O33" s="56"/>
+      <c r="P33" s="56"/>
+      <c r="Q33" s="56"/>
+      <c r="R33" s="56"/>
+      <c r="S33" s="56"/>
+      <c r="T33" s="56"/>
+      <c r="U33" s="56"/>
+      <c r="V33" s="56"/>
+      <c r="W33" s="107"/>
     </row>
     <row r="34" spans="1:23" ht="12" customHeight="1">
-      <c r="A34" s="52"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="180"/>
-      <c r="D34" s="181"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="106"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="106"/>
-      <c r="I34" s="101"/>
-      <c r="J34" s="107"/>
-      <c r="K34" s="108"/>
-      <c r="L34" s="109"/>
-      <c r="M34" s="109"/>
-      <c r="N34" s="109"/>
-      <c r="O34" s="109"/>
-      <c r="P34" s="109"/>
-      <c r="Q34" s="109"/>
-      <c r="R34" s="109"/>
-      <c r="S34" s="109"/>
-      <c r="T34" s="109"/>
-      <c r="U34" s="109"/>
-      <c r="V34" s="110"/>
-      <c r="W34" s="111"/>
+      <c r="A34" s="70"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="133"/>
+      <c r="F34" s="134"/>
+      <c r="G34" s="135"/>
+      <c r="H34" s="134"/>
+      <c r="I34" s="128"/>
+      <c r="J34" s="136"/>
+      <c r="K34" s="137"/>
+      <c r="L34" s="138"/>
+      <c r="M34" s="138"/>
+      <c r="N34" s="138"/>
+      <c r="O34" s="138"/>
+      <c r="P34" s="138"/>
+      <c r="Q34" s="138"/>
+      <c r="R34" s="138"/>
+      <c r="S34" s="138"/>
+      <c r="T34" s="138"/>
+      <c r="U34" s="138"/>
+      <c r="V34" s="139"/>
+      <c r="W34" s="140"/>
     </row>
     <row r="35" spans="1:23" ht="12" customHeight="1">
-      <c r="A35" s="52"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="102"/>
-      <c r="F35" s="93"/>
-      <c r="G35" s="93"/>
-      <c r="H35" s="93"/>
-      <c r="I35" s="103"/>
-      <c r="J35" s="112"/>
-      <c r="K35" s="113"/>
-      <c r="L35" s="114"/>
-      <c r="M35" s="114"/>
-      <c r="N35" s="114"/>
-      <c r="O35" s="114"/>
-      <c r="P35" s="114"/>
-      <c r="Q35" s="114"/>
-      <c r="R35" s="114"/>
-      <c r="S35" s="114"/>
-      <c r="T35" s="114"/>
-      <c r="U35" s="114"/>
-      <c r="V35" s="115"/>
-      <c r="W35" s="116"/>
+      <c r="A35" s="70"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="141"/>
+      <c r="F35" s="142"/>
+      <c r="G35" s="142"/>
+      <c r="H35" s="142"/>
+      <c r="I35" s="130"/>
+      <c r="J35" s="143"/>
+      <c r="K35" s="144"/>
+      <c r="L35" s="145"/>
+      <c r="M35" s="145"/>
+      <c r="N35" s="145"/>
+      <c r="O35" s="145"/>
+      <c r="P35" s="145"/>
+      <c r="Q35" s="145"/>
+      <c r="R35" s="145"/>
+      <c r="S35" s="145"/>
+      <c r="T35" s="145"/>
+      <c r="U35" s="145"/>
+      <c r="V35" s="146"/>
+      <c r="W35" s="147"/>
     </row>
     <row r="36" spans="1:23" ht="12" customHeight="1">
-      <c r="A36" s="52"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="161"/>
-      <c r="F36" s="89"/>
-      <c r="G36" s="89"/>
-      <c r="H36" s="89"/>
-      <c r="I36" s="103"/>
-      <c r="J36" s="107"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="95"/>
-      <c r="M36" s="95"/>
-      <c r="N36" s="95"/>
-      <c r="O36" s="95"/>
-      <c r="P36" s="95"/>
-      <c r="Q36" s="95"/>
-      <c r="R36" s="95"/>
-      <c r="S36" s="95"/>
-      <c r="T36" s="95"/>
-      <c r="U36" s="95"/>
-      <c r="V36" s="95"/>
-      <c r="W36" s="31"/>
+      <c r="A36" s="70"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="110"/>
+      <c r="D36" s="111"/>
+      <c r="E36" s="129"/>
+      <c r="F36" s="114"/>
+      <c r="G36" s="114"/>
+      <c r="H36" s="114"/>
+      <c r="I36" s="130"/>
+      <c r="J36" s="136"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="119"/>
+      <c r="M36" s="119"/>
+      <c r="N36" s="119"/>
+      <c r="O36" s="119"/>
+      <c r="P36" s="119"/>
+      <c r="Q36" s="119"/>
+      <c r="R36" s="119"/>
+      <c r="S36" s="119"/>
+      <c r="T36" s="119"/>
+      <c r="U36" s="119"/>
+      <c r="V36" s="119"/>
+      <c r="W36" s="46"/>
     </row>
     <row r="37" spans="1:23" ht="12" customHeight="1">
-      <c r="A37" s="52"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="63"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="162"/>
-      <c r="F37" s="158"/>
-      <c r="G37" s="158"/>
-      <c r="H37" s="158"/>
-      <c r="I37" s="104"/>
-      <c r="J37" s="112"/>
-      <c r="K37" s="117"/>
-      <c r="L37" s="118"/>
-      <c r="M37" s="118"/>
-      <c r="N37" s="118"/>
-      <c r="O37" s="118"/>
-      <c r="P37" s="118"/>
-      <c r="Q37" s="118"/>
-      <c r="R37" s="118"/>
-      <c r="S37" s="118"/>
-      <c r="T37" s="118"/>
-      <c r="U37" s="118"/>
-      <c r="V37" s="115"/>
-      <c r="W37" s="119"/>
+      <c r="A37" s="70"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="86"/>
+      <c r="E37" s="131"/>
+      <c r="F37" s="122"/>
+      <c r="G37" s="122"/>
+      <c r="H37" s="122"/>
+      <c r="I37" s="132"/>
+      <c r="J37" s="143"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
+      <c r="N37" s="149"/>
+      <c r="O37" s="149"/>
+      <c r="P37" s="149"/>
+      <c r="Q37" s="149"/>
+      <c r="R37" s="149"/>
+      <c r="S37" s="149"/>
+      <c r="T37" s="149"/>
+      <c r="U37" s="149"/>
+      <c r="V37" s="146"/>
+      <c r="W37" s="150"/>
     </row>
     <row r="38" spans="1:23" ht="12" customHeight="1">
-      <c r="A38" s="52"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="180"/>
-      <c r="D38" s="181"/>
-      <c r="E38" s="163"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="101"/>
-      <c r="J38" s="98"/>
-      <c r="K38" s="77"/>
-      <c r="L38" s="78"/>
-      <c r="M38" s="78"/>
-      <c r="N38" s="78"/>
-      <c r="O38" s="78"/>
-      <c r="P38" s="78"/>
-      <c r="Q38" s="78"/>
-      <c r="R38" s="78"/>
-      <c r="S38" s="78"/>
-      <c r="T38" s="78"/>
-      <c r="U38" s="78"/>
-      <c r="V38" s="78"/>
-      <c r="W38" s="79"/>
+      <c r="A38" s="70"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="151"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="128"/>
+      <c r="J38" s="124"/>
+      <c r="K38" s="102"/>
+      <c r="L38" s="103"/>
+      <c r="M38" s="103"/>
+      <c r="N38" s="103"/>
+      <c r="O38" s="103"/>
+      <c r="P38" s="103"/>
+      <c r="Q38" s="103"/>
+      <c r="R38" s="103"/>
+      <c r="S38" s="103"/>
+      <c r="T38" s="103"/>
+      <c r="U38" s="103"/>
+      <c r="V38" s="103"/>
+      <c r="W38" s="104"/>
     </row>
     <row r="39" spans="1:23" ht="12" customHeight="1">
-      <c r="A39" s="52"/>
-      <c r="B39" s="52"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="86"/>
-      <c r="E39" s="164"/>
-      <c r="F39" s="128"/>
-      <c r="G39" s="128"/>
-      <c r="H39" s="128"/>
-      <c r="I39" s="103"/>
-      <c r="J39" s="91"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="92"/>
-      <c r="M39" s="92"/>
-      <c r="N39" s="92"/>
-      <c r="O39" s="92"/>
-      <c r="P39" s="92"/>
-      <c r="Q39" s="92"/>
-      <c r="R39" s="92"/>
-      <c r="S39" s="92"/>
-      <c r="T39" s="92"/>
-      <c r="U39" s="92"/>
-      <c r="V39" s="92"/>
-      <c r="W39" s="41"/>
+      <c r="A39" s="70"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="110"/>
+      <c r="D39" s="111"/>
+      <c r="E39" s="152"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="130"/>
+      <c r="J39" s="116"/>
+      <c r="K39" s="55"/>
+      <c r="L39" s="117"/>
+      <c r="M39" s="117"/>
+      <c r="N39" s="117"/>
+      <c r="O39" s="117"/>
+      <c r="P39" s="117"/>
+      <c r="Q39" s="117"/>
+      <c r="R39" s="117"/>
+      <c r="S39" s="117"/>
+      <c r="T39" s="117"/>
+      <c r="U39" s="117"/>
+      <c r="V39" s="117"/>
+      <c r="W39" s="58"/>
     </row>
     <row r="40" spans="1:23" ht="12" customHeight="1">
-      <c r="A40" s="52"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="85"/>
-      <c r="D40" s="86"/>
-      <c r="E40" s="161"/>
-      <c r="F40" s="89"/>
-      <c r="G40" s="89"/>
-      <c r="H40" s="165"/>
-      <c r="I40" s="103"/>
-      <c r="J40" s="99"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="95"/>
-      <c r="M40" s="95"/>
-      <c r="N40" s="95"/>
-      <c r="O40" s="95"/>
-      <c r="P40" s="95"/>
-      <c r="Q40" s="95"/>
-      <c r="R40" s="95"/>
-      <c r="S40" s="95"/>
-      <c r="T40" s="95"/>
-      <c r="U40" s="95"/>
-      <c r="V40" s="95"/>
-      <c r="W40" s="31"/>
+      <c r="A40" s="70"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="110"/>
+      <c r="D40" s="111"/>
+      <c r="E40" s="129"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="114"/>
+      <c r="H40" s="153"/>
+      <c r="I40" s="130"/>
+      <c r="J40" s="125"/>
+      <c r="K40" s="61"/>
+      <c r="L40" s="119"/>
+      <c r="M40" s="119"/>
+      <c r="N40" s="119"/>
+      <c r="O40" s="119"/>
+      <c r="P40" s="119"/>
+      <c r="Q40" s="119"/>
+      <c r="R40" s="119"/>
+      <c r="S40" s="119"/>
+      <c r="T40" s="119"/>
+      <c r="U40" s="119"/>
+      <c r="V40" s="119"/>
+      <c r="W40" s="46"/>
     </row>
     <row r="41" spans="1:23" ht="12" customHeight="1">
-      <c r="A41" s="52"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="162"/>
-      <c r="F41" s="158"/>
-      <c r="G41" s="158"/>
-      <c r="H41" s="71"/>
-      <c r="I41" s="104"/>
-      <c r="J41" s="121"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="39"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="39"/>
-      <c r="Q41" s="39"/>
-      <c r="R41" s="39"/>
-      <c r="S41" s="39"/>
-      <c r="T41" s="39"/>
-      <c r="U41" s="39"/>
-      <c r="V41" s="39"/>
-      <c r="W41" s="82"/>
+      <c r="A41" s="70"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="86"/>
+      <c r="E41" s="131"/>
+      <c r="F41" s="122"/>
+      <c r="G41" s="122"/>
+      <c r="H41" s="97"/>
+      <c r="I41" s="132"/>
+      <c r="J41" s="154"/>
+      <c r="K41" s="57"/>
+      <c r="L41" s="56"/>
+      <c r="M41" s="56"/>
+      <c r="N41" s="56"/>
+      <c r="O41" s="56"/>
+      <c r="P41" s="56"/>
+      <c r="Q41" s="56"/>
+      <c r="R41" s="56"/>
+      <c r="S41" s="56"/>
+      <c r="T41" s="56"/>
+      <c r="U41" s="56"/>
+      <c r="V41" s="56"/>
+      <c r="W41" s="107"/>
     </row>
     <row r="42" spans="1:23" ht="12" customHeight="1">
-      <c r="A42" s="52"/>
-      <c r="B42" s="52"/>
-      <c r="C42" s="180"/>
-      <c r="D42" s="181"/>
-      <c r="E42" s="163"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="101"/>
-      <c r="J42" s="98"/>
-      <c r="K42" s="77"/>
-      <c r="L42" s="78"/>
-      <c r="M42" s="78"/>
-      <c r="N42" s="78"/>
-      <c r="O42" s="78"/>
-      <c r="P42" s="78"/>
-      <c r="Q42" s="78"/>
-      <c r="R42" s="78"/>
-      <c r="S42" s="78"/>
-      <c r="T42" s="78"/>
-      <c r="U42" s="78"/>
-      <c r="V42" s="78"/>
-      <c r="W42" s="79"/>
+      <c r="A42" s="70"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="151"/>
+      <c r="F42" s="83"/>
+      <c r="G42" s="83"/>
+      <c r="H42" s="83"/>
+      <c r="I42" s="128"/>
+      <c r="J42" s="124"/>
+      <c r="K42" s="102"/>
+      <c r="L42" s="103"/>
+      <c r="M42" s="103"/>
+      <c r="N42" s="103"/>
+      <c r="O42" s="103"/>
+      <c r="P42" s="103"/>
+      <c r="Q42" s="103"/>
+      <c r="R42" s="103"/>
+      <c r="S42" s="103"/>
+      <c r="T42" s="103"/>
+      <c r="U42" s="103"/>
+      <c r="V42" s="103"/>
+      <c r="W42" s="104"/>
     </row>
     <row r="43" spans="1:23" ht="12" customHeight="1">
-      <c r="A43" s="52"/>
-      <c r="B43" s="52"/>
-      <c r="C43" s="85"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="164"/>
-      <c r="F43" s="128"/>
-      <c r="G43" s="128"/>
-      <c r="H43" s="128"/>
-      <c r="I43" s="103"/>
-      <c r="J43" s="91"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="92"/>
-      <c r="M43" s="92"/>
-      <c r="N43" s="92"/>
-      <c r="O43" s="92"/>
-      <c r="P43" s="92"/>
-      <c r="Q43" s="92"/>
-      <c r="R43" s="92"/>
-      <c r="S43" s="92"/>
-      <c r="T43" s="92"/>
-      <c r="U43" s="92"/>
-      <c r="V43" s="92"/>
-      <c r="W43" s="41"/>
+      <c r="A43" s="70"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="110"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="152"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="130"/>
+      <c r="J43" s="116"/>
+      <c r="K43" s="55"/>
+      <c r="L43" s="117"/>
+      <c r="M43" s="117"/>
+      <c r="N43" s="117"/>
+      <c r="O43" s="117"/>
+      <c r="P43" s="117"/>
+      <c r="Q43" s="117"/>
+      <c r="R43" s="117"/>
+      <c r="S43" s="117"/>
+      <c r="T43" s="117"/>
+      <c r="U43" s="117"/>
+      <c r="V43" s="117"/>
+      <c r="W43" s="58"/>
     </row>
     <row r="44" spans="1:23" ht="12" customHeight="1">
-      <c r="A44" s="52"/>
-      <c r="B44" s="52"/>
-      <c r="C44" s="85"/>
-      <c r="D44" s="86"/>
-      <c r="E44" s="161"/>
-      <c r="F44" s="89"/>
-      <c r="G44" s="89"/>
-      <c r="H44" s="165"/>
-      <c r="I44" s="103"/>
-      <c r="J44" s="99"/>
-      <c r="K44" s="43"/>
-      <c r="L44" s="95"/>
-      <c r="M44" s="95"/>
-      <c r="N44" s="95"/>
-      <c r="O44" s="95"/>
-      <c r="P44" s="95"/>
-      <c r="Q44" s="95"/>
-      <c r="R44" s="95"/>
-      <c r="S44" s="95"/>
-      <c r="T44" s="95"/>
-      <c r="U44" s="95"/>
-      <c r="V44" s="95"/>
-      <c r="W44" s="31"/>
+      <c r="A44" s="70"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="110"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="129"/>
+      <c r="F44" s="114"/>
+      <c r="G44" s="114"/>
+      <c r="H44" s="153"/>
+      <c r="I44" s="130"/>
+      <c r="J44" s="125"/>
+      <c r="K44" s="61"/>
+      <c r="L44" s="119"/>
+      <c r="M44" s="119"/>
+      <c r="N44" s="119"/>
+      <c r="O44" s="119"/>
+      <c r="P44" s="119"/>
+      <c r="Q44" s="119"/>
+      <c r="R44" s="119"/>
+      <c r="S44" s="119"/>
+      <c r="T44" s="119"/>
+      <c r="U44" s="119"/>
+      <c r="V44" s="119"/>
+      <c r="W44" s="46"/>
     </row>
     <row r="45" spans="1:23" ht="12" customHeight="1">
-      <c r="A45" s="52"/>
-      <c r="B45" s="52"/>
-      <c r="C45" s="63"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="162"/>
-      <c r="F45" s="158"/>
-      <c r="G45" s="158"/>
-      <c r="H45" s="158"/>
-      <c r="I45" s="104"/>
-      <c r="J45" s="121"/>
-      <c r="K45" s="40"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="39"/>
-      <c r="N45" s="39"/>
-      <c r="O45" s="39"/>
-      <c r="P45" s="39"/>
-      <c r="Q45" s="39"/>
-      <c r="R45" s="39"/>
-      <c r="S45" s="39"/>
-      <c r="T45" s="39"/>
-      <c r="U45" s="39"/>
-      <c r="V45" s="39"/>
-      <c r="W45" s="82"/>
+      <c r="A45" s="70"/>
+      <c r="B45" s="70"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="86"/>
+      <c r="E45" s="131"/>
+      <c r="F45" s="122"/>
+      <c r="G45" s="122"/>
+      <c r="H45" s="122"/>
+      <c r="I45" s="132"/>
+      <c r="J45" s="154"/>
+      <c r="K45" s="57"/>
+      <c r="L45" s="56"/>
+      <c r="M45" s="56"/>
+      <c r="N45" s="56"/>
+      <c r="O45" s="56"/>
+      <c r="P45" s="56"/>
+      <c r="Q45" s="56"/>
+      <c r="R45" s="56"/>
+      <c r="S45" s="56"/>
+      <c r="T45" s="56"/>
+      <c r="U45" s="56"/>
+      <c r="V45" s="56"/>
+      <c r="W45" s="107"/>
     </row>
     <row r="46" spans="1:23" ht="12" customHeight="1">
-      <c r="A46" s="52"/>
-      <c r="B46" s="52"/>
-      <c r="C46" s="180"/>
-      <c r="D46" s="181"/>
-      <c r="E46" s="83"/>
-      <c r="F46" s="122"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="61"/>
-      <c r="I46" s="166"/>
-      <c r="J46" s="98"/>
-      <c r="K46" s="77"/>
-      <c r="L46" s="78"/>
-      <c r="M46" s="78"/>
-      <c r="N46" s="78"/>
-      <c r="O46" s="78"/>
-      <c r="P46" s="78"/>
-      <c r="Q46" s="78"/>
-      <c r="R46" s="78"/>
-      <c r="S46" s="78"/>
-      <c r="T46" s="78"/>
-      <c r="U46" s="78"/>
-      <c r="V46" s="78"/>
-      <c r="W46" s="79"/>
+      <c r="A46" s="70"/>
+      <c r="B46" s="70"/>
+      <c r="C46" s="76"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="108"/>
+      <c r="F46" s="155"/>
+      <c r="G46" s="83"/>
+      <c r="H46" s="83"/>
+      <c r="I46" s="156"/>
+      <c r="J46" s="124"/>
+      <c r="K46" s="102"/>
+      <c r="L46" s="103"/>
+      <c r="M46" s="103"/>
+      <c r="N46" s="103"/>
+      <c r="O46" s="103"/>
+      <c r="P46" s="103"/>
+      <c r="Q46" s="103"/>
+      <c r="R46" s="103"/>
+      <c r="S46" s="103"/>
+      <c r="T46" s="103"/>
+      <c r="U46" s="103"/>
+      <c r="V46" s="103"/>
+      <c r="W46" s="104"/>
     </row>
     <row r="47" spans="1:23" ht="12" customHeight="1">
-      <c r="A47" s="52"/>
-      <c r="B47" s="52"/>
-      <c r="C47" s="85"/>
-      <c r="D47" s="86"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="128"/>
-      <c r="H47" s="128"/>
-      <c r="I47" s="167"/>
-      <c r="J47" s="91"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="92"/>
-      <c r="M47" s="92"/>
-      <c r="N47" s="92"/>
-      <c r="O47" s="92"/>
-      <c r="P47" s="92"/>
-      <c r="Q47" s="92"/>
-      <c r="R47" s="92"/>
-      <c r="S47" s="92"/>
-      <c r="T47" s="92"/>
-      <c r="U47" s="92"/>
-      <c r="V47" s="92"/>
-      <c r="W47" s="41"/>
+      <c r="A47" s="70"/>
+      <c r="B47" s="70"/>
+      <c r="C47" s="110"/>
+      <c r="D47" s="111"/>
+      <c r="E47" s="112"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="157"/>
+      <c r="J47" s="116"/>
+      <c r="K47" s="55"/>
+      <c r="L47" s="117"/>
+      <c r="M47" s="117"/>
+      <c r="N47" s="117"/>
+      <c r="O47" s="117"/>
+      <c r="P47" s="117"/>
+      <c r="Q47" s="117"/>
+      <c r="R47" s="117"/>
+      <c r="S47" s="117"/>
+      <c r="T47" s="117"/>
+      <c r="U47" s="117"/>
+      <c r="V47" s="117"/>
+      <c r="W47" s="58"/>
     </row>
     <row r="48" spans="1:23" ht="12" customHeight="1">
-      <c r="A48" s="52"/>
-      <c r="B48" s="52"/>
-      <c r="C48" s="85"/>
-      <c r="D48" s="86"/>
-      <c r="E48" s="87"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="123"/>
-      <c r="H48" s="124"/>
-      <c r="I48" s="103"/>
-      <c r="J48" s="125"/>
-      <c r="K48" s="43"/>
-      <c r="L48" s="95"/>
-      <c r="M48" s="95"/>
-      <c r="N48" s="95"/>
-      <c r="O48" s="95"/>
-      <c r="P48" s="95"/>
-      <c r="Q48" s="95"/>
-      <c r="R48" s="95"/>
-      <c r="S48" s="95"/>
-      <c r="T48" s="95"/>
-      <c r="U48" s="95"/>
-      <c r="V48" s="95"/>
-      <c r="W48" s="31"/>
+      <c r="A48" s="70"/>
+      <c r="B48" s="70"/>
+      <c r="C48" s="110"/>
+      <c r="D48" s="111"/>
+      <c r="E48" s="112"/>
+      <c r="F48" s="74"/>
+      <c r="G48" s="158"/>
+      <c r="H48" s="159"/>
+      <c r="I48" s="130"/>
+      <c r="J48" s="160"/>
+      <c r="K48" s="61"/>
+      <c r="L48" s="119"/>
+      <c r="M48" s="119"/>
+      <c r="N48" s="119"/>
+      <c r="O48" s="119"/>
+      <c r="P48" s="119"/>
+      <c r="Q48" s="119"/>
+      <c r="R48" s="119"/>
+      <c r="S48" s="119"/>
+      <c r="T48" s="119"/>
+      <c r="U48" s="119"/>
+      <c r="V48" s="119"/>
+      <c r="W48" s="46"/>
     </row>
     <row r="49" spans="1:23" ht="12" customHeight="1">
-      <c r="A49" s="52"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="63"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="96"/>
-      <c r="F49" s="126"/>
-      <c r="G49" s="97"/>
-      <c r="H49" s="120"/>
-      <c r="I49" s="104"/>
-      <c r="J49" s="100"/>
-      <c r="K49" s="40"/>
-      <c r="L49" s="39"/>
-      <c r="M49" s="39"/>
-      <c r="N49" s="39"/>
-      <c r="O49" s="39"/>
-      <c r="P49" s="39"/>
-      <c r="Q49" s="39"/>
-      <c r="R49" s="39"/>
-      <c r="S49" s="39"/>
-      <c r="T49" s="39"/>
-      <c r="U49" s="39"/>
-      <c r="V49" s="39"/>
-      <c r="W49" s="82"/>
+      <c r="A49" s="70"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="85"/>
+      <c r="D49" s="86"/>
+      <c r="E49" s="120"/>
+      <c r="F49" s="161"/>
+      <c r="G49" s="162"/>
+      <c r="H49" s="163"/>
+      <c r="I49" s="132"/>
+      <c r="J49" s="126"/>
+      <c r="K49" s="57"/>
+      <c r="L49" s="56"/>
+      <c r="M49" s="56"/>
+      <c r="N49" s="56"/>
+      <c r="O49" s="56"/>
+      <c r="P49" s="56"/>
+      <c r="Q49" s="56"/>
+      <c r="R49" s="56"/>
+      <c r="S49" s="56"/>
+      <c r="T49" s="56"/>
+      <c r="U49" s="56"/>
+      <c r="V49" s="56"/>
+      <c r="W49" s="107"/>
     </row>
     <row r="50" spans="1:23" ht="12" customHeight="1">
-      <c r="A50" s="52"/>
-      <c r="B50" s="52"/>
-      <c r="C50" s="180"/>
-      <c r="D50" s="181"/>
-      <c r="E50" s="83"/>
-      <c r="F50" s="122"/>
-      <c r="G50" s="61"/>
-      <c r="H50" s="61"/>
-      <c r="I50" s="166"/>
-      <c r="J50" s="98"/>
-      <c r="K50" s="77"/>
-      <c r="L50" s="78"/>
-      <c r="M50" s="78"/>
-      <c r="N50" s="78"/>
-      <c r="O50" s="78"/>
-      <c r="P50" s="78"/>
-      <c r="Q50" s="78"/>
-      <c r="R50" s="78"/>
-      <c r="S50" s="78"/>
-      <c r="T50" s="78"/>
-      <c r="U50" s="78"/>
-      <c r="V50" s="78"/>
-      <c r="W50" s="79"/>
+      <c r="A50" s="70"/>
+      <c r="B50" s="70"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="77"/>
+      <c r="E50" s="108"/>
+      <c r="F50" s="155"/>
+      <c r="G50" s="83"/>
+      <c r="H50" s="83"/>
+      <c r="I50" s="156"/>
+      <c r="J50" s="124"/>
+      <c r="K50" s="102"/>
+      <c r="L50" s="103"/>
+      <c r="M50" s="103"/>
+      <c r="N50" s="103"/>
+      <c r="O50" s="103"/>
+      <c r="P50" s="103"/>
+      <c r="Q50" s="103"/>
+      <c r="R50" s="103"/>
+      <c r="S50" s="103"/>
+      <c r="T50" s="103"/>
+      <c r="U50" s="103"/>
+      <c r="V50" s="103"/>
+      <c r="W50" s="104"/>
     </row>
     <row r="51" spans="1:23" ht="12" customHeight="1">
-      <c r="A51" s="52"/>
-      <c r="B51" s="52"/>
-      <c r="C51" s="85"/>
-      <c r="D51" s="86"/>
-      <c r="E51" s="87"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="128"/>
-      <c r="H51" s="128"/>
-      <c r="I51" s="167"/>
-      <c r="J51" s="91"/>
-      <c r="K51" s="38"/>
-      <c r="L51" s="92"/>
-      <c r="M51" s="92"/>
-      <c r="N51" s="92"/>
-      <c r="O51" s="92"/>
-      <c r="P51" s="92"/>
-      <c r="Q51" s="92"/>
-      <c r="R51" s="92"/>
-      <c r="S51" s="92"/>
-      <c r="T51" s="92"/>
-      <c r="U51" s="92"/>
-      <c r="V51" s="92"/>
-      <c r="W51" s="41"/>
+      <c r="A51" s="70"/>
+      <c r="B51" s="70"/>
+      <c r="C51" s="110"/>
+      <c r="D51" s="111"/>
+      <c r="E51" s="112"/>
+      <c r="F51" s="74"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="157"/>
+      <c r="J51" s="116"/>
+      <c r="K51" s="55"/>
+      <c r="L51" s="117"/>
+      <c r="M51" s="117"/>
+      <c r="N51" s="117"/>
+      <c r="O51" s="117"/>
+      <c r="P51" s="117"/>
+      <c r="Q51" s="117"/>
+      <c r="R51" s="117"/>
+      <c r="S51" s="117"/>
+      <c r="T51" s="117"/>
+      <c r="U51" s="117"/>
+      <c r="V51" s="117"/>
+      <c r="W51" s="58"/>
     </row>
     <row r="52" spans="1:23" ht="12" customHeight="1">
-      <c r="A52" s="52"/>
-      <c r="B52" s="52"/>
-      <c r="C52" s="85"/>
-      <c r="D52" s="86"/>
-      <c r="E52" s="87"/>
-      <c r="F52" s="56"/>
-      <c r="G52" s="123"/>
-      <c r="H52" s="124"/>
-      <c r="I52" s="103"/>
-      <c r="J52" s="125"/>
-      <c r="K52" s="43"/>
-      <c r="L52" s="95"/>
-      <c r="M52" s="95"/>
-      <c r="N52" s="95"/>
-      <c r="O52" s="95"/>
-      <c r="P52" s="95"/>
-      <c r="Q52" s="95"/>
-      <c r="R52" s="95"/>
-      <c r="S52" s="95"/>
-      <c r="T52" s="95"/>
-      <c r="U52" s="95"/>
-      <c r="V52" s="95"/>
-      <c r="W52" s="31"/>
+      <c r="A52" s="70"/>
+      <c r="B52" s="70"/>
+      <c r="C52" s="110"/>
+      <c r="D52" s="111"/>
+      <c r="E52" s="112"/>
+      <c r="F52" s="74"/>
+      <c r="G52" s="158"/>
+      <c r="H52" s="159"/>
+      <c r="I52" s="130"/>
+      <c r="J52" s="160"/>
+      <c r="K52" s="61"/>
+      <c r="L52" s="119"/>
+      <c r="M52" s="119"/>
+      <c r="N52" s="119"/>
+      <c r="O52" s="119"/>
+      <c r="P52" s="119"/>
+      <c r="Q52" s="119"/>
+      <c r="R52" s="119"/>
+      <c r="S52" s="119"/>
+      <c r="T52" s="119"/>
+      <c r="U52" s="119"/>
+      <c r="V52" s="119"/>
+      <c r="W52" s="46"/>
     </row>
     <row r="53" spans="1:23" ht="12" customHeight="1">
-      <c r="A53" s="52"/>
-      <c r="B53" s="52"/>
-      <c r="C53" s="63"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="96"/>
-      <c r="F53" s="126"/>
-      <c r="G53" s="97"/>
-      <c r="H53" s="120"/>
-      <c r="I53" s="104"/>
-      <c r="J53" s="100"/>
-      <c r="K53" s="127"/>
-      <c r="L53" s="128"/>
-      <c r="M53" s="128"/>
-      <c r="N53" s="128"/>
-      <c r="O53" s="128"/>
-      <c r="P53" s="128"/>
-      <c r="Q53" s="128"/>
-      <c r="R53" s="128"/>
-      <c r="S53" s="128"/>
-      <c r="T53" s="128"/>
-      <c r="U53" s="128"/>
-      <c r="V53" s="128"/>
-      <c r="W53" s="129"/>
+      <c r="A53" s="70"/>
+      <c r="B53" s="70"/>
+      <c r="C53" s="85"/>
+      <c r="D53" s="86"/>
+      <c r="E53" s="120"/>
+      <c r="F53" s="161"/>
+      <c r="G53" s="162"/>
+      <c r="H53" s="163"/>
+      <c r="I53" s="132"/>
+      <c r="J53" s="126"/>
+      <c r="K53" s="164"/>
+      <c r="L53" s="40"/>
+      <c r="M53" s="40"/>
+      <c r="N53" s="40"/>
+      <c r="O53" s="40"/>
+      <c r="P53" s="40"/>
+      <c r="Q53" s="40"/>
+      <c r="R53" s="40"/>
+      <c r="S53" s="40"/>
+      <c r="T53" s="40"/>
+      <c r="U53" s="40"/>
+      <c r="V53" s="40"/>
+      <c r="W53" s="165"/>
     </row>
     <row r="55" spans="1:23" ht="12" customHeight="1">
-      <c r="C55" s="130"/>
-      <c r="D55" s="131"/>
-      <c r="E55" s="131"/>
-      <c r="F55" s="131"/>
-      <c r="G55" s="131"/>
-      <c r="H55" s="131"/>
-      <c r="I55" s="131"/>
-      <c r="J55" s="175"/>
-      <c r="K55" s="132"/>
-      <c r="L55" s="132"/>
-      <c r="M55" s="132"/>
-      <c r="N55" s="132"/>
-      <c r="O55" s="132"/>
-      <c r="P55" s="132"/>
-      <c r="Q55" s="132"/>
-      <c r="R55" s="132"/>
-      <c r="S55" s="132"/>
-      <c r="T55" s="132"/>
-      <c r="U55" s="132"/>
-      <c r="V55" s="132"/>
-      <c r="W55" s="132"/>
+      <c r="C55" s="166"/>
+      <c r="D55" s="167"/>
+      <c r="E55" s="167"/>
+      <c r="F55" s="167"/>
+      <c r="G55" s="167"/>
+      <c r="H55" s="167"/>
+      <c r="I55" s="167"/>
+      <c r="J55" s="168"/>
+      <c r="K55" s="169"/>
+      <c r="L55" s="169"/>
+      <c r="M55" s="169"/>
+      <c r="N55" s="169"/>
+      <c r="O55" s="169"/>
+      <c r="P55" s="169"/>
+      <c r="Q55" s="169"/>
+      <c r="R55" s="169"/>
+      <c r="S55" s="169"/>
+      <c r="T55" s="169"/>
+      <c r="U55" s="169"/>
+      <c r="V55" s="169"/>
+      <c r="W55" s="169"/>
     </row>
     <row r="56" spans="1:23" ht="12" customHeight="1">
-      <c r="C56" s="133"/>
-      <c r="D56" s="134"/>
-      <c r="E56" s="134"/>
-      <c r="F56" s="134"/>
-      <c r="G56" s="134"/>
-      <c r="H56" s="134"/>
-      <c r="I56" s="134"/>
-      <c r="J56" s="176"/>
-      <c r="K56" s="135"/>
-      <c r="L56" s="135"/>
-      <c r="M56" s="135"/>
-      <c r="N56" s="135"/>
-      <c r="O56" s="135"/>
-      <c r="P56" s="135"/>
-      <c r="Q56" s="135"/>
-      <c r="R56" s="135"/>
-      <c r="S56" s="135"/>
-      <c r="T56" s="135"/>
-      <c r="U56" s="135"/>
-      <c r="V56" s="135"/>
-      <c r="W56" s="136"/>
+      <c r="C56" s="170"/>
+      <c r="D56" s="171"/>
+      <c r="E56" s="171"/>
+      <c r="F56" s="171"/>
+      <c r="G56" s="171"/>
+      <c r="H56" s="171"/>
+      <c r="I56" s="171"/>
+      <c r="J56" s="172"/>
+      <c r="K56" s="173"/>
+      <c r="L56" s="173"/>
+      <c r="M56" s="173"/>
+      <c r="N56" s="173"/>
+      <c r="O56" s="173"/>
+      <c r="P56" s="173"/>
+      <c r="Q56" s="173"/>
+      <c r="R56" s="173"/>
+      <c r="S56" s="173"/>
+      <c r="T56" s="173"/>
+      <c r="U56" s="173"/>
+      <c r="V56" s="173"/>
+      <c r="W56" s="174"/>
     </row>
     <row r="57" spans="1:23" ht="12" customHeight="1">
-      <c r="C57" s="133"/>
-      <c r="D57" s="134"/>
-      <c r="E57" s="134"/>
-      <c r="F57" s="134"/>
-      <c r="G57" s="134"/>
-      <c r="H57" s="134"/>
-      <c r="I57" s="134"/>
-      <c r="J57" s="176"/>
-      <c r="K57" s="135"/>
-      <c r="L57" s="135"/>
-      <c r="M57" s="135"/>
-      <c r="N57" s="135"/>
-      <c r="O57" s="135"/>
-      <c r="P57" s="135"/>
-      <c r="Q57" s="135"/>
-      <c r="R57" s="135"/>
-      <c r="S57" s="135"/>
-      <c r="T57" s="135"/>
-      <c r="U57" s="135"/>
-      <c r="V57" s="135"/>
-      <c r="W57" s="136"/>
+      <c r="C57" s="170"/>
+      <c r="D57" s="171"/>
+      <c r="E57" s="171"/>
+      <c r="F57" s="171"/>
+      <c r="G57" s="171"/>
+      <c r="H57" s="171"/>
+      <c r="I57" s="171"/>
+      <c r="J57" s="172"/>
+      <c r="K57" s="173"/>
+      <c r="L57" s="173"/>
+      <c r="M57" s="173"/>
+      <c r="N57" s="173"/>
+      <c r="O57" s="173"/>
+      <c r="P57" s="173"/>
+      <c r="Q57" s="173"/>
+      <c r="R57" s="173"/>
+      <c r="S57" s="173"/>
+      <c r="T57" s="173"/>
+      <c r="U57" s="173"/>
+      <c r="V57" s="173"/>
+      <c r="W57" s="174"/>
     </row>
     <row r="58" spans="1:23" ht="12" customHeight="1">
-      <c r="C58" s="133"/>
-      <c r="D58" s="134"/>
-      <c r="E58" s="134"/>
-      <c r="F58" s="134"/>
-      <c r="G58" s="134"/>
-      <c r="H58" s="134"/>
-      <c r="I58" s="134"/>
-      <c r="J58" s="176"/>
-      <c r="K58" s="135"/>
-      <c r="L58" s="135"/>
-      <c r="M58" s="135"/>
-      <c r="N58" s="135"/>
-      <c r="O58" s="135"/>
-      <c r="P58" s="135"/>
-      <c r="Q58" s="135"/>
-      <c r="R58" s="135"/>
-      <c r="S58" s="135"/>
-      <c r="T58" s="135"/>
-      <c r="U58" s="135"/>
-      <c r="V58" s="135"/>
-      <c r="W58" s="136"/>
+      <c r="C58" s="170"/>
+      <c r="D58" s="171"/>
+      <c r="E58" s="171"/>
+      <c r="F58" s="171"/>
+      <c r="G58" s="171"/>
+      <c r="H58" s="171"/>
+      <c r="I58" s="171"/>
+      <c r="J58" s="172"/>
+      <c r="K58" s="173"/>
+      <c r="L58" s="173"/>
+      <c r="M58" s="173"/>
+      <c r="N58" s="173"/>
+      <c r="O58" s="173"/>
+      <c r="P58" s="173"/>
+      <c r="Q58" s="173"/>
+      <c r="R58" s="173"/>
+      <c r="S58" s="173"/>
+      <c r="T58" s="173"/>
+      <c r="U58" s="173"/>
+      <c r="V58" s="173"/>
+      <c r="W58" s="174"/>
     </row>
     <row r="59" spans="1:23" ht="12" customHeight="1">
-      <c r="C59" s="133"/>
-      <c r="D59" s="134"/>
-      <c r="E59" s="134"/>
-      <c r="F59" s="134"/>
-      <c r="G59" s="134"/>
-      <c r="H59" s="134"/>
-      <c r="I59" s="134"/>
-      <c r="J59" s="176"/>
-      <c r="K59" s="135"/>
-      <c r="L59" s="135"/>
-      <c r="M59" s="135"/>
-      <c r="N59" s="135"/>
-      <c r="O59" s="135"/>
-      <c r="P59" s="135"/>
-      <c r="Q59" s="135"/>
-      <c r="R59" s="135"/>
-      <c r="S59" s="135"/>
-      <c r="T59" s="135"/>
-      <c r="U59" s="135"/>
-      <c r="V59" s="135"/>
-      <c r="W59" s="136"/>
+      <c r="C59" s="170"/>
+      <c r="D59" s="171"/>
+      <c r="E59" s="171"/>
+      <c r="F59" s="171"/>
+      <c r="G59" s="171"/>
+      <c r="H59" s="171"/>
+      <c r="I59" s="171"/>
+      <c r="J59" s="172"/>
+      <c r="K59" s="173"/>
+      <c r="L59" s="173"/>
+      <c r="M59" s="173"/>
+      <c r="N59" s="173"/>
+      <c r="O59" s="173"/>
+      <c r="P59" s="173"/>
+      <c r="Q59" s="173"/>
+      <c r="R59" s="173"/>
+      <c r="S59" s="173"/>
+      <c r="T59" s="173"/>
+      <c r="U59" s="173"/>
+      <c r="V59" s="173"/>
+      <c r="W59" s="174"/>
     </row>
     <row r="60" spans="1:23" ht="12" customHeight="1">
-      <c r="C60" s="133"/>
-      <c r="D60" s="134"/>
-      <c r="E60" s="134"/>
-      <c r="F60" s="134"/>
-      <c r="G60" s="134"/>
-      <c r="H60" s="134"/>
-      <c r="I60" s="134"/>
-      <c r="J60" s="176"/>
-      <c r="K60" s="135"/>
-      <c r="L60" s="135"/>
-      <c r="M60" s="135"/>
-      <c r="N60" s="135"/>
-      <c r="O60" s="135"/>
-      <c r="P60" s="135"/>
-      <c r="Q60" s="135"/>
-      <c r="R60" s="135"/>
-      <c r="S60" s="135"/>
-      <c r="T60" s="135"/>
-      <c r="U60" s="135"/>
-      <c r="V60" s="135"/>
-      <c r="W60" s="136"/>
+      <c r="C60" s="170"/>
+      <c r="D60" s="171"/>
+      <c r="E60" s="171"/>
+      <c r="F60" s="171"/>
+      <c r="G60" s="171"/>
+      <c r="H60" s="171"/>
+      <c r="I60" s="171"/>
+      <c r="J60" s="172"/>
+      <c r="K60" s="173"/>
+      <c r="L60" s="173"/>
+      <c r="M60" s="173"/>
+      <c r="N60" s="173"/>
+      <c r="O60" s="173"/>
+      <c r="P60" s="173"/>
+      <c r="Q60" s="173"/>
+      <c r="R60" s="173"/>
+      <c r="S60" s="173"/>
+      <c r="T60" s="173"/>
+      <c r="U60" s="173"/>
+      <c r="V60" s="173"/>
+      <c r="W60" s="174"/>
     </row>
     <row r="61" spans="1:23" ht="12" customHeight="1">
-      <c r="C61" s="133"/>
-      <c r="D61" s="134"/>
-      <c r="E61" s="134"/>
-      <c r="F61" s="134"/>
-      <c r="G61" s="134"/>
-      <c r="H61" s="134"/>
-      <c r="I61" s="134"/>
-      <c r="J61" s="176"/>
-      <c r="K61" s="135"/>
-      <c r="L61" s="135"/>
-      <c r="M61" s="135"/>
-      <c r="N61" s="135"/>
-      <c r="O61" s="135"/>
-      <c r="P61" s="135"/>
-      <c r="Q61" s="135"/>
-      <c r="R61" s="135"/>
-      <c r="S61" s="135"/>
-      <c r="T61" s="135"/>
-      <c r="U61" s="135"/>
-      <c r="V61" s="135"/>
-      <c r="W61" s="136"/>
+      <c r="C61" s="170"/>
+      <c r="D61" s="171"/>
+      <c r="E61" s="171"/>
+      <c r="F61" s="171"/>
+      <c r="G61" s="171"/>
+      <c r="H61" s="171"/>
+      <c r="I61" s="171"/>
+      <c r="J61" s="172"/>
+      <c r="K61" s="173"/>
+      <c r="L61" s="173"/>
+      <c r="M61" s="173"/>
+      <c r="N61" s="173"/>
+      <c r="O61" s="173"/>
+      <c r="P61" s="173"/>
+      <c r="Q61" s="173"/>
+      <c r="R61" s="173"/>
+      <c r="S61" s="173"/>
+      <c r="T61" s="173"/>
+      <c r="U61" s="173"/>
+      <c r="V61" s="173"/>
+      <c r="W61" s="174"/>
     </row>
     <row r="64" spans="1:23" ht="12" customHeight="1">
-      <c r="C64" s="180"/>
-      <c r="D64" s="181"/>
-      <c r="E64" s="153"/>
-      <c r="F64" s="154"/>
-      <c r="G64" s="154"/>
-      <c r="H64" s="154"/>
-      <c r="I64" s="168"/>
-      <c r="J64" s="137"/>
-      <c r="K64" s="60"/>
-      <c r="L64" s="61"/>
-      <c r="M64" s="61"/>
-      <c r="N64" s="61"/>
-      <c r="O64" s="61"/>
-      <c r="P64" s="61"/>
-      <c r="Q64" s="61"/>
-      <c r="R64" s="61"/>
-      <c r="S64" s="61"/>
-      <c r="T64" s="61"/>
-      <c r="U64" s="61"/>
-      <c r="V64" s="61"/>
-      <c r="W64" s="62"/>
+      <c r="C64" s="76"/>
+      <c r="D64" s="77"/>
+      <c r="E64" s="78"/>
+      <c r="F64" s="79"/>
+      <c r="G64" s="79"/>
+      <c r="H64" s="79"/>
+      <c r="I64" s="175"/>
+      <c r="J64" s="176"/>
+      <c r="K64" s="82"/>
+      <c r="L64" s="83"/>
+      <c r="M64" s="83"/>
+      <c r="N64" s="83"/>
+      <c r="O64" s="83"/>
+      <c r="P64" s="83"/>
+      <c r="Q64" s="83"/>
+      <c r="R64" s="83"/>
+      <c r="S64" s="83"/>
+      <c r="T64" s="83"/>
+      <c r="U64" s="83"/>
+      <c r="V64" s="83"/>
+      <c r="W64" s="84"/>
     </row>
     <row r="65" spans="1:23" ht="12" customHeight="1">
-      <c r="C65" s="63"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="155"/>
-      <c r="F65" s="72"/>
-      <c r="G65" s="72"/>
-      <c r="H65" s="72"/>
-      <c r="I65" s="169"/>
-      <c r="J65" s="66"/>
-      <c r="K65" s="138"/>
-      <c r="L65" s="139"/>
-      <c r="M65" s="139"/>
-      <c r="N65" s="139"/>
-      <c r="O65" s="139"/>
-      <c r="P65" s="139"/>
-      <c r="Q65" s="139"/>
-      <c r="R65" s="139"/>
-      <c r="S65" s="139"/>
-      <c r="T65" s="139"/>
-      <c r="U65" s="139"/>
-      <c r="V65" s="139"/>
-      <c r="W65" s="31"/>
+      <c r="C65" s="85"/>
+      <c r="D65" s="86"/>
+      <c r="E65" s="87"/>
+      <c r="F65" s="88"/>
+      <c r="G65" s="88"/>
+      <c r="H65" s="88"/>
+      <c r="I65" s="177"/>
+      <c r="J65" s="90"/>
+      <c r="K65" s="178"/>
+      <c r="L65" s="179"/>
+      <c r="M65" s="179"/>
+      <c r="N65" s="179"/>
+      <c r="O65" s="179"/>
+      <c r="P65" s="179"/>
+      <c r="Q65" s="179"/>
+      <c r="R65" s="179"/>
+      <c r="S65" s="179"/>
+      <c r="T65" s="179"/>
+      <c r="U65" s="179"/>
+      <c r="V65" s="179"/>
+      <c r="W65" s="46"/>
     </row>
     <row r="66" spans="1:23" ht="12" customHeight="1">
-      <c r="A66" s="52"/>
-      <c r="B66" s="52"/>
-      <c r="C66" s="180"/>
-      <c r="D66" s="181"/>
-      <c r="E66" s="83"/>
-      <c r="F66" s="73"/>
-      <c r="G66" s="73"/>
-      <c r="H66" s="73"/>
-      <c r="I66" s="156"/>
-      <c r="J66" s="137"/>
-      <c r="K66" s="60"/>
-      <c r="L66" s="61"/>
-      <c r="M66" s="61"/>
-      <c r="N66" s="61"/>
-      <c r="O66" s="61"/>
-      <c r="P66" s="61"/>
-      <c r="Q66" s="61"/>
-      <c r="R66" s="61"/>
-      <c r="S66" s="61"/>
-      <c r="T66" s="61"/>
-      <c r="U66" s="61"/>
-      <c r="V66" s="61"/>
-      <c r="W66" s="62"/>
+      <c r="A66" s="70"/>
+      <c r="B66" s="70"/>
+      <c r="C66" s="76"/>
+      <c r="D66" s="77"/>
+      <c r="E66" s="108"/>
+      <c r="F66" s="98"/>
+      <c r="G66" s="98"/>
+      <c r="H66" s="98"/>
+      <c r="I66" s="109"/>
+      <c r="J66" s="176"/>
+      <c r="K66" s="82"/>
+      <c r="L66" s="83"/>
+      <c r="M66" s="83"/>
+      <c r="N66" s="83"/>
+      <c r="O66" s="83"/>
+      <c r="P66" s="83"/>
+      <c r="Q66" s="83"/>
+      <c r="R66" s="83"/>
+      <c r="S66" s="83"/>
+      <c r="T66" s="83"/>
+      <c r="U66" s="83"/>
+      <c r="V66" s="83"/>
+      <c r="W66" s="84"/>
     </row>
     <row r="67" spans="1:23" ht="12" customHeight="1">
-      <c r="A67" s="52"/>
-      <c r="B67" s="52"/>
-      <c r="C67" s="85"/>
-      <c r="D67" s="86"/>
-      <c r="E67" s="87"/>
-      <c r="F67" s="88"/>
-      <c r="G67" s="89"/>
-      <c r="H67" s="89"/>
-      <c r="I67" s="90"/>
-      <c r="J67" s="94"/>
-      <c r="K67" s="28"/>
-      <c r="L67" s="29"/>
-      <c r="M67" s="29"/>
-      <c r="N67" s="29"/>
-      <c r="O67" s="29"/>
-      <c r="P67" s="29"/>
-      <c r="Q67" s="29"/>
-      <c r="R67" s="29"/>
-      <c r="S67" s="29"/>
-      <c r="T67" s="29"/>
-      <c r="U67" s="29"/>
-      <c r="V67" s="29"/>
-      <c r="W67" s="31"/>
+      <c r="A67" s="70"/>
+      <c r="B67" s="70"/>
+      <c r="C67" s="110"/>
+      <c r="D67" s="111"/>
+      <c r="E67" s="112"/>
+      <c r="F67" s="113"/>
+      <c r="G67" s="114"/>
+      <c r="H67" s="114"/>
+      <c r="I67" s="115"/>
+      <c r="J67" s="118"/>
+      <c r="K67" s="43"/>
+      <c r="L67" s="44"/>
+      <c r="M67" s="44"/>
+      <c r="N67" s="44"/>
+      <c r="O67" s="44"/>
+      <c r="P67" s="44"/>
+      <c r="Q67" s="44"/>
+      <c r="R67" s="44"/>
+      <c r="S67" s="44"/>
+      <c r="T67" s="44"/>
+      <c r="U67" s="44"/>
+      <c r="V67" s="44"/>
+      <c r="W67" s="46"/>
     </row>
     <row r="68" spans="1:23" ht="12" customHeight="1">
-      <c r="A68" s="52"/>
-      <c r="B68" s="52"/>
-      <c r="C68" s="85"/>
-      <c r="D68" s="86"/>
-      <c r="E68" s="87"/>
-      <c r="F68" s="88"/>
-      <c r="G68" s="89"/>
-      <c r="H68" s="89"/>
-      <c r="I68" s="90"/>
-      <c r="J68" s="81"/>
-      <c r="K68" s="40"/>
-      <c r="L68" s="39"/>
-      <c r="M68" s="39"/>
-      <c r="N68" s="39"/>
-      <c r="O68" s="39"/>
-      <c r="P68" s="39"/>
-      <c r="Q68" s="39"/>
-      <c r="R68" s="39"/>
-      <c r="S68" s="39"/>
-      <c r="T68" s="39"/>
-      <c r="U68" s="39"/>
-      <c r="V68" s="39"/>
-      <c r="W68" s="82"/>
+      <c r="A68" s="70"/>
+      <c r="B68" s="70"/>
+      <c r="C68" s="110"/>
+      <c r="D68" s="111"/>
+      <c r="E68" s="112"/>
+      <c r="F68" s="113"/>
+      <c r="G68" s="114"/>
+      <c r="H68" s="114"/>
+      <c r="I68" s="115"/>
+      <c r="J68" s="106"/>
+      <c r="K68" s="57"/>
+      <c r="L68" s="56"/>
+      <c r="M68" s="56"/>
+      <c r="N68" s="56"/>
+      <c r="O68" s="56"/>
+      <c r="P68" s="56"/>
+      <c r="Q68" s="56"/>
+      <c r="R68" s="56"/>
+      <c r="S68" s="56"/>
+      <c r="T68" s="56"/>
+      <c r="U68" s="56"/>
+      <c r="V68" s="56"/>
+      <c r="W68" s="107"/>
     </row>
     <row r="69" spans="1:23" ht="12" customHeight="1">
-      <c r="A69" s="52"/>
-      <c r="B69" s="52"/>
-      <c r="C69" s="63"/>
-      <c r="D69" s="64"/>
-      <c r="E69" s="96"/>
-      <c r="F69" s="157"/>
-      <c r="G69" s="158"/>
-      <c r="H69" s="158"/>
-      <c r="I69" s="159"/>
-      <c r="J69" s="66"/>
-      <c r="K69" s="138"/>
-      <c r="L69" s="139"/>
-      <c r="M69" s="139"/>
-      <c r="N69" s="139"/>
-      <c r="O69" s="139"/>
-      <c r="P69" s="139"/>
-      <c r="Q69" s="139"/>
-      <c r="R69" s="139"/>
-      <c r="S69" s="139"/>
-      <c r="T69" s="139"/>
-      <c r="U69" s="139"/>
-      <c r="V69" s="139"/>
-      <c r="W69" s="31"/>
+      <c r="A69" s="70"/>
+      <c r="B69" s="70"/>
+      <c r="C69" s="85"/>
+      <c r="D69" s="86"/>
+      <c r="E69" s="120"/>
+      <c r="F69" s="121"/>
+      <c r="G69" s="122"/>
+      <c r="H69" s="122"/>
+      <c r="I69" s="123"/>
+      <c r="J69" s="90"/>
+      <c r="K69" s="178"/>
+      <c r="L69" s="179"/>
+      <c r="M69" s="179"/>
+      <c r="N69" s="179"/>
+      <c r="O69" s="179"/>
+      <c r="P69" s="179"/>
+      <c r="Q69" s="179"/>
+      <c r="R69" s="179"/>
+      <c r="S69" s="179"/>
+      <c r="T69" s="179"/>
+      <c r="U69" s="179"/>
+      <c r="V69" s="179"/>
+      <c r="W69" s="46"/>
     </row>
     <row r="70" spans="1:23" ht="12" customHeight="1">
-      <c r="A70" s="52"/>
-      <c r="B70" s="52"/>
-      <c r="C70" s="180"/>
-      <c r="D70" s="181"/>
-      <c r="E70" s="83"/>
-      <c r="F70" s="73"/>
-      <c r="G70" s="73"/>
-      <c r="H70" s="73"/>
-      <c r="I70" s="156"/>
-      <c r="J70" s="137"/>
-      <c r="K70" s="60"/>
-      <c r="L70" s="61"/>
-      <c r="M70" s="61"/>
-      <c r="N70" s="61"/>
-      <c r="O70" s="61"/>
-      <c r="P70" s="61"/>
-      <c r="Q70" s="61"/>
-      <c r="R70" s="61"/>
-      <c r="S70" s="61"/>
-      <c r="T70" s="61"/>
-      <c r="U70" s="61"/>
-      <c r="V70" s="61"/>
-      <c r="W70" s="62"/>
+      <c r="A70" s="70"/>
+      <c r="B70" s="70"/>
+      <c r="C70" s="76"/>
+      <c r="D70" s="77"/>
+      <c r="E70" s="108"/>
+      <c r="F70" s="98"/>
+      <c r="G70" s="98"/>
+      <c r="H70" s="98"/>
+      <c r="I70" s="109"/>
+      <c r="J70" s="176"/>
+      <c r="K70" s="82"/>
+      <c r="L70" s="83"/>
+      <c r="M70" s="83"/>
+      <c r="N70" s="83"/>
+      <c r="O70" s="83"/>
+      <c r="P70" s="83"/>
+      <c r="Q70" s="83"/>
+      <c r="R70" s="83"/>
+      <c r="S70" s="83"/>
+      <c r="T70" s="83"/>
+      <c r="U70" s="83"/>
+      <c r="V70" s="83"/>
+      <c r="W70" s="84"/>
     </row>
     <row r="71" spans="1:23" ht="12" customHeight="1">
-      <c r="A71" s="52"/>
-      <c r="B71" s="52"/>
-      <c r="C71" s="85"/>
-      <c r="D71" s="86"/>
-      <c r="E71" s="87"/>
-      <c r="F71" s="88"/>
-      <c r="G71" s="89"/>
-      <c r="H71" s="89"/>
-      <c r="I71" s="90"/>
-      <c r="J71" s="94"/>
-      <c r="K71" s="28"/>
-      <c r="L71" s="29"/>
-      <c r="M71" s="29"/>
-      <c r="N71" s="29"/>
-      <c r="O71" s="29"/>
-      <c r="P71" s="29"/>
-      <c r="Q71" s="29"/>
-      <c r="R71" s="29"/>
-      <c r="S71" s="29"/>
-      <c r="T71" s="29"/>
-      <c r="U71" s="29"/>
-      <c r="V71" s="29"/>
-      <c r="W71" s="140"/>
+      <c r="A71" s="70"/>
+      <c r="B71" s="70"/>
+      <c r="C71" s="110"/>
+      <c r="D71" s="111"/>
+      <c r="E71" s="112"/>
+      <c r="F71" s="113"/>
+      <c r="G71" s="114"/>
+      <c r="H71" s="114"/>
+      <c r="I71" s="115"/>
+      <c r="J71" s="118"/>
+      <c r="K71" s="43"/>
+      <c r="L71" s="44"/>
+      <c r="M71" s="44"/>
+      <c r="N71" s="44"/>
+      <c r="O71" s="44"/>
+      <c r="P71" s="44"/>
+      <c r="Q71" s="44"/>
+      <c r="R71" s="44"/>
+      <c r="S71" s="44"/>
+      <c r="T71" s="44"/>
+      <c r="U71" s="44"/>
+      <c r="V71" s="44"/>
+      <c r="W71" s="180"/>
     </row>
     <row r="72" spans="1:23" ht="12" customHeight="1">
-      <c r="A72" s="52"/>
-      <c r="B72" s="52"/>
-      <c r="C72" s="85"/>
-      <c r="D72" s="86"/>
-      <c r="E72" s="87"/>
-      <c r="F72" s="88"/>
-      <c r="G72" s="89"/>
-      <c r="H72" s="89"/>
-      <c r="I72" s="90"/>
-      <c r="J72" s="81"/>
-      <c r="K72" s="40"/>
-      <c r="L72" s="39"/>
-      <c r="M72" s="39"/>
-      <c r="N72" s="39"/>
-      <c r="O72" s="39"/>
-      <c r="P72" s="39"/>
-      <c r="Q72" s="39"/>
-      <c r="R72" s="39"/>
-      <c r="S72" s="39"/>
-      <c r="T72" s="39"/>
-      <c r="U72" s="39"/>
-      <c r="V72" s="39"/>
-      <c r="W72" s="82"/>
+      <c r="A72" s="70"/>
+      <c r="B72" s="70"/>
+      <c r="C72" s="110"/>
+      <c r="D72" s="111"/>
+      <c r="E72" s="112"/>
+      <c r="F72" s="113"/>
+      <c r="G72" s="114"/>
+      <c r="H72" s="114"/>
+      <c r="I72" s="115"/>
+      <c r="J72" s="106"/>
+      <c r="K72" s="57"/>
+      <c r="L72" s="56"/>
+      <c r="M72" s="56"/>
+      <c r="N72" s="56"/>
+      <c r="O72" s="56"/>
+      <c r="P72" s="56"/>
+      <c r="Q72" s="56"/>
+      <c r="R72" s="56"/>
+      <c r="S72" s="56"/>
+      <c r="T72" s="56"/>
+      <c r="U72" s="56"/>
+      <c r="V72" s="56"/>
+      <c r="W72" s="107"/>
     </row>
     <row r="73" spans="1:23" ht="12" customHeight="1">
-      <c r="A73" s="52"/>
-      <c r="B73" s="52"/>
-      <c r="C73" s="63"/>
-      <c r="D73" s="64"/>
-      <c r="E73" s="96"/>
-      <c r="F73" s="157"/>
-      <c r="G73" s="158"/>
-      <c r="H73" s="158"/>
-      <c r="I73" s="159"/>
-      <c r="J73" s="66"/>
-      <c r="K73" s="138"/>
-      <c r="L73" s="139"/>
-      <c r="M73" s="139"/>
-      <c r="N73" s="139"/>
-      <c r="O73" s="139"/>
-      <c r="P73" s="139"/>
-      <c r="Q73" s="139"/>
-      <c r="R73" s="139"/>
-      <c r="S73" s="139"/>
-      <c r="T73" s="139"/>
-      <c r="U73" s="139"/>
-      <c r="V73" s="139"/>
-      <c r="W73" s="31"/>
+      <c r="A73" s="70"/>
+      <c r="B73" s="70"/>
+      <c r="C73" s="85"/>
+      <c r="D73" s="86"/>
+      <c r="E73" s="120"/>
+      <c r="F73" s="121"/>
+      <c r="G73" s="122"/>
+      <c r="H73" s="122"/>
+      <c r="I73" s="123"/>
+      <c r="J73" s="90"/>
+      <c r="K73" s="178"/>
+      <c r="L73" s="179"/>
+      <c r="M73" s="179"/>
+      <c r="N73" s="179"/>
+      <c r="O73" s="179"/>
+      <c r="P73" s="179"/>
+      <c r="Q73" s="179"/>
+      <c r="R73" s="179"/>
+      <c r="S73" s="179"/>
+      <c r="T73" s="179"/>
+      <c r="U73" s="179"/>
+      <c r="V73" s="179"/>
+      <c r="W73" s="46"/>
     </row>
     <row r="74" spans="1:23" ht="12" customHeight="1">
-      <c r="A74" s="52"/>
-      <c r="B74" s="52"/>
-      <c r="C74" s="180"/>
-      <c r="D74" s="181"/>
-      <c r="E74" s="160"/>
-      <c r="F74" s="73"/>
-      <c r="G74" s="73"/>
-      <c r="H74" s="73"/>
-      <c r="I74" s="101"/>
-      <c r="J74" s="137"/>
-      <c r="K74" s="60"/>
-      <c r="L74" s="61"/>
-      <c r="M74" s="61"/>
-      <c r="N74" s="61"/>
-      <c r="O74" s="61"/>
-      <c r="P74" s="61"/>
-      <c r="Q74" s="61"/>
-      <c r="R74" s="61"/>
-      <c r="S74" s="61"/>
-      <c r="T74" s="61"/>
-      <c r="U74" s="61"/>
-      <c r="V74" s="61"/>
-      <c r="W74" s="62"/>
+      <c r="A74" s="70"/>
+      <c r="B74" s="70"/>
+      <c r="C74" s="76"/>
+      <c r="D74" s="77"/>
+      <c r="E74" s="127"/>
+      <c r="F74" s="98"/>
+      <c r="G74" s="98"/>
+      <c r="H74" s="98"/>
+      <c r="I74" s="128"/>
+      <c r="J74" s="176"/>
+      <c r="K74" s="82"/>
+      <c r="L74" s="83"/>
+      <c r="M74" s="83"/>
+      <c r="N74" s="83"/>
+      <c r="O74" s="83"/>
+      <c r="P74" s="83"/>
+      <c r="Q74" s="83"/>
+      <c r="R74" s="83"/>
+      <c r="S74" s="83"/>
+      <c r="T74" s="83"/>
+      <c r="U74" s="83"/>
+      <c r="V74" s="83"/>
+      <c r="W74" s="84"/>
     </row>
     <row r="75" spans="1:23" ht="12" customHeight="1">
-      <c r="A75" s="52"/>
-      <c r="B75" s="52"/>
-      <c r="C75" s="85"/>
-      <c r="D75" s="86"/>
-      <c r="E75" s="161"/>
-      <c r="F75" s="89"/>
-      <c r="G75" s="89"/>
-      <c r="H75" s="89"/>
-      <c r="I75" s="103"/>
-      <c r="J75" s="94"/>
-      <c r="K75" s="28"/>
-      <c r="L75" s="29"/>
-      <c r="M75" s="29"/>
-      <c r="N75" s="29"/>
-      <c r="O75" s="29"/>
-      <c r="P75" s="29"/>
-      <c r="Q75" s="29"/>
-      <c r="R75" s="29"/>
-      <c r="S75" s="29"/>
-      <c r="T75" s="29"/>
-      <c r="U75" s="29"/>
-      <c r="V75" s="29"/>
-      <c r="W75" s="31"/>
+      <c r="A75" s="70"/>
+      <c r="B75" s="70"/>
+      <c r="C75" s="110"/>
+      <c r="D75" s="111"/>
+      <c r="E75" s="129"/>
+      <c r="F75" s="114"/>
+      <c r="G75" s="114"/>
+      <c r="H75" s="114"/>
+      <c r="I75" s="130"/>
+      <c r="J75" s="118"/>
+      <c r="K75" s="43"/>
+      <c r="L75" s="44"/>
+      <c r="M75" s="44"/>
+      <c r="N75" s="44"/>
+      <c r="O75" s="44"/>
+      <c r="P75" s="44"/>
+      <c r="Q75" s="44"/>
+      <c r="R75" s="44"/>
+      <c r="S75" s="44"/>
+      <c r="T75" s="44"/>
+      <c r="U75" s="44"/>
+      <c r="V75" s="44"/>
+      <c r="W75" s="46"/>
     </row>
     <row r="76" spans="1:23" ht="12" customHeight="1">
-      <c r="A76" s="52"/>
-      <c r="B76" s="52"/>
-      <c r="C76" s="85"/>
-      <c r="D76" s="86"/>
-      <c r="E76" s="161"/>
-      <c r="F76" s="89"/>
-      <c r="G76" s="89"/>
-      <c r="H76" s="89"/>
-      <c r="I76" s="103"/>
-      <c r="J76" s="81"/>
-      <c r="K76" s="40"/>
-      <c r="L76" s="39"/>
-      <c r="M76" s="39"/>
-      <c r="N76" s="39"/>
-      <c r="O76" s="39"/>
-      <c r="P76" s="39"/>
-      <c r="Q76" s="39"/>
-      <c r="R76" s="39"/>
-      <c r="S76" s="39"/>
-      <c r="T76" s="39"/>
-      <c r="U76" s="39"/>
-      <c r="V76" s="39"/>
-      <c r="W76" s="82"/>
+      <c r="A76" s="70"/>
+      <c r="B76" s="70"/>
+      <c r="C76" s="110"/>
+      <c r="D76" s="111"/>
+      <c r="E76" s="129"/>
+      <c r="F76" s="114"/>
+      <c r="G76" s="114"/>
+      <c r="H76" s="114"/>
+      <c r="I76" s="130"/>
+      <c r="J76" s="106"/>
+      <c r="K76" s="57"/>
+      <c r="L76" s="56"/>
+      <c r="M76" s="56"/>
+      <c r="N76" s="56"/>
+      <c r="O76" s="56"/>
+      <c r="P76" s="56"/>
+      <c r="Q76" s="56"/>
+      <c r="R76" s="56"/>
+      <c r="S76" s="56"/>
+      <c r="T76" s="56"/>
+      <c r="U76" s="56"/>
+      <c r="V76" s="56"/>
+      <c r="W76" s="107"/>
     </row>
     <row r="77" spans="1:23" ht="12" customHeight="1">
-      <c r="A77" s="52"/>
-      <c r="B77" s="52"/>
-      <c r="C77" s="63"/>
-      <c r="D77" s="64"/>
-      <c r="E77" s="162"/>
-      <c r="F77" s="158"/>
-      <c r="G77" s="158"/>
-      <c r="H77" s="158"/>
-      <c r="I77" s="104"/>
-      <c r="J77" s="66"/>
-      <c r="K77" s="138"/>
-      <c r="L77" s="139"/>
-      <c r="M77" s="139"/>
-      <c r="N77" s="139"/>
-      <c r="O77" s="139"/>
-      <c r="P77" s="139"/>
-      <c r="Q77" s="139"/>
-      <c r="R77" s="139"/>
-      <c r="S77" s="139"/>
-      <c r="T77" s="139"/>
-      <c r="U77" s="139"/>
-      <c r="V77" s="139"/>
-      <c r="W77" s="31"/>
+      <c r="A77" s="70"/>
+      <c r="B77" s="70"/>
+      <c r="C77" s="85"/>
+      <c r="D77" s="86"/>
+      <c r="E77" s="131"/>
+      <c r="F77" s="122"/>
+      <c r="G77" s="122"/>
+      <c r="H77" s="122"/>
+      <c r="I77" s="132"/>
+      <c r="J77" s="90"/>
+      <c r="K77" s="178"/>
+      <c r="L77" s="179"/>
+      <c r="M77" s="179"/>
+      <c r="N77" s="179"/>
+      <c r="O77" s="179"/>
+      <c r="P77" s="179"/>
+      <c r="Q77" s="179"/>
+      <c r="R77" s="179"/>
+      <c r="S77" s="179"/>
+      <c r="T77" s="179"/>
+      <c r="U77" s="179"/>
+      <c r="V77" s="179"/>
+      <c r="W77" s="46"/>
     </row>
     <row r="78" spans="1:23" ht="12" customHeight="1">
-      <c r="A78" s="52"/>
-      <c r="B78" s="52"/>
-      <c r="C78" s="180"/>
-      <c r="D78" s="181"/>
-      <c r="E78" s="105"/>
-      <c r="F78" s="106"/>
-      <c r="G78" s="84"/>
-      <c r="H78" s="106"/>
-      <c r="I78" s="101"/>
-      <c r="J78" s="137"/>
-      <c r="K78" s="108"/>
-      <c r="L78" s="109"/>
-      <c r="M78" s="109"/>
-      <c r="N78" s="109"/>
-      <c r="O78" s="109"/>
-      <c r="P78" s="109"/>
-      <c r="Q78" s="109"/>
-      <c r="R78" s="109"/>
-      <c r="S78" s="109"/>
-      <c r="T78" s="109"/>
-      <c r="U78" s="109"/>
-      <c r="V78" s="61"/>
-      <c r="W78" s="111"/>
+      <c r="A78" s="70"/>
+      <c r="B78" s="70"/>
+      <c r="C78" s="76"/>
+      <c r="D78" s="77"/>
+      <c r="E78" s="133"/>
+      <c r="F78" s="134"/>
+      <c r="G78" s="135"/>
+      <c r="H78" s="134"/>
+      <c r="I78" s="128"/>
+      <c r="J78" s="176"/>
+      <c r="K78" s="137"/>
+      <c r="L78" s="138"/>
+      <c r="M78" s="138"/>
+      <c r="N78" s="138"/>
+      <c r="O78" s="138"/>
+      <c r="P78" s="138"/>
+      <c r="Q78" s="138"/>
+      <c r="R78" s="138"/>
+      <c r="S78" s="138"/>
+      <c r="T78" s="138"/>
+      <c r="U78" s="138"/>
+      <c r="V78" s="83"/>
+      <c r="W78" s="140"/>
     </row>
     <row r="79" spans="1:23" ht="12" customHeight="1">
-      <c r="A79" s="52"/>
-      <c r="B79" s="52"/>
-      <c r="C79" s="85"/>
-      <c r="D79" s="86"/>
-      <c r="E79" s="161"/>
-      <c r="F79" s="89"/>
-      <c r="G79" s="89"/>
-      <c r="H79" s="89"/>
-      <c r="I79" s="103"/>
-      <c r="J79" s="94"/>
-      <c r="K79" s="113"/>
-      <c r="L79" s="114"/>
-      <c r="M79" s="114"/>
-      <c r="N79" s="114"/>
-      <c r="O79" s="114"/>
-      <c r="P79" s="114"/>
-      <c r="Q79" s="114"/>
-      <c r="R79" s="114"/>
-      <c r="S79" s="114"/>
-      <c r="T79" s="114"/>
-      <c r="U79" s="114"/>
-      <c r="V79" s="29"/>
-      <c r="W79" s="116"/>
+      <c r="A79" s="70"/>
+      <c r="B79" s="70"/>
+      <c r="C79" s="110"/>
+      <c r="D79" s="111"/>
+      <c r="E79" s="129"/>
+      <c r="F79" s="114"/>
+      <c r="G79" s="114"/>
+      <c r="H79" s="114"/>
+      <c r="I79" s="130"/>
+      <c r="J79" s="118"/>
+      <c r="K79" s="144"/>
+      <c r="L79" s="145"/>
+      <c r="M79" s="145"/>
+      <c r="N79" s="145"/>
+      <c r="O79" s="145"/>
+      <c r="P79" s="145"/>
+      <c r="Q79" s="145"/>
+      <c r="R79" s="145"/>
+      <c r="S79" s="145"/>
+      <c r="T79" s="145"/>
+      <c r="U79" s="145"/>
+      <c r="V79" s="44"/>
+      <c r="W79" s="147"/>
     </row>
     <row r="80" spans="1:23" ht="12" customHeight="1">
-      <c r="A80" s="52"/>
-      <c r="B80" s="52"/>
-      <c r="C80" s="85"/>
-      <c r="D80" s="86"/>
-      <c r="E80" s="161"/>
-      <c r="F80" s="89"/>
-      <c r="G80" s="89"/>
-      <c r="H80" s="89"/>
-      <c r="I80" s="103"/>
-      <c r="J80" s="81"/>
-      <c r="K80" s="40"/>
-      <c r="L80" s="39"/>
-      <c r="M80" s="39"/>
-      <c r="N80" s="39"/>
-      <c r="O80" s="39"/>
-      <c r="P80" s="39"/>
-      <c r="Q80" s="39"/>
-      <c r="R80" s="39"/>
-      <c r="S80" s="39"/>
-      <c r="T80" s="39"/>
-      <c r="U80" s="39"/>
-      <c r="V80" s="39"/>
-      <c r="W80" s="82"/>
+      <c r="A80" s="70"/>
+      <c r="B80" s="70"/>
+      <c r="C80" s="110"/>
+      <c r="D80" s="111"/>
+      <c r="E80" s="129"/>
+      <c r="F80" s="114"/>
+      <c r="G80" s="114"/>
+      <c r="H80" s="114"/>
+      <c r="I80" s="130"/>
+      <c r="J80" s="106"/>
+      <c r="K80" s="57"/>
+      <c r="L80" s="56"/>
+      <c r="M80" s="56"/>
+      <c r="N80" s="56"/>
+      <c r="O80" s="56"/>
+      <c r="P80" s="56"/>
+      <c r="Q80" s="56"/>
+      <c r="R80" s="56"/>
+      <c r="S80" s="56"/>
+      <c r="T80" s="56"/>
+      <c r="U80" s="56"/>
+      <c r="V80" s="56"/>
+      <c r="W80" s="107"/>
     </row>
     <row r="81" spans="1:23" ht="12" customHeight="1">
-      <c r="A81" s="52"/>
-      <c r="B81" s="52"/>
-      <c r="C81" s="63"/>
-      <c r="D81" s="64"/>
-      <c r="E81" s="162"/>
-      <c r="F81" s="158"/>
-      <c r="G81" s="158"/>
-      <c r="H81" s="158"/>
-      <c r="I81" s="104"/>
-      <c r="J81" s="66"/>
-      <c r="K81" s="117"/>
-      <c r="L81" s="118"/>
-      <c r="M81" s="118"/>
-      <c r="N81" s="118"/>
-      <c r="O81" s="118"/>
-      <c r="P81" s="118"/>
-      <c r="Q81" s="118"/>
-      <c r="R81" s="118"/>
-      <c r="S81" s="118"/>
-      <c r="T81" s="118"/>
-      <c r="U81" s="118"/>
-      <c r="V81" s="139"/>
-      <c r="W81" s="119"/>
+      <c r="A81" s="70"/>
+      <c r="B81" s="70"/>
+      <c r="C81" s="85"/>
+      <c r="D81" s="86"/>
+      <c r="E81" s="131"/>
+      <c r="F81" s="122"/>
+      <c r="G81" s="122"/>
+      <c r="H81" s="122"/>
+      <c r="I81" s="132"/>
+      <c r="J81" s="90"/>
+      <c r="K81" s="148"/>
+      <c r="L81" s="149"/>
+      <c r="M81" s="149"/>
+      <c r="N81" s="149"/>
+      <c r="O81" s="149"/>
+      <c r="P81" s="149"/>
+      <c r="Q81" s="149"/>
+      <c r="R81" s="149"/>
+      <c r="S81" s="149"/>
+      <c r="T81" s="149"/>
+      <c r="U81" s="149"/>
+      <c r="V81" s="179"/>
+      <c r="W81" s="150"/>
     </row>
     <row r="82" spans="1:23" ht="12" customHeight="1">
-      <c r="A82" s="52"/>
-      <c r="B82" s="52"/>
-      <c r="C82" s="180"/>
-      <c r="D82" s="181"/>
-      <c r="E82" s="163"/>
-      <c r="F82" s="61"/>
-      <c r="G82" s="61"/>
-      <c r="H82" s="61"/>
-      <c r="I82" s="101"/>
-      <c r="J82" s="141"/>
-      <c r="K82" s="60"/>
-      <c r="L82" s="61"/>
-      <c r="M82" s="61"/>
-      <c r="N82" s="61"/>
-      <c r="O82" s="61"/>
-      <c r="P82" s="61"/>
-      <c r="Q82" s="61"/>
-      <c r="R82" s="61"/>
-      <c r="S82" s="61"/>
-      <c r="T82" s="61"/>
-      <c r="U82" s="61"/>
-      <c r="V82" s="61"/>
-      <c r="W82" s="62"/>
+      <c r="A82" s="70"/>
+      <c r="B82" s="70"/>
+      <c r="C82" s="76"/>
+      <c r="D82" s="77"/>
+      <c r="E82" s="151"/>
+      <c r="F82" s="83"/>
+      <c r="G82" s="83"/>
+      <c r="H82" s="83"/>
+      <c r="I82" s="128"/>
+      <c r="J82" s="181"/>
+      <c r="K82" s="82"/>
+      <c r="L82" s="83"/>
+      <c r="M82" s="83"/>
+      <c r="N82" s="83"/>
+      <c r="O82" s="83"/>
+      <c r="P82" s="83"/>
+      <c r="Q82" s="83"/>
+      <c r="R82" s="83"/>
+      <c r="S82" s="83"/>
+      <c r="T82" s="83"/>
+      <c r="U82" s="83"/>
+      <c r="V82" s="83"/>
+      <c r="W82" s="84"/>
     </row>
     <row r="83" spans="1:23" ht="12" customHeight="1">
-      <c r="A83" s="52"/>
-      <c r="B83" s="52"/>
-      <c r="C83" s="85"/>
-      <c r="D83" s="86"/>
-      <c r="E83" s="164"/>
-      <c r="F83" s="128"/>
-      <c r="G83" s="128"/>
-      <c r="H83" s="128"/>
-      <c r="I83" s="103"/>
-      <c r="J83" s="107"/>
-      <c r="K83" s="28"/>
-      <c r="L83" s="29"/>
-      <c r="M83" s="29"/>
-      <c r="N83" s="29"/>
-      <c r="O83" s="29"/>
-      <c r="P83" s="29"/>
-      <c r="Q83" s="29"/>
-      <c r="R83" s="29"/>
-      <c r="S83" s="29"/>
-      <c r="T83" s="29"/>
-      <c r="U83" s="29"/>
-      <c r="V83" s="29"/>
-      <c r="W83" s="31"/>
+      <c r="A83" s="70"/>
+      <c r="B83" s="70"/>
+      <c r="C83" s="110"/>
+      <c r="D83" s="111"/>
+      <c r="E83" s="152"/>
+      <c r="F83" s="40"/>
+      <c r="G83" s="40"/>
+      <c r="H83" s="40"/>
+      <c r="I83" s="130"/>
+      <c r="J83" s="136"/>
+      <c r="K83" s="43"/>
+      <c r="L83" s="44"/>
+      <c r="M83" s="44"/>
+      <c r="N83" s="44"/>
+      <c r="O83" s="44"/>
+      <c r="P83" s="44"/>
+      <c r="Q83" s="44"/>
+      <c r="R83" s="44"/>
+      <c r="S83" s="44"/>
+      <c r="T83" s="44"/>
+      <c r="U83" s="44"/>
+      <c r="V83" s="44"/>
+      <c r="W83" s="46"/>
     </row>
     <row r="84" spans="1:23" ht="12" customHeight="1">
-      <c r="A84" s="52"/>
-      <c r="B84" s="52"/>
-      <c r="C84" s="85"/>
-      <c r="D84" s="86"/>
-      <c r="E84" s="161"/>
-      <c r="F84" s="89"/>
-      <c r="G84" s="89"/>
-      <c r="H84" s="165"/>
-      <c r="I84" s="103"/>
-      <c r="J84" s="142"/>
-      <c r="K84" s="40"/>
-      <c r="L84" s="39"/>
-      <c r="M84" s="39"/>
-      <c r="N84" s="39"/>
-      <c r="O84" s="39"/>
-      <c r="P84" s="39"/>
-      <c r="Q84" s="39"/>
-      <c r="R84" s="39"/>
-      <c r="S84" s="39"/>
-      <c r="T84" s="39"/>
-      <c r="U84" s="39"/>
-      <c r="V84" s="39"/>
-      <c r="W84" s="82"/>
+      <c r="A84" s="70"/>
+      <c r="B84" s="70"/>
+      <c r="C84" s="110"/>
+      <c r="D84" s="111"/>
+      <c r="E84" s="129"/>
+      <c r="F84" s="114"/>
+      <c r="G84" s="114"/>
+      <c r="H84" s="153"/>
+      <c r="I84" s="130"/>
+      <c r="J84" s="182"/>
+      <c r="K84" s="57"/>
+      <c r="L84" s="56"/>
+      <c r="M84" s="56"/>
+      <c r="N84" s="56"/>
+      <c r="O84" s="56"/>
+      <c r="P84" s="56"/>
+      <c r="Q84" s="56"/>
+      <c r="R84" s="56"/>
+      <c r="S84" s="56"/>
+      <c r="T84" s="56"/>
+      <c r="U84" s="56"/>
+      <c r="V84" s="56"/>
+      <c r="W84" s="107"/>
     </row>
     <row r="85" spans="1:23" ht="12" customHeight="1">
-      <c r="A85" s="52"/>
-      <c r="B85" s="52"/>
-      <c r="C85" s="63"/>
-      <c r="D85" s="64"/>
-      <c r="E85" s="162"/>
-      <c r="F85" s="158"/>
-      <c r="G85" s="158"/>
-      <c r="H85" s="71"/>
-      <c r="I85" s="104"/>
-      <c r="J85" s="143"/>
-      <c r="K85" s="138"/>
-      <c r="L85" s="139"/>
-      <c r="M85" s="139"/>
-      <c r="N85" s="139"/>
-      <c r="O85" s="139"/>
-      <c r="P85" s="139"/>
-      <c r="Q85" s="139"/>
-      <c r="R85" s="139"/>
-      <c r="S85" s="139"/>
-      <c r="T85" s="139"/>
-      <c r="U85" s="139"/>
-      <c r="V85" s="139"/>
-      <c r="W85" s="31"/>
+      <c r="A85" s="70"/>
+      <c r="B85" s="70"/>
+      <c r="C85" s="85"/>
+      <c r="D85" s="86"/>
+      <c r="E85" s="131"/>
+      <c r="F85" s="122"/>
+      <c r="G85" s="122"/>
+      <c r="H85" s="97"/>
+      <c r="I85" s="132"/>
+      <c r="J85" s="183"/>
+      <c r="K85" s="178"/>
+      <c r="L85" s="179"/>
+      <c r="M85" s="179"/>
+      <c r="N85" s="179"/>
+      <c r="O85" s="179"/>
+      <c r="P85" s="179"/>
+      <c r="Q85" s="179"/>
+      <c r="R85" s="179"/>
+      <c r="S85" s="179"/>
+      <c r="T85" s="179"/>
+      <c r="U85" s="179"/>
+      <c r="V85" s="179"/>
+      <c r="W85" s="46"/>
     </row>
     <row r="86" spans="1:23" ht="12" customHeight="1">
-      <c r="A86" s="52"/>
-      <c r="B86" s="52"/>
-      <c r="C86" s="180"/>
-      <c r="D86" s="181"/>
-      <c r="E86" s="163"/>
-      <c r="F86" s="61"/>
-      <c r="G86" s="61"/>
-      <c r="H86" s="61"/>
-      <c r="I86" s="101"/>
-      <c r="J86" s="141"/>
-      <c r="K86" s="60"/>
-      <c r="L86" s="61"/>
-      <c r="M86" s="61"/>
-      <c r="N86" s="61"/>
-      <c r="O86" s="61"/>
-      <c r="P86" s="61"/>
-      <c r="Q86" s="61"/>
-      <c r="R86" s="61"/>
-      <c r="S86" s="61"/>
-      <c r="T86" s="61"/>
-      <c r="U86" s="61"/>
-      <c r="V86" s="61"/>
-      <c r="W86" s="62"/>
+      <c r="A86" s="70"/>
+      <c r="B86" s="70"/>
+      <c r="C86" s="76"/>
+      <c r="D86" s="77"/>
+      <c r="E86" s="151"/>
+      <c r="F86" s="83"/>
+      <c r="G86" s="83"/>
+      <c r="H86" s="83"/>
+      <c r="I86" s="128"/>
+      <c r="J86" s="181"/>
+      <c r="K86" s="82"/>
+      <c r="L86" s="83"/>
+      <c r="M86" s="83"/>
+      <c r="N86" s="83"/>
+      <c r="O86" s="83"/>
+      <c r="P86" s="83"/>
+      <c r="Q86" s="83"/>
+      <c r="R86" s="83"/>
+      <c r="S86" s="83"/>
+      <c r="T86" s="83"/>
+      <c r="U86" s="83"/>
+      <c r="V86" s="83"/>
+      <c r="W86" s="84"/>
     </row>
     <row r="87" spans="1:23" ht="12" customHeight="1">
-      <c r="A87" s="52"/>
-      <c r="B87" s="52"/>
-      <c r="C87" s="85"/>
-      <c r="D87" s="86"/>
-      <c r="E87" s="164"/>
-      <c r="F87" s="128"/>
-      <c r="G87" s="128"/>
-      <c r="H87" s="128"/>
-      <c r="I87" s="103"/>
-      <c r="J87" s="144"/>
-      <c r="K87" s="28"/>
-      <c r="L87" s="29"/>
-      <c r="M87" s="29"/>
-      <c r="N87" s="29"/>
-      <c r="O87" s="29"/>
-      <c r="P87" s="29"/>
-      <c r="Q87" s="29"/>
-      <c r="R87" s="29"/>
-      <c r="S87" s="29"/>
-      <c r="T87" s="29"/>
-      <c r="U87" s="29"/>
-      <c r="V87" s="29"/>
-      <c r="W87" s="31"/>
+      <c r="A87" s="70"/>
+      <c r="B87" s="70"/>
+      <c r="C87" s="110"/>
+      <c r="D87" s="111"/>
+      <c r="E87" s="152"/>
+      <c r="F87" s="40"/>
+      <c r="G87" s="40"/>
+      <c r="H87" s="40"/>
+      <c r="I87" s="130"/>
+      <c r="J87" s="184"/>
+      <c r="K87" s="43"/>
+      <c r="L87" s="44"/>
+      <c r="M87" s="44"/>
+      <c r="N87" s="44"/>
+      <c r="O87" s="44"/>
+      <c r="P87" s="44"/>
+      <c r="Q87" s="44"/>
+      <c r="R87" s="44"/>
+      <c r="S87" s="44"/>
+      <c r="T87" s="44"/>
+      <c r="U87" s="44"/>
+      <c r="V87" s="44"/>
+      <c r="W87" s="46"/>
     </row>
     <row r="88" spans="1:23" ht="12" customHeight="1">
-      <c r="A88" s="52"/>
-      <c r="B88" s="52"/>
-      <c r="C88" s="85"/>
-      <c r="D88" s="86"/>
-      <c r="E88" s="161"/>
-      <c r="F88" s="89"/>
-      <c r="G88" s="89"/>
-      <c r="H88" s="165"/>
-      <c r="I88" s="103"/>
-      <c r="J88" s="142"/>
-      <c r="K88" s="40"/>
-      <c r="L88" s="39"/>
-      <c r="M88" s="39"/>
-      <c r="N88" s="39"/>
-      <c r="O88" s="39"/>
-      <c r="P88" s="39"/>
-      <c r="Q88" s="39"/>
-      <c r="R88" s="39"/>
-      <c r="S88" s="39"/>
-      <c r="T88" s="39"/>
-      <c r="U88" s="39"/>
-      <c r="V88" s="39"/>
-      <c r="W88" s="82"/>
+      <c r="A88" s="70"/>
+      <c r="B88" s="70"/>
+      <c r="C88" s="110"/>
+      <c r="D88" s="111"/>
+      <c r="E88" s="129"/>
+      <c r="F88" s="114"/>
+      <c r="G88" s="114"/>
+      <c r="H88" s="153"/>
+      <c r="I88" s="130"/>
+      <c r="J88" s="182"/>
+      <c r="K88" s="57"/>
+      <c r="L88" s="56"/>
+      <c r="M88" s="56"/>
+      <c r="N88" s="56"/>
+      <c r="O88" s="56"/>
+      <c r="P88" s="56"/>
+      <c r="Q88" s="56"/>
+      <c r="R88" s="56"/>
+      <c r="S88" s="56"/>
+      <c r="T88" s="56"/>
+      <c r="U88" s="56"/>
+      <c r="V88" s="56"/>
+      <c r="W88" s="107"/>
     </row>
     <row r="89" spans="1:23" ht="12" customHeight="1">
-      <c r="A89" s="52"/>
-      <c r="B89" s="52"/>
-      <c r="C89" s="63"/>
-      <c r="D89" s="64"/>
-      <c r="E89" s="162"/>
-      <c r="F89" s="158"/>
-      <c r="G89" s="158"/>
-      <c r="H89" s="158"/>
-      <c r="I89" s="104"/>
-      <c r="J89" s="144"/>
-      <c r="K89" s="138"/>
-      <c r="L89" s="139"/>
-      <c r="M89" s="139"/>
-      <c r="N89" s="139"/>
-      <c r="O89" s="139"/>
-      <c r="P89" s="139"/>
-      <c r="Q89" s="139"/>
-      <c r="R89" s="139"/>
-      <c r="S89" s="139"/>
-      <c r="T89" s="139"/>
-      <c r="U89" s="139"/>
-      <c r="V89" s="139"/>
-      <c r="W89" s="31"/>
+      <c r="A89" s="70"/>
+      <c r="B89" s="70"/>
+      <c r="C89" s="85"/>
+      <c r="D89" s="86"/>
+      <c r="E89" s="131"/>
+      <c r="F89" s="122"/>
+      <c r="G89" s="122"/>
+      <c r="H89" s="122"/>
+      <c r="I89" s="132"/>
+      <c r="J89" s="184"/>
+      <c r="K89" s="178"/>
+      <c r="L89" s="179"/>
+      <c r="M89" s="179"/>
+      <c r="N89" s="179"/>
+      <c r="O89" s="179"/>
+      <c r="P89" s="179"/>
+      <c r="Q89" s="179"/>
+      <c r="R89" s="179"/>
+      <c r="S89" s="179"/>
+      <c r="T89" s="179"/>
+      <c r="U89" s="179"/>
+      <c r="V89" s="179"/>
+      <c r="W89" s="46"/>
     </row>
     <row r="90" spans="1:23" ht="12" customHeight="1">
-      <c r="A90" s="52"/>
-      <c r="B90" s="52"/>
-      <c r="C90" s="180"/>
-      <c r="D90" s="181"/>
-      <c r="E90" s="83"/>
-      <c r="F90" s="122"/>
-      <c r="G90" s="61"/>
-      <c r="H90" s="61"/>
-      <c r="I90" s="166"/>
-      <c r="J90" s="141"/>
-      <c r="K90" s="60"/>
-      <c r="L90" s="61"/>
-      <c r="M90" s="61"/>
-      <c r="N90" s="61"/>
-      <c r="O90" s="61"/>
-      <c r="P90" s="61"/>
-      <c r="Q90" s="61"/>
-      <c r="R90" s="61"/>
-      <c r="S90" s="61"/>
-      <c r="T90" s="61"/>
-      <c r="U90" s="61"/>
-      <c r="V90" s="61"/>
-      <c r="W90" s="62"/>
+      <c r="A90" s="70"/>
+      <c r="B90" s="70"/>
+      <c r="C90" s="76"/>
+      <c r="D90" s="77"/>
+      <c r="E90" s="108"/>
+      <c r="F90" s="155"/>
+      <c r="G90" s="83"/>
+      <c r="H90" s="83"/>
+      <c r="I90" s="156"/>
+      <c r="J90" s="181"/>
+      <c r="K90" s="82"/>
+      <c r="L90" s="83"/>
+      <c r="M90" s="83"/>
+      <c r="N90" s="83"/>
+      <c r="O90" s="83"/>
+      <c r="P90" s="83"/>
+      <c r="Q90" s="83"/>
+      <c r="R90" s="83"/>
+      <c r="S90" s="83"/>
+      <c r="T90" s="83"/>
+      <c r="U90" s="83"/>
+      <c r="V90" s="83"/>
+      <c r="W90" s="84"/>
     </row>
     <row r="91" spans="1:23" ht="12" customHeight="1">
-      <c r="A91" s="52"/>
-      <c r="B91" s="52"/>
-      <c r="C91" s="85"/>
-      <c r="D91" s="86"/>
-      <c r="E91" s="87"/>
-      <c r="F91" s="56"/>
-      <c r="G91" s="128"/>
-      <c r="H91" s="128"/>
-      <c r="I91" s="167"/>
-      <c r="J91" s="107"/>
-      <c r="K91" s="43"/>
-      <c r="L91" s="95"/>
-      <c r="M91" s="95"/>
-      <c r="N91" s="95"/>
-      <c r="O91" s="95"/>
-      <c r="P91" s="95"/>
-      <c r="Q91" s="95"/>
-      <c r="R91" s="95"/>
-      <c r="S91" s="95"/>
-      <c r="T91" s="95"/>
-      <c r="U91" s="95"/>
-      <c r="V91" s="95"/>
-      <c r="W91" s="31"/>
+      <c r="A91" s="70"/>
+      <c r="B91" s="70"/>
+      <c r="C91" s="110"/>
+      <c r="D91" s="111"/>
+      <c r="E91" s="112"/>
+      <c r="F91" s="74"/>
+      <c r="G91" s="40"/>
+      <c r="H91" s="40"/>
+      <c r="I91" s="157"/>
+      <c r="J91" s="136"/>
+      <c r="K91" s="61"/>
+      <c r="L91" s="119"/>
+      <c r="M91" s="119"/>
+      <c r="N91" s="119"/>
+      <c r="O91" s="119"/>
+      <c r="P91" s="119"/>
+      <c r="Q91" s="119"/>
+      <c r="R91" s="119"/>
+      <c r="S91" s="119"/>
+      <c r="T91" s="119"/>
+      <c r="U91" s="119"/>
+      <c r="V91" s="119"/>
+      <c r="W91" s="46"/>
     </row>
     <row r="92" spans="1:23" ht="12" customHeight="1">
-      <c r="A92" s="52"/>
-      <c r="B92" s="52"/>
-      <c r="C92" s="85"/>
-      <c r="D92" s="86"/>
-      <c r="E92" s="87"/>
-      <c r="F92" s="56"/>
-      <c r="G92" s="123"/>
-      <c r="H92" s="124"/>
-      <c r="I92" s="103"/>
-      <c r="J92" s="142"/>
-      <c r="K92" s="145"/>
-      <c r="L92" s="39"/>
-      <c r="M92" s="39"/>
-      <c r="N92" s="39"/>
-      <c r="O92" s="39"/>
-      <c r="P92" s="39"/>
-      <c r="Q92" s="39"/>
-      <c r="R92" s="39"/>
-      <c r="S92" s="39"/>
-      <c r="T92" s="39"/>
-      <c r="U92" s="39"/>
-      <c r="V92" s="39"/>
-      <c r="W92" s="82"/>
+      <c r="A92" s="70"/>
+      <c r="B92" s="70"/>
+      <c r="C92" s="110"/>
+      <c r="D92" s="111"/>
+      <c r="E92" s="112"/>
+      <c r="F92" s="74"/>
+      <c r="G92" s="158"/>
+      <c r="H92" s="159"/>
+      <c r="I92" s="130"/>
+      <c r="J92" s="182"/>
+      <c r="K92" s="185"/>
+      <c r="L92" s="56"/>
+      <c r="M92" s="56"/>
+      <c r="N92" s="56"/>
+      <c r="O92" s="56"/>
+      <c r="P92" s="56"/>
+      <c r="Q92" s="56"/>
+      <c r="R92" s="56"/>
+      <c r="S92" s="56"/>
+      <c r="T92" s="56"/>
+      <c r="U92" s="56"/>
+      <c r="V92" s="56"/>
+      <c r="W92" s="107"/>
     </row>
     <row r="93" spans="1:23" ht="12" customHeight="1">
-      <c r="A93" s="52"/>
-      <c r="B93" s="52"/>
-      <c r="C93" s="63"/>
-      <c r="D93" s="64"/>
-      <c r="E93" s="96"/>
-      <c r="F93" s="126"/>
-      <c r="G93" s="97"/>
-      <c r="H93" s="120"/>
-      <c r="I93" s="104"/>
-      <c r="J93" s="143"/>
-      <c r="K93" s="146"/>
-      <c r="L93" s="139"/>
-      <c r="M93" s="139"/>
-      <c r="N93" s="139"/>
-      <c r="O93" s="139"/>
-      <c r="P93" s="139"/>
-      <c r="Q93" s="139"/>
-      <c r="R93" s="139"/>
-      <c r="S93" s="139"/>
-      <c r="T93" s="139"/>
-      <c r="U93" s="139"/>
-      <c r="V93" s="139"/>
-      <c r="W93" s="31"/>
+      <c r="A93" s="70"/>
+      <c r="B93" s="70"/>
+      <c r="C93" s="85"/>
+      <c r="D93" s="86"/>
+      <c r="E93" s="120"/>
+      <c r="F93" s="161"/>
+      <c r="G93" s="162"/>
+      <c r="H93" s="163"/>
+      <c r="I93" s="132"/>
+      <c r="J93" s="183"/>
+      <c r="K93" s="186"/>
+      <c r="L93" s="179"/>
+      <c r="M93" s="179"/>
+      <c r="N93" s="179"/>
+      <c r="O93" s="179"/>
+      <c r="P93" s="179"/>
+      <c r="Q93" s="179"/>
+      <c r="R93" s="179"/>
+      <c r="S93" s="179"/>
+      <c r="T93" s="179"/>
+      <c r="U93" s="179"/>
+      <c r="V93" s="179"/>
+      <c r="W93" s="46"/>
     </row>
     <row r="94" spans="1:23" ht="12" customHeight="1">
-      <c r="A94" s="52"/>
-      <c r="B94" s="52"/>
-      <c r="C94" s="180"/>
-      <c r="D94" s="181"/>
-      <c r="E94" s="83"/>
-      <c r="F94" s="122"/>
-      <c r="G94" s="61"/>
-      <c r="H94" s="61"/>
-      <c r="I94" s="166"/>
-      <c r="J94" s="141"/>
-      <c r="K94" s="60"/>
-      <c r="L94" s="61"/>
-      <c r="M94" s="61"/>
-      <c r="N94" s="61"/>
-      <c r="O94" s="61"/>
-      <c r="P94" s="61"/>
-      <c r="Q94" s="61"/>
-      <c r="R94" s="61"/>
-      <c r="S94" s="61"/>
-      <c r="T94" s="61"/>
-      <c r="U94" s="61"/>
-      <c r="V94" s="61"/>
-      <c r="W94" s="147"/>
+      <c r="A94" s="70"/>
+      <c r="B94" s="70"/>
+      <c r="C94" s="76"/>
+      <c r="D94" s="77"/>
+      <c r="E94" s="108"/>
+      <c r="F94" s="155"/>
+      <c r="G94" s="83"/>
+      <c r="H94" s="83"/>
+      <c r="I94" s="156"/>
+      <c r="J94" s="181"/>
+      <c r="K94" s="82"/>
+      <c r="L94" s="83"/>
+      <c r="M94" s="83"/>
+      <c r="N94" s="83"/>
+      <c r="O94" s="83"/>
+      <c r="P94" s="83"/>
+      <c r="Q94" s="83"/>
+      <c r="R94" s="83"/>
+      <c r="S94" s="83"/>
+      <c r="T94" s="83"/>
+      <c r="U94" s="83"/>
+      <c r="V94" s="83"/>
+      <c r="W94" s="187"/>
     </row>
     <row r="95" spans="1:23" ht="12" customHeight="1">
-      <c r="A95" s="52"/>
-      <c r="B95" s="52"/>
-      <c r="C95" s="85"/>
-      <c r="D95" s="86"/>
-      <c r="E95" s="87"/>
-      <c r="F95" s="56"/>
-      <c r="G95" s="128"/>
-      <c r="H95" s="128"/>
-      <c r="I95" s="167"/>
-      <c r="J95" s="107"/>
-      <c r="K95" s="43"/>
-      <c r="L95" s="95"/>
-      <c r="M95" s="95"/>
-      <c r="N95" s="95"/>
-      <c r="O95" s="95"/>
-      <c r="P95" s="95"/>
-      <c r="Q95" s="95"/>
-      <c r="R95" s="95"/>
-      <c r="S95" s="95"/>
-      <c r="T95" s="95"/>
-      <c r="U95" s="95"/>
-      <c r="V95" s="95"/>
-      <c r="W95" s="31"/>
+      <c r="A95" s="70"/>
+      <c r="B95" s="70"/>
+      <c r="C95" s="110"/>
+      <c r="D95" s="111"/>
+      <c r="E95" s="112"/>
+      <c r="F95" s="74"/>
+      <c r="G95" s="40"/>
+      <c r="H95" s="40"/>
+      <c r="I95" s="157"/>
+      <c r="J95" s="136"/>
+      <c r="K95" s="61"/>
+      <c r="L95" s="119"/>
+      <c r="M95" s="119"/>
+      <c r="N95" s="119"/>
+      <c r="O95" s="119"/>
+      <c r="P95" s="119"/>
+      <c r="Q95" s="119"/>
+      <c r="R95" s="119"/>
+      <c r="S95" s="119"/>
+      <c r="T95" s="119"/>
+      <c r="U95" s="119"/>
+      <c r="V95" s="119"/>
+      <c r="W95" s="46"/>
     </row>
     <row r="96" spans="1:23" ht="12" customHeight="1">
-      <c r="A96" s="52"/>
-      <c r="B96" s="52"/>
-      <c r="C96" s="85"/>
-      <c r="D96" s="86"/>
-      <c r="E96" s="87"/>
-      <c r="F96" s="56"/>
-      <c r="G96" s="123"/>
-      <c r="H96" s="124"/>
-      <c r="I96" s="103"/>
-      <c r="J96" s="142"/>
-      <c r="K96" s="145"/>
-      <c r="L96" s="39"/>
-      <c r="M96" s="39"/>
-      <c r="N96" s="39"/>
-      <c r="O96" s="39"/>
-      <c r="P96" s="39"/>
-      <c r="Q96" s="39"/>
-      <c r="R96" s="39"/>
-      <c r="S96" s="39"/>
-      <c r="T96" s="39"/>
-      <c r="U96" s="39"/>
-      <c r="V96" s="39"/>
-      <c r="W96" s="82"/>
+      <c r="A96" s="70"/>
+      <c r="B96" s="70"/>
+      <c r="C96" s="110"/>
+      <c r="D96" s="111"/>
+      <c r="E96" s="112"/>
+      <c r="F96" s="74"/>
+      <c r="G96" s="158"/>
+      <c r="H96" s="159"/>
+      <c r="I96" s="130"/>
+      <c r="J96" s="182"/>
+      <c r="K96" s="185"/>
+      <c r="L96" s="56"/>
+      <c r="M96" s="56"/>
+      <c r="N96" s="56"/>
+      <c r="O96" s="56"/>
+      <c r="P96" s="56"/>
+      <c r="Q96" s="56"/>
+      <c r="R96" s="56"/>
+      <c r="S96" s="56"/>
+      <c r="T96" s="56"/>
+      <c r="U96" s="56"/>
+      <c r="V96" s="56"/>
+      <c r="W96" s="107"/>
     </row>
     <row r="97" spans="1:23" ht="12" customHeight="1">
-      <c r="A97" s="149"/>
-      <c r="B97" s="150"/>
-      <c r="C97" s="63"/>
-      <c r="D97" s="64"/>
-      <c r="E97" s="96"/>
-      <c r="F97" s="126"/>
-      <c r="G97" s="97"/>
-      <c r="H97" s="120"/>
-      <c r="I97" s="104"/>
-      <c r="J97" s="143"/>
-      <c r="K97" s="146"/>
-      <c r="L97" s="139"/>
-      <c r="M97" s="139"/>
-      <c r="N97" s="139"/>
-      <c r="O97" s="139"/>
-      <c r="P97" s="139"/>
-      <c r="Q97" s="139"/>
-      <c r="R97" s="139"/>
-      <c r="S97" s="139"/>
-      <c r="T97" s="139"/>
-      <c r="U97" s="139"/>
-      <c r="V97" s="139"/>
-      <c r="W97" s="148"/>
+      <c r="A97" s="70"/>
+      <c r="B97" s="111"/>
+      <c r="C97" s="85"/>
+      <c r="D97" s="86"/>
+      <c r="E97" s="120"/>
+      <c r="F97" s="161"/>
+      <c r="G97" s="162"/>
+      <c r="H97" s="163"/>
+      <c r="I97" s="132"/>
+      <c r="J97" s="183"/>
+      <c r="K97" s="186"/>
+      <c r="L97" s="179"/>
+      <c r="M97" s="179"/>
+      <c r="N97" s="179"/>
+      <c r="O97" s="179"/>
+      <c r="P97" s="179"/>
+      <c r="Q97" s="179"/>
+      <c r="R97" s="179"/>
+      <c r="S97" s="179"/>
+      <c r="T97" s="179"/>
+      <c r="U97" s="179"/>
+      <c r="V97" s="179"/>
+      <c r="W97" s="188"/>
     </row>
     <row r="98" spans="1:23" ht="12" customHeight="1">
-      <c r="A98" s="149"/>
-      <c r="B98" s="149"/>
-      <c r="C98" s="180"/>
-      <c r="D98" s="181"/>
-      <c r="E98" s="163"/>
-      <c r="F98" s="61"/>
-      <c r="G98" s="61"/>
-      <c r="H98" s="61"/>
-      <c r="I98" s="101"/>
-      <c r="J98" s="98"/>
-      <c r="K98" s="77"/>
-      <c r="L98" s="78"/>
-      <c r="M98" s="78"/>
-      <c r="N98" s="78"/>
-      <c r="O98" s="78"/>
-      <c r="P98" s="78"/>
-      <c r="Q98" s="78"/>
-      <c r="R98" s="78"/>
-      <c r="S98" s="78"/>
-      <c r="T98" s="78"/>
-      <c r="U98" s="78"/>
-      <c r="V98" s="78"/>
-      <c r="W98" s="79"/>
+      <c r="A98" s="70"/>
+      <c r="B98" s="70"/>
+      <c r="C98" s="76"/>
+      <c r="D98" s="77"/>
+      <c r="E98" s="151"/>
+      <c r="F98" s="83"/>
+      <c r="G98" s="83"/>
+      <c r="H98" s="83"/>
+      <c r="I98" s="128"/>
+      <c r="J98" s="124"/>
+      <c r="K98" s="102"/>
+      <c r="L98" s="103"/>
+      <c r="M98" s="103"/>
+      <c r="N98" s="103"/>
+      <c r="O98" s="103"/>
+      <c r="P98" s="103"/>
+      <c r="Q98" s="103"/>
+      <c r="R98" s="103"/>
+      <c r="S98" s="103"/>
+      <c r="T98" s="103"/>
+      <c r="U98" s="103"/>
+      <c r="V98" s="103"/>
+      <c r="W98" s="104"/>
     </row>
     <row r="99" spans="1:23" ht="12" customHeight="1">
-      <c r="A99" s="149"/>
-      <c r="B99" s="149"/>
-      <c r="C99" s="63"/>
-      <c r="D99" s="64"/>
-      <c r="E99" s="162"/>
-      <c r="F99" s="158"/>
-      <c r="G99" s="158"/>
-      <c r="H99" s="71"/>
-      <c r="I99" s="104"/>
-      <c r="J99" s="70"/>
-      <c r="K99" s="164"/>
-      <c r="L99" s="128"/>
-      <c r="M99" s="128"/>
-      <c r="N99" s="128"/>
-      <c r="O99" s="128"/>
-      <c r="P99" s="128"/>
-      <c r="Q99" s="128"/>
-      <c r="R99" s="128"/>
-      <c r="S99" s="128"/>
-      <c r="T99" s="128"/>
-      <c r="U99" s="128"/>
-      <c r="V99" s="128"/>
-      <c r="W99" s="129"/>
+      <c r="A99" s="70"/>
+      <c r="B99" s="70"/>
+      <c r="C99" s="85"/>
+      <c r="D99" s="86"/>
+      <c r="E99" s="131"/>
+      <c r="F99" s="122"/>
+      <c r="G99" s="122"/>
+      <c r="H99" s="97"/>
+      <c r="I99" s="132"/>
+      <c r="J99" s="96"/>
+      <c r="K99" s="152"/>
+      <c r="L99" s="40"/>
+      <c r="M99" s="40"/>
+      <c r="N99" s="40"/>
+      <c r="O99" s="40"/>
+      <c r="P99" s="40"/>
+      <c r="Q99" s="40"/>
+      <c r="R99" s="40"/>
+      <c r="S99" s="40"/>
+      <c r="T99" s="40"/>
+      <c r="U99" s="40"/>
+      <c r="V99" s="40"/>
+      <c r="W99" s="165"/>
     </row>
     <row r="100" spans="1:23" ht="12" customHeight="1">
-      <c r="A100" s="149"/>
-      <c r="B100" s="149"/>
-      <c r="C100" s="180"/>
-      <c r="D100" s="181"/>
-      <c r="E100" s="163"/>
-      <c r="F100" s="61"/>
-      <c r="G100" s="61"/>
-      <c r="H100" s="61"/>
-      <c r="I100" s="101"/>
-      <c r="J100" s="141"/>
-      <c r="K100" s="60"/>
-      <c r="L100" s="61"/>
-      <c r="M100" s="61"/>
-      <c r="N100" s="61"/>
-      <c r="O100" s="61"/>
-      <c r="P100" s="61"/>
-      <c r="Q100" s="61"/>
-      <c r="R100" s="61"/>
-      <c r="S100" s="61"/>
-      <c r="T100" s="61"/>
-      <c r="U100" s="61"/>
-      <c r="V100" s="61"/>
-      <c r="W100" s="147"/>
+      <c r="A100" s="70"/>
+      <c r="B100" s="70"/>
+      <c r="C100" s="76"/>
+      <c r="D100" s="77"/>
+      <c r="E100" s="151"/>
+      <c r="F100" s="83"/>
+      <c r="G100" s="83"/>
+      <c r="H100" s="83"/>
+      <c r="I100" s="128"/>
+      <c r="J100" s="181"/>
+      <c r="K100" s="82"/>
+      <c r="L100" s="83"/>
+      <c r="M100" s="83"/>
+      <c r="N100" s="83"/>
+      <c r="O100" s="83"/>
+      <c r="P100" s="83"/>
+      <c r="Q100" s="83"/>
+      <c r="R100" s="83"/>
+      <c r="S100" s="83"/>
+      <c r="T100" s="83"/>
+      <c r="U100" s="83"/>
+      <c r="V100" s="83"/>
+      <c r="W100" s="187"/>
     </row>
     <row r="101" spans="1:23" ht="12" customHeight="1">
-      <c r="A101" s="149"/>
-      <c r="B101" s="149"/>
-      <c r="C101" s="63"/>
-      <c r="D101" s="64"/>
-      <c r="E101" s="162"/>
-      <c r="F101" s="158"/>
-      <c r="G101" s="158"/>
-      <c r="H101" s="71"/>
-      <c r="I101" s="104"/>
-      <c r="J101" s="177"/>
-      <c r="K101" s="146"/>
-      <c r="L101" s="139"/>
-      <c r="M101" s="139"/>
-      <c r="N101" s="139"/>
-      <c r="O101" s="139"/>
-      <c r="P101" s="139"/>
-      <c r="Q101" s="139"/>
-      <c r="R101" s="139"/>
-      <c r="S101" s="139"/>
-      <c r="T101" s="139"/>
-      <c r="U101" s="139"/>
-      <c r="V101" s="139"/>
-      <c r="W101" s="148"/>
+      <c r="A101" s="70"/>
+      <c r="B101" s="70"/>
+      <c r="C101" s="85"/>
+      <c r="D101" s="86"/>
+      <c r="E101" s="131"/>
+      <c r="F101" s="122"/>
+      <c r="G101" s="122"/>
+      <c r="H101" s="97"/>
+      <c r="I101" s="132"/>
+      <c r="J101" s="189"/>
+      <c r="K101" s="186"/>
+      <c r="L101" s="179"/>
+      <c r="M101" s="179"/>
+      <c r="N101" s="179"/>
+      <c r="O101" s="179"/>
+      <c r="P101" s="179"/>
+      <c r="Q101" s="179"/>
+      <c r="R101" s="179"/>
+      <c r="S101" s="179"/>
+      <c r="T101" s="179"/>
+      <c r="U101" s="179"/>
+      <c r="V101" s="179"/>
+      <c r="W101" s="188"/>
     </row>
     <row r="102" spans="1:23" ht="12" customHeight="1">
-      <c r="C102" s="180"/>
-      <c r="D102" s="181"/>
-      <c r="E102" s="83"/>
-      <c r="F102" s="122"/>
-      <c r="G102" s="73"/>
-      <c r="H102" s="73"/>
-      <c r="I102" s="179"/>
-      <c r="J102" s="141"/>
-      <c r="K102" s="60"/>
-      <c r="L102" s="61"/>
-      <c r="M102" s="61"/>
-      <c r="N102" s="61"/>
-      <c r="O102" s="61"/>
-      <c r="P102" s="61"/>
-      <c r="Q102" s="61"/>
-      <c r="R102" s="61"/>
-      <c r="S102" s="61"/>
-      <c r="T102" s="61"/>
-      <c r="U102" s="61"/>
-      <c r="V102" s="61"/>
-      <c r="W102" s="62"/>
+      <c r="C102" s="76"/>
+      <c r="D102" s="77"/>
+      <c r="E102" s="108"/>
+      <c r="F102" s="155"/>
+      <c r="G102" s="98"/>
+      <c r="H102" s="98"/>
+      <c r="I102" s="190"/>
+      <c r="J102" s="181"/>
+      <c r="K102" s="82"/>
+      <c r="L102" s="83"/>
+      <c r="M102" s="83"/>
+      <c r="N102" s="83"/>
+      <c r="O102" s="83"/>
+      <c r="P102" s="83"/>
+      <c r="Q102" s="83"/>
+      <c r="R102" s="83"/>
+      <c r="S102" s="83"/>
+      <c r="T102" s="83"/>
+      <c r="U102" s="83"/>
+      <c r="V102" s="83"/>
+      <c r="W102" s="84"/>
     </row>
     <row r="103" spans="1:23" ht="12" customHeight="1">
-      <c r="C103" s="85"/>
-      <c r="D103" s="171"/>
-      <c r="E103" s="87"/>
-      <c r="F103" s="56"/>
-      <c r="J103" s="66"/>
-      <c r="K103" s="43"/>
-      <c r="L103" s="95"/>
-      <c r="M103" s="95"/>
-      <c r="N103" s="95"/>
-      <c r="O103" s="95"/>
-      <c r="P103" s="95"/>
-      <c r="Q103" s="95"/>
-      <c r="R103" s="95"/>
-      <c r="S103" s="95"/>
-      <c r="T103" s="95"/>
-      <c r="U103" s="95"/>
-      <c r="V103" s="95"/>
-      <c r="W103" s="31"/>
+      <c r="C103" s="110"/>
+      <c r="D103" s="111"/>
+      <c r="E103" s="112"/>
+      <c r="F103" s="74"/>
+      <c r="J103" s="90"/>
+      <c r="K103" s="61"/>
+      <c r="L103" s="119"/>
+      <c r="M103" s="119"/>
+      <c r="N103" s="119"/>
+      <c r="O103" s="119"/>
+      <c r="P103" s="119"/>
+      <c r="Q103" s="119"/>
+      <c r="R103" s="119"/>
+      <c r="S103" s="119"/>
+      <c r="T103" s="119"/>
+      <c r="U103" s="119"/>
+      <c r="V103" s="119"/>
+      <c r="W103" s="46"/>
     </row>
     <row r="104" spans="1:23" ht="12" customHeight="1">
-      <c r="A104" s="170"/>
-      <c r="B104" s="170"/>
-      <c r="C104" s="180"/>
-      <c r="D104" s="181"/>
-      <c r="E104" s="83"/>
-      <c r="F104" s="122"/>
-      <c r="G104" s="73"/>
-      <c r="H104" s="73"/>
-      <c r="I104" s="179"/>
-      <c r="J104" s="178"/>
-      <c r="K104" s="77"/>
-      <c r="L104" s="78"/>
-      <c r="M104" s="78"/>
-      <c r="N104" s="78"/>
-      <c r="O104" s="78"/>
-      <c r="P104" s="78"/>
-      <c r="Q104" s="78"/>
-      <c r="R104" s="78"/>
-      <c r="S104" s="78"/>
-      <c r="T104" s="78"/>
-      <c r="U104" s="78"/>
-      <c r="V104" s="78"/>
-      <c r="W104" s="79"/>
+      <c r="A104" s="70"/>
+      <c r="B104" s="70"/>
+      <c r="C104" s="76"/>
+      <c r="D104" s="77"/>
+      <c r="E104" s="108"/>
+      <c r="F104" s="155"/>
+      <c r="G104" s="98"/>
+      <c r="H104" s="98"/>
+      <c r="I104" s="190"/>
+      <c r="J104" s="101"/>
+      <c r="K104" s="102"/>
+      <c r="L104" s="103"/>
+      <c r="M104" s="103"/>
+      <c r="N104" s="103"/>
+      <c r="O104" s="103"/>
+      <c r="P104" s="103"/>
+      <c r="Q104" s="103"/>
+      <c r="R104" s="103"/>
+      <c r="S104" s="103"/>
+      <c r="T104" s="103"/>
+      <c r="U104" s="103"/>
+      <c r="V104" s="103"/>
+      <c r="W104" s="104"/>
     </row>
     <row r="105" spans="1:23" ht="12" customHeight="1">
-      <c r="A105" s="170"/>
-      <c r="B105" s="170"/>
-      <c r="C105" s="85"/>
-      <c r="D105" s="171"/>
-      <c r="E105" s="87"/>
-      <c r="F105" s="56"/>
-      <c r="J105" s="91"/>
-      <c r="K105" s="38"/>
-      <c r="L105" s="92"/>
-      <c r="M105" s="92"/>
-      <c r="N105" s="92"/>
-      <c r="O105" s="92"/>
-      <c r="P105" s="92"/>
-      <c r="Q105" s="92"/>
-      <c r="R105" s="92"/>
-      <c r="S105" s="92"/>
-      <c r="T105" s="92"/>
-      <c r="U105" s="92"/>
-      <c r="V105" s="92"/>
-      <c r="W105" s="41"/>
+      <c r="A105" s="70"/>
+      <c r="B105" s="70"/>
+      <c r="C105" s="110"/>
+      <c r="D105" s="111"/>
+      <c r="E105" s="112"/>
+      <c r="F105" s="74"/>
+      <c r="J105" s="116"/>
+      <c r="K105" s="55"/>
+      <c r="L105" s="117"/>
+      <c r="M105" s="117"/>
+      <c r="N105" s="117"/>
+      <c r="O105" s="117"/>
+      <c r="P105" s="117"/>
+      <c r="Q105" s="117"/>
+      <c r="R105" s="117"/>
+      <c r="S105" s="117"/>
+      <c r="T105" s="117"/>
+      <c r="U105" s="117"/>
+      <c r="V105" s="117"/>
+      <c r="W105" s="58"/>
     </row>
     <row r="109" spans="1:23" ht="12" customHeight="1">
-      <c r="I109" s="2"/>
+      <c r="I109" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A2:W2"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A6:W6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="C102:D102"/>
     <mergeCell ref="C104:D104"/>
     <mergeCell ref="C15:D15"/>
@@ -47694,24 +47701,6 @@
     <mergeCell ref="C64:D64"/>
     <mergeCell ref="C66:D66"/>
     <mergeCell ref="C70:D70"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A2:W2"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A6:W6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C94:D94"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.31496062992125984"/>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_v2_template.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_v2_template.xlsx
@@ -125,10 +125,6 @@
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1229,574 +1225,574 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="68" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="68" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="76" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3541,7 +3537,7 @@
             <v>型番</v>
           </cell>
           <cell r="D2" t="str">
-            <v xml:space="preserve">製品名 </v>
+            <v>製品名</v>
           </cell>
           <cell r="E2" t="str">
             <v>仕様</v>
@@ -24970,7 +24966,7 @@
             <v>ACW-CD-S</v>
           </cell>
           <cell r="C140" t="str">
-            <v xml:space="preserve">M6754-5 </v>
+            <v>M6754-5</v>
           </cell>
           <cell r="D140" t="str">
             <v>内蔵CD-ROM装置</v>
@@ -42036,7 +42032,7 @@
             <v>1</v>
           </cell>
           <cell r="E170" t="str">
-            <v xml:space="preserve">'0':未処理、'1':仮処理、'2':本処理、'3':出力不要 </v>
+            <v>'0':未処理、'1':仮処理、'2':本処理、'3':出力不要</v>
           </cell>
         </row>
         <row r="171">
@@ -45166,2501 +45162,2501 @@
   <sheetData>
     <row r="1" spans="1:23" ht="0.75" customHeight="1"/>
     <row r="2" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
+      <c r="A2" s="183"/>
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="183"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="183"/>
+      <c r="M2" s="183"/>
+      <c r="N2" s="183"/>
+      <c r="O2" s="183"/>
+      <c r="P2" s="183"/>
+      <c r="Q2" s="183"/>
+      <c r="R2" s="183"/>
+      <c r="S2" s="183"/>
+      <c r="T2" s="183"/>
+      <c r="U2" s="183"/>
+      <c r="V2" s="183"/>
+      <c r="W2" s="183"/>
     </row>
     <row r="3" spans="1:23" ht="0.75" customHeight="1" thickBot="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
     </row>
     <row r="4" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="14"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="185"/>
+      <c r="G4" s="185"/>
+      <c r="H4" s="185"/>
+      <c r="I4" s="186"/>
+      <c r="J4" s="187"/>
+      <c r="K4" s="185"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="23"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="18"/>
     </row>
     <row r="6" spans="1:23" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="24"/>
+      <c r="A6" s="188"/>
+      <c r="B6" s="188"/>
+      <c r="C6" s="188"/>
+      <c r="D6" s="188"/>
+      <c r="E6" s="188"/>
+      <c r="F6" s="188"/>
+      <c r="G6" s="188"/>
+      <c r="H6" s="188"/>
+      <c r="I6" s="188"/>
+      <c r="J6" s="188"/>
+      <c r="K6" s="188"/>
+      <c r="L6" s="188"/>
+      <c r="M6" s="188"/>
+      <c r="N6" s="188"/>
+      <c r="O6" s="188"/>
+      <c r="P6" s="188"/>
+      <c r="Q6" s="188"/>
+      <c r="R6" s="188"/>
+      <c r="S6" s="188"/>
+      <c r="T6" s="188"/>
+      <c r="U6" s="188"/>
+      <c r="V6" s="188"/>
+      <c r="W6" s="188"/>
     </row>
     <row r="7" spans="1:23" ht="12" customHeight="1">
-      <c r="A7" s="25"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="34"/>
+      <c r="A7" s="189"/>
+      <c r="B7" s="190"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="26"/>
     </row>
     <row r="8" spans="1:23" ht="12" customHeight="1">
-      <c r="A8" s="35"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="44"/>
-      <c r="V8" s="44"/>
-      <c r="W8" s="46"/>
+      <c r="A8" s="179"/>
+      <c r="B8" s="180"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="36"/>
     </row>
     <row r="9" spans="1:23" ht="12" customHeight="1">
-      <c r="A9" s="47"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="58"/>
+      <c r="A9" s="181"/>
+      <c r="B9" s="182"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="44"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="46"/>
     </row>
     <row r="10" spans="1:23" ht="12" customHeight="1">
-      <c r="A10" s="35"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
-      <c r="W10" s="46"/>
+      <c r="A10" s="179"/>
+      <c r="B10" s="180"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="36"/>
     </row>
     <row r="11" spans="1:23" ht="12" customHeight="1">
-      <c r="A11" s="35"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="68"/>
-      <c r="R11" s="68"/>
-      <c r="S11" s="68"/>
-      <c r="T11" s="68"/>
-      <c r="U11" s="68"/>
-      <c r="V11" s="68"/>
-      <c r="W11" s="69"/>
+      <c r="A11" s="179"/>
+      <c r="B11" s="180"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="57"/>
     </row>
     <row r="12" spans="1:23" ht="12" customHeight="1">
-      <c r="A12" s="70"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="74"/>
-      <c r="O12" s="74"/>
-      <c r="P12" s="74"/>
-      <c r="Q12" s="74"/>
-      <c r="R12" s="74"/>
-      <c r="S12" s="74"/>
-      <c r="T12" s="74"/>
-      <c r="U12" s="74"/>
-      <c r="V12" s="74"/>
-      <c r="W12" s="75"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="62"/>
+      <c r="T12" s="62"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="62"/>
+      <c r="W12" s="63"/>
     </row>
     <row r="13" spans="1:23" ht="12" customHeight="1">
-      <c r="A13" s="70"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="83"/>
-      <c r="N13" s="83"/>
-      <c r="O13" s="83"/>
-      <c r="P13" s="83"/>
-      <c r="Q13" s="83"/>
-      <c r="R13" s="83"/>
-      <c r="S13" s="83"/>
-      <c r="T13" s="83"/>
-      <c r="U13" s="83"/>
-      <c r="V13" s="83"/>
-      <c r="W13" s="84"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="175"/>
+      <c r="D13" s="176"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="69"/>
+      <c r="S13" s="69"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="69"/>
+      <c r="V13" s="69"/>
+      <c r="W13" s="70"/>
     </row>
     <row r="14" spans="1:23" ht="12" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="92"/>
-      <c r="O14" s="92"/>
-      <c r="P14" s="92"/>
-      <c r="Q14" s="92"/>
-      <c r="R14" s="92"/>
-      <c r="S14" s="92"/>
-      <c r="T14" s="92"/>
-      <c r="U14" s="92"/>
-      <c r="V14" s="92"/>
-      <c r="W14" s="93"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="78"/>
+      <c r="P14" s="78"/>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="78"/>
+      <c r="S14" s="78"/>
+      <c r="T14" s="78"/>
+      <c r="U14" s="78"/>
+      <c r="V14" s="78"/>
+      <c r="W14" s="79"/>
     </row>
     <row r="15" spans="1:23" ht="12" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="96"/>
-      <c r="K15" s="97"/>
-      <c r="L15" s="88"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="88"/>
-      <c r="O15" s="88"/>
-      <c r="P15" s="88"/>
-      <c r="Q15" s="88"/>
-      <c r="R15" s="88"/>
-      <c r="S15" s="88"/>
-      <c r="T15" s="88"/>
-      <c r="U15" s="88"/>
-      <c r="V15" s="98"/>
-      <c r="W15" s="99"/>
+      <c r="C15" s="177"/>
+      <c r="D15" s="178"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="74"/>
+      <c r="O15" s="74"/>
+      <c r="P15" s="74"/>
+      <c r="Q15" s="74"/>
+      <c r="R15" s="74"/>
+      <c r="S15" s="74"/>
+      <c r="T15" s="74"/>
+      <c r="U15" s="74"/>
+      <c r="V15" s="82"/>
+      <c r="W15" s="83"/>
     </row>
     <row r="16" spans="1:23" ht="12" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="102"/>
-      <c r="L16" s="103"/>
-      <c r="M16" s="103"/>
-      <c r="N16" s="103"/>
-      <c r="O16" s="103"/>
-      <c r="P16" s="103"/>
-      <c r="Q16" s="103"/>
-      <c r="R16" s="103"/>
-      <c r="S16" s="103"/>
-      <c r="T16" s="103"/>
-      <c r="U16" s="103"/>
-      <c r="V16" s="103"/>
-      <c r="W16" s="104"/>
+      <c r="C16" s="175"/>
+      <c r="D16" s="176"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="87"/>
+      <c r="N16" s="87"/>
+      <c r="O16" s="87"/>
+      <c r="P16" s="87"/>
+      <c r="Q16" s="87"/>
+      <c r="R16" s="87"/>
+      <c r="S16" s="87"/>
+      <c r="T16" s="87"/>
+      <c r="U16" s="87"/>
+      <c r="V16" s="87"/>
+      <c r="W16" s="88"/>
     </row>
     <row r="17" spans="1:23" ht="12" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="105"/>
-      <c r="J17" s="106"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="107"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="44"/>
+      <c r="V17" s="44"/>
+      <c r="W17" s="91"/>
     </row>
     <row r="18" spans="1:23" ht="12" customHeight="1">
-      <c r="A18" s="70"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="109"/>
-      <c r="J18" s="101"/>
-      <c r="K18" s="102"/>
-      <c r="L18" s="103"/>
-      <c r="M18" s="103"/>
-      <c r="N18" s="103"/>
-      <c r="O18" s="103"/>
-      <c r="P18" s="103"/>
-      <c r="Q18" s="103"/>
-      <c r="R18" s="103"/>
-      <c r="S18" s="103"/>
-      <c r="T18" s="103"/>
-      <c r="U18" s="103"/>
-      <c r="V18" s="103"/>
-      <c r="W18" s="104"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="175"/>
+      <c r="D18" s="176"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="87"/>
+      <c r="R18" s="87"/>
+      <c r="S18" s="87"/>
+      <c r="T18" s="87"/>
+      <c r="U18" s="87"/>
+      <c r="V18" s="87"/>
+      <c r="W18" s="88"/>
     </row>
     <row r="19" spans="1:23" ht="12" customHeight="1">
-      <c r="A19" s="70"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="117"/>
-      <c r="M19" s="117"/>
-      <c r="N19" s="117"/>
-      <c r="O19" s="117"/>
-      <c r="P19" s="117"/>
-      <c r="Q19" s="117"/>
-      <c r="R19" s="117"/>
-      <c r="S19" s="117"/>
-      <c r="T19" s="117"/>
-      <c r="U19" s="117"/>
-      <c r="V19" s="117"/>
-      <c r="W19" s="58"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="100"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="101"/>
+      <c r="M19" s="101"/>
+      <c r="N19" s="101"/>
+      <c r="O19" s="101"/>
+      <c r="P19" s="101"/>
+      <c r="Q19" s="101"/>
+      <c r="R19" s="101"/>
+      <c r="S19" s="101"/>
+      <c r="T19" s="101"/>
+      <c r="U19" s="101"/>
+      <c r="V19" s="101"/>
+      <c r="W19" s="46"/>
     </row>
     <row r="20" spans="1:23" ht="12" customHeight="1">
-      <c r="A20" s="70"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="114"/>
-      <c r="H20" s="114"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="118"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="119"/>
-      <c r="M20" s="119"/>
-      <c r="N20" s="119"/>
-      <c r="O20" s="119"/>
-      <c r="P20" s="119"/>
-      <c r="Q20" s="119"/>
-      <c r="R20" s="119"/>
-      <c r="S20" s="119"/>
-      <c r="T20" s="119"/>
-      <c r="U20" s="119"/>
-      <c r="V20" s="119"/>
-      <c r="W20" s="46"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="103"/>
+      <c r="M20" s="103"/>
+      <c r="N20" s="103"/>
+      <c r="O20" s="103"/>
+      <c r="P20" s="103"/>
+      <c r="Q20" s="103"/>
+      <c r="R20" s="103"/>
+      <c r="S20" s="103"/>
+      <c r="T20" s="103"/>
+      <c r="U20" s="103"/>
+      <c r="V20" s="103"/>
+      <c r="W20" s="36"/>
     </row>
     <row r="21" spans="1:23" ht="12" customHeight="1">
-      <c r="A21" s="70"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="122"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="106"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="56"/>
-      <c r="U21" s="56"/>
-      <c r="V21" s="56"/>
-      <c r="W21" s="107"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="44"/>
+      <c r="V21" s="44"/>
+      <c r="W21" s="91"/>
     </row>
     <row r="22" spans="1:23" ht="12" customHeight="1">
-      <c r="A22" s="70"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="98"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="109"/>
-      <c r="J22" s="101"/>
-      <c r="K22" s="102"/>
-      <c r="L22" s="103"/>
-      <c r="M22" s="103"/>
-      <c r="N22" s="103"/>
-      <c r="O22" s="103"/>
-      <c r="P22" s="103"/>
-      <c r="Q22" s="103"/>
-      <c r="R22" s="103"/>
-      <c r="S22" s="103"/>
-      <c r="T22" s="103"/>
-      <c r="U22" s="103"/>
-      <c r="V22" s="103"/>
-      <c r="W22" s="104"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="175"/>
+      <c r="D22" s="176"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="87"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="87"/>
+      <c r="R22" s="87"/>
+      <c r="S22" s="87"/>
+      <c r="T22" s="87"/>
+      <c r="U22" s="87"/>
+      <c r="V22" s="87"/>
+      <c r="W22" s="88"/>
     </row>
     <row r="23" spans="1:23" ht="12" customHeight="1">
-      <c r="A23" s="70"/>
-      <c r="B23" s="70"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="113"/>
-      <c r="G23" s="114"/>
-      <c r="H23" s="114"/>
-      <c r="I23" s="115"/>
-      <c r="J23" s="116"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="117"/>
-      <c r="M23" s="117"/>
-      <c r="N23" s="117"/>
-      <c r="O23" s="117"/>
-      <c r="P23" s="117"/>
-      <c r="Q23" s="117"/>
-      <c r="R23" s="117"/>
-      <c r="S23" s="117"/>
-      <c r="T23" s="117"/>
-      <c r="U23" s="117"/>
-      <c r="V23" s="117"/>
-      <c r="W23" s="58"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="98"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="99"/>
+      <c r="J23" s="100"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="101"/>
+      <c r="M23" s="101"/>
+      <c r="N23" s="101"/>
+      <c r="O23" s="101"/>
+      <c r="P23" s="101"/>
+      <c r="Q23" s="101"/>
+      <c r="R23" s="101"/>
+      <c r="S23" s="101"/>
+      <c r="T23" s="101"/>
+      <c r="U23" s="101"/>
+      <c r="V23" s="101"/>
+      <c r="W23" s="46"/>
     </row>
     <row r="24" spans="1:23" ht="12" customHeight="1">
-      <c r="A24" s="70"/>
-      <c r="B24" s="70"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="114"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="118"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="119"/>
-      <c r="M24" s="119"/>
-      <c r="N24" s="119"/>
-      <c r="O24" s="119"/>
-      <c r="P24" s="119"/>
-      <c r="Q24" s="119"/>
-      <c r="R24" s="119"/>
-      <c r="S24" s="119"/>
-      <c r="T24" s="119"/>
-      <c r="U24" s="119"/>
-      <c r="V24" s="119"/>
-      <c r="W24" s="46"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="103"/>
+      <c r="M24" s="103"/>
+      <c r="N24" s="103"/>
+      <c r="O24" s="103"/>
+      <c r="P24" s="103"/>
+      <c r="Q24" s="103"/>
+      <c r="R24" s="103"/>
+      <c r="S24" s="103"/>
+      <c r="T24" s="103"/>
+      <c r="U24" s="103"/>
+      <c r="V24" s="103"/>
+      <c r="W24" s="36"/>
     </row>
     <row r="25" spans="1:23" ht="12" customHeight="1">
-      <c r="A25" s="70"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="120"/>
-      <c r="F25" s="121"/>
-      <c r="G25" s="122"/>
-      <c r="H25" s="122"/>
-      <c r="I25" s="123"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="56"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="56"/>
-      <c r="S25" s="56"/>
-      <c r="T25" s="56"/>
-      <c r="U25" s="56"/>
-      <c r="V25" s="56"/>
-      <c r="W25" s="107"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="44"/>
+      <c r="W25" s="91"/>
     </row>
     <row r="26" spans="1:23" ht="12" customHeight="1">
-      <c r="A26" s="70"/>
-      <c r="B26" s="70"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="109"/>
-      <c r="J26" s="124"/>
-      <c r="K26" s="102"/>
-      <c r="L26" s="103"/>
-      <c r="M26" s="103"/>
-      <c r="N26" s="103"/>
-      <c r="O26" s="103"/>
-      <c r="P26" s="103"/>
-      <c r="Q26" s="103"/>
-      <c r="R26" s="103"/>
-      <c r="S26" s="103"/>
-      <c r="T26" s="103"/>
-      <c r="U26" s="103"/>
-      <c r="V26" s="103"/>
-      <c r="W26" s="104"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="175"/>
+      <c r="D26" s="176"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="108"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="87"/>
+      <c r="M26" s="87"/>
+      <c r="N26" s="87"/>
+      <c r="O26" s="87"/>
+      <c r="P26" s="87"/>
+      <c r="Q26" s="87"/>
+      <c r="R26" s="87"/>
+      <c r="S26" s="87"/>
+      <c r="T26" s="87"/>
+      <c r="U26" s="87"/>
+      <c r="V26" s="87"/>
+      <c r="W26" s="88"/>
     </row>
     <row r="27" spans="1:23" ht="12" customHeight="1">
-      <c r="A27" s="70"/>
-      <c r="B27" s="70"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="111"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="113"/>
-      <c r="G27" s="114"/>
-      <c r="H27" s="114"/>
-      <c r="I27" s="115"/>
-      <c r="J27" s="116"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="117"/>
-      <c r="M27" s="117"/>
-      <c r="N27" s="117"/>
-      <c r="O27" s="117"/>
-      <c r="P27" s="117"/>
-      <c r="Q27" s="117"/>
-      <c r="R27" s="117"/>
-      <c r="S27" s="117"/>
-      <c r="T27" s="117"/>
-      <c r="U27" s="117"/>
-      <c r="V27" s="117"/>
-      <c r="W27" s="58"/>
+      <c r="A27" s="58"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="99"/>
+      <c r="J27" s="100"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="101"/>
+      <c r="M27" s="101"/>
+      <c r="N27" s="101"/>
+      <c r="O27" s="101"/>
+      <c r="P27" s="101"/>
+      <c r="Q27" s="101"/>
+      <c r="R27" s="101"/>
+      <c r="S27" s="101"/>
+      <c r="T27" s="101"/>
+      <c r="U27" s="101"/>
+      <c r="V27" s="101"/>
+      <c r="W27" s="46"/>
     </row>
     <row r="28" spans="1:23" ht="12" customHeight="1">
-      <c r="A28" s="70"/>
-      <c r="B28" s="70"/>
-      <c r="C28" s="110"/>
-      <c r="D28" s="111"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="114"/>
-      <c r="H28" s="114"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="125"/>
-      <c r="K28" s="61"/>
-      <c r="L28" s="119"/>
-      <c r="M28" s="119"/>
-      <c r="N28" s="119"/>
-      <c r="O28" s="119"/>
-      <c r="P28" s="119"/>
-      <c r="Q28" s="119"/>
-      <c r="R28" s="119"/>
-      <c r="S28" s="119"/>
-      <c r="T28" s="119"/>
-      <c r="U28" s="119"/>
-      <c r="V28" s="119"/>
-      <c r="W28" s="46"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="96"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="99"/>
+      <c r="J28" s="109"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="103"/>
+      <c r="M28" s="103"/>
+      <c r="N28" s="103"/>
+      <c r="O28" s="103"/>
+      <c r="P28" s="103"/>
+      <c r="Q28" s="103"/>
+      <c r="R28" s="103"/>
+      <c r="S28" s="103"/>
+      <c r="T28" s="103"/>
+      <c r="U28" s="103"/>
+      <c r="V28" s="103"/>
+      <c r="W28" s="36"/>
     </row>
     <row r="29" spans="1:23" ht="12" customHeight="1">
-      <c r="A29" s="70"/>
-      <c r="B29" s="70"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="120"/>
-      <c r="F29" s="121"/>
-      <c r="G29" s="122"/>
-      <c r="H29" s="122"/>
-      <c r="I29" s="123"/>
-      <c r="J29" s="126"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="56"/>
-      <c r="O29" s="56"/>
-      <c r="P29" s="56"/>
-      <c r="Q29" s="56"/>
-      <c r="R29" s="56"/>
-      <c r="S29" s="56"/>
-      <c r="T29" s="56"/>
-      <c r="U29" s="56"/>
-      <c r="V29" s="56"/>
-      <c r="W29" s="107"/>
+      <c r="A29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="107"/>
+      <c r="J29" s="110"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="44"/>
+      <c r="U29" s="44"/>
+      <c r="V29" s="44"/>
+      <c r="W29" s="91"/>
     </row>
     <row r="30" spans="1:23" ht="12" customHeight="1">
-      <c r="A30" s="70"/>
-      <c r="B30" s="70"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="127"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="98"/>
-      <c r="H30" s="98"/>
-      <c r="I30" s="128"/>
-      <c r="J30" s="101"/>
-      <c r="K30" s="102"/>
-      <c r="L30" s="103"/>
-      <c r="M30" s="103"/>
-      <c r="N30" s="103"/>
-      <c r="O30" s="103"/>
-      <c r="P30" s="103"/>
-      <c r="Q30" s="103"/>
-      <c r="R30" s="103"/>
-      <c r="S30" s="103"/>
-      <c r="T30" s="103"/>
-      <c r="U30" s="103"/>
-      <c r="V30" s="103"/>
-      <c r="W30" s="104"/>
+      <c r="A30" s="58"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="175"/>
+      <c r="D30" s="176"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
+      <c r="I30" s="112"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="87"/>
+      <c r="M30" s="87"/>
+      <c r="N30" s="87"/>
+      <c r="O30" s="87"/>
+      <c r="P30" s="87"/>
+      <c r="Q30" s="87"/>
+      <c r="R30" s="87"/>
+      <c r="S30" s="87"/>
+      <c r="T30" s="87"/>
+      <c r="U30" s="87"/>
+      <c r="V30" s="87"/>
+      <c r="W30" s="88"/>
     </row>
     <row r="31" spans="1:23" ht="12" customHeight="1">
-      <c r="A31" s="70"/>
-      <c r="B31" s="70"/>
-      <c r="C31" s="110"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="129"/>
-      <c r="F31" s="114"/>
-      <c r="G31" s="114"/>
-      <c r="H31" s="114"/>
-      <c r="I31" s="130"/>
-      <c r="J31" s="116"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="117"/>
-      <c r="M31" s="117"/>
-      <c r="N31" s="117"/>
-      <c r="O31" s="117"/>
-      <c r="P31" s="117"/>
-      <c r="Q31" s="117"/>
-      <c r="R31" s="117"/>
-      <c r="S31" s="117"/>
-      <c r="T31" s="117"/>
-      <c r="U31" s="117"/>
-      <c r="V31" s="117"/>
-      <c r="W31" s="58"/>
+      <c r="A31" s="58"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="98"/>
+      <c r="I31" s="114"/>
+      <c r="J31" s="100"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="101"/>
+      <c r="M31" s="101"/>
+      <c r="N31" s="101"/>
+      <c r="O31" s="101"/>
+      <c r="P31" s="101"/>
+      <c r="Q31" s="101"/>
+      <c r="R31" s="101"/>
+      <c r="S31" s="101"/>
+      <c r="T31" s="101"/>
+      <c r="U31" s="101"/>
+      <c r="V31" s="101"/>
+      <c r="W31" s="46"/>
     </row>
     <row r="32" spans="1:23" ht="12" customHeight="1">
-      <c r="A32" s="70"/>
-      <c r="B32" s="70"/>
-      <c r="C32" s="110"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="129"/>
-      <c r="F32" s="114"/>
-      <c r="G32" s="114"/>
-      <c r="H32" s="114"/>
-      <c r="I32" s="130"/>
-      <c r="J32" s="118"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="119"/>
-      <c r="M32" s="119"/>
-      <c r="N32" s="119"/>
-      <c r="O32" s="119"/>
-      <c r="P32" s="119"/>
-      <c r="Q32" s="119"/>
-      <c r="R32" s="119"/>
-      <c r="S32" s="119"/>
-      <c r="T32" s="119"/>
-      <c r="U32" s="119"/>
-      <c r="V32" s="119"/>
-      <c r="W32" s="46"/>
+      <c r="A32" s="58"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="98"/>
+      <c r="G32" s="98"/>
+      <c r="H32" s="98"/>
+      <c r="I32" s="114"/>
+      <c r="J32" s="102"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="103"/>
+      <c r="M32" s="103"/>
+      <c r="N32" s="103"/>
+      <c r="O32" s="103"/>
+      <c r="P32" s="103"/>
+      <c r="Q32" s="103"/>
+      <c r="R32" s="103"/>
+      <c r="S32" s="103"/>
+      <c r="T32" s="103"/>
+      <c r="U32" s="103"/>
+      <c r="V32" s="103"/>
+      <c r="W32" s="36"/>
     </row>
     <row r="33" spans="1:23" ht="12" customHeight="1">
-      <c r="A33" s="70"/>
-      <c r="B33" s="70"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="131"/>
-      <c r="F33" s="122"/>
-      <c r="G33" s="122"/>
-      <c r="H33" s="122"/>
-      <c r="I33" s="132"/>
-      <c r="J33" s="96"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="56"/>
-      <c r="N33" s="56"/>
-      <c r="O33" s="56"/>
-      <c r="P33" s="56"/>
-      <c r="Q33" s="56"/>
-      <c r="R33" s="56"/>
-      <c r="S33" s="56"/>
-      <c r="T33" s="56"/>
-      <c r="U33" s="56"/>
-      <c r="V33" s="56"/>
-      <c r="W33" s="107"/>
+      <c r="A33" s="58"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="106"/>
+      <c r="H33" s="106"/>
+      <c r="I33" s="116"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="44"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="44"/>
+      <c r="V33" s="44"/>
+      <c r="W33" s="91"/>
     </row>
     <row r="34" spans="1:23" ht="12" customHeight="1">
-      <c r="A34" s="70"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="133"/>
-      <c r="F34" s="134"/>
-      <c r="G34" s="135"/>
-      <c r="H34" s="134"/>
-      <c r="I34" s="128"/>
-      <c r="J34" s="136"/>
-      <c r="K34" s="137"/>
-      <c r="L34" s="138"/>
-      <c r="M34" s="138"/>
-      <c r="N34" s="138"/>
-      <c r="O34" s="138"/>
-      <c r="P34" s="138"/>
-      <c r="Q34" s="138"/>
-      <c r="R34" s="138"/>
-      <c r="S34" s="138"/>
-      <c r="T34" s="138"/>
-      <c r="U34" s="138"/>
-      <c r="V34" s="139"/>
-      <c r="W34" s="140"/>
+      <c r="A34" s="58"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="175"/>
+      <c r="D34" s="176"/>
+      <c r="E34" s="117"/>
+      <c r="F34" s="118"/>
+      <c r="G34" s="119"/>
+      <c r="H34" s="118"/>
+      <c r="I34" s="112"/>
+      <c r="J34" s="120"/>
+      <c r="K34" s="121"/>
+      <c r="L34" s="122"/>
+      <c r="M34" s="122"/>
+      <c r="N34" s="122"/>
+      <c r="O34" s="122"/>
+      <c r="P34" s="122"/>
+      <c r="Q34" s="122"/>
+      <c r="R34" s="122"/>
+      <c r="S34" s="122"/>
+      <c r="T34" s="122"/>
+      <c r="U34" s="122"/>
+      <c r="V34" s="123"/>
+      <c r="W34" s="124"/>
     </row>
     <row r="35" spans="1:23" ht="12" customHeight="1">
-      <c r="A35" s="70"/>
-      <c r="B35" s="70"/>
-      <c r="C35" s="110"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="141"/>
-      <c r="F35" s="142"/>
-      <c r="G35" s="142"/>
-      <c r="H35" s="142"/>
-      <c r="I35" s="130"/>
-      <c r="J35" s="143"/>
-      <c r="K35" s="144"/>
-      <c r="L35" s="145"/>
-      <c r="M35" s="145"/>
-      <c r="N35" s="145"/>
-      <c r="O35" s="145"/>
-      <c r="P35" s="145"/>
-      <c r="Q35" s="145"/>
-      <c r="R35" s="145"/>
-      <c r="S35" s="145"/>
-      <c r="T35" s="145"/>
-      <c r="U35" s="145"/>
-      <c r="V35" s="146"/>
-      <c r="W35" s="147"/>
+      <c r="A35" s="58"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="125"/>
+      <c r="F35" s="126"/>
+      <c r="G35" s="126"/>
+      <c r="H35" s="126"/>
+      <c r="I35" s="114"/>
+      <c r="J35" s="127"/>
+      <c r="K35" s="128"/>
+      <c r="L35" s="129"/>
+      <c r="M35" s="129"/>
+      <c r="N35" s="129"/>
+      <c r="O35" s="129"/>
+      <c r="P35" s="129"/>
+      <c r="Q35" s="129"/>
+      <c r="R35" s="129"/>
+      <c r="S35" s="129"/>
+      <c r="T35" s="129"/>
+      <c r="U35" s="129"/>
+      <c r="V35" s="130"/>
+      <c r="W35" s="131"/>
     </row>
     <row r="36" spans="1:23" ht="12" customHeight="1">
-      <c r="A36" s="70"/>
-      <c r="B36" s="70"/>
-      <c r="C36" s="110"/>
-      <c r="D36" s="111"/>
-      <c r="E36" s="129"/>
-      <c r="F36" s="114"/>
-      <c r="G36" s="114"/>
-      <c r="H36" s="114"/>
-      <c r="I36" s="130"/>
-      <c r="J36" s="136"/>
-      <c r="K36" s="61"/>
-      <c r="L36" s="119"/>
-      <c r="M36" s="119"/>
-      <c r="N36" s="119"/>
-      <c r="O36" s="119"/>
-      <c r="P36" s="119"/>
-      <c r="Q36" s="119"/>
-      <c r="R36" s="119"/>
-      <c r="S36" s="119"/>
-      <c r="T36" s="119"/>
-      <c r="U36" s="119"/>
-      <c r="V36" s="119"/>
-      <c r="W36" s="46"/>
+      <c r="A36" s="58"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="94"/>
+      <c r="D36" s="95"/>
+      <c r="E36" s="113"/>
+      <c r="F36" s="98"/>
+      <c r="G36" s="98"/>
+      <c r="H36" s="98"/>
+      <c r="I36" s="114"/>
+      <c r="J36" s="120"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="103"/>
+      <c r="M36" s="103"/>
+      <c r="N36" s="103"/>
+      <c r="O36" s="103"/>
+      <c r="P36" s="103"/>
+      <c r="Q36" s="103"/>
+      <c r="R36" s="103"/>
+      <c r="S36" s="103"/>
+      <c r="T36" s="103"/>
+      <c r="U36" s="103"/>
+      <c r="V36" s="103"/>
+      <c r="W36" s="36"/>
     </row>
     <row r="37" spans="1:23" ht="12" customHeight="1">
-      <c r="A37" s="70"/>
-      <c r="B37" s="70"/>
-      <c r="C37" s="85"/>
-      <c r="D37" s="86"/>
-      <c r="E37" s="131"/>
-      <c r="F37" s="122"/>
-      <c r="G37" s="122"/>
-      <c r="H37" s="122"/>
-      <c r="I37" s="132"/>
-      <c r="J37" s="143"/>
-      <c r="K37" s="148"/>
-      <c r="L37" s="149"/>
-      <c r="M37" s="149"/>
-      <c r="N37" s="149"/>
-      <c r="O37" s="149"/>
-      <c r="P37" s="149"/>
-      <c r="Q37" s="149"/>
-      <c r="R37" s="149"/>
-      <c r="S37" s="149"/>
-      <c r="T37" s="149"/>
-      <c r="U37" s="149"/>
-      <c r="V37" s="146"/>
-      <c r="W37" s="150"/>
+      <c r="A37" s="58"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="106"/>
+      <c r="G37" s="106"/>
+      <c r="H37" s="106"/>
+      <c r="I37" s="116"/>
+      <c r="J37" s="127"/>
+      <c r="K37" s="132"/>
+      <c r="L37" s="133"/>
+      <c r="M37" s="133"/>
+      <c r="N37" s="133"/>
+      <c r="O37" s="133"/>
+      <c r="P37" s="133"/>
+      <c r="Q37" s="133"/>
+      <c r="R37" s="133"/>
+      <c r="S37" s="133"/>
+      <c r="T37" s="133"/>
+      <c r="U37" s="133"/>
+      <c r="V37" s="130"/>
+      <c r="W37" s="134"/>
     </row>
     <row r="38" spans="1:23" ht="12" customHeight="1">
-      <c r="A38" s="70"/>
-      <c r="B38" s="70"/>
-      <c r="C38" s="76"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="151"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="83"/>
-      <c r="I38" s="128"/>
-      <c r="J38" s="124"/>
-      <c r="K38" s="102"/>
-      <c r="L38" s="103"/>
-      <c r="M38" s="103"/>
-      <c r="N38" s="103"/>
-      <c r="O38" s="103"/>
-      <c r="P38" s="103"/>
-      <c r="Q38" s="103"/>
-      <c r="R38" s="103"/>
-      <c r="S38" s="103"/>
-      <c r="T38" s="103"/>
-      <c r="U38" s="103"/>
-      <c r="V38" s="103"/>
-      <c r="W38" s="104"/>
+      <c r="A38" s="58"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="175"/>
+      <c r="D38" s="176"/>
+      <c r="E38" s="135"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="112"/>
+      <c r="J38" s="108"/>
+      <c r="K38" s="86"/>
+      <c r="L38" s="87"/>
+      <c r="M38" s="87"/>
+      <c r="N38" s="87"/>
+      <c r="O38" s="87"/>
+      <c r="P38" s="87"/>
+      <c r="Q38" s="87"/>
+      <c r="R38" s="87"/>
+      <c r="S38" s="87"/>
+      <c r="T38" s="87"/>
+      <c r="U38" s="87"/>
+      <c r="V38" s="87"/>
+      <c r="W38" s="88"/>
     </row>
     <row r="39" spans="1:23" ht="12" customHeight="1">
-      <c r="A39" s="70"/>
-      <c r="B39" s="70"/>
-      <c r="C39" s="110"/>
-      <c r="D39" s="111"/>
-      <c r="E39" s="152"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="130"/>
-      <c r="J39" s="116"/>
-      <c r="K39" s="55"/>
-      <c r="L39" s="117"/>
-      <c r="M39" s="117"/>
-      <c r="N39" s="117"/>
-      <c r="O39" s="117"/>
-      <c r="P39" s="117"/>
-      <c r="Q39" s="117"/>
-      <c r="R39" s="117"/>
-      <c r="S39" s="117"/>
-      <c r="T39" s="117"/>
-      <c r="U39" s="117"/>
-      <c r="V39" s="117"/>
-      <c r="W39" s="58"/>
+      <c r="A39" s="58"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="94"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="136"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="114"/>
+      <c r="J39" s="100"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="101"/>
+      <c r="M39" s="101"/>
+      <c r="N39" s="101"/>
+      <c r="O39" s="101"/>
+      <c r="P39" s="101"/>
+      <c r="Q39" s="101"/>
+      <c r="R39" s="101"/>
+      <c r="S39" s="101"/>
+      <c r="T39" s="101"/>
+      <c r="U39" s="101"/>
+      <c r="V39" s="101"/>
+      <c r="W39" s="46"/>
     </row>
     <row r="40" spans="1:23" ht="12" customHeight="1">
-      <c r="A40" s="70"/>
-      <c r="B40" s="70"/>
-      <c r="C40" s="110"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="129"/>
-      <c r="F40" s="114"/>
-      <c r="G40" s="114"/>
-      <c r="H40" s="153"/>
-      <c r="I40" s="130"/>
-      <c r="J40" s="125"/>
-      <c r="K40" s="61"/>
-      <c r="L40" s="119"/>
-      <c r="M40" s="119"/>
-      <c r="N40" s="119"/>
-      <c r="O40" s="119"/>
-      <c r="P40" s="119"/>
-      <c r="Q40" s="119"/>
-      <c r="R40" s="119"/>
-      <c r="S40" s="119"/>
-      <c r="T40" s="119"/>
-      <c r="U40" s="119"/>
-      <c r="V40" s="119"/>
-      <c r="W40" s="46"/>
+      <c r="A40" s="58"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="94"/>
+      <c r="D40" s="95"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="98"/>
+      <c r="G40" s="98"/>
+      <c r="H40" s="137"/>
+      <c r="I40" s="114"/>
+      <c r="J40" s="109"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="103"/>
+      <c r="M40" s="103"/>
+      <c r="N40" s="103"/>
+      <c r="O40" s="103"/>
+      <c r="P40" s="103"/>
+      <c r="Q40" s="103"/>
+      <c r="R40" s="103"/>
+      <c r="S40" s="103"/>
+      <c r="T40" s="103"/>
+      <c r="U40" s="103"/>
+      <c r="V40" s="103"/>
+      <c r="W40" s="36"/>
     </row>
     <row r="41" spans="1:23" ht="12" customHeight="1">
-      <c r="A41" s="70"/>
-      <c r="B41" s="70"/>
-      <c r="C41" s="85"/>
-      <c r="D41" s="86"/>
-      <c r="E41" s="131"/>
-      <c r="F41" s="122"/>
-      <c r="G41" s="122"/>
-      <c r="H41" s="97"/>
-      <c r="I41" s="132"/>
-      <c r="J41" s="154"/>
-      <c r="K41" s="57"/>
-      <c r="L41" s="56"/>
-      <c r="M41" s="56"/>
-      <c r="N41" s="56"/>
-      <c r="O41" s="56"/>
-      <c r="P41" s="56"/>
-      <c r="Q41" s="56"/>
-      <c r="R41" s="56"/>
-      <c r="S41" s="56"/>
-      <c r="T41" s="56"/>
-      <c r="U41" s="56"/>
-      <c r="V41" s="56"/>
-      <c r="W41" s="107"/>
+      <c r="A41" s="58"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="71"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="115"/>
+      <c r="F41" s="106"/>
+      <c r="G41" s="106"/>
+      <c r="H41" s="81"/>
+      <c r="I41" s="116"/>
+      <c r="J41" s="138"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="44"/>
+      <c r="O41" s="44"/>
+      <c r="P41" s="44"/>
+      <c r="Q41" s="44"/>
+      <c r="R41" s="44"/>
+      <c r="S41" s="44"/>
+      <c r="T41" s="44"/>
+      <c r="U41" s="44"/>
+      <c r="V41" s="44"/>
+      <c r="W41" s="91"/>
     </row>
     <row r="42" spans="1:23" ht="12" customHeight="1">
-      <c r="A42" s="70"/>
-      <c r="B42" s="70"/>
-      <c r="C42" s="76"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="151"/>
-      <c r="F42" s="83"/>
-      <c r="G42" s="83"/>
-      <c r="H42" s="83"/>
-      <c r="I42" s="128"/>
-      <c r="J42" s="124"/>
-      <c r="K42" s="102"/>
-      <c r="L42" s="103"/>
-      <c r="M42" s="103"/>
-      <c r="N42" s="103"/>
-      <c r="O42" s="103"/>
-      <c r="P42" s="103"/>
-      <c r="Q42" s="103"/>
-      <c r="R42" s="103"/>
-      <c r="S42" s="103"/>
-      <c r="T42" s="103"/>
-      <c r="U42" s="103"/>
-      <c r="V42" s="103"/>
-      <c r="W42" s="104"/>
+      <c r="A42" s="58"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="175"/>
+      <c r="D42" s="176"/>
+      <c r="E42" s="135"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="69"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="112"/>
+      <c r="J42" s="108"/>
+      <c r="K42" s="86"/>
+      <c r="L42" s="87"/>
+      <c r="M42" s="87"/>
+      <c r="N42" s="87"/>
+      <c r="O42" s="87"/>
+      <c r="P42" s="87"/>
+      <c r="Q42" s="87"/>
+      <c r="R42" s="87"/>
+      <c r="S42" s="87"/>
+      <c r="T42" s="87"/>
+      <c r="U42" s="87"/>
+      <c r="V42" s="87"/>
+      <c r="W42" s="88"/>
     </row>
     <row r="43" spans="1:23" ht="12" customHeight="1">
-      <c r="A43" s="70"/>
-      <c r="B43" s="70"/>
-      <c r="C43" s="110"/>
-      <c r="D43" s="111"/>
-      <c r="E43" s="152"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="130"/>
-      <c r="J43" s="116"/>
-      <c r="K43" s="55"/>
-      <c r="L43" s="117"/>
-      <c r="M43" s="117"/>
-      <c r="N43" s="117"/>
-      <c r="O43" s="117"/>
-      <c r="P43" s="117"/>
-      <c r="Q43" s="117"/>
-      <c r="R43" s="117"/>
-      <c r="S43" s="117"/>
-      <c r="T43" s="117"/>
-      <c r="U43" s="117"/>
-      <c r="V43" s="117"/>
-      <c r="W43" s="58"/>
+      <c r="A43" s="58"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="94"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="136"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="114"/>
+      <c r="J43" s="100"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="101"/>
+      <c r="M43" s="101"/>
+      <c r="N43" s="101"/>
+      <c r="O43" s="101"/>
+      <c r="P43" s="101"/>
+      <c r="Q43" s="101"/>
+      <c r="R43" s="101"/>
+      <c r="S43" s="101"/>
+      <c r="T43" s="101"/>
+      <c r="U43" s="101"/>
+      <c r="V43" s="101"/>
+      <c r="W43" s="46"/>
     </row>
     <row r="44" spans="1:23" ht="12" customHeight="1">
-      <c r="A44" s="70"/>
-      <c r="B44" s="70"/>
-      <c r="C44" s="110"/>
-      <c r="D44" s="111"/>
-      <c r="E44" s="129"/>
-      <c r="F44" s="114"/>
-      <c r="G44" s="114"/>
-      <c r="H44" s="153"/>
-      <c r="I44" s="130"/>
-      <c r="J44" s="125"/>
-      <c r="K44" s="61"/>
-      <c r="L44" s="119"/>
-      <c r="M44" s="119"/>
-      <c r="N44" s="119"/>
-      <c r="O44" s="119"/>
-      <c r="P44" s="119"/>
-      <c r="Q44" s="119"/>
-      <c r="R44" s="119"/>
-      <c r="S44" s="119"/>
-      <c r="T44" s="119"/>
-      <c r="U44" s="119"/>
-      <c r="V44" s="119"/>
-      <c r="W44" s="46"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="94"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="113"/>
+      <c r="F44" s="98"/>
+      <c r="G44" s="98"/>
+      <c r="H44" s="137"/>
+      <c r="I44" s="114"/>
+      <c r="J44" s="109"/>
+      <c r="K44" s="49"/>
+      <c r="L44" s="103"/>
+      <c r="M44" s="103"/>
+      <c r="N44" s="103"/>
+      <c r="O44" s="103"/>
+      <c r="P44" s="103"/>
+      <c r="Q44" s="103"/>
+      <c r="R44" s="103"/>
+      <c r="S44" s="103"/>
+      <c r="T44" s="103"/>
+      <c r="U44" s="103"/>
+      <c r="V44" s="103"/>
+      <c r="W44" s="36"/>
     </row>
     <row r="45" spans="1:23" ht="12" customHeight="1">
-      <c r="A45" s="70"/>
-      <c r="B45" s="70"/>
-      <c r="C45" s="85"/>
-      <c r="D45" s="86"/>
-      <c r="E45" s="131"/>
-      <c r="F45" s="122"/>
-      <c r="G45" s="122"/>
-      <c r="H45" s="122"/>
-      <c r="I45" s="132"/>
-      <c r="J45" s="154"/>
-      <c r="K45" s="57"/>
-      <c r="L45" s="56"/>
-      <c r="M45" s="56"/>
-      <c r="N45" s="56"/>
-      <c r="O45" s="56"/>
-      <c r="P45" s="56"/>
-      <c r="Q45" s="56"/>
-      <c r="R45" s="56"/>
-      <c r="S45" s="56"/>
-      <c r="T45" s="56"/>
-      <c r="U45" s="56"/>
-      <c r="V45" s="56"/>
-      <c r="W45" s="107"/>
+      <c r="A45" s="58"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="115"/>
+      <c r="F45" s="106"/>
+      <c r="G45" s="106"/>
+      <c r="H45" s="106"/>
+      <c r="I45" s="116"/>
+      <c r="J45" s="138"/>
+      <c r="K45" s="45"/>
+      <c r="L45" s="44"/>
+      <c r="M45" s="44"/>
+      <c r="N45" s="44"/>
+      <c r="O45" s="44"/>
+      <c r="P45" s="44"/>
+      <c r="Q45" s="44"/>
+      <c r="R45" s="44"/>
+      <c r="S45" s="44"/>
+      <c r="T45" s="44"/>
+      <c r="U45" s="44"/>
+      <c r="V45" s="44"/>
+      <c r="W45" s="91"/>
     </row>
     <row r="46" spans="1:23" ht="12" customHeight="1">
-      <c r="A46" s="70"/>
-      <c r="B46" s="70"/>
-      <c r="C46" s="76"/>
-      <c r="D46" s="77"/>
-      <c r="E46" s="108"/>
-      <c r="F46" s="155"/>
-      <c r="G46" s="83"/>
-      <c r="H46" s="83"/>
-      <c r="I46" s="156"/>
-      <c r="J46" s="124"/>
-      <c r="K46" s="102"/>
-      <c r="L46" s="103"/>
-      <c r="M46" s="103"/>
-      <c r="N46" s="103"/>
-      <c r="O46" s="103"/>
-      <c r="P46" s="103"/>
-      <c r="Q46" s="103"/>
-      <c r="R46" s="103"/>
-      <c r="S46" s="103"/>
-      <c r="T46" s="103"/>
-      <c r="U46" s="103"/>
-      <c r="V46" s="103"/>
-      <c r="W46" s="104"/>
+      <c r="A46" s="58"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="175"/>
+      <c r="D46" s="176"/>
+      <c r="E46" s="92"/>
+      <c r="F46" s="139"/>
+      <c r="G46" s="69"/>
+      <c r="H46" s="69"/>
+      <c r="I46" s="140"/>
+      <c r="J46" s="108"/>
+      <c r="K46" s="86"/>
+      <c r="L46" s="87"/>
+      <c r="M46" s="87"/>
+      <c r="N46" s="87"/>
+      <c r="O46" s="87"/>
+      <c r="P46" s="87"/>
+      <c r="Q46" s="87"/>
+      <c r="R46" s="87"/>
+      <c r="S46" s="87"/>
+      <c r="T46" s="87"/>
+      <c r="U46" s="87"/>
+      <c r="V46" s="87"/>
+      <c r="W46" s="88"/>
     </row>
     <row r="47" spans="1:23" ht="12" customHeight="1">
-      <c r="A47" s="70"/>
-      <c r="B47" s="70"/>
-      <c r="C47" s="110"/>
-      <c r="D47" s="111"/>
-      <c r="E47" s="112"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="157"/>
-      <c r="J47" s="116"/>
-      <c r="K47" s="55"/>
-      <c r="L47" s="117"/>
-      <c r="M47" s="117"/>
-      <c r="N47" s="117"/>
-      <c r="O47" s="117"/>
-      <c r="P47" s="117"/>
-      <c r="Q47" s="117"/>
-      <c r="R47" s="117"/>
-      <c r="S47" s="117"/>
-      <c r="T47" s="117"/>
-      <c r="U47" s="117"/>
-      <c r="V47" s="117"/>
-      <c r="W47" s="58"/>
+      <c r="A47" s="58"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="94"/>
+      <c r="D47" s="95"/>
+      <c r="E47" s="96"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="141"/>
+      <c r="J47" s="100"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="101"/>
+      <c r="M47" s="101"/>
+      <c r="N47" s="101"/>
+      <c r="O47" s="101"/>
+      <c r="P47" s="101"/>
+      <c r="Q47" s="101"/>
+      <c r="R47" s="101"/>
+      <c r="S47" s="101"/>
+      <c r="T47" s="101"/>
+      <c r="U47" s="101"/>
+      <c r="V47" s="101"/>
+      <c r="W47" s="46"/>
     </row>
     <row r="48" spans="1:23" ht="12" customHeight="1">
-      <c r="A48" s="70"/>
-      <c r="B48" s="70"/>
-      <c r="C48" s="110"/>
-      <c r="D48" s="111"/>
-      <c r="E48" s="112"/>
-      <c r="F48" s="74"/>
-      <c r="G48" s="158"/>
-      <c r="H48" s="159"/>
-      <c r="I48" s="130"/>
-      <c r="J48" s="160"/>
-      <c r="K48" s="61"/>
-      <c r="L48" s="119"/>
-      <c r="M48" s="119"/>
-      <c r="N48" s="119"/>
-      <c r="O48" s="119"/>
-      <c r="P48" s="119"/>
-      <c r="Q48" s="119"/>
-      <c r="R48" s="119"/>
-      <c r="S48" s="119"/>
-      <c r="T48" s="119"/>
-      <c r="U48" s="119"/>
-      <c r="V48" s="119"/>
-      <c r="W48" s="46"/>
+      <c r="A48" s="58"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="94"/>
+      <c r="D48" s="95"/>
+      <c r="E48" s="96"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="142"/>
+      <c r="H48" s="143"/>
+      <c r="I48" s="114"/>
+      <c r="J48" s="144"/>
+      <c r="K48" s="49"/>
+      <c r="L48" s="103"/>
+      <c r="M48" s="103"/>
+      <c r="N48" s="103"/>
+      <c r="O48" s="103"/>
+      <c r="P48" s="103"/>
+      <c r="Q48" s="103"/>
+      <c r="R48" s="103"/>
+      <c r="S48" s="103"/>
+      <c r="T48" s="103"/>
+      <c r="U48" s="103"/>
+      <c r="V48" s="103"/>
+      <c r="W48" s="36"/>
     </row>
     <row r="49" spans="1:23" ht="12" customHeight="1">
-      <c r="A49" s="70"/>
-      <c r="B49" s="70"/>
-      <c r="C49" s="85"/>
-      <c r="D49" s="86"/>
-      <c r="E49" s="120"/>
-      <c r="F49" s="161"/>
-      <c r="G49" s="162"/>
-      <c r="H49" s="163"/>
-      <c r="I49" s="132"/>
-      <c r="J49" s="126"/>
-      <c r="K49" s="57"/>
-      <c r="L49" s="56"/>
-      <c r="M49" s="56"/>
-      <c r="N49" s="56"/>
-      <c r="O49" s="56"/>
-      <c r="P49" s="56"/>
-      <c r="Q49" s="56"/>
-      <c r="R49" s="56"/>
-      <c r="S49" s="56"/>
-      <c r="T49" s="56"/>
-      <c r="U49" s="56"/>
-      <c r="V49" s="56"/>
-      <c r="W49" s="107"/>
+      <c r="A49" s="58"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="104"/>
+      <c r="F49" s="145"/>
+      <c r="G49" s="146"/>
+      <c r="H49" s="147"/>
+      <c r="I49" s="116"/>
+      <c r="J49" s="110"/>
+      <c r="K49" s="45"/>
+      <c r="L49" s="44"/>
+      <c r="M49" s="44"/>
+      <c r="N49" s="44"/>
+      <c r="O49" s="44"/>
+      <c r="P49" s="44"/>
+      <c r="Q49" s="44"/>
+      <c r="R49" s="44"/>
+      <c r="S49" s="44"/>
+      <c r="T49" s="44"/>
+      <c r="U49" s="44"/>
+      <c r="V49" s="44"/>
+      <c r="W49" s="91"/>
     </row>
     <row r="50" spans="1:23" ht="12" customHeight="1">
-      <c r="A50" s="70"/>
-      <c r="B50" s="70"/>
-      <c r="C50" s="76"/>
-      <c r="D50" s="77"/>
-      <c r="E50" s="108"/>
-      <c r="F50" s="155"/>
-      <c r="G50" s="83"/>
-      <c r="H50" s="83"/>
-      <c r="I50" s="156"/>
-      <c r="J50" s="124"/>
-      <c r="K50" s="102"/>
-      <c r="L50" s="103"/>
-      <c r="M50" s="103"/>
-      <c r="N50" s="103"/>
-      <c r="O50" s="103"/>
-      <c r="P50" s="103"/>
-      <c r="Q50" s="103"/>
-      <c r="R50" s="103"/>
-      <c r="S50" s="103"/>
-      <c r="T50" s="103"/>
-      <c r="U50" s="103"/>
-      <c r="V50" s="103"/>
-      <c r="W50" s="104"/>
+      <c r="A50" s="58"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="175"/>
+      <c r="D50" s="176"/>
+      <c r="E50" s="92"/>
+      <c r="F50" s="139"/>
+      <c r="G50" s="69"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="140"/>
+      <c r="J50" s="108"/>
+      <c r="K50" s="86"/>
+      <c r="L50" s="87"/>
+      <c r="M50" s="87"/>
+      <c r="N50" s="87"/>
+      <c r="O50" s="87"/>
+      <c r="P50" s="87"/>
+      <c r="Q50" s="87"/>
+      <c r="R50" s="87"/>
+      <c r="S50" s="87"/>
+      <c r="T50" s="87"/>
+      <c r="U50" s="87"/>
+      <c r="V50" s="87"/>
+      <c r="W50" s="88"/>
     </row>
     <row r="51" spans="1:23" ht="12" customHeight="1">
-      <c r="A51" s="70"/>
-      <c r="B51" s="70"/>
-      <c r="C51" s="110"/>
-      <c r="D51" s="111"/>
-      <c r="E51" s="112"/>
-      <c r="F51" s="74"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="40"/>
-      <c r="I51" s="157"/>
-      <c r="J51" s="116"/>
-      <c r="K51" s="55"/>
-      <c r="L51" s="117"/>
-      <c r="M51" s="117"/>
-      <c r="N51" s="117"/>
-      <c r="O51" s="117"/>
-      <c r="P51" s="117"/>
-      <c r="Q51" s="117"/>
-      <c r="R51" s="117"/>
-      <c r="S51" s="117"/>
-      <c r="T51" s="117"/>
-      <c r="U51" s="117"/>
-      <c r="V51" s="117"/>
-      <c r="W51" s="58"/>
+      <c r="A51" s="58"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="94"/>
+      <c r="D51" s="95"/>
+      <c r="E51" s="96"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="141"/>
+      <c r="J51" s="100"/>
+      <c r="K51" s="43"/>
+      <c r="L51" s="101"/>
+      <c r="M51" s="101"/>
+      <c r="N51" s="101"/>
+      <c r="O51" s="101"/>
+      <c r="P51" s="101"/>
+      <c r="Q51" s="101"/>
+      <c r="R51" s="101"/>
+      <c r="S51" s="101"/>
+      <c r="T51" s="101"/>
+      <c r="U51" s="101"/>
+      <c r="V51" s="101"/>
+      <c r="W51" s="46"/>
     </row>
     <row r="52" spans="1:23" ht="12" customHeight="1">
-      <c r="A52" s="70"/>
-      <c r="B52" s="70"/>
-      <c r="C52" s="110"/>
-      <c r="D52" s="111"/>
-      <c r="E52" s="112"/>
-      <c r="F52" s="74"/>
-      <c r="G52" s="158"/>
-      <c r="H52" s="159"/>
-      <c r="I52" s="130"/>
-      <c r="J52" s="160"/>
-      <c r="K52" s="61"/>
-      <c r="L52" s="119"/>
-      <c r="M52" s="119"/>
-      <c r="N52" s="119"/>
-      <c r="O52" s="119"/>
-      <c r="P52" s="119"/>
-      <c r="Q52" s="119"/>
-      <c r="R52" s="119"/>
-      <c r="S52" s="119"/>
-      <c r="T52" s="119"/>
-      <c r="U52" s="119"/>
-      <c r="V52" s="119"/>
-      <c r="W52" s="46"/>
+      <c r="A52" s="58"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="94"/>
+      <c r="D52" s="95"/>
+      <c r="E52" s="96"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="142"/>
+      <c r="H52" s="143"/>
+      <c r="I52" s="114"/>
+      <c r="J52" s="144"/>
+      <c r="K52" s="49"/>
+      <c r="L52" s="103"/>
+      <c r="M52" s="103"/>
+      <c r="N52" s="103"/>
+      <c r="O52" s="103"/>
+      <c r="P52" s="103"/>
+      <c r="Q52" s="103"/>
+      <c r="R52" s="103"/>
+      <c r="S52" s="103"/>
+      <c r="T52" s="103"/>
+      <c r="U52" s="103"/>
+      <c r="V52" s="103"/>
+      <c r="W52" s="36"/>
     </row>
     <row r="53" spans="1:23" ht="12" customHeight="1">
-      <c r="A53" s="70"/>
-      <c r="B53" s="70"/>
-      <c r="C53" s="85"/>
-      <c r="D53" s="86"/>
-      <c r="E53" s="120"/>
-      <c r="F53" s="161"/>
-      <c r="G53" s="162"/>
-      <c r="H53" s="163"/>
-      <c r="I53" s="132"/>
-      <c r="J53" s="126"/>
-      <c r="K53" s="164"/>
-      <c r="L53" s="40"/>
-      <c r="M53" s="40"/>
-      <c r="N53" s="40"/>
-      <c r="O53" s="40"/>
-      <c r="P53" s="40"/>
-      <c r="Q53" s="40"/>
-      <c r="R53" s="40"/>
-      <c r="S53" s="40"/>
-      <c r="T53" s="40"/>
-      <c r="U53" s="40"/>
-      <c r="V53" s="40"/>
-      <c r="W53" s="165"/>
+      <c r="A53" s="58"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="71"/>
+      <c r="D53" s="72"/>
+      <c r="E53" s="104"/>
+      <c r="F53" s="145"/>
+      <c r="G53" s="146"/>
+      <c r="H53" s="147"/>
+      <c r="I53" s="116"/>
+      <c r="J53" s="110"/>
+      <c r="K53" s="148"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="30"/>
+      <c r="N53" s="30"/>
+      <c r="O53" s="30"/>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="30"/>
+      <c r="R53" s="30"/>
+      <c r="S53" s="30"/>
+      <c r="T53" s="30"/>
+      <c r="U53" s="30"/>
+      <c r="V53" s="30"/>
+      <c r="W53" s="149"/>
     </row>
     <row r="55" spans="1:23" ht="12" customHeight="1">
-      <c r="C55" s="166"/>
-      <c r="D55" s="167"/>
-      <c r="E55" s="167"/>
-      <c r="F55" s="167"/>
-      <c r="G55" s="167"/>
-      <c r="H55" s="167"/>
-      <c r="I55" s="167"/>
-      <c r="J55" s="168"/>
-      <c r="K55" s="169"/>
-      <c r="L55" s="169"/>
-      <c r="M55" s="169"/>
-      <c r="N55" s="169"/>
-      <c r="O55" s="169"/>
-      <c r="P55" s="169"/>
-      <c r="Q55" s="169"/>
-      <c r="R55" s="169"/>
-      <c r="S55" s="169"/>
-      <c r="T55" s="169"/>
-      <c r="U55" s="169"/>
-      <c r="V55" s="169"/>
-      <c r="W55" s="169"/>
+      <c r="C55" s="150"/>
+      <c r="D55" s="151"/>
+      <c r="E55" s="151"/>
+      <c r="F55" s="151"/>
+      <c r="G55" s="151"/>
+      <c r="H55" s="151"/>
+      <c r="I55" s="151"/>
+      <c r="J55" s="152"/>
+      <c r="K55" s="153"/>
+      <c r="L55" s="153"/>
+      <c r="M55" s="153"/>
+      <c r="N55" s="153"/>
+      <c r="O55" s="153"/>
+      <c r="P55" s="153"/>
+      <c r="Q55" s="153"/>
+      <c r="R55" s="153"/>
+      <c r="S55" s="153"/>
+      <c r="T55" s="153"/>
+      <c r="U55" s="153"/>
+      <c r="V55" s="153"/>
+      <c r="W55" s="153"/>
     </row>
     <row r="56" spans="1:23" ht="12" customHeight="1">
-      <c r="C56" s="170"/>
-      <c r="D56" s="171"/>
-      <c r="E56" s="171"/>
-      <c r="F56" s="171"/>
-      <c r="G56" s="171"/>
-      <c r="H56" s="171"/>
-      <c r="I56" s="171"/>
-      <c r="J56" s="172"/>
-      <c r="K56" s="173"/>
-      <c r="L56" s="173"/>
-      <c r="M56" s="173"/>
-      <c r="N56" s="173"/>
-      <c r="O56" s="173"/>
-      <c r="P56" s="173"/>
-      <c r="Q56" s="173"/>
-      <c r="R56" s="173"/>
-      <c r="S56" s="173"/>
-      <c r="T56" s="173"/>
-      <c r="U56" s="173"/>
-      <c r="V56" s="173"/>
-      <c r="W56" s="174"/>
+      <c r="C56" s="154"/>
+      <c r="D56" s="155"/>
+      <c r="E56" s="155"/>
+      <c r="F56" s="155"/>
+      <c r="G56" s="155"/>
+      <c r="H56" s="155"/>
+      <c r="I56" s="155"/>
+      <c r="J56" s="156"/>
+      <c r="K56" s="157"/>
+      <c r="L56" s="157"/>
+      <c r="M56" s="157"/>
+      <c r="N56" s="157"/>
+      <c r="O56" s="157"/>
+      <c r="P56" s="157"/>
+      <c r="Q56" s="157"/>
+      <c r="R56" s="157"/>
+      <c r="S56" s="157"/>
+      <c r="T56" s="157"/>
+      <c r="U56" s="157"/>
+      <c r="V56" s="157"/>
+      <c r="W56" s="158"/>
     </row>
     <row r="57" spans="1:23" ht="12" customHeight="1">
-      <c r="C57" s="170"/>
-      <c r="D57" s="171"/>
-      <c r="E57" s="171"/>
-      <c r="F57" s="171"/>
-      <c r="G57" s="171"/>
-      <c r="H57" s="171"/>
-      <c r="I57" s="171"/>
-      <c r="J57" s="172"/>
-      <c r="K57" s="173"/>
-      <c r="L57" s="173"/>
-      <c r="M57" s="173"/>
-      <c r="N57" s="173"/>
-      <c r="O57" s="173"/>
-      <c r="P57" s="173"/>
-      <c r="Q57" s="173"/>
-      <c r="R57" s="173"/>
-      <c r="S57" s="173"/>
-      <c r="T57" s="173"/>
-      <c r="U57" s="173"/>
-      <c r="V57" s="173"/>
-      <c r="W57" s="174"/>
+      <c r="C57" s="154"/>
+      <c r="D57" s="155"/>
+      <c r="E57" s="155"/>
+      <c r="F57" s="155"/>
+      <c r="G57" s="155"/>
+      <c r="H57" s="155"/>
+      <c r="I57" s="155"/>
+      <c r="J57" s="156"/>
+      <c r="K57" s="157"/>
+      <c r="L57" s="157"/>
+      <c r="M57" s="157"/>
+      <c r="N57" s="157"/>
+      <c r="O57" s="157"/>
+      <c r="P57" s="157"/>
+      <c r="Q57" s="157"/>
+      <c r="R57" s="157"/>
+      <c r="S57" s="157"/>
+      <c r="T57" s="157"/>
+      <c r="U57" s="157"/>
+      <c r="V57" s="157"/>
+      <c r="W57" s="158"/>
     </row>
     <row r="58" spans="1:23" ht="12" customHeight="1">
-      <c r="C58" s="170"/>
-      <c r="D58" s="171"/>
-      <c r="E58" s="171"/>
-      <c r="F58" s="171"/>
-      <c r="G58" s="171"/>
-      <c r="H58" s="171"/>
-      <c r="I58" s="171"/>
-      <c r="J58" s="172"/>
-      <c r="K58" s="173"/>
-      <c r="L58" s="173"/>
-      <c r="M58" s="173"/>
-      <c r="N58" s="173"/>
-      <c r="O58" s="173"/>
-      <c r="P58" s="173"/>
-      <c r="Q58" s="173"/>
-      <c r="R58" s="173"/>
-      <c r="S58" s="173"/>
-      <c r="T58" s="173"/>
-      <c r="U58" s="173"/>
-      <c r="V58" s="173"/>
-      <c r="W58" s="174"/>
+      <c r="C58" s="154"/>
+      <c r="D58" s="155"/>
+      <c r="E58" s="155"/>
+      <c r="F58" s="155"/>
+      <c r="G58" s="155"/>
+      <c r="H58" s="155"/>
+      <c r="I58" s="155"/>
+      <c r="J58" s="156"/>
+      <c r="K58" s="157"/>
+      <c r="L58" s="157"/>
+      <c r="M58" s="157"/>
+      <c r="N58" s="157"/>
+      <c r="O58" s="157"/>
+      <c r="P58" s="157"/>
+      <c r="Q58" s="157"/>
+      <c r="R58" s="157"/>
+      <c r="S58" s="157"/>
+      <c r="T58" s="157"/>
+      <c r="U58" s="157"/>
+      <c r="V58" s="157"/>
+      <c r="W58" s="158"/>
     </row>
     <row r="59" spans="1:23" ht="12" customHeight="1">
-      <c r="C59" s="170"/>
-      <c r="D59" s="171"/>
-      <c r="E59" s="171"/>
-      <c r="F59" s="171"/>
-      <c r="G59" s="171"/>
-      <c r="H59" s="171"/>
-      <c r="I59" s="171"/>
-      <c r="J59" s="172"/>
-      <c r="K59" s="173"/>
-      <c r="L59" s="173"/>
-      <c r="M59" s="173"/>
-      <c r="N59" s="173"/>
-      <c r="O59" s="173"/>
-      <c r="P59" s="173"/>
-      <c r="Q59" s="173"/>
-      <c r="R59" s="173"/>
-      <c r="S59" s="173"/>
-      <c r="T59" s="173"/>
-      <c r="U59" s="173"/>
-      <c r="V59" s="173"/>
-      <c r="W59" s="174"/>
+      <c r="C59" s="154"/>
+      <c r="D59" s="155"/>
+      <c r="E59" s="155"/>
+      <c r="F59" s="155"/>
+      <c r="G59" s="155"/>
+      <c r="H59" s="155"/>
+      <c r="I59" s="155"/>
+      <c r="J59" s="156"/>
+      <c r="K59" s="157"/>
+      <c r="L59" s="157"/>
+      <c r="M59" s="157"/>
+      <c r="N59" s="157"/>
+      <c r="O59" s="157"/>
+      <c r="P59" s="157"/>
+      <c r="Q59" s="157"/>
+      <c r="R59" s="157"/>
+      <c r="S59" s="157"/>
+      <c r="T59" s="157"/>
+      <c r="U59" s="157"/>
+      <c r="V59" s="157"/>
+      <c r="W59" s="158"/>
     </row>
     <row r="60" spans="1:23" ht="12" customHeight="1">
-      <c r="C60" s="170"/>
-      <c r="D60" s="171"/>
-      <c r="E60" s="171"/>
-      <c r="F60" s="171"/>
-      <c r="G60" s="171"/>
-      <c r="H60" s="171"/>
-      <c r="I60" s="171"/>
-      <c r="J60" s="172"/>
-      <c r="K60" s="173"/>
-      <c r="L60" s="173"/>
-      <c r="M60" s="173"/>
-      <c r="N60" s="173"/>
-      <c r="O60" s="173"/>
-      <c r="P60" s="173"/>
-      <c r="Q60" s="173"/>
-      <c r="R60" s="173"/>
-      <c r="S60" s="173"/>
-      <c r="T60" s="173"/>
-      <c r="U60" s="173"/>
-      <c r="V60" s="173"/>
-      <c r="W60" s="174"/>
+      <c r="C60" s="154"/>
+      <c r="D60" s="155"/>
+      <c r="E60" s="155"/>
+      <c r="F60" s="155"/>
+      <c r="G60" s="155"/>
+      <c r="H60" s="155"/>
+      <c r="I60" s="155"/>
+      <c r="J60" s="156"/>
+      <c r="K60" s="157"/>
+      <c r="L60" s="157"/>
+      <c r="M60" s="157"/>
+      <c r="N60" s="157"/>
+      <c r="O60" s="157"/>
+      <c r="P60" s="157"/>
+      <c r="Q60" s="157"/>
+      <c r="R60" s="157"/>
+      <c r="S60" s="157"/>
+      <c r="T60" s="157"/>
+      <c r="U60" s="157"/>
+      <c r="V60" s="157"/>
+      <c r="W60" s="158"/>
     </row>
     <row r="61" spans="1:23" ht="12" customHeight="1">
-      <c r="C61" s="170"/>
-      <c r="D61" s="171"/>
-      <c r="E61" s="171"/>
-      <c r="F61" s="171"/>
-      <c r="G61" s="171"/>
-      <c r="H61" s="171"/>
-      <c r="I61" s="171"/>
-      <c r="J61" s="172"/>
-      <c r="K61" s="173"/>
-      <c r="L61" s="173"/>
-      <c r="M61" s="173"/>
-      <c r="N61" s="173"/>
-      <c r="O61" s="173"/>
-      <c r="P61" s="173"/>
-      <c r="Q61" s="173"/>
-      <c r="R61" s="173"/>
-      <c r="S61" s="173"/>
-      <c r="T61" s="173"/>
-      <c r="U61" s="173"/>
-      <c r="V61" s="173"/>
-      <c r="W61" s="174"/>
+      <c r="C61" s="154"/>
+      <c r="D61" s="155"/>
+      <c r="E61" s="155"/>
+      <c r="F61" s="155"/>
+      <c r="G61" s="155"/>
+      <c r="H61" s="155"/>
+      <c r="I61" s="155"/>
+      <c r="J61" s="156"/>
+      <c r="K61" s="157"/>
+      <c r="L61" s="157"/>
+      <c r="M61" s="157"/>
+      <c r="N61" s="157"/>
+      <c r="O61" s="157"/>
+      <c r="P61" s="157"/>
+      <c r="Q61" s="157"/>
+      <c r="R61" s="157"/>
+      <c r="S61" s="157"/>
+      <c r="T61" s="157"/>
+      <c r="U61" s="157"/>
+      <c r="V61" s="157"/>
+      <c r="W61" s="158"/>
     </row>
     <row r="64" spans="1:23" ht="12" customHeight="1">
-      <c r="C64" s="76"/>
-      <c r="D64" s="77"/>
-      <c r="E64" s="78"/>
-      <c r="F64" s="79"/>
-      <c r="G64" s="79"/>
-      <c r="H64" s="79"/>
-      <c r="I64" s="175"/>
-      <c r="J64" s="176"/>
-      <c r="K64" s="82"/>
-      <c r="L64" s="83"/>
-      <c r="M64" s="83"/>
-      <c r="N64" s="83"/>
-      <c r="O64" s="83"/>
-      <c r="P64" s="83"/>
-      <c r="Q64" s="83"/>
-      <c r="R64" s="83"/>
-      <c r="S64" s="83"/>
-      <c r="T64" s="83"/>
-      <c r="U64" s="83"/>
-      <c r="V64" s="83"/>
-      <c r="W64" s="84"/>
+      <c r="C64" s="175"/>
+      <c r="D64" s="176"/>
+      <c r="E64" s="64"/>
+      <c r="F64" s="65"/>
+      <c r="G64" s="65"/>
+      <c r="H64" s="65"/>
+      <c r="I64" s="159"/>
+      <c r="J64" s="160"/>
+      <c r="K64" s="68"/>
+      <c r="L64" s="69"/>
+      <c r="M64" s="69"/>
+      <c r="N64" s="69"/>
+      <c r="O64" s="69"/>
+      <c r="P64" s="69"/>
+      <c r="Q64" s="69"/>
+      <c r="R64" s="69"/>
+      <c r="S64" s="69"/>
+      <c r="T64" s="69"/>
+      <c r="U64" s="69"/>
+      <c r="V64" s="69"/>
+      <c r="W64" s="70"/>
     </row>
     <row r="65" spans="1:23" ht="12" customHeight="1">
-      <c r="C65" s="85"/>
-      <c r="D65" s="86"/>
-      <c r="E65" s="87"/>
-      <c r="F65" s="88"/>
-      <c r="G65" s="88"/>
-      <c r="H65" s="88"/>
-      <c r="I65" s="177"/>
-      <c r="J65" s="90"/>
-      <c r="K65" s="178"/>
-      <c r="L65" s="179"/>
-      <c r="M65" s="179"/>
-      <c r="N65" s="179"/>
-      <c r="O65" s="179"/>
-      <c r="P65" s="179"/>
-      <c r="Q65" s="179"/>
-      <c r="R65" s="179"/>
-      <c r="S65" s="179"/>
-      <c r="T65" s="179"/>
-      <c r="U65" s="179"/>
-      <c r="V65" s="179"/>
-      <c r="W65" s="46"/>
+      <c r="C65" s="71"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="73"/>
+      <c r="F65" s="74"/>
+      <c r="G65" s="74"/>
+      <c r="H65" s="74"/>
+      <c r="I65" s="161"/>
+      <c r="J65" s="76"/>
+      <c r="K65" s="162"/>
+      <c r="L65" s="163"/>
+      <c r="M65" s="163"/>
+      <c r="N65" s="163"/>
+      <c r="O65" s="163"/>
+      <c r="P65" s="163"/>
+      <c r="Q65" s="163"/>
+      <c r="R65" s="163"/>
+      <c r="S65" s="163"/>
+      <c r="T65" s="163"/>
+      <c r="U65" s="163"/>
+      <c r="V65" s="163"/>
+      <c r="W65" s="36"/>
     </row>
     <row r="66" spans="1:23" ht="12" customHeight="1">
-      <c r="A66" s="70"/>
-      <c r="B66" s="70"/>
-      <c r="C66" s="76"/>
-      <c r="D66" s="77"/>
-      <c r="E66" s="108"/>
-      <c r="F66" s="98"/>
-      <c r="G66" s="98"/>
-      <c r="H66" s="98"/>
-      <c r="I66" s="109"/>
-      <c r="J66" s="176"/>
-      <c r="K66" s="82"/>
-      <c r="L66" s="83"/>
-      <c r="M66" s="83"/>
-      <c r="N66" s="83"/>
-      <c r="O66" s="83"/>
-      <c r="P66" s="83"/>
-      <c r="Q66" s="83"/>
-      <c r="R66" s="83"/>
-      <c r="S66" s="83"/>
-      <c r="T66" s="83"/>
-      <c r="U66" s="83"/>
-      <c r="V66" s="83"/>
-      <c r="W66" s="84"/>
+      <c r="A66" s="58"/>
+      <c r="B66" s="58"/>
+      <c r="C66" s="175"/>
+      <c r="D66" s="176"/>
+      <c r="E66" s="92"/>
+      <c r="F66" s="82"/>
+      <c r="G66" s="82"/>
+      <c r="H66" s="82"/>
+      <c r="I66" s="93"/>
+      <c r="J66" s="160"/>
+      <c r="K66" s="68"/>
+      <c r="L66" s="69"/>
+      <c r="M66" s="69"/>
+      <c r="N66" s="69"/>
+      <c r="O66" s="69"/>
+      <c r="P66" s="69"/>
+      <c r="Q66" s="69"/>
+      <c r="R66" s="69"/>
+      <c r="S66" s="69"/>
+      <c r="T66" s="69"/>
+      <c r="U66" s="69"/>
+      <c r="V66" s="69"/>
+      <c r="W66" s="70"/>
     </row>
     <row r="67" spans="1:23" ht="12" customHeight="1">
-      <c r="A67" s="70"/>
-      <c r="B67" s="70"/>
-      <c r="C67" s="110"/>
-      <c r="D67" s="111"/>
-      <c r="E67" s="112"/>
-      <c r="F67" s="113"/>
-      <c r="G67" s="114"/>
-      <c r="H67" s="114"/>
-      <c r="I67" s="115"/>
-      <c r="J67" s="118"/>
-      <c r="K67" s="43"/>
-      <c r="L67" s="44"/>
-      <c r="M67" s="44"/>
-      <c r="N67" s="44"/>
-      <c r="O67" s="44"/>
-      <c r="P67" s="44"/>
-      <c r="Q67" s="44"/>
-      <c r="R67" s="44"/>
-      <c r="S67" s="44"/>
-      <c r="T67" s="44"/>
-      <c r="U67" s="44"/>
-      <c r="V67" s="44"/>
-      <c r="W67" s="46"/>
+      <c r="A67" s="58"/>
+      <c r="B67" s="58"/>
+      <c r="C67" s="94"/>
+      <c r="D67" s="95"/>
+      <c r="E67" s="96"/>
+      <c r="F67" s="97"/>
+      <c r="G67" s="98"/>
+      <c r="H67" s="98"/>
+      <c r="I67" s="99"/>
+      <c r="J67" s="102"/>
+      <c r="K67" s="33"/>
+      <c r="L67" s="34"/>
+      <c r="M67" s="34"/>
+      <c r="N67" s="34"/>
+      <c r="O67" s="34"/>
+      <c r="P67" s="34"/>
+      <c r="Q67" s="34"/>
+      <c r="R67" s="34"/>
+      <c r="S67" s="34"/>
+      <c r="T67" s="34"/>
+      <c r="U67" s="34"/>
+      <c r="V67" s="34"/>
+      <c r="W67" s="36"/>
     </row>
     <row r="68" spans="1:23" ht="12" customHeight="1">
-      <c r="A68" s="70"/>
-      <c r="B68" s="70"/>
-      <c r="C68" s="110"/>
-      <c r="D68" s="111"/>
-      <c r="E68" s="112"/>
-      <c r="F68" s="113"/>
-      <c r="G68" s="114"/>
-      <c r="H68" s="114"/>
-      <c r="I68" s="115"/>
-      <c r="J68" s="106"/>
-      <c r="K68" s="57"/>
-      <c r="L68" s="56"/>
-      <c r="M68" s="56"/>
-      <c r="N68" s="56"/>
-      <c r="O68" s="56"/>
-      <c r="P68" s="56"/>
-      <c r="Q68" s="56"/>
-      <c r="R68" s="56"/>
-      <c r="S68" s="56"/>
-      <c r="T68" s="56"/>
-      <c r="U68" s="56"/>
-      <c r="V68" s="56"/>
-      <c r="W68" s="107"/>
+      <c r="A68" s="58"/>
+      <c r="B68" s="58"/>
+      <c r="C68" s="94"/>
+      <c r="D68" s="95"/>
+      <c r="E68" s="96"/>
+      <c r="F68" s="97"/>
+      <c r="G68" s="98"/>
+      <c r="H68" s="98"/>
+      <c r="I68" s="99"/>
+      <c r="J68" s="90"/>
+      <c r="K68" s="45"/>
+      <c r="L68" s="44"/>
+      <c r="M68" s="44"/>
+      <c r="N68" s="44"/>
+      <c r="O68" s="44"/>
+      <c r="P68" s="44"/>
+      <c r="Q68" s="44"/>
+      <c r="R68" s="44"/>
+      <c r="S68" s="44"/>
+      <c r="T68" s="44"/>
+      <c r="U68" s="44"/>
+      <c r="V68" s="44"/>
+      <c r="W68" s="91"/>
     </row>
     <row r="69" spans="1:23" ht="12" customHeight="1">
-      <c r="A69" s="70"/>
-      <c r="B69" s="70"/>
-      <c r="C69" s="85"/>
-      <c r="D69" s="86"/>
-      <c r="E69" s="120"/>
-      <c r="F69" s="121"/>
-      <c r="G69" s="122"/>
-      <c r="H69" s="122"/>
-      <c r="I69" s="123"/>
-      <c r="J69" s="90"/>
-      <c r="K69" s="178"/>
-      <c r="L69" s="179"/>
-      <c r="M69" s="179"/>
-      <c r="N69" s="179"/>
-      <c r="O69" s="179"/>
-      <c r="P69" s="179"/>
-      <c r="Q69" s="179"/>
-      <c r="R69" s="179"/>
-      <c r="S69" s="179"/>
-      <c r="T69" s="179"/>
-      <c r="U69" s="179"/>
-      <c r="V69" s="179"/>
-      <c r="W69" s="46"/>
+      <c r="A69" s="58"/>
+      <c r="B69" s="58"/>
+      <c r="C69" s="71"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="104"/>
+      <c r="F69" s="105"/>
+      <c r="G69" s="106"/>
+      <c r="H69" s="106"/>
+      <c r="I69" s="107"/>
+      <c r="J69" s="76"/>
+      <c r="K69" s="162"/>
+      <c r="L69" s="163"/>
+      <c r="M69" s="163"/>
+      <c r="N69" s="163"/>
+      <c r="O69" s="163"/>
+      <c r="P69" s="163"/>
+      <c r="Q69" s="163"/>
+      <c r="R69" s="163"/>
+      <c r="S69" s="163"/>
+      <c r="T69" s="163"/>
+      <c r="U69" s="163"/>
+      <c r="V69" s="163"/>
+      <c r="W69" s="36"/>
     </row>
     <row r="70" spans="1:23" ht="12" customHeight="1">
-      <c r="A70" s="70"/>
-      <c r="B70" s="70"/>
-      <c r="C70" s="76"/>
-      <c r="D70" s="77"/>
-      <c r="E70" s="108"/>
-      <c r="F70" s="98"/>
-      <c r="G70" s="98"/>
-      <c r="H70" s="98"/>
-      <c r="I70" s="109"/>
-      <c r="J70" s="176"/>
-      <c r="K70" s="82"/>
-      <c r="L70" s="83"/>
-      <c r="M70" s="83"/>
-      <c r="N70" s="83"/>
-      <c r="O70" s="83"/>
-      <c r="P70" s="83"/>
-      <c r="Q70" s="83"/>
-      <c r="R70" s="83"/>
-      <c r="S70" s="83"/>
-      <c r="T70" s="83"/>
-      <c r="U70" s="83"/>
-      <c r="V70" s="83"/>
-      <c r="W70" s="84"/>
+      <c r="A70" s="58"/>
+      <c r="B70" s="58"/>
+      <c r="C70" s="175"/>
+      <c r="D70" s="176"/>
+      <c r="E70" s="92"/>
+      <c r="F70" s="82"/>
+      <c r="G70" s="82"/>
+      <c r="H70" s="82"/>
+      <c r="I70" s="93"/>
+      <c r="J70" s="160"/>
+      <c r="K70" s="68"/>
+      <c r="L70" s="69"/>
+      <c r="M70" s="69"/>
+      <c r="N70" s="69"/>
+      <c r="O70" s="69"/>
+      <c r="P70" s="69"/>
+      <c r="Q70" s="69"/>
+      <c r="R70" s="69"/>
+      <c r="S70" s="69"/>
+      <c r="T70" s="69"/>
+      <c r="U70" s="69"/>
+      <c r="V70" s="69"/>
+      <c r="W70" s="70"/>
     </row>
     <row r="71" spans="1:23" ht="12" customHeight="1">
-      <c r="A71" s="70"/>
-      <c r="B71" s="70"/>
-      <c r="C71" s="110"/>
-      <c r="D71" s="111"/>
-      <c r="E71" s="112"/>
-      <c r="F71" s="113"/>
-      <c r="G71" s="114"/>
-      <c r="H71" s="114"/>
-      <c r="I71" s="115"/>
-      <c r="J71" s="118"/>
-      <c r="K71" s="43"/>
-      <c r="L71" s="44"/>
-      <c r="M71" s="44"/>
-      <c r="N71" s="44"/>
-      <c r="O71" s="44"/>
-      <c r="P71" s="44"/>
-      <c r="Q71" s="44"/>
-      <c r="R71" s="44"/>
-      <c r="S71" s="44"/>
-      <c r="T71" s="44"/>
-      <c r="U71" s="44"/>
-      <c r="V71" s="44"/>
-      <c r="W71" s="180"/>
+      <c r="A71" s="58"/>
+      <c r="B71" s="58"/>
+      <c r="C71" s="94"/>
+      <c r="D71" s="95"/>
+      <c r="E71" s="96"/>
+      <c r="F71" s="97"/>
+      <c r="G71" s="98"/>
+      <c r="H71" s="98"/>
+      <c r="I71" s="99"/>
+      <c r="J71" s="102"/>
+      <c r="K71" s="33"/>
+      <c r="L71" s="34"/>
+      <c r="M71" s="34"/>
+      <c r="N71" s="34"/>
+      <c r="O71" s="34"/>
+      <c r="P71" s="34"/>
+      <c r="Q71" s="34"/>
+      <c r="R71" s="34"/>
+      <c r="S71" s="34"/>
+      <c r="T71" s="34"/>
+      <c r="U71" s="34"/>
+      <c r="V71" s="34"/>
+      <c r="W71" s="164"/>
     </row>
     <row r="72" spans="1:23" ht="12" customHeight="1">
-      <c r="A72" s="70"/>
-      <c r="B72" s="70"/>
-      <c r="C72" s="110"/>
-      <c r="D72" s="111"/>
-      <c r="E72" s="112"/>
-      <c r="F72" s="113"/>
-      <c r="G72" s="114"/>
-      <c r="H72" s="114"/>
-      <c r="I72" s="115"/>
-      <c r="J72" s="106"/>
-      <c r="K72" s="57"/>
-      <c r="L72" s="56"/>
-      <c r="M72" s="56"/>
-      <c r="N72" s="56"/>
-      <c r="O72" s="56"/>
-      <c r="P72" s="56"/>
-      <c r="Q72" s="56"/>
-      <c r="R72" s="56"/>
-      <c r="S72" s="56"/>
-      <c r="T72" s="56"/>
-      <c r="U72" s="56"/>
-      <c r="V72" s="56"/>
-      <c r="W72" s="107"/>
+      <c r="A72" s="58"/>
+      <c r="B72" s="58"/>
+      <c r="C72" s="94"/>
+      <c r="D72" s="95"/>
+      <c r="E72" s="96"/>
+      <c r="F72" s="97"/>
+      <c r="G72" s="98"/>
+      <c r="H72" s="98"/>
+      <c r="I72" s="99"/>
+      <c r="J72" s="90"/>
+      <c r="K72" s="45"/>
+      <c r="L72" s="44"/>
+      <c r="M72" s="44"/>
+      <c r="N72" s="44"/>
+      <c r="O72" s="44"/>
+      <c r="P72" s="44"/>
+      <c r="Q72" s="44"/>
+      <c r="R72" s="44"/>
+      <c r="S72" s="44"/>
+      <c r="T72" s="44"/>
+      <c r="U72" s="44"/>
+      <c r="V72" s="44"/>
+      <c r="W72" s="91"/>
     </row>
     <row r="73" spans="1:23" ht="12" customHeight="1">
-      <c r="A73" s="70"/>
-      <c r="B73" s="70"/>
-      <c r="C73" s="85"/>
-      <c r="D73" s="86"/>
-      <c r="E73" s="120"/>
-      <c r="F73" s="121"/>
-      <c r="G73" s="122"/>
-      <c r="H73" s="122"/>
-      <c r="I73" s="123"/>
-      <c r="J73" s="90"/>
-      <c r="K73" s="178"/>
-      <c r="L73" s="179"/>
-      <c r="M73" s="179"/>
-      <c r="N73" s="179"/>
-      <c r="O73" s="179"/>
-      <c r="P73" s="179"/>
-      <c r="Q73" s="179"/>
-      <c r="R73" s="179"/>
-      <c r="S73" s="179"/>
-      <c r="T73" s="179"/>
-      <c r="U73" s="179"/>
-      <c r="V73" s="179"/>
-      <c r="W73" s="46"/>
+      <c r="A73" s="58"/>
+      <c r="B73" s="58"/>
+      <c r="C73" s="71"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="104"/>
+      <c r="F73" s="105"/>
+      <c r="G73" s="106"/>
+      <c r="H73" s="106"/>
+      <c r="I73" s="107"/>
+      <c r="J73" s="76"/>
+      <c r="K73" s="162"/>
+      <c r="L73" s="163"/>
+      <c r="M73" s="163"/>
+      <c r="N73" s="163"/>
+      <c r="O73" s="163"/>
+      <c r="P73" s="163"/>
+      <c r="Q73" s="163"/>
+      <c r="R73" s="163"/>
+      <c r="S73" s="163"/>
+      <c r="T73" s="163"/>
+      <c r="U73" s="163"/>
+      <c r="V73" s="163"/>
+      <c r="W73" s="36"/>
     </row>
     <row r="74" spans="1:23" ht="12" customHeight="1">
-      <c r="A74" s="70"/>
-      <c r="B74" s="70"/>
-      <c r="C74" s="76"/>
-      <c r="D74" s="77"/>
-      <c r="E74" s="127"/>
-      <c r="F74" s="98"/>
-      <c r="G74" s="98"/>
-      <c r="H74" s="98"/>
-      <c r="I74" s="128"/>
-      <c r="J74" s="176"/>
-      <c r="K74" s="82"/>
-      <c r="L74" s="83"/>
-      <c r="M74" s="83"/>
-      <c r="N74" s="83"/>
-      <c r="O74" s="83"/>
-      <c r="P74" s="83"/>
-      <c r="Q74" s="83"/>
-      <c r="R74" s="83"/>
-      <c r="S74" s="83"/>
-      <c r="T74" s="83"/>
-      <c r="U74" s="83"/>
-      <c r="V74" s="83"/>
-      <c r="W74" s="84"/>
+      <c r="A74" s="58"/>
+      <c r="B74" s="58"/>
+      <c r="C74" s="175"/>
+      <c r="D74" s="176"/>
+      <c r="E74" s="111"/>
+      <c r="F74" s="82"/>
+      <c r="G74" s="82"/>
+      <c r="H74" s="82"/>
+      <c r="I74" s="112"/>
+      <c r="J74" s="160"/>
+      <c r="K74" s="68"/>
+      <c r="L74" s="69"/>
+      <c r="M74" s="69"/>
+      <c r="N74" s="69"/>
+      <c r="O74" s="69"/>
+      <c r="P74" s="69"/>
+      <c r="Q74" s="69"/>
+      <c r="R74" s="69"/>
+      <c r="S74" s="69"/>
+      <c r="T74" s="69"/>
+      <c r="U74" s="69"/>
+      <c r="V74" s="69"/>
+      <c r="W74" s="70"/>
     </row>
     <row r="75" spans="1:23" ht="12" customHeight="1">
-      <c r="A75" s="70"/>
-      <c r="B75" s="70"/>
-      <c r="C75" s="110"/>
-      <c r="D75" s="111"/>
-      <c r="E75" s="129"/>
-      <c r="F75" s="114"/>
-      <c r="G75" s="114"/>
-      <c r="H75" s="114"/>
-      <c r="I75" s="130"/>
-      <c r="J75" s="118"/>
-      <c r="K75" s="43"/>
-      <c r="L75" s="44"/>
-      <c r="M75" s="44"/>
-      <c r="N75" s="44"/>
-      <c r="O75" s="44"/>
-      <c r="P75" s="44"/>
-      <c r="Q75" s="44"/>
-      <c r="R75" s="44"/>
-      <c r="S75" s="44"/>
-      <c r="T75" s="44"/>
-      <c r="U75" s="44"/>
-      <c r="V75" s="44"/>
-      <c r="W75" s="46"/>
+      <c r="A75" s="58"/>
+      <c r="B75" s="58"/>
+      <c r="C75" s="94"/>
+      <c r="D75" s="95"/>
+      <c r="E75" s="113"/>
+      <c r="F75" s="98"/>
+      <c r="G75" s="98"/>
+      <c r="H75" s="98"/>
+      <c r="I75" s="114"/>
+      <c r="J75" s="102"/>
+      <c r="K75" s="33"/>
+      <c r="L75" s="34"/>
+      <c r="M75" s="34"/>
+      <c r="N75" s="34"/>
+      <c r="O75" s="34"/>
+      <c r="P75" s="34"/>
+      <c r="Q75" s="34"/>
+      <c r="R75" s="34"/>
+      <c r="S75" s="34"/>
+      <c r="T75" s="34"/>
+      <c r="U75" s="34"/>
+      <c r="V75" s="34"/>
+      <c r="W75" s="36"/>
     </row>
     <row r="76" spans="1:23" ht="12" customHeight="1">
-      <c r="A76" s="70"/>
-      <c r="B76" s="70"/>
-      <c r="C76" s="110"/>
-      <c r="D76" s="111"/>
-      <c r="E76" s="129"/>
-      <c r="F76" s="114"/>
-      <c r="G76" s="114"/>
-      <c r="H76" s="114"/>
-      <c r="I76" s="130"/>
-      <c r="J76" s="106"/>
-      <c r="K76" s="57"/>
-      <c r="L76" s="56"/>
-      <c r="M76" s="56"/>
-      <c r="N76" s="56"/>
-      <c r="O76" s="56"/>
-      <c r="P76" s="56"/>
-      <c r="Q76" s="56"/>
-      <c r="R76" s="56"/>
-      <c r="S76" s="56"/>
-      <c r="T76" s="56"/>
-      <c r="U76" s="56"/>
-      <c r="V76" s="56"/>
-      <c r="W76" s="107"/>
+      <c r="A76" s="58"/>
+      <c r="B76" s="58"/>
+      <c r="C76" s="94"/>
+      <c r="D76" s="95"/>
+      <c r="E76" s="113"/>
+      <c r="F76" s="98"/>
+      <c r="G76" s="98"/>
+      <c r="H76" s="98"/>
+      <c r="I76" s="114"/>
+      <c r="J76" s="90"/>
+      <c r="K76" s="45"/>
+      <c r="L76" s="44"/>
+      <c r="M76" s="44"/>
+      <c r="N76" s="44"/>
+      <c r="O76" s="44"/>
+      <c r="P76" s="44"/>
+      <c r="Q76" s="44"/>
+      <c r="R76" s="44"/>
+      <c r="S76" s="44"/>
+      <c r="T76" s="44"/>
+      <c r="U76" s="44"/>
+      <c r="V76" s="44"/>
+      <c r="W76" s="91"/>
     </row>
     <row r="77" spans="1:23" ht="12" customHeight="1">
-      <c r="A77" s="70"/>
-      <c r="B77" s="70"/>
-      <c r="C77" s="85"/>
-      <c r="D77" s="86"/>
-      <c r="E77" s="131"/>
-      <c r="F77" s="122"/>
-      <c r="G77" s="122"/>
-      <c r="H77" s="122"/>
-      <c r="I77" s="132"/>
-      <c r="J77" s="90"/>
-      <c r="K77" s="178"/>
-      <c r="L77" s="179"/>
-      <c r="M77" s="179"/>
-      <c r="N77" s="179"/>
-      <c r="O77" s="179"/>
-      <c r="P77" s="179"/>
-      <c r="Q77" s="179"/>
-      <c r="R77" s="179"/>
-      <c r="S77" s="179"/>
-      <c r="T77" s="179"/>
-      <c r="U77" s="179"/>
-      <c r="V77" s="179"/>
-      <c r="W77" s="46"/>
+      <c r="A77" s="58"/>
+      <c r="B77" s="58"/>
+      <c r="C77" s="71"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="115"/>
+      <c r="F77" s="106"/>
+      <c r="G77" s="106"/>
+      <c r="H77" s="106"/>
+      <c r="I77" s="116"/>
+      <c r="J77" s="76"/>
+      <c r="K77" s="162"/>
+      <c r="L77" s="163"/>
+      <c r="M77" s="163"/>
+      <c r="N77" s="163"/>
+      <c r="O77" s="163"/>
+      <c r="P77" s="163"/>
+      <c r="Q77" s="163"/>
+      <c r="R77" s="163"/>
+      <c r="S77" s="163"/>
+      <c r="T77" s="163"/>
+      <c r="U77" s="163"/>
+      <c r="V77" s="163"/>
+      <c r="W77" s="36"/>
     </row>
     <row r="78" spans="1:23" ht="12" customHeight="1">
-      <c r="A78" s="70"/>
-      <c r="B78" s="70"/>
-      <c r="C78" s="76"/>
-      <c r="D78" s="77"/>
-      <c r="E78" s="133"/>
-      <c r="F78" s="134"/>
-      <c r="G78" s="135"/>
-      <c r="H78" s="134"/>
-      <c r="I78" s="128"/>
-      <c r="J78" s="176"/>
-      <c r="K78" s="137"/>
-      <c r="L78" s="138"/>
-      <c r="M78" s="138"/>
-      <c r="N78" s="138"/>
-      <c r="O78" s="138"/>
-      <c r="P78" s="138"/>
-      <c r="Q78" s="138"/>
-      <c r="R78" s="138"/>
-      <c r="S78" s="138"/>
-      <c r="T78" s="138"/>
-      <c r="U78" s="138"/>
-      <c r="V78" s="83"/>
-      <c r="W78" s="140"/>
+      <c r="A78" s="58"/>
+      <c r="B78" s="58"/>
+      <c r="C78" s="175"/>
+      <c r="D78" s="176"/>
+      <c r="E78" s="117"/>
+      <c r="F78" s="118"/>
+      <c r="G78" s="119"/>
+      <c r="H78" s="118"/>
+      <c r="I78" s="112"/>
+      <c r="J78" s="160"/>
+      <c r="K78" s="121"/>
+      <c r="L78" s="122"/>
+      <c r="M78" s="122"/>
+      <c r="N78" s="122"/>
+      <c r="O78" s="122"/>
+      <c r="P78" s="122"/>
+      <c r="Q78" s="122"/>
+      <c r="R78" s="122"/>
+      <c r="S78" s="122"/>
+      <c r="T78" s="122"/>
+      <c r="U78" s="122"/>
+      <c r="V78" s="69"/>
+      <c r="W78" s="124"/>
     </row>
     <row r="79" spans="1:23" ht="12" customHeight="1">
-      <c r="A79" s="70"/>
-      <c r="B79" s="70"/>
-      <c r="C79" s="110"/>
-      <c r="D79" s="111"/>
-      <c r="E79" s="129"/>
-      <c r="F79" s="114"/>
-      <c r="G79" s="114"/>
-      <c r="H79" s="114"/>
-      <c r="I79" s="130"/>
-      <c r="J79" s="118"/>
-      <c r="K79" s="144"/>
-      <c r="L79" s="145"/>
-      <c r="M79" s="145"/>
-      <c r="N79" s="145"/>
-      <c r="O79" s="145"/>
-      <c r="P79" s="145"/>
-      <c r="Q79" s="145"/>
-      <c r="R79" s="145"/>
-      <c r="S79" s="145"/>
-      <c r="T79" s="145"/>
-      <c r="U79" s="145"/>
-      <c r="V79" s="44"/>
-      <c r="W79" s="147"/>
+      <c r="A79" s="58"/>
+      <c r="B79" s="58"/>
+      <c r="C79" s="94"/>
+      <c r="D79" s="95"/>
+      <c r="E79" s="113"/>
+      <c r="F79" s="98"/>
+      <c r="G79" s="98"/>
+      <c r="H79" s="98"/>
+      <c r="I79" s="114"/>
+      <c r="J79" s="102"/>
+      <c r="K79" s="128"/>
+      <c r="L79" s="129"/>
+      <c r="M79" s="129"/>
+      <c r="N79" s="129"/>
+      <c r="O79" s="129"/>
+      <c r="P79" s="129"/>
+      <c r="Q79" s="129"/>
+      <c r="R79" s="129"/>
+      <c r="S79" s="129"/>
+      <c r="T79" s="129"/>
+      <c r="U79" s="129"/>
+      <c r="V79" s="34"/>
+      <c r="W79" s="131"/>
     </row>
     <row r="80" spans="1:23" ht="12" customHeight="1">
-      <c r="A80" s="70"/>
-      <c r="B80" s="70"/>
-      <c r="C80" s="110"/>
-      <c r="D80" s="111"/>
-      <c r="E80" s="129"/>
-      <c r="F80" s="114"/>
-      <c r="G80" s="114"/>
-      <c r="H80" s="114"/>
-      <c r="I80" s="130"/>
-      <c r="J80" s="106"/>
-      <c r="K80" s="57"/>
-      <c r="L80" s="56"/>
-      <c r="M80" s="56"/>
-      <c r="N80" s="56"/>
-      <c r="O80" s="56"/>
-      <c r="P80" s="56"/>
-      <c r="Q80" s="56"/>
-      <c r="R80" s="56"/>
-      <c r="S80" s="56"/>
-      <c r="T80" s="56"/>
-      <c r="U80" s="56"/>
-      <c r="V80" s="56"/>
-      <c r="W80" s="107"/>
+      <c r="A80" s="58"/>
+      <c r="B80" s="58"/>
+      <c r="C80" s="94"/>
+      <c r="D80" s="95"/>
+      <c r="E80" s="113"/>
+      <c r="F80" s="98"/>
+      <c r="G80" s="98"/>
+      <c r="H80" s="98"/>
+      <c r="I80" s="114"/>
+      <c r="J80" s="90"/>
+      <c r="K80" s="45"/>
+      <c r="L80" s="44"/>
+      <c r="M80" s="44"/>
+      <c r="N80" s="44"/>
+      <c r="O80" s="44"/>
+      <c r="P80" s="44"/>
+      <c r="Q80" s="44"/>
+      <c r="R80" s="44"/>
+      <c r="S80" s="44"/>
+      <c r="T80" s="44"/>
+      <c r="U80" s="44"/>
+      <c r="V80" s="44"/>
+      <c r="W80" s="91"/>
     </row>
     <row r="81" spans="1:23" ht="12" customHeight="1">
-      <c r="A81" s="70"/>
-      <c r="B81" s="70"/>
-      <c r="C81" s="85"/>
-      <c r="D81" s="86"/>
-      <c r="E81" s="131"/>
-      <c r="F81" s="122"/>
-      <c r="G81" s="122"/>
-      <c r="H81" s="122"/>
-      <c r="I81" s="132"/>
-      <c r="J81" s="90"/>
-      <c r="K81" s="148"/>
-      <c r="L81" s="149"/>
-      <c r="M81" s="149"/>
-      <c r="N81" s="149"/>
-      <c r="O81" s="149"/>
-      <c r="P81" s="149"/>
-      <c r="Q81" s="149"/>
-      <c r="R81" s="149"/>
-      <c r="S81" s="149"/>
-      <c r="T81" s="149"/>
-      <c r="U81" s="149"/>
-      <c r="V81" s="179"/>
-      <c r="W81" s="150"/>
+      <c r="A81" s="58"/>
+      <c r="B81" s="58"/>
+      <c r="C81" s="71"/>
+      <c r="D81" s="72"/>
+      <c r="E81" s="115"/>
+      <c r="F81" s="106"/>
+      <c r="G81" s="106"/>
+      <c r="H81" s="106"/>
+      <c r="I81" s="116"/>
+      <c r="J81" s="76"/>
+      <c r="K81" s="132"/>
+      <c r="L81" s="133"/>
+      <c r="M81" s="133"/>
+      <c r="N81" s="133"/>
+      <c r="O81" s="133"/>
+      <c r="P81" s="133"/>
+      <c r="Q81" s="133"/>
+      <c r="R81" s="133"/>
+      <c r="S81" s="133"/>
+      <c r="T81" s="133"/>
+      <c r="U81" s="133"/>
+      <c r="V81" s="163"/>
+      <c r="W81" s="134"/>
     </row>
     <row r="82" spans="1:23" ht="12" customHeight="1">
-      <c r="A82" s="70"/>
-      <c r="B82" s="70"/>
-      <c r="C82" s="76"/>
-      <c r="D82" s="77"/>
-      <c r="E82" s="151"/>
-      <c r="F82" s="83"/>
-      <c r="G82" s="83"/>
-      <c r="H82" s="83"/>
-      <c r="I82" s="128"/>
-      <c r="J82" s="181"/>
-      <c r="K82" s="82"/>
-      <c r="L82" s="83"/>
-      <c r="M82" s="83"/>
-      <c r="N82" s="83"/>
-      <c r="O82" s="83"/>
-      <c r="P82" s="83"/>
-      <c r="Q82" s="83"/>
-      <c r="R82" s="83"/>
-      <c r="S82" s="83"/>
-      <c r="T82" s="83"/>
-      <c r="U82" s="83"/>
-      <c r="V82" s="83"/>
-      <c r="W82" s="84"/>
+      <c r="A82" s="58"/>
+      <c r="B82" s="58"/>
+      <c r="C82" s="175"/>
+      <c r="D82" s="176"/>
+      <c r="E82" s="135"/>
+      <c r="F82" s="69"/>
+      <c r="G82" s="69"/>
+      <c r="H82" s="69"/>
+      <c r="I82" s="112"/>
+      <c r="J82" s="165"/>
+      <c r="K82" s="68"/>
+      <c r="L82" s="69"/>
+      <c r="M82" s="69"/>
+      <c r="N82" s="69"/>
+      <c r="O82" s="69"/>
+      <c r="P82" s="69"/>
+      <c r="Q82" s="69"/>
+      <c r="R82" s="69"/>
+      <c r="S82" s="69"/>
+      <c r="T82" s="69"/>
+      <c r="U82" s="69"/>
+      <c r="V82" s="69"/>
+      <c r="W82" s="70"/>
     </row>
     <row r="83" spans="1:23" ht="12" customHeight="1">
-      <c r="A83" s="70"/>
-      <c r="B83" s="70"/>
-      <c r="C83" s="110"/>
-      <c r="D83" s="111"/>
-      <c r="E83" s="152"/>
-      <c r="F83" s="40"/>
-      <c r="G83" s="40"/>
-      <c r="H83" s="40"/>
-      <c r="I83" s="130"/>
-      <c r="J83" s="136"/>
-      <c r="K83" s="43"/>
-      <c r="L83" s="44"/>
-      <c r="M83" s="44"/>
-      <c r="N83" s="44"/>
-      <c r="O83" s="44"/>
-      <c r="P83" s="44"/>
-      <c r="Q83" s="44"/>
-      <c r="R83" s="44"/>
-      <c r="S83" s="44"/>
-      <c r="T83" s="44"/>
-      <c r="U83" s="44"/>
-      <c r="V83" s="44"/>
-      <c r="W83" s="46"/>
+      <c r="A83" s="58"/>
+      <c r="B83" s="58"/>
+      <c r="C83" s="94"/>
+      <c r="D83" s="95"/>
+      <c r="E83" s="136"/>
+      <c r="F83" s="30"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="30"/>
+      <c r="I83" s="114"/>
+      <c r="J83" s="120"/>
+      <c r="K83" s="33"/>
+      <c r="L83" s="34"/>
+      <c r="M83" s="34"/>
+      <c r="N83" s="34"/>
+      <c r="O83" s="34"/>
+      <c r="P83" s="34"/>
+      <c r="Q83" s="34"/>
+      <c r="R83" s="34"/>
+      <c r="S83" s="34"/>
+      <c r="T83" s="34"/>
+      <c r="U83" s="34"/>
+      <c r="V83" s="34"/>
+      <c r="W83" s="36"/>
     </row>
     <row r="84" spans="1:23" ht="12" customHeight="1">
-      <c r="A84" s="70"/>
-      <c r="B84" s="70"/>
-      <c r="C84" s="110"/>
-      <c r="D84" s="111"/>
-      <c r="E84" s="129"/>
-      <c r="F84" s="114"/>
-      <c r="G84" s="114"/>
-      <c r="H84" s="153"/>
-      <c r="I84" s="130"/>
-      <c r="J84" s="182"/>
-      <c r="K84" s="57"/>
-      <c r="L84" s="56"/>
-      <c r="M84" s="56"/>
-      <c r="N84" s="56"/>
-      <c r="O84" s="56"/>
-      <c r="P84" s="56"/>
-      <c r="Q84" s="56"/>
-      <c r="R84" s="56"/>
-      <c r="S84" s="56"/>
-      <c r="T84" s="56"/>
-      <c r="U84" s="56"/>
-      <c r="V84" s="56"/>
-      <c r="W84" s="107"/>
+      <c r="A84" s="58"/>
+      <c r="B84" s="58"/>
+      <c r="C84" s="94"/>
+      <c r="D84" s="95"/>
+      <c r="E84" s="113"/>
+      <c r="F84" s="98"/>
+      <c r="G84" s="98"/>
+      <c r="H84" s="137"/>
+      <c r="I84" s="114"/>
+      <c r="J84" s="166"/>
+      <c r="K84" s="45"/>
+      <c r="L84" s="44"/>
+      <c r="M84" s="44"/>
+      <c r="N84" s="44"/>
+      <c r="O84" s="44"/>
+      <c r="P84" s="44"/>
+      <c r="Q84" s="44"/>
+      <c r="R84" s="44"/>
+      <c r="S84" s="44"/>
+      <c r="T84" s="44"/>
+      <c r="U84" s="44"/>
+      <c r="V84" s="44"/>
+      <c r="W84" s="91"/>
     </row>
     <row r="85" spans="1:23" ht="12" customHeight="1">
-      <c r="A85" s="70"/>
-      <c r="B85" s="70"/>
-      <c r="C85" s="85"/>
-      <c r="D85" s="86"/>
-      <c r="E85" s="131"/>
-      <c r="F85" s="122"/>
-      <c r="G85" s="122"/>
-      <c r="H85" s="97"/>
-      <c r="I85" s="132"/>
-      <c r="J85" s="183"/>
-      <c r="K85" s="178"/>
-      <c r="L85" s="179"/>
-      <c r="M85" s="179"/>
-      <c r="N85" s="179"/>
-      <c r="O85" s="179"/>
-      <c r="P85" s="179"/>
-      <c r="Q85" s="179"/>
-      <c r="R85" s="179"/>
-      <c r="S85" s="179"/>
-      <c r="T85" s="179"/>
-      <c r="U85" s="179"/>
-      <c r="V85" s="179"/>
-      <c r="W85" s="46"/>
+      <c r="A85" s="58"/>
+      <c r="B85" s="58"/>
+      <c r="C85" s="71"/>
+      <c r="D85" s="72"/>
+      <c r="E85" s="115"/>
+      <c r="F85" s="106"/>
+      <c r="G85" s="106"/>
+      <c r="H85" s="81"/>
+      <c r="I85" s="116"/>
+      <c r="J85" s="167"/>
+      <c r="K85" s="162"/>
+      <c r="L85" s="163"/>
+      <c r="M85" s="163"/>
+      <c r="N85" s="163"/>
+      <c r="O85" s="163"/>
+      <c r="P85" s="163"/>
+      <c r="Q85" s="163"/>
+      <c r="R85" s="163"/>
+      <c r="S85" s="163"/>
+      <c r="T85" s="163"/>
+      <c r="U85" s="163"/>
+      <c r="V85" s="163"/>
+      <c r="W85" s="36"/>
     </row>
     <row r="86" spans="1:23" ht="12" customHeight="1">
-      <c r="A86" s="70"/>
-      <c r="B86" s="70"/>
-      <c r="C86" s="76"/>
-      <c r="D86" s="77"/>
-      <c r="E86" s="151"/>
-      <c r="F86" s="83"/>
-      <c r="G86" s="83"/>
-      <c r="H86" s="83"/>
-      <c r="I86" s="128"/>
-      <c r="J86" s="181"/>
-      <c r="K86" s="82"/>
-      <c r="L86" s="83"/>
-      <c r="M86" s="83"/>
-      <c r="N86" s="83"/>
-      <c r="O86" s="83"/>
-      <c r="P86" s="83"/>
-      <c r="Q86" s="83"/>
-      <c r="R86" s="83"/>
-      <c r="S86" s="83"/>
-      <c r="T86" s="83"/>
-      <c r="U86" s="83"/>
-      <c r="V86" s="83"/>
-      <c r="W86" s="84"/>
+      <c r="A86" s="58"/>
+      <c r="B86" s="58"/>
+      <c r="C86" s="175"/>
+      <c r="D86" s="176"/>
+      <c r="E86" s="135"/>
+      <c r="F86" s="69"/>
+      <c r="G86" s="69"/>
+      <c r="H86" s="69"/>
+      <c r="I86" s="112"/>
+      <c r="J86" s="165"/>
+      <c r="K86" s="68"/>
+      <c r="L86" s="69"/>
+      <c r="M86" s="69"/>
+      <c r="N86" s="69"/>
+      <c r="O86" s="69"/>
+      <c r="P86" s="69"/>
+      <c r="Q86" s="69"/>
+      <c r="R86" s="69"/>
+      <c r="S86" s="69"/>
+      <c r="T86" s="69"/>
+      <c r="U86" s="69"/>
+      <c r="V86" s="69"/>
+      <c r="W86" s="70"/>
     </row>
     <row r="87" spans="1:23" ht="12" customHeight="1">
-      <c r="A87" s="70"/>
-      <c r="B87" s="70"/>
-      <c r="C87" s="110"/>
-      <c r="D87" s="111"/>
-      <c r="E87" s="152"/>
-      <c r="F87" s="40"/>
-      <c r="G87" s="40"/>
-      <c r="H87" s="40"/>
-      <c r="I87" s="130"/>
-      <c r="J87" s="184"/>
-      <c r="K87" s="43"/>
-      <c r="L87" s="44"/>
-      <c r="M87" s="44"/>
-      <c r="N87" s="44"/>
-      <c r="O87" s="44"/>
-      <c r="P87" s="44"/>
-      <c r="Q87" s="44"/>
-      <c r="R87" s="44"/>
-      <c r="S87" s="44"/>
-      <c r="T87" s="44"/>
-      <c r="U87" s="44"/>
-      <c r="V87" s="44"/>
-      <c r="W87" s="46"/>
+      <c r="A87" s="58"/>
+      <c r="B87" s="58"/>
+      <c r="C87" s="94"/>
+      <c r="D87" s="95"/>
+      <c r="E87" s="136"/>
+      <c r="F87" s="30"/>
+      <c r="G87" s="30"/>
+      <c r="H87" s="30"/>
+      <c r="I87" s="114"/>
+      <c r="J87" s="168"/>
+      <c r="K87" s="33"/>
+      <c r="L87" s="34"/>
+      <c r="M87" s="34"/>
+      <c r="N87" s="34"/>
+      <c r="O87" s="34"/>
+      <c r="P87" s="34"/>
+      <c r="Q87" s="34"/>
+      <c r="R87" s="34"/>
+      <c r="S87" s="34"/>
+      <c r="T87" s="34"/>
+      <c r="U87" s="34"/>
+      <c r="V87" s="34"/>
+      <c r="W87" s="36"/>
     </row>
     <row r="88" spans="1:23" ht="12" customHeight="1">
-      <c r="A88" s="70"/>
-      <c r="B88" s="70"/>
-      <c r="C88" s="110"/>
-      <c r="D88" s="111"/>
-      <c r="E88" s="129"/>
-      <c r="F88" s="114"/>
-      <c r="G88" s="114"/>
-      <c r="H88" s="153"/>
-      <c r="I88" s="130"/>
-      <c r="J88" s="182"/>
-      <c r="K88" s="57"/>
-      <c r="L88" s="56"/>
-      <c r="M88" s="56"/>
-      <c r="N88" s="56"/>
-      <c r="O88" s="56"/>
-      <c r="P88" s="56"/>
-      <c r="Q88" s="56"/>
-      <c r="R88" s="56"/>
-      <c r="S88" s="56"/>
-      <c r="T88" s="56"/>
-      <c r="U88" s="56"/>
-      <c r="V88" s="56"/>
-      <c r="W88" s="107"/>
+      <c r="A88" s="58"/>
+      <c r="B88" s="58"/>
+      <c r="C88" s="94"/>
+      <c r="D88" s="95"/>
+      <c r="E88" s="113"/>
+      <c r="F88" s="98"/>
+      <c r="G88" s="98"/>
+      <c r="H88" s="137"/>
+      <c r="I88" s="114"/>
+      <c r="J88" s="166"/>
+      <c r="K88" s="45"/>
+      <c r="L88" s="44"/>
+      <c r="M88" s="44"/>
+      <c r="N88" s="44"/>
+      <c r="O88" s="44"/>
+      <c r="P88" s="44"/>
+      <c r="Q88" s="44"/>
+      <c r="R88" s="44"/>
+      <c r="S88" s="44"/>
+      <c r="T88" s="44"/>
+      <c r="U88" s="44"/>
+      <c r="V88" s="44"/>
+      <c r="W88" s="91"/>
     </row>
     <row r="89" spans="1:23" ht="12" customHeight="1">
-      <c r="A89" s="70"/>
-      <c r="B89" s="70"/>
-      <c r="C89" s="85"/>
-      <c r="D89" s="86"/>
-      <c r="E89" s="131"/>
-      <c r="F89" s="122"/>
-      <c r="G89" s="122"/>
-      <c r="H89" s="122"/>
-      <c r="I89" s="132"/>
-      <c r="J89" s="184"/>
-      <c r="K89" s="178"/>
-      <c r="L89" s="179"/>
-      <c r="M89" s="179"/>
-      <c r="N89" s="179"/>
-      <c r="O89" s="179"/>
-      <c r="P89" s="179"/>
-      <c r="Q89" s="179"/>
-      <c r="R89" s="179"/>
-      <c r="S89" s="179"/>
-      <c r="T89" s="179"/>
-      <c r="U89" s="179"/>
-      <c r="V89" s="179"/>
-      <c r="W89" s="46"/>
+      <c r="A89" s="58"/>
+      <c r="B89" s="58"/>
+      <c r="C89" s="71"/>
+      <c r="D89" s="72"/>
+      <c r="E89" s="115"/>
+      <c r="F89" s="106"/>
+      <c r="G89" s="106"/>
+      <c r="H89" s="106"/>
+      <c r="I89" s="116"/>
+      <c r="J89" s="168"/>
+      <c r="K89" s="162"/>
+      <c r="L89" s="163"/>
+      <c r="M89" s="163"/>
+      <c r="N89" s="163"/>
+      <c r="O89" s="163"/>
+      <c r="P89" s="163"/>
+      <c r="Q89" s="163"/>
+      <c r="R89" s="163"/>
+      <c r="S89" s="163"/>
+      <c r="T89" s="163"/>
+      <c r="U89" s="163"/>
+      <c r="V89" s="163"/>
+      <c r="W89" s="36"/>
     </row>
     <row r="90" spans="1:23" ht="12" customHeight="1">
-      <c r="A90" s="70"/>
-      <c r="B90" s="70"/>
-      <c r="C90" s="76"/>
-      <c r="D90" s="77"/>
-      <c r="E90" s="108"/>
-      <c r="F90" s="155"/>
-      <c r="G90" s="83"/>
-      <c r="H90" s="83"/>
-      <c r="I90" s="156"/>
-      <c r="J90" s="181"/>
-      <c r="K90" s="82"/>
-      <c r="L90" s="83"/>
-      <c r="M90" s="83"/>
-      <c r="N90" s="83"/>
-      <c r="O90" s="83"/>
-      <c r="P90" s="83"/>
-      <c r="Q90" s="83"/>
-      <c r="R90" s="83"/>
-      <c r="S90" s="83"/>
-      <c r="T90" s="83"/>
-      <c r="U90" s="83"/>
-      <c r="V90" s="83"/>
-      <c r="W90" s="84"/>
+      <c r="A90" s="58"/>
+      <c r="B90" s="58"/>
+      <c r="C90" s="175"/>
+      <c r="D90" s="176"/>
+      <c r="E90" s="92"/>
+      <c r="F90" s="139"/>
+      <c r="G90" s="69"/>
+      <c r="H90" s="69"/>
+      <c r="I90" s="140"/>
+      <c r="J90" s="165"/>
+      <c r="K90" s="68"/>
+      <c r="L90" s="69"/>
+      <c r="M90" s="69"/>
+      <c r="N90" s="69"/>
+      <c r="O90" s="69"/>
+      <c r="P90" s="69"/>
+      <c r="Q90" s="69"/>
+      <c r="R90" s="69"/>
+      <c r="S90" s="69"/>
+      <c r="T90" s="69"/>
+      <c r="U90" s="69"/>
+      <c r="V90" s="69"/>
+      <c r="W90" s="70"/>
     </row>
     <row r="91" spans="1:23" ht="12" customHeight="1">
-      <c r="A91" s="70"/>
-      <c r="B91" s="70"/>
-      <c r="C91" s="110"/>
-      <c r="D91" s="111"/>
-      <c r="E91" s="112"/>
-      <c r="F91" s="74"/>
-      <c r="G91" s="40"/>
-      <c r="H91" s="40"/>
-      <c r="I91" s="157"/>
-      <c r="J91" s="136"/>
-      <c r="K91" s="61"/>
-      <c r="L91" s="119"/>
-      <c r="M91" s="119"/>
-      <c r="N91" s="119"/>
-      <c r="O91" s="119"/>
-      <c r="P91" s="119"/>
-      <c r="Q91" s="119"/>
-      <c r="R91" s="119"/>
-      <c r="S91" s="119"/>
-      <c r="T91" s="119"/>
-      <c r="U91" s="119"/>
-      <c r="V91" s="119"/>
-      <c r="W91" s="46"/>
+      <c r="A91" s="58"/>
+      <c r="B91" s="58"/>
+      <c r="C91" s="94"/>
+      <c r="D91" s="95"/>
+      <c r="E91" s="96"/>
+      <c r="F91" s="62"/>
+      <c r="G91" s="30"/>
+      <c r="H91" s="30"/>
+      <c r="I91" s="141"/>
+      <c r="J91" s="120"/>
+      <c r="K91" s="49"/>
+      <c r="L91" s="103"/>
+      <c r="M91" s="103"/>
+      <c r="N91" s="103"/>
+      <c r="O91" s="103"/>
+      <c r="P91" s="103"/>
+      <c r="Q91" s="103"/>
+      <c r="R91" s="103"/>
+      <c r="S91" s="103"/>
+      <c r="T91" s="103"/>
+      <c r="U91" s="103"/>
+      <c r="V91" s="103"/>
+      <c r="W91" s="36"/>
     </row>
     <row r="92" spans="1:23" ht="12" customHeight="1">
-      <c r="A92" s="70"/>
-      <c r="B92" s="70"/>
-      <c r="C92" s="110"/>
-      <c r="D92" s="111"/>
-      <c r="E92" s="112"/>
-      <c r="F92" s="74"/>
-      <c r="G92" s="158"/>
-      <c r="H92" s="159"/>
-      <c r="I92" s="130"/>
-      <c r="J92" s="182"/>
-      <c r="K92" s="185"/>
-      <c r="L92" s="56"/>
-      <c r="M92" s="56"/>
-      <c r="N92" s="56"/>
-      <c r="O92" s="56"/>
-      <c r="P92" s="56"/>
-      <c r="Q92" s="56"/>
-      <c r="R92" s="56"/>
-      <c r="S92" s="56"/>
-      <c r="T92" s="56"/>
-      <c r="U92" s="56"/>
-      <c r="V92" s="56"/>
-      <c r="W92" s="107"/>
+      <c r="A92" s="58"/>
+      <c r="B92" s="58"/>
+      <c r="C92" s="94"/>
+      <c r="D92" s="95"/>
+      <c r="E92" s="96"/>
+      <c r="F92" s="62"/>
+      <c r="G92" s="142"/>
+      <c r="H92" s="143"/>
+      <c r="I92" s="114"/>
+      <c r="J92" s="166"/>
+      <c r="K92" s="169"/>
+      <c r="L92" s="44"/>
+      <c r="M92" s="44"/>
+      <c r="N92" s="44"/>
+      <c r="O92" s="44"/>
+      <c r="P92" s="44"/>
+      <c r="Q92" s="44"/>
+      <c r="R92" s="44"/>
+      <c r="S92" s="44"/>
+      <c r="T92" s="44"/>
+      <c r="U92" s="44"/>
+      <c r="V92" s="44"/>
+      <c r="W92" s="91"/>
     </row>
     <row r="93" spans="1:23" ht="12" customHeight="1">
-      <c r="A93" s="70"/>
-      <c r="B93" s="70"/>
-      <c r="C93" s="85"/>
-      <c r="D93" s="86"/>
-      <c r="E93" s="120"/>
-      <c r="F93" s="161"/>
-      <c r="G93" s="162"/>
-      <c r="H93" s="163"/>
-      <c r="I93" s="132"/>
-      <c r="J93" s="183"/>
-      <c r="K93" s="186"/>
-      <c r="L93" s="179"/>
-      <c r="M93" s="179"/>
-      <c r="N93" s="179"/>
-      <c r="O93" s="179"/>
-      <c r="P93" s="179"/>
-      <c r="Q93" s="179"/>
-      <c r="R93" s="179"/>
-      <c r="S93" s="179"/>
-      <c r="T93" s="179"/>
-      <c r="U93" s="179"/>
-      <c r="V93" s="179"/>
-      <c r="W93" s="46"/>
+      <c r="A93" s="58"/>
+      <c r="B93" s="58"/>
+      <c r="C93" s="71"/>
+      <c r="D93" s="72"/>
+      <c r="E93" s="104"/>
+      <c r="F93" s="145"/>
+      <c r="G93" s="146"/>
+      <c r="H93" s="147"/>
+      <c r="I93" s="116"/>
+      <c r="J93" s="167"/>
+      <c r="K93" s="170"/>
+      <c r="L93" s="163"/>
+      <c r="M93" s="163"/>
+      <c r="N93" s="163"/>
+      <c r="O93" s="163"/>
+      <c r="P93" s="163"/>
+      <c r="Q93" s="163"/>
+      <c r="R93" s="163"/>
+      <c r="S93" s="163"/>
+      <c r="T93" s="163"/>
+      <c r="U93" s="163"/>
+      <c r="V93" s="163"/>
+      <c r="W93" s="36"/>
     </row>
     <row r="94" spans="1:23" ht="12" customHeight="1">
-      <c r="A94" s="70"/>
-      <c r="B94" s="70"/>
-      <c r="C94" s="76"/>
-      <c r="D94" s="77"/>
-      <c r="E94" s="108"/>
-      <c r="F94" s="155"/>
-      <c r="G94" s="83"/>
-      <c r="H94" s="83"/>
-      <c r="I94" s="156"/>
-      <c r="J94" s="181"/>
-      <c r="K94" s="82"/>
-      <c r="L94" s="83"/>
-      <c r="M94" s="83"/>
-      <c r="N94" s="83"/>
-      <c r="O94" s="83"/>
-      <c r="P94" s="83"/>
-      <c r="Q94" s="83"/>
-      <c r="R94" s="83"/>
-      <c r="S94" s="83"/>
-      <c r="T94" s="83"/>
-      <c r="U94" s="83"/>
-      <c r="V94" s="83"/>
-      <c r="W94" s="187"/>
+      <c r="A94" s="58"/>
+      <c r="B94" s="58"/>
+      <c r="C94" s="175"/>
+      <c r="D94" s="176"/>
+      <c r="E94" s="92"/>
+      <c r="F94" s="139"/>
+      <c r="G94" s="69"/>
+      <c r="H94" s="69"/>
+      <c r="I94" s="140"/>
+      <c r="J94" s="165"/>
+      <c r="K94" s="68"/>
+      <c r="L94" s="69"/>
+      <c r="M94" s="69"/>
+      <c r="N94" s="69"/>
+      <c r="O94" s="69"/>
+      <c r="P94" s="69"/>
+      <c r="Q94" s="69"/>
+      <c r="R94" s="69"/>
+      <c r="S94" s="69"/>
+      <c r="T94" s="69"/>
+      <c r="U94" s="69"/>
+      <c r="V94" s="69"/>
+      <c r="W94" s="171"/>
     </row>
     <row r="95" spans="1:23" ht="12" customHeight="1">
-      <c r="A95" s="70"/>
-      <c r="B95" s="70"/>
-      <c r="C95" s="110"/>
-      <c r="D95" s="111"/>
-      <c r="E95" s="112"/>
-      <c r="F95" s="74"/>
-      <c r="G95" s="40"/>
-      <c r="H95" s="40"/>
-      <c r="I95" s="157"/>
-      <c r="J95" s="136"/>
-      <c r="K95" s="61"/>
-      <c r="L95" s="119"/>
-      <c r="M95" s="119"/>
-      <c r="N95" s="119"/>
-      <c r="O95" s="119"/>
-      <c r="P95" s="119"/>
-      <c r="Q95" s="119"/>
-      <c r="R95" s="119"/>
-      <c r="S95" s="119"/>
-      <c r="T95" s="119"/>
-      <c r="U95" s="119"/>
-      <c r="V95" s="119"/>
-      <c r="W95" s="46"/>
+      <c r="A95" s="58"/>
+      <c r="B95" s="58"/>
+      <c r="C95" s="94"/>
+      <c r="D95" s="95"/>
+      <c r="E95" s="96"/>
+      <c r="F95" s="62"/>
+      <c r="G95" s="30"/>
+      <c r="H95" s="30"/>
+      <c r="I95" s="141"/>
+      <c r="J95" s="120"/>
+      <c r="K95" s="49"/>
+      <c r="L95" s="103"/>
+      <c r="M95" s="103"/>
+      <c r="N95" s="103"/>
+      <c r="O95" s="103"/>
+      <c r="P95" s="103"/>
+      <c r="Q95" s="103"/>
+      <c r="R95" s="103"/>
+      <c r="S95" s="103"/>
+      <c r="T95" s="103"/>
+      <c r="U95" s="103"/>
+      <c r="V95" s="103"/>
+      <c r="W95" s="36"/>
     </row>
     <row r="96" spans="1:23" ht="12" customHeight="1">
-      <c r="A96" s="70"/>
-      <c r="B96" s="70"/>
-      <c r="C96" s="110"/>
-      <c r="D96" s="111"/>
-      <c r="E96" s="112"/>
-      <c r="F96" s="74"/>
-      <c r="G96" s="158"/>
-      <c r="H96" s="159"/>
-      <c r="I96" s="130"/>
-      <c r="J96" s="182"/>
-      <c r="K96" s="185"/>
-      <c r="L96" s="56"/>
-      <c r="M96" s="56"/>
-      <c r="N96" s="56"/>
-      <c r="O96" s="56"/>
-      <c r="P96" s="56"/>
-      <c r="Q96" s="56"/>
-      <c r="R96" s="56"/>
-      <c r="S96" s="56"/>
-      <c r="T96" s="56"/>
-      <c r="U96" s="56"/>
-      <c r="V96" s="56"/>
-      <c r="W96" s="107"/>
+      <c r="A96" s="58"/>
+      <c r="B96" s="58"/>
+      <c r="C96" s="94"/>
+      <c r="D96" s="95"/>
+      <c r="E96" s="96"/>
+      <c r="F96" s="62"/>
+      <c r="G96" s="142"/>
+      <c r="H96" s="143"/>
+      <c r="I96" s="114"/>
+      <c r="J96" s="166"/>
+      <c r="K96" s="169"/>
+      <c r="L96" s="44"/>
+      <c r="M96" s="44"/>
+      <c r="N96" s="44"/>
+      <c r="O96" s="44"/>
+      <c r="P96" s="44"/>
+      <c r="Q96" s="44"/>
+      <c r="R96" s="44"/>
+      <c r="S96" s="44"/>
+      <c r="T96" s="44"/>
+      <c r="U96" s="44"/>
+      <c r="V96" s="44"/>
+      <c r="W96" s="91"/>
     </row>
     <row r="97" spans="1:23" ht="12" customHeight="1">
-      <c r="A97" s="70"/>
-      <c r="B97" s="111"/>
-      <c r="C97" s="85"/>
-      <c r="D97" s="86"/>
-      <c r="E97" s="120"/>
-      <c r="F97" s="161"/>
-      <c r="G97" s="162"/>
-      <c r="H97" s="163"/>
-      <c r="I97" s="132"/>
-      <c r="J97" s="183"/>
-      <c r="K97" s="186"/>
-      <c r="L97" s="179"/>
-      <c r="M97" s="179"/>
-      <c r="N97" s="179"/>
-      <c r="O97" s="179"/>
-      <c r="P97" s="179"/>
-      <c r="Q97" s="179"/>
-      <c r="R97" s="179"/>
-      <c r="S97" s="179"/>
-      <c r="T97" s="179"/>
-      <c r="U97" s="179"/>
-      <c r="V97" s="179"/>
-      <c r="W97" s="188"/>
+      <c r="A97" s="58"/>
+      <c r="B97" s="95"/>
+      <c r="C97" s="71"/>
+      <c r="D97" s="72"/>
+      <c r="E97" s="104"/>
+      <c r="F97" s="145"/>
+      <c r="G97" s="146"/>
+      <c r="H97" s="147"/>
+      <c r="I97" s="116"/>
+      <c r="J97" s="167"/>
+      <c r="K97" s="170"/>
+      <c r="L97" s="163"/>
+      <c r="M97" s="163"/>
+      <c r="N97" s="163"/>
+      <c r="O97" s="163"/>
+      <c r="P97" s="163"/>
+      <c r="Q97" s="163"/>
+      <c r="R97" s="163"/>
+      <c r="S97" s="163"/>
+      <c r="T97" s="163"/>
+      <c r="U97" s="163"/>
+      <c r="V97" s="163"/>
+      <c r="W97" s="172"/>
     </row>
     <row r="98" spans="1:23" ht="12" customHeight="1">
-      <c r="A98" s="70"/>
-      <c r="B98" s="70"/>
-      <c r="C98" s="76"/>
-      <c r="D98" s="77"/>
-      <c r="E98" s="151"/>
-      <c r="F98" s="83"/>
-      <c r="G98" s="83"/>
-      <c r="H98" s="83"/>
-      <c r="I98" s="128"/>
-      <c r="J98" s="124"/>
-      <c r="K98" s="102"/>
-      <c r="L98" s="103"/>
-      <c r="M98" s="103"/>
-      <c r="N98" s="103"/>
-      <c r="O98" s="103"/>
-      <c r="P98" s="103"/>
-      <c r="Q98" s="103"/>
-      <c r="R98" s="103"/>
-      <c r="S98" s="103"/>
-      <c r="T98" s="103"/>
-      <c r="U98" s="103"/>
-      <c r="V98" s="103"/>
-      <c r="W98" s="104"/>
+      <c r="A98" s="58"/>
+      <c r="B98" s="58"/>
+      <c r="C98" s="175"/>
+      <c r="D98" s="176"/>
+      <c r="E98" s="135"/>
+      <c r="F98" s="69"/>
+      <c r="G98" s="69"/>
+      <c r="H98" s="69"/>
+      <c r="I98" s="112"/>
+      <c r="J98" s="108"/>
+      <c r="K98" s="86"/>
+      <c r="L98" s="87"/>
+      <c r="M98" s="87"/>
+      <c r="N98" s="87"/>
+      <c r="O98" s="87"/>
+      <c r="P98" s="87"/>
+      <c r="Q98" s="87"/>
+      <c r="R98" s="87"/>
+      <c r="S98" s="87"/>
+      <c r="T98" s="87"/>
+      <c r="U98" s="87"/>
+      <c r="V98" s="87"/>
+      <c r="W98" s="88"/>
     </row>
     <row r="99" spans="1:23" ht="12" customHeight="1">
-      <c r="A99" s="70"/>
-      <c r="B99" s="70"/>
-      <c r="C99" s="85"/>
-      <c r="D99" s="86"/>
-      <c r="E99" s="131"/>
-      <c r="F99" s="122"/>
-      <c r="G99" s="122"/>
-      <c r="H99" s="97"/>
-      <c r="I99" s="132"/>
-      <c r="J99" s="96"/>
-      <c r="K99" s="152"/>
-      <c r="L99" s="40"/>
-      <c r="M99" s="40"/>
-      <c r="N99" s="40"/>
-      <c r="O99" s="40"/>
-      <c r="P99" s="40"/>
-      <c r="Q99" s="40"/>
-      <c r="R99" s="40"/>
-      <c r="S99" s="40"/>
-      <c r="T99" s="40"/>
-      <c r="U99" s="40"/>
-      <c r="V99" s="40"/>
-      <c r="W99" s="165"/>
+      <c r="A99" s="58"/>
+      <c r="B99" s="58"/>
+      <c r="C99" s="71"/>
+      <c r="D99" s="72"/>
+      <c r="E99" s="115"/>
+      <c r="F99" s="106"/>
+      <c r="G99" s="106"/>
+      <c r="H99" s="81"/>
+      <c r="I99" s="116"/>
+      <c r="J99" s="80"/>
+      <c r="K99" s="136"/>
+      <c r="L99" s="30"/>
+      <c r="M99" s="30"/>
+      <c r="N99" s="30"/>
+      <c r="O99" s="30"/>
+      <c r="P99" s="30"/>
+      <c r="Q99" s="30"/>
+      <c r="R99" s="30"/>
+      <c r="S99" s="30"/>
+      <c r="T99" s="30"/>
+      <c r="U99" s="30"/>
+      <c r="V99" s="30"/>
+      <c r="W99" s="149"/>
     </row>
     <row r="100" spans="1:23" ht="12" customHeight="1">
-      <c r="A100" s="70"/>
-      <c r="B100" s="70"/>
-      <c r="C100" s="76"/>
-      <c r="D100" s="77"/>
-      <c r="E100" s="151"/>
-      <c r="F100" s="83"/>
-      <c r="G100" s="83"/>
-      <c r="H100" s="83"/>
-      <c r="I100" s="128"/>
-      <c r="J100" s="181"/>
-      <c r="K100" s="82"/>
-      <c r="L100" s="83"/>
-      <c r="M100" s="83"/>
-      <c r="N100" s="83"/>
-      <c r="O100" s="83"/>
-      <c r="P100" s="83"/>
-      <c r="Q100" s="83"/>
-      <c r="R100" s="83"/>
-      <c r="S100" s="83"/>
-      <c r="T100" s="83"/>
-      <c r="U100" s="83"/>
-      <c r="V100" s="83"/>
-      <c r="W100" s="187"/>
+      <c r="A100" s="58"/>
+      <c r="B100" s="58"/>
+      <c r="C100" s="175"/>
+      <c r="D100" s="176"/>
+      <c r="E100" s="135"/>
+      <c r="F100" s="69"/>
+      <c r="G100" s="69"/>
+      <c r="H100" s="69"/>
+      <c r="I100" s="112"/>
+      <c r="J100" s="165"/>
+      <c r="K100" s="68"/>
+      <c r="L100" s="69"/>
+      <c r="M100" s="69"/>
+      <c r="N100" s="69"/>
+      <c r="O100" s="69"/>
+      <c r="P100" s="69"/>
+      <c r="Q100" s="69"/>
+      <c r="R100" s="69"/>
+      <c r="S100" s="69"/>
+      <c r="T100" s="69"/>
+      <c r="U100" s="69"/>
+      <c r="V100" s="69"/>
+      <c r="W100" s="171"/>
     </row>
     <row r="101" spans="1:23" ht="12" customHeight="1">
-      <c r="A101" s="70"/>
-      <c r="B101" s="70"/>
-      <c r="C101" s="85"/>
-      <c r="D101" s="86"/>
-      <c r="E101" s="131"/>
-      <c r="F101" s="122"/>
-      <c r="G101" s="122"/>
-      <c r="H101" s="97"/>
-      <c r="I101" s="132"/>
-      <c r="J101" s="189"/>
-      <c r="K101" s="186"/>
-      <c r="L101" s="179"/>
-      <c r="M101" s="179"/>
-      <c r="N101" s="179"/>
-      <c r="O101" s="179"/>
-      <c r="P101" s="179"/>
-      <c r="Q101" s="179"/>
-      <c r="R101" s="179"/>
-      <c r="S101" s="179"/>
-      <c r="T101" s="179"/>
-      <c r="U101" s="179"/>
-      <c r="V101" s="179"/>
-      <c r="W101" s="188"/>
+      <c r="A101" s="58"/>
+      <c r="B101" s="58"/>
+      <c r="C101" s="71"/>
+      <c r="D101" s="72"/>
+      <c r="E101" s="115"/>
+      <c r="F101" s="106"/>
+      <c r="G101" s="106"/>
+      <c r="H101" s="81"/>
+      <c r="I101" s="116"/>
+      <c r="J101" s="173"/>
+      <c r="K101" s="170"/>
+      <c r="L101" s="163"/>
+      <c r="M101" s="163"/>
+      <c r="N101" s="163"/>
+      <c r="O101" s="163"/>
+      <c r="P101" s="163"/>
+      <c r="Q101" s="163"/>
+      <c r="R101" s="163"/>
+      <c r="S101" s="163"/>
+      <c r="T101" s="163"/>
+      <c r="U101" s="163"/>
+      <c r="V101" s="163"/>
+      <c r="W101" s="172"/>
     </row>
     <row r="102" spans="1:23" ht="12" customHeight="1">
-      <c r="C102" s="76"/>
-      <c r="D102" s="77"/>
-      <c r="E102" s="108"/>
-      <c r="F102" s="155"/>
-      <c r="G102" s="98"/>
-      <c r="H102" s="98"/>
-      <c r="I102" s="190"/>
-      <c r="J102" s="181"/>
-      <c r="K102" s="82"/>
-      <c r="L102" s="83"/>
-      <c r="M102" s="83"/>
-      <c r="N102" s="83"/>
-      <c r="O102" s="83"/>
-      <c r="P102" s="83"/>
-      <c r="Q102" s="83"/>
-      <c r="R102" s="83"/>
-      <c r="S102" s="83"/>
-      <c r="T102" s="83"/>
-      <c r="U102" s="83"/>
-      <c r="V102" s="83"/>
-      <c r="W102" s="84"/>
+      <c r="C102" s="175"/>
+      <c r="D102" s="176"/>
+      <c r="E102" s="92"/>
+      <c r="F102" s="139"/>
+      <c r="G102" s="82"/>
+      <c r="H102" s="82"/>
+      <c r="I102" s="174"/>
+      <c r="J102" s="165"/>
+      <c r="K102" s="68"/>
+      <c r="L102" s="69"/>
+      <c r="M102" s="69"/>
+      <c r="N102" s="69"/>
+      <c r="O102" s="69"/>
+      <c r="P102" s="69"/>
+      <c r="Q102" s="69"/>
+      <c r="R102" s="69"/>
+      <c r="S102" s="69"/>
+      <c r="T102" s="69"/>
+      <c r="U102" s="69"/>
+      <c r="V102" s="69"/>
+      <c r="W102" s="70"/>
     </row>
     <row r="103" spans="1:23" ht="12" customHeight="1">
-      <c r="C103" s="110"/>
-      <c r="D103" s="111"/>
-      <c r="E103" s="112"/>
-      <c r="F103" s="74"/>
-      <c r="J103" s="90"/>
-      <c r="K103" s="61"/>
-      <c r="L103" s="119"/>
-      <c r="M103" s="119"/>
-      <c r="N103" s="119"/>
-      <c r="O103" s="119"/>
-      <c r="P103" s="119"/>
-      <c r="Q103" s="119"/>
-      <c r="R103" s="119"/>
-      <c r="S103" s="119"/>
-      <c r="T103" s="119"/>
-      <c r="U103" s="119"/>
-      <c r="V103" s="119"/>
-      <c r="W103" s="46"/>
+      <c r="C103" s="94"/>
+      <c r="D103" s="95"/>
+      <c r="E103" s="96"/>
+      <c r="F103" s="62"/>
+      <c r="J103" s="76"/>
+      <c r="K103" s="49"/>
+      <c r="L103" s="103"/>
+      <c r="M103" s="103"/>
+      <c r="N103" s="103"/>
+      <c r="O103" s="103"/>
+      <c r="P103" s="103"/>
+      <c r="Q103" s="103"/>
+      <c r="R103" s="103"/>
+      <c r="S103" s="103"/>
+      <c r="T103" s="103"/>
+      <c r="U103" s="103"/>
+      <c r="V103" s="103"/>
+      <c r="W103" s="36"/>
     </row>
     <row r="104" spans="1:23" ht="12" customHeight="1">
-      <c r="A104" s="70"/>
-      <c r="B104" s="70"/>
-      <c r="C104" s="76"/>
-      <c r="D104" s="77"/>
-      <c r="E104" s="108"/>
-      <c r="F104" s="155"/>
-      <c r="G104" s="98"/>
-      <c r="H104" s="98"/>
-      <c r="I104" s="190"/>
-      <c r="J104" s="101"/>
-      <c r="K104" s="102"/>
-      <c r="L104" s="103"/>
-      <c r="M104" s="103"/>
-      <c r="N104" s="103"/>
-      <c r="O104" s="103"/>
-      <c r="P104" s="103"/>
-      <c r="Q104" s="103"/>
-      <c r="R104" s="103"/>
-      <c r="S104" s="103"/>
-      <c r="T104" s="103"/>
-      <c r="U104" s="103"/>
-      <c r="V104" s="103"/>
-      <c r="W104" s="104"/>
+      <c r="A104" s="58"/>
+      <c r="B104" s="58"/>
+      <c r="C104" s="175"/>
+      <c r="D104" s="176"/>
+      <c r="E104" s="92"/>
+      <c r="F104" s="139"/>
+      <c r="G104" s="82"/>
+      <c r="H104" s="82"/>
+      <c r="I104" s="174"/>
+      <c r="J104" s="85"/>
+      <c r="K104" s="86"/>
+      <c r="L104" s="87"/>
+      <c r="M104" s="87"/>
+      <c r="N104" s="87"/>
+      <c r="O104" s="87"/>
+      <c r="P104" s="87"/>
+      <c r="Q104" s="87"/>
+      <c r="R104" s="87"/>
+      <c r="S104" s="87"/>
+      <c r="T104" s="87"/>
+      <c r="U104" s="87"/>
+      <c r="V104" s="87"/>
+      <c r="W104" s="88"/>
     </row>
     <row r="105" spans="1:23" ht="12" customHeight="1">
-      <c r="A105" s="70"/>
-      <c r="B105" s="70"/>
-      <c r="C105" s="110"/>
-      <c r="D105" s="111"/>
-      <c r="E105" s="112"/>
-      <c r="F105" s="74"/>
-      <c r="J105" s="116"/>
-      <c r="K105" s="55"/>
-      <c r="L105" s="117"/>
-      <c r="M105" s="117"/>
-      <c r="N105" s="117"/>
-      <c r="O105" s="117"/>
-      <c r="P105" s="117"/>
-      <c r="Q105" s="117"/>
-      <c r="R105" s="117"/>
-      <c r="S105" s="117"/>
-      <c r="T105" s="117"/>
-      <c r="U105" s="117"/>
-      <c r="V105" s="117"/>
-      <c r="W105" s="58"/>
+      <c r="A105" s="58"/>
+      <c r="B105" s="58"/>
+      <c r="C105" s="94"/>
+      <c r="D105" s="95"/>
+      <c r="E105" s="96"/>
+      <c r="F105" s="62"/>
+      <c r="J105" s="100"/>
+      <c r="K105" s="43"/>
+      <c r="L105" s="101"/>
+      <c r="M105" s="101"/>
+      <c r="N105" s="101"/>
+      <c r="O105" s="101"/>
+      <c r="P105" s="101"/>
+      <c r="Q105" s="101"/>
+      <c r="R105" s="101"/>
+      <c r="S105" s="101"/>
+      <c r="T105" s="101"/>
+      <c r="U105" s="101"/>
+      <c r="V105" s="101"/>
+      <c r="W105" s="46"/>
     </row>
     <row r="109" spans="1:23" ht="12" customHeight="1">
       <c r="I109" s="3"/>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_v2_template.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_v2_template.xlsx
@@ -125,10 +125,6 @@
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1231,11 +1227,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1367,15 +1360,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1387,9 +1371,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -1488,9 +1469,6 @@
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1622,20 +1600,8 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -1678,12 +1644,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
@@ -1742,26 +1702,11 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -1769,17 +1714,41 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="66" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="76" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -1793,38 +1762,41 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="76" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="66" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1871,7 +1843,7 @@
         <xdr:cNvPr id="2" name="楕円 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -45172,7 +45144,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X109"/>
+  <dimension ref="A1:X105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleSheetLayoutView="175" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:W2"/>
@@ -45185,2536 +45157,2515 @@
     <col min="3" max="3" width="3.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" style="1" customWidth="1"/>
     <col min="5" max="9" width="5.6640625" style="1"/>
-    <col min="10" max="10" width="6.6640625" style="172" customWidth="1"/>
-    <col min="11" max="22" width="5.33203125" style="2" customWidth="1"/>
-    <col min="23" max="23" width="5.33203125" style="3" customWidth="1"/>
-    <col min="24" max="24" width="5.6640625" style="3"/>
-    <col min="25" max="16384" width="5.6640625" style="2"/>
+    <col min="10" max="10" width="6.6640625" style="179" customWidth="1"/>
+    <col min="11" max="22" width="5.33203125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="5.33203125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="5.6640625" style="2"/>
+    <col min="25" max="16384" width="5.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="0.75" customHeight="1"/>
     <row r="2" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A2" s="187"/>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="187"/>
-      <c r="K2" s="187"/>
-      <c r="L2" s="187"/>
-      <c r="M2" s="187"/>
-      <c r="N2" s="187"/>
-      <c r="O2" s="187"/>
-      <c r="P2" s="187"/>
-      <c r="Q2" s="187"/>
-      <c r="R2" s="187"/>
-      <c r="S2" s="187"/>
-      <c r="T2" s="187"/>
-      <c r="U2" s="187"/>
-      <c r="V2" s="187"/>
-      <c r="W2" s="187"/>
+      <c r="A2" s="168"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="168"/>
+      <c r="R2" s="168"/>
+      <c r="S2" s="168"/>
+      <c r="T2" s="168"/>
+      <c r="U2" s="168"/>
+      <c r="V2" s="168"/>
+      <c r="W2" s="168"/>
     </row>
     <row r="3" spans="1:23" ht="0.75" customHeight="1" thickBot="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="173"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
     </row>
     <row r="4" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="188"/>
-      <c r="F4" s="189"/>
-      <c r="G4" s="189"/>
-      <c r="H4" s="189"/>
-      <c r="I4" s="190"/>
-      <c r="J4" s="191"/>
-      <c r="K4" s="189"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="7"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="180"/>
+      <c r="G4" s="180"/>
+      <c r="H4" s="180"/>
+      <c r="I4" s="181"/>
+      <c r="J4" s="170"/>
+      <c r="K4" s="180"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="6"/>
     </row>
     <row r="5" spans="1:23" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="174"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="15"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="159"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="14"/>
     </row>
     <row r="6" spans="1:23" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A6" s="192"/>
-      <c r="B6" s="192"/>
-      <c r="C6" s="192"/>
-      <c r="D6" s="192"/>
-      <c r="E6" s="192"/>
-      <c r="F6" s="192"/>
-      <c r="G6" s="192"/>
-      <c r="H6" s="192"/>
-      <c r="I6" s="192"/>
-      <c r="J6" s="192"/>
-      <c r="K6" s="192"/>
-      <c r="L6" s="192"/>
-      <c r="M6" s="192"/>
-      <c r="N6" s="192"/>
-      <c r="O6" s="192"/>
-      <c r="P6" s="192"/>
-      <c r="Q6" s="192"/>
-      <c r="R6" s="192"/>
-      <c r="S6" s="192"/>
-      <c r="T6" s="192"/>
-      <c r="U6" s="192"/>
-      <c r="V6" s="192"/>
-      <c r="W6" s="192"/>
+      <c r="A6" s="171"/>
+      <c r="B6" s="171"/>
+      <c r="C6" s="171"/>
+      <c r="D6" s="171"/>
+      <c r="E6" s="171"/>
+      <c r="F6" s="171"/>
+      <c r="G6" s="171"/>
+      <c r="H6" s="171"/>
+      <c r="I6" s="171"/>
+      <c r="J6" s="171"/>
+      <c r="K6" s="171"/>
+      <c r="L6" s="171"/>
+      <c r="M6" s="171"/>
+      <c r="N6" s="171"/>
+      <c r="O6" s="171"/>
+      <c r="P6" s="171"/>
+      <c r="Q6" s="171"/>
+      <c r="R6" s="171"/>
+      <c r="S6" s="171"/>
+      <c r="T6" s="171"/>
+      <c r="U6" s="171"/>
+      <c r="V6" s="171"/>
+      <c r="W6" s="171"/>
     </row>
     <row r="7" spans="1:23" ht="12" customHeight="1">
-      <c r="A7" s="193"/>
-      <c r="B7" s="194"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="22"/>
+      <c r="A7" s="172"/>
+      <c r="B7" s="173"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="21"/>
     </row>
     <row r="8" spans="1:23" ht="12" customHeight="1">
-      <c r="A8" s="183"/>
-      <c r="B8" s="184"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="152"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="128"/>
-      <c r="H8" s="128"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="31"/>
+      <c r="A8" s="174"/>
+      <c r="B8" s="175"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="30"/>
     </row>
     <row r="9" spans="1:23" ht="12" customHeight="1">
-      <c r="A9" s="185"/>
-      <c r="B9" s="186"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="41"/>
+      <c r="A9" s="176"/>
+      <c r="B9" s="177"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="40"/>
     </row>
     <row r="10" spans="1:23" ht="12" customHeight="1">
-      <c r="A10" s="183"/>
-      <c r="B10" s="184"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="31"/>
+      <c r="A10" s="174"/>
+      <c r="B10" s="175"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="30"/>
     </row>
     <row r="11" spans="1:23" ht="12" customHeight="1">
-      <c r="A11" s="183"/>
-      <c r="B11" s="184"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="50"/>
-      <c r="V11" s="50"/>
-      <c r="W11" s="51"/>
+      <c r="A11" s="174"/>
+      <c r="B11" s="175"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="182"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="183"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="47"/>
     </row>
     <row r="12" spans="1:23" ht="12" customHeight="1">
-      <c r="A12" s="52"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="56"/>
-      <c r="V12" s="56"/>
-      <c r="W12" s="57"/>
+      <c r="A12" s="162"/>
+      <c r="B12" s="162"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="182"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="183"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="52"/>
     </row>
     <row r="13" spans="1:23" ht="12" customHeight="1">
-      <c r="A13" s="52"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="179"/>
-      <c r="D13" s="180"/>
-      <c r="E13" s="153"/>
-      <c r="F13" s="154"/>
-      <c r="G13" s="154"/>
-      <c r="H13" s="154"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="61"/>
-      <c r="T13" s="61"/>
-      <c r="U13" s="61"/>
-      <c r="V13" s="61"/>
-      <c r="W13" s="62"/>
+      <c r="A13" s="162"/>
+      <c r="B13" s="162"/>
+      <c r="C13" s="167"/>
+      <c r="D13" s="184"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="142"/>
+      <c r="G13" s="142"/>
+      <c r="H13" s="142"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="57"/>
     </row>
     <row r="14" spans="1:23" ht="12" customHeight="1">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="155"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="68"/>
-      <c r="S14" s="68"/>
-      <c r="T14" s="68"/>
-      <c r="U14" s="68"/>
-      <c r="V14" s="68"/>
-      <c r="W14" s="69"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
+      <c r="S14" s="63"/>
+      <c r="T14" s="63"/>
+      <c r="U14" s="63"/>
+      <c r="V14" s="63"/>
+      <c r="W14" s="64"/>
     </row>
     <row r="15" spans="1:23" ht="12" customHeight="1">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="181"/>
-      <c r="D15" s="182"/>
-      <c r="E15" s="155"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="72"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="72"/>
-      <c r="R15" s="72"/>
-      <c r="S15" s="72"/>
-      <c r="T15" s="72"/>
-      <c r="U15" s="72"/>
-      <c r="V15" s="73"/>
-      <c r="W15" s="74"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="178"/>
+      <c r="D15" s="185"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="67"/>
+      <c r="U15" s="67"/>
+      <c r="V15" s="68"/>
+      <c r="W15" s="69"/>
     </row>
     <row r="16" spans="1:23" ht="12" customHeight="1">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="179"/>
-      <c r="D16" s="180"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="78"/>
-      <c r="N16" s="78"/>
-      <c r="O16" s="78"/>
-      <c r="P16" s="78"/>
-      <c r="Q16" s="78"/>
-      <c r="R16" s="78"/>
-      <c r="S16" s="78"/>
-      <c r="T16" s="78"/>
-      <c r="U16" s="78"/>
-      <c r="V16" s="78"/>
-      <c r="W16" s="79"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="167"/>
+      <c r="D16" s="184"/>
+      <c r="E16" s="141"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="73"/>
+      <c r="Q16" s="73"/>
+      <c r="R16" s="73"/>
+      <c r="S16" s="73"/>
+      <c r="T16" s="73"/>
+      <c r="U16" s="73"/>
+      <c r="V16" s="73"/>
+      <c r="W16" s="74"/>
     </row>
     <row r="17" spans="1:23" ht="12" customHeight="1">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="155"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="82"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="77"/>
     </row>
     <row r="18" spans="1:23" ht="12" customHeight="1">
-      <c r="A18" s="52"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="179"/>
-      <c r="D18" s="180"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="156"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="78"/>
-      <c r="N18" s="78"/>
-      <c r="O18" s="78"/>
-      <c r="P18" s="78"/>
-      <c r="Q18" s="78"/>
-      <c r="R18" s="78"/>
-      <c r="S18" s="78"/>
-      <c r="T18" s="78"/>
-      <c r="U18" s="78"/>
-      <c r="V18" s="78"/>
-      <c r="W18" s="79"/>
+      <c r="A18" s="162"/>
+      <c r="B18" s="162"/>
+      <c r="C18" s="167"/>
+      <c r="D18" s="184"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="144"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="73"/>
+      <c r="Q18" s="73"/>
+      <c r="R18" s="73"/>
+      <c r="S18" s="73"/>
+      <c r="T18" s="73"/>
+      <c r="U18" s="73"/>
+      <c r="V18" s="73"/>
+      <c r="W18" s="74"/>
     </row>
     <row r="19" spans="1:23" ht="12" customHeight="1">
-      <c r="A19" s="52"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="92"/>
-      <c r="N19" s="92"/>
-      <c r="O19" s="92"/>
-      <c r="P19" s="92"/>
-      <c r="Q19" s="92"/>
-      <c r="R19" s="92"/>
-      <c r="S19" s="92"/>
-      <c r="T19" s="92"/>
-      <c r="U19" s="92"/>
-      <c r="V19" s="92"/>
-      <c r="W19" s="41"/>
+      <c r="A19" s="162"/>
+      <c r="B19" s="162"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="163"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="86"/>
+      <c r="N19" s="86"/>
+      <c r="O19" s="86"/>
+      <c r="P19" s="86"/>
+      <c r="Q19" s="86"/>
+      <c r="R19" s="86"/>
+      <c r="S19" s="86"/>
+      <c r="T19" s="86"/>
+      <c r="U19" s="86"/>
+      <c r="V19" s="86"/>
+      <c r="W19" s="40"/>
     </row>
     <row r="20" spans="1:23" ht="12" customHeight="1">
-      <c r="A20" s="52"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="95"/>
-      <c r="N20" s="95"/>
-      <c r="O20" s="95"/>
-      <c r="P20" s="95"/>
-      <c r="Q20" s="95"/>
-      <c r="R20" s="95"/>
-      <c r="S20" s="95"/>
-      <c r="T20" s="95"/>
-      <c r="U20" s="95"/>
-      <c r="V20" s="95"/>
-      <c r="W20" s="31"/>
+      <c r="A20" s="162"/>
+      <c r="B20" s="162"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="163"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="89"/>
+      <c r="N20" s="89"/>
+      <c r="O20" s="89"/>
+      <c r="P20" s="89"/>
+      <c r="Q20" s="89"/>
+      <c r="R20" s="89"/>
+      <c r="S20" s="89"/>
+      <c r="T20" s="89"/>
+      <c r="U20" s="89"/>
+      <c r="V20" s="89"/>
+      <c r="W20" s="30"/>
     </row>
     <row r="21" spans="1:23" ht="12" customHeight="1">
-      <c r="A21" s="52"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="157"/>
-      <c r="G21" s="158"/>
-      <c r="H21" s="158"/>
-      <c r="I21" s="159"/>
-      <c r="J21" s="81"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="39"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="39"/>
-      <c r="V21" s="39"/>
-      <c r="W21" s="82"/>
+      <c r="A21" s="162"/>
+      <c r="B21" s="162"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="77"/>
     </row>
     <row r="22" spans="1:23" ht="12" customHeight="1">
-      <c r="A22" s="52"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="179"/>
-      <c r="D22" s="180"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="78"/>
-      <c r="O22" s="78"/>
-      <c r="P22" s="78"/>
-      <c r="Q22" s="78"/>
-      <c r="R22" s="78"/>
-      <c r="S22" s="78"/>
-      <c r="T22" s="78"/>
-      <c r="U22" s="78"/>
-      <c r="V22" s="78"/>
-      <c r="W22" s="79"/>
+      <c r="A22" s="162"/>
+      <c r="B22" s="162"/>
+      <c r="C22" s="167"/>
+      <c r="D22" s="184"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="144"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="73"/>
+      <c r="Q22" s="73"/>
+      <c r="R22" s="73"/>
+      <c r="S22" s="73"/>
+      <c r="T22" s="73"/>
+      <c r="U22" s="73"/>
+      <c r="V22" s="73"/>
+      <c r="W22" s="74"/>
     </row>
     <row r="23" spans="1:23" ht="12" customHeight="1">
-      <c r="A23" s="52"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="92"/>
-      <c r="M23" s="92"/>
-      <c r="N23" s="92"/>
-      <c r="O23" s="92"/>
-      <c r="P23" s="92"/>
-      <c r="Q23" s="92"/>
-      <c r="R23" s="92"/>
-      <c r="S23" s="92"/>
-      <c r="T23" s="92"/>
-      <c r="U23" s="92"/>
-      <c r="V23" s="92"/>
-      <c r="W23" s="41"/>
+      <c r="A23" s="162"/>
+      <c r="B23" s="162"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="163"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="86"/>
+      <c r="O23" s="86"/>
+      <c r="P23" s="86"/>
+      <c r="Q23" s="86"/>
+      <c r="R23" s="86"/>
+      <c r="S23" s="86"/>
+      <c r="T23" s="86"/>
+      <c r="U23" s="86"/>
+      <c r="V23" s="86"/>
+      <c r="W23" s="40"/>
     </row>
     <row r="24" spans="1:23" ht="12" customHeight="1">
-      <c r="A24" s="52"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="95"/>
-      <c r="N24" s="95"/>
-      <c r="O24" s="95"/>
-      <c r="P24" s="95"/>
-      <c r="Q24" s="95"/>
-      <c r="R24" s="95"/>
-      <c r="S24" s="95"/>
-      <c r="T24" s="95"/>
-      <c r="U24" s="95"/>
-      <c r="V24" s="95"/>
-      <c r="W24" s="31"/>
+      <c r="A24" s="162"/>
+      <c r="B24" s="162"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="163"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="89"/>
+      <c r="M24" s="89"/>
+      <c r="N24" s="89"/>
+      <c r="O24" s="89"/>
+      <c r="P24" s="89"/>
+      <c r="Q24" s="89"/>
+      <c r="R24" s="89"/>
+      <c r="S24" s="89"/>
+      <c r="T24" s="89"/>
+      <c r="U24" s="89"/>
+      <c r="V24" s="89"/>
+      <c r="W24" s="30"/>
     </row>
     <row r="25" spans="1:23" ht="12" customHeight="1">
-      <c r="A25" s="52"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="157"/>
-      <c r="G25" s="158"/>
-      <c r="H25" s="158"/>
-      <c r="I25" s="159"/>
-      <c r="J25" s="81"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
-      <c r="T25" s="39"/>
-      <c r="U25" s="39"/>
-      <c r="V25" s="39"/>
-      <c r="W25" s="82"/>
+      <c r="A25" s="162"/>
+      <c r="B25" s="162"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="145"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="146"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="77"/>
     </row>
     <row r="26" spans="1:23" ht="12" customHeight="1">
-      <c r="A26" s="52"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="179"/>
-      <c r="D26" s="180"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="156"/>
-      <c r="J26" s="98"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="78"/>
-      <c r="N26" s="78"/>
-      <c r="O26" s="78"/>
-      <c r="P26" s="78"/>
-      <c r="Q26" s="78"/>
-      <c r="R26" s="78"/>
-      <c r="S26" s="78"/>
-      <c r="T26" s="78"/>
-      <c r="U26" s="78"/>
-      <c r="V26" s="78"/>
-      <c r="W26" s="79"/>
+      <c r="A26" s="162"/>
+      <c r="B26" s="162"/>
+      <c r="C26" s="167"/>
+      <c r="D26" s="184"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="144"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="73"/>
+      <c r="M26" s="73"/>
+      <c r="N26" s="73"/>
+      <c r="O26" s="73"/>
+      <c r="P26" s="73"/>
+      <c r="Q26" s="73"/>
+      <c r="R26" s="73"/>
+      <c r="S26" s="73"/>
+      <c r="T26" s="73"/>
+      <c r="U26" s="73"/>
+      <c r="V26" s="73"/>
+      <c r="W26" s="74"/>
     </row>
     <row r="27" spans="1:23" ht="12" customHeight="1">
-      <c r="A27" s="52"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="90"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="92"/>
-      <c r="M27" s="92"/>
-      <c r="N27" s="92"/>
-      <c r="O27" s="92"/>
-      <c r="P27" s="92"/>
-      <c r="Q27" s="92"/>
-      <c r="R27" s="92"/>
-      <c r="S27" s="92"/>
-      <c r="T27" s="92"/>
-      <c r="U27" s="92"/>
-      <c r="V27" s="92"/>
-      <c r="W27" s="41"/>
+      <c r="A27" s="162"/>
+      <c r="B27" s="162"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="163"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="86"/>
+      <c r="O27" s="86"/>
+      <c r="P27" s="86"/>
+      <c r="Q27" s="86"/>
+      <c r="R27" s="86"/>
+      <c r="S27" s="86"/>
+      <c r="T27" s="86"/>
+      <c r="U27" s="86"/>
+      <c r="V27" s="86"/>
+      <c r="W27" s="40"/>
     </row>
     <row r="28" spans="1:23" ht="12" customHeight="1">
-      <c r="A28" s="52"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="99"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="95"/>
-      <c r="M28" s="95"/>
-      <c r="N28" s="95"/>
-      <c r="O28" s="95"/>
-      <c r="P28" s="95"/>
-      <c r="Q28" s="95"/>
-      <c r="R28" s="95"/>
-      <c r="S28" s="95"/>
-      <c r="T28" s="95"/>
-      <c r="U28" s="95"/>
-      <c r="V28" s="95"/>
-      <c r="W28" s="31"/>
+      <c r="A28" s="162"/>
+      <c r="B28" s="162"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="163"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="93"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="89"/>
+      <c r="M28" s="89"/>
+      <c r="N28" s="89"/>
+      <c r="O28" s="89"/>
+      <c r="P28" s="89"/>
+      <c r="Q28" s="89"/>
+      <c r="R28" s="89"/>
+      <c r="S28" s="89"/>
+      <c r="T28" s="89"/>
+      <c r="U28" s="89"/>
+      <c r="V28" s="89"/>
+      <c r="W28" s="30"/>
     </row>
     <row r="29" spans="1:23" ht="12" customHeight="1">
-      <c r="A29" s="52"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="157"/>
-      <c r="G29" s="158"/>
-      <c r="H29" s="158"/>
-      <c r="I29" s="159"/>
-      <c r="J29" s="100"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="39"/>
-      <c r="S29" s="39"/>
-      <c r="T29" s="39"/>
-      <c r="U29" s="39"/>
-      <c r="V29" s="39"/>
-      <c r="W29" s="82"/>
+      <c r="A29" s="162"/>
+      <c r="B29" s="162"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="145"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="147"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="38"/>
+      <c r="T29" s="38"/>
+      <c r="U29" s="38"/>
+      <c r="V29" s="38"/>
+      <c r="W29" s="77"/>
     </row>
     <row r="30" spans="1:23" ht="12" customHeight="1">
-      <c r="A30" s="52"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="179"/>
-      <c r="D30" s="180"/>
-      <c r="E30" s="160"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="101"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="78"/>
-      <c r="M30" s="78"/>
-      <c r="N30" s="78"/>
-      <c r="O30" s="78"/>
-      <c r="P30" s="78"/>
-      <c r="Q30" s="78"/>
-      <c r="R30" s="78"/>
-      <c r="S30" s="78"/>
-      <c r="T30" s="78"/>
-      <c r="U30" s="78"/>
-      <c r="V30" s="78"/>
-      <c r="W30" s="79"/>
+      <c r="A30" s="162"/>
+      <c r="B30" s="162"/>
+      <c r="C30" s="167"/>
+      <c r="D30" s="184"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="95"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="73"/>
+      <c r="N30" s="73"/>
+      <c r="O30" s="73"/>
+      <c r="P30" s="73"/>
+      <c r="Q30" s="73"/>
+      <c r="R30" s="73"/>
+      <c r="S30" s="73"/>
+      <c r="T30" s="73"/>
+      <c r="U30" s="73"/>
+      <c r="V30" s="73"/>
+      <c r="W30" s="74"/>
     </row>
     <row r="31" spans="1:23" ht="12" customHeight="1">
-      <c r="A31" s="52"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="161"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="89"/>
-      <c r="I31" s="103"/>
-      <c r="J31" s="91"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="92"/>
-      <c r="M31" s="92"/>
-      <c r="N31" s="92"/>
-      <c r="O31" s="92"/>
-      <c r="P31" s="92"/>
-      <c r="Q31" s="92"/>
-      <c r="R31" s="92"/>
-      <c r="S31" s="92"/>
-      <c r="T31" s="92"/>
-      <c r="U31" s="92"/>
-      <c r="V31" s="92"/>
-      <c r="W31" s="41"/>
+      <c r="A31" s="162"/>
+      <c r="B31" s="162"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="163"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="97"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="86"/>
+      <c r="N31" s="86"/>
+      <c r="O31" s="86"/>
+      <c r="P31" s="86"/>
+      <c r="Q31" s="86"/>
+      <c r="R31" s="86"/>
+      <c r="S31" s="86"/>
+      <c r="T31" s="86"/>
+      <c r="U31" s="86"/>
+      <c r="V31" s="86"/>
+      <c r="W31" s="40"/>
     </row>
     <row r="32" spans="1:23" ht="12" customHeight="1">
-      <c r="A32" s="52"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="161"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="89"/>
-      <c r="I32" s="103"/>
-      <c r="J32" s="94"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="95"/>
-      <c r="M32" s="95"/>
-      <c r="N32" s="95"/>
-      <c r="O32" s="95"/>
-      <c r="P32" s="95"/>
-      <c r="Q32" s="95"/>
-      <c r="R32" s="95"/>
-      <c r="S32" s="95"/>
-      <c r="T32" s="95"/>
-      <c r="U32" s="95"/>
-      <c r="V32" s="95"/>
-      <c r="W32" s="31"/>
+      <c r="A32" s="162"/>
+      <c r="B32" s="162"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="163"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="97"/>
+      <c r="J32" s="88"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="89"/>
+      <c r="M32" s="89"/>
+      <c r="N32" s="89"/>
+      <c r="O32" s="89"/>
+      <c r="P32" s="89"/>
+      <c r="Q32" s="89"/>
+      <c r="R32" s="89"/>
+      <c r="S32" s="89"/>
+      <c r="T32" s="89"/>
+      <c r="U32" s="89"/>
+      <c r="V32" s="89"/>
+      <c r="W32" s="30"/>
     </row>
     <row r="33" spans="1:23" ht="12" customHeight="1">
-      <c r="A33" s="52"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="162"/>
-      <c r="F33" s="158"/>
-      <c r="G33" s="158"/>
-      <c r="H33" s="158"/>
-      <c r="I33" s="104"/>
-      <c r="J33" s="70"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="39"/>
-      <c r="S33" s="39"/>
-      <c r="T33" s="39"/>
-      <c r="U33" s="39"/>
-      <c r="V33" s="39"/>
-      <c r="W33" s="82"/>
+      <c r="A33" s="162"/>
+      <c r="B33" s="162"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="146"/>
+      <c r="G33" s="146"/>
+      <c r="H33" s="146"/>
+      <c r="I33" s="98"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="38"/>
+      <c r="Q33" s="38"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="38"/>
+      <c r="T33" s="38"/>
+      <c r="U33" s="38"/>
+      <c r="V33" s="38"/>
+      <c r="W33" s="77"/>
     </row>
     <row r="34" spans="1:23" ht="12" customHeight="1">
-      <c r="A34" s="52"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="179"/>
-      <c r="D34" s="180"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="106"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="106"/>
-      <c r="I34" s="101"/>
-      <c r="J34" s="107"/>
-      <c r="K34" s="108"/>
-      <c r="L34" s="109"/>
-      <c r="M34" s="109"/>
-      <c r="N34" s="109"/>
-      <c r="O34" s="109"/>
-      <c r="P34" s="109"/>
-      <c r="Q34" s="109"/>
-      <c r="R34" s="109"/>
-      <c r="S34" s="109"/>
-      <c r="T34" s="109"/>
-      <c r="U34" s="109"/>
-      <c r="V34" s="110"/>
-      <c r="W34" s="111"/>
+      <c r="A34" s="162"/>
+      <c r="B34" s="162"/>
+      <c r="C34" s="167"/>
+      <c r="D34" s="184"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="100"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="100"/>
+      <c r="I34" s="95"/>
+      <c r="J34" s="101"/>
+      <c r="K34" s="102"/>
+      <c r="L34" s="103"/>
+      <c r="M34" s="103"/>
+      <c r="N34" s="103"/>
+      <c r="O34" s="103"/>
+      <c r="P34" s="103"/>
+      <c r="Q34" s="103"/>
+      <c r="R34" s="103"/>
+      <c r="S34" s="103"/>
+      <c r="T34" s="103"/>
+      <c r="U34" s="103"/>
+      <c r="V34" s="104"/>
+      <c r="W34" s="105"/>
     </row>
     <row r="35" spans="1:23" ht="12" customHeight="1">
-      <c r="A35" s="52"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="102"/>
-      <c r="F35" s="93"/>
-      <c r="G35" s="93"/>
-      <c r="H35" s="93"/>
-      <c r="I35" s="103"/>
-      <c r="J35" s="112"/>
-      <c r="K35" s="113"/>
-      <c r="L35" s="114"/>
-      <c r="M35" s="114"/>
-      <c r="N35" s="114"/>
-      <c r="O35" s="114"/>
-      <c r="P35" s="114"/>
-      <c r="Q35" s="114"/>
-      <c r="R35" s="114"/>
-      <c r="S35" s="114"/>
-      <c r="T35" s="114"/>
-      <c r="U35" s="114"/>
-      <c r="V35" s="115"/>
-      <c r="W35" s="116"/>
+      <c r="A35" s="162"/>
+      <c r="B35" s="162"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="163"/>
+      <c r="E35" s="96"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="97"/>
+      <c r="J35" s="106"/>
+      <c r="K35" s="107"/>
+      <c r="L35" s="108"/>
+      <c r="M35" s="108"/>
+      <c r="N35" s="108"/>
+      <c r="O35" s="108"/>
+      <c r="P35" s="108"/>
+      <c r="Q35" s="108"/>
+      <c r="R35" s="108"/>
+      <c r="S35" s="108"/>
+      <c r="T35" s="108"/>
+      <c r="U35" s="108"/>
+      <c r="V35" s="109"/>
+      <c r="W35" s="110"/>
     </row>
     <row r="36" spans="1:23" ht="12" customHeight="1">
-      <c r="A36" s="52"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="161"/>
-      <c r="F36" s="89"/>
-      <c r="G36" s="89"/>
-      <c r="H36" s="89"/>
-      <c r="I36" s="103"/>
-      <c r="J36" s="107"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="95"/>
-      <c r="M36" s="95"/>
-      <c r="N36" s="95"/>
-      <c r="O36" s="95"/>
-      <c r="P36" s="95"/>
-      <c r="Q36" s="95"/>
-      <c r="R36" s="95"/>
-      <c r="S36" s="95"/>
-      <c r="T36" s="95"/>
-      <c r="U36" s="95"/>
-      <c r="V36" s="95"/>
-      <c r="W36" s="31"/>
+      <c r="A36" s="162"/>
+      <c r="B36" s="162"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="163"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="83"/>
+      <c r="G36" s="83"/>
+      <c r="H36" s="83"/>
+      <c r="I36" s="97"/>
+      <c r="J36" s="101"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="89"/>
+      <c r="M36" s="89"/>
+      <c r="N36" s="89"/>
+      <c r="O36" s="89"/>
+      <c r="P36" s="89"/>
+      <c r="Q36" s="89"/>
+      <c r="R36" s="89"/>
+      <c r="S36" s="89"/>
+      <c r="T36" s="89"/>
+      <c r="U36" s="89"/>
+      <c r="V36" s="89"/>
+      <c r="W36" s="30"/>
     </row>
     <row r="37" spans="1:23" ht="12" customHeight="1">
-      <c r="A37" s="52"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="63"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="162"/>
-      <c r="F37" s="158"/>
-      <c r="G37" s="158"/>
-      <c r="H37" s="158"/>
-      <c r="I37" s="104"/>
-      <c r="J37" s="112"/>
-      <c r="K37" s="117"/>
-      <c r="L37" s="118"/>
-      <c r="M37" s="118"/>
-      <c r="N37" s="118"/>
-      <c r="O37" s="118"/>
-      <c r="P37" s="118"/>
-      <c r="Q37" s="118"/>
-      <c r="R37" s="118"/>
-      <c r="S37" s="118"/>
-      <c r="T37" s="118"/>
-      <c r="U37" s="118"/>
-      <c r="V37" s="115"/>
-      <c r="W37" s="119"/>
+      <c r="A37" s="162"/>
+      <c r="B37" s="162"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="146"/>
+      <c r="G37" s="146"/>
+      <c r="H37" s="146"/>
+      <c r="I37" s="98"/>
+      <c r="J37" s="106"/>
+      <c r="K37" s="111"/>
+      <c r="L37" s="112"/>
+      <c r="M37" s="112"/>
+      <c r="N37" s="112"/>
+      <c r="O37" s="112"/>
+      <c r="P37" s="112"/>
+      <c r="Q37" s="112"/>
+      <c r="R37" s="112"/>
+      <c r="S37" s="112"/>
+      <c r="T37" s="112"/>
+      <c r="U37" s="112"/>
+      <c r="V37" s="109"/>
+      <c r="W37" s="113"/>
     </row>
     <row r="38" spans="1:23" ht="12" customHeight="1">
-      <c r="A38" s="52"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="179"/>
-      <c r="D38" s="180"/>
-      <c r="E38" s="163"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="101"/>
-      <c r="J38" s="98"/>
-      <c r="K38" s="77"/>
-      <c r="L38" s="78"/>
-      <c r="M38" s="78"/>
-      <c r="N38" s="78"/>
-      <c r="O38" s="78"/>
-      <c r="P38" s="78"/>
-      <c r="Q38" s="78"/>
-      <c r="R38" s="78"/>
-      <c r="S38" s="78"/>
-      <c r="T38" s="78"/>
-      <c r="U38" s="78"/>
-      <c r="V38" s="78"/>
-      <c r="W38" s="79"/>
+      <c r="A38" s="162"/>
+      <c r="B38" s="162"/>
+      <c r="C38" s="167"/>
+      <c r="D38" s="184"/>
+      <c r="E38" s="151"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="95"/>
+      <c r="J38" s="92"/>
+      <c r="K38" s="72"/>
+      <c r="L38" s="73"/>
+      <c r="M38" s="73"/>
+      <c r="N38" s="73"/>
+      <c r="O38" s="73"/>
+      <c r="P38" s="73"/>
+      <c r="Q38" s="73"/>
+      <c r="R38" s="73"/>
+      <c r="S38" s="73"/>
+      <c r="T38" s="73"/>
+      <c r="U38" s="73"/>
+      <c r="V38" s="73"/>
+      <c r="W38" s="74"/>
     </row>
     <row r="39" spans="1:23" ht="12" customHeight="1">
-      <c r="A39" s="52"/>
-      <c r="B39" s="52"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="86"/>
-      <c r="E39" s="164"/>
-      <c r="F39" s="128"/>
-      <c r="G39" s="128"/>
-      <c r="H39" s="128"/>
-      <c r="I39" s="103"/>
-      <c r="J39" s="91"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="92"/>
-      <c r="M39" s="92"/>
-      <c r="N39" s="92"/>
-      <c r="O39" s="92"/>
-      <c r="P39" s="92"/>
-      <c r="Q39" s="92"/>
-      <c r="R39" s="92"/>
-      <c r="S39" s="92"/>
-      <c r="T39" s="92"/>
-      <c r="U39" s="92"/>
-      <c r="V39" s="92"/>
-      <c r="W39" s="41"/>
+      <c r="A39" s="162"/>
+      <c r="B39" s="162"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="163"/>
+      <c r="E39" s="152"/>
+      <c r="F39" s="122"/>
+      <c r="G39" s="122"/>
+      <c r="H39" s="122"/>
+      <c r="I39" s="97"/>
+      <c r="J39" s="85"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="86"/>
+      <c r="M39" s="86"/>
+      <c r="N39" s="86"/>
+      <c r="O39" s="86"/>
+      <c r="P39" s="86"/>
+      <c r="Q39" s="86"/>
+      <c r="R39" s="86"/>
+      <c r="S39" s="86"/>
+      <c r="T39" s="86"/>
+      <c r="U39" s="86"/>
+      <c r="V39" s="86"/>
+      <c r="W39" s="40"/>
     </row>
     <row r="40" spans="1:23" ht="12" customHeight="1">
-      <c r="A40" s="52"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="85"/>
-      <c r="D40" s="86"/>
-      <c r="E40" s="161"/>
-      <c r="F40" s="89"/>
-      <c r="G40" s="89"/>
-      <c r="H40" s="165"/>
-      <c r="I40" s="103"/>
-      <c r="J40" s="99"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="95"/>
-      <c r="M40" s="95"/>
-      <c r="N40" s="95"/>
-      <c r="O40" s="95"/>
-      <c r="P40" s="95"/>
-      <c r="Q40" s="95"/>
-      <c r="R40" s="95"/>
-      <c r="S40" s="95"/>
-      <c r="T40" s="95"/>
-      <c r="U40" s="95"/>
-      <c r="V40" s="95"/>
-      <c r="W40" s="31"/>
+      <c r="A40" s="162"/>
+      <c r="B40" s="162"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="163"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="153"/>
+      <c r="I40" s="97"/>
+      <c r="J40" s="93"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="89"/>
+      <c r="M40" s="89"/>
+      <c r="N40" s="89"/>
+      <c r="O40" s="89"/>
+      <c r="P40" s="89"/>
+      <c r="Q40" s="89"/>
+      <c r="R40" s="89"/>
+      <c r="S40" s="89"/>
+      <c r="T40" s="89"/>
+      <c r="U40" s="89"/>
+      <c r="V40" s="89"/>
+      <c r="W40" s="30"/>
     </row>
     <row r="41" spans="1:23" ht="12" customHeight="1">
-      <c r="A41" s="52"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="162"/>
-      <c r="F41" s="158"/>
-      <c r="G41" s="158"/>
-      <c r="H41" s="71"/>
-      <c r="I41" s="104"/>
-      <c r="J41" s="121"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="39"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="39"/>
-      <c r="Q41" s="39"/>
-      <c r="R41" s="39"/>
-      <c r="S41" s="39"/>
-      <c r="T41" s="39"/>
-      <c r="U41" s="39"/>
-      <c r="V41" s="39"/>
-      <c r="W41" s="82"/>
+      <c r="A41" s="162"/>
+      <c r="B41" s="162"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="146"/>
+      <c r="G41" s="146"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="98"/>
+      <c r="J41" s="115"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="38"/>
+      <c r="N41" s="38"/>
+      <c r="O41" s="38"/>
+      <c r="P41" s="38"/>
+      <c r="Q41" s="38"/>
+      <c r="R41" s="38"/>
+      <c r="S41" s="38"/>
+      <c r="T41" s="38"/>
+      <c r="U41" s="38"/>
+      <c r="V41" s="38"/>
+      <c r="W41" s="77"/>
     </row>
     <row r="42" spans="1:23" ht="12" customHeight="1">
-      <c r="A42" s="52"/>
-      <c r="B42" s="52"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="180"/>
-      <c r="E42" s="163"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="101"/>
-      <c r="J42" s="98"/>
-      <c r="K42" s="77"/>
-      <c r="L42" s="78"/>
-      <c r="M42" s="78"/>
-      <c r="N42" s="78"/>
-      <c r="O42" s="78"/>
-      <c r="P42" s="78"/>
-      <c r="Q42" s="78"/>
-      <c r="R42" s="78"/>
-      <c r="S42" s="78"/>
-      <c r="T42" s="78"/>
-      <c r="U42" s="78"/>
-      <c r="V42" s="78"/>
-      <c r="W42" s="79"/>
+      <c r="A42" s="162"/>
+      <c r="B42" s="162"/>
+      <c r="C42" s="167"/>
+      <c r="D42" s="184"/>
+      <c r="E42" s="151"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="56"/>
+      <c r="I42" s="95"/>
+      <c r="J42" s="92"/>
+      <c r="K42" s="72"/>
+      <c r="L42" s="73"/>
+      <c r="M42" s="73"/>
+      <c r="N42" s="73"/>
+      <c r="O42" s="73"/>
+      <c r="P42" s="73"/>
+      <c r="Q42" s="73"/>
+      <c r="R42" s="73"/>
+      <c r="S42" s="73"/>
+      <c r="T42" s="73"/>
+      <c r="U42" s="73"/>
+      <c r="V42" s="73"/>
+      <c r="W42" s="74"/>
     </row>
     <row r="43" spans="1:23" ht="12" customHeight="1">
-      <c r="A43" s="52"/>
-      <c r="B43" s="52"/>
-      <c r="C43" s="85"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="164"/>
-      <c r="F43" s="128"/>
-      <c r="G43" s="128"/>
-      <c r="H43" s="128"/>
-      <c r="I43" s="103"/>
-      <c r="J43" s="91"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="92"/>
-      <c r="M43" s="92"/>
-      <c r="N43" s="92"/>
-      <c r="O43" s="92"/>
-      <c r="P43" s="92"/>
-      <c r="Q43" s="92"/>
-      <c r="R43" s="92"/>
-      <c r="S43" s="92"/>
-      <c r="T43" s="92"/>
-      <c r="U43" s="92"/>
-      <c r="V43" s="92"/>
-      <c r="W43" s="41"/>
+      <c r="A43" s="162"/>
+      <c r="B43" s="162"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="163"/>
+      <c r="E43" s="152"/>
+      <c r="F43" s="122"/>
+      <c r="G43" s="122"/>
+      <c r="H43" s="122"/>
+      <c r="I43" s="97"/>
+      <c r="J43" s="85"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="86"/>
+      <c r="M43" s="86"/>
+      <c r="N43" s="86"/>
+      <c r="O43" s="86"/>
+      <c r="P43" s="86"/>
+      <c r="Q43" s="86"/>
+      <c r="R43" s="86"/>
+      <c r="S43" s="86"/>
+      <c r="T43" s="86"/>
+      <c r="U43" s="86"/>
+      <c r="V43" s="86"/>
+      <c r="W43" s="40"/>
     </row>
     <row r="44" spans="1:23" ht="12" customHeight="1">
-      <c r="A44" s="52"/>
-      <c r="B44" s="52"/>
-      <c r="C44" s="85"/>
-      <c r="D44" s="86"/>
-      <c r="E44" s="161"/>
-      <c r="F44" s="89"/>
-      <c r="G44" s="89"/>
-      <c r="H44" s="165"/>
-      <c r="I44" s="103"/>
-      <c r="J44" s="99"/>
-      <c r="K44" s="43"/>
-      <c r="L44" s="95"/>
-      <c r="M44" s="95"/>
-      <c r="N44" s="95"/>
-      <c r="O44" s="95"/>
-      <c r="P44" s="95"/>
-      <c r="Q44" s="95"/>
-      <c r="R44" s="95"/>
-      <c r="S44" s="95"/>
-      <c r="T44" s="95"/>
-      <c r="U44" s="95"/>
-      <c r="V44" s="95"/>
-      <c r="W44" s="31"/>
+      <c r="A44" s="162"/>
+      <c r="B44" s="162"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="163"/>
+      <c r="E44" s="149"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="153"/>
+      <c r="I44" s="97"/>
+      <c r="J44" s="93"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="89"/>
+      <c r="M44" s="89"/>
+      <c r="N44" s="89"/>
+      <c r="O44" s="89"/>
+      <c r="P44" s="89"/>
+      <c r="Q44" s="89"/>
+      <c r="R44" s="89"/>
+      <c r="S44" s="89"/>
+      <c r="T44" s="89"/>
+      <c r="U44" s="89"/>
+      <c r="V44" s="89"/>
+      <c r="W44" s="30"/>
     </row>
     <row r="45" spans="1:23" ht="12" customHeight="1">
-      <c r="A45" s="52"/>
-      <c r="B45" s="52"/>
-      <c r="C45" s="63"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="162"/>
-      <c r="F45" s="158"/>
-      <c r="G45" s="158"/>
-      <c r="H45" s="158"/>
-      <c r="I45" s="104"/>
-      <c r="J45" s="121"/>
-      <c r="K45" s="40"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="39"/>
-      <c r="N45" s="39"/>
-      <c r="O45" s="39"/>
-      <c r="P45" s="39"/>
-      <c r="Q45" s="39"/>
-      <c r="R45" s="39"/>
-      <c r="S45" s="39"/>
-      <c r="T45" s="39"/>
-      <c r="U45" s="39"/>
-      <c r="V45" s="39"/>
-      <c r="W45" s="82"/>
+      <c r="A45" s="162"/>
+      <c r="B45" s="162"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="150"/>
+      <c r="F45" s="146"/>
+      <c r="G45" s="146"/>
+      <c r="H45" s="146"/>
+      <c r="I45" s="98"/>
+      <c r="J45" s="115"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="38"/>
+      <c r="O45" s="38"/>
+      <c r="P45" s="38"/>
+      <c r="Q45" s="38"/>
+      <c r="R45" s="38"/>
+      <c r="S45" s="38"/>
+      <c r="T45" s="38"/>
+      <c r="U45" s="38"/>
+      <c r="V45" s="38"/>
+      <c r="W45" s="77"/>
     </row>
     <row r="46" spans="1:23" ht="12" customHeight="1">
-      <c r="A46" s="52"/>
-      <c r="B46" s="52"/>
-      <c r="C46" s="179"/>
-      <c r="D46" s="180"/>
-      <c r="E46" s="83"/>
-      <c r="F46" s="122"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="61"/>
-      <c r="I46" s="166"/>
-      <c r="J46" s="98"/>
-      <c r="K46" s="77"/>
-      <c r="L46" s="78"/>
-      <c r="M46" s="78"/>
-      <c r="N46" s="78"/>
-      <c r="O46" s="78"/>
-      <c r="P46" s="78"/>
-      <c r="Q46" s="78"/>
-      <c r="R46" s="78"/>
-      <c r="S46" s="78"/>
-      <c r="T46" s="78"/>
-      <c r="U46" s="78"/>
-      <c r="V46" s="78"/>
-      <c r="W46" s="79"/>
+      <c r="A46" s="162"/>
+      <c r="B46" s="162"/>
+      <c r="C46" s="167"/>
+      <c r="D46" s="184"/>
+      <c r="E46" s="78"/>
+      <c r="F46" s="116"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="56"/>
+      <c r="I46" s="154"/>
+      <c r="J46" s="92"/>
+      <c r="K46" s="72"/>
+      <c r="L46" s="73"/>
+      <c r="M46" s="73"/>
+      <c r="N46" s="73"/>
+      <c r="O46" s="73"/>
+      <c r="P46" s="73"/>
+      <c r="Q46" s="73"/>
+      <c r="R46" s="73"/>
+      <c r="S46" s="73"/>
+      <c r="T46" s="73"/>
+      <c r="U46" s="73"/>
+      <c r="V46" s="73"/>
+      <c r="W46" s="74"/>
     </row>
     <row r="47" spans="1:23" ht="12" customHeight="1">
-      <c r="A47" s="52"/>
-      <c r="B47" s="52"/>
-      <c r="C47" s="85"/>
-      <c r="D47" s="86"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="128"/>
-      <c r="H47" s="128"/>
-      <c r="I47" s="167"/>
-      <c r="J47" s="91"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="92"/>
-      <c r="M47" s="92"/>
-      <c r="N47" s="92"/>
-      <c r="O47" s="92"/>
-      <c r="P47" s="92"/>
-      <c r="Q47" s="92"/>
-      <c r="R47" s="92"/>
-      <c r="S47" s="92"/>
-      <c r="T47" s="92"/>
-      <c r="U47" s="92"/>
-      <c r="V47" s="92"/>
-      <c r="W47" s="41"/>
+      <c r="A47" s="162"/>
+      <c r="B47" s="162"/>
+      <c r="C47" s="80"/>
+      <c r="D47" s="163"/>
+      <c r="E47" s="81"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="122"/>
+      <c r="H47" s="122"/>
+      <c r="I47" s="155"/>
+      <c r="J47" s="85"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="86"/>
+      <c r="M47" s="86"/>
+      <c r="N47" s="86"/>
+      <c r="O47" s="86"/>
+      <c r="P47" s="86"/>
+      <c r="Q47" s="86"/>
+      <c r="R47" s="86"/>
+      <c r="S47" s="86"/>
+      <c r="T47" s="86"/>
+      <c r="U47" s="86"/>
+      <c r="V47" s="86"/>
+      <c r="W47" s="40"/>
     </row>
     <row r="48" spans="1:23" ht="12" customHeight="1">
-      <c r="A48" s="52"/>
-      <c r="B48" s="52"/>
-      <c r="C48" s="85"/>
-      <c r="D48" s="86"/>
-      <c r="E48" s="87"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="123"/>
-      <c r="H48" s="124"/>
-      <c r="I48" s="103"/>
-      <c r="J48" s="125"/>
-      <c r="K48" s="43"/>
-      <c r="L48" s="95"/>
-      <c r="M48" s="95"/>
-      <c r="N48" s="95"/>
-      <c r="O48" s="95"/>
-      <c r="P48" s="95"/>
-      <c r="Q48" s="95"/>
-      <c r="R48" s="95"/>
-      <c r="S48" s="95"/>
-      <c r="T48" s="95"/>
-      <c r="U48" s="95"/>
-      <c r="V48" s="95"/>
-      <c r="W48" s="31"/>
+      <c r="A48" s="162"/>
+      <c r="B48" s="162"/>
+      <c r="C48" s="80"/>
+      <c r="D48" s="163"/>
+      <c r="E48" s="81"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="117"/>
+      <c r="H48" s="118"/>
+      <c r="I48" s="97"/>
+      <c r="J48" s="119"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="89"/>
+      <c r="M48" s="89"/>
+      <c r="N48" s="89"/>
+      <c r="O48" s="89"/>
+      <c r="P48" s="89"/>
+      <c r="Q48" s="89"/>
+      <c r="R48" s="89"/>
+      <c r="S48" s="89"/>
+      <c r="T48" s="89"/>
+      <c r="U48" s="89"/>
+      <c r="V48" s="89"/>
+      <c r="W48" s="30"/>
     </row>
     <row r="49" spans="1:23" ht="12" customHeight="1">
-      <c r="A49" s="52"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="63"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="96"/>
-      <c r="F49" s="126"/>
-      <c r="G49" s="97"/>
-      <c r="H49" s="120"/>
-      <c r="I49" s="104"/>
-      <c r="J49" s="100"/>
-      <c r="K49" s="40"/>
-      <c r="L49" s="39"/>
-      <c r="M49" s="39"/>
-      <c r="N49" s="39"/>
-      <c r="O49" s="39"/>
-      <c r="P49" s="39"/>
-      <c r="Q49" s="39"/>
-      <c r="R49" s="39"/>
-      <c r="S49" s="39"/>
-      <c r="T49" s="39"/>
-      <c r="U49" s="39"/>
-      <c r="V49" s="39"/>
-      <c r="W49" s="82"/>
+      <c r="A49" s="162"/>
+      <c r="B49" s="162"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="90"/>
+      <c r="F49" s="120"/>
+      <c r="G49" s="91"/>
+      <c r="H49" s="114"/>
+      <c r="I49" s="98"/>
+      <c r="J49" s="94"/>
+      <c r="K49" s="39"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="38"/>
+      <c r="N49" s="38"/>
+      <c r="O49" s="38"/>
+      <c r="P49" s="38"/>
+      <c r="Q49" s="38"/>
+      <c r="R49" s="38"/>
+      <c r="S49" s="38"/>
+      <c r="T49" s="38"/>
+      <c r="U49" s="38"/>
+      <c r="V49" s="38"/>
+      <c r="W49" s="77"/>
     </row>
     <row r="50" spans="1:23" ht="12" customHeight="1">
-      <c r="A50" s="52"/>
-      <c r="B50" s="52"/>
-      <c r="C50" s="179"/>
-      <c r="D50" s="180"/>
-      <c r="E50" s="83"/>
-      <c r="F50" s="122"/>
-      <c r="G50" s="61"/>
-      <c r="H50" s="61"/>
-      <c r="I50" s="166"/>
-      <c r="J50" s="98"/>
-      <c r="K50" s="77"/>
-      <c r="L50" s="78"/>
-      <c r="M50" s="78"/>
-      <c r="N50" s="78"/>
-      <c r="O50" s="78"/>
-      <c r="P50" s="78"/>
-      <c r="Q50" s="78"/>
-      <c r="R50" s="78"/>
-      <c r="S50" s="78"/>
-      <c r="T50" s="78"/>
-      <c r="U50" s="78"/>
-      <c r="V50" s="78"/>
-      <c r="W50" s="79"/>
+      <c r="A50" s="162"/>
+      <c r="B50" s="162"/>
+      <c r="C50" s="167"/>
+      <c r="D50" s="184"/>
+      <c r="E50" s="78"/>
+      <c r="F50" s="116"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="154"/>
+      <c r="J50" s="92"/>
+      <c r="K50" s="72"/>
+      <c r="L50" s="73"/>
+      <c r="M50" s="73"/>
+      <c r="N50" s="73"/>
+      <c r="O50" s="73"/>
+      <c r="P50" s="73"/>
+      <c r="Q50" s="73"/>
+      <c r="R50" s="73"/>
+      <c r="S50" s="73"/>
+      <c r="T50" s="73"/>
+      <c r="U50" s="73"/>
+      <c r="V50" s="73"/>
+      <c r="W50" s="74"/>
     </row>
     <row r="51" spans="1:23" ht="12" customHeight="1">
-      <c r="A51" s="52"/>
-      <c r="B51" s="52"/>
-      <c r="C51" s="85"/>
-      <c r="D51" s="86"/>
-      <c r="E51" s="87"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="128"/>
-      <c r="H51" s="128"/>
-      <c r="I51" s="167"/>
-      <c r="J51" s="91"/>
-      <c r="K51" s="38"/>
-      <c r="L51" s="92"/>
-      <c r="M51" s="92"/>
-      <c r="N51" s="92"/>
-      <c r="O51" s="92"/>
-      <c r="P51" s="92"/>
-      <c r="Q51" s="92"/>
-      <c r="R51" s="92"/>
-      <c r="S51" s="92"/>
-      <c r="T51" s="92"/>
-      <c r="U51" s="92"/>
-      <c r="V51" s="92"/>
-      <c r="W51" s="41"/>
+      <c r="A51" s="162"/>
+      <c r="B51" s="162"/>
+      <c r="C51" s="80"/>
+      <c r="D51" s="163"/>
+      <c r="E51" s="81"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="122"/>
+      <c r="H51" s="122"/>
+      <c r="I51" s="155"/>
+      <c r="J51" s="85"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="86"/>
+      <c r="M51" s="86"/>
+      <c r="N51" s="86"/>
+      <c r="O51" s="86"/>
+      <c r="P51" s="86"/>
+      <c r="Q51" s="86"/>
+      <c r="R51" s="86"/>
+      <c r="S51" s="86"/>
+      <c r="T51" s="86"/>
+      <c r="U51" s="86"/>
+      <c r="V51" s="86"/>
+      <c r="W51" s="40"/>
     </row>
     <row r="52" spans="1:23" ht="12" customHeight="1">
-      <c r="A52" s="52"/>
-      <c r="B52" s="52"/>
-      <c r="C52" s="85"/>
-      <c r="D52" s="86"/>
-      <c r="E52" s="87"/>
-      <c r="F52" s="56"/>
-      <c r="G52" s="123"/>
-      <c r="H52" s="124"/>
-      <c r="I52" s="103"/>
-      <c r="J52" s="125"/>
-      <c r="K52" s="43"/>
-      <c r="L52" s="95"/>
-      <c r="M52" s="95"/>
-      <c r="N52" s="95"/>
-      <c r="O52" s="95"/>
-      <c r="P52" s="95"/>
-      <c r="Q52" s="95"/>
-      <c r="R52" s="95"/>
-      <c r="S52" s="95"/>
-      <c r="T52" s="95"/>
-      <c r="U52" s="95"/>
-      <c r="V52" s="95"/>
-      <c r="W52" s="31"/>
+      <c r="A52" s="162"/>
+      <c r="B52" s="162"/>
+      <c r="C52" s="80"/>
+      <c r="D52" s="163"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="117"/>
+      <c r="H52" s="118"/>
+      <c r="I52" s="97"/>
+      <c r="J52" s="119"/>
+      <c r="K52" s="42"/>
+      <c r="L52" s="89"/>
+      <c r="M52" s="89"/>
+      <c r="N52" s="89"/>
+      <c r="O52" s="89"/>
+      <c r="P52" s="89"/>
+      <c r="Q52" s="89"/>
+      <c r="R52" s="89"/>
+      <c r="S52" s="89"/>
+      <c r="T52" s="89"/>
+      <c r="U52" s="89"/>
+      <c r="V52" s="89"/>
+      <c r="W52" s="30"/>
     </row>
     <row r="53" spans="1:23" ht="12" customHeight="1">
-      <c r="A53" s="52"/>
-      <c r="B53" s="52"/>
-      <c r="C53" s="63"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="96"/>
-      <c r="F53" s="126"/>
-      <c r="G53" s="97"/>
-      <c r="H53" s="120"/>
-      <c r="I53" s="104"/>
-      <c r="J53" s="100"/>
-      <c r="K53" s="127"/>
-      <c r="L53" s="128"/>
-      <c r="M53" s="128"/>
-      <c r="N53" s="128"/>
-      <c r="O53" s="128"/>
-      <c r="P53" s="128"/>
-      <c r="Q53" s="128"/>
-      <c r="R53" s="128"/>
-      <c r="S53" s="128"/>
-      <c r="T53" s="128"/>
-      <c r="U53" s="128"/>
-      <c r="V53" s="128"/>
-      <c r="W53" s="129"/>
+      <c r="A53" s="162"/>
+      <c r="B53" s="162"/>
+      <c r="C53" s="58"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="90"/>
+      <c r="F53" s="120"/>
+      <c r="G53" s="91"/>
+      <c r="H53" s="114"/>
+      <c r="I53" s="98"/>
+      <c r="J53" s="94"/>
+      <c r="K53" s="121"/>
+      <c r="L53" s="122"/>
+      <c r="M53" s="122"/>
+      <c r="N53" s="122"/>
+      <c r="O53" s="122"/>
+      <c r="P53" s="122"/>
+      <c r="Q53" s="122"/>
+      <c r="R53" s="122"/>
+      <c r="S53" s="122"/>
+      <c r="T53" s="122"/>
+      <c r="U53" s="122"/>
+      <c r="V53" s="122"/>
+      <c r="W53" s="123"/>
     </row>
     <row r="55" spans="1:23" ht="12" customHeight="1">
-      <c r="C55" s="130"/>
-      <c r="D55" s="131"/>
-      <c r="E55" s="131"/>
-      <c r="F55" s="131"/>
-      <c r="G55" s="131"/>
-      <c r="H55" s="131"/>
-      <c r="I55" s="131"/>
-      <c r="J55" s="175"/>
-      <c r="K55" s="132"/>
-      <c r="L55" s="132"/>
-      <c r="M55" s="132"/>
-      <c r="N55" s="132"/>
-      <c r="O55" s="132"/>
-      <c r="P55" s="132"/>
-      <c r="Q55" s="132"/>
-      <c r="R55" s="132"/>
-      <c r="S55" s="132"/>
-      <c r="T55" s="132"/>
-      <c r="U55" s="132"/>
-      <c r="V55" s="132"/>
-      <c r="W55" s="132"/>
+      <c r="C55" s="186"/>
+      <c r="D55" s="124"/>
+      <c r="E55" s="124"/>
+      <c r="F55" s="124"/>
+      <c r="G55" s="124"/>
+      <c r="H55" s="124"/>
+      <c r="I55" s="124"/>
+      <c r="J55" s="187"/>
+      <c r="K55" s="124"/>
+      <c r="L55" s="124"/>
+      <c r="M55" s="124"/>
+      <c r="N55" s="124"/>
+      <c r="O55" s="124"/>
+      <c r="P55" s="124"/>
+      <c r="Q55" s="124"/>
+      <c r="R55" s="124"/>
+      <c r="S55" s="124"/>
+      <c r="T55" s="124"/>
+      <c r="U55" s="124"/>
+      <c r="V55" s="124"/>
+      <c r="W55" s="124"/>
     </row>
     <row r="56" spans="1:23" ht="12" customHeight="1">
-      <c r="C56" s="133"/>
-      <c r="D56" s="134"/>
-      <c r="E56" s="134"/>
-      <c r="F56" s="134"/>
-      <c r="G56" s="134"/>
-      <c r="H56" s="134"/>
-      <c r="I56" s="134"/>
-      <c r="J56" s="176"/>
-      <c r="K56" s="135"/>
-      <c r="L56" s="135"/>
-      <c r="M56" s="135"/>
-      <c r="N56" s="135"/>
-      <c r="O56" s="135"/>
-      <c r="P56" s="135"/>
-      <c r="Q56" s="135"/>
-      <c r="R56" s="135"/>
-      <c r="S56" s="135"/>
-      <c r="T56" s="135"/>
-      <c r="U56" s="135"/>
-      <c r="V56" s="135"/>
-      <c r="W56" s="136"/>
+      <c r="C56" s="188"/>
+      <c r="D56" s="125"/>
+      <c r="E56" s="125"/>
+      <c r="F56" s="125"/>
+      <c r="G56" s="125"/>
+      <c r="H56" s="125"/>
+      <c r="I56" s="125"/>
+      <c r="J56" s="189"/>
+      <c r="K56" s="125"/>
+      <c r="L56" s="125"/>
+      <c r="M56" s="125"/>
+      <c r="N56" s="125"/>
+      <c r="O56" s="125"/>
+      <c r="P56" s="125"/>
+      <c r="Q56" s="125"/>
+      <c r="R56" s="125"/>
+      <c r="S56" s="125"/>
+      <c r="T56" s="125"/>
+      <c r="U56" s="125"/>
+      <c r="V56" s="125"/>
+      <c r="W56" s="126"/>
     </row>
     <row r="57" spans="1:23" ht="12" customHeight="1">
-      <c r="C57" s="133"/>
-      <c r="D57" s="134"/>
-      <c r="E57" s="134"/>
-      <c r="F57" s="134"/>
-      <c r="G57" s="134"/>
-      <c r="H57" s="134"/>
-      <c r="I57" s="134"/>
-      <c r="J57" s="176"/>
-      <c r="K57" s="135"/>
-      <c r="L57" s="135"/>
-      <c r="M57" s="135"/>
-      <c r="N57" s="135"/>
-      <c r="O57" s="135"/>
-      <c r="P57" s="135"/>
-      <c r="Q57" s="135"/>
-      <c r="R57" s="135"/>
-      <c r="S57" s="135"/>
-      <c r="T57" s="135"/>
-      <c r="U57" s="135"/>
-      <c r="V57" s="135"/>
-      <c r="W57" s="136"/>
+      <c r="C57" s="188"/>
+      <c r="D57" s="125"/>
+      <c r="E57" s="125"/>
+      <c r="F57" s="125"/>
+      <c r="G57" s="125"/>
+      <c r="H57" s="125"/>
+      <c r="I57" s="125"/>
+      <c r="J57" s="189"/>
+      <c r="K57" s="125"/>
+      <c r="L57" s="125"/>
+      <c r="M57" s="125"/>
+      <c r="N57" s="125"/>
+      <c r="O57" s="125"/>
+      <c r="P57" s="125"/>
+      <c r="Q57" s="125"/>
+      <c r="R57" s="125"/>
+      <c r="S57" s="125"/>
+      <c r="T57" s="125"/>
+      <c r="U57" s="125"/>
+      <c r="V57" s="125"/>
+      <c r="W57" s="126"/>
     </row>
     <row r="58" spans="1:23" ht="12" customHeight="1">
-      <c r="C58" s="133"/>
-      <c r="D58" s="134"/>
-      <c r="E58" s="134"/>
-      <c r="F58" s="134"/>
-      <c r="G58" s="134"/>
-      <c r="H58" s="134"/>
-      <c r="I58" s="134"/>
-      <c r="J58" s="176"/>
-      <c r="K58" s="135"/>
-      <c r="L58" s="135"/>
-      <c r="M58" s="135"/>
-      <c r="N58" s="135"/>
-      <c r="O58" s="135"/>
-      <c r="P58" s="135"/>
-      <c r="Q58" s="135"/>
-      <c r="R58" s="135"/>
-      <c r="S58" s="135"/>
-      <c r="T58" s="135"/>
-      <c r="U58" s="135"/>
-      <c r="V58" s="135"/>
-      <c r="W58" s="136"/>
+      <c r="C58" s="188"/>
+      <c r="D58" s="125"/>
+      <c r="E58" s="125"/>
+      <c r="F58" s="125"/>
+      <c r="G58" s="125"/>
+      <c r="H58" s="125"/>
+      <c r="I58" s="125"/>
+      <c r="J58" s="189"/>
+      <c r="K58" s="125"/>
+      <c r="L58" s="125"/>
+      <c r="M58" s="125"/>
+      <c r="N58" s="125"/>
+      <c r="O58" s="125"/>
+      <c r="P58" s="125"/>
+      <c r="Q58" s="125"/>
+      <c r="R58" s="125"/>
+      <c r="S58" s="125"/>
+      <c r="T58" s="125"/>
+      <c r="U58" s="125"/>
+      <c r="V58" s="125"/>
+      <c r="W58" s="126"/>
     </row>
     <row r="59" spans="1:23" ht="12" customHeight="1">
-      <c r="C59" s="133"/>
-      <c r="D59" s="134"/>
-      <c r="E59" s="134"/>
-      <c r="F59" s="134"/>
-      <c r="G59" s="134"/>
-      <c r="H59" s="134"/>
-      <c r="I59" s="134"/>
-      <c r="J59" s="176"/>
-      <c r="K59" s="135"/>
-      <c r="L59" s="135"/>
-      <c r="M59" s="135"/>
-      <c r="N59" s="135"/>
-      <c r="O59" s="135"/>
-      <c r="P59" s="135"/>
-      <c r="Q59" s="135"/>
-      <c r="R59" s="135"/>
-      <c r="S59" s="135"/>
-      <c r="T59" s="135"/>
-      <c r="U59" s="135"/>
-      <c r="V59" s="135"/>
-      <c r="W59" s="136"/>
+      <c r="C59" s="188"/>
+      <c r="D59" s="125"/>
+      <c r="E59" s="125"/>
+      <c r="F59" s="125"/>
+      <c r="G59" s="125"/>
+      <c r="H59" s="125"/>
+      <c r="I59" s="125"/>
+      <c r="J59" s="189"/>
+      <c r="K59" s="125"/>
+      <c r="L59" s="125"/>
+      <c r="M59" s="125"/>
+      <c r="N59" s="125"/>
+      <c r="O59" s="125"/>
+      <c r="P59" s="125"/>
+      <c r="Q59" s="125"/>
+      <c r="R59" s="125"/>
+      <c r="S59" s="125"/>
+      <c r="T59" s="125"/>
+      <c r="U59" s="125"/>
+      <c r="V59" s="125"/>
+      <c r="W59" s="126"/>
     </row>
     <row r="60" spans="1:23" ht="12" customHeight="1">
-      <c r="C60" s="133"/>
-      <c r="D60" s="134"/>
-      <c r="E60" s="134"/>
-      <c r="F60" s="134"/>
-      <c r="G60" s="134"/>
-      <c r="H60" s="134"/>
-      <c r="I60" s="134"/>
-      <c r="J60" s="176"/>
-      <c r="K60" s="135"/>
-      <c r="L60" s="135"/>
-      <c r="M60" s="135"/>
-      <c r="N60" s="135"/>
-      <c r="O60" s="135"/>
-      <c r="P60" s="135"/>
-      <c r="Q60" s="135"/>
-      <c r="R60" s="135"/>
-      <c r="S60" s="135"/>
-      <c r="T60" s="135"/>
-      <c r="U60" s="135"/>
-      <c r="V60" s="135"/>
-      <c r="W60" s="136"/>
+      <c r="C60" s="188"/>
+      <c r="D60" s="125"/>
+      <c r="E60" s="125"/>
+      <c r="F60" s="125"/>
+      <c r="G60" s="125"/>
+      <c r="H60" s="125"/>
+      <c r="I60" s="125"/>
+      <c r="J60" s="189"/>
+      <c r="K60" s="125"/>
+      <c r="L60" s="125"/>
+      <c r="M60" s="125"/>
+      <c r="N60" s="125"/>
+      <c r="O60" s="125"/>
+      <c r="P60" s="125"/>
+      <c r="Q60" s="125"/>
+      <c r="R60" s="125"/>
+      <c r="S60" s="125"/>
+      <c r="T60" s="125"/>
+      <c r="U60" s="125"/>
+      <c r="V60" s="125"/>
+      <c r="W60" s="126"/>
     </row>
     <row r="61" spans="1:23" ht="12" customHeight="1">
-      <c r="C61" s="133"/>
-      <c r="D61" s="134"/>
-      <c r="E61" s="134"/>
-      <c r="F61" s="134"/>
-      <c r="G61" s="134"/>
-      <c r="H61" s="134"/>
-      <c r="I61" s="134"/>
-      <c r="J61" s="176"/>
-      <c r="K61" s="135"/>
-      <c r="L61" s="135"/>
-      <c r="M61" s="135"/>
-      <c r="N61" s="135"/>
-      <c r="O61" s="135"/>
-      <c r="P61" s="135"/>
-      <c r="Q61" s="135"/>
-      <c r="R61" s="135"/>
-      <c r="S61" s="135"/>
-      <c r="T61" s="135"/>
-      <c r="U61" s="135"/>
-      <c r="V61" s="135"/>
-      <c r="W61" s="136"/>
+      <c r="C61" s="188"/>
+      <c r="D61" s="125"/>
+      <c r="E61" s="125"/>
+      <c r="F61" s="125"/>
+      <c r="G61" s="125"/>
+      <c r="H61" s="125"/>
+      <c r="I61" s="125"/>
+      <c r="J61" s="189"/>
+      <c r="K61" s="125"/>
+      <c r="L61" s="125"/>
+      <c r="M61" s="125"/>
+      <c r="N61" s="125"/>
+      <c r="O61" s="125"/>
+      <c r="P61" s="125"/>
+      <c r="Q61" s="125"/>
+      <c r="R61" s="125"/>
+      <c r="S61" s="125"/>
+      <c r="T61" s="125"/>
+      <c r="U61" s="125"/>
+      <c r="V61" s="125"/>
+      <c r="W61" s="126"/>
     </row>
     <row r="64" spans="1:23" ht="12" customHeight="1">
-      <c r="C64" s="179"/>
-      <c r="D64" s="180"/>
-      <c r="E64" s="153"/>
-      <c r="F64" s="154"/>
-      <c r="G64" s="154"/>
-      <c r="H64" s="154"/>
-      <c r="I64" s="168"/>
-      <c r="J64" s="137"/>
-      <c r="K64" s="60"/>
-      <c r="L64" s="61"/>
-      <c r="M64" s="61"/>
-      <c r="N64" s="61"/>
-      <c r="O64" s="61"/>
-      <c r="P64" s="61"/>
-      <c r="Q64" s="61"/>
-      <c r="R64" s="61"/>
-      <c r="S64" s="61"/>
-      <c r="T64" s="61"/>
-      <c r="U64" s="61"/>
-      <c r="V64" s="61"/>
-      <c r="W64" s="62"/>
+      <c r="C64" s="167"/>
+      <c r="D64" s="184"/>
+      <c r="E64" s="141"/>
+      <c r="F64" s="142"/>
+      <c r="G64" s="142"/>
+      <c r="H64" s="142"/>
+      <c r="I64" s="156"/>
+      <c r="J64" s="127"/>
+      <c r="K64" s="55"/>
+      <c r="L64" s="56"/>
+      <c r="M64" s="56"/>
+      <c r="N64" s="56"/>
+      <c r="O64" s="56"/>
+      <c r="P64" s="56"/>
+      <c r="Q64" s="56"/>
+      <c r="R64" s="56"/>
+      <c r="S64" s="56"/>
+      <c r="T64" s="56"/>
+      <c r="U64" s="56"/>
+      <c r="V64" s="56"/>
+      <c r="W64" s="57"/>
     </row>
     <row r="65" spans="1:23" ht="12" customHeight="1">
-      <c r="C65" s="63"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="155"/>
-      <c r="F65" s="72"/>
-      <c r="G65" s="72"/>
-      <c r="H65" s="72"/>
-      <c r="I65" s="169"/>
-      <c r="J65" s="66"/>
-      <c r="K65" s="138"/>
-      <c r="L65" s="139"/>
-      <c r="M65" s="139"/>
-      <c r="N65" s="139"/>
-      <c r="O65" s="139"/>
-      <c r="P65" s="139"/>
-      <c r="Q65" s="139"/>
-      <c r="R65" s="139"/>
-      <c r="S65" s="139"/>
-      <c r="T65" s="139"/>
-      <c r="U65" s="139"/>
-      <c r="V65" s="139"/>
-      <c r="W65" s="31"/>
+      <c r="C65" s="58"/>
+      <c r="D65" s="59"/>
+      <c r="E65" s="143"/>
+      <c r="F65" s="67"/>
+      <c r="G65" s="67"/>
+      <c r="H65" s="67"/>
+      <c r="I65" s="157"/>
+      <c r="J65" s="61"/>
+      <c r="K65" s="128"/>
+      <c r="L65" s="129"/>
+      <c r="M65" s="129"/>
+      <c r="N65" s="129"/>
+      <c r="O65" s="129"/>
+      <c r="P65" s="129"/>
+      <c r="Q65" s="129"/>
+      <c r="R65" s="129"/>
+      <c r="S65" s="129"/>
+      <c r="T65" s="129"/>
+      <c r="U65" s="129"/>
+      <c r="V65" s="129"/>
+      <c r="W65" s="30"/>
     </row>
     <row r="66" spans="1:23" ht="12" customHeight="1">
-      <c r="A66" s="52"/>
-      <c r="B66" s="52"/>
-      <c r="C66" s="179"/>
-      <c r="D66" s="180"/>
-      <c r="E66" s="83"/>
-      <c r="F66" s="73"/>
-      <c r="G66" s="73"/>
-      <c r="H66" s="73"/>
-      <c r="I66" s="156"/>
-      <c r="J66" s="137"/>
-      <c r="K66" s="60"/>
-      <c r="L66" s="61"/>
-      <c r="M66" s="61"/>
-      <c r="N66" s="61"/>
-      <c r="O66" s="61"/>
-      <c r="P66" s="61"/>
-      <c r="Q66" s="61"/>
-      <c r="R66" s="61"/>
-      <c r="S66" s="61"/>
-      <c r="T66" s="61"/>
-      <c r="U66" s="61"/>
-      <c r="V66" s="61"/>
-      <c r="W66" s="62"/>
+      <c r="A66" s="162"/>
+      <c r="B66" s="162"/>
+      <c r="C66" s="167"/>
+      <c r="D66" s="184"/>
+      <c r="E66" s="78"/>
+      <c r="F66" s="68"/>
+      <c r="G66" s="68"/>
+      <c r="H66" s="68"/>
+      <c r="I66" s="144"/>
+      <c r="J66" s="127"/>
+      <c r="K66" s="55"/>
+      <c r="L66" s="56"/>
+      <c r="M66" s="56"/>
+      <c r="N66" s="56"/>
+      <c r="O66" s="56"/>
+      <c r="P66" s="56"/>
+      <c r="Q66" s="56"/>
+      <c r="R66" s="56"/>
+      <c r="S66" s="56"/>
+      <c r="T66" s="56"/>
+      <c r="U66" s="56"/>
+      <c r="V66" s="56"/>
+      <c r="W66" s="57"/>
     </row>
     <row r="67" spans="1:23" ht="12" customHeight="1">
-      <c r="A67" s="52"/>
-      <c r="B67" s="52"/>
-      <c r="C67" s="85"/>
-      <c r="D67" s="86"/>
-      <c r="E67" s="87"/>
-      <c r="F67" s="88"/>
-      <c r="G67" s="89"/>
-      <c r="H67" s="89"/>
-      <c r="I67" s="90"/>
-      <c r="J67" s="94"/>
-      <c r="K67" s="28"/>
-      <c r="L67" s="29"/>
-      <c r="M67" s="29"/>
-      <c r="N67" s="29"/>
-      <c r="O67" s="29"/>
-      <c r="P67" s="29"/>
-      <c r="Q67" s="29"/>
-      <c r="R67" s="29"/>
-      <c r="S67" s="29"/>
-      <c r="T67" s="29"/>
-      <c r="U67" s="29"/>
-      <c r="V67" s="29"/>
-      <c r="W67" s="31"/>
+      <c r="A67" s="162"/>
+      <c r="B67" s="162"/>
+      <c r="C67" s="80"/>
+      <c r="D67" s="163"/>
+      <c r="E67" s="81"/>
+      <c r="F67" s="82"/>
+      <c r="G67" s="83"/>
+      <c r="H67" s="83"/>
+      <c r="I67" s="84"/>
+      <c r="J67" s="88"/>
+      <c r="K67" s="27"/>
+      <c r="L67" s="28"/>
+      <c r="M67" s="28"/>
+      <c r="N67" s="28"/>
+      <c r="O67" s="28"/>
+      <c r="P67" s="28"/>
+      <c r="Q67" s="28"/>
+      <c r="R67" s="28"/>
+      <c r="S67" s="28"/>
+      <c r="T67" s="28"/>
+      <c r="U67" s="28"/>
+      <c r="V67" s="28"/>
+      <c r="W67" s="30"/>
     </row>
     <row r="68" spans="1:23" ht="12" customHeight="1">
-      <c r="A68" s="52"/>
-      <c r="B68" s="52"/>
-      <c r="C68" s="85"/>
-      <c r="D68" s="86"/>
-      <c r="E68" s="87"/>
-      <c r="F68" s="88"/>
-      <c r="G68" s="89"/>
-      <c r="H68" s="89"/>
-      <c r="I68" s="90"/>
-      <c r="J68" s="81"/>
-      <c r="K68" s="40"/>
-      <c r="L68" s="39"/>
-      <c r="M68" s="39"/>
-      <c r="N68" s="39"/>
-      <c r="O68" s="39"/>
-      <c r="P68" s="39"/>
-      <c r="Q68" s="39"/>
-      <c r="R68" s="39"/>
-      <c r="S68" s="39"/>
-      <c r="T68" s="39"/>
-      <c r="U68" s="39"/>
-      <c r="V68" s="39"/>
-      <c r="W68" s="82"/>
+      <c r="A68" s="162"/>
+      <c r="B68" s="162"/>
+      <c r="C68" s="80"/>
+      <c r="D68" s="163"/>
+      <c r="E68" s="81"/>
+      <c r="F68" s="82"/>
+      <c r="G68" s="83"/>
+      <c r="H68" s="83"/>
+      <c r="I68" s="84"/>
+      <c r="J68" s="76"/>
+      <c r="K68" s="39"/>
+      <c r="L68" s="38"/>
+      <c r="M68" s="38"/>
+      <c r="N68" s="38"/>
+      <c r="O68" s="38"/>
+      <c r="P68" s="38"/>
+      <c r="Q68" s="38"/>
+      <c r="R68" s="38"/>
+      <c r="S68" s="38"/>
+      <c r="T68" s="38"/>
+      <c r="U68" s="38"/>
+      <c r="V68" s="38"/>
+      <c r="W68" s="77"/>
     </row>
     <row r="69" spans="1:23" ht="12" customHeight="1">
-      <c r="A69" s="52"/>
-      <c r="B69" s="52"/>
-      <c r="C69" s="63"/>
-      <c r="D69" s="64"/>
-      <c r="E69" s="96"/>
-      <c r="F69" s="157"/>
-      <c r="G69" s="158"/>
-      <c r="H69" s="158"/>
-      <c r="I69" s="159"/>
-      <c r="J69" s="66"/>
-      <c r="K69" s="138"/>
-      <c r="L69" s="139"/>
-      <c r="M69" s="139"/>
-      <c r="N69" s="139"/>
-      <c r="O69" s="139"/>
-      <c r="P69" s="139"/>
-      <c r="Q69" s="139"/>
-      <c r="R69" s="139"/>
-      <c r="S69" s="139"/>
-      <c r="T69" s="139"/>
-      <c r="U69" s="139"/>
-      <c r="V69" s="139"/>
-      <c r="W69" s="31"/>
+      <c r="A69" s="162"/>
+      <c r="B69" s="162"/>
+      <c r="C69" s="58"/>
+      <c r="D69" s="59"/>
+      <c r="E69" s="90"/>
+      <c r="F69" s="145"/>
+      <c r="G69" s="146"/>
+      <c r="H69" s="146"/>
+      <c r="I69" s="147"/>
+      <c r="J69" s="61"/>
+      <c r="K69" s="128"/>
+      <c r="L69" s="129"/>
+      <c r="M69" s="129"/>
+      <c r="N69" s="129"/>
+      <c r="O69" s="129"/>
+      <c r="P69" s="129"/>
+      <c r="Q69" s="129"/>
+      <c r="R69" s="129"/>
+      <c r="S69" s="129"/>
+      <c r="T69" s="129"/>
+      <c r="U69" s="129"/>
+      <c r="V69" s="129"/>
+      <c r="W69" s="30"/>
     </row>
     <row r="70" spans="1:23" ht="12" customHeight="1">
-      <c r="A70" s="52"/>
-      <c r="B70" s="52"/>
-      <c r="C70" s="179"/>
-      <c r="D70" s="180"/>
-      <c r="E70" s="83"/>
-      <c r="F70" s="73"/>
-      <c r="G70" s="73"/>
-      <c r="H70" s="73"/>
-      <c r="I70" s="156"/>
-      <c r="J70" s="137"/>
-      <c r="K70" s="60"/>
-      <c r="L70" s="61"/>
-      <c r="M70" s="61"/>
-      <c r="N70" s="61"/>
-      <c r="O70" s="61"/>
-      <c r="P70" s="61"/>
-      <c r="Q70" s="61"/>
-      <c r="R70" s="61"/>
-      <c r="S70" s="61"/>
-      <c r="T70" s="61"/>
-      <c r="U70" s="61"/>
-      <c r="V70" s="61"/>
-      <c r="W70" s="62"/>
+      <c r="A70" s="162"/>
+      <c r="B70" s="162"/>
+      <c r="C70" s="167"/>
+      <c r="D70" s="184"/>
+      <c r="E70" s="78"/>
+      <c r="F70" s="68"/>
+      <c r="G70" s="68"/>
+      <c r="H70" s="68"/>
+      <c r="I70" s="144"/>
+      <c r="J70" s="127"/>
+      <c r="K70" s="55"/>
+      <c r="L70" s="56"/>
+      <c r="M70" s="56"/>
+      <c r="N70" s="56"/>
+      <c r="O70" s="56"/>
+      <c r="P70" s="56"/>
+      <c r="Q70" s="56"/>
+      <c r="R70" s="56"/>
+      <c r="S70" s="56"/>
+      <c r="T70" s="56"/>
+      <c r="U70" s="56"/>
+      <c r="V70" s="56"/>
+      <c r="W70" s="57"/>
     </row>
     <row r="71" spans="1:23" ht="12" customHeight="1">
-      <c r="A71" s="52"/>
-      <c r="B71" s="52"/>
-      <c r="C71" s="85"/>
-      <c r="D71" s="86"/>
-      <c r="E71" s="87"/>
-      <c r="F71" s="88"/>
-      <c r="G71" s="89"/>
-      <c r="H71" s="89"/>
-      <c r="I71" s="90"/>
-      <c r="J71" s="94"/>
-      <c r="K71" s="28"/>
-      <c r="L71" s="29"/>
-      <c r="M71" s="29"/>
-      <c r="N71" s="29"/>
-      <c r="O71" s="29"/>
-      <c r="P71" s="29"/>
-      <c r="Q71" s="29"/>
-      <c r="R71" s="29"/>
-      <c r="S71" s="29"/>
-      <c r="T71" s="29"/>
-      <c r="U71" s="29"/>
-      <c r="V71" s="29"/>
-      <c r="W71" s="140"/>
+      <c r="A71" s="162"/>
+      <c r="B71" s="162"/>
+      <c r="C71" s="80"/>
+      <c r="D71" s="163"/>
+      <c r="E71" s="81"/>
+      <c r="F71" s="82"/>
+      <c r="G71" s="83"/>
+      <c r="H71" s="83"/>
+      <c r="I71" s="84"/>
+      <c r="J71" s="88"/>
+      <c r="K71" s="27"/>
+      <c r="L71" s="28"/>
+      <c r="M71" s="28"/>
+      <c r="N71" s="28"/>
+      <c r="O71" s="28"/>
+      <c r="P71" s="28"/>
+      <c r="Q71" s="28"/>
+      <c r="R71" s="28"/>
+      <c r="S71" s="28"/>
+      <c r="T71" s="28"/>
+      <c r="U71" s="28"/>
+      <c r="V71" s="28"/>
+      <c r="W71" s="130"/>
     </row>
     <row r="72" spans="1:23" ht="12" customHeight="1">
-      <c r="A72" s="52"/>
-      <c r="B72" s="52"/>
-      <c r="C72" s="85"/>
-      <c r="D72" s="86"/>
-      <c r="E72" s="87"/>
-      <c r="F72" s="88"/>
-      <c r="G72" s="89"/>
-      <c r="H72" s="89"/>
-      <c r="I72" s="90"/>
-      <c r="J72" s="81"/>
-      <c r="K72" s="40"/>
-      <c r="L72" s="39"/>
-      <c r="M72" s="39"/>
-      <c r="N72" s="39"/>
-      <c r="O72" s="39"/>
-      <c r="P72" s="39"/>
-      <c r="Q72" s="39"/>
-      <c r="R72" s="39"/>
-      <c r="S72" s="39"/>
-      <c r="T72" s="39"/>
-      <c r="U72" s="39"/>
-      <c r="V72" s="39"/>
-      <c r="W72" s="82"/>
+      <c r="A72" s="162"/>
+      <c r="B72" s="162"/>
+      <c r="C72" s="80"/>
+      <c r="D72" s="163"/>
+      <c r="E72" s="81"/>
+      <c r="F72" s="82"/>
+      <c r="G72" s="83"/>
+      <c r="H72" s="83"/>
+      <c r="I72" s="84"/>
+      <c r="J72" s="76"/>
+      <c r="K72" s="39"/>
+      <c r="L72" s="38"/>
+      <c r="M72" s="38"/>
+      <c r="N72" s="38"/>
+      <c r="O72" s="38"/>
+      <c r="P72" s="38"/>
+      <c r="Q72" s="38"/>
+      <c r="R72" s="38"/>
+      <c r="S72" s="38"/>
+      <c r="T72" s="38"/>
+      <c r="U72" s="38"/>
+      <c r="V72" s="38"/>
+      <c r="W72" s="77"/>
     </row>
     <row r="73" spans="1:23" ht="12" customHeight="1">
-      <c r="A73" s="52"/>
-      <c r="B73" s="52"/>
-      <c r="C73" s="63"/>
-      <c r="D73" s="64"/>
-      <c r="E73" s="96"/>
-      <c r="F73" s="157"/>
-      <c r="G73" s="158"/>
-      <c r="H73" s="158"/>
-      <c r="I73" s="159"/>
-      <c r="J73" s="66"/>
-      <c r="K73" s="138"/>
-      <c r="L73" s="139"/>
-      <c r="M73" s="139"/>
-      <c r="N73" s="139"/>
-      <c r="O73" s="139"/>
-      <c r="P73" s="139"/>
-      <c r="Q73" s="139"/>
-      <c r="R73" s="139"/>
-      <c r="S73" s="139"/>
-      <c r="T73" s="139"/>
-      <c r="U73" s="139"/>
-      <c r="V73" s="139"/>
-      <c r="W73" s="31"/>
+      <c r="A73" s="162"/>
+      <c r="B73" s="162"/>
+      <c r="C73" s="58"/>
+      <c r="D73" s="59"/>
+      <c r="E73" s="90"/>
+      <c r="F73" s="145"/>
+      <c r="G73" s="146"/>
+      <c r="H73" s="146"/>
+      <c r="I73" s="147"/>
+      <c r="J73" s="61"/>
+      <c r="K73" s="128"/>
+      <c r="L73" s="129"/>
+      <c r="M73" s="129"/>
+      <c r="N73" s="129"/>
+      <c r="O73" s="129"/>
+      <c r="P73" s="129"/>
+      <c r="Q73" s="129"/>
+      <c r="R73" s="129"/>
+      <c r="S73" s="129"/>
+      <c r="T73" s="129"/>
+      <c r="U73" s="129"/>
+      <c r="V73" s="129"/>
+      <c r="W73" s="30"/>
     </row>
     <row r="74" spans="1:23" ht="12" customHeight="1">
-      <c r="A74" s="52"/>
-      <c r="B74" s="52"/>
-      <c r="C74" s="179"/>
-      <c r="D74" s="180"/>
-      <c r="E74" s="160"/>
-      <c r="F74" s="73"/>
-      <c r="G74" s="73"/>
-      <c r="H74" s="73"/>
-      <c r="I74" s="101"/>
-      <c r="J74" s="137"/>
-      <c r="K74" s="60"/>
-      <c r="L74" s="61"/>
-      <c r="M74" s="61"/>
-      <c r="N74" s="61"/>
-      <c r="O74" s="61"/>
-      <c r="P74" s="61"/>
-      <c r="Q74" s="61"/>
-      <c r="R74" s="61"/>
-      <c r="S74" s="61"/>
-      <c r="T74" s="61"/>
-      <c r="U74" s="61"/>
-      <c r="V74" s="61"/>
-      <c r="W74" s="62"/>
+      <c r="A74" s="162"/>
+      <c r="B74" s="162"/>
+      <c r="C74" s="167"/>
+      <c r="D74" s="184"/>
+      <c r="E74" s="148"/>
+      <c r="F74" s="68"/>
+      <c r="G74" s="68"/>
+      <c r="H74" s="68"/>
+      <c r="I74" s="95"/>
+      <c r="J74" s="127"/>
+      <c r="K74" s="55"/>
+      <c r="L74" s="56"/>
+      <c r="M74" s="56"/>
+      <c r="N74" s="56"/>
+      <c r="O74" s="56"/>
+      <c r="P74" s="56"/>
+      <c r="Q74" s="56"/>
+      <c r="R74" s="56"/>
+      <c r="S74" s="56"/>
+      <c r="T74" s="56"/>
+      <c r="U74" s="56"/>
+      <c r="V74" s="56"/>
+      <c r="W74" s="57"/>
     </row>
     <row r="75" spans="1:23" ht="12" customHeight="1">
-      <c r="A75" s="52"/>
-      <c r="B75" s="52"/>
-      <c r="C75" s="85"/>
-      <c r="D75" s="86"/>
-      <c r="E75" s="161"/>
-      <c r="F75" s="89"/>
-      <c r="G75" s="89"/>
-      <c r="H75" s="89"/>
-      <c r="I75" s="103"/>
-      <c r="J75" s="94"/>
-      <c r="K75" s="28"/>
-      <c r="L75" s="29"/>
-      <c r="M75" s="29"/>
-      <c r="N75" s="29"/>
-      <c r="O75" s="29"/>
-      <c r="P75" s="29"/>
-      <c r="Q75" s="29"/>
-      <c r="R75" s="29"/>
-      <c r="S75" s="29"/>
-      <c r="T75" s="29"/>
-      <c r="U75" s="29"/>
-      <c r="V75" s="29"/>
-      <c r="W75" s="31"/>
+      <c r="A75" s="162"/>
+      <c r="B75" s="162"/>
+      <c r="C75" s="80"/>
+      <c r="D75" s="163"/>
+      <c r="E75" s="149"/>
+      <c r="F75" s="83"/>
+      <c r="G75" s="83"/>
+      <c r="H75" s="83"/>
+      <c r="I75" s="97"/>
+      <c r="J75" s="88"/>
+      <c r="K75" s="27"/>
+      <c r="L75" s="28"/>
+      <c r="M75" s="28"/>
+      <c r="N75" s="28"/>
+      <c r="O75" s="28"/>
+      <c r="P75" s="28"/>
+      <c r="Q75" s="28"/>
+      <c r="R75" s="28"/>
+      <c r="S75" s="28"/>
+      <c r="T75" s="28"/>
+      <c r="U75" s="28"/>
+      <c r="V75" s="28"/>
+      <c r="W75" s="30"/>
     </row>
     <row r="76" spans="1:23" ht="12" customHeight="1">
-      <c r="A76" s="52"/>
-      <c r="B76" s="52"/>
-      <c r="C76" s="85"/>
-      <c r="D76" s="86"/>
-      <c r="E76" s="161"/>
-      <c r="F76" s="89"/>
-      <c r="G76" s="89"/>
-      <c r="H76" s="89"/>
-      <c r="I76" s="103"/>
-      <c r="J76" s="81"/>
-      <c r="K76" s="40"/>
-      <c r="L76" s="39"/>
-      <c r="M76" s="39"/>
-      <c r="N76" s="39"/>
-      <c r="O76" s="39"/>
-      <c r="P76" s="39"/>
-      <c r="Q76" s="39"/>
-      <c r="R76" s="39"/>
-      <c r="S76" s="39"/>
-      <c r="T76" s="39"/>
-      <c r="U76" s="39"/>
-      <c r="V76" s="39"/>
-      <c r="W76" s="82"/>
+      <c r="A76" s="162"/>
+      <c r="B76" s="162"/>
+      <c r="C76" s="80"/>
+      <c r="D76" s="163"/>
+      <c r="E76" s="149"/>
+      <c r="F76" s="83"/>
+      <c r="G76" s="83"/>
+      <c r="H76" s="83"/>
+      <c r="I76" s="97"/>
+      <c r="J76" s="76"/>
+      <c r="K76" s="39"/>
+      <c r="L76" s="38"/>
+      <c r="M76" s="38"/>
+      <c r="N76" s="38"/>
+      <c r="O76" s="38"/>
+      <c r="P76" s="38"/>
+      <c r="Q76" s="38"/>
+      <c r="R76" s="38"/>
+      <c r="S76" s="38"/>
+      <c r="T76" s="38"/>
+      <c r="U76" s="38"/>
+      <c r="V76" s="38"/>
+      <c r="W76" s="77"/>
     </row>
     <row r="77" spans="1:23" ht="12" customHeight="1">
-      <c r="A77" s="52"/>
-      <c r="B77" s="52"/>
-      <c r="C77" s="63"/>
-      <c r="D77" s="64"/>
-      <c r="E77" s="162"/>
-      <c r="F77" s="158"/>
-      <c r="G77" s="158"/>
-      <c r="H77" s="158"/>
-      <c r="I77" s="104"/>
-      <c r="J77" s="66"/>
-      <c r="K77" s="138"/>
-      <c r="L77" s="139"/>
-      <c r="M77" s="139"/>
-      <c r="N77" s="139"/>
-      <c r="O77" s="139"/>
-      <c r="P77" s="139"/>
-      <c r="Q77" s="139"/>
-      <c r="R77" s="139"/>
-      <c r="S77" s="139"/>
-      <c r="T77" s="139"/>
-      <c r="U77" s="139"/>
-      <c r="V77" s="139"/>
-      <c r="W77" s="31"/>
+      <c r="A77" s="162"/>
+      <c r="B77" s="162"/>
+      <c r="C77" s="58"/>
+      <c r="D77" s="59"/>
+      <c r="E77" s="150"/>
+      <c r="F77" s="146"/>
+      <c r="G77" s="146"/>
+      <c r="H77" s="146"/>
+      <c r="I77" s="98"/>
+      <c r="J77" s="61"/>
+      <c r="K77" s="128"/>
+      <c r="L77" s="129"/>
+      <c r="M77" s="129"/>
+      <c r="N77" s="129"/>
+      <c r="O77" s="129"/>
+      <c r="P77" s="129"/>
+      <c r="Q77" s="129"/>
+      <c r="R77" s="129"/>
+      <c r="S77" s="129"/>
+      <c r="T77" s="129"/>
+      <c r="U77" s="129"/>
+      <c r="V77" s="129"/>
+      <c r="W77" s="30"/>
     </row>
     <row r="78" spans="1:23" ht="12" customHeight="1">
-      <c r="A78" s="52"/>
-      <c r="B78" s="52"/>
-      <c r="C78" s="179"/>
-      <c r="D78" s="180"/>
-      <c r="E78" s="105"/>
-      <c r="F78" s="106"/>
-      <c r="G78" s="84"/>
-      <c r="H78" s="106"/>
-      <c r="I78" s="101"/>
-      <c r="J78" s="137"/>
-      <c r="K78" s="108"/>
-      <c r="L78" s="109"/>
-      <c r="M78" s="109"/>
-      <c r="N78" s="109"/>
-      <c r="O78" s="109"/>
-      <c r="P78" s="109"/>
-      <c r="Q78" s="109"/>
-      <c r="R78" s="109"/>
-      <c r="S78" s="109"/>
-      <c r="T78" s="109"/>
-      <c r="U78" s="109"/>
-      <c r="V78" s="61"/>
-      <c r="W78" s="111"/>
+      <c r="A78" s="162"/>
+      <c r="B78" s="162"/>
+      <c r="C78" s="167"/>
+      <c r="D78" s="184"/>
+      <c r="E78" s="99"/>
+      <c r="F78" s="100"/>
+      <c r="G78" s="79"/>
+      <c r="H78" s="100"/>
+      <c r="I78" s="95"/>
+      <c r="J78" s="127"/>
+      <c r="K78" s="102"/>
+      <c r="L78" s="103"/>
+      <c r="M78" s="103"/>
+      <c r="N78" s="103"/>
+      <c r="O78" s="103"/>
+      <c r="P78" s="103"/>
+      <c r="Q78" s="103"/>
+      <c r="R78" s="103"/>
+      <c r="S78" s="103"/>
+      <c r="T78" s="103"/>
+      <c r="U78" s="103"/>
+      <c r="V78" s="56"/>
+      <c r="W78" s="105"/>
     </row>
     <row r="79" spans="1:23" ht="12" customHeight="1">
-      <c r="A79" s="52"/>
-      <c r="B79" s="52"/>
-      <c r="C79" s="85"/>
-      <c r="D79" s="86"/>
-      <c r="E79" s="161"/>
-      <c r="F79" s="89"/>
-      <c r="G79" s="89"/>
-      <c r="H79" s="89"/>
-      <c r="I79" s="103"/>
-      <c r="J79" s="94"/>
-      <c r="K79" s="113"/>
-      <c r="L79" s="114"/>
-      <c r="M79" s="114"/>
-      <c r="N79" s="114"/>
-      <c r="O79" s="114"/>
-      <c r="P79" s="114"/>
-      <c r="Q79" s="114"/>
-      <c r="R79" s="114"/>
-      <c r="S79" s="114"/>
-      <c r="T79" s="114"/>
-      <c r="U79" s="114"/>
-      <c r="V79" s="29"/>
-      <c r="W79" s="116"/>
+      <c r="A79" s="162"/>
+      <c r="B79" s="162"/>
+      <c r="C79" s="80"/>
+      <c r="D79" s="163"/>
+      <c r="E79" s="149"/>
+      <c r="F79" s="83"/>
+      <c r="G79" s="83"/>
+      <c r="H79" s="83"/>
+      <c r="I79" s="97"/>
+      <c r="J79" s="88"/>
+      <c r="K79" s="107"/>
+      <c r="L79" s="108"/>
+      <c r="M79" s="108"/>
+      <c r="N79" s="108"/>
+      <c r="O79" s="108"/>
+      <c r="P79" s="108"/>
+      <c r="Q79" s="108"/>
+      <c r="R79" s="108"/>
+      <c r="S79" s="108"/>
+      <c r="T79" s="108"/>
+      <c r="U79" s="108"/>
+      <c r="V79" s="28"/>
+      <c r="W79" s="110"/>
     </row>
     <row r="80" spans="1:23" ht="12" customHeight="1">
-      <c r="A80" s="52"/>
-      <c r="B80" s="52"/>
-      <c r="C80" s="85"/>
-      <c r="D80" s="86"/>
-      <c r="E80" s="161"/>
-      <c r="F80" s="89"/>
-      <c r="G80" s="89"/>
-      <c r="H80" s="89"/>
-      <c r="I80" s="103"/>
-      <c r="J80" s="81"/>
-      <c r="K80" s="40"/>
-      <c r="L80" s="39"/>
-      <c r="M80" s="39"/>
-      <c r="N80" s="39"/>
-      <c r="O80" s="39"/>
-      <c r="P80" s="39"/>
-      <c r="Q80" s="39"/>
-      <c r="R80" s="39"/>
-      <c r="S80" s="39"/>
-      <c r="T80" s="39"/>
-      <c r="U80" s="39"/>
-      <c r="V80" s="39"/>
-      <c r="W80" s="82"/>
+      <c r="A80" s="162"/>
+      <c r="B80" s="162"/>
+      <c r="C80" s="80"/>
+      <c r="D80" s="163"/>
+      <c r="E80" s="149"/>
+      <c r="F80" s="83"/>
+      <c r="G80" s="83"/>
+      <c r="H80" s="83"/>
+      <c r="I80" s="97"/>
+      <c r="J80" s="76"/>
+      <c r="K80" s="39"/>
+      <c r="L80" s="38"/>
+      <c r="M80" s="38"/>
+      <c r="N80" s="38"/>
+      <c r="O80" s="38"/>
+      <c r="P80" s="38"/>
+      <c r="Q80" s="38"/>
+      <c r="R80" s="38"/>
+      <c r="S80" s="38"/>
+      <c r="T80" s="38"/>
+      <c r="U80" s="38"/>
+      <c r="V80" s="38"/>
+      <c r="W80" s="77"/>
     </row>
     <row r="81" spans="1:23" ht="12" customHeight="1">
-      <c r="A81" s="52"/>
-      <c r="B81" s="52"/>
-      <c r="C81" s="63"/>
-      <c r="D81" s="64"/>
-      <c r="E81" s="162"/>
-      <c r="F81" s="158"/>
-      <c r="G81" s="158"/>
-      <c r="H81" s="158"/>
-      <c r="I81" s="104"/>
-      <c r="J81" s="66"/>
-      <c r="K81" s="117"/>
-      <c r="L81" s="118"/>
-      <c r="M81" s="118"/>
-      <c r="N81" s="118"/>
-      <c r="O81" s="118"/>
-      <c r="P81" s="118"/>
-      <c r="Q81" s="118"/>
-      <c r="R81" s="118"/>
-      <c r="S81" s="118"/>
-      <c r="T81" s="118"/>
-      <c r="U81" s="118"/>
-      <c r="V81" s="139"/>
-      <c r="W81" s="119"/>
+      <c r="A81" s="162"/>
+      <c r="B81" s="162"/>
+      <c r="C81" s="58"/>
+      <c r="D81" s="59"/>
+      <c r="E81" s="150"/>
+      <c r="F81" s="146"/>
+      <c r="G81" s="146"/>
+      <c r="H81" s="146"/>
+      <c r="I81" s="98"/>
+      <c r="J81" s="61"/>
+      <c r="K81" s="111"/>
+      <c r="L81" s="112"/>
+      <c r="M81" s="112"/>
+      <c r="N81" s="112"/>
+      <c r="O81" s="112"/>
+      <c r="P81" s="112"/>
+      <c r="Q81" s="112"/>
+      <c r="R81" s="112"/>
+      <c r="S81" s="112"/>
+      <c r="T81" s="112"/>
+      <c r="U81" s="112"/>
+      <c r="V81" s="129"/>
+      <c r="W81" s="113"/>
     </row>
     <row r="82" spans="1:23" ht="12" customHeight="1">
-      <c r="A82" s="52"/>
-      <c r="B82" s="52"/>
-      <c r="C82" s="179"/>
-      <c r="D82" s="180"/>
-      <c r="E82" s="163"/>
-      <c r="F82" s="61"/>
-      <c r="G82" s="61"/>
-      <c r="H82" s="61"/>
-      <c r="I82" s="101"/>
-      <c r="J82" s="141"/>
-      <c r="K82" s="60"/>
-      <c r="L82" s="61"/>
-      <c r="M82" s="61"/>
-      <c r="N82" s="61"/>
-      <c r="O82" s="61"/>
-      <c r="P82" s="61"/>
-      <c r="Q82" s="61"/>
-      <c r="R82" s="61"/>
-      <c r="S82" s="61"/>
-      <c r="T82" s="61"/>
-      <c r="U82" s="61"/>
-      <c r="V82" s="61"/>
-      <c r="W82" s="62"/>
+      <c r="A82" s="162"/>
+      <c r="B82" s="162"/>
+      <c r="C82" s="167"/>
+      <c r="D82" s="184"/>
+      <c r="E82" s="151"/>
+      <c r="F82" s="56"/>
+      <c r="G82" s="56"/>
+      <c r="H82" s="56"/>
+      <c r="I82" s="95"/>
+      <c r="J82" s="131"/>
+      <c r="K82" s="55"/>
+      <c r="L82" s="56"/>
+      <c r="M82" s="56"/>
+      <c r="N82" s="56"/>
+      <c r="O82" s="56"/>
+      <c r="P82" s="56"/>
+      <c r="Q82" s="56"/>
+      <c r="R82" s="56"/>
+      <c r="S82" s="56"/>
+      <c r="T82" s="56"/>
+      <c r="U82" s="56"/>
+      <c r="V82" s="56"/>
+      <c r="W82" s="57"/>
     </row>
     <row r="83" spans="1:23" ht="12" customHeight="1">
-      <c r="A83" s="52"/>
-      <c r="B83" s="52"/>
-      <c r="C83" s="85"/>
-      <c r="D83" s="86"/>
-      <c r="E83" s="164"/>
-      <c r="F83" s="128"/>
-      <c r="G83" s="128"/>
-      <c r="H83" s="128"/>
-      <c r="I83" s="103"/>
-      <c r="J83" s="107"/>
-      <c r="K83" s="28"/>
-      <c r="L83" s="29"/>
-      <c r="M83" s="29"/>
-      <c r="N83" s="29"/>
-      <c r="O83" s="29"/>
-      <c r="P83" s="29"/>
-      <c r="Q83" s="29"/>
-      <c r="R83" s="29"/>
-      <c r="S83" s="29"/>
-      <c r="T83" s="29"/>
-      <c r="U83" s="29"/>
-      <c r="V83" s="29"/>
-      <c r="W83" s="31"/>
+      <c r="A83" s="162"/>
+      <c r="B83" s="162"/>
+      <c r="C83" s="80"/>
+      <c r="D83" s="163"/>
+      <c r="E83" s="152"/>
+      <c r="F83" s="122"/>
+      <c r="G83" s="122"/>
+      <c r="H83" s="122"/>
+      <c r="I83" s="97"/>
+      <c r="J83" s="101"/>
+      <c r="K83" s="27"/>
+      <c r="L83" s="28"/>
+      <c r="M83" s="28"/>
+      <c r="N83" s="28"/>
+      <c r="O83" s="28"/>
+      <c r="P83" s="28"/>
+      <c r="Q83" s="28"/>
+      <c r="R83" s="28"/>
+      <c r="S83" s="28"/>
+      <c r="T83" s="28"/>
+      <c r="U83" s="28"/>
+      <c r="V83" s="28"/>
+      <c r="W83" s="30"/>
     </row>
     <row r="84" spans="1:23" ht="12" customHeight="1">
-      <c r="A84" s="52"/>
-      <c r="B84" s="52"/>
-      <c r="C84" s="85"/>
-      <c r="D84" s="86"/>
-      <c r="E84" s="161"/>
-      <c r="F84" s="89"/>
-      <c r="G84" s="89"/>
-      <c r="H84" s="165"/>
-      <c r="I84" s="103"/>
-      <c r="J84" s="142"/>
-      <c r="K84" s="40"/>
-      <c r="L84" s="39"/>
-      <c r="M84" s="39"/>
-      <c r="N84" s="39"/>
-      <c r="O84" s="39"/>
-      <c r="P84" s="39"/>
-      <c r="Q84" s="39"/>
-      <c r="R84" s="39"/>
-      <c r="S84" s="39"/>
-      <c r="T84" s="39"/>
-      <c r="U84" s="39"/>
-      <c r="V84" s="39"/>
-      <c r="W84" s="82"/>
+      <c r="A84" s="162"/>
+      <c r="B84" s="162"/>
+      <c r="C84" s="80"/>
+      <c r="D84" s="163"/>
+      <c r="E84" s="149"/>
+      <c r="F84" s="83"/>
+      <c r="G84" s="83"/>
+      <c r="H84" s="153"/>
+      <c r="I84" s="97"/>
+      <c r="J84" s="132"/>
+      <c r="K84" s="39"/>
+      <c r="L84" s="38"/>
+      <c r="M84" s="38"/>
+      <c r="N84" s="38"/>
+      <c r="O84" s="38"/>
+      <c r="P84" s="38"/>
+      <c r="Q84" s="38"/>
+      <c r="R84" s="38"/>
+      <c r="S84" s="38"/>
+      <c r="T84" s="38"/>
+      <c r="U84" s="38"/>
+      <c r="V84" s="38"/>
+      <c r="W84" s="77"/>
     </row>
     <row r="85" spans="1:23" ht="12" customHeight="1">
-      <c r="A85" s="52"/>
-      <c r="B85" s="52"/>
-      <c r="C85" s="63"/>
-      <c r="D85" s="64"/>
-      <c r="E85" s="162"/>
-      <c r="F85" s="158"/>
-      <c r="G85" s="158"/>
-      <c r="H85" s="71"/>
-      <c r="I85" s="104"/>
-      <c r="J85" s="143"/>
-      <c r="K85" s="138"/>
-      <c r="L85" s="139"/>
-      <c r="M85" s="139"/>
-      <c r="N85" s="139"/>
-      <c r="O85" s="139"/>
-      <c r="P85" s="139"/>
-      <c r="Q85" s="139"/>
-      <c r="R85" s="139"/>
-      <c r="S85" s="139"/>
-      <c r="T85" s="139"/>
-      <c r="U85" s="139"/>
-      <c r="V85" s="139"/>
-      <c r="W85" s="31"/>
+      <c r="A85" s="162"/>
+      <c r="B85" s="162"/>
+      <c r="C85" s="58"/>
+      <c r="D85" s="59"/>
+      <c r="E85" s="150"/>
+      <c r="F85" s="146"/>
+      <c r="G85" s="146"/>
+      <c r="H85" s="66"/>
+      <c r="I85" s="98"/>
+      <c r="J85" s="133"/>
+      <c r="K85" s="128"/>
+      <c r="L85" s="129"/>
+      <c r="M85" s="129"/>
+      <c r="N85" s="129"/>
+      <c r="O85" s="129"/>
+      <c r="P85" s="129"/>
+      <c r="Q85" s="129"/>
+      <c r="R85" s="129"/>
+      <c r="S85" s="129"/>
+      <c r="T85" s="129"/>
+      <c r="U85" s="129"/>
+      <c r="V85" s="129"/>
+      <c r="W85" s="30"/>
     </row>
     <row r="86" spans="1:23" ht="12" customHeight="1">
-      <c r="A86" s="52"/>
-      <c r="B86" s="52"/>
-      <c r="C86" s="179"/>
-      <c r="D86" s="180"/>
-      <c r="E86" s="163"/>
-      <c r="F86" s="61"/>
-      <c r="G86" s="61"/>
-      <c r="H86" s="61"/>
-      <c r="I86" s="101"/>
-      <c r="J86" s="141"/>
-      <c r="K86" s="60"/>
-      <c r="L86" s="61"/>
-      <c r="M86" s="61"/>
-      <c r="N86" s="61"/>
-      <c r="O86" s="61"/>
-      <c r="P86" s="61"/>
-      <c r="Q86" s="61"/>
-      <c r="R86" s="61"/>
-      <c r="S86" s="61"/>
-      <c r="T86" s="61"/>
-      <c r="U86" s="61"/>
-      <c r="V86" s="61"/>
-      <c r="W86" s="62"/>
+      <c r="A86" s="162"/>
+      <c r="B86" s="162"/>
+      <c r="C86" s="167"/>
+      <c r="D86" s="184"/>
+      <c r="E86" s="151"/>
+      <c r="F86" s="56"/>
+      <c r="G86" s="56"/>
+      <c r="H86" s="56"/>
+      <c r="I86" s="95"/>
+      <c r="J86" s="131"/>
+      <c r="K86" s="55"/>
+      <c r="L86" s="56"/>
+      <c r="M86" s="56"/>
+      <c r="N86" s="56"/>
+      <c r="O86" s="56"/>
+      <c r="P86" s="56"/>
+      <c r="Q86" s="56"/>
+      <c r="R86" s="56"/>
+      <c r="S86" s="56"/>
+      <c r="T86" s="56"/>
+      <c r="U86" s="56"/>
+      <c r="V86" s="56"/>
+      <c r="W86" s="57"/>
     </row>
     <row r="87" spans="1:23" ht="12" customHeight="1">
-      <c r="A87" s="52"/>
-      <c r="B87" s="52"/>
-      <c r="C87" s="85"/>
-      <c r="D87" s="86"/>
-      <c r="E87" s="164"/>
-      <c r="F87" s="128"/>
-      <c r="G87" s="128"/>
-      <c r="H87" s="128"/>
-      <c r="I87" s="103"/>
-      <c r="J87" s="144"/>
-      <c r="K87" s="28"/>
-      <c r="L87" s="29"/>
-      <c r="M87" s="29"/>
-      <c r="N87" s="29"/>
-      <c r="O87" s="29"/>
-      <c r="P87" s="29"/>
-      <c r="Q87" s="29"/>
-      <c r="R87" s="29"/>
-      <c r="S87" s="29"/>
-      <c r="T87" s="29"/>
-      <c r="U87" s="29"/>
-      <c r="V87" s="29"/>
-      <c r="W87" s="31"/>
+      <c r="A87" s="162"/>
+      <c r="B87" s="162"/>
+      <c r="C87" s="80"/>
+      <c r="D87" s="163"/>
+      <c r="E87" s="152"/>
+      <c r="F87" s="122"/>
+      <c r="G87" s="122"/>
+      <c r="H87" s="122"/>
+      <c r="I87" s="97"/>
+      <c r="J87" s="134"/>
+      <c r="K87" s="27"/>
+      <c r="L87" s="28"/>
+      <c r="M87" s="28"/>
+      <c r="N87" s="28"/>
+      <c r="O87" s="28"/>
+      <c r="P87" s="28"/>
+      <c r="Q87" s="28"/>
+      <c r="R87" s="28"/>
+      <c r="S87" s="28"/>
+      <c r="T87" s="28"/>
+      <c r="U87" s="28"/>
+      <c r="V87" s="28"/>
+      <c r="W87" s="30"/>
     </row>
     <row r="88" spans="1:23" ht="12" customHeight="1">
-      <c r="A88" s="52"/>
-      <c r="B88" s="52"/>
-      <c r="C88" s="85"/>
-      <c r="D88" s="86"/>
-      <c r="E88" s="161"/>
-      <c r="F88" s="89"/>
-      <c r="G88" s="89"/>
-      <c r="H88" s="165"/>
-      <c r="I88" s="103"/>
-      <c r="J88" s="142"/>
-      <c r="K88" s="40"/>
-      <c r="L88" s="39"/>
-      <c r="M88" s="39"/>
-      <c r="N88" s="39"/>
-      <c r="O88" s="39"/>
-      <c r="P88" s="39"/>
-      <c r="Q88" s="39"/>
-      <c r="R88" s="39"/>
-      <c r="S88" s="39"/>
-      <c r="T88" s="39"/>
-      <c r="U88" s="39"/>
-      <c r="V88" s="39"/>
-      <c r="W88" s="82"/>
+      <c r="A88" s="162"/>
+      <c r="B88" s="162"/>
+      <c r="C88" s="80"/>
+      <c r="D88" s="163"/>
+      <c r="E88" s="149"/>
+      <c r="F88" s="83"/>
+      <c r="G88" s="83"/>
+      <c r="H88" s="153"/>
+      <c r="I88" s="97"/>
+      <c r="J88" s="132"/>
+      <c r="K88" s="39"/>
+      <c r="L88" s="38"/>
+      <c r="M88" s="38"/>
+      <c r="N88" s="38"/>
+      <c r="O88" s="38"/>
+      <c r="P88" s="38"/>
+      <c r="Q88" s="38"/>
+      <c r="R88" s="38"/>
+      <c r="S88" s="38"/>
+      <c r="T88" s="38"/>
+      <c r="U88" s="38"/>
+      <c r="V88" s="38"/>
+      <c r="W88" s="77"/>
     </row>
     <row r="89" spans="1:23" ht="12" customHeight="1">
-      <c r="A89" s="52"/>
-      <c r="B89" s="52"/>
-      <c r="C89" s="63"/>
-      <c r="D89" s="64"/>
-      <c r="E89" s="162"/>
-      <c r="F89" s="158"/>
-      <c r="G89" s="158"/>
-      <c r="H89" s="158"/>
-      <c r="I89" s="104"/>
-      <c r="J89" s="144"/>
-      <c r="K89" s="138"/>
-      <c r="L89" s="139"/>
-      <c r="M89" s="139"/>
-      <c r="N89" s="139"/>
-      <c r="O89" s="139"/>
-      <c r="P89" s="139"/>
-      <c r="Q89" s="139"/>
-      <c r="R89" s="139"/>
-      <c r="S89" s="139"/>
-      <c r="T89" s="139"/>
-      <c r="U89" s="139"/>
-      <c r="V89" s="139"/>
-      <c r="W89" s="31"/>
+      <c r="A89" s="162"/>
+      <c r="B89" s="162"/>
+      <c r="C89" s="58"/>
+      <c r="D89" s="59"/>
+      <c r="E89" s="150"/>
+      <c r="F89" s="146"/>
+      <c r="G89" s="146"/>
+      <c r="H89" s="146"/>
+      <c r="I89" s="98"/>
+      <c r="J89" s="134"/>
+      <c r="K89" s="128"/>
+      <c r="L89" s="129"/>
+      <c r="M89" s="129"/>
+      <c r="N89" s="129"/>
+      <c r="O89" s="129"/>
+      <c r="P89" s="129"/>
+      <c r="Q89" s="129"/>
+      <c r="R89" s="129"/>
+      <c r="S89" s="129"/>
+      <c r="T89" s="129"/>
+      <c r="U89" s="129"/>
+      <c r="V89" s="129"/>
+      <c r="W89" s="30"/>
     </row>
     <row r="90" spans="1:23" ht="12" customHeight="1">
-      <c r="A90" s="52"/>
-      <c r="B90" s="52"/>
-      <c r="C90" s="179"/>
-      <c r="D90" s="180"/>
-      <c r="E90" s="83"/>
-      <c r="F90" s="122"/>
-      <c r="G90" s="61"/>
-      <c r="H90" s="61"/>
-      <c r="I90" s="166"/>
-      <c r="J90" s="141"/>
-      <c r="K90" s="60"/>
-      <c r="L90" s="61"/>
-      <c r="M90" s="61"/>
-      <c r="N90" s="61"/>
-      <c r="O90" s="61"/>
-      <c r="P90" s="61"/>
-      <c r="Q90" s="61"/>
-      <c r="R90" s="61"/>
-      <c r="S90" s="61"/>
-      <c r="T90" s="61"/>
-      <c r="U90" s="61"/>
-      <c r="V90" s="61"/>
-      <c r="W90" s="62"/>
+      <c r="A90" s="162"/>
+      <c r="B90" s="162"/>
+      <c r="C90" s="167"/>
+      <c r="D90" s="184"/>
+      <c r="E90" s="78"/>
+      <c r="F90" s="116"/>
+      <c r="G90" s="56"/>
+      <c r="H90" s="56"/>
+      <c r="I90" s="154"/>
+      <c r="J90" s="131"/>
+      <c r="K90" s="55"/>
+      <c r="L90" s="56"/>
+      <c r="M90" s="56"/>
+      <c r="N90" s="56"/>
+      <c r="O90" s="56"/>
+      <c r="P90" s="56"/>
+      <c r="Q90" s="56"/>
+      <c r="R90" s="56"/>
+      <c r="S90" s="56"/>
+      <c r="T90" s="56"/>
+      <c r="U90" s="56"/>
+      <c r="V90" s="56"/>
+      <c r="W90" s="57"/>
     </row>
     <row r="91" spans="1:23" ht="12" customHeight="1">
-      <c r="A91" s="52"/>
-      <c r="B91" s="52"/>
-      <c r="C91" s="85"/>
-      <c r="D91" s="86"/>
-      <c r="E91" s="87"/>
-      <c r="F91" s="56"/>
-      <c r="G91" s="128"/>
-      <c r="H91" s="128"/>
-      <c r="I91" s="167"/>
-      <c r="J91" s="107"/>
-      <c r="K91" s="43"/>
-      <c r="L91" s="95"/>
-      <c r="M91" s="95"/>
-      <c r="N91" s="95"/>
-      <c r="O91" s="95"/>
-      <c r="P91" s="95"/>
-      <c r="Q91" s="95"/>
-      <c r="R91" s="95"/>
-      <c r="S91" s="95"/>
-      <c r="T91" s="95"/>
-      <c r="U91" s="95"/>
-      <c r="V91" s="95"/>
-      <c r="W91" s="31"/>
+      <c r="A91" s="162"/>
+      <c r="B91" s="162"/>
+      <c r="C91" s="80"/>
+      <c r="D91" s="163"/>
+      <c r="E91" s="81"/>
+      <c r="F91" s="51"/>
+      <c r="G91" s="122"/>
+      <c r="H91" s="122"/>
+      <c r="I91" s="155"/>
+      <c r="J91" s="101"/>
+      <c r="K91" s="42"/>
+      <c r="L91" s="89"/>
+      <c r="M91" s="89"/>
+      <c r="N91" s="89"/>
+      <c r="O91" s="89"/>
+      <c r="P91" s="89"/>
+      <c r="Q91" s="89"/>
+      <c r="R91" s="89"/>
+      <c r="S91" s="89"/>
+      <c r="T91" s="89"/>
+      <c r="U91" s="89"/>
+      <c r="V91" s="89"/>
+      <c r="W91" s="30"/>
     </row>
     <row r="92" spans="1:23" ht="12" customHeight="1">
-      <c r="A92" s="52"/>
-      <c r="B92" s="52"/>
-      <c r="C92" s="85"/>
-      <c r="D92" s="86"/>
-      <c r="E92" s="87"/>
-      <c r="F92" s="56"/>
-      <c r="G92" s="123"/>
-      <c r="H92" s="124"/>
-      <c r="I92" s="103"/>
-      <c r="J92" s="142"/>
-      <c r="K92" s="145"/>
-      <c r="L92" s="39"/>
-      <c r="M92" s="39"/>
-      <c r="N92" s="39"/>
-      <c r="O92" s="39"/>
-      <c r="P92" s="39"/>
-      <c r="Q92" s="39"/>
-      <c r="R92" s="39"/>
-      <c r="S92" s="39"/>
-      <c r="T92" s="39"/>
-      <c r="U92" s="39"/>
-      <c r="V92" s="39"/>
-      <c r="W92" s="82"/>
+      <c r="A92" s="162"/>
+      <c r="B92" s="162"/>
+      <c r="C92" s="80"/>
+      <c r="D92" s="163"/>
+      <c r="E92" s="81"/>
+      <c r="F92" s="51"/>
+      <c r="G92" s="117"/>
+      <c r="H92" s="118"/>
+      <c r="I92" s="97"/>
+      <c r="J92" s="132"/>
+      <c r="K92" s="135"/>
+      <c r="L92" s="38"/>
+      <c r="M92" s="38"/>
+      <c r="N92" s="38"/>
+      <c r="O92" s="38"/>
+      <c r="P92" s="38"/>
+      <c r="Q92" s="38"/>
+      <c r="R92" s="38"/>
+      <c r="S92" s="38"/>
+      <c r="T92" s="38"/>
+      <c r="U92" s="38"/>
+      <c r="V92" s="38"/>
+      <c r="W92" s="77"/>
     </row>
     <row r="93" spans="1:23" ht="12" customHeight="1">
-      <c r="A93" s="52"/>
-      <c r="B93" s="52"/>
-      <c r="C93" s="63"/>
-      <c r="D93" s="64"/>
-      <c r="E93" s="96"/>
-      <c r="F93" s="126"/>
-      <c r="G93" s="97"/>
-      <c r="H93" s="120"/>
-      <c r="I93" s="104"/>
-      <c r="J93" s="143"/>
-      <c r="K93" s="146"/>
-      <c r="L93" s="139"/>
-      <c r="M93" s="139"/>
-      <c r="N93" s="139"/>
-      <c r="O93" s="139"/>
-      <c r="P93" s="139"/>
-      <c r="Q93" s="139"/>
-      <c r="R93" s="139"/>
-      <c r="S93" s="139"/>
-      <c r="T93" s="139"/>
-      <c r="U93" s="139"/>
-      <c r="V93" s="139"/>
-      <c r="W93" s="31"/>
+      <c r="A93" s="162"/>
+      <c r="B93" s="162"/>
+      <c r="C93" s="58"/>
+      <c r="D93" s="59"/>
+      <c r="E93" s="90"/>
+      <c r="F93" s="120"/>
+      <c r="G93" s="91"/>
+      <c r="H93" s="114"/>
+      <c r="I93" s="98"/>
+      <c r="J93" s="133"/>
+      <c r="K93" s="136"/>
+      <c r="L93" s="129"/>
+      <c r="M93" s="129"/>
+      <c r="N93" s="129"/>
+      <c r="O93" s="129"/>
+      <c r="P93" s="129"/>
+      <c r="Q93" s="129"/>
+      <c r="R93" s="129"/>
+      <c r="S93" s="129"/>
+      <c r="T93" s="129"/>
+      <c r="U93" s="129"/>
+      <c r="V93" s="129"/>
+      <c r="W93" s="30"/>
     </row>
     <row r="94" spans="1:23" ht="12" customHeight="1">
-      <c r="A94" s="52"/>
-      <c r="B94" s="52"/>
-      <c r="C94" s="179"/>
-      <c r="D94" s="180"/>
-      <c r="E94" s="83"/>
-      <c r="F94" s="122"/>
-      <c r="G94" s="61"/>
-      <c r="H94" s="61"/>
-      <c r="I94" s="166"/>
-      <c r="J94" s="141"/>
-      <c r="K94" s="60"/>
-      <c r="L94" s="61"/>
-      <c r="M94" s="61"/>
-      <c r="N94" s="61"/>
-      <c r="O94" s="61"/>
-      <c r="P94" s="61"/>
-      <c r="Q94" s="61"/>
-      <c r="R94" s="61"/>
-      <c r="S94" s="61"/>
-      <c r="T94" s="61"/>
-      <c r="U94" s="61"/>
-      <c r="V94" s="61"/>
-      <c r="W94" s="147"/>
+      <c r="A94" s="162"/>
+      <c r="B94" s="162"/>
+      <c r="C94" s="167"/>
+      <c r="D94" s="184"/>
+      <c r="E94" s="78"/>
+      <c r="F94" s="116"/>
+      <c r="G94" s="56"/>
+      <c r="H94" s="56"/>
+      <c r="I94" s="154"/>
+      <c r="J94" s="131"/>
+      <c r="K94" s="55"/>
+      <c r="L94" s="56"/>
+      <c r="M94" s="56"/>
+      <c r="N94" s="56"/>
+      <c r="O94" s="56"/>
+      <c r="P94" s="56"/>
+      <c r="Q94" s="56"/>
+      <c r="R94" s="56"/>
+      <c r="S94" s="56"/>
+      <c r="T94" s="56"/>
+      <c r="U94" s="56"/>
+      <c r="V94" s="56"/>
+      <c r="W94" s="137"/>
     </row>
     <row r="95" spans="1:23" ht="12" customHeight="1">
-      <c r="A95" s="52"/>
-      <c r="B95" s="52"/>
-      <c r="C95" s="85"/>
-      <c r="D95" s="86"/>
-      <c r="E95" s="87"/>
-      <c r="F95" s="56"/>
-      <c r="G95" s="128"/>
-      <c r="H95" s="128"/>
-      <c r="I95" s="167"/>
-      <c r="J95" s="107"/>
-      <c r="K95" s="43"/>
-      <c r="L95" s="95"/>
-      <c r="M95" s="95"/>
-      <c r="N95" s="95"/>
-      <c r="O95" s="95"/>
-      <c r="P95" s="95"/>
-      <c r="Q95" s="95"/>
-      <c r="R95" s="95"/>
-      <c r="S95" s="95"/>
-      <c r="T95" s="95"/>
-      <c r="U95" s="95"/>
-      <c r="V95" s="95"/>
-      <c r="W95" s="31"/>
+      <c r="A95" s="162"/>
+      <c r="B95" s="162"/>
+      <c r="C95" s="80"/>
+      <c r="D95" s="163"/>
+      <c r="E95" s="81"/>
+      <c r="F95" s="51"/>
+      <c r="G95" s="122"/>
+      <c r="H95" s="122"/>
+      <c r="I95" s="155"/>
+      <c r="J95" s="101"/>
+      <c r="K95" s="42"/>
+      <c r="L95" s="89"/>
+      <c r="M95" s="89"/>
+      <c r="N95" s="89"/>
+      <c r="O95" s="89"/>
+      <c r="P95" s="89"/>
+      <c r="Q95" s="89"/>
+      <c r="R95" s="89"/>
+      <c r="S95" s="89"/>
+      <c r="T95" s="89"/>
+      <c r="U95" s="89"/>
+      <c r="V95" s="89"/>
+      <c r="W95" s="30"/>
     </row>
     <row r="96" spans="1:23" ht="12" customHeight="1">
-      <c r="A96" s="52"/>
-      <c r="B96" s="52"/>
-      <c r="C96" s="85"/>
-      <c r="D96" s="86"/>
-      <c r="E96" s="87"/>
-      <c r="F96" s="56"/>
-      <c r="G96" s="123"/>
-      <c r="H96" s="124"/>
-      <c r="I96" s="103"/>
-      <c r="J96" s="142"/>
-      <c r="K96" s="145"/>
-      <c r="L96" s="39"/>
-      <c r="M96" s="39"/>
-      <c r="N96" s="39"/>
-      <c r="O96" s="39"/>
-      <c r="P96" s="39"/>
-      <c r="Q96" s="39"/>
-      <c r="R96" s="39"/>
-      <c r="S96" s="39"/>
-      <c r="T96" s="39"/>
-      <c r="U96" s="39"/>
-      <c r="V96" s="39"/>
-      <c r="W96" s="82"/>
+      <c r="A96" s="162"/>
+      <c r="B96" s="162"/>
+      <c r="C96" s="80"/>
+      <c r="D96" s="163"/>
+      <c r="E96" s="81"/>
+      <c r="F96" s="51"/>
+      <c r="G96" s="117"/>
+      <c r="H96" s="118"/>
+      <c r="I96" s="97"/>
+      <c r="J96" s="132"/>
+      <c r="K96" s="135"/>
+      <c r="L96" s="38"/>
+      <c r="M96" s="38"/>
+      <c r="N96" s="38"/>
+      <c r="O96" s="38"/>
+      <c r="P96" s="38"/>
+      <c r="Q96" s="38"/>
+      <c r="R96" s="38"/>
+      <c r="S96" s="38"/>
+      <c r="T96" s="38"/>
+      <c r="U96" s="38"/>
+      <c r="V96" s="38"/>
+      <c r="W96" s="77"/>
     </row>
     <row r="97" spans="1:23" ht="12" customHeight="1">
-      <c r="A97" s="149"/>
-      <c r="B97" s="150"/>
-      <c r="C97" s="63"/>
-      <c r="D97" s="64"/>
-      <c r="E97" s="96"/>
-      <c r="F97" s="126"/>
-      <c r="G97" s="97"/>
-      <c r="H97" s="120"/>
-      <c r="I97" s="104"/>
-      <c r="J97" s="143"/>
-      <c r="K97" s="146"/>
-      <c r="L97" s="139"/>
-      <c r="M97" s="139"/>
-      <c r="N97" s="139"/>
-      <c r="O97" s="139"/>
-      <c r="P97" s="139"/>
-      <c r="Q97" s="139"/>
-      <c r="R97" s="139"/>
-      <c r="S97" s="139"/>
-      <c r="T97" s="139"/>
-      <c r="U97" s="139"/>
-      <c r="V97" s="139"/>
-      <c r="W97" s="148"/>
+      <c r="A97" s="162"/>
+      <c r="B97" s="163"/>
+      <c r="C97" s="58"/>
+      <c r="D97" s="59"/>
+      <c r="E97" s="90"/>
+      <c r="F97" s="120"/>
+      <c r="G97" s="91"/>
+      <c r="H97" s="114"/>
+      <c r="I97" s="98"/>
+      <c r="J97" s="133"/>
+      <c r="K97" s="136"/>
+      <c r="L97" s="129"/>
+      <c r="M97" s="129"/>
+      <c r="N97" s="129"/>
+      <c r="O97" s="129"/>
+      <c r="P97" s="129"/>
+      <c r="Q97" s="129"/>
+      <c r="R97" s="129"/>
+      <c r="S97" s="129"/>
+      <c r="T97" s="129"/>
+      <c r="U97" s="129"/>
+      <c r="V97" s="129"/>
+      <c r="W97" s="138"/>
     </row>
     <row r="98" spans="1:23" ht="12" customHeight="1">
-      <c r="A98" s="149"/>
-      <c r="B98" s="149"/>
-      <c r="C98" s="179"/>
-      <c r="D98" s="180"/>
-      <c r="E98" s="163"/>
-      <c r="F98" s="61"/>
-      <c r="G98" s="61"/>
-      <c r="H98" s="61"/>
-      <c r="I98" s="101"/>
-      <c r="J98" s="98"/>
-      <c r="K98" s="77"/>
-      <c r="L98" s="78"/>
-      <c r="M98" s="78"/>
-      <c r="N98" s="78"/>
-      <c r="O98" s="78"/>
-      <c r="P98" s="78"/>
-      <c r="Q98" s="78"/>
-      <c r="R98" s="78"/>
-      <c r="S98" s="78"/>
-      <c r="T98" s="78"/>
-      <c r="U98" s="78"/>
-      <c r="V98" s="78"/>
-      <c r="W98" s="79"/>
+      <c r="A98" s="162"/>
+      <c r="B98" s="162"/>
+      <c r="C98" s="167"/>
+      <c r="D98" s="184"/>
+      <c r="E98" s="151"/>
+      <c r="F98" s="56"/>
+      <c r="G98" s="56"/>
+      <c r="H98" s="56"/>
+      <c r="I98" s="95"/>
+      <c r="J98" s="92"/>
+      <c r="K98" s="72"/>
+      <c r="L98" s="73"/>
+      <c r="M98" s="73"/>
+      <c r="N98" s="73"/>
+      <c r="O98" s="73"/>
+      <c r="P98" s="73"/>
+      <c r="Q98" s="73"/>
+      <c r="R98" s="73"/>
+      <c r="S98" s="73"/>
+      <c r="T98" s="73"/>
+      <c r="U98" s="73"/>
+      <c r="V98" s="73"/>
+      <c r="W98" s="74"/>
     </row>
     <row r="99" spans="1:23" ht="12" customHeight="1">
-      <c r="A99" s="149"/>
-      <c r="B99" s="149"/>
-      <c r="C99" s="63"/>
-      <c r="D99" s="64"/>
-      <c r="E99" s="162"/>
-      <c r="F99" s="158"/>
-      <c r="G99" s="158"/>
-      <c r="H99" s="71"/>
-      <c r="I99" s="104"/>
-      <c r="J99" s="70"/>
-      <c r="K99" s="164"/>
-      <c r="L99" s="128"/>
-      <c r="M99" s="128"/>
-      <c r="N99" s="128"/>
-      <c r="O99" s="128"/>
-      <c r="P99" s="128"/>
-      <c r="Q99" s="128"/>
-      <c r="R99" s="128"/>
-      <c r="S99" s="128"/>
-      <c r="T99" s="128"/>
-      <c r="U99" s="128"/>
-      <c r="V99" s="128"/>
-      <c r="W99" s="129"/>
+      <c r="A99" s="162"/>
+      <c r="B99" s="162"/>
+      <c r="C99" s="58"/>
+      <c r="D99" s="59"/>
+      <c r="E99" s="150"/>
+      <c r="F99" s="146"/>
+      <c r="G99" s="146"/>
+      <c r="H99" s="66"/>
+      <c r="I99" s="98"/>
+      <c r="J99" s="65"/>
+      <c r="K99" s="152"/>
+      <c r="L99" s="122"/>
+      <c r="M99" s="122"/>
+      <c r="N99" s="122"/>
+      <c r="O99" s="122"/>
+      <c r="P99" s="122"/>
+      <c r="Q99" s="122"/>
+      <c r="R99" s="122"/>
+      <c r="S99" s="122"/>
+      <c r="T99" s="122"/>
+      <c r="U99" s="122"/>
+      <c r="V99" s="122"/>
+      <c r="W99" s="123"/>
     </row>
     <row r="100" spans="1:23" ht="12" customHeight="1">
-      <c r="A100" s="149"/>
-      <c r="B100" s="149"/>
-      <c r="C100" s="179"/>
-      <c r="D100" s="180"/>
-      <c r="E100" s="163"/>
-      <c r="F100" s="61"/>
-      <c r="G100" s="61"/>
-      <c r="H100" s="61"/>
-      <c r="I100" s="101"/>
-      <c r="J100" s="141"/>
-      <c r="K100" s="60"/>
-      <c r="L100" s="61"/>
-      <c r="M100" s="61"/>
-      <c r="N100" s="61"/>
-      <c r="O100" s="61"/>
-      <c r="P100" s="61"/>
-      <c r="Q100" s="61"/>
-      <c r="R100" s="61"/>
-      <c r="S100" s="61"/>
-      <c r="T100" s="61"/>
-      <c r="U100" s="61"/>
-      <c r="V100" s="61"/>
-      <c r="W100" s="147"/>
+      <c r="A100" s="162"/>
+      <c r="B100" s="162"/>
+      <c r="C100" s="167"/>
+      <c r="D100" s="184"/>
+      <c r="E100" s="151"/>
+      <c r="F100" s="56"/>
+      <c r="G100" s="56"/>
+      <c r="H100" s="56"/>
+      <c r="I100" s="95"/>
+      <c r="J100" s="131"/>
+      <c r="K100" s="55"/>
+      <c r="L100" s="56"/>
+      <c r="M100" s="56"/>
+      <c r="N100" s="56"/>
+      <c r="O100" s="56"/>
+      <c r="P100" s="56"/>
+      <c r="Q100" s="56"/>
+      <c r="R100" s="56"/>
+      <c r="S100" s="56"/>
+      <c r="T100" s="56"/>
+      <c r="U100" s="56"/>
+      <c r="V100" s="56"/>
+      <c r="W100" s="137"/>
     </row>
     <row r="101" spans="1:23" ht="12" customHeight="1">
-      <c r="A101" s="149"/>
-      <c r="B101" s="149"/>
-      <c r="C101" s="63"/>
-      <c r="D101" s="64"/>
-      <c r="E101" s="162"/>
-      <c r="F101" s="158"/>
-      <c r="G101" s="158"/>
-      <c r="H101" s="71"/>
-      <c r="I101" s="104"/>
-      <c r="J101" s="177"/>
-      <c r="K101" s="146"/>
-      <c r="L101" s="139"/>
-      <c r="M101" s="139"/>
-      <c r="N101" s="139"/>
-      <c r="O101" s="139"/>
-      <c r="P101" s="139"/>
-      <c r="Q101" s="139"/>
-      <c r="R101" s="139"/>
-      <c r="S101" s="139"/>
-      <c r="T101" s="139"/>
-      <c r="U101" s="139"/>
-      <c r="V101" s="139"/>
-      <c r="W101" s="148"/>
+      <c r="A101" s="162"/>
+      <c r="B101" s="162"/>
+      <c r="C101" s="58"/>
+      <c r="D101" s="59"/>
+      <c r="E101" s="150"/>
+      <c r="F101" s="146"/>
+      <c r="G101" s="146"/>
+      <c r="H101" s="66"/>
+      <c r="I101" s="98"/>
+      <c r="J101" s="160"/>
+      <c r="K101" s="136"/>
+      <c r="L101" s="129"/>
+      <c r="M101" s="129"/>
+      <c r="N101" s="129"/>
+      <c r="O101" s="129"/>
+      <c r="P101" s="129"/>
+      <c r="Q101" s="129"/>
+      <c r="R101" s="129"/>
+      <c r="S101" s="129"/>
+      <c r="T101" s="129"/>
+      <c r="U101" s="129"/>
+      <c r="V101" s="129"/>
+      <c r="W101" s="138"/>
     </row>
     <row r="102" spans="1:23" ht="12" customHeight="1">
-      <c r="C102" s="179"/>
-      <c r="D102" s="180"/>
-      <c r="E102" s="83"/>
-      <c r="F102" s="122"/>
-      <c r="G102" s="73"/>
-      <c r="H102" s="73"/>
-      <c r="I102" s="166"/>
-      <c r="J102" s="141"/>
-      <c r="K102" s="60"/>
-      <c r="L102" s="61"/>
-      <c r="M102" s="61"/>
-      <c r="N102" s="61"/>
-      <c r="O102" s="61"/>
-      <c r="P102" s="61"/>
-      <c r="Q102" s="61"/>
-      <c r="R102" s="61"/>
-      <c r="S102" s="61"/>
-      <c r="T102" s="61"/>
-      <c r="U102" s="61"/>
-      <c r="V102" s="61"/>
-      <c r="W102" s="62"/>
+      <c r="C102" s="167"/>
+      <c r="D102" s="184"/>
+      <c r="E102" s="78"/>
+      <c r="F102" s="116"/>
+      <c r="G102" s="68"/>
+      <c r="H102" s="68"/>
+      <c r="I102" s="154"/>
+      <c r="J102" s="131"/>
+      <c r="K102" s="55"/>
+      <c r="L102" s="56"/>
+      <c r="M102" s="56"/>
+      <c r="N102" s="56"/>
+      <c r="O102" s="56"/>
+      <c r="P102" s="56"/>
+      <c r="Q102" s="56"/>
+      <c r="R102" s="56"/>
+      <c r="S102" s="56"/>
+      <c r="T102" s="56"/>
+      <c r="U102" s="56"/>
+      <c r="V102" s="56"/>
+      <c r="W102" s="57"/>
     </row>
     <row r="103" spans="1:23" ht="12" customHeight="1">
-      <c r="C103" s="85"/>
-      <c r="D103" s="171"/>
-      <c r="E103" s="87"/>
-      <c r="F103" s="56"/>
-      <c r="I103" s="197"/>
-      <c r="J103" s="66"/>
-      <c r="K103" s="43"/>
-      <c r="L103" s="95"/>
-      <c r="M103" s="95"/>
-      <c r="N103" s="95"/>
-      <c r="O103" s="95"/>
-      <c r="P103" s="95"/>
-      <c r="Q103" s="95"/>
-      <c r="R103" s="95"/>
-      <c r="S103" s="95"/>
-      <c r="T103" s="95"/>
-      <c r="U103" s="95"/>
-      <c r="V103" s="95"/>
-      <c r="W103" s="31"/>
+      <c r="C103" s="80"/>
+      <c r="D103" s="163"/>
+      <c r="E103" s="81"/>
+      <c r="F103" s="51"/>
+      <c r="I103" s="166"/>
+      <c r="J103" s="61"/>
+      <c r="K103" s="42"/>
+      <c r="L103" s="89"/>
+      <c r="M103" s="89"/>
+      <c r="N103" s="89"/>
+      <c r="O103" s="89"/>
+      <c r="P103" s="89"/>
+      <c r="Q103" s="89"/>
+      <c r="R103" s="89"/>
+      <c r="S103" s="89"/>
+      <c r="T103" s="89"/>
+      <c r="U103" s="89"/>
+      <c r="V103" s="89"/>
+      <c r="W103" s="30"/>
     </row>
     <row r="104" spans="1:23" ht="12" customHeight="1">
-      <c r="A104" s="170"/>
-      <c r="B104" s="170"/>
-      <c r="C104" s="179"/>
-      <c r="D104" s="180"/>
-      <c r="E104" s="83"/>
-      <c r="F104" s="122"/>
-      <c r="G104" s="73"/>
-      <c r="H104" s="73"/>
-      <c r="I104" s="196"/>
-      <c r="J104" s="178"/>
-      <c r="K104" s="77"/>
-      <c r="L104" s="78"/>
-      <c r="M104" s="78"/>
-      <c r="N104" s="78"/>
-      <c r="O104" s="78"/>
-      <c r="P104" s="78"/>
-      <c r="Q104" s="78"/>
-      <c r="R104" s="78"/>
-      <c r="S104" s="78"/>
-      <c r="T104" s="78"/>
-      <c r="U104" s="78"/>
-      <c r="V104" s="78"/>
-      <c r="W104" s="79"/>
+      <c r="A104" s="162"/>
+      <c r="B104" s="162"/>
+      <c r="C104" s="167"/>
+      <c r="D104" s="184"/>
+      <c r="E104" s="78"/>
+      <c r="F104" s="116"/>
+      <c r="G104" s="68"/>
+      <c r="H104" s="68"/>
+      <c r="I104" s="165"/>
+      <c r="J104" s="161"/>
+      <c r="K104" s="72"/>
+      <c r="L104" s="73"/>
+      <c r="M104" s="73"/>
+      <c r="N104" s="73"/>
+      <c r="O104" s="73"/>
+      <c r="P104" s="73"/>
+      <c r="Q104" s="73"/>
+      <c r="R104" s="73"/>
+      <c r="S104" s="73"/>
+      <c r="T104" s="73"/>
+      <c r="U104" s="73"/>
+      <c r="V104" s="73"/>
+      <c r="W104" s="74"/>
     </row>
     <row r="105" spans="1:23" ht="12" customHeight="1">
-      <c r="A105" s="170"/>
-      <c r="B105" s="170"/>
-      <c r="C105" s="85"/>
-      <c r="D105" s="171"/>
-      <c r="E105" s="87"/>
-      <c r="F105" s="56"/>
-      <c r="I105" s="195"/>
-      <c r="J105" s="91"/>
-      <c r="K105" s="38"/>
-      <c r="L105" s="92"/>
-      <c r="M105" s="92"/>
-      <c r="N105" s="92"/>
-      <c r="O105" s="92"/>
-      <c r="P105" s="92"/>
-      <c r="Q105" s="92"/>
-      <c r="R105" s="92"/>
-      <c r="S105" s="92"/>
-      <c r="T105" s="92"/>
-      <c r="U105" s="92"/>
-      <c r="V105" s="92"/>
-      <c r="W105" s="41"/>
-    </row>
-    <row r="109" spans="1:23" ht="12" customHeight="1">
-      <c r="I109" s="2"/>
+      <c r="A105" s="162"/>
+      <c r="B105" s="162"/>
+      <c r="C105" s="80"/>
+      <c r="D105" s="163"/>
+      <c r="E105" s="81"/>
+      <c r="F105" s="51"/>
+      <c r="I105" s="164"/>
+      <c r="J105" s="85"/>
+      <c r="K105" s="37"/>
+      <c r="L105" s="86"/>
+      <c r="M105" s="86"/>
+      <c r="N105" s="86"/>
+      <c r="O105" s="86"/>
+      <c r="P105" s="86"/>
+      <c r="Q105" s="86"/>
+      <c r="R105" s="86"/>
+      <c r="S105" s="86"/>
+      <c r="T105" s="86"/>
+      <c r="U105" s="86"/>
+      <c r="V105" s="86"/>
+      <c r="W105" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A2:W2"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A6:W6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C13:D13"/>
     <mergeCell ref="C102:D102"/>
     <mergeCell ref="C104:D104"/>
     <mergeCell ref="C15:D15"/>
@@ -47731,6 +47682,24 @@
     <mergeCell ref="C64:D64"/>
     <mergeCell ref="C66:D66"/>
     <mergeCell ref="C70:D70"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A2:W2"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A6:W6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C94:D94"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.31496062992125984"/>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_v2_template.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KDR001_v2_template.xlsx
@@ -1227,7 +1227,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1711,9 +1711,6 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1729,26 +1726,38 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="76" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -1762,11 +1771,11 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -1774,28 +1783,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="76" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1843,7 +1840,7 @@
         <xdr:cNvPr id="2" name="楕円 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -45157,7 +45154,7 @@
     <col min="3" max="3" width="3.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" style="1" customWidth="1"/>
     <col min="5" max="9" width="5.6640625" style="1"/>
-    <col min="10" max="10" width="6.6640625" style="179" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" style="166" customWidth="1"/>
     <col min="11" max="22" width="5.33203125" style="1" customWidth="1"/>
     <col min="23" max="23" width="5.33203125" style="2" customWidth="1"/>
     <col min="24" max="24" width="5.6640625" style="2"/>
@@ -45166,29 +45163,29 @@
   <sheetData>
     <row r="1" spans="1:23" ht="0.75" customHeight="1"/>
     <row r="2" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A2" s="168"/>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="168"/>
-      <c r="R2" s="168"/>
-      <c r="S2" s="168"/>
-      <c r="T2" s="168"/>
-      <c r="U2" s="168"/>
-      <c r="V2" s="168"/>
-      <c r="W2" s="168"/>
+      <c r="A2" s="181"/>
+      <c r="B2" s="181"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="181"/>
+      <c r="M2" s="181"/>
+      <c r="N2" s="181"/>
+      <c r="O2" s="181"/>
+      <c r="P2" s="181"/>
+      <c r="Q2" s="181"/>
+      <c r="R2" s="181"/>
+      <c r="S2" s="181"/>
+      <c r="T2" s="181"/>
+      <c r="U2" s="181"/>
+      <c r="V2" s="181"/>
+      <c r="W2" s="181"/>
     </row>
     <row r="3" spans="1:23" ht="0.75" customHeight="1" thickBot="1">
       <c r="A3" s="3"/>
@@ -45220,13 +45217,13 @@
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="180"/>
-      <c r="G4" s="180"/>
-      <c r="H4" s="180"/>
-      <c r="I4" s="181"/>
-      <c r="J4" s="170"/>
-      <c r="K4" s="180"/>
+      <c r="E4" s="182"/>
+      <c r="F4" s="183"/>
+      <c r="G4" s="183"/>
+      <c r="H4" s="183"/>
+      <c r="I4" s="184"/>
+      <c r="J4" s="185"/>
+      <c r="K4" s="183"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -45266,33 +45263,33 @@
       <c r="W5" s="14"/>
     </row>
     <row r="6" spans="1:23" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A6" s="171"/>
-      <c r="B6" s="171"/>
-      <c r="C6" s="171"/>
-      <c r="D6" s="171"/>
-      <c r="E6" s="171"/>
-      <c r="F6" s="171"/>
-      <c r="G6" s="171"/>
-      <c r="H6" s="171"/>
-      <c r="I6" s="171"/>
-      <c r="J6" s="171"/>
-      <c r="K6" s="171"/>
-      <c r="L6" s="171"/>
-      <c r="M6" s="171"/>
-      <c r="N6" s="171"/>
-      <c r="O6" s="171"/>
-      <c r="P6" s="171"/>
-      <c r="Q6" s="171"/>
-      <c r="R6" s="171"/>
-      <c r="S6" s="171"/>
-      <c r="T6" s="171"/>
-      <c r="U6" s="171"/>
-      <c r="V6" s="171"/>
-      <c r="W6" s="171"/>
+      <c r="A6" s="186"/>
+      <c r="B6" s="186"/>
+      <c r="C6" s="186"/>
+      <c r="D6" s="186"/>
+      <c r="E6" s="186"/>
+      <c r="F6" s="186"/>
+      <c r="G6" s="186"/>
+      <c r="H6" s="186"/>
+      <c r="I6" s="186"/>
+      <c r="J6" s="186"/>
+      <c r="K6" s="186"/>
+      <c r="L6" s="186"/>
+      <c r="M6" s="186"/>
+      <c r="N6" s="186"/>
+      <c r="O6" s="186"/>
+      <c r="P6" s="186"/>
+      <c r="Q6" s="186"/>
+      <c r="R6" s="186"/>
+      <c r="S6" s="186"/>
+      <c r="T6" s="186"/>
+      <c r="U6" s="186"/>
+      <c r="V6" s="186"/>
+      <c r="W6" s="186"/>
     </row>
     <row r="7" spans="1:23" ht="12" customHeight="1">
-      <c r="A7" s="172"/>
-      <c r="B7" s="173"/>
+      <c r="A7" s="187"/>
+      <c r="B7" s="188"/>
       <c r="C7" s="15"/>
       <c r="D7" s="16"/>
       <c r="E7" s="139"/>
@@ -45316,8 +45313,8 @@
       <c r="W7" s="21"/>
     </row>
     <row r="8" spans="1:23" ht="12" customHeight="1">
-      <c r="A8" s="174"/>
-      <c r="B8" s="175"/>
+      <c r="A8" s="177"/>
+      <c r="B8" s="178"/>
       <c r="C8" s="22"/>
       <c r="D8" s="23"/>
       <c r="E8" s="140"/>
@@ -45341,8 +45338,8 @@
       <c r="W8" s="30"/>
     </row>
     <row r="9" spans="1:23" ht="12" customHeight="1">
-      <c r="A9" s="176"/>
-      <c r="B9" s="177"/>
+      <c r="A9" s="179"/>
+      <c r="B9" s="180"/>
       <c r="C9" s="22"/>
       <c r="D9" s="31"/>
       <c r="E9" s="32"/>
@@ -45366,8 +45363,8 @@
       <c r="W9" s="40"/>
     </row>
     <row r="10" spans="1:23" ht="12" customHeight="1">
-      <c r="A10" s="174"/>
-      <c r="B10" s="175"/>
+      <c r="A10" s="177"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="22"/>
       <c r="D10" s="41"/>
       <c r="E10" s="24"/>
@@ -45391,14 +45388,14 @@
       <c r="W10" s="30"/>
     </row>
     <row r="11" spans="1:23" ht="12" customHeight="1">
-      <c r="A11" s="174"/>
-      <c r="B11" s="175"/>
+      <c r="A11" s="177"/>
+      <c r="B11" s="178"/>
       <c r="C11" s="22"/>
       <c r="D11" s="23"/>
       <c r="E11" s="43"/>
-      <c r="F11" s="182"/>
+      <c r="F11" s="167"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="183"/>
+      <c r="H11" s="168"/>
       <c r="I11" s="25"/>
       <c r="J11" s="44"/>
       <c r="K11" s="45"/>
@@ -45416,14 +45413,14 @@
       <c r="W11" s="47"/>
     </row>
     <row r="12" spans="1:23" ht="12" customHeight="1">
-      <c r="A12" s="162"/>
-      <c r="B12" s="162"/>
+      <c r="A12" s="161"/>
+      <c r="B12" s="161"/>
       <c r="C12" s="48"/>
       <c r="D12" s="23"/>
       <c r="E12" s="24"/>
-      <c r="F12" s="182"/>
+      <c r="F12" s="167"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="183"/>
+      <c r="H12" s="168"/>
       <c r="I12" s="25"/>
       <c r="J12" s="49"/>
       <c r="K12" s="50"/>
@@ -45441,10 +45438,10 @@
       <c r="W12" s="52"/>
     </row>
     <row r="13" spans="1:23" ht="12" customHeight="1">
-      <c r="A13" s="162"/>
-      <c r="B13" s="162"/>
-      <c r="C13" s="167"/>
-      <c r="D13" s="184"/>
+      <c r="A13" s="161"/>
+      <c r="B13" s="161"/>
+      <c r="C13" s="173"/>
+      <c r="D13" s="174"/>
       <c r="E13" s="141"/>
       <c r="F13" s="142"/>
       <c r="G13" s="142"/>
@@ -45493,8 +45490,8 @@
     <row r="15" spans="1:23" ht="12" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="178"/>
-      <c r="D15" s="185"/>
+      <c r="C15" s="175"/>
+      <c r="D15" s="176"/>
       <c r="E15" s="143"/>
       <c r="F15" s="67"/>
       <c r="G15" s="67"/>
@@ -45518,8 +45515,8 @@
     <row r="16" spans="1:23" ht="12" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="167"/>
-      <c r="D16" s="184"/>
+      <c r="C16" s="173"/>
+      <c r="D16" s="174"/>
       <c r="E16" s="141"/>
       <c r="F16" s="142"/>
       <c r="G16" s="142"/>
@@ -45566,10 +45563,10 @@
       <c r="W17" s="77"/>
     </row>
     <row r="18" spans="1:23" ht="12" customHeight="1">
-      <c r="A18" s="162"/>
-      <c r="B18" s="162"/>
-      <c r="C18" s="167"/>
-      <c r="D18" s="184"/>
+      <c r="A18" s="161"/>
+      <c r="B18" s="161"/>
+      <c r="C18" s="173"/>
+      <c r="D18" s="174"/>
       <c r="E18" s="78"/>
       <c r="F18" s="68"/>
       <c r="G18" s="68"/>
@@ -45591,10 +45588,10 @@
       <c r="W18" s="74"/>
     </row>
     <row r="19" spans="1:23" ht="12" customHeight="1">
-      <c r="A19" s="162"/>
-      <c r="B19" s="162"/>
+      <c r="A19" s="161"/>
+      <c r="B19" s="161"/>
       <c r="C19" s="80"/>
-      <c r="D19" s="163"/>
+      <c r="D19" s="162"/>
       <c r="E19" s="81"/>
       <c r="F19" s="82"/>
       <c r="G19" s="83"/>
@@ -45616,10 +45613,10 @@
       <c r="W19" s="40"/>
     </row>
     <row r="20" spans="1:23" ht="12" customHeight="1">
-      <c r="A20" s="162"/>
-      <c r="B20" s="162"/>
+      <c r="A20" s="161"/>
+      <c r="B20" s="161"/>
       <c r="C20" s="80"/>
-      <c r="D20" s="163"/>
+      <c r="D20" s="162"/>
       <c r="E20" s="81"/>
       <c r="F20" s="82"/>
       <c r="G20" s="83"/>
@@ -45641,8 +45638,8 @@
       <c r="W20" s="30"/>
     </row>
     <row r="21" spans="1:23" ht="12" customHeight="1">
-      <c r="A21" s="162"/>
-      <c r="B21" s="162"/>
+      <c r="A21" s="161"/>
+      <c r="B21" s="161"/>
       <c r="C21" s="58"/>
       <c r="D21" s="59"/>
       <c r="E21" s="90"/>
@@ -45666,10 +45663,10 @@
       <c r="W21" s="77"/>
     </row>
     <row r="22" spans="1:23" ht="12" customHeight="1">
-      <c r="A22" s="162"/>
-      <c r="B22" s="162"/>
-      <c r="C22" s="167"/>
-      <c r="D22" s="184"/>
+      <c r="A22" s="161"/>
+      <c r="B22" s="161"/>
+      <c r="C22" s="173"/>
+      <c r="D22" s="174"/>
       <c r="E22" s="78"/>
       <c r="F22" s="68"/>
       <c r="G22" s="68"/>
@@ -45691,10 +45688,10 @@
       <c r="W22" s="74"/>
     </row>
     <row r="23" spans="1:23" ht="12" customHeight="1">
-      <c r="A23" s="162"/>
-      <c r="B23" s="162"/>
+      <c r="A23" s="161"/>
+      <c r="B23" s="161"/>
       <c r="C23" s="80"/>
-      <c r="D23" s="163"/>
+      <c r="D23" s="162"/>
       <c r="E23" s="81"/>
       <c r="F23" s="82"/>
       <c r="G23" s="83"/>
@@ -45716,10 +45713,10 @@
       <c r="W23" s="40"/>
     </row>
     <row r="24" spans="1:23" ht="12" customHeight="1">
-      <c r="A24" s="162"/>
-      <c r="B24" s="162"/>
+      <c r="A24" s="161"/>
+      <c r="B24" s="161"/>
       <c r="C24" s="80"/>
-      <c r="D24" s="163"/>
+      <c r="D24" s="162"/>
       <c r="E24" s="81"/>
       <c r="F24" s="82"/>
       <c r="G24" s="83"/>
@@ -45741,8 +45738,8 @@
       <c r="W24" s="30"/>
     </row>
     <row r="25" spans="1:23" ht="12" customHeight="1">
-      <c r="A25" s="162"/>
-      <c r="B25" s="162"/>
+      <c r="A25" s="161"/>
+      <c r="B25" s="161"/>
       <c r="C25" s="58"/>
       <c r="D25" s="59"/>
       <c r="E25" s="90"/>
@@ -45766,10 +45763,10 @@
       <c r="W25" s="77"/>
     </row>
     <row r="26" spans="1:23" ht="12" customHeight="1">
-      <c r="A26" s="162"/>
-      <c r="B26" s="162"/>
-      <c r="C26" s="167"/>
-      <c r="D26" s="184"/>
+      <c r="A26" s="161"/>
+      <c r="B26" s="161"/>
+      <c r="C26" s="173"/>
+      <c r="D26" s="174"/>
       <c r="E26" s="78"/>
       <c r="F26" s="68"/>
       <c r="G26" s="68"/>
@@ -45791,10 +45788,10 @@
       <c r="W26" s="74"/>
     </row>
     <row r="27" spans="1:23" ht="12" customHeight="1">
-      <c r="A27" s="162"/>
-      <c r="B27" s="162"/>
+      <c r="A27" s="161"/>
+      <c r="B27" s="161"/>
       <c r="C27" s="80"/>
-      <c r="D27" s="163"/>
+      <c r="D27" s="162"/>
       <c r="E27" s="81"/>
       <c r="F27" s="82"/>
       <c r="G27" s="83"/>
@@ -45816,10 +45813,10 @@
       <c r="W27" s="40"/>
     </row>
     <row r="28" spans="1:23" ht="12" customHeight="1">
-      <c r="A28" s="162"/>
-      <c r="B28" s="162"/>
+      <c r="A28" s="161"/>
+      <c r="B28" s="161"/>
       <c r="C28" s="80"/>
-      <c r="D28" s="163"/>
+      <c r="D28" s="162"/>
       <c r="E28" s="81"/>
       <c r="F28" s="82"/>
       <c r="G28" s="83"/>
@@ -45841,8 +45838,8 @@
       <c r="W28" s="30"/>
     </row>
     <row r="29" spans="1:23" ht="12" customHeight="1">
-      <c r="A29" s="162"/>
-      <c r="B29" s="162"/>
+      <c r="A29" s="161"/>
+      <c r="B29" s="161"/>
       <c r="C29" s="58"/>
       <c r="D29" s="59"/>
       <c r="E29" s="90"/>
@@ -45866,10 +45863,10 @@
       <c r="W29" s="77"/>
     </row>
     <row r="30" spans="1:23" ht="12" customHeight="1">
-      <c r="A30" s="162"/>
-      <c r="B30" s="162"/>
-      <c r="C30" s="167"/>
-      <c r="D30" s="184"/>
+      <c r="A30" s="161"/>
+      <c r="B30" s="161"/>
+      <c r="C30" s="173"/>
+      <c r="D30" s="174"/>
       <c r="E30" s="148"/>
       <c r="F30" s="68"/>
       <c r="G30" s="68"/>
@@ -45891,10 +45888,10 @@
       <c r="W30" s="74"/>
     </row>
     <row r="31" spans="1:23" ht="12" customHeight="1">
-      <c r="A31" s="162"/>
-      <c r="B31" s="162"/>
+      <c r="A31" s="161"/>
+      <c r="B31" s="161"/>
       <c r="C31" s="80"/>
-      <c r="D31" s="163"/>
+      <c r="D31" s="162"/>
       <c r="E31" s="149"/>
       <c r="F31" s="83"/>
       <c r="G31" s="83"/>
@@ -45916,10 +45913,10 @@
       <c r="W31" s="40"/>
     </row>
     <row r="32" spans="1:23" ht="12" customHeight="1">
-      <c r="A32" s="162"/>
-      <c r="B32" s="162"/>
+      <c r="A32" s="161"/>
+      <c r="B32" s="161"/>
       <c r="C32" s="80"/>
-      <c r="D32" s="163"/>
+      <c r="D32" s="162"/>
       <c r="E32" s="149"/>
       <c r="F32" s="83"/>
       <c r="G32" s="83"/>
@@ -45941,8 +45938,8 @@
       <c r="W32" s="30"/>
     </row>
     <row r="33" spans="1:23" ht="12" customHeight="1">
-      <c r="A33" s="162"/>
-      <c r="B33" s="162"/>
+      <c r="A33" s="161"/>
+      <c r="B33" s="161"/>
       <c r="C33" s="58"/>
       <c r="D33" s="59"/>
       <c r="E33" s="150"/>
@@ -45966,10 +45963,10 @@
       <c r="W33" s="77"/>
     </row>
     <row r="34" spans="1:23" ht="12" customHeight="1">
-      <c r="A34" s="162"/>
-      <c r="B34" s="162"/>
-      <c r="C34" s="167"/>
-      <c r="D34" s="184"/>
+      <c r="A34" s="161"/>
+      <c r="B34" s="161"/>
+      <c r="C34" s="173"/>
+      <c r="D34" s="174"/>
       <c r="E34" s="99"/>
       <c r="F34" s="100"/>
       <c r="G34" s="79"/>
@@ -45991,10 +45988,10 @@
       <c r="W34" s="105"/>
     </row>
     <row r="35" spans="1:23" ht="12" customHeight="1">
-      <c r="A35" s="162"/>
-      <c r="B35" s="162"/>
+      <c r="A35" s="161"/>
+      <c r="B35" s="161"/>
       <c r="C35" s="80"/>
-      <c r="D35" s="163"/>
+      <c r="D35" s="162"/>
       <c r="E35" s="96"/>
       <c r="F35" s="87"/>
       <c r="G35" s="87"/>
@@ -46016,10 +46013,10 @@
       <c r="W35" s="110"/>
     </row>
     <row r="36" spans="1:23" ht="12" customHeight="1">
-      <c r="A36" s="162"/>
-      <c r="B36" s="162"/>
+      <c r="A36" s="161"/>
+      <c r="B36" s="161"/>
       <c r="C36" s="80"/>
-      <c r="D36" s="163"/>
+      <c r="D36" s="162"/>
       <c r="E36" s="149"/>
       <c r="F36" s="83"/>
       <c r="G36" s="83"/>
@@ -46041,8 +46038,8 @@
       <c r="W36" s="30"/>
     </row>
     <row r="37" spans="1:23" ht="12" customHeight="1">
-      <c r="A37" s="162"/>
-      <c r="B37" s="162"/>
+      <c r="A37" s="161"/>
+      <c r="B37" s="161"/>
       <c r="C37" s="58"/>
       <c r="D37" s="59"/>
       <c r="E37" s="150"/>
@@ -46066,10 +46063,10 @@
       <c r="W37" s="113"/>
     </row>
     <row r="38" spans="1:23" ht="12" customHeight="1">
-      <c r="A38" s="162"/>
-      <c r="B38" s="162"/>
-      <c r="C38" s="167"/>
-      <c r="D38" s="184"/>
+      <c r="A38" s="161"/>
+      <c r="B38" s="161"/>
+      <c r="C38" s="173"/>
+      <c r="D38" s="174"/>
       <c r="E38" s="151"/>
       <c r="F38" s="56"/>
       <c r="G38" s="56"/>
@@ -46091,10 +46088,10 @@
       <c r="W38" s="74"/>
     </row>
     <row r="39" spans="1:23" ht="12" customHeight="1">
-      <c r="A39" s="162"/>
-      <c r="B39" s="162"/>
+      <c r="A39" s="161"/>
+      <c r="B39" s="161"/>
       <c r="C39" s="80"/>
-      <c r="D39" s="163"/>
+      <c r="D39" s="162"/>
       <c r="E39" s="152"/>
       <c r="F39" s="122"/>
       <c r="G39" s="122"/>
@@ -46116,10 +46113,10 @@
       <c r="W39" s="40"/>
     </row>
     <row r="40" spans="1:23" ht="12" customHeight="1">
-      <c r="A40" s="162"/>
-      <c r="B40" s="162"/>
+      <c r="A40" s="161"/>
+      <c r="B40" s="161"/>
       <c r="C40" s="80"/>
-      <c r="D40" s="163"/>
+      <c r="D40" s="162"/>
       <c r="E40" s="149"/>
       <c r="F40" s="83"/>
       <c r="G40" s="83"/>
@@ -46141,8 +46138,8 @@
       <c r="W40" s="30"/>
     </row>
     <row r="41" spans="1:23" ht="12" customHeight="1">
-      <c r="A41" s="162"/>
-      <c r="B41" s="162"/>
+      <c r="A41" s="161"/>
+      <c r="B41" s="161"/>
       <c r="C41" s="58"/>
       <c r="D41" s="59"/>
       <c r="E41" s="150"/>
@@ -46166,10 +46163,10 @@
       <c r="W41" s="77"/>
     </row>
     <row r="42" spans="1:23" ht="12" customHeight="1">
-      <c r="A42" s="162"/>
-      <c r="B42" s="162"/>
-      <c r="C42" s="167"/>
-      <c r="D42" s="184"/>
+      <c r="A42" s="161"/>
+      <c r="B42" s="161"/>
+      <c r="C42" s="173"/>
+      <c r="D42" s="174"/>
       <c r="E42" s="151"/>
       <c r="F42" s="56"/>
       <c r="G42" s="56"/>
@@ -46191,10 +46188,10 @@
       <c r="W42" s="74"/>
     </row>
     <row r="43" spans="1:23" ht="12" customHeight="1">
-      <c r="A43" s="162"/>
-      <c r="B43" s="162"/>
+      <c r="A43" s="161"/>
+      <c r="B43" s="161"/>
       <c r="C43" s="80"/>
-      <c r="D43" s="163"/>
+      <c r="D43" s="162"/>
       <c r="E43" s="152"/>
       <c r="F43" s="122"/>
       <c r="G43" s="122"/>
@@ -46216,10 +46213,10 @@
       <c r="W43" s="40"/>
     </row>
     <row r="44" spans="1:23" ht="12" customHeight="1">
-      <c r="A44" s="162"/>
-      <c r="B44" s="162"/>
+      <c r="A44" s="161"/>
+      <c r="B44" s="161"/>
       <c r="C44" s="80"/>
-      <c r="D44" s="163"/>
+      <c r="D44" s="162"/>
       <c r="E44" s="149"/>
       <c r="F44" s="83"/>
       <c r="G44" s="83"/>
@@ -46241,8 +46238,8 @@
       <c r="W44" s="30"/>
     </row>
     <row r="45" spans="1:23" ht="12" customHeight="1">
-      <c r="A45" s="162"/>
-      <c r="B45" s="162"/>
+      <c r="A45" s="161"/>
+      <c r="B45" s="161"/>
       <c r="C45" s="58"/>
       <c r="D45" s="59"/>
       <c r="E45" s="150"/>
@@ -46266,10 +46263,10 @@
       <c r="W45" s="77"/>
     </row>
     <row r="46" spans="1:23" ht="12" customHeight="1">
-      <c r="A46" s="162"/>
-      <c r="B46" s="162"/>
-      <c r="C46" s="167"/>
-      <c r="D46" s="184"/>
+      <c r="A46" s="161"/>
+      <c r="B46" s="161"/>
+      <c r="C46" s="173"/>
+      <c r="D46" s="174"/>
       <c r="E46" s="78"/>
       <c r="F46" s="116"/>
       <c r="G46" s="56"/>
@@ -46291,10 +46288,10 @@
       <c r="W46" s="74"/>
     </row>
     <row r="47" spans="1:23" ht="12" customHeight="1">
-      <c r="A47" s="162"/>
-      <c r="B47" s="162"/>
+      <c r="A47" s="161"/>
+      <c r="B47" s="161"/>
       <c r="C47" s="80"/>
-      <c r="D47" s="163"/>
+      <c r="D47" s="162"/>
       <c r="E47" s="81"/>
       <c r="F47" s="51"/>
       <c r="G47" s="122"/>
@@ -46316,10 +46313,10 @@
       <c r="W47" s="40"/>
     </row>
     <row r="48" spans="1:23" ht="12" customHeight="1">
-      <c r="A48" s="162"/>
-      <c r="B48" s="162"/>
+      <c r="A48" s="161"/>
+      <c r="B48" s="161"/>
       <c r="C48" s="80"/>
-      <c r="D48" s="163"/>
+      <c r="D48" s="162"/>
       <c r="E48" s="81"/>
       <c r="F48" s="51"/>
       <c r="G48" s="117"/>
@@ -46341,8 +46338,8 @@
       <c r="W48" s="30"/>
     </row>
     <row r="49" spans="1:23" ht="12" customHeight="1">
-      <c r="A49" s="162"/>
-      <c r="B49" s="162"/>
+      <c r="A49" s="161"/>
+      <c r="B49" s="161"/>
       <c r="C49" s="58"/>
       <c r="D49" s="59"/>
       <c r="E49" s="90"/>
@@ -46366,10 +46363,10 @@
       <c r="W49" s="77"/>
     </row>
     <row r="50" spans="1:23" ht="12" customHeight="1">
-      <c r="A50" s="162"/>
-      <c r="B50" s="162"/>
-      <c r="C50" s="167"/>
-      <c r="D50" s="184"/>
+      <c r="A50" s="161"/>
+      <c r="B50" s="161"/>
+      <c r="C50" s="173"/>
+      <c r="D50" s="174"/>
       <c r="E50" s="78"/>
       <c r="F50" s="116"/>
       <c r="G50" s="56"/>
@@ -46391,10 +46388,10 @@
       <c r="W50" s="74"/>
     </row>
     <row r="51" spans="1:23" ht="12" customHeight="1">
-      <c r="A51" s="162"/>
-      <c r="B51" s="162"/>
+      <c r="A51" s="161"/>
+      <c r="B51" s="161"/>
       <c r="C51" s="80"/>
-      <c r="D51" s="163"/>
+      <c r="D51" s="162"/>
       <c r="E51" s="81"/>
       <c r="F51" s="51"/>
       <c r="G51" s="122"/>
@@ -46416,10 +46413,10 @@
       <c r="W51" s="40"/>
     </row>
     <row r="52" spans="1:23" ht="12" customHeight="1">
-      <c r="A52" s="162"/>
-      <c r="B52" s="162"/>
+      <c r="A52" s="161"/>
+      <c r="B52" s="161"/>
       <c r="C52" s="80"/>
-      <c r="D52" s="163"/>
+      <c r="D52" s="162"/>
       <c r="E52" s="81"/>
       <c r="F52" s="51"/>
       <c r="G52" s="117"/>
@@ -46441,8 +46438,8 @@
       <c r="W52" s="30"/>
     </row>
     <row r="53" spans="1:23" ht="12" customHeight="1">
-      <c r="A53" s="162"/>
-      <c r="B53" s="162"/>
+      <c r="A53" s="161"/>
+      <c r="B53" s="161"/>
       <c r="C53" s="58"/>
       <c r="D53" s="59"/>
       <c r="E53" s="90"/>
@@ -46466,14 +46463,14 @@
       <c r="W53" s="123"/>
     </row>
     <row r="55" spans="1:23" ht="12" customHeight="1">
-      <c r="C55" s="186"/>
+      <c r="C55" s="169"/>
       <c r="D55" s="124"/>
       <c r="E55" s="124"/>
       <c r="F55" s="124"/>
       <c r="G55" s="124"/>
       <c r="H55" s="124"/>
       <c r="I55" s="124"/>
-      <c r="J55" s="187"/>
+      <c r="J55" s="170"/>
       <c r="K55" s="124"/>
       <c r="L55" s="124"/>
       <c r="M55" s="124"/>
@@ -46489,14 +46486,14 @@
       <c r="W55" s="124"/>
     </row>
     <row r="56" spans="1:23" ht="12" customHeight="1">
-      <c r="C56" s="188"/>
+      <c r="C56" s="171"/>
       <c r="D56" s="125"/>
       <c r="E56" s="125"/>
       <c r="F56" s="125"/>
       <c r="G56" s="125"/>
       <c r="H56" s="125"/>
       <c r="I56" s="125"/>
-      <c r="J56" s="189"/>
+      <c r="J56" s="172"/>
       <c r="K56" s="125"/>
       <c r="L56" s="125"/>
       <c r="M56" s="125"/>
@@ -46512,14 +46509,14 @@
       <c r="W56" s="126"/>
     </row>
     <row r="57" spans="1:23" ht="12" customHeight="1">
-      <c r="C57" s="188"/>
+      <c r="C57" s="171"/>
       <c r="D57" s="125"/>
       <c r="E57" s="125"/>
       <c r="F57" s="125"/>
       <c r="G57" s="125"/>
       <c r="H57" s="125"/>
       <c r="I57" s="125"/>
-      <c r="J57" s="189"/>
+      <c r="J57" s="172"/>
       <c r="K57" s="125"/>
       <c r="L57" s="125"/>
       <c r="M57" s="125"/>
@@ -46535,14 +46532,14 @@
       <c r="W57" s="126"/>
     </row>
     <row r="58" spans="1:23" ht="12" customHeight="1">
-      <c r="C58" s="188"/>
+      <c r="C58" s="171"/>
       <c r="D58" s="125"/>
       <c r="E58" s="125"/>
       <c r="F58" s="125"/>
       <c r="G58" s="125"/>
       <c r="H58" s="125"/>
       <c r="I58" s="125"/>
-      <c r="J58" s="189"/>
+      <c r="J58" s="172"/>
       <c r="K58" s="125"/>
       <c r="L58" s="125"/>
       <c r="M58" s="125"/>
@@ -46558,14 +46555,14 @@
       <c r="W58" s="126"/>
     </row>
     <row r="59" spans="1:23" ht="12" customHeight="1">
-      <c r="C59" s="188"/>
+      <c r="C59" s="171"/>
       <c r="D59" s="125"/>
       <c r="E59" s="125"/>
       <c r="F59" s="125"/>
       <c r="G59" s="125"/>
       <c r="H59" s="125"/>
       <c r="I59" s="125"/>
-      <c r="J59" s="189"/>
+      <c r="J59" s="172"/>
       <c r="K59" s="125"/>
       <c r="L59" s="125"/>
       <c r="M59" s="125"/>
@@ -46581,14 +46578,14 @@
       <c r="W59" s="126"/>
     </row>
     <row r="60" spans="1:23" ht="12" customHeight="1">
-      <c r="C60" s="188"/>
+      <c r="C60" s="171"/>
       <c r="D60" s="125"/>
       <c r="E60" s="125"/>
       <c r="F60" s="125"/>
       <c r="G60" s="125"/>
       <c r="H60" s="125"/>
       <c r="I60" s="125"/>
-      <c r="J60" s="189"/>
+      <c r="J60" s="172"/>
       <c r="K60" s="125"/>
       <c r="L60" s="125"/>
       <c r="M60" s="125"/>
@@ -46604,14 +46601,14 @@
       <c r="W60" s="126"/>
     </row>
     <row r="61" spans="1:23" ht="12" customHeight="1">
-      <c r="C61" s="188"/>
+      <c r="C61" s="171"/>
       <c r="D61" s="125"/>
       <c r="E61" s="125"/>
       <c r="F61" s="125"/>
       <c r="G61" s="125"/>
       <c r="H61" s="125"/>
       <c r="I61" s="125"/>
-      <c r="J61" s="189"/>
+      <c r="J61" s="172"/>
       <c r="K61" s="125"/>
       <c r="L61" s="125"/>
       <c r="M61" s="125"/>
@@ -46627,8 +46624,8 @@
       <c r="W61" s="126"/>
     </row>
     <row r="64" spans="1:23" ht="12" customHeight="1">
-      <c r="C64" s="167"/>
-      <c r="D64" s="184"/>
+      <c r="C64" s="173"/>
+      <c r="D64" s="174"/>
       <c r="E64" s="141"/>
       <c r="F64" s="142"/>
       <c r="G64" s="142"/>
@@ -46673,10 +46670,10 @@
       <c r="W65" s="30"/>
     </row>
     <row r="66" spans="1:23" ht="12" customHeight="1">
-      <c r="A66" s="162"/>
-      <c r="B66" s="162"/>
-      <c r="C66" s="167"/>
-      <c r="D66" s="184"/>
+      <c r="A66" s="161"/>
+      <c r="B66" s="161"/>
+      <c r="C66" s="173"/>
+      <c r="D66" s="174"/>
       <c r="E66" s="78"/>
       <c r="F66" s="68"/>
       <c r="G66" s="68"/>
@@ -46698,10 +46695,10 @@
       <c r="W66" s="57"/>
     </row>
     <row r="67" spans="1:23" ht="12" customHeight="1">
-      <c r="A67" s="162"/>
-      <c r="B67" s="162"/>
+      <c r="A67" s="161"/>
+      <c r="B67" s="161"/>
       <c r="C67" s="80"/>
-      <c r="D67" s="163"/>
+      <c r="D67" s="162"/>
       <c r="E67" s="81"/>
       <c r="F67" s="82"/>
       <c r="G67" s="83"/>
@@ -46723,10 +46720,10 @@
       <c r="W67" s="30"/>
     </row>
     <row r="68" spans="1:23" ht="12" customHeight="1">
-      <c r="A68" s="162"/>
-      <c r="B68" s="162"/>
+      <c r="A68" s="161"/>
+      <c r="B68" s="161"/>
       <c r="C68" s="80"/>
-      <c r="D68" s="163"/>
+      <c r="D68" s="162"/>
       <c r="E68" s="81"/>
       <c r="F68" s="82"/>
       <c r="G68" s="83"/>
@@ -46748,8 +46745,8 @@
       <c r="W68" s="77"/>
     </row>
     <row r="69" spans="1:23" ht="12" customHeight="1">
-      <c r="A69" s="162"/>
-      <c r="B69" s="162"/>
+      <c r="A69" s="161"/>
+      <c r="B69" s="161"/>
       <c r="C69" s="58"/>
       <c r="D69" s="59"/>
       <c r="E69" s="90"/>
@@ -46773,10 +46770,10 @@
       <c r="W69" s="30"/>
     </row>
     <row r="70" spans="1:23" ht="12" customHeight="1">
-      <c r="A70" s="162"/>
-      <c r="B70" s="162"/>
-      <c r="C70" s="167"/>
-      <c r="D70" s="184"/>
+      <c r="A70" s="161"/>
+      <c r="B70" s="161"/>
+      <c r="C70" s="173"/>
+      <c r="D70" s="174"/>
       <c r="E70" s="78"/>
       <c r="F70" s="68"/>
       <c r="G70" s="68"/>
@@ -46798,10 +46795,10 @@
       <c r="W70" s="57"/>
     </row>
     <row r="71" spans="1:23" ht="12" customHeight="1">
-      <c r="A71" s="162"/>
-      <c r="B71" s="162"/>
+      <c r="A71" s="161"/>
+      <c r="B71" s="161"/>
       <c r="C71" s="80"/>
-      <c r="D71" s="163"/>
+      <c r="D71" s="162"/>
       <c r="E71" s="81"/>
       <c r="F71" s="82"/>
       <c r="G71" s="83"/>
@@ -46823,10 +46820,10 @@
       <c r="W71" s="130"/>
     </row>
     <row r="72" spans="1:23" ht="12" customHeight="1">
-      <c r="A72" s="162"/>
-      <c r="B72" s="162"/>
+      <c r="A72" s="161"/>
+      <c r="B72" s="161"/>
       <c r="C72" s="80"/>
-      <c r="D72" s="163"/>
+      <c r="D72" s="162"/>
       <c r="E72" s="81"/>
       <c r="F72" s="82"/>
       <c r="G72" s="83"/>
@@ -46848,8 +46845,8 @@
       <c r="W72" s="77"/>
     </row>
     <row r="73" spans="1:23" ht="12" customHeight="1">
-      <c r="A73" s="162"/>
-      <c r="B73" s="162"/>
+      <c r="A73" s="161"/>
+      <c r="B73" s="161"/>
       <c r="C73" s="58"/>
       <c r="D73" s="59"/>
       <c r="E73" s="90"/>
@@ -46873,10 +46870,10 @@
       <c r="W73" s="30"/>
     </row>
     <row r="74" spans="1:23" ht="12" customHeight="1">
-      <c r="A74" s="162"/>
-      <c r="B74" s="162"/>
-      <c r="C74" s="167"/>
-      <c r="D74" s="184"/>
+      <c r="A74" s="161"/>
+      <c r="B74" s="161"/>
+      <c r="C74" s="173"/>
+      <c r="D74" s="174"/>
       <c r="E74" s="148"/>
       <c r="F74" s="68"/>
       <c r="G74" s="68"/>
@@ -46898,10 +46895,10 @@
       <c r="W74" s="57"/>
     </row>
     <row r="75" spans="1:23" ht="12" customHeight="1">
-      <c r="A75" s="162"/>
-      <c r="B75" s="162"/>
+      <c r="A75" s="161"/>
+      <c r="B75" s="161"/>
       <c r="C75" s="80"/>
-      <c r="D75" s="163"/>
+      <c r="D75" s="162"/>
       <c r="E75" s="149"/>
       <c r="F75" s="83"/>
       <c r="G75" s="83"/>
@@ -46923,10 +46920,10 @@
       <c r="W75" s="30"/>
     </row>
     <row r="76" spans="1:23" ht="12" customHeight="1">
-      <c r="A76" s="162"/>
-      <c r="B76" s="162"/>
+      <c r="A76" s="161"/>
+      <c r="B76" s="161"/>
       <c r="C76" s="80"/>
-      <c r="D76" s="163"/>
+      <c r="D76" s="162"/>
       <c r="E76" s="149"/>
       <c r="F76" s="83"/>
       <c r="G76" s="83"/>
@@ -46948,8 +46945,8 @@
       <c r="W76" s="77"/>
     </row>
     <row r="77" spans="1:23" ht="12" customHeight="1">
-      <c r="A77" s="162"/>
-      <c r="B77" s="162"/>
+      <c r="A77" s="161"/>
+      <c r="B77" s="161"/>
       <c r="C77" s="58"/>
       <c r="D77" s="59"/>
       <c r="E77" s="150"/>
@@ -46973,10 +46970,10 @@
       <c r="W77" s="30"/>
     </row>
     <row r="78" spans="1:23" ht="12" customHeight="1">
-      <c r="A78" s="162"/>
-      <c r="B78" s="162"/>
-      <c r="C78" s="167"/>
-      <c r="D78" s="184"/>
+      <c r="A78" s="161"/>
+      <c r="B78" s="161"/>
+      <c r="C78" s="173"/>
+      <c r="D78" s="174"/>
       <c r="E78" s="99"/>
       <c r="F78" s="100"/>
       <c r="G78" s="79"/>
@@ -46998,10 +46995,10 @@
       <c r="W78" s="105"/>
     </row>
     <row r="79" spans="1:23" ht="12" customHeight="1">
-      <c r="A79" s="162"/>
-      <c r="B79" s="162"/>
+      <c r="A79" s="161"/>
+      <c r="B79" s="161"/>
       <c r="C79" s="80"/>
-      <c r="D79" s="163"/>
+      <c r="D79" s="162"/>
       <c r="E79" s="149"/>
       <c r="F79" s="83"/>
       <c r="G79" s="83"/>
@@ -47023,10 +47020,10 @@
       <c r="W79" s="110"/>
     </row>
     <row r="80" spans="1:23" ht="12" customHeight="1">
-      <c r="A80" s="162"/>
-      <c r="B80" s="162"/>
+      <c r="A80" s="161"/>
+      <c r="B80" s="161"/>
       <c r="C80" s="80"/>
-      <c r="D80" s="163"/>
+      <c r="D80" s="162"/>
       <c r="E80" s="149"/>
       <c r="F80" s="83"/>
       <c r="G80" s="83"/>
@@ -47048,8 +47045,8 @@
       <c r="W80" s="77"/>
     </row>
     <row r="81" spans="1:23" ht="12" customHeight="1">
-      <c r="A81" s="162"/>
-      <c r="B81" s="162"/>
+      <c r="A81" s="161"/>
+      <c r="B81" s="161"/>
       <c r="C81" s="58"/>
       <c r="D81" s="59"/>
       <c r="E81" s="150"/>
@@ -47073,10 +47070,10 @@
       <c r="W81" s="113"/>
     </row>
     <row r="82" spans="1:23" ht="12" customHeight="1">
-      <c r="A82" s="162"/>
-      <c r="B82" s="162"/>
-      <c r="C82" s="167"/>
-      <c r="D82" s="184"/>
+      <c r="A82" s="161"/>
+      <c r="B82" s="161"/>
+      <c r="C82" s="173"/>
+      <c r="D82" s="174"/>
       <c r="E82" s="151"/>
       <c r="F82" s="56"/>
       <c r="G82" s="56"/>
@@ -47098,10 +47095,10 @@
       <c r="W82" s="57"/>
     </row>
     <row r="83" spans="1:23" ht="12" customHeight="1">
-      <c r="A83" s="162"/>
-      <c r="B83" s="162"/>
+      <c r="A83" s="161"/>
+      <c r="B83" s="161"/>
       <c r="C83" s="80"/>
-      <c r="D83" s="163"/>
+      <c r="D83" s="162"/>
       <c r="E83" s="152"/>
       <c r="F83" s="122"/>
       <c r="G83" s="122"/>
@@ -47123,10 +47120,10 @@
       <c r="W83" s="30"/>
     </row>
     <row r="84" spans="1:23" ht="12" customHeight="1">
-      <c r="A84" s="162"/>
-      <c r="B84" s="162"/>
+      <c r="A84" s="161"/>
+      <c r="B84" s="161"/>
       <c r="C84" s="80"/>
-      <c r="D84" s="163"/>
+      <c r="D84" s="162"/>
       <c r="E84" s="149"/>
       <c r="F84" s="83"/>
       <c r="G84" s="83"/>
@@ -47148,8 +47145,8 @@
       <c r="W84" s="77"/>
     </row>
     <row r="85" spans="1:23" ht="12" customHeight="1">
-      <c r="A85" s="162"/>
-      <c r="B85" s="162"/>
+      <c r="A85" s="161"/>
+      <c r="B85" s="161"/>
       <c r="C85" s="58"/>
       <c r="D85" s="59"/>
       <c r="E85" s="150"/>
@@ -47173,10 +47170,10 @@
       <c r="W85" s="30"/>
     </row>
     <row r="86" spans="1:23" ht="12" customHeight="1">
-      <c r="A86" s="162"/>
-      <c r="B86" s="162"/>
-      <c r="C86" s="167"/>
-      <c r="D86" s="184"/>
+      <c r="A86" s="161"/>
+      <c r="B86" s="161"/>
+      <c r="C86" s="173"/>
+      <c r="D86" s="174"/>
       <c r="E86" s="151"/>
       <c r="F86" s="56"/>
       <c r="G86" s="56"/>
@@ -47198,10 +47195,10 @@
       <c r="W86" s="57"/>
     </row>
     <row r="87" spans="1:23" ht="12" customHeight="1">
-      <c r="A87" s="162"/>
-      <c r="B87" s="162"/>
+      <c r="A87" s="161"/>
+      <c r="B87" s="161"/>
       <c r="C87" s="80"/>
-      <c r="D87" s="163"/>
+      <c r="D87" s="162"/>
       <c r="E87" s="152"/>
       <c r="F87" s="122"/>
       <c r="G87" s="122"/>
@@ -47223,10 +47220,10 @@
       <c r="W87" s="30"/>
     </row>
     <row r="88" spans="1:23" ht="12" customHeight="1">
-      <c r="A88" s="162"/>
-      <c r="B88" s="162"/>
+      <c r="A88" s="161"/>
+      <c r="B88" s="161"/>
       <c r="C88" s="80"/>
-      <c r="D88" s="163"/>
+      <c r="D88" s="162"/>
       <c r="E88" s="149"/>
       <c r="F88" s="83"/>
       <c r="G88" s="83"/>
@@ -47248,8 +47245,8 @@
       <c r="W88" s="77"/>
     </row>
     <row r="89" spans="1:23" ht="12" customHeight="1">
-      <c r="A89" s="162"/>
-      <c r="B89" s="162"/>
+      <c r="A89" s="161"/>
+      <c r="B89" s="161"/>
       <c r="C89" s="58"/>
       <c r="D89" s="59"/>
       <c r="E89" s="150"/>
@@ -47273,10 +47270,10 @@
       <c r="W89" s="30"/>
     </row>
     <row r="90" spans="1:23" ht="12" customHeight="1">
-      <c r="A90" s="162"/>
-      <c r="B90" s="162"/>
-      <c r="C90" s="167"/>
-      <c r="D90" s="184"/>
+      <c r="A90" s="161"/>
+      <c r="B90" s="161"/>
+      <c r="C90" s="173"/>
+      <c r="D90" s="174"/>
       <c r="E90" s="78"/>
       <c r="F90" s="116"/>
       <c r="G90" s="56"/>
@@ -47298,10 +47295,10 @@
       <c r="W90" s="57"/>
     </row>
     <row r="91" spans="1:23" ht="12" customHeight="1">
-      <c r="A91" s="162"/>
-      <c r="B91" s="162"/>
+      <c r="A91" s="161"/>
+      <c r="B91" s="161"/>
       <c r="C91" s="80"/>
-      <c r="D91" s="163"/>
+      <c r="D91" s="162"/>
       <c r="E91" s="81"/>
       <c r="F91" s="51"/>
       <c r="G91" s="122"/>
@@ -47323,10 +47320,10 @@
       <c r="W91" s="30"/>
     </row>
     <row r="92" spans="1:23" ht="12" customHeight="1">
-      <c r="A92" s="162"/>
-      <c r="B92" s="162"/>
+      <c r="A92" s="161"/>
+      <c r="B92" s="161"/>
       <c r="C92" s="80"/>
-      <c r="D92" s="163"/>
+      <c r="D92" s="162"/>
       <c r="E92" s="81"/>
       <c r="F92" s="51"/>
       <c r="G92" s="117"/>
@@ -47348,8 +47345,8 @@
       <c r="W92" s="77"/>
     </row>
     <row r="93" spans="1:23" ht="12" customHeight="1">
-      <c r="A93" s="162"/>
-      <c r="B93" s="162"/>
+      <c r="A93" s="161"/>
+      <c r="B93" s="161"/>
       <c r="C93" s="58"/>
       <c r="D93" s="59"/>
       <c r="E93" s="90"/>
@@ -47373,10 +47370,10 @@
       <c r="W93" s="30"/>
     </row>
     <row r="94" spans="1:23" ht="12" customHeight="1">
-      <c r="A94" s="162"/>
-      <c r="B94" s="162"/>
-      <c r="C94" s="167"/>
-      <c r="D94" s="184"/>
+      <c r="A94" s="161"/>
+      <c r="B94" s="161"/>
+      <c r="C94" s="173"/>
+      <c r="D94" s="174"/>
       <c r="E94" s="78"/>
       <c r="F94" s="116"/>
       <c r="G94" s="56"/>
@@ -47398,10 +47395,10 @@
       <c r="W94" s="137"/>
     </row>
     <row r="95" spans="1:23" ht="12" customHeight="1">
-      <c r="A95" s="162"/>
-      <c r="B95" s="162"/>
+      <c r="A95" s="161"/>
+      <c r="B95" s="161"/>
       <c r="C95" s="80"/>
-      <c r="D95" s="163"/>
+      <c r="D95" s="162"/>
       <c r="E95" s="81"/>
       <c r="F95" s="51"/>
       <c r="G95" s="122"/>
@@ -47423,10 +47420,10 @@
       <c r="W95" s="30"/>
     </row>
     <row r="96" spans="1:23" ht="12" customHeight="1">
-      <c r="A96" s="162"/>
-      <c r="B96" s="162"/>
+      <c r="A96" s="161"/>
+      <c r="B96" s="161"/>
       <c r="C96" s="80"/>
-      <c r="D96" s="163"/>
+      <c r="D96" s="162"/>
       <c r="E96" s="81"/>
       <c r="F96" s="51"/>
       <c r="G96" s="117"/>
@@ -47448,8 +47445,8 @@
       <c r="W96" s="77"/>
     </row>
     <row r="97" spans="1:23" ht="12" customHeight="1">
-      <c r="A97" s="162"/>
-      <c r="B97" s="163"/>
+      <c r="A97" s="161"/>
+      <c r="B97" s="162"/>
       <c r="C97" s="58"/>
       <c r="D97" s="59"/>
       <c r="E97" s="90"/>
@@ -47473,10 +47470,10 @@
       <c r="W97" s="138"/>
     </row>
     <row r="98" spans="1:23" ht="12" customHeight="1">
-      <c r="A98" s="162"/>
-      <c r="B98" s="162"/>
-      <c r="C98" s="167"/>
-      <c r="D98" s="184"/>
+      <c r="A98" s="161"/>
+      <c r="B98" s="161"/>
+      <c r="C98" s="173"/>
+      <c r="D98" s="174"/>
       <c r="E98" s="151"/>
       <c r="F98" s="56"/>
       <c r="G98" s="56"/>
@@ -47498,8 +47495,8 @@
       <c r="W98" s="74"/>
     </row>
     <row r="99" spans="1:23" ht="12" customHeight="1">
-      <c r="A99" s="162"/>
-      <c r="B99" s="162"/>
+      <c r="A99" s="161"/>
+      <c r="B99" s="161"/>
       <c r="C99" s="58"/>
       <c r="D99" s="59"/>
       <c r="E99" s="150"/>
@@ -47523,10 +47520,10 @@
       <c r="W99" s="123"/>
     </row>
     <row r="100" spans="1:23" ht="12" customHeight="1">
-      <c r="A100" s="162"/>
-      <c r="B100" s="162"/>
-      <c r="C100" s="167"/>
-      <c r="D100" s="184"/>
+      <c r="A100" s="161"/>
+      <c r="B100" s="161"/>
+      <c r="C100" s="173"/>
+      <c r="D100" s="174"/>
       <c r="E100" s="151"/>
       <c r="F100" s="56"/>
       <c r="G100" s="56"/>
@@ -47548,8 +47545,8 @@
       <c r="W100" s="137"/>
     </row>
     <row r="101" spans="1:23" ht="12" customHeight="1">
-      <c r="A101" s="162"/>
-      <c r="B101" s="162"/>
+      <c r="A101" s="161"/>
+      <c r="B101" s="161"/>
       <c r="C101" s="58"/>
       <c r="D101" s="59"/>
       <c r="E101" s="150"/>
@@ -47573,8 +47570,8 @@
       <c r="W101" s="138"/>
     </row>
     <row r="102" spans="1:23" ht="12" customHeight="1">
-      <c r="C102" s="167"/>
-      <c r="D102" s="184"/>
+      <c r="C102" s="173"/>
+      <c r="D102" s="174"/>
       <c r="E102" s="78"/>
       <c r="F102" s="116"/>
       <c r="G102" s="68"/>
@@ -47597,10 +47594,10 @@
     </row>
     <row r="103" spans="1:23" ht="12" customHeight="1">
       <c r="C103" s="80"/>
-      <c r="D103" s="163"/>
+      <c r="D103" s="162"/>
       <c r="E103" s="81"/>
       <c r="F103" s="51"/>
-      <c r="I103" s="166"/>
+      <c r="I103" s="165"/>
       <c r="J103" s="61"/>
       <c r="K103" s="42"/>
       <c r="L103" s="89"/>
@@ -47617,16 +47614,16 @@
       <c r="W103" s="30"/>
     </row>
     <row r="104" spans="1:23" ht="12" customHeight="1">
-      <c r="A104" s="162"/>
-      <c r="B104" s="162"/>
-      <c r="C104" s="167"/>
-      <c r="D104" s="184"/>
+      <c r="A104" s="161"/>
+      <c r="B104" s="161"/>
+      <c r="C104" s="173"/>
+      <c r="D104" s="174"/>
       <c r="E104" s="78"/>
       <c r="F104" s="116"/>
       <c r="G104" s="68"/>
       <c r="H104" s="68"/>
-      <c r="I104" s="165"/>
-      <c r="J104" s="161"/>
+      <c r="I104" s="164"/>
+      <c r="J104" s="71"/>
       <c r="K104" s="72"/>
       <c r="L104" s="73"/>
       <c r="M104" s="73"/>
@@ -47642,13 +47639,13 @@
       <c r="W104" s="74"/>
     </row>
     <row r="105" spans="1:23" ht="12" customHeight="1">
-      <c r="A105" s="162"/>
-      <c r="B105" s="162"/>
+      <c r="A105" s="161"/>
+      <c r="B105" s="161"/>
       <c r="C105" s="80"/>
-      <c r="D105" s="163"/>
+      <c r="D105" s="162"/>
       <c r="E105" s="81"/>
       <c r="F105" s="51"/>
-      <c r="I105" s="164"/>
+      <c r="I105" s="163"/>
       <c r="J105" s="85"/>
       <c r="K105" s="37"/>
       <c r="L105" s="86"/>
@@ -47666,6 +47663,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A2:W2"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A6:W6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="C102:D102"/>
     <mergeCell ref="C104:D104"/>
     <mergeCell ref="C15:D15"/>
@@ -47682,24 +47697,6 @@
     <mergeCell ref="C64:D64"/>
     <mergeCell ref="C66:D66"/>
     <mergeCell ref="C70:D70"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A2:W2"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A6:W6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C94:D94"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.31496062992125984"/>
